--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$15:$AH$314</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1280,9 +1280,6 @@
     <t>Unidad de medida: Tasas / porcentaje</t>
   </si>
   <si>
-    <t>Última actualización: enero de 2022</t>
-  </si>
-  <si>
     <t>Periodicidad: mensual</t>
   </si>
   <si>
@@ -1290,6 +1287,9 @@
   </si>
   <si>
     <t>Inflación mensual anual por producto genérico</t>
+  </si>
+  <si>
+    <t>Última actualización: febrero de 2022</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:AH314"/>
+  <dimension ref="A8:AI314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1824,37 +1824,37 @@
     <col min="34" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>412</v>
       </c>
@@ -1957,8 +1957,11 @@
       <c r="AH15" s="13">
         <v>44531</v>
       </c>
+      <c r="AI15" s="13">
+        <v>44562</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -2061,8 +2064,11 @@
       <c r="AH16" s="10">
         <v>0.31109110721561595</v>
       </c>
+      <c r="AI16" s="10">
+        <v>0.30406622078494783</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
@@ -2165,8 +2171,11 @@
       <c r="AH17" s="10">
         <v>-2.5603860686846946E-2</v>
       </c>
+      <c r="AI17" s="10">
+        <v>9.0777484458826052E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -2269,8 +2278,11 @@
       <c r="AH18" s="10">
         <v>5.5470526688975896E-2</v>
       </c>
+      <c r="AI18" s="10">
+        <v>5.9798177923451989E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
@@ -2373,8 +2385,11 @@
       <c r="AH19" s="10">
         <v>8.4955580795407437E-2</v>
       </c>
+      <c r="AI19" s="10">
+        <v>7.1861360718870504E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2477,8 +2492,11 @@
       <c r="AH20" s="10">
         <v>2.3489222478829896E-2</v>
       </c>
+      <c r="AI20" s="10">
+        <v>6.0747942264105736E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
@@ -2581,8 +2599,11 @@
       <c r="AH21" s="10">
         <v>5.9126143329235381E-2</v>
       </c>
+      <c r="AI21" s="10">
+        <v>8.3186061871864947E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
@@ -2685,8 +2706,11 @@
       <c r="AH22" s="10">
         <v>9.2811539371009388E-3</v>
       </c>
+      <c r="AI22" s="10">
+        <v>7.4150275697473234E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -2789,8 +2813,11 @@
       <c r="AH23" s="10">
         <v>0.11162951129184506</v>
       </c>
+      <c r="AI23" s="10">
+        <v>0.140436569126416</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -2893,8 +2920,11 @@
       <c r="AH24" s="10">
         <v>9.7645856386258556E-2</v>
       </c>
+      <c r="AI24" s="10">
+        <v>0.13856332862949228</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -2997,8 +3027,11 @@
       <c r="AH25" s="10">
         <v>0.26039839803156828</v>
       </c>
+      <c r="AI25" s="10">
+        <v>0.37402719501366732</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
@@ -3101,8 +3134,11 @@
       <c r="AH26" s="10">
         <v>0.18830207078001515</v>
       </c>
+      <c r="AI26" s="10">
+        <v>0.19402301328518679</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -3205,8 +3241,11 @@
       <c r="AH27" s="10">
         <v>0.21897406004080433</v>
       </c>
+      <c r="AI27" s="10">
+        <v>0.19975540154912363</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -3309,8 +3348,11 @@
       <c r="AH28" s="10">
         <v>0.10386010540004098</v>
       </c>
+      <c r="AI28" s="10">
+        <v>9.0376106194690164E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
@@ -3413,8 +3455,11 @@
       <c r="AH29" s="10">
         <v>6.6227272356496503E-2</v>
       </c>
+      <c r="AI29" s="10">
+        <v>6.5511016553035928E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
@@ -3517,8 +3562,11 @@
       <c r="AH30" s="10">
         <v>1.0952407836052558E-2</v>
       </c>
+      <c r="AI30" s="10">
+        <v>3.527762198541784E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
@@ -3621,8 +3669,11 @@
       <c r="AH31" s="10">
         <v>2.6135050197254817E-2</v>
       </c>
+      <c r="AI31" s="10">
+        <v>4.3793793793793778E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
@@ -3725,8 +3776,11 @@
       <c r="AH32" s="10">
         <v>0.14993755222700433</v>
       </c>
+      <c r="AI32" s="10">
+        <v>0.15456863008184607</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -3829,8 +3883,11 @@
       <c r="AH33" s="10">
         <v>0.46650663466026532</v>
       </c>
+      <c r="AI33" s="10">
+        <v>0.70933194477672834</v>
+      </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -3933,8 +3990,11 @@
       <c r="AH34" s="10">
         <v>-3.7545773029183716E-2</v>
       </c>
+      <c r="AI34" s="10">
+        <v>-1.1108961336300016E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
@@ -4037,8 +4097,11 @@
       <c r="AH35" s="10">
         <v>0.14491596181072341</v>
       </c>
+      <c r="AI35" s="10">
+        <v>0.11520517020052234</v>
+      </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -4141,8 +4204,11 @@
       <c r="AH36" s="10">
         <v>0.7934760062408126</v>
       </c>
+      <c r="AI36" s="10">
+        <v>1.6256706107150731</v>
+      </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
@@ -4245,8 +4311,11 @@
       <c r="AH37" s="10">
         <v>0.27371566265060232</v>
       </c>
+      <c r="AI37" s="10">
+        <v>0.27460311488977518</v>
+      </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -4349,8 +4418,11 @@
       <c r="AH38" s="10">
         <v>0.329792267655723</v>
       </c>
+      <c r="AI38" s="10">
+        <v>0.27568267749614916</v>
+      </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
@@ -4453,8 +4525,11 @@
       <c r="AH39" s="10">
         <v>0.15262800994561809</v>
       </c>
+      <c r="AI39" s="10">
+        <v>0.11692894224529526</v>
+      </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
@@ -4557,8 +4632,11 @@
       <c r="AH40" s="10">
         <v>0.25625952536468533</v>
       </c>
+      <c r="AI40" s="10">
+        <v>0.19912880110396181</v>
+      </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
@@ -4661,8 +4739,11 @@
       <c r="AH41" s="10">
         <v>0.23786587625046307</v>
       </c>
+      <c r="AI41" s="10">
+        <v>0.23023541024797334</v>
+      </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -4765,8 +4846,11 @@
       <c r="AH42" s="10">
         <v>0.13597231756869577</v>
       </c>
+      <c r="AI42" s="10">
+        <v>0.13552391926550955</v>
+      </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
@@ -4869,8 +4953,11 @@
       <c r="AH43" s="10">
         <v>8.6295388910939685E-2</v>
       </c>
+      <c r="AI43" s="10">
+        <v>1.1371551221728282E-4</v>
+      </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
@@ -4973,8 +5060,11 @@
       <c r="AH44" s="10">
         <v>0.16507684378617249</v>
       </c>
+      <c r="AI44" s="10">
+        <v>0.19564503261532673</v>
+      </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -5077,8 +5167,11 @@
       <c r="AH45" s="10">
         <v>0.2156150265690191</v>
       </c>
+      <c r="AI45" s="10">
+        <v>0.16939022959283467</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -5181,8 +5274,11 @@
       <c r="AH46" s="10">
         <v>8.9843689365599166E-2</v>
       </c>
+      <c r="AI46" s="10">
+        <v>0.38006064885971824</v>
+      </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -5285,8 +5381,11 @@
       <c r="AH47" s="10">
         <v>9.7845419786352528E-2</v>
       </c>
+      <c r="AI47" s="10">
+        <v>9.768233317537578E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
@@ -5389,8 +5488,11 @@
       <c r="AH48" s="10">
         <v>0.12683952964371215</v>
       </c>
+      <c r="AI48" s="10">
+        <v>0.1519485320002818</v>
+      </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
@@ -5493,8 +5595,11 @@
       <c r="AH49" s="10">
         <v>1.4759705359036035E-2</v>
       </c>
+      <c r="AI49" s="10">
+        <v>6.9746926173015478E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -5597,8 +5702,11 @@
       <c r="AH50" s="10">
         <v>6.4909097019188788E-2</v>
       </c>
+      <c r="AI50" s="10">
+        <v>6.0718381729634618E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
@@ -5701,8 +5809,11 @@
       <c r="AH51" s="10">
         <v>0.11872635617020899</v>
       </c>
+      <c r="AI51" s="10">
+        <v>0.1043654893445638</v>
+      </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
@@ -5805,8 +5916,11 @@
       <c r="AH52" s="10">
         <v>-1.9288305547629725E-2</v>
       </c>
+      <c r="AI52" s="10">
+        <v>5.0787948068915512E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
@@ -5909,8 +6023,11 @@
       <c r="AH53" s="10">
         <v>8.2233397093571581E-2</v>
       </c>
+      <c r="AI53" s="10">
+        <v>0.12009980450663638</v>
+      </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -6013,8 +6130,11 @@
       <c r="AH54" s="10">
         <v>8.0181085624327242E-2</v>
       </c>
+      <c r="AI54" s="10">
+        <v>4.5506776018595652E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>0</v>
       </c>
@@ -6117,8 +6237,11 @@
       <c r="AH55" s="10">
         <v>0.25944919471129424</v>
       </c>
+      <c r="AI55" s="10">
+        <v>0.27941912421805171</v>
+      </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>0</v>
       </c>
@@ -6221,8 +6344,11 @@
       <c r="AH56" s="10">
         <v>0.48418251626962361</v>
       </c>
+      <c r="AI56" s="10">
+        <v>0.88438216111404899</v>
+      </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>0</v>
       </c>
@@ -6325,8 +6451,11 @@
       <c r="AH57" s="10">
         <v>-0.11604215540681118</v>
       </c>
+      <c r="AI57" s="10">
+        <v>-0.1205521941416744</v>
+      </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>0</v>
       </c>
@@ -6429,8 +6558,11 @@
       <c r="AH58" s="10">
         <v>0.78577005152761159</v>
       </c>
+      <c r="AI58" s="10">
+        <v>0.75436214271165736</v>
+      </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -6533,8 +6665,11 @@
       <c r="AH59" s="10">
         <v>1.0216829281249447</v>
       </c>
+      <c r="AI59" s="10">
+        <v>0.65113063811229344</v>
+      </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>0</v>
       </c>
@@ -6637,8 +6772,11 @@
       <c r="AH60" s="10">
         <v>0.23914004349286611</v>
       </c>
+      <c r="AI60" s="10">
+        <v>0.38613281953397927</v>
+      </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>0</v>
       </c>
@@ -6741,8 +6879,11 @@
       <c r="AH61" s="10">
         <v>0.4678187906547091</v>
       </c>
+      <c r="AI61" s="10">
+        <v>-9.9265599563926665E-2</v>
+      </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -6845,8 +6986,11 @@
       <c r="AH62" s="10">
         <v>0.18617657027668266</v>
       </c>
+      <c r="AI62" s="10">
+        <v>0.20759285356234236</v>
+      </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>0</v>
       </c>
@@ -6949,8 +7093,11 @@
       <c r="AH63" s="10">
         <v>0.14231863442389758</v>
       </c>
+      <c r="AI63" s="10">
+        <v>-7.4152319966407698E-2</v>
+      </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>0</v>
       </c>
@@ -7053,8 +7200,11 @@
       <c r="AH64" s="10">
         <v>0.14556367054740038</v>
       </c>
+      <c r="AI64" s="10">
+        <v>0.17663642686951508</v>
+      </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>0</v>
       </c>
@@ -7157,8 +7307,11 @@
       <c r="AH65" s="10">
         <v>0.43064362327818428</v>
       </c>
+      <c r="AI65" s="10">
+        <v>0.21610790734043617</v>
+      </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
@@ -7261,8 +7414,11 @@
       <c r="AH66" s="10">
         <v>2.5174255670794343E-2</v>
       </c>
+      <c r="AI66" s="10">
+        <v>-2.3865606863993083E-2</v>
+      </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>0</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="AH67" s="10">
         <v>2.8881866162768111E-2</v>
       </c>
+      <c r="AI67" s="10">
+        <v>5.4264831238551192E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -7469,8 +7628,11 @@
       <c r="AH68" s="10">
         <v>1.2368855435607933</v>
       </c>
+      <c r="AI68" s="10">
+        <v>0.71224411612838745</v>
+      </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -7573,8 +7735,11 @@
       <c r="AH69" s="10">
         <v>-6.1882484226790879E-2</v>
       </c>
+      <c r="AI69" s="10">
+        <v>-7.7561892823566292E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -7677,8 +7842,11 @@
       <c r="AH70" s="10">
         <v>2.5617784246915187E-2</v>
       </c>
+      <c r="AI70" s="10">
+        <v>2.7061728395061824E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>0</v>
       </c>
@@ -7781,8 +7949,11 @@
       <c r="AH71" s="10">
         <v>-0.1351646341463415</v>
       </c>
+      <c r="AI71" s="10">
+        <v>-0.20173740182588062</v>
+      </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
@@ -7885,8 +8056,11 @@
       <c r="AH72" s="10">
         <v>8.5359047784598685E-2</v>
       </c>
+      <c r="AI72" s="10">
+        <v>0.14375196636444243</v>
+      </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -7989,8 +8163,11 @@
       <c r="AH73" s="10">
         <v>7.2850187115206522E-2</v>
       </c>
+      <c r="AI73" s="10">
+        <v>7.9663962920046183E-2</v>
+      </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -8093,8 +8270,11 @@
       <c r="AH74" s="10">
         <v>0.13453471709583575</v>
       </c>
+      <c r="AI74" s="10">
+        <v>0.13970931337815196</v>
+      </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
@@ -8197,8 +8377,11 @@
       <c r="AH75" s="10">
         <v>6.1076318150188103E-2</v>
       </c>
+      <c r="AI75" s="10">
+        <v>8.0776355675311606E-2</v>
+      </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
@@ -8301,8 +8484,11 @@
       <c r="AH76" s="10">
         <v>2.9238555920570342E-2</v>
       </c>
+      <c r="AI76" s="10">
+        <v>4.7048104025273929E-2</v>
+      </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>0</v>
       </c>
@@ -8405,8 +8591,11 @@
       <c r="AH77" s="10">
         <v>6.276605090607057E-2</v>
       </c>
+      <c r="AI77" s="10">
+        <v>6.0965162764134773E-2</v>
+      </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
@@ -8509,8 +8698,11 @@
       <c r="AH78" s="10">
         <v>7.0240835537843216E-2</v>
       </c>
+      <c r="AI78" s="10">
+        <v>6.6830433182405669E-2</v>
+      </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>0</v>
       </c>
@@ -8613,8 +8805,11 @@
       <c r="AH79" s="10">
         <v>2.9687741669387702E-2</v>
       </c>
+      <c r="AI79" s="10">
+        <v>2.1497185899877147E-2</v>
+      </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>0</v>
       </c>
@@ -8717,8 +8912,11 @@
       <c r="AH80" s="10">
         <v>7.1192809627786513E-2</v>
       </c>
+      <c r="AI80" s="10">
+        <v>7.0608133693484509E-2</v>
+      </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>0</v>
       </c>
@@ -8821,8 +9019,11 @@
       <c r="AH81" s="10">
         <v>5.8590315677720106E-2</v>
       </c>
+      <c r="AI81" s="10">
+        <v>4.1049820035504281E-2</v>
+      </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>0</v>
       </c>
@@ -8925,8 +9126,11 @@
       <c r="AH82" s="10">
         <v>6.0146033905813523E-2</v>
       </c>
+      <c r="AI82" s="10">
+        <v>0.11884809405470564</v>
+      </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>0</v>
       </c>
@@ -9029,8 +9233,11 @@
       <c r="AH83" s="10">
         <v>3.124694185113408E-2</v>
       </c>
+      <c r="AI83" s="10">
+        <v>3.2609014972727834E-2</v>
+      </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>0</v>
       </c>
@@ -9133,8 +9340,11 @@
       <c r="AH84" s="10">
         <v>0.10950737370567931</v>
       </c>
+      <c r="AI84" s="10">
+        <v>0.11106220657276999</v>
+      </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>0</v>
       </c>
@@ -9237,8 +9447,11 @@
       <c r="AH85" s="10">
         <v>6.3334256206320827E-2</v>
       </c>
+      <c r="AI85" s="10">
+        <v>8.1472515547393431E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
@@ -9341,8 +9554,11 @@
       <c r="AH86" s="10">
         <v>5.0200488145048849E-2</v>
       </c>
+      <c r="AI86" s="10">
+        <v>3.5026373496118035E-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -9445,8 +9661,11 @@
       <c r="AH87" s="10">
         <v>9.6879635698761568E-2</v>
       </c>
+      <c r="AI87" s="10">
+        <v>9.7733543221787622E-2</v>
+      </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>0</v>
       </c>
@@ -9549,8 +9768,11 @@
       <c r="AH88" s="10">
         <v>8.1946421638410705E-2</v>
       </c>
+      <c r="AI88" s="10">
+        <v>0.10992378205788444</v>
+      </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -9653,8 +9875,11 @@
       <c r="AH89" s="10">
         <v>8.2252610948769789E-2</v>
       </c>
+      <c r="AI89" s="10">
+        <v>8.7811236667576731E-2</v>
+      </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>0</v>
       </c>
@@ -9757,8 +9982,11 @@
       <c r="AH90" s="10">
         <v>0.10748394113448678</v>
       </c>
+      <c r="AI90" s="10">
+        <v>2.9538405701464931E-2</v>
+      </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -9861,8 +10089,11 @@
       <c r="AH91" s="10">
         <v>9.734743411927882E-2</v>
       </c>
+      <c r="AI91" s="10">
+        <v>9.7236481498765626E-2</v>
+      </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>0</v>
       </c>
@@ -9965,8 +10196,11 @@
       <c r="AH92" s="10">
         <v>1.4538964077148275E-2</v>
       </c>
+      <c r="AI92" s="10">
+        <v>4.7564798869607516E-2</v>
+      </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
@@ -10069,8 +10303,11 @@
       <c r="AH93" s="10">
         <v>0.10453675023605924</v>
       </c>
+      <c r="AI93" s="10">
+        <v>9.0891703686960534E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>0</v>
       </c>
@@ -10173,8 +10410,11 @@
       <c r="AH94" s="10">
         <v>1.5766438303572272E-2</v>
       </c>
+      <c r="AI94" s="10">
+        <v>2.2922611549568428E-2</v>
+      </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>0</v>
       </c>
@@ -10277,8 +10517,11 @@
       <c r="AH95" s="10">
         <v>5.2873941287723047E-2</v>
       </c>
+      <c r="AI95" s="10">
+        <v>6.7070347943632758E-2</v>
+      </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
@@ -10381,8 +10624,11 @@
       <c r="AH96" s="10">
         <v>7.4267417203879749E-2</v>
       </c>
+      <c r="AI96" s="10">
+        <v>6.094159553733447E-2</v>
+      </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>0</v>
       </c>
@@ -10485,8 +10731,11 @@
       <c r="AH97" s="10">
         <v>9.3382791847872459E-2</v>
       </c>
+      <c r="AI97" s="10">
+        <v>7.8668304545112644E-2</v>
+      </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>0</v>
       </c>
@@ -10589,8 +10838,11 @@
       <c r="AH98" s="10">
         <v>4.4910042014102869E-2</v>
       </c>
+      <c r="AI98" s="10">
+        <v>6.6360294117647101E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>0</v>
       </c>
@@ -10693,8 +10945,11 @@
       <c r="AH99" s="10">
         <v>7.5178997613364995E-2</v>
       </c>
+      <c r="AI99" s="10">
+        <v>4.8281868827135144E-2</v>
+      </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>0</v>
       </c>
@@ -10797,8 +11052,11 @@
       <c r="AH100" s="10">
         <v>8.3160395049381108E-2</v>
       </c>
+      <c r="AI100" s="10">
+        <v>8.4317227238151826E-2</v>
+      </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>0</v>
       </c>
@@ -10901,8 +11159,11 @@
       <c r="AH101" s="10">
         <v>-8.3342386962773629E-2</v>
       </c>
+      <c r="AI101" s="10">
+        <v>-4.5105621794830686E-2</v>
+      </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -11005,8 +11266,11 @@
       <c r="AH102" s="10">
         <v>6.0805463804018745E-2</v>
       </c>
+      <c r="AI102" s="10">
+        <v>9.051064602297787E-2</v>
+      </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>0</v>
       </c>
@@ -11109,8 +11373,11 @@
       <c r="AH103" s="10">
         <v>8.8665374411562414E-2</v>
       </c>
+      <c r="AI103" s="10">
+        <v>9.3107916332448859E-2</v>
+      </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
@@ -11213,8 +11480,11 @@
       <c r="AH104" s="10">
         <v>9.9461967520608097E-2</v>
       </c>
+      <c r="AI104" s="10">
+        <v>0.14260904684975761</v>
+      </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
@@ -11317,8 +11587,11 @@
       <c r="AH105" s="10">
         <v>3.3409105461996491E-2</v>
       </c>
+      <c r="AI105" s="10">
+        <v>4.2079999999999895E-2</v>
+      </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
@@ -11421,8 +11694,11 @@
       <c r="AH106" s="10">
         <v>9.5081996821268611E-2</v>
       </c>
+      <c r="AI106" s="10">
+        <v>9.5604060549537184E-2</v>
+      </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>0</v>
       </c>
@@ -11525,8 +11801,11 @@
       <c r="AH107" s="10">
         <v>0.18138309124241991</v>
       </c>
+      <c r="AI107" s="10">
+        <v>0.17345240688303187</v>
+      </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -11629,8 +11908,11 @@
       <c r="AH108" s="10">
         <v>9.3557758031442173E-2</v>
       </c>
+      <c r="AI108" s="10">
+        <v>9.3467277143509886E-2</v>
+      </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -11733,8 +12015,11 @@
       <c r="AH109" s="10">
         <v>0.19401801664103324</v>
       </c>
+      <c r="AI109" s="10">
+        <v>0.15149019500187588</v>
+      </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>0</v>
       </c>
@@ -11837,8 +12122,11 @@
       <c r="AH110" s="10">
         <v>0.12031881413061685</v>
       </c>
+      <c r="AI110" s="10">
+        <v>0.12635860692061529</v>
+      </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>0</v>
       </c>
@@ -11941,8 +12229,11 @@
       <c r="AH111" s="10">
         <v>2.8320243580307825E-2</v>
       </c>
+      <c r="AI111" s="10">
+        <v>5.6714498581372119E-2</v>
+      </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>0</v>
       </c>
@@ -12045,8 +12336,11 @@
       <c r="AH112" s="10">
         <v>0.1241388494318183</v>
       </c>
+      <c r="AI112" s="10">
+        <v>0.1067140040794381</v>
+      </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>0</v>
       </c>
@@ -12149,8 +12443,11 @@
       <c r="AH113" s="10">
         <v>-1.6629923446803363E-2</v>
       </c>
+      <c r="AI113" s="10">
+        <v>-1.4949733474554305E-2</v>
+      </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>0</v>
       </c>
@@ -12253,8 +12550,11 @@
       <c r="AH114" s="10">
         <v>0.1565674766611751</v>
       </c>
+      <c r="AI114" s="10">
+        <v>0.1458160242369313</v>
+      </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>0</v>
       </c>
@@ -12357,8 +12657,11 @@
       <c r="AH115" s="10">
         <v>0.18796430492129046</v>
       </c>
+      <c r="AI115" s="10">
+        <v>0.19598518948744026</v>
+      </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
@@ -12461,8 +12764,11 @@
       <c r="AH116" s="10">
         <v>9.0030481683611052E-2</v>
       </c>
+      <c r="AI116" s="10">
+        <v>7.945908597374407E-2</v>
+      </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
@@ -12565,8 +12871,11 @@
       <c r="AH117" s="10">
         <v>0.1424786401119349</v>
       </c>
+      <c r="AI117" s="10">
+        <v>0.21609527606139123</v>
+      </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -12669,8 +12978,11 @@
       <c r="AH118" s="10">
         <v>0.22404259233208168</v>
       </c>
+      <c r="AI118" s="10">
+        <v>0.20988242448814121</v>
+      </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>0</v>
       </c>
@@ -12773,8 +13085,11 @@
       <c r="AH119" s="10">
         <v>0.12050607981571515</v>
       </c>
+      <c r="AI119" s="10">
+        <v>0.16172406462585021</v>
+      </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>0</v>
       </c>
@@ -12877,8 +13192,11 @@
       <c r="AH120" s="10">
         <v>8.6281793324046729E-2</v>
       </c>
+      <c r="AI120" s="10">
+        <v>3.6925623052959544E-2</v>
+      </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
@@ -12981,8 +13299,11 @@
       <c r="AH121" s="10">
         <v>0.10389176389711086</v>
       </c>
+      <c r="AI121" s="10">
+        <v>0.12303167464023446</v>
+      </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>0</v>
       </c>
@@ -13085,8 +13406,11 @@
       <c r="AH122" s="10">
         <v>1.272699318379833E-2</v>
       </c>
+      <c r="AI122" s="10">
+        <v>2.6520433566313839E-2</v>
+      </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
@@ -13189,8 +13513,11 @@
       <c r="AH123" s="10">
         <v>3.6416469220796666E-2</v>
       </c>
+      <c r="AI123" s="10">
+        <v>3.6855102807752171E-2</v>
+      </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>0</v>
       </c>
@@ -13293,8 +13620,11 @@
       <c r="AH124" s="10">
         <v>-2.8069984193600517E-3</v>
       </c>
+      <c r="AI124" s="10">
+        <v>1.308131579427485E-2</v>
+      </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>0</v>
       </c>
@@ -13397,8 +13727,11 @@
       <c r="AH125" s="10">
         <v>6.6655694535879828E-3</v>
       </c>
+      <c r="AI125" s="10">
+        <v>-4.1604448792544102E-2</v>
+      </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>0</v>
       </c>
@@ -13501,8 +13834,11 @@
       <c r="AH126" s="10">
         <v>4.3509318265727126E-2</v>
       </c>
+      <c r="AI126" s="10">
+        <v>5.4403397708149726E-2</v>
+      </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -13605,8 +13941,11 @@
       <c r="AH127" s="10">
         <v>3.5539296284117006E-2</v>
       </c>
+      <c r="AI127" s="10">
+        <v>6.3324131211432322E-2</v>
+      </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>0</v>
       </c>
@@ -13709,8 +14048,11 @@
       <c r="AH128" s="10">
         <v>3.929691180531858E-2</v>
       </c>
+      <c r="AI128" s="10">
+        <v>6.0249045169028737E-2</v>
+      </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>147</v>
       </c>
@@ -13813,8 +14155,11 @@
       <c r="AH129" s="10">
         <v>5.4653600507044819E-2</v>
       </c>
+      <c r="AI129" s="10">
+        <v>5.8810351712785813E-2</v>
+      </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>147</v>
       </c>
@@ -13917,8 +14262,11 @@
       <c r="AH130" s="10">
         <v>4.5723772772144011E-2</v>
       </c>
+      <c r="AI130" s="10">
+        <v>5.5301433481725004E-2</v>
+      </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>147</v>
       </c>
@@ -14021,8 +14369,11 @@
       <c r="AH131" s="10">
         <v>3.9408466726253311E-2</v>
       </c>
+      <c r="AI131" s="10">
+        <v>5.5670400895492689E-2</v>
+      </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>147</v>
       </c>
@@ -14125,8 +14476,11 @@
       <c r="AH132" s="10">
         <v>1.7282246419587199E-2</v>
       </c>
+      <c r="AI132" s="10">
+        <v>1.7282246419587199E-2</v>
+      </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>147</v>
       </c>
@@ -14229,8 +14583,11 @@
       <c r="AH133" s="10">
         <v>4.3287676310863166E-2</v>
       </c>
+      <c r="AI133" s="10">
+        <v>4.3287676310863166E-2</v>
+      </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>147</v>
       </c>
@@ -14333,8 +14690,11 @@
       <c r="AH134" s="10">
         <v>2.0827619157162802E-2</v>
       </c>
+      <c r="AI134" s="10">
+        <v>2.0827619157162802E-2</v>
+      </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>147</v>
       </c>
@@ -14437,8 +14797,11 @@
       <c r="AH135" s="10">
         <v>4.4741280902322433E-2</v>
       </c>
+      <c r="AI135" s="10">
+        <v>4.4741280902322433E-2</v>
+      </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>147</v>
       </c>
@@ -14541,8 +14904,11 @@
       <c r="AH136" s="10">
         <v>3.4548695230843807E-2</v>
       </c>
+      <c r="AI136" s="10">
+        <v>3.4548695230843807E-2</v>
+      </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>147</v>
       </c>
@@ -14645,8 +15011,11 @@
       <c r="AH137" s="10">
         <v>2.382803453865745E-2</v>
       </c>
+      <c r="AI137" s="10">
+        <v>2.382803453865745E-2</v>
+      </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>147</v>
       </c>
@@ -14749,8 +15118,11 @@
       <c r="AH138" s="10">
         <v>1.3508958665957138E-2</v>
       </c>
+      <c r="AI138" s="10">
+        <v>1.3508958665957138E-2</v>
+      </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>147</v>
       </c>
@@ -14853,8 +15225,11 @@
       <c r="AH139" s="10">
         <v>2.2342682905083677E-2</v>
       </c>
+      <c r="AI139" s="10">
+        <v>2.5320518535689285E-2</v>
+      </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>147</v>
       </c>
@@ -14957,8 +15332,11 @@
       <c r="AH140" s="10">
         <v>3.3892416332983011E-2</v>
       </c>
+      <c r="AI140" s="10">
+        <v>5.3865345299559886E-2</v>
+      </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>147</v>
       </c>
@@ -15061,8 +15439,11 @@
       <c r="AH141" s="10">
         <v>-4.2529989094874932E-3</v>
       </c>
+      <c r="AI141" s="10">
+        <v>-5.4160476812657787E-2</v>
+      </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>147</v>
       </c>
@@ -15165,8 +15546,11 @@
       <c r="AH142" s="10">
         <v>-2.4783207091365833E-2</v>
       </c>
+      <c r="AI142" s="10">
+        <v>-1.6687232483707959E-2</v>
+      </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>147</v>
       </c>
@@ -15269,8 +15653,11 @@
       <c r="AH143" s="10">
         <v>-1.6164561407242761E-2</v>
       </c>
+      <c r="AI143" s="10">
+        <v>-4.7780545634622862E-2</v>
+      </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>147</v>
       </c>
@@ -15373,8 +15760,11 @@
       <c r="AH144" s="10">
         <v>-1.6624375704849315E-2</v>
       </c>
+      <c r="AI144" s="10">
+        <v>8.7457648925676423E-2</v>
+      </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>147</v>
       </c>
@@ -15477,8 +15867,11 @@
       <c r="AH145" s="10">
         <v>-1.3414251122075727E-2</v>
       </c>
+      <c r="AI145" s="10">
+        <v>1.6677449500395403E-2</v>
+      </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>147</v>
       </c>
@@ -15581,8 +15974,11 @@
       <c r="AH146" s="10">
         <v>-0.25812464155993131</v>
       </c>
+      <c r="AI146" s="10">
+        <v>1.503844414292077E-3</v>
+      </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>147</v>
       </c>
@@ -15685,8 +16081,11 @@
       <c r="AH147" s="10">
         <v>0.14314956222764152</v>
       </c>
+      <c r="AI147" s="10">
+        <v>0.14314956222764152</v>
+      </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>147</v>
       </c>
@@ -15789,8 +16188,11 @@
       <c r="AH148" s="10">
         <v>1.8217046900822487E-2</v>
       </c>
+      <c r="AI148" s="10">
+        <v>1.8403106648986478E-2</v>
+      </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>147</v>
       </c>
@@ -15893,8 +16295,11 @@
       <c r="AH149" s="10">
         <v>8.4637889904127572E-2</v>
       </c>
+      <c r="AI149" s="10">
+        <v>7.746147355331523E-2</v>
+      </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>147</v>
       </c>
@@ -15997,8 +16402,11 @@
       <c r="AH150" s="10">
         <v>7.7521211470303886E-2</v>
       </c>
+      <c r="AI150" s="10">
+        <v>9.037579200349577E-2</v>
+      </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>147</v>
       </c>
@@ -16101,8 +16509,11 @@
       <c r="AH151" s="10">
         <v>0.17131803487201225</v>
       </c>
+      <c r="AI151" s="10">
+        <v>0.10871846234559079</v>
+      </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>147</v>
       </c>
@@ -16205,8 +16616,11 @@
       <c r="AH152" s="10">
         <v>4.6623521198513096E-2</v>
       </c>
+      <c r="AI152" s="10">
+        <v>5.4181289859994708E-2</v>
+      </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>147</v>
       </c>
@@ -16309,8 +16723,11 @@
       <c r="AH153" s="10">
         <v>6.3338208018262288E-2</v>
       </c>
+      <c r="AI153" s="10">
+        <v>6.6075388026607396E-3</v>
+      </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>147</v>
       </c>
@@ -16413,8 +16830,11 @@
       <c r="AH154" s="10">
         <v>0.13650853970063559</v>
       </c>
+      <c r="AI154" s="10">
+        <v>0.13724745075685618</v>
+      </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>147</v>
       </c>
@@ -16517,8 +16937,11 @@
       <c r="AH155" s="10">
         <v>4.2789598108747162E-2</v>
       </c>
+      <c r="AI155" s="10">
+        <v>6.7884500949268567E-2</v>
+      </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>147</v>
       </c>
@@ -16621,8 +17044,11 @@
       <c r="AH156" s="10">
         <v>3.8149342234847783E-3</v>
       </c>
+      <c r="AI156" s="10">
+        <v>-1.9636822142077293E-4</v>
+      </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>147</v>
       </c>
@@ -16725,8 +17151,11 @@
       <c r="AH157" s="10">
         <v>0</v>
       </c>
+      <c r="AI157" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>147</v>
       </c>
@@ -16829,8 +17258,11 @@
       <c r="AH158" s="10">
         <v>5.467372134038806E-2</v>
       </c>
+      <c r="AI158" s="10">
+        <v>-4.7375836562169038E-3</v>
+      </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>147</v>
       </c>
@@ -16933,8 +17365,11 @@
       <c r="AH159" s="10">
         <v>2.9243656288567621E-2</v>
       </c>
+      <c r="AI159" s="10">
+        <v>2.9243656288567621E-2</v>
+      </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>190</v>
       </c>
@@ -17037,8 +17472,11 @@
       <c r="AH160" s="10">
         <v>0.1855164454702829</v>
       </c>
+      <c r="AI160" s="10">
+        <v>0.2570583365117165</v>
+      </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -17141,8 +17579,11 @@
       <c r="AH161" s="10">
         <v>-1.3413762197762469E-2</v>
       </c>
+      <c r="AI161" s="10">
+        <v>1.3492882195172307E-2</v>
+      </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>190</v>
       </c>
@@ -17245,8 +17686,11 @@
       <c r="AH162" s="10">
         <v>5.9912749458683967E-2</v>
       </c>
+      <c r="AI162" s="10">
+        <v>5.2409513960703258E-2</v>
+      </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>190</v>
       </c>
@@ -17349,8 +17793,11 @@
       <c r="AH163" s="10">
         <v>0.1841665873640681</v>
       </c>
+      <c r="AI163" s="10">
+        <v>0.20290059884470657</v>
+      </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>190</v>
       </c>
@@ -17453,8 +17900,11 @@
       <c r="AH164" s="10">
         <v>5.9999180898554272E-2</v>
       </c>
+      <c r="AI164" s="10">
+        <v>6.2883536245200711E-2</v>
+      </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>190</v>
       </c>
@@ -17557,8 +18007,11 @@
       <c r="AH165" s="10">
         <v>3.4970985759937623E-2</v>
       </c>
+      <c r="AI165" s="10">
+        <v>6.3959493857675076E-2</v>
+      </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>190</v>
       </c>
@@ -17661,8 +18114,11 @@
       <c r="AH166" s="10">
         <v>2.8674429566522885E-2</v>
       </c>
+      <c r="AI166" s="10">
+        <v>2.1879406862954642E-3</v>
+      </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>190</v>
       </c>
@@ -17765,8 +18221,11 @@
       <c r="AH167" s="10">
         <v>1.0799535720894093E-2</v>
       </c>
+      <c r="AI167" s="10">
+        <v>5.7573519538069107E-2</v>
+      </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>190</v>
       </c>
@@ -17869,8 +18328,11 @@
       <c r="AH168" s="10">
         <v>7.5668868187542593E-2</v>
       </c>
+      <c r="AI168" s="10">
+        <v>9.1794603396138763E-2</v>
+      </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>190</v>
       </c>
@@ -17973,8 +18435,11 @@
       <c r="AH169" s="10">
         <v>2.3843694957270456E-2</v>
       </c>
+      <c r="AI169" s="10">
+        <v>9.360655922587835E-4</v>
+      </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>190</v>
       </c>
@@ -18077,8 +18542,11 @@
       <c r="AH170" s="10">
         <v>0.27539185763799079</v>
       </c>
+      <c r="AI170" s="10">
+        <v>0.23123369436319074</v>
+      </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>190</v>
       </c>
@@ -18181,8 +18649,11 @@
       <c r="AH171" s="10">
         <v>0.11494759094512452</v>
       </c>
+      <c r="AI171" s="10">
+        <v>8.118675252989882E-2</v>
+      </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>190</v>
       </c>
@@ -18285,8 +18756,11 @@
       <c r="AH172" s="10">
         <v>1.5626408901552757E-2</v>
       </c>
+      <c r="AI172" s="10">
+        <v>-8.2360346463115075E-2</v>
+      </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>190</v>
       </c>
@@ -18389,8 +18863,11 @@
       <c r="AH173" s="10">
         <v>4.515053409068881E-2</v>
       </c>
+      <c r="AI173" s="10">
+        <v>9.9080885793976226E-2</v>
+      </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>190</v>
       </c>
@@ -18493,8 +18970,11 @@
       <c r="AH174" s="10">
         <v>4.1247913962544125E-2</v>
       </c>
+      <c r="AI174" s="10">
+        <v>4.5889897559756809E-2</v>
+      </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>190</v>
       </c>
@@ -18597,8 +19077,11 @@
       <c r="AH175" s="10">
         <v>5.3996544512139755E-2</v>
       </c>
+      <c r="AI175" s="10">
+        <v>5.7546500845469861E-2</v>
+      </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>190</v>
       </c>
@@ -18701,8 +19184,11 @@
       <c r="AH176" s="10">
         <v>-3.5298895986412115E-2</v>
       </c>
+      <c r="AI176" s="10">
+        <v>3.2032258368430711E-4</v>
+      </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>190</v>
       </c>
@@ -18805,8 +19291,11 @@
       <c r="AH177" s="10">
         <v>7.6683761514716897E-2</v>
       </c>
+      <c r="AI177" s="10">
+        <v>9.9190627810320064E-2</v>
+      </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>190</v>
       </c>
@@ -18909,8 +19398,11 @@
       <c r="AH178" s="10">
         <v>4.694730623607013E-2</v>
       </c>
+      <c r="AI178" s="10">
+        <v>0.10704023656533912</v>
+      </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>190</v>
       </c>
@@ -19013,8 +19505,11 @@
       <c r="AH179" s="10">
         <v>4.7421399843973644E-2</v>
       </c>
+      <c r="AI179" s="10">
+        <v>5.1582967376484712E-2</v>
+      </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>190</v>
       </c>
@@ -19117,8 +19612,11 @@
       <c r="AH180" s="10">
         <v>0.10911032475554339</v>
       </c>
+      <c r="AI180" s="10">
+        <v>6.6004826793976124E-2</v>
+      </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>190</v>
       </c>
@@ -19221,8 +19719,11 @@
       <c r="AH181" s="10">
         <v>4.9730270107137597E-2</v>
       </c>
+      <c r="AI181" s="10">
+        <v>-4.0090841675936129E-2</v>
+      </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>190</v>
       </c>
@@ -19325,8 +19826,11 @@
       <c r="AH182" s="10">
         <v>9.3995544105107687E-2</v>
       </c>
+      <c r="AI182" s="10">
+        <v>0.15663895542717587</v>
+      </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>190</v>
       </c>
@@ -19429,8 +19933,11 @@
       <c r="AH183" s="10">
         <v>6.1765136361418671E-2</v>
       </c>
+      <c r="AI183" s="10">
+        <v>4.280212193881261E-2</v>
+      </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>190</v>
       </c>
@@ -19533,8 +20040,11 @@
       <c r="AH184" s="10">
         <v>2.8551330649888795E-2</v>
       </c>
+      <c r="AI184" s="10">
+        <v>5.2435445305440087E-2</v>
+      </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>190</v>
       </c>
@@ -19637,8 +20147,11 @@
       <c r="AH185" s="10">
         <v>-1.4760444306603726E-2</v>
       </c>
+      <c r="AI185" s="10">
+        <v>-2.0134151103760378E-2</v>
+      </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>190</v>
       </c>
@@ -19741,8 +20254,11 @@
       <c r="AH186" s="10">
         <v>6.7430335526850183E-3</v>
       </c>
+      <c r="AI186" s="10">
+        <v>9.4469929928919782E-3</v>
+      </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>190</v>
       </c>
@@ -19845,8 +20361,11 @@
       <c r="AH187" s="10">
         <v>7.6501999087664752E-2</v>
       </c>
+      <c r="AI187" s="10">
+        <v>8.9319768318535386E-2</v>
+      </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>190</v>
       </c>
@@ -19949,8 +20468,11 @@
       <c r="AH188" s="10">
         <v>-2.577045972585057E-2</v>
       </c>
+      <c r="AI188" s="10">
+        <v>2.3996559933715966E-2</v>
+      </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
@@ -20053,8 +20575,11 @@
       <c r="AH189" s="10">
         <v>1.6042351808776001E-3</v>
       </c>
+      <c r="AI189" s="10">
+        <v>-1.14771253725231E-2</v>
+      </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>190</v>
       </c>
@@ -20157,8 +20682,11 @@
       <c r="AH190" s="10">
         <v>0.18016253161831974</v>
       </c>
+      <c r="AI190" s="10">
+        <v>0.17448149120504075</v>
+      </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>190</v>
       </c>
@@ -20261,8 +20789,11 @@
       <c r="AH191" s="10">
         <v>2.8045475846050438E-2</v>
       </c>
+      <c r="AI191" s="10">
+        <v>4.8748543318861026E-2</v>
+      </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>190</v>
       </c>
@@ -20365,8 +20896,11 @@
       <c r="AH192" s="10">
         <v>0.11930963178314413</v>
       </c>
+      <c r="AI192" s="10">
+        <v>7.4542813954177722E-2</v>
+      </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>190</v>
       </c>
@@ -20469,8 +21003,11 @@
       <c r="AH193" s="10">
         <v>1.6265704736747377E-2</v>
       </c>
+      <c r="AI193" s="10">
+        <v>1.7665720178692057E-2</v>
+      </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>190</v>
       </c>
@@ -20573,8 +21110,11 @@
       <c r="AH194" s="10">
         <v>-7.8359908883827156E-3</v>
       </c>
+      <c r="AI194" s="10">
+        <v>5.5787149440662542E-2</v>
+      </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>190</v>
       </c>
@@ -20677,8 +21217,11 @@
       <c r="AH195" s="10">
         <v>4.6625140799645859E-2</v>
       </c>
+      <c r="AI195" s="10">
+        <v>4.8539518900343692E-2</v>
+      </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>190</v>
       </c>
@@ -20781,8 +21324,11 @@
       <c r="AH196" s="10">
         <v>0.15504080021058186</v>
       </c>
+      <c r="AI196" s="10">
+        <v>0.17054767665369286</v>
+      </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>190</v>
       </c>
@@ -20885,8 +21431,11 @@
       <c r="AH197" s="10">
         <v>3.388065188089695E-2</v>
       </c>
+      <c r="AI197" s="10">
+        <v>3.3782684722052814E-2</v>
+      </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>190</v>
       </c>
@@ -20989,8 +21538,11 @@
       <c r="AH198" s="10">
         <v>-0.1759899792182652</v>
       </c>
+      <c r="AI198" s="10">
+        <v>-0.14164626106611422</v>
+      </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>190</v>
       </c>
@@ -21093,8 +21645,11 @@
       <c r="AH199" s="10">
         <v>-3.7259639789640753E-3</v>
       </c>
+      <c r="AI199" s="10">
+        <v>4.8615615372141985E-2</v>
+      </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>190</v>
       </c>
@@ -21197,8 +21752,11 @@
       <c r="AH200" s="10">
         <v>2.7304499781564129E-3</v>
       </c>
+      <c r="AI200" s="10">
+        <v>2.6193126903925723E-2</v>
+      </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>190</v>
       </c>
@@ -21301,8 +21859,11 @@
       <c r="AH201" s="10">
         <v>9.8137469832906499E-2</v>
       </c>
+      <c r="AI201" s="10">
+        <v>-1.1027847485737596E-2</v>
+      </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>190</v>
       </c>
@@ -21405,8 +21966,11 @@
       <c r="AH202" s="10">
         <v>0.13930459802327966</v>
       </c>
+      <c r="AI202" s="10">
+        <v>0.15614982284460943</v>
+      </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>190</v>
       </c>
@@ -21509,8 +22073,11 @@
       <c r="AH203" s="10">
         <v>0.12067474468726003</v>
       </c>
+      <c r="AI203" s="10">
+        <v>0.10595655353869238</v>
+      </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>190</v>
       </c>
@@ -21613,8 +22180,11 @@
       <c r="AH204" s="10">
         <v>2.2258064516129217E-2</v>
       </c>
+      <c r="AI204" s="10">
+        <v>-5.5149620214447137E-2</v>
+      </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>190</v>
       </c>
@@ -21717,8 +22287,11 @@
       <c r="AH205" s="10">
         <v>0.14376996805111819</v>
       </c>
+      <c r="AI205" s="10">
+        <v>-6.8231267360961856E-2</v>
+      </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>190</v>
       </c>
@@ -21821,8 +22394,11 @@
       <c r="AH206" s="10">
         <v>3.5405945647088988E-3</v>
       </c>
+      <c r="AI206" s="10">
+        <v>3.8080723253812732E-2</v>
+      </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>190</v>
       </c>
@@ -21925,8 +22501,11 @@
       <c r="AH207" s="10">
         <v>9.1038730211219221E-3</v>
       </c>
+      <c r="AI207" s="10">
+        <v>1.8209664747242726E-2</v>
+      </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>252</v>
       </c>
@@ -22029,8 +22608,11 @@
       <c r="AH208" s="10">
         <v>8.654548044225252E-2</v>
       </c>
+      <c r="AI208" s="10">
+        <v>7.6799328530460897E-2</v>
+      </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>252</v>
       </c>
@@ -22133,8 +22715,11 @@
       <c r="AH209" s="10">
         <v>7.7449878453616394E-2</v>
       </c>
+      <c r="AI209" s="10">
+        <v>7.7402081444055915E-2</v>
+      </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>252</v>
       </c>
@@ -22237,8 +22822,11 @@
       <c r="AH210" s="10">
         <v>2.5817760208879159E-2</v>
       </c>
+      <c r="AI210" s="10">
+        <v>6.2110689482351322E-2</v>
+      </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>252</v>
       </c>
@@ -22341,8 +22929,11 @@
       <c r="AH211" s="10">
         <v>6.9820541250872781E-2</v>
       </c>
+      <c r="AI211" s="10">
+        <v>9.564475501746994E-2</v>
+      </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>252</v>
       </c>
@@ -22445,8 +23036,11 @@
       <c r="AH212" s="10">
         <v>-2.9964006275828847E-2</v>
       </c>
+      <c r="AI212" s="10">
+        <v>-2.7505091649694613E-2</v>
+      </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>252</v>
       </c>
@@ -22549,8 +23143,11 @@
       <c r="AH213" s="10">
         <v>2.754545454545454E-2</v>
       </c>
+      <c r="AI213" s="10">
+        <v>2.5387549711874069E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>261</v>
       </c>
@@ -22653,8 +23250,11 @@
       <c r="AH214" s="10">
         <v>3.1615327957090766E-2</v>
       </c>
+      <c r="AI214" s="10">
+        <v>1.4914759076668727E-2</v>
+      </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>261</v>
       </c>
@@ -22757,8 +23357,11 @@
       <c r="AH215" s="10">
         <v>-2.9867914038686383E-2</v>
       </c>
+      <c r="AI215" s="10">
+        <v>-0.11283472705064357</v>
+      </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>261</v>
       </c>
@@ -22861,8 +23464,11 @@
       <c r="AH216" s="10">
         <v>0.1279451634354698</v>
       </c>
+      <c r="AI216" s="10">
+        <v>0.10639344097783221</v>
+      </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>261</v>
       </c>
@@ -22965,8 +23571,11 @@
       <c r="AH217" s="10">
         <v>4.6856804864974233E-3</v>
       </c>
+      <c r="AI217" s="10">
+        <v>1.5304707861222511E-2</v>
+      </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>261</v>
       </c>
@@ -23069,8 +23678,11 @@
       <c r="AH218" s="10">
         <v>4.610556095835916E-2</v>
       </c>
+      <c r="AI218" s="10">
+        <v>5.0541893362350265E-2</v>
+      </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>261</v>
       </c>
@@ -23173,8 +23785,11 @@
       <c r="AH219" s="10">
         <v>4.1727356098613555E-2</v>
       </c>
+      <c r="AI219" s="10">
+        <v>2.5931113744926959E-2</v>
+      </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>261</v>
       </c>
@@ -23277,8 +23892,11 @@
       <c r="AH220" s="10">
         <v>-2.6335867337090035E-2</v>
       </c>
+      <c r="AI220" s="10">
+        <v>-2.760225819171569E-3</v>
+      </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>261</v>
       </c>
@@ -23381,8 +23999,11 @@
       <c r="AH221" s="10">
         <v>2.8412990060434185E-2</v>
       </c>
+      <c r="AI221" s="10">
+        <v>3.403920001775762E-2</v>
+      </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>261</v>
       </c>
@@ -23485,8 +24106,11 @@
       <c r="AH222" s="10">
         <v>5.4599653238971202E-2</v>
       </c>
+      <c r="AI222" s="10">
+        <v>0.11722956188467659</v>
+      </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>261</v>
       </c>
@@ -23589,8 +24213,11 @@
       <c r="AH223" s="10">
         <v>2.3947393320087107E-2</v>
       </c>
+      <c r="AI223" s="10">
+        <v>-1.0135574566011218E-2</v>
+      </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>261</v>
       </c>
@@ -23693,8 +24320,11 @@
       <c r="AH224" s="10">
         <v>4.7300659285980817E-2</v>
       </c>
+      <c r="AI224" s="10">
+        <v>-3.5181345389034391E-2</v>
+      </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>261</v>
       </c>
@@ -23797,8 +24427,11 @@
       <c r="AH225" s="10">
         <v>2.5593326877665135E-2</v>
       </c>
+      <c r="AI225" s="10">
+        <v>5.0150349115743342E-2</v>
+      </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>261</v>
       </c>
@@ -23901,8 +24534,11 @@
       <c r="AH226" s="10">
         <v>7.7336725857663602E-2</v>
       </c>
+      <c r="AI226" s="10">
+        <v>-2.4969457959147512E-3</v>
+      </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>261</v>
       </c>
@@ -24005,8 +24641,11 @@
       <c r="AH227" s="10">
         <v>0.13200233735878442</v>
       </c>
+      <c r="AI227" s="10">
+        <v>0.12613522656882825</v>
+      </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>261</v>
       </c>
@@ -24109,8 +24748,11 @@
       <c r="AH228" s="10">
         <v>5.2624741330512315E-2</v>
       </c>
+      <c r="AI228" s="10">
+        <v>0.12309070954620061</v>
+      </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>261</v>
       </c>
@@ -24213,8 +24855,11 @@
       <c r="AH229" s="10">
         <v>1.2786197576151181E-2</v>
       </c>
+      <c r="AI229" s="10">
+        <v>1.6040709242336249E-2</v>
+      </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>261</v>
       </c>
@@ -24317,8 +24962,11 @@
       <c r="AH230" s="10">
         <v>1.0945816841817946E-2</v>
       </c>
+      <c r="AI230" s="10">
+        <v>1.8685248005867905E-2</v>
+      </c>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>261</v>
       </c>
@@ -24421,8 +25069,11 @@
       <c r="AH231" s="10">
         <v>1.7523189706762476E-2</v>
       </c>
+      <c r="AI231" s="10">
+        <v>3.442567730138113E-2</v>
+      </c>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>261</v>
       </c>
@@ -24525,8 +25176,11 @@
       <c r="AH232" s="10">
         <v>-9.5691397440028081E-2</v>
       </c>
+      <c r="AI232" s="10">
+        <v>-0.219740315821499</v>
+      </c>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>261</v>
       </c>
@@ -24629,8 +25283,11 @@
       <c r="AH233" s="10">
         <v>6.7497518473585538E-2</v>
       </c>
+      <c r="AI233" s="10">
+        <v>4.4970273719197928E-2</v>
+      </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>261</v>
       </c>
@@ -24733,8 +25390,11 @@
       <c r="AH234" s="10">
         <v>5.0336211681422549E-2</v>
       </c>
+      <c r="AI234" s="10">
+        <v>-2.8817483267122523E-2</v>
+      </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>261</v>
       </c>
@@ -24837,8 +25497,11 @@
       <c r="AH235" s="10">
         <v>2.0475051328900484E-2</v>
       </c>
+      <c r="AI235" s="10">
+        <v>2.7795010526101782E-2</v>
+      </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>261</v>
       </c>
@@ -24941,8 +25604,11 @@
       <c r="AH236" s="10">
         <v>-0.10551740070989013</v>
       </c>
+      <c r="AI236" s="10">
+        <v>-7.4360291370937692E-2</v>
+      </c>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>261</v>
       </c>
@@ -25045,8 +25711,11 @@
       <c r="AH237" s="10">
         <v>1.3866923991029401E-2</v>
       </c>
+      <c r="AI237" s="10">
+        <v>8.6830422675552299E-3</v>
+      </c>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>261</v>
       </c>
@@ -25149,8 +25818,11 @@
       <c r="AH238" s="10">
         <v>8.2054446681301574E-2</v>
       </c>
+      <c r="AI238" s="10">
+        <v>9.2584724329792589E-2</v>
+      </c>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>261</v>
       </c>
@@ -25253,8 +25925,11 @@
       <c r="AH239" s="10">
         <v>0.1008387949923264</v>
       </c>
+      <c r="AI239" s="10">
+        <v>1.501848428835495E-2</v>
+      </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>261</v>
       </c>
@@ -25357,8 +26032,11 @@
       <c r="AH240" s="10">
         <v>6.4177565418032323E-2</v>
       </c>
+      <c r="AI240" s="10">
+        <v>6.4524716386124448E-2</v>
+      </c>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>261</v>
       </c>
@@ -25461,8 +26139,11 @@
       <c r="AH241" s="10">
         <v>4.1945981760074691E-2</v>
       </c>
+      <c r="AI241" s="10">
+        <v>3.9232322050261725E-2</v>
+      </c>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>261</v>
       </c>
@@ -25565,8 +26246,11 @@
       <c r="AH242" s="10">
         <v>3.8582281362329995E-2</v>
       </c>
+      <c r="AI242" s="10">
+        <v>3.3494309356378205E-2</v>
+      </c>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>261</v>
       </c>
@@ -25669,8 +26353,11 @@
       <c r="AH243" s="10">
         <v>9.643946692357086E-2</v>
       </c>
+      <c r="AI243" s="10">
+        <v>8.5917138491956591E-2</v>
+      </c>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>261</v>
       </c>
@@ -25773,8 +26460,11 @@
       <c r="AH244" s="10">
         <v>5.3571917152316129E-2</v>
       </c>
+      <c r="AI244" s="10">
+        <v>0.18988957267545614</v>
+      </c>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>309</v>
       </c>
@@ -25877,8 +26567,11 @@
       <c r="AH245" s="10">
         <v>9.6914784871294568E-2</v>
       </c>
+      <c r="AI245" s="10">
+        <v>0.10624161323989867</v>
+      </c>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>309</v>
       </c>
@@ -25981,8 +26674,11 @@
       <c r="AH246" s="10">
         <v>3.7271279765875853E-2</v>
       </c>
+      <c r="AI246" s="10">
+        <v>1.6363779403666179E-2</v>
+      </c>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>309</v>
       </c>
@@ -26085,8 +26781,11 @@
       <c r="AH247" s="10">
         <v>4.0748857421143425E-2</v>
       </c>
+      <c r="AI247" s="10">
+        <v>7.6625098009931669E-2</v>
+      </c>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>309</v>
       </c>
@@ -26189,8 +26888,11 @@
       <c r="AH248" s="10">
         <v>7.6389014938376798E-2</v>
       </c>
+      <c r="AI248" s="10">
+        <v>2.1316865114625827E-2</v>
+      </c>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>309</v>
       </c>
@@ -26293,8 +26995,11 @@
       <c r="AH249" s="10">
         <v>-8.5546284145889828E-3</v>
       </c>
+      <c r="AI249" s="10">
+        <v>2.2657023677340016E-2</v>
+      </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>309</v>
       </c>
@@ -26397,8 +27102,11 @@
       <c r="AH250" s="10">
         <v>5.0460680312764516E-2</v>
       </c>
+      <c r="AI250" s="10">
+        <v>7.6232172334949722E-2</v>
+      </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>309</v>
       </c>
@@ -26501,8 +27209,11 @@
       <c r="AH251" s="10">
         <v>0.12525464534847841</v>
       </c>
+      <c r="AI251" s="10">
+        <v>0.10718995709730739</v>
+      </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>309</v>
       </c>
@@ -26605,8 +27316,11 @@
       <c r="AH252" s="10">
         <v>9.0495812012828747E-2</v>
       </c>
+      <c r="AI252" s="10">
+        <v>0.10973303380178678</v>
+      </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>309</v>
       </c>
@@ -26709,8 +27423,11 @@
       <c r="AH253" s="10">
         <v>7.339415134496563E-2</v>
       </c>
+      <c r="AI253" s="10">
+        <v>3.4229566770879849E-2</v>
+      </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>309</v>
       </c>
@@ -26813,8 +27530,11 @@
       <c r="AH254" s="10">
         <v>2.848154251522339E-2</v>
       </c>
+      <c r="AI254" s="10">
+        <v>2.4733958486987673E-2</v>
+      </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>309</v>
       </c>
@@ -26917,8 +27637,11 @@
       <c r="AH255" s="10">
         <v>9.5676439676729563E-2</v>
       </c>
+      <c r="AI255" s="10">
+        <v>8.2953451043338733E-2</v>
+      </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>309</v>
       </c>
@@ -27021,8 +27744,11 @@
       <c r="AH256" s="10">
         <v>1.0753489759025125E-2</v>
       </c>
+      <c r="AI256" s="10">
+        <v>-1.8233066149916377E-2</v>
+      </c>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>309</v>
       </c>
@@ -27125,8 +27851,11 @@
       <c r="AH257" s="10">
         <v>-4.6081689491085154E-2</v>
       </c>
+      <c r="AI257" s="10">
+        <v>-7.4346495751263508E-2</v>
+      </c>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>309</v>
       </c>
@@ -27229,8 +27958,11 @@
       <c r="AH258" s="10">
         <v>-1.2558564513307058E-2</v>
       </c>
+      <c r="AI258" s="10">
+        <v>-1.0275360361229557E-2</v>
+      </c>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>309</v>
       </c>
@@ -27333,8 +28065,11 @@
       <c r="AH259" s="10">
         <v>9.8779044021293227E-3</v>
       </c>
+      <c r="AI259" s="10">
+        <v>6.0708123784001922E-2</v>
+      </c>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>309</v>
       </c>
@@ -27437,8 +28172,11 @@
       <c r="AH260" s="10">
         <v>1.6726045699016812E-2</v>
       </c>
+      <c r="AI260" s="10">
+        <v>7.8350837537098705E-2</v>
+      </c>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>309</v>
       </c>
@@ -27541,8 +28279,11 @@
       <c r="AH261" s="10">
         <v>-0.17729343490671257</v>
       </c>
+      <c r="AI261" s="10">
+        <v>-0.16215832513061268</v>
+      </c>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>309</v>
       </c>
@@ -27645,8 +28386,11 @@
       <c r="AH262" s="10">
         <v>-6.1097704148186827E-2</v>
       </c>
+      <c r="AI262" s="10">
+        <v>7.4187939194034103E-2</v>
+      </c>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>309</v>
       </c>
@@ -27749,8 +28493,11 @@
       <c r="AH263" s="10">
         <v>5.471891288160835E-2</v>
       </c>
+      <c r="AI263" s="10">
+        <v>0.10183681361175556</v>
+      </c>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>309</v>
       </c>
@@ -27853,8 +28600,11 @@
       <c r="AH264" s="10">
         <v>-7.7500384378843767E-2</v>
       </c>
+      <c r="AI264" s="10">
+        <v>-9.5157139368436838E-2</v>
+      </c>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>309</v>
       </c>
@@ -27957,8 +28707,11 @@
       <c r="AH265" s="10">
         <v>0.11203824953558494</v>
       </c>
+      <c r="AI265" s="10">
+        <v>0.11913582106034593</v>
+      </c>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>309</v>
       </c>
@@ -28061,8 +28814,11 @@
       <c r="AH266" s="10">
         <v>1.4948083640365484E-2</v>
       </c>
+      <c r="AI266" s="10">
+        <v>-1.6233307924677476E-2</v>
+      </c>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>309</v>
       </c>
@@ -28165,8 +28921,11 @@
       <c r="AH267" s="10">
         <v>-6.1542929048494899E-2</v>
       </c>
+      <c r="AI267" s="10">
+        <v>-0.11186135494035576</v>
+      </c>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>309</v>
       </c>
@@ -28269,8 +29028,11 @@
       <c r="AH268" s="10">
         <v>4.974767721548834E-2</v>
       </c>
+      <c r="AI268" s="10">
+        <v>2.4399894486942797E-2</v>
+      </c>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>309</v>
       </c>
@@ -28373,8 +29135,11 @@
       <c r="AH269" s="10">
         <v>4.6224013218904458E-2</v>
       </c>
+      <c r="AI269" s="10">
+        <v>6.8076685018079841E-2</v>
+      </c>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>309</v>
       </c>
@@ -28477,8 +29242,11 @@
       <c r="AH270" s="10">
         <v>1.4088726023704146E-2</v>
       </c>
+      <c r="AI270" s="10">
+        <v>1.5127882096506617E-2</v>
+      </c>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>309</v>
       </c>
@@ -28581,8 +29349,11 @@
       <c r="AH271" s="10">
         <v>0.10497266336891431</v>
       </c>
+      <c r="AI271" s="10">
+        <v>1.6000700334604323E-2</v>
+      </c>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>309</v>
       </c>
@@ -28685,8 +29456,11 @@
       <c r="AH272" s="10">
         <v>9.0221344903255396E-2</v>
       </c>
+      <c r="AI272" s="10">
+        <v>9.2063683149246067E-2</v>
+      </c>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>309</v>
       </c>
@@ -28789,8 +29563,11 @@
       <c r="AH273" s="10">
         <v>6.9782936494022785E-3</v>
       </c>
+      <c r="AI273" s="10">
+        <v>-2.2634865007400418E-2</v>
+      </c>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>309</v>
       </c>
@@ -28893,8 +29670,11 @@
       <c r="AH274" s="10">
         <v>2.6189031328225809E-2</v>
       </c>
+      <c r="AI274" s="10">
+        <v>6.4632524574308459E-3</v>
+      </c>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>309</v>
       </c>
@@ -28997,8 +29777,11 @@
       <c r="AH275" s="10">
         <v>1.9610029926206751E-2</v>
       </c>
+      <c r="AI275" s="10">
+        <v>1.9619506120059249E-2</v>
+      </c>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>309</v>
       </c>
@@ -29101,8 +29884,11 @@
       <c r="AH276" s="10">
         <v>4.4701326803712638E-2</v>
       </c>
+      <c r="AI276" s="10">
+        <v>6.0664009618388581E-2</v>
+      </c>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>309</v>
       </c>
@@ -29205,8 +29991,11 @@
       <c r="AH277" s="10">
         <v>4.3942013565633653E-2</v>
       </c>
+      <c r="AI277" s="10">
+        <v>3.3232046375999413E-2</v>
+      </c>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>309</v>
       </c>
@@ -29309,8 +30098,11 @@
       <c r="AH278" s="10">
         <v>1.7116296026248534E-2</v>
       </c>
+      <c r="AI278" s="10">
+        <v>3.3608810362103503E-2</v>
+      </c>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>309</v>
       </c>
@@ -29413,8 +30205,11 @@
       <c r="AH279" s="10">
         <v>4.8896347446514055E-2</v>
       </c>
+      <c r="AI279" s="10">
+        <v>6.3623941969976228E-2</v>
+      </c>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
         <v>309</v>
       </c>
@@ -29517,8 +30312,11 @@
       <c r="AH280" s="10">
         <v>3.2886689903161015E-2</v>
       </c>
+      <c r="AI280" s="10">
+        <v>3.2886689903161015E-2</v>
+      </c>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>356</v>
       </c>
@@ -29621,8 +30419,11 @@
       <c r="AH281" s="10">
         <v>0.52190476190476187</v>
       </c>
+      <c r="AI281" s="10">
+        <v>0.44517560494576336</v>
+      </c>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>356</v>
       </c>
@@ -29725,8 +30526,11 @@
       <c r="AH282" s="10">
         <v>6.3888864008885049E-2</v>
       </c>
+      <c r="AI282" s="10">
+        <v>5.9871176656928649E-2</v>
+      </c>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>356</v>
       </c>
@@ -29829,8 +30633,11 @@
       <c r="AH283" s="10">
         <v>8.0540270135067704E-2</v>
       </c>
+      <c r="AI283" s="10">
+        <v>4.351683564039166E-2</v>
+      </c>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>356</v>
       </c>
@@ -29933,8 +30740,11 @@
       <c r="AH284" s="10">
         <v>0.15607251625648222</v>
       </c>
+      <c r="AI284" s="10">
+        <v>8.7575466852729322E-2</v>
+      </c>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>356</v>
       </c>
@@ -30037,8 +30847,11 @@
       <c r="AH285" s="10">
         <v>0.22341767589388706</v>
       </c>
+      <c r="AI285" s="10">
+        <v>0.25810023934555093</v>
+      </c>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>356</v>
       </c>
@@ -30141,8 +30954,11 @@
       <c r="AH286" s="10">
         <v>0.20949379511897237</v>
       </c>
+      <c r="AI286" s="10">
+        <v>0.17362912044992984</v>
+      </c>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>356</v>
       </c>
@@ -30245,8 +31061,11 @@
       <c r="AH287" s="10">
         <v>0.14188611536228812</v>
       </c>
+      <c r="AI287" s="10">
+        <v>0.10038223698693183</v>
+      </c>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>356</v>
       </c>
@@ -30349,8 +31168,11 @@
       <c r="AH288" s="10">
         <v>8.6349181422009424E-2</v>
       </c>
+      <c r="AI288" s="10">
+        <v>7.8642021762668435E-2</v>
+      </c>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>356</v>
       </c>
@@ -30453,8 +31275,11 @@
       <c r="AH289" s="10">
         <v>0.23302920612882438</v>
       </c>
+      <c r="AI289" s="10">
+        <v>0.22780631832250209</v>
+      </c>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>356</v>
       </c>
@@ -30557,8 +31382,11 @@
       <c r="AH290" s="10">
         <v>4.4833919567515146E-2</v>
       </c>
+      <c r="AI290" s="10">
+        <v>5.4840649428743227E-2</v>
+      </c>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>356</v>
       </c>
@@ -30661,8 +31489,11 @@
       <c r="AH291" s="10">
         <v>1.4274249542376438E-2</v>
       </c>
+      <c r="AI291" s="10">
+        <v>8.9338571659220989E-3</v>
+      </c>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>356</v>
       </c>
@@ -30765,8 +31596,11 @@
       <c r="AH292" s="10">
         <v>4.2604212082725246E-2</v>
       </c>
+      <c r="AI292" s="10">
+        <v>6.963585009383344E-2</v>
+      </c>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>356</v>
       </c>
@@ -30869,8 +31703,11 @@
       <c r="AH293" s="10">
         <v>-2.3936238371447427E-2</v>
       </c>
+      <c r="AI293" s="10">
+        <v>-2.3936238371447427E-2</v>
+      </c>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>356</v>
       </c>
@@ -30973,8 +31810,11 @@
       <c r="AH294" s="10">
         <v>9.9392169513395912E-2</v>
       </c>
+      <c r="AI294" s="10">
+        <v>0.11380706244458949</v>
+      </c>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>356</v>
       </c>
@@ -31077,8 +31917,11 @@
       <c r="AH295" s="10">
         <v>3.9562217463716465E-2</v>
       </c>
+      <c r="AI295" s="10">
+        <v>5.6616702355460458E-2</v>
+      </c>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>356</v>
       </c>
@@ -31181,8 +32024,11 @@
       <c r="AH296" s="10">
         <v>7.7362470239981329E-2</v>
       </c>
+      <c r="AI296" s="10">
+        <v>7.9668176864253315E-2</v>
+      </c>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>356</v>
       </c>
@@ -31285,8 +32131,11 @@
       <c r="AH297" s="10">
         <v>4.6620406462020814E-2</v>
       </c>
+      <c r="AI297" s="10">
+        <v>4.6121531270338911E-2</v>
+      </c>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>356</v>
       </c>
@@ -31389,8 +32238,11 @@
       <c r="AH298" s="10">
         <v>-1.5721560738686802E-2</v>
       </c>
+      <c r="AI298" s="10">
+        <v>4.2402379596226947E-3</v>
+      </c>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>356</v>
       </c>
@@ -31493,8 +32345,11 @@
       <c r="AH299" s="10">
         <v>0</v>
       </c>
+      <c r="AI299" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>356</v>
       </c>
@@ -31597,8 +32452,11 @@
       <c r="AH300" s="10">
         <v>0</v>
       </c>
+      <c r="AI300" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>356</v>
       </c>
@@ -31701,8 +32559,11 @@
       <c r="AH301" s="10">
         <v>0</v>
       </c>
+      <c r="AI301" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>356</v>
       </c>
@@ -31805,8 +32666,11 @@
       <c r="AH302" s="10">
         <v>1.2978924132372116E-2</v>
       </c>
+      <c r="AI302" s="10">
+        <v>3.8233218872007146E-2</v>
+      </c>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>356</v>
       </c>
@@ -31909,8 +32773,11 @@
       <c r="AH303" s="10">
         <v>9.2377977957308399E-2</v>
       </c>
+      <c r="AI303" s="10">
+        <v>9.6642683780025385E-2</v>
+      </c>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>391</v>
       </c>
@@ -32013,8 +32880,11 @@
       <c r="AH304" s="10">
         <v>3.2943696910471276E-2</v>
       </c>
+      <c r="AI304" s="10">
+        <v>3.3064901705275318E-2</v>
+      </c>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>391</v>
       </c>
@@ -32117,8 +32987,11 @@
       <c r="AH305" s="10">
         <v>4.3025608571250373E-2</v>
       </c>
+      <c r="AI305" s="10">
+        <v>4.2840295344226398E-2</v>
+      </c>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>391</v>
       </c>
@@ -32221,8 +33094,11 @@
       <c r="AH306" s="10">
         <v>0.15241304132395195</v>
       </c>
+      <c r="AI306" s="10">
+        <v>0.14446400281640548</v>
+      </c>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>391</v>
       </c>
@@ -32325,8 +33201,11 @@
       <c r="AH307" s="10">
         <v>3.07838453001259E-2</v>
       </c>
+      <c r="AI307" s="10">
+        <v>3.0940315315315381E-2</v>
+      </c>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>391</v>
       </c>
@@ -32429,8 +33308,11 @@
       <c r="AH308" s="10">
         <v>8.9023482757646377E-2</v>
       </c>
+      <c r="AI308" s="10">
+        <v>9.3552524852394736E-2</v>
+      </c>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>391</v>
       </c>
@@ -32533,8 +33415,11 @@
       <c r="AH309" s="10">
         <v>0.19087017411428175</v>
       </c>
+      <c r="AI309" s="10">
+        <v>9.4399593160002571E-2</v>
+      </c>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>391</v>
       </c>
@@ -32637,8 +33522,11 @@
       <c r="AH310" s="10">
         <v>0.2698175374477394</v>
       </c>
+      <c r="AI310" s="10">
+        <v>0.25551993004445106</v>
+      </c>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>391</v>
       </c>
@@ -32741,8 +33629,11 @@
       <c r="AH311" s="10">
         <v>2.9388218364601038E-4</v>
       </c>
+      <c r="AI311" s="10">
+        <v>2.7356177430148954E-4</v>
+      </c>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>391</v>
       </c>
@@ -32845,8 +33736,11 @@
       <c r="AH312" s="10">
         <v>0</v>
       </c>
+      <c r="AI312" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>391</v>
       </c>
@@ -32949,8 +33843,11 @@
       <c r="AH313" s="10">
         <v>3.2132153688781973E-2</v>
       </c>
+      <c r="AI313" s="10">
+        <v>1.9957153142395434E-2</v>
+      </c>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
         <v>391</v>
       </c>
@@ -33052,6 +33949,9 @@
       </c>
       <c r="AH314" s="11">
         <v>5.2347607505162097E-2</v>
+      </c>
+      <c r="AI314" s="11">
+        <v>4.0041523228164788E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$15:$AH$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="451">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1100,9 +1100,6 @@
     <t>Transporte</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Transporte aéreo</t>
   </si>
   <si>
@@ -1289,7 +1286,100 @@
     <t>Inflación mensual anual por producto genérico</t>
   </si>
   <si>
-    <t>Última actualización: febrero de 2022</t>
+    <t xml:space="preserve"> 08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  03/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02/2022</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:AI314"/>
+  <dimension ref="A8:AJ314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1824,144 +1914,147 @@
     <col min="34" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>419</v>
       </c>
+      <c r="G15" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB15" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD15" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH15" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI15" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ15" s="13" t="s">
+        <v>450</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="F15" s="13">
-        <v>43678</v>
-      </c>
-      <c r="G15" s="13">
-        <v>43709</v>
-      </c>
-      <c r="H15" s="13">
-        <v>43739</v>
-      </c>
-      <c r="I15" s="13">
-        <v>43770</v>
-      </c>
-      <c r="J15" s="13">
-        <v>43800</v>
-      </c>
-      <c r="K15" s="13">
-        <v>43831</v>
-      </c>
-      <c r="L15" s="13">
-        <v>43862</v>
-      </c>
-      <c r="M15" s="13">
-        <v>43891</v>
-      </c>
-      <c r="N15" s="13">
-        <v>43922</v>
-      </c>
-      <c r="O15" s="13">
-        <v>43952</v>
-      </c>
-      <c r="P15" s="13">
-        <v>43983</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>44013</v>
-      </c>
-      <c r="R15" s="13">
-        <v>44044</v>
-      </c>
-      <c r="S15" s="13">
-        <v>44075</v>
-      </c>
-      <c r="T15" s="13">
-        <v>44105</v>
-      </c>
-      <c r="U15" s="13">
-        <v>44136</v>
-      </c>
-      <c r="V15" s="13">
-        <v>44166</v>
-      </c>
-      <c r="W15" s="13">
-        <v>44197</v>
-      </c>
-      <c r="X15" s="13">
-        <v>44228</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>44256</v>
-      </c>
-      <c r="Z15" s="13">
-        <v>44287</v>
-      </c>
-      <c r="AA15" s="13">
-        <v>44317</v>
-      </c>
-      <c r="AB15" s="13">
-        <v>44348</v>
-      </c>
-      <c r="AC15" s="13">
-        <v>44378</v>
-      </c>
-      <c r="AD15" s="13">
-        <v>44409</v>
-      </c>
-      <c r="AE15" s="13">
-        <v>44440</v>
-      </c>
-      <c r="AF15" s="13">
-        <v>44470</v>
-      </c>
-      <c r="AG15" s="13">
-        <v>44501</v>
-      </c>
-      <c r="AH15" s="13">
-        <v>44531</v>
-      </c>
-      <c r="AI15" s="13">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -2067,8 +2160,11 @@
       <c r="AI16" s="10">
         <v>0.30406622078494783</v>
       </c>
+      <c r="AJ16" s="10">
+        <v>0.3180395774545981</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
@@ -2174,8 +2270,11 @@
       <c r="AI17" s="10">
         <v>9.0777484458826052E-3</v>
       </c>
+      <c r="AJ17" s="10">
+        <v>-1.9627010302267989E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -2281,8 +2380,11 @@
       <c r="AI18" s="10">
         <v>5.9798177923451989E-2</v>
       </c>
+      <c r="AJ18" s="10">
+        <v>6.7963994856408139E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
@@ -2388,8 +2490,11 @@
       <c r="AI19" s="10">
         <v>7.1861360718870504E-2</v>
       </c>
+      <c r="AJ19" s="10">
+        <v>6.1403360062386669E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2495,8 +2600,11 @@
       <c r="AI20" s="10">
         <v>6.0747942264105736E-2</v>
       </c>
+      <c r="AJ20" s="10">
+        <v>6.5884010797078396E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
@@ -2602,8 +2710,11 @@
       <c r="AI21" s="10">
         <v>8.3186061871864947E-2</v>
       </c>
+      <c r="AJ21" s="10">
+        <v>0.10177773885629215</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
@@ -2709,8 +2820,11 @@
       <c r="AI22" s="10">
         <v>7.4150275697473234E-3</v>
       </c>
+      <c r="AJ22" s="10">
+        <v>2.2542949690434355E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -2816,8 +2930,11 @@
       <c r="AI23" s="10">
         <v>0.140436569126416</v>
       </c>
+      <c r="AJ23" s="10">
+        <v>0.15176404704125446</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -2923,8 +3040,11 @@
       <c r="AI24" s="10">
         <v>0.13856332862949228</v>
       </c>
+      <c r="AJ24" s="10">
+        <v>0.14262497340991276</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -3030,8 +3150,11 @@
       <c r="AI25" s="10">
         <v>0.37402719501366732</v>
       </c>
+      <c r="AJ25" s="10">
+        <v>0.4070618274042086</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
@@ -3137,8 +3260,11 @@
       <c r="AI26" s="10">
         <v>0.19402301328518679</v>
       </c>
+      <c r="AJ26" s="10">
+        <v>0.19224150997227207</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -3244,8 +3370,11 @@
       <c r="AI27" s="10">
         <v>0.19975540154912363</v>
       </c>
+      <c r="AJ27" s="10">
+        <v>0.17931553768032105</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -3351,8 +3480,11 @@
       <c r="AI28" s="10">
         <v>9.0376106194690164E-2</v>
       </c>
+      <c r="AJ28" s="10">
+        <v>9.2265174692787388E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
@@ -3458,8 +3590,11 @@
       <c r="AI29" s="10">
         <v>6.5511016553035928E-2</v>
       </c>
+      <c r="AJ29" s="10">
+        <v>7.1195229036737251E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
@@ -3565,8 +3700,11 @@
       <c r="AI30" s="10">
         <v>3.527762198541784E-2</v>
       </c>
+      <c r="AJ30" s="10">
+        <v>3.2975429917364352E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
@@ -3672,8 +3810,11 @@
       <c r="AI31" s="10">
         <v>4.3793793793793778E-2</v>
       </c>
+      <c r="AJ31" s="10">
+        <v>8.7646410563991584E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
@@ -3779,8 +3920,11 @@
       <c r="AI32" s="10">
         <v>0.15456863008184607</v>
       </c>
+      <c r="AJ32" s="10">
+        <v>0.14245323861778925</v>
+      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -3886,8 +4030,11 @@
       <c r="AI33" s="10">
         <v>0.70933194477672834</v>
       </c>
+      <c r="AJ33" s="10">
+        <v>0.94560099671143183</v>
+      </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -3993,8 +4140,11 @@
       <c r="AI34" s="10">
         <v>-1.1108961336300016E-2</v>
       </c>
+      <c r="AJ34" s="10">
+        <v>-2.2728335958332568E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
@@ -4100,8 +4250,11 @@
       <c r="AI35" s="10">
         <v>0.11520517020052234</v>
       </c>
+      <c r="AJ35" s="10">
+        <v>4.8240602012917133E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -4207,8 +4360,11 @@
       <c r="AI36" s="10">
         <v>1.6256706107150731</v>
       </c>
+      <c r="AJ36" s="10">
+        <v>1.7108028945554792</v>
+      </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
@@ -4314,8 +4470,11 @@
       <c r="AI37" s="10">
         <v>0.27460311488977518</v>
       </c>
+      <c r="AJ37" s="10">
+        <v>0.30732529032015221</v>
+      </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -4421,8 +4580,11 @@
       <c r="AI38" s="10">
         <v>0.27568267749614916</v>
       </c>
+      <c r="AJ38" s="10">
+        <v>0.35893413590193157</v>
+      </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
@@ -4528,8 +4690,11 @@
       <c r="AI39" s="10">
         <v>0.11692894224529526</v>
       </c>
+      <c r="AJ39" s="10">
+        <v>0.20132042253521143</v>
+      </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
@@ -4635,8 +4800,11 @@
       <c r="AI40" s="10">
         <v>0.19912880110396181</v>
       </c>
+      <c r="AJ40" s="10">
+        <v>0.14740052966769657</v>
+      </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
@@ -4742,8 +4910,11 @@
       <c r="AI41" s="10">
         <v>0.23023541024797334</v>
       </c>
+      <c r="AJ41" s="10">
+        <v>0.34760647111396747</v>
+      </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -4849,8 +5020,11 @@
       <c r="AI42" s="10">
         <v>0.13552391926550955</v>
       </c>
+      <c r="AJ42" s="10">
+        <v>0.10247327356785396</v>
+      </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
@@ -4956,8 +5130,11 @@
       <c r="AI43" s="10">
         <v>1.1371551221728282E-4</v>
       </c>
+      <c r="AJ43" s="10">
+        <v>6.0946503587493872E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
@@ -5063,8 +5240,11 @@
       <c r="AI44" s="10">
         <v>0.19564503261532673</v>
       </c>
+      <c r="AJ44" s="10">
+        <v>0.12564570867805203</v>
+      </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -5170,8 +5350,11 @@
       <c r="AI45" s="10">
         <v>0.16939022959283467</v>
       </c>
+      <c r="AJ45" s="10">
+        <v>0.25429236589387916</v>
+      </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -5277,8 +5460,11 @@
       <c r="AI46" s="10">
         <v>0.38006064885971824</v>
       </c>
+      <c r="AJ46" s="10">
+        <v>0.32058597690419921</v>
+      </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -5384,8 +5570,11 @@
       <c r="AI47" s="10">
         <v>9.768233317537578E-2</v>
       </c>
+      <c r="AJ47" s="10">
+        <v>8.6519243036359716E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
@@ -5491,8 +5680,11 @@
       <c r="AI48" s="10">
         <v>0.1519485320002818</v>
       </c>
+      <c r="AJ48" s="10">
+        <v>0.15800587748781392</v>
+      </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
@@ -5598,8 +5790,11 @@
       <c r="AI49" s="10">
         <v>6.9746926173015478E-3</v>
       </c>
+      <c r="AJ49" s="10">
+        <v>-1.7761650114591299E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -5705,8 +5900,11 @@
       <c r="AI50" s="10">
         <v>6.0718381729634618E-2</v>
       </c>
+      <c r="AJ50" s="10">
+        <v>6.6466758337337062E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
@@ -5812,8 +6010,11 @@
       <c r="AI51" s="10">
         <v>0.1043654893445638</v>
       </c>
+      <c r="AJ51" s="10">
+        <v>0.11491312783302443</v>
+      </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
@@ -5919,8 +6120,11 @@
       <c r="AI52" s="10">
         <v>5.0787948068915512E-3</v>
       </c>
+      <c r="AJ52" s="10">
+        <v>1.6229733263598334E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
@@ -6026,8 +6230,11 @@
       <c r="AI53" s="10">
         <v>0.12009980450663638</v>
       </c>
+      <c r="AJ53" s="10">
+        <v>0.14905282425875077</v>
+      </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -6133,8 +6340,11 @@
       <c r="AI54" s="10">
         <v>4.5506776018595652E-2</v>
       </c>
+      <c r="AJ54" s="10">
+        <v>5.4778333620838282E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>0</v>
       </c>
@@ -6240,8 +6450,11 @@
       <c r="AI55" s="10">
         <v>0.27941912421805171</v>
       </c>
+      <c r="AJ55" s="10">
+        <v>0.25781914303671116</v>
+      </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>0</v>
       </c>
@@ -6347,8 +6560,11 @@
       <c r="AI56" s="10">
         <v>0.88438216111404899</v>
       </c>
+      <c r="AJ56" s="10">
+        <v>1.1687284405852263</v>
+      </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>0</v>
       </c>
@@ -6454,8 +6670,11 @@
       <c r="AI57" s="10">
         <v>-0.1205521941416744</v>
       </c>
+      <c r="AJ57" s="10">
+        <v>0.15296993982360396</v>
+      </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>0</v>
       </c>
@@ -6561,8 +6780,11 @@
       <c r="AI58" s="10">
         <v>0.75436214271165736</v>
       </c>
+      <c r="AJ58" s="10">
+        <v>0.32345437819485423</v>
+      </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -6668,8 +6890,11 @@
       <c r="AI59" s="10">
         <v>0.65113063811229344</v>
       </c>
+      <c r="AJ59" s="10">
+        <v>0.49307963982309322</v>
+      </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>0</v>
       </c>
@@ -6775,8 +7000,11 @@
       <c r="AI60" s="10">
         <v>0.38613281953397927</v>
       </c>
+      <c r="AJ60" s="10">
+        <v>0.25401865449493943</v>
+      </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>0</v>
       </c>
@@ -6882,8 +7110,11 @@
       <c r="AI61" s="10">
         <v>-9.9265599563926665E-2</v>
       </c>
+      <c r="AJ61" s="10">
+        <v>9.4591747341339572E-2</v>
+      </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -6989,8 +7220,11 @@
       <c r="AI62" s="10">
         <v>0.20759285356234236</v>
       </c>
+      <c r="AJ62" s="10">
+        <v>0.16374240392989603</v>
+      </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>0</v>
       </c>
@@ -7096,8 +7330,11 @@
       <c r="AI63" s="10">
         <v>-7.4152319966407698E-2</v>
       </c>
+      <c r="AJ63" s="10">
+        <v>-1.8862760472532214E-3</v>
+      </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>0</v>
       </c>
@@ -7203,8 +7440,11 @@
       <c r="AI64" s="10">
         <v>0.17663642686951508</v>
       </c>
+      <c r="AJ64" s="10">
+        <v>0.16188914979398339</v>
+      </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>0</v>
       </c>
@@ -7310,8 +7550,11 @@
       <c r="AI65" s="10">
         <v>0.21610790734043617</v>
       </c>
+      <c r="AJ65" s="10">
+        <v>0.15552610614045825</v>
+      </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
@@ -7417,8 +7660,11 @@
       <c r="AI66" s="10">
         <v>-2.3865606863993083E-2</v>
       </c>
+      <c r="AJ66" s="10">
+        <v>-9.6355314155193716E-2</v>
+      </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>0</v>
       </c>
@@ -7524,8 +7770,11 @@
       <c r="AI67" s="10">
         <v>5.4264831238551192E-2</v>
       </c>
+      <c r="AJ67" s="10">
+        <v>0.14484624758081854</v>
+      </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -7631,8 +7880,11 @@
       <c r="AI68" s="10">
         <v>0.71224411612838745</v>
       </c>
+      <c r="AJ68" s="10">
+        <v>0.61132101513034187</v>
+      </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -7738,8 +7990,11 @@
       <c r="AI69" s="10">
         <v>-7.7561892823566292E-2</v>
       </c>
+      <c r="AJ69" s="10">
+        <v>-4.1051254201339704E-3</v>
+      </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -7845,8 +8100,11 @@
       <c r="AI70" s="10">
         <v>2.7061728395061824E-2</v>
       </c>
+      <c r="AJ70" s="10">
+        <v>3.8442559854730218E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>0</v>
       </c>
@@ -7952,8 +8210,11 @@
       <c r="AI71" s="10">
         <v>-0.20173740182588062</v>
       </c>
+      <c r="AJ71" s="10">
+        <v>-0.19664071374479364</v>
+      </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
@@ -8059,8 +8320,11 @@
       <c r="AI72" s="10">
         <v>0.14375196636444243</v>
       </c>
+      <c r="AJ72" s="10">
+        <v>0.11739594450373536</v>
+      </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -8166,8 +8430,11 @@
       <c r="AI73" s="10">
         <v>7.9663962920046183E-2</v>
       </c>
+      <c r="AJ73" s="10">
+        <v>8.8804825353990591E-2</v>
+      </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -8273,8 +8540,11 @@
       <c r="AI74" s="10">
         <v>0.13970931337815196</v>
       </c>
+      <c r="AJ74" s="10">
+        <v>0.14221302963168103</v>
+      </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
@@ -8380,8 +8650,11 @@
       <c r="AI75" s="10">
         <v>8.0776355675311606E-2</v>
       </c>
+      <c r="AJ75" s="10">
+        <v>7.155967874554614E-2</v>
+      </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
@@ -8487,8 +8760,11 @@
       <c r="AI76" s="10">
         <v>4.7048104025273929E-2</v>
       </c>
+      <c r="AJ76" s="10">
+        <v>2.9417214081185916E-2</v>
+      </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>0</v>
       </c>
@@ -8502,100 +8778,103 @@
         <v>74</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F77" s="10">
-        <v>0.10275301649839919</v>
+        <v>7.3117743783945421E-2</v>
       </c>
       <c r="G77" s="10">
-        <v>9.6283075362573189E-2</v>
+        <v>7.1981640391139523E-2</v>
       </c>
       <c r="H77" s="10">
-        <v>7.1948980577833721E-2</v>
+        <v>6.9069515957816296E-2</v>
       </c>
       <c r="I77" s="10">
-        <v>7.82440699796072E-2</v>
+        <v>6.9088508567093365E-2</v>
       </c>
       <c r="J77" s="10">
-        <v>6.6984489227555732E-2</v>
+        <v>7.406753216167683E-2</v>
       </c>
       <c r="K77" s="10">
-        <v>7.3133996929820366E-2</v>
+        <v>6.6870962075225027E-2</v>
       </c>
       <c r="L77" s="10">
-        <v>6.901642015662901E-2</v>
+        <v>5.0772669282199479E-2</v>
       </c>
       <c r="M77" s="10">
-        <v>1.7296063685454222E-2</v>
+        <v>2.5424125314643442E-2</v>
       </c>
       <c r="N77" s="10">
-        <v>3.2327624934859633E-2</v>
+        <v>3.016611046533435E-2</v>
       </c>
       <c r="O77" s="10">
-        <v>3.7971931032608319E-2</v>
+        <v>3.7178709707515134E-2</v>
       </c>
       <c r="P77" s="10">
-        <v>9.1016785434398395E-2</v>
+        <v>3.2836711480728864E-2</v>
       </c>
       <c r="Q77" s="10">
-        <v>8.0351234865961851E-2</v>
+        <v>3.9217145408542819E-2</v>
       </c>
       <c r="R77" s="10">
-        <v>7.9146458015130872E-2</v>
+        <v>4.5699374082947886E-2</v>
       </c>
       <c r="S77" s="10">
-        <v>8.8832148608133155E-2</v>
+        <v>6.3899696557886854E-2</v>
       </c>
       <c r="T77" s="10">
-        <v>0.12321518713492452</v>
+        <v>7.5557494037620909E-2</v>
       </c>
       <c r="U77" s="10">
-        <v>0.13316923967929339</v>
+        <v>7.0660338233261122E-2</v>
       </c>
       <c r="V77" s="10">
-        <v>0.13478461831265465</v>
+        <v>7.951212827189269E-2</v>
       </c>
       <c r="W77" s="10">
-        <v>0.13423060313804513</v>
+        <v>8.709453155015634E-2</v>
       </c>
       <c r="X77" s="10">
-        <v>0.13371232839862635</v>
+        <v>8.577531905570468E-2</v>
       </c>
       <c r="Y77" s="10">
-        <v>0.11887265725742346</v>
+        <v>8.6846619944517478E-2</v>
       </c>
       <c r="Z77" s="10">
-        <v>9.649596156524165E-2</v>
+        <v>8.5800862649462184E-2</v>
       </c>
       <c r="AA77" s="10">
-        <v>0.11604196854105209</v>
+        <v>7.6288567059458412E-2</v>
       </c>
       <c r="AB77" s="10">
-        <v>6.3236055660424562E-2</v>
+        <v>8.3941144610940599E-2</v>
       </c>
       <c r="AC77" s="10">
-        <v>5.8980301274623503E-2</v>
+        <v>8.1865377730039324E-2</v>
       </c>
       <c r="AD77" s="10">
-        <v>7.7513284444370889E-2</v>
+        <v>7.1241441169418218E-2</v>
       </c>
       <c r="AE77" s="10">
-        <v>7.3912475079256135E-2</v>
+        <v>6.182906237149921E-2</v>
       </c>
       <c r="AF77" s="10">
-        <v>6.0984711688937043E-2</v>
+        <v>5.7738932364690632E-2</v>
       </c>
       <c r="AG77" s="10">
-        <v>5.7170465253709501E-2</v>
+        <v>8.2902937024412093E-2</v>
       </c>
       <c r="AH77" s="10">
-        <v>6.276605090607057E-2</v>
+        <v>7.1192809627786513E-2</v>
       </c>
       <c r="AI77" s="10">
-        <v>6.0965162764134773E-2</v>
+        <v>7.0608133693484509E-2</v>
+      </c>
+      <c r="AJ77" s="10">
+        <v>9.1333299702365922E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
@@ -8609,100 +8888,103 @@
         <v>74</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F78" s="10">
-        <v>0.11297757246702878</v>
+        <v>0.10275301649839919</v>
       </c>
       <c r="G78" s="10">
-        <v>0.10755501611683704</v>
+        <v>9.6283075362573189E-2</v>
       </c>
       <c r="H78" s="10">
-        <v>9.3043333235227843E-2</v>
+        <v>7.1948980577833721E-2</v>
       </c>
       <c r="I78" s="10">
-        <v>8.3156975050965753E-2</v>
+        <v>7.82440699796072E-2</v>
       </c>
       <c r="J78" s="10">
-        <v>8.2799642912591231E-2</v>
+        <v>6.6984489227555732E-2</v>
       </c>
       <c r="K78" s="10">
-        <v>8.7455718930460558E-2</v>
+        <v>7.3133996929820366E-2</v>
       </c>
       <c r="L78" s="10">
-        <v>5.5057015602783643E-2</v>
+        <v>6.901642015662901E-2</v>
       </c>
       <c r="M78" s="10">
-        <v>2.5857524585098046E-2</v>
+        <v>1.7296063685454222E-2</v>
       </c>
       <c r="N78" s="10">
-        <v>3.5565651976374291E-2</v>
+        <v>3.2327624934859633E-2</v>
       </c>
       <c r="O78" s="10">
-        <v>3.1410925852569438E-2</v>
+        <v>3.7971931032608319E-2</v>
       </c>
       <c r="P78" s="10">
-        <v>2.810067906968361E-2</v>
+        <v>9.1016785434398395E-2</v>
       </c>
       <c r="Q78" s="10">
-        <v>2.301571585447082E-2</v>
+        <v>8.0351234865961851E-2</v>
       </c>
       <c r="R78" s="10">
-        <v>2.0716916719072831E-2</v>
+        <v>7.9146458015130872E-2</v>
       </c>
       <c r="S78" s="10">
-        <v>2.2132995589569493E-2</v>
+        <v>8.8832148608133155E-2</v>
       </c>
       <c r="T78" s="10">
-        <v>3.0597316339810554E-2</v>
+        <v>0.12321518713492452</v>
       </c>
       <c r="U78" s="10">
-        <v>3.1834803183480309E-2</v>
+        <v>0.13316923967929339</v>
       </c>
       <c r="V78" s="10">
-        <v>4.3364489331385592E-2</v>
+        <v>0.13478461831265465</v>
       </c>
       <c r="W78" s="10">
-        <v>4.2723524266818913E-2</v>
+        <v>0.13423060313804513</v>
       </c>
       <c r="X78" s="10">
-        <v>4.6596933402352603E-2</v>
+        <v>0.13371232839862635</v>
       </c>
       <c r="Y78" s="10">
-        <v>4.6814505054442845E-2</v>
+        <v>0.11887265725742346</v>
       </c>
       <c r="Z78" s="10">
-        <v>3.7625916956231853E-2</v>
+        <v>9.649596156524165E-2</v>
       </c>
       <c r="AA78" s="10">
-        <v>3.3378431458124247E-2</v>
+        <v>0.11604196854105209</v>
       </c>
       <c r="AB78" s="10">
-        <v>4.5288281887318815E-2</v>
+        <v>6.3236055660424562E-2</v>
       </c>
       <c r="AC78" s="10">
-        <v>7.7145748097312117E-2</v>
+        <v>5.8980301274623503E-2</v>
       </c>
       <c r="AD78" s="10">
-        <v>8.1573017884804866E-2</v>
+        <v>7.7513284444370889E-2</v>
       </c>
       <c r="AE78" s="10">
-        <v>7.9391164503343825E-2</v>
+        <v>7.3912475079256135E-2</v>
       </c>
       <c r="AF78" s="10">
-        <v>7.6064237441649807E-2</v>
+        <v>6.0984711688937043E-2</v>
       </c>
       <c r="AG78" s="10">
-        <v>7.434333958724193E-2</v>
+        <v>5.7170465253709501E-2</v>
       </c>
       <c r="AH78" s="10">
-        <v>7.0240835537843216E-2</v>
+        <v>6.276605090607057E-2</v>
       </c>
       <c r="AI78" s="10">
-        <v>6.6830433182405669E-2</v>
+        <v>6.0965162764134773E-2</v>
+      </c>
+      <c r="AJ78" s="10">
+        <v>7.9447937675485303E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>0</v>
       </c>
@@ -8716,100 +8998,103 @@
         <v>74</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F79" s="10">
-        <v>4.2439636683501591E-2</v>
+        <v>0.11297757246702878</v>
       </c>
       <c r="G79" s="10">
-        <v>4.0538158745079711E-2</v>
+        <v>0.10755501611683704</v>
       </c>
       <c r="H79" s="10">
-        <v>2.2527040314650915E-2</v>
+        <v>9.3043333235227843E-2</v>
       </c>
       <c r="I79" s="10">
-        <v>3.834796606654356E-2</v>
+        <v>8.3156975050965753E-2</v>
       </c>
       <c r="J79" s="10">
-        <v>6.6817975487970971E-2</v>
+        <v>8.2799642912591231E-2</v>
       </c>
       <c r="K79" s="10">
-        <v>7.7024100733849243E-2</v>
+        <v>8.7455718930460558E-2</v>
       </c>
       <c r="L79" s="10">
-        <v>5.6874987650906039E-2</v>
+        <v>5.5057015602783643E-2</v>
       </c>
       <c r="M79" s="10">
-        <v>6.2094531974050238E-2</v>
+        <v>2.5857524585098046E-2</v>
       </c>
       <c r="N79" s="10">
-        <v>8.3734648486606833E-2</v>
+        <v>3.5565651976374291E-2</v>
       </c>
       <c r="O79" s="10">
-        <v>7.1884151368973859E-2</v>
+        <v>3.1410925852569438E-2</v>
       </c>
       <c r="P79" s="10">
-        <v>6.7667410504997472E-2</v>
+        <v>2.810067906968361E-2</v>
       </c>
       <c r="Q79" s="10">
-        <v>6.5360516225567933E-2</v>
+        <v>2.301571585447082E-2</v>
       </c>
       <c r="R79" s="10">
-        <v>9.131246859385822E-2</v>
+        <v>2.0716916719072831E-2</v>
       </c>
       <c r="S79" s="10">
-        <v>8.5295390811736427E-2</v>
+        <v>2.2132995589569493E-2</v>
       </c>
       <c r="T79" s="10">
-        <v>0.10268196286217068</v>
+        <v>3.0597316339810554E-2</v>
       </c>
       <c r="U79" s="10">
-        <v>9.4902035381396077E-2</v>
+        <v>3.1834803183480309E-2</v>
       </c>
       <c r="V79" s="10">
-        <v>0.10040753032838823</v>
+        <v>4.3364489331385592E-2</v>
       </c>
       <c r="W79" s="10">
-        <v>9.982221146596415E-2</v>
+        <v>4.2723524266818913E-2</v>
       </c>
       <c r="X79" s="10">
-        <v>0.10578711709774824</v>
+        <v>4.6596933402352603E-2</v>
       </c>
       <c r="Y79" s="10">
-        <v>8.3374667034077365E-2</v>
+        <v>4.6814505054442845E-2</v>
       </c>
       <c r="Z79" s="10">
-        <v>4.5159678412406645E-2</v>
+        <v>3.7625916956231853E-2</v>
       </c>
       <c r="AA79" s="10">
-        <v>5.0883273505331506E-2</v>
+        <v>3.3378431458124247E-2</v>
       </c>
       <c r="AB79" s="10">
-        <v>6.8428309227107853E-2</v>
+        <v>4.5288281887318815E-2</v>
       </c>
       <c r="AC79" s="10">
-        <v>5.4012061201379913E-2</v>
+        <v>7.7145748097312117E-2</v>
       </c>
       <c r="AD79" s="10">
-        <v>5.5758270781206543E-2</v>
+        <v>8.1573017884804866E-2</v>
       </c>
       <c r="AE79" s="10">
-        <v>5.4374403884505318E-2</v>
+        <v>7.9391164503343825E-2</v>
       </c>
       <c r="AF79" s="10">
-        <v>5.6013395076262906E-2</v>
+        <v>7.6064237441649807E-2</v>
       </c>
       <c r="AG79" s="10">
-        <v>4.6934449868830219E-2</v>
+        <v>7.434333958724193E-2</v>
       </c>
       <c r="AH79" s="10">
-        <v>2.9687741669387702E-2</v>
+        <v>7.0240835537843216E-2</v>
       </c>
       <c r="AI79" s="10">
-        <v>2.1497185899877147E-2</v>
+        <v>6.6830433182405669E-2</v>
+      </c>
+      <c r="AJ79" s="10">
+        <v>8.1131093999164294E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>0</v>
       </c>
@@ -8823,100 +9108,103 @@
         <v>74</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F80" s="10">
-        <v>7.3117743783945421E-2</v>
+        <v>4.2439636683501591E-2</v>
       </c>
       <c r="G80" s="10">
-        <v>7.1981640391139523E-2</v>
+        <v>4.0538158745079711E-2</v>
       </c>
       <c r="H80" s="10">
-        <v>6.9069515957816296E-2</v>
+        <v>2.2527040314650915E-2</v>
       </c>
       <c r="I80" s="10">
-        <v>6.9088508567093365E-2</v>
+        <v>3.834796606654356E-2</v>
       </c>
       <c r="J80" s="10">
-        <v>7.406753216167683E-2</v>
+        <v>6.6817975487970971E-2</v>
       </c>
       <c r="K80" s="10">
-        <v>6.6870962075225027E-2</v>
+        <v>7.7024100733849243E-2</v>
       </c>
       <c r="L80" s="10">
-        <v>5.0772669282199479E-2</v>
+        <v>5.6874987650906039E-2</v>
       </c>
       <c r="M80" s="10">
-        <v>2.5424125314643442E-2</v>
+        <v>6.2094531974050238E-2</v>
       </c>
       <c r="N80" s="10">
-        <v>3.016611046533435E-2</v>
+        <v>8.3734648486606833E-2</v>
       </c>
       <c r="O80" s="10">
-        <v>3.7178709707515134E-2</v>
+        <v>7.1884151368973859E-2</v>
       </c>
       <c r="P80" s="10">
-        <v>3.2836711480728864E-2</v>
+        <v>6.7667410504997472E-2</v>
       </c>
       <c r="Q80" s="10">
-        <v>3.9217145408542819E-2</v>
+        <v>6.5360516225567933E-2</v>
       </c>
       <c r="R80" s="10">
-        <v>4.5699374082947886E-2</v>
+        <v>9.131246859385822E-2</v>
       </c>
       <c r="S80" s="10">
-        <v>6.3899696557886854E-2</v>
+        <v>8.5295390811736427E-2</v>
       </c>
       <c r="T80" s="10">
-        <v>7.5557494037620909E-2</v>
+        <v>0.10268196286217068</v>
       </c>
       <c r="U80" s="10">
-        <v>7.0660338233261122E-2</v>
+        <v>9.4902035381396077E-2</v>
       </c>
       <c r="V80" s="10">
-        <v>7.951212827189269E-2</v>
+        <v>0.10040753032838823</v>
       </c>
       <c r="W80" s="10">
-        <v>8.709453155015634E-2</v>
+        <v>9.982221146596415E-2</v>
       </c>
       <c r="X80" s="10">
-        <v>8.577531905570468E-2</v>
+        <v>0.10578711709774824</v>
       </c>
       <c r="Y80" s="10">
-        <v>8.6846619944517478E-2</v>
+        <v>8.3374667034077365E-2</v>
       </c>
       <c r="Z80" s="10">
-        <v>8.5800862649462184E-2</v>
+        <v>4.5159678412406645E-2</v>
       </c>
       <c r="AA80" s="10">
-        <v>7.6288567059458412E-2</v>
+        <v>5.0883273505331506E-2</v>
       </c>
       <c r="AB80" s="10">
-        <v>8.3941144610940599E-2</v>
+        <v>6.8428309227107853E-2</v>
       </c>
       <c r="AC80" s="10">
-        <v>8.1865377730039324E-2</v>
+        <v>5.4012061201379913E-2</v>
       </c>
       <c r="AD80" s="10">
-        <v>7.1241441169418218E-2</v>
+        <v>5.5758270781206543E-2</v>
       </c>
       <c r="AE80" s="10">
-        <v>6.182906237149921E-2</v>
+        <v>5.4374403884505318E-2</v>
       </c>
       <c r="AF80" s="10">
-        <v>5.7738932364690632E-2</v>
+        <v>5.6013395076262906E-2</v>
       </c>
       <c r="AG80" s="10">
-        <v>8.2902937024412093E-2</v>
+        <v>4.6934449868830219E-2</v>
       </c>
       <c r="AH80" s="10">
-        <v>7.1192809627786513E-2</v>
+        <v>2.9687741669387702E-2</v>
       </c>
       <c r="AI80" s="10">
-        <v>7.0608133693484509E-2</v>
+        <v>2.1497185899877147E-2</v>
+      </c>
+      <c r="AJ80" s="10">
+        <v>4.0728342462974298E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>0</v>
       </c>
@@ -9022,8 +9310,11 @@
       <c r="AI81" s="10">
         <v>4.1049820035504281E-2</v>
       </c>
+      <c r="AJ81" s="10">
+        <v>5.9708863629003517E-2</v>
+      </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>0</v>
       </c>
@@ -9129,8 +9420,11 @@
       <c r="AI82" s="10">
         <v>0.11884809405470564</v>
       </c>
+      <c r="AJ82" s="10">
+        <v>0.13030483199691467</v>
+      </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>0</v>
       </c>
@@ -9236,8 +9530,11 @@
       <c r="AI83" s="10">
         <v>3.2609014972727834E-2</v>
       </c>
+      <c r="AJ83" s="10">
+        <v>3.7628544717980716E-2</v>
+      </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>0</v>
       </c>
@@ -9343,8 +9640,11 @@
       <c r="AI84" s="10">
         <v>0.11106220657276999</v>
       </c>
+      <c r="AJ84" s="10">
+        <v>0.14259116589625065</v>
+      </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>0</v>
       </c>
@@ -9450,8 +9750,11 @@
       <c r="AI85" s="10">
         <v>8.1472515547393431E-2</v>
       </c>
+      <c r="AJ85" s="10">
+        <v>4.7224000199502791E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
@@ -9557,8 +9860,11 @@
       <c r="AI86" s="10">
         <v>3.5026373496118035E-2</v>
       </c>
+      <c r="AJ86" s="10">
+        <v>3.6605281008969204E-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -9664,8 +9970,11 @@
       <c r="AI87" s="10">
         <v>9.7733543221787622E-2</v>
       </c>
+      <c r="AJ87" s="10">
+        <v>9.2498014795001415E-2</v>
+      </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>0</v>
       </c>
@@ -9771,8 +10080,11 @@
       <c r="AI88" s="10">
         <v>0.10992378205788444</v>
       </c>
+      <c r="AJ88" s="10">
+        <v>0.12184732362725192</v>
+      </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -9878,8 +10190,11 @@
       <c r="AI89" s="10">
         <v>8.7811236667576731E-2</v>
       </c>
+      <c r="AJ89" s="10">
+        <v>0.10149177722559277</v>
+      </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>0</v>
       </c>
@@ -9985,8 +10300,11 @@
       <c r="AI90" s="10">
         <v>2.9538405701464931E-2</v>
       </c>
+      <c r="AJ90" s="10">
+        <v>8.2518556864578763E-2</v>
+      </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -10092,8 +10410,11 @@
       <c r="AI91" s="10">
         <v>9.7236481498765626E-2</v>
       </c>
+      <c r="AJ91" s="10">
+        <v>0.10966365274283674</v>
+      </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>0</v>
       </c>
@@ -10199,8 +10520,11 @@
       <c r="AI92" s="10">
         <v>4.7564798869607516E-2</v>
       </c>
+      <c r="AJ92" s="10">
+        <v>5.265982719481932E-2</v>
+      </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
@@ -10306,8 +10630,11 @@
       <c r="AI93" s="10">
         <v>9.0891703686960534E-2</v>
       </c>
+      <c r="AJ93" s="10">
+        <v>9.2591950335547235E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>0</v>
       </c>
@@ -10413,8 +10740,11 @@
       <c r="AI94" s="10">
         <v>2.2922611549568428E-2</v>
       </c>
+      <c r="AJ94" s="10">
+        <v>2.5833268921924946E-2</v>
+      </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>0</v>
       </c>
@@ -10520,8 +10850,11 @@
       <c r="AI95" s="10">
         <v>6.7070347943632758E-2</v>
       </c>
+      <c r="AJ95" s="10">
+        <v>6.5346424807233516E-2</v>
+      </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
@@ -10627,8 +10960,11 @@
       <c r="AI96" s="10">
         <v>6.094159553733447E-2</v>
       </c>
+      <c r="AJ96" s="10">
+        <v>5.736279065858807E-2</v>
+      </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>0</v>
       </c>
@@ -10734,8 +11070,11 @@
       <c r="AI97" s="10">
         <v>7.8668304545112644E-2</v>
       </c>
+      <c r="AJ97" s="10">
+        <v>0.10281543449411212</v>
+      </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>0</v>
       </c>
@@ -10841,8 +11180,11 @@
       <c r="AI98" s="10">
         <v>6.6360294117647101E-2</v>
       </c>
+      <c r="AJ98" s="10">
+        <v>9.6377175750376853E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>0</v>
       </c>
@@ -10948,8 +11290,11 @@
       <c r="AI99" s="10">
         <v>4.8281868827135144E-2</v>
       </c>
+      <c r="AJ99" s="10">
+        <v>3.8048533707590204E-2</v>
+      </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>0</v>
       </c>
@@ -11055,8 +11400,11 @@
       <c r="AI100" s="10">
         <v>8.4317227238151826E-2</v>
       </c>
+      <c r="AJ100" s="10">
+        <v>9.1005893715021546E-2</v>
+      </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>0</v>
       </c>
@@ -11162,8 +11510,11 @@
       <c r="AI101" s="10">
         <v>-4.5105621794830686E-2</v>
       </c>
+      <c r="AJ101" s="10">
+        <v>-3.8396298149724672E-2</v>
+      </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -11269,8 +11620,11 @@
       <c r="AI102" s="10">
         <v>9.051064602297787E-2</v>
       </c>
+      <c r="AJ102" s="10">
+        <v>0.10035919664289294</v>
+      </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>0</v>
       </c>
@@ -11376,8 +11730,11 @@
       <c r="AI103" s="10">
         <v>9.3107916332448859E-2</v>
       </c>
+      <c r="AJ103" s="10">
+        <v>9.2458832006467206E-2</v>
+      </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
@@ -11483,8 +11840,11 @@
       <c r="AI104" s="10">
         <v>0.14260904684975761</v>
       </c>
+      <c r="AJ104" s="10">
+        <v>0.14234106185780693</v>
+      </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
@@ -11590,8 +11950,11 @@
       <c r="AI105" s="10">
         <v>4.2079999999999895E-2</v>
       </c>
+      <c r="AJ105" s="10">
+        <v>7.9026358127956664E-2</v>
+      </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
@@ -11697,8 +12060,11 @@
       <c r="AI106" s="10">
         <v>9.5604060549537184E-2</v>
       </c>
+      <c r="AJ106" s="10">
+        <v>0.11145233639839214</v>
+      </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>0</v>
       </c>
@@ -11804,8 +12170,11 @@
       <c r="AI107" s="10">
         <v>0.17345240688303187</v>
       </c>
+      <c r="AJ107" s="10">
+        <v>0.17304230423042322</v>
+      </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -11911,8 +12280,11 @@
       <c r="AI108" s="10">
         <v>9.3467277143509886E-2</v>
       </c>
+      <c r="AJ108" s="10">
+        <v>0.1056548870536389</v>
+      </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -12018,8 +12390,11 @@
       <c r="AI109" s="10">
         <v>0.15149019500187588</v>
       </c>
+      <c r="AJ109" s="10">
+        <v>0.13949067074661192</v>
+      </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>0</v>
       </c>
@@ -12125,8 +12500,11 @@
       <c r="AI110" s="10">
         <v>0.12635860692061529</v>
       </c>
+      <c r="AJ110" s="10">
+        <v>0.11919050813811372</v>
+      </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>0</v>
       </c>
@@ -12232,8 +12610,11 @@
       <c r="AI111" s="10">
         <v>5.6714498581372119E-2</v>
       </c>
+      <c r="AJ111" s="10">
+        <v>5.9009888964239865E-2</v>
+      </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>0</v>
       </c>
@@ -12339,8 +12720,11 @@
       <c r="AI112" s="10">
         <v>0.1067140040794381</v>
       </c>
+      <c r="AJ112" s="10">
+        <v>0.11186629619153776</v>
+      </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>0</v>
       </c>
@@ -12354,100 +12738,103 @@
         <v>123</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F113" s="10">
-        <v>-3.4647467029831347E-3</v>
+        <v>3.3528499224340536E-2</v>
       </c>
       <c r="G113" s="10">
-        <v>-2.8746531451501189E-3</v>
+        <v>3.4736305783390042E-2</v>
       </c>
       <c r="H113" s="10">
-        <v>4.2638426146279773E-3</v>
+        <v>3.449860167798624E-2</v>
       </c>
       <c r="I113" s="10">
-        <v>3.4222013564942921E-2</v>
+        <v>1.2063765618268052E-2</v>
       </c>
       <c r="J113" s="10">
-        <v>3.4561800428673628E-2</v>
+        <v>1.2376672853374959E-2</v>
       </c>
       <c r="K113" s="10">
-        <v>5.6292722155206754E-3</v>
+        <v>2.4262416677239607E-2</v>
       </c>
       <c r="L113" s="10">
-        <v>-1.0728489669221131E-2</v>
+        <v>1.7974644462883216E-2</v>
       </c>
       <c r="M113" s="10">
-        <v>2.2019407598701024E-2</v>
+        <v>1.8523906507613264E-2</v>
       </c>
       <c r="N113" s="10">
-        <v>0.14309154515340072</v>
+        <v>3.5715668809542356E-2</v>
       </c>
       <c r="O113" s="10">
-        <v>0.15274662808123618</v>
+        <v>8.8120900172216743E-2</v>
       </c>
       <c r="P113" s="10">
-        <v>0.14902717380208652</v>
+        <v>8.8890179677818981E-2</v>
       </c>
       <c r="Q113" s="10">
-        <v>0.14595186875490063</v>
+        <v>9.8046628859483453E-2</v>
       </c>
       <c r="R113" s="10">
-        <v>0.17112654119396686</v>
+        <v>0.12799109088268046</v>
       </c>
       <c r="S113" s="10">
-        <v>0.12777032573224689</v>
+        <v>0.12522447718539409</v>
       </c>
       <c r="T113" s="10">
-        <v>0.11404253638499973</v>
+        <v>0.12650858323517489</v>
       </c>
       <c r="U113" s="10">
-        <v>9.6554854786211619E-2</v>
+        <v>0.1280719068075391</v>
       </c>
       <c r="V113" s="10">
-        <v>0.10507486164264002</v>
+        <v>0.12454046334803204</v>
       </c>
       <c r="W113" s="10">
-        <v>0.12331652704771767</v>
+        <v>0.13538004173455676</v>
       </c>
       <c r="X113" s="10">
-        <v>0.1305204737998118</v>
+        <v>0.15501047304021465</v>
       </c>
       <c r="Y113" s="10">
-        <v>0.13391207802524918</v>
+        <v>0.17448105122833746</v>
       </c>
       <c r="Z113" s="10">
-        <v>6.3257770675910985E-2</v>
+        <v>0.15525767220991415</v>
       </c>
       <c r="AA113" s="10">
-        <v>2.7489375437086405E-2</v>
+        <v>0.10917966318709671</v>
       </c>
       <c r="AB113" s="10">
-        <v>3.0028162507440559E-3</v>
+        <v>0.13431960027738765</v>
       </c>
       <c r="AC113" s="10">
-        <v>-1.5649534636876461E-2</v>
+        <v>0.14956431150623728</v>
       </c>
       <c r="AD113" s="10">
-        <v>-3.1017529408736366E-2</v>
+        <v>0.13166841228687676</v>
       </c>
       <c r="AE113" s="10">
-        <v>2.6450799737265385E-3</v>
+        <v>0.14347370950027449</v>
       </c>
       <c r="AF113" s="10">
-        <v>1.8169248768036272E-3</v>
+        <v>0.14660130102762325</v>
       </c>
       <c r="AG113" s="10">
-        <v>1.0657600366410058E-2</v>
+        <v>0.14836225159314864</v>
       </c>
       <c r="AH113" s="10">
-        <v>-1.6629923446803363E-2</v>
+        <v>0.1565674766611751</v>
       </c>
       <c r="AI113" s="10">
-        <v>-1.4949733474554305E-2</v>
+        <v>0.1458160242369313</v>
+      </c>
+      <c r="AJ113" s="10">
+        <v>0.12136480010503514</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>0</v>
       </c>
@@ -12461,100 +12848,103 @@
         <v>123</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F114" s="10">
-        <v>3.3528499224340536E-2</v>
+        <v>-3.4647467029831347E-3</v>
       </c>
       <c r="G114" s="10">
-        <v>3.4736305783390042E-2</v>
+        <v>-2.8746531451501189E-3</v>
       </c>
       <c r="H114" s="10">
-        <v>3.449860167798624E-2</v>
+        <v>4.2638426146279773E-3</v>
       </c>
       <c r="I114" s="10">
-        <v>1.2063765618268052E-2</v>
+        <v>3.4222013564942921E-2</v>
       </c>
       <c r="J114" s="10">
-        <v>1.2376672853374959E-2</v>
+        <v>3.4561800428673628E-2</v>
       </c>
       <c r="K114" s="10">
-        <v>2.4262416677239607E-2</v>
+        <v>5.6292722155206754E-3</v>
       </c>
       <c r="L114" s="10">
-        <v>1.7974644462883216E-2</v>
+        <v>-1.0728489669221131E-2</v>
       </c>
       <c r="M114" s="10">
-        <v>1.8523906507613264E-2</v>
+        <v>2.2019407598701024E-2</v>
       </c>
       <c r="N114" s="10">
-        <v>3.5715668809542356E-2</v>
+        <v>0.14309154515340072</v>
       </c>
       <c r="O114" s="10">
-        <v>8.8120900172216743E-2</v>
+        <v>0.15274662808123618</v>
       </c>
       <c r="P114" s="10">
-        <v>8.8890179677818981E-2</v>
+        <v>0.14902717380208652</v>
       </c>
       <c r="Q114" s="10">
-        <v>9.8046628859483453E-2</v>
+        <v>0.14595186875490063</v>
       </c>
       <c r="R114" s="10">
-        <v>0.12799109088268046</v>
+        <v>0.17112654119396686</v>
       </c>
       <c r="S114" s="10">
-        <v>0.12522447718539409</v>
+        <v>0.12777032573224689</v>
       </c>
       <c r="T114" s="10">
-        <v>0.12650858323517489</v>
+        <v>0.11404253638499973</v>
       </c>
       <c r="U114" s="10">
-        <v>0.1280719068075391</v>
+        <v>9.6554854786211619E-2</v>
       </c>
       <c r="V114" s="10">
-        <v>0.12454046334803204</v>
+        <v>0.10507486164264002</v>
       </c>
       <c r="W114" s="10">
-        <v>0.13538004173455676</v>
+        <v>0.12331652704771767</v>
       </c>
       <c r="X114" s="10">
-        <v>0.15501047304021465</v>
+        <v>0.1305204737998118</v>
       </c>
       <c r="Y114" s="10">
-        <v>0.17448105122833746</v>
+        <v>0.13391207802524918</v>
       </c>
       <c r="Z114" s="10">
-        <v>0.15525767220991415</v>
+        <v>6.3257770675910985E-2</v>
       </c>
       <c r="AA114" s="10">
-        <v>0.10917966318709671</v>
+        <v>2.7489375437086405E-2</v>
       </c>
       <c r="AB114" s="10">
-        <v>0.13431960027738765</v>
+        <v>3.0028162507440559E-3</v>
       </c>
       <c r="AC114" s="10">
-        <v>0.14956431150623728</v>
+        <v>-1.5649534636876461E-2</v>
       </c>
       <c r="AD114" s="10">
-        <v>0.13166841228687676</v>
+        <v>-3.1017529408736366E-2</v>
       </c>
       <c r="AE114" s="10">
-        <v>0.14347370950027449</v>
+        <v>2.6450799737265385E-3</v>
       </c>
       <c r="AF114" s="10">
-        <v>0.14660130102762325</v>
+        <v>1.8169248768036272E-3</v>
       </c>
       <c r="AG114" s="10">
-        <v>0.14836225159314864</v>
+        <v>1.0657600366410058E-2</v>
       </c>
       <c r="AH114" s="10">
-        <v>0.1565674766611751</v>
+        <v>-1.6629923446803363E-2</v>
       </c>
       <c r="AI114" s="10">
-        <v>0.1458160242369313</v>
+        <v>-1.4949733474554305E-2</v>
+      </c>
+      <c r="AJ114" s="10">
+        <v>-8.2830998742355888E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>0</v>
       </c>
@@ -12660,8 +13050,11 @@
       <c r="AI115" s="10">
         <v>0.19598518948744026</v>
       </c>
+      <c r="AJ115" s="10">
+        <v>0.19457437691923163</v>
+      </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
@@ -12767,8 +13160,11 @@
       <c r="AI116" s="10">
         <v>7.945908597374407E-2</v>
       </c>
+      <c r="AJ116" s="10">
+        <v>8.9707465900933148E-2</v>
+      </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
@@ -12874,8 +13270,11 @@
       <c r="AI117" s="10">
         <v>0.21609527606139123</v>
       </c>
+      <c r="AJ117" s="10">
+        <v>0.20371734071695791</v>
+      </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -12981,8 +13380,11 @@
       <c r="AI118" s="10">
         <v>0.20988242448814121</v>
       </c>
+      <c r="AJ118" s="10">
+        <v>0.17912518200779193</v>
+      </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>0</v>
       </c>
@@ -13088,8 +13490,11 @@
       <c r="AI119" s="10">
         <v>0.16172406462585021</v>
       </c>
+      <c r="AJ119" s="10">
+        <v>0.18928940328945609</v>
+      </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>0</v>
       </c>
@@ -13195,8 +13600,11 @@
       <c r="AI120" s="10">
         <v>3.6925623052959544E-2</v>
       </c>
+      <c r="AJ120" s="10">
+        <v>3.5983368544940442E-2</v>
+      </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
@@ -13302,8 +13710,11 @@
       <c r="AI121" s="10">
         <v>0.12303167464023446</v>
       </c>
+      <c r="AJ121" s="10">
+        <v>0.11299535880042844</v>
+      </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>0</v>
       </c>
@@ -13409,8 +13820,11 @@
       <c r="AI122" s="10">
         <v>2.6520433566313839E-2</v>
       </c>
+      <c r="AJ122" s="10">
+        <v>3.0205875312061758E-2</v>
+      </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
@@ -13516,8 +13930,11 @@
       <c r="AI123" s="10">
         <v>3.6855102807752171E-2</v>
       </c>
+      <c r="AJ123" s="10">
+        <v>3.8094208382888128E-2</v>
+      </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>0</v>
       </c>
@@ -13623,8 +14040,11 @@
       <c r="AI124" s="10">
         <v>1.308131579427485E-2</v>
       </c>
+      <c r="AJ124" s="10">
+        <v>1.9996558563290634E-2</v>
+      </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>0</v>
       </c>
@@ -13730,8 +14150,11 @@
       <c r="AI125" s="10">
         <v>-4.1604448792544102E-2</v>
       </c>
+      <c r="AJ125" s="10">
+        <v>2.4958475011087611E-3</v>
+      </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>0</v>
       </c>
@@ -13837,8 +14260,11 @@
       <c r="AI126" s="10">
         <v>5.4403397708149726E-2</v>
       </c>
+      <c r="AJ126" s="10">
+        <v>6.7608646701193376E-2</v>
+      </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -13944,8 +14370,11 @@
       <c r="AI127" s="10">
         <v>6.3324131211432322E-2</v>
       </c>
+      <c r="AJ127" s="10">
+        <v>4.1915825712397714E-2</v>
+      </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>0</v>
       </c>
@@ -14051,8 +14480,11 @@
       <c r="AI128" s="10">
         <v>6.0249045169028737E-2</v>
       </c>
+      <c r="AJ128" s="10">
+        <v>5.5327385167351251E-2</v>
+      </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>147</v>
       </c>
@@ -14158,8 +14590,11 @@
       <c r="AI129" s="10">
         <v>5.8810351712785813E-2</v>
       </c>
+      <c r="AJ129" s="10">
+        <v>3.8426600556386026E-2</v>
+      </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>147</v>
       </c>
@@ -14265,8 +14700,11 @@
       <c r="AI130" s="10">
         <v>5.5301433481725004E-2</v>
       </c>
+      <c r="AJ130" s="10">
+        <v>5.5301433481725004E-2</v>
+      </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>147</v>
       </c>
@@ -14372,8 +14810,11 @@
       <c r="AI131" s="10">
         <v>5.5670400895492689E-2</v>
       </c>
+      <c r="AJ131" s="10">
+        <v>9.2509172812148099E-2</v>
+      </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>147</v>
       </c>
@@ -14479,8 +14920,11 @@
       <c r="AI132" s="10">
         <v>1.7282246419587199E-2</v>
       </c>
+      <c r="AJ132" s="10">
+        <v>1.7282246419587199E-2</v>
+      </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>147</v>
       </c>
@@ -14586,8 +15030,11 @@
       <c r="AI133" s="10">
         <v>4.3287676310863166E-2</v>
       </c>
+      <c r="AJ133" s="10">
+        <v>4.9580190165514404E-2</v>
+      </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>147</v>
       </c>
@@ -14693,8 +15140,11 @@
       <c r="AI134" s="10">
         <v>2.0827619157162802E-2</v>
       </c>
+      <c r="AJ134" s="10">
+        <v>2.0827619157162802E-2</v>
+      </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>147</v>
       </c>
@@ -14800,8 +15250,11 @@
       <c r="AI135" s="10">
         <v>4.4741280902322433E-2</v>
       </c>
+      <c r="AJ135" s="10">
+        <v>4.4741280902322433E-2</v>
+      </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>147</v>
       </c>
@@ -14907,8 +15360,11 @@
       <c r="AI136" s="10">
         <v>3.4548695230843807E-2</v>
       </c>
+      <c r="AJ136" s="10">
+        <v>3.4548695230843807E-2</v>
+      </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>147</v>
       </c>
@@ -15014,8 +15470,11 @@
       <c r="AI137" s="10">
         <v>2.382803453865745E-2</v>
       </c>
+      <c r="AJ137" s="10">
+        <v>2.382803453865745E-2</v>
+      </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>147</v>
       </c>
@@ -15121,8 +15580,11 @@
       <c r="AI138" s="10">
         <v>1.3508958665957138E-2</v>
       </c>
+      <c r="AJ138" s="10">
+        <v>1.3508958665957138E-2</v>
+      </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>147</v>
       </c>
@@ -15228,8 +15690,11 @@
       <c r="AI139" s="10">
         <v>2.5320518535689285E-2</v>
       </c>
+      <c r="AJ139" s="10">
+        <v>3.572511189172789E-2</v>
+      </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>147</v>
       </c>
@@ -15335,8 +15800,11 @@
       <c r="AI140" s="10">
         <v>5.3865345299559886E-2</v>
       </c>
+      <c r="AJ140" s="10">
+        <v>4.7798233075585062E-2</v>
+      </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>147</v>
       </c>
@@ -15442,8 +15910,11 @@
       <c r="AI141" s="10">
         <v>-5.4160476812657787E-2</v>
       </c>
+      <c r="AJ141" s="10">
+        <v>-8.9354955451772522E-2</v>
+      </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>147</v>
       </c>
@@ -15549,8 +16020,11 @@
       <c r="AI142" s="10">
         <v>-1.6687232483707959E-2</v>
       </c>
+      <c r="AJ142" s="10">
+        <v>-1.214302855771543E-2</v>
+      </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>147</v>
       </c>
@@ -15656,8 +16130,11 @@
       <c r="AI143" s="10">
         <v>-4.7780545634622862E-2</v>
       </c>
+      <c r="AJ143" s="10">
+        <v>-6.3988620757308157E-2</v>
+      </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>147</v>
       </c>
@@ -15763,8 +16240,11 @@
       <c r="AI144" s="10">
         <v>8.7457648925676423E-2</v>
       </c>
+      <c r="AJ144" s="10">
+        <v>0.14225126730302251</v>
+      </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>147</v>
       </c>
@@ -15870,8 +16350,11 @@
       <c r="AI145" s="10">
         <v>1.6677449500395403E-2</v>
       </c>
+      <c r="AJ145" s="10">
+        <v>3.4430676283829786E-2</v>
+      </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>147</v>
       </c>
@@ -15977,8 +16460,11 @@
       <c r="AI146" s="10">
         <v>1.503844414292077E-3</v>
       </c>
+      <c r="AJ146" s="10">
+        <v>6.6200041511957686E-2</v>
+      </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>147</v>
       </c>
@@ -16084,8 +16570,11 @@
       <c r="AI147" s="10">
         <v>0.14314956222764152</v>
       </c>
+      <c r="AJ147" s="10">
+        <v>0.13394670050761404</v>
+      </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>147</v>
       </c>
@@ -16191,8 +16680,11 @@
       <c r="AI148" s="10">
         <v>1.8403106648986478E-2</v>
       </c>
+      <c r="AJ148" s="10">
+        <v>5.1672134867581265E-2</v>
+      </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>147</v>
       </c>
@@ -16298,8 +16790,11 @@
       <c r="AI149" s="10">
         <v>7.746147355331523E-2</v>
       </c>
+      <c r="AJ149" s="10">
+        <v>6.8201267212392169E-2</v>
+      </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>147</v>
       </c>
@@ -16405,8 +16900,11 @@
       <c r="AI150" s="10">
         <v>9.037579200349577E-2</v>
       </c>
+      <c r="AJ150" s="10">
+        <v>0.11337810774626855</v>
+      </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>147</v>
       </c>
@@ -16512,8 +17010,11 @@
       <c r="AI151" s="10">
         <v>0.10871846234559079</v>
       </c>
+      <c r="AJ151" s="10">
+        <v>0.18238537969319957</v>
+      </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>147</v>
       </c>
@@ -16619,8 +17120,11 @@
       <c r="AI152" s="10">
         <v>5.4181289859994708E-2</v>
       </c>
+      <c r="AJ152" s="10">
+        <v>6.1709875844371487E-2</v>
+      </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>147</v>
       </c>
@@ -16726,8 +17230,11 @@
       <c r="AI153" s="10">
         <v>6.6075388026607396E-3</v>
       </c>
+      <c r="AJ153" s="10">
+        <v>1.0314855875831475E-2</v>
+      </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>147</v>
       </c>
@@ -16833,8 +17340,11 @@
       <c r="AI154" s="10">
         <v>0.13724745075685618</v>
       </c>
+      <c r="AJ154" s="10">
+        <v>8.8998579014285539E-3</v>
+      </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>147</v>
       </c>
@@ -16940,8 +17450,11 @@
       <c r="AI155" s="10">
         <v>6.7884500949268567E-2</v>
       </c>
+      <c r="AJ155" s="10">
+        <v>7.9633862971429492E-2</v>
+      </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>147</v>
       </c>
@@ -17047,8 +17560,11 @@
       <c r="AI156" s="10">
         <v>-1.9636822142077293E-4</v>
       </c>
+      <c r="AJ156" s="10">
+        <v>-1.2382750828097144E-3</v>
+      </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>147</v>
       </c>
@@ -17154,8 +17670,11 @@
       <c r="AI157" s="10">
         <v>0</v>
       </c>
+      <c r="AJ157" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>147</v>
       </c>
@@ -17261,8 +17780,11 @@
       <c r="AI158" s="10">
         <v>-4.7375836562169038E-3</v>
       </c>
+      <c r="AJ158" s="10">
+        <v>9.6117771068193747E-3</v>
+      </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>147</v>
       </c>
@@ -17368,8 +17890,11 @@
       <c r="AI159" s="10">
         <v>2.9243656288567621E-2</v>
       </c>
+      <c r="AJ159" s="10">
+        <v>9.0829518499391693E-2</v>
+      </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>190</v>
       </c>
@@ -17475,8 +18000,11 @@
       <c r="AI160" s="10">
         <v>0.2570583365117165</v>
       </c>
+      <c r="AJ160" s="10">
+        <v>0.27460510328068044</v>
+      </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -17582,8 +18110,11 @@
       <c r="AI161" s="10">
         <v>1.3492882195172307E-2</v>
       </c>
+      <c r="AJ161" s="10">
+        <v>2.2627448531401528E-2</v>
+      </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>190</v>
       </c>
@@ -17689,8 +18220,11 @@
       <c r="AI162" s="10">
         <v>5.2409513960703258E-2</v>
       </c>
+      <c r="AJ162" s="10">
+        <v>7.8936268503826401E-3</v>
+      </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>190</v>
       </c>
@@ -17796,8 +18330,11 @@
       <c r="AI163" s="10">
         <v>0.20290059884470657</v>
       </c>
+      <c r="AJ163" s="10">
+        <v>0.20290059884470657</v>
+      </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>190</v>
       </c>
@@ -17903,8 +18440,11 @@
       <c r="AI164" s="10">
         <v>6.2883536245200711E-2</v>
       </c>
+      <c r="AJ164" s="10">
+        <v>6.2005233620249678E-2</v>
+      </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>190</v>
       </c>
@@ -18010,8 +18550,11 @@
       <c r="AI165" s="10">
         <v>6.3959493857675076E-2</v>
       </c>
+      <c r="AJ165" s="10">
+        <v>5.1929697408950926E-2</v>
+      </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>190</v>
       </c>
@@ -18117,8 +18660,11 @@
       <c r="AI166" s="10">
         <v>2.1879406862954642E-3</v>
       </c>
+      <c r="AJ166" s="10">
+        <v>1.2683463376069737E-2</v>
+      </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>190</v>
       </c>
@@ -18224,8 +18770,11 @@
       <c r="AI167" s="10">
         <v>5.7573519538069107E-2</v>
       </c>
+      <c r="AJ167" s="10">
+        <v>0.11875587484893235</v>
+      </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>190</v>
       </c>
@@ -18331,8 +18880,11 @@
       <c r="AI168" s="10">
         <v>9.1794603396138763E-2</v>
       </c>
+      <c r="AJ168" s="10">
+        <v>9.2387509697439807E-2</v>
+      </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>190</v>
       </c>
@@ -18438,8 +18990,11 @@
       <c r="AI169" s="10">
         <v>9.360655922587835E-4</v>
       </c>
+      <c r="AJ169" s="10">
+        <v>8.7557983470295975E-2</v>
+      </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>190</v>
       </c>
@@ -18545,8 +19100,11 @@
       <c r="AI170" s="10">
         <v>0.23123369436319074</v>
       </c>
+      <c r="AJ170" s="10">
+        <v>0.23789429994465983</v>
+      </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>190</v>
       </c>
@@ -18652,8 +19210,11 @@
       <c r="AI171" s="10">
         <v>8.118675252989882E-2</v>
       </c>
+      <c r="AJ171" s="10">
+        <v>3.7963059920900211E-2</v>
+      </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>190</v>
       </c>
@@ -18759,8 +19320,11 @@
       <c r="AI172" s="10">
         <v>-8.2360346463115075E-2</v>
       </c>
+      <c r="AJ172" s="10">
+        <v>1.118914824760342E-4</v>
+      </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>190</v>
       </c>
@@ -18866,8 +19430,11 @@
       <c r="AI173" s="10">
         <v>9.9080885793976226E-2</v>
       </c>
+      <c r="AJ173" s="10">
+        <v>8.9206491829056045E-2</v>
+      </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>190</v>
       </c>
@@ -18973,8 +19540,11 @@
       <c r="AI174" s="10">
         <v>4.5889897559756809E-2</v>
       </c>
+      <c r="AJ174" s="10">
+        <v>7.5418968564633371E-3</v>
+      </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>190</v>
       </c>
@@ -19080,8 +19650,11 @@
       <c r="AI175" s="10">
         <v>5.7546500845469861E-2</v>
       </c>
+      <c r="AJ175" s="10">
+        <v>6.6600352257275564E-2</v>
+      </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>190</v>
       </c>
@@ -19187,8 +19760,11 @@
       <c r="AI176" s="10">
         <v>3.2032258368430711E-4</v>
       </c>
+      <c r="AJ176" s="10">
+        <v>-2.5741356661728942E-2</v>
+      </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>190</v>
       </c>
@@ -19294,8 +19870,11 @@
       <c r="AI177" s="10">
         <v>9.9190627810320064E-2</v>
       </c>
+      <c r="AJ177" s="10">
+        <v>0.10717092417503182</v>
+      </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>190</v>
       </c>
@@ -19401,8 +19980,11 @@
       <c r="AI178" s="10">
         <v>0.10704023656533912</v>
       </c>
+      <c r="AJ178" s="10">
+        <v>7.1463850498846071E-2</v>
+      </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>190</v>
       </c>
@@ -19508,8 +20090,11 @@
       <c r="AI179" s="10">
         <v>5.1582967376484712E-2</v>
       </c>
+      <c r="AJ179" s="10">
+        <v>6.4827077626945284E-2</v>
+      </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>190</v>
       </c>
@@ -19615,8 +20200,11 @@
       <c r="AI180" s="10">
         <v>6.6004826793976124E-2</v>
       </c>
+      <c r="AJ180" s="10">
+        <v>6.7895057206821541E-2</v>
+      </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>190</v>
       </c>
@@ -19722,8 +20310,11 @@
       <c r="AI181" s="10">
         <v>-4.0090841675936129E-2</v>
       </c>
+      <c r="AJ181" s="10">
+        <v>-2.5006507269550449E-3</v>
+      </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>190</v>
       </c>
@@ -19829,8 +20420,11 @@
       <c r="AI182" s="10">
         <v>0.15663895542717587</v>
       </c>
+      <c r="AJ182" s="10">
+        <v>0.23342950604537172</v>
+      </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>190</v>
       </c>
@@ -19936,8 +20530,11 @@
       <c r="AI183" s="10">
         <v>4.280212193881261E-2</v>
       </c>
+      <c r="AJ183" s="10">
+        <v>5.1740425841145354E-2</v>
+      </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>190</v>
       </c>
@@ -20043,8 +20640,11 @@
       <c r="AI184" s="10">
         <v>5.2435445305440087E-2</v>
       </c>
+      <c r="AJ184" s="10">
+        <v>5.0138326291507829E-2</v>
+      </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>190</v>
       </c>
@@ -20055,103 +20655,106 @@
         <v>223</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F185" s="10">
-        <v>-0.12517395521443941</v>
+        <v>-1.6044436896210601E-2</v>
       </c>
       <c r="G185" s="10">
-        <v>-0.16329108806823922</v>
+        <v>-2.4688043748446464E-2</v>
       </c>
       <c r="H185" s="10">
-        <v>-0.17427219504370839</v>
+        <v>-2.3794577466893729E-2</v>
       </c>
       <c r="I185" s="10">
-        <v>-0.13987314311687782</v>
+        <v>-2.6600729825121183E-2</v>
       </c>
       <c r="J185" s="10">
-        <v>-0.13952073580664459</v>
+        <v>-4.5253841082096291E-2</v>
       </c>
       <c r="K185" s="10">
-        <v>-0.15469983998348213</v>
+        <v>-3.4395503280524764E-2</v>
       </c>
       <c r="L185" s="10">
-        <v>-0.1171355119917904</v>
+        <v>-3.135783037714146E-2</v>
       </c>
       <c r="M185" s="10">
-        <v>-0.10021025392204441</v>
+        <v>-2.6842312786242162E-2</v>
       </c>
       <c r="N185" s="10">
-        <v>-0.11555931358201343</v>
+        <v>-1.8631336732521708E-2</v>
       </c>
       <c r="O185" s="10">
-        <v>-0.10040250447227195</v>
+        <v>-1.2860750176349689E-2</v>
       </c>
       <c r="P185" s="10">
-        <v>-3.9541916270940947E-2</v>
+        <v>-2.1263045443340456E-3</v>
       </c>
       <c r="Q185" s="10">
-        <v>5.8593230784102834E-2</v>
+        <v>-3.6162301311649658E-3</v>
       </c>
       <c r="R185" s="10">
-        <v>3.6659877800407248E-2</v>
+        <v>-6.548821719751019E-3</v>
       </c>
       <c r="S185" s="10">
-        <v>6.8946357607894804E-2</v>
+        <v>-8.1556090201029274E-4</v>
       </c>
       <c r="T185" s="10">
-        <v>3.0995046620046818E-2</v>
+        <v>4.10325504486031E-3</v>
       </c>
       <c r="U185" s="10">
-        <v>6.7497778098051908E-2</v>
+        <v>1.618355013827788E-3</v>
       </c>
       <c r="V185" s="10">
-        <v>4.3210986087644399E-2</v>
+        <v>2.4693424852467283E-2</v>
       </c>
       <c r="W185" s="10">
-        <v>6.3336590131900516E-2</v>
+        <v>1.8840954995080095E-2</v>
       </c>
       <c r="X185" s="10">
-        <v>4.0466860792561121E-2</v>
+        <v>2.9852300897860617E-2</v>
       </c>
       <c r="Y185" s="10">
-        <v>0.10714071730716235</v>
+        <v>3.0917553191489366E-2</v>
       </c>
       <c r="Z185" s="10">
-        <v>0.15159277826124251</v>
+        <v>2.8043754454463832E-2</v>
       </c>
       <c r="AA185" s="10">
-        <v>0.16766094954014421</v>
+        <v>3.3616752451868903E-2</v>
       </c>
       <c r="AB185" s="10">
-        <v>6.0180529617392065E-2</v>
+        <v>2.8555252457666436E-2</v>
       </c>
       <c r="AC185" s="10">
-        <v>7.625048512658994E-3</v>
+        <v>2.6092394758965742E-2</v>
       </c>
       <c r="AD185" s="10">
-        <v>4.8255658501993759E-2</v>
+        <v>2.2893117756474402E-2</v>
       </c>
       <c r="AE185" s="10">
-        <v>4.7323638089426856E-2</v>
+        <v>2.2027914949189986E-2</v>
       </c>
       <c r="AF185" s="10">
-        <v>7.1631280837484157E-2</v>
+        <v>2.124566700212438E-2</v>
       </c>
       <c r="AG185" s="10">
-        <v>-2.2512994757093674E-2</v>
+        <v>2.5473473227798804E-2</v>
       </c>
       <c r="AH185" s="10">
-        <v>-1.4760444306603726E-2</v>
+        <v>3.388065188089695E-2</v>
       </c>
       <c r="AI185" s="10">
-        <v>-2.0134151103760378E-2</v>
+        <v>3.3782684722052814E-2</v>
+      </c>
+      <c r="AJ185" s="10">
+        <v>1.5960029128570197E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>190</v>
       </c>
@@ -20162,103 +20765,106 @@
         <v>223</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F186" s="10">
-        <v>-5.3487115877080771E-2</v>
+        <v>-9.2714701673987654E-2</v>
       </c>
       <c r="G186" s="10">
-        <v>-9.0404005761712036E-2</v>
+        <v>-2.402747211856382E-2</v>
       </c>
       <c r="H186" s="10">
-        <v>-7.6002751772201171E-2</v>
+        <v>4.802213184318127E-2</v>
       </c>
       <c r="I186" s="10">
-        <v>-5.5354981744958232E-2</v>
+        <v>7.634450290778183E-2</v>
       </c>
       <c r="J186" s="10">
-        <v>-1.4078970507608313E-2</v>
+        <v>9.109116949380125E-2</v>
       </c>
       <c r="K186" s="10">
-        <v>-2.9858448835151763E-2</v>
+        <v>0.12711329438635555</v>
       </c>
       <c r="L186" s="10">
-        <v>-2.1448230046502759E-2</v>
+        <v>0.13227662773739146</v>
       </c>
       <c r="M186" s="10">
-        <v>-1.4092273108040843E-2</v>
+        <v>0.13633145669689495</v>
       </c>
       <c r="N186" s="10">
-        <v>6.2897652939137405E-2</v>
+        <v>0.14528619341036464</v>
       </c>
       <c r="O186" s="10">
-        <v>2.1988217802966892E-2</v>
+        <v>0.12519719544259411</v>
       </c>
       <c r="P186" s="10">
-        <v>-3.5335652675134277E-2</v>
+        <v>0.17404927267380033</v>
       </c>
       <c r="Q186" s="10">
-        <v>1.9031640488296864E-2</v>
+        <v>0.23092541263160293</v>
       </c>
       <c r="R186" s="10">
-        <v>1.4394267657285464E-2</v>
+        <v>0.1786931348221672</v>
       </c>
       <c r="S186" s="10">
-        <v>5.3863638811983527E-2</v>
+        <v>0.15310624298739639</v>
       </c>
       <c r="T186" s="10">
-        <v>4.989425525486646E-2</v>
+        <v>0.11282418021580454</v>
       </c>
       <c r="U186" s="10">
-        <v>4.0910363240962422E-3</v>
+        <v>7.3769901303940566E-2</v>
       </c>
       <c r="V186" s="10">
-        <v>3.3197632937423727E-2</v>
+        <v>8.0686677673746043E-2</v>
       </c>
       <c r="W186" s="10">
-        <v>7.6775265163440576E-2</v>
+        <v>8.1240707928555533E-2</v>
       </c>
       <c r="X186" s="10">
-        <v>2.4439918533604832E-2</v>
+        <v>6.4452676458547575E-2</v>
       </c>
       <c r="Y186" s="10">
-        <v>2.8942330443760822E-2</v>
+        <v>5.8345941990289862E-3</v>
       </c>
       <c r="Z186" s="10">
-        <v>1.2771418953038127E-2</v>
+        <v>-2.7737240480221081E-2</v>
       </c>
       <c r="AA186" s="10">
-        <v>3.5975236261812871E-2</v>
+        <v>2.3503524555049227E-2</v>
       </c>
       <c r="AB186" s="10">
-        <v>3.9895007522326775E-2</v>
+        <v>1.3526923780987188E-2</v>
       </c>
       <c r="AC186" s="10">
-        <v>5.3533731301071974E-3</v>
+        <v>-0.16694775469355227</v>
       </c>
       <c r="AD186" s="10">
-        <v>7.7211589552316662E-2</v>
+        <v>-0.14576432942233197</v>
       </c>
       <c r="AE186" s="10">
-        <v>5.0456417962321254E-2</v>
+        <v>-0.1193058363406202</v>
       </c>
       <c r="AF186" s="10">
-        <v>5.614594039054488E-2</v>
+        <v>-0.19273442077607872</v>
       </c>
       <c r="AG186" s="10">
-        <v>4.3477794694743999E-2</v>
+        <v>-0.17618248909761813</v>
       </c>
       <c r="AH186" s="10">
-        <v>6.7430335526850183E-3</v>
+        <v>-0.1759899792182652</v>
       </c>
       <c r="AI186" s="10">
-        <v>9.4469929928919782E-3</v>
+        <v>-0.14164626106611422</v>
+      </c>
+      <c r="AJ186" s="10">
+        <v>-0.13749695139110374</v>
       </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>190</v>
       </c>
@@ -20269,103 +20875,106 @@
         <v>223</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F187" s="10">
-        <v>-8.2764847512039053E-3</v>
+        <v>-1.7013943286855793E-2</v>
       </c>
       <c r="G187" s="10">
-        <v>-2.9404093097913475E-2</v>
+        <v>-5.7665611361343849E-2</v>
       </c>
       <c r="H187" s="10">
-        <v>-3.4740166523112292E-2</v>
+        <v>-7.408603729261487E-2</v>
       </c>
       <c r="I187" s="10">
-        <v>-2.575345177413757E-2</v>
+        <v>-0.11871839097260783</v>
       </c>
       <c r="J187" s="10">
-        <v>-3.1793960923623521E-2</v>
+        <v>-5.9275918154254037E-2</v>
       </c>
       <c r="K187" s="10">
-        <v>-2.3032781218208842E-2</v>
+        <v>-7.439198855507867E-2</v>
       </c>
       <c r="L187" s="10">
-        <v>3.1746196691329276E-2</v>
+        <v>-7.2797280630508721E-2</v>
       </c>
       <c r="M187" s="10">
-        <v>3.0240796837295303E-2</v>
+        <v>-5.8846103351814283E-2</v>
       </c>
       <c r="N187" s="10">
-        <v>1.6172150560586962E-2</v>
+        <v>-4.33840587856551E-2</v>
       </c>
       <c r="O187" s="10">
-        <v>9.5948618535706132E-3</v>
+        <v>-2.2383341491270969E-2</v>
       </c>
       <c r="P187" s="10">
-        <v>5.7761262795216428E-2</v>
+        <v>1.317450789642538E-2</v>
       </c>
       <c r="Q187" s="10">
-        <v>6.6828454421355987E-2</v>
+        <v>5.9402137964879476E-2</v>
       </c>
       <c r="R187" s="10">
-        <v>6.2546153457083475E-2</v>
+        <v>5.7524756683241973E-2</v>
       </c>
       <c r="S187" s="10">
-        <v>0.12415632202916838</v>
+        <v>5.7135286948227337E-2</v>
       </c>
       <c r="T187" s="10">
-        <v>0.13972594309626851</v>
+        <v>5.0118398240940332E-2</v>
       </c>
       <c r="U187" s="10">
-        <v>0.11739965255554541</v>
+        <v>0.1008867953736261</v>
       </c>
       <c r="V187" s="10">
-        <v>0.13945453433620747</v>
+        <v>5.1228414694017177E-2</v>
       </c>
       <c r="W187" s="10">
-        <v>0.13977657584795011</v>
+        <v>7.3992642096784689E-2</v>
       </c>
       <c r="X187" s="10">
-        <v>0.13778238842950219</v>
+        <v>6.7341487417404755E-2</v>
       </c>
       <c r="Y187" s="10">
-        <v>0.15726103857271001</v>
+        <v>8.5488336158980216E-2</v>
       </c>
       <c r="Z187" s="10">
-        <v>0.18496548964689397</v>
+        <v>6.4902459349159169E-2</v>
       </c>
       <c r="AA187" s="10">
-        <v>0.13480672627475321</v>
+        <v>-1.9672678342321226E-2</v>
       </c>
       <c r="AB187" s="10">
-        <v>0.1015917204026171</v>
+        <v>-5.1073044668481504E-4</v>
       </c>
       <c r="AC187" s="10">
-        <v>0.10763572945101596</v>
+        <v>-2.1288594388834126E-2</v>
       </c>
       <c r="AD187" s="10">
-        <v>0.13890211161674837</v>
+        <v>-2.0305435547071204E-2</v>
       </c>
       <c r="AE187" s="10">
-        <v>0.11788232914371877</v>
+        <v>3.0477412628076017E-3</v>
       </c>
       <c r="AF187" s="10">
-        <v>0.12355000404963956</v>
+        <v>7.1775874044917032E-3</v>
       </c>
       <c r="AG187" s="10">
-        <v>9.4282155488276009E-2</v>
+        <v>-4.0758522327795643E-2</v>
       </c>
       <c r="AH187" s="10">
-        <v>7.6501999087664752E-2</v>
+        <v>-3.7259639789640753E-3</v>
       </c>
       <c r="AI187" s="10">
-        <v>8.9319768318535386E-2</v>
+        <v>4.8615615372141985E-2</v>
+      </c>
+      <c r="AJ187" s="10">
+        <v>2.5735592121260975E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>190</v>
       </c>
@@ -20376,103 +20985,106 @@
         <v>223</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F188" s="10">
-        <v>-7.0947802910094171E-2</v>
+        <v>-0.23779677489735618</v>
       </c>
       <c r="G188" s="10">
-        <v>-3.3027997722920754E-2</v>
+        <v>-0.27813068534084096</v>
       </c>
       <c r="H188" s="10">
-        <v>1.6247799777111549E-3</v>
+        <v>-0.29125289215585903</v>
       </c>
       <c r="I188" s="10">
-        <v>-8.4578488223442383E-3</v>
+        <v>-0.26000547956753561</v>
       </c>
       <c r="J188" s="10">
-        <v>-5.4337728054397072E-2</v>
+        <v>-0.20762285776071798</v>
       </c>
       <c r="K188" s="10">
-        <v>-8.3079859247331078E-2</v>
+        <v>-0.21760844265166157</v>
       </c>
       <c r="L188" s="10">
-        <v>-6.2312011229195829E-2</v>
+        <v>-0.15137249550840326</v>
       </c>
       <c r="M188" s="10">
-        <v>-6.0737438809676525E-2</v>
+        <v>-0.12741126543209869</v>
       </c>
       <c r="N188" s="10">
-        <v>-9.2153087385837829E-3</v>
+        <v>-0.11808181086420966</v>
       </c>
       <c r="O188" s="10">
-        <v>-2.0510384731631248E-4</v>
+        <v>-4.1410467178418342E-2</v>
       </c>
       <c r="P188" s="10">
-        <v>1.466888449942827E-2</v>
+        <v>-9.7606507100472806E-3</v>
       </c>
       <c r="Q188" s="10">
-        <v>3.7032677780393319E-2</v>
+        <v>-4.6971347990513501E-2</v>
       </c>
       <c r="R188" s="10">
-        <v>9.4215355763436204E-3</v>
+        <v>-5.1277714166753308E-2</v>
       </c>
       <c r="S188" s="10">
-        <v>6.4758520294570854E-2</v>
+        <v>2.9891304347826164E-2</v>
       </c>
       <c r="T188" s="10">
-        <v>1.7614823903752796E-2</v>
+        <v>0.12695546663970303</v>
       </c>
       <c r="U188" s="10">
-        <v>-5.1984487168908244E-2</v>
+        <v>0.12081339712918648</v>
       </c>
       <c r="V188" s="10">
-        <v>4.1281718991681426E-3</v>
+        <v>0.12446269939822319</v>
       </c>
       <c r="W188" s="10">
-        <v>3.3639044273882313E-2</v>
+        <v>0.18044884755357882</v>
       </c>
       <c r="X188" s="10">
-        <v>-3.4322373696873409E-3</v>
+        <v>0.10734289159855304</v>
       </c>
       <c r="Y188" s="10">
-        <v>4.9278911269788006E-2</v>
+        <v>0.19343428760915216</v>
       </c>
       <c r="Z188" s="10">
-        <v>5.6086712530916794E-2</v>
+        <v>0.21491591990264403</v>
       </c>
       <c r="AA188" s="10">
-        <v>-2.9897319066694128E-2</v>
+        <v>0.14527629233511585</v>
       </c>
       <c r="AB188" s="10">
-        <v>-3.053247405252002E-2</v>
+        <v>0.17582106836513445</v>
       </c>
       <c r="AC188" s="10">
-        <v>-2.415419061277968E-2</v>
+        <v>0.16494262923554981</v>
       </c>
       <c r="AD188" s="10">
-        <v>2.0226483533496875E-2</v>
+        <v>0.16867585544812447</v>
       </c>
       <c r="AE188" s="10">
-        <v>-6.8560628908056476E-2</v>
+        <v>0.32401875675010583</v>
       </c>
       <c r="AF188" s="10">
-        <v>-0.12009646137968388</v>
+        <v>0.1609756722807556</v>
       </c>
       <c r="AG188" s="10">
-        <v>-6.9849421185481764E-2</v>
+        <v>9.6699191949992436E-2</v>
       </c>
       <c r="AH188" s="10">
-        <v>-2.577045972585057E-2</v>
+        <v>2.7304499781564129E-3</v>
       </c>
       <c r="AI188" s="10">
-        <v>2.3996559933715966E-2</v>
+        <v>2.6193126903925723E-2</v>
+      </c>
+      <c r="AJ188" s="10">
+        <v>-1.3141176897665807E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
@@ -20486,100 +21098,103 @@
         <v>224</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F189" s="10">
-        <v>-2.0202020202020332E-3</v>
+        <v>-0.12517395521443941</v>
       </c>
       <c r="G189" s="10">
-        <v>-1.9203840768153846E-3</v>
+        <v>-0.16329108806823922</v>
       </c>
       <c r="H189" s="10">
-        <v>-7.0484096819363851E-2</v>
+        <v>-0.17427219504370839</v>
       </c>
       <c r="I189" s="10">
-        <v>-7.8955791158231703E-2</v>
+        <v>-0.13987314311687782</v>
       </c>
       <c r="J189" s="10">
-        <v>-8.3016603320664073E-2</v>
+        <v>-0.13952073580664459</v>
       </c>
       <c r="K189" s="10">
-        <v>-8.8387677535507136E-2</v>
+        <v>-0.15469983998348213</v>
       </c>
       <c r="L189" s="10">
-        <v>-0.1021804360872175</v>
+        <v>-0.1171355119917904</v>
       </c>
       <c r="M189" s="10">
-        <v>-9.4043077412176213E-2</v>
+        <v>-0.10021025392204441</v>
       </c>
       <c r="N189" s="10">
-        <v>-0.11047077760775814</v>
+        <v>-0.11555931358201343</v>
       </c>
       <c r="O189" s="10">
-        <v>-0.10789130153162396</v>
+        <v>-0.10040250447227195</v>
       </c>
       <c r="P189" s="10">
-        <v>-8.2913663485103872E-2</v>
+        <v>-3.9541916270940947E-2</v>
       </c>
       <c r="Q189" s="10">
-        <v>-0.10575419890167148</v>
+        <v>5.8593230784102834E-2</v>
       </c>
       <c r="R189" s="10">
-        <v>-0.12334148394596534</v>
+        <v>3.6659877800407248E-2</v>
       </c>
       <c r="S189" s="10">
-        <v>-0.13192969094480289</v>
+        <v>6.8946357607894804E-2</v>
       </c>
       <c r="T189" s="10">
-        <v>-3.9426253322285998E-2</v>
+        <v>3.0995046620046818E-2</v>
       </c>
       <c r="U189" s="10">
-        <v>-5.2125187324891908E-2</v>
+        <v>6.7497778098051908E-2</v>
       </c>
       <c r="V189" s="10">
-        <v>-4.8113001745200723E-2</v>
+        <v>4.3210986087644399E-2</v>
       </c>
       <c r="W189" s="10">
-        <v>-3.5427844156984079E-2</v>
+        <v>6.3336590131900516E-2</v>
       </c>
       <c r="X189" s="10">
-        <v>-2.0609598502740467E-2</v>
+        <v>4.0466860792561121E-2</v>
       </c>
       <c r="Y189" s="10">
-        <v>-5.2714113389626061E-2</v>
+        <v>0.10714071730716235</v>
       </c>
       <c r="Z189" s="10">
-        <v>-3.0114829542915889E-2</v>
+        <v>0.15159277826124251</v>
       </c>
       <c r="AA189" s="10">
-        <v>-6.8752513292524964E-2</v>
+        <v>0.16766094954014421</v>
       </c>
       <c r="AB189" s="10">
-        <v>-5.4056492078705443E-2</v>
+        <v>6.0180529617392065E-2</v>
       </c>
       <c r="AC189" s="10">
-        <v>-5.9886815711323926E-2</v>
+        <v>7.625048512658994E-3</v>
       </c>
       <c r="AD189" s="10">
-        <v>-7.6703246456333307E-3</v>
+        <v>4.8255658501993759E-2</v>
       </c>
       <c r="AE189" s="10">
-        <v>8.6351200027705577E-3</v>
+        <v>4.7323638089426856E-2</v>
       </c>
       <c r="AF189" s="10">
-        <v>-1.4741959694854923E-2</v>
+        <v>7.1631280837484157E-2</v>
       </c>
       <c r="AG189" s="10">
-        <v>-9.2798386911996378E-4</v>
+        <v>-2.2512994757093674E-2</v>
       </c>
       <c r="AH189" s="10">
-        <v>1.6042351808776001E-3</v>
+        <v>-1.4760444306603726E-2</v>
       </c>
       <c r="AI189" s="10">
-        <v>-1.14771253725231E-2</v>
+        <v>-2.0134151103760378E-2</v>
+      </c>
+      <c r="AJ189" s="10">
+        <v>-1.3601603169484444E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>190</v>
       </c>
@@ -20593,100 +21208,103 @@
         <v>224</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F190" s="10">
-        <v>-0.12619011938658276</v>
+        <v>-5.3487115877080771E-2</v>
       </c>
       <c r="G190" s="10">
-        <v>-3.9683031015910419E-2</v>
+        <v>-9.0404005761712036E-2</v>
       </c>
       <c r="H190" s="10">
-        <v>-2.9967986417240411E-2</v>
+        <v>-7.6002751772201171E-2</v>
       </c>
       <c r="I190" s="10">
-        <v>1.010038546368941E-3</v>
+        <v>-5.5354981744958232E-2</v>
       </c>
       <c r="J190" s="10">
-        <v>3.4159622629562847E-2</v>
+        <v>-1.4078970507608313E-2</v>
       </c>
       <c r="K190" s="10">
-        <v>3.4785892621110648E-2</v>
+        <v>-2.9858448835151763E-2</v>
       </c>
       <c r="L190" s="10">
-        <v>2.6944403449220999E-2</v>
+        <v>-2.1448230046502759E-2</v>
       </c>
       <c r="M190" s="10">
-        <v>2.6470996021884963E-2</v>
+        <v>-1.4092273108040843E-2</v>
       </c>
       <c r="N190" s="10">
-        <v>5.1126707718113451E-2</v>
+        <v>6.2897652939137405E-2</v>
       </c>
       <c r="O190" s="10">
-        <v>4.7706256076329945E-2</v>
+        <v>2.1988217802966892E-2</v>
       </c>
       <c r="P190" s="10">
-        <v>3.6242546271199494E-2</v>
+        <v>-3.5335652675134277E-2</v>
       </c>
       <c r="Q190" s="10">
-        <v>0.11775014510871995</v>
+        <v>1.9031640488296864E-2</v>
       </c>
       <c r="R190" s="10">
-        <v>4.8557120643922147E-2</v>
+        <v>1.4394267657285464E-2</v>
       </c>
       <c r="S190" s="10">
-        <v>-3.2018222451435374E-3</v>
+        <v>5.3863638811983527E-2</v>
       </c>
       <c r="T190" s="10">
-        <v>2.9080250102803795E-2</v>
+        <v>4.989425525486646E-2</v>
       </c>
       <c r="U190" s="10">
-        <v>-4.9915571846299578E-2</v>
+        <v>4.0910363240962422E-3</v>
       </c>
       <c r="V190" s="10">
-        <v>-5.1970448376497558E-2</v>
+        <v>3.3197632937423727E-2</v>
       </c>
       <c r="W190" s="10">
-        <v>-3.4640416860971968E-2</v>
+        <v>7.6775265163440576E-2</v>
       </c>
       <c r="X190" s="10">
-        <v>-2.6319571331786751E-2</v>
+        <v>2.4439918533604832E-2</v>
       </c>
       <c r="Y190" s="10">
-        <v>-1.8068471089407234E-2</v>
+        <v>2.8942330443760822E-2</v>
       </c>
       <c r="Z190" s="10">
-        <v>-6.8240753377912799E-4</v>
+        <v>1.2771418953038127E-2</v>
       </c>
       <c r="AA190" s="10">
-        <v>-5.5892444808908204E-2</v>
+        <v>3.5975236261812871E-2</v>
       </c>
       <c r="AB190" s="10">
-        <v>7.900327756840575E-3</v>
+        <v>3.9895007522326775E-2</v>
       </c>
       <c r="AC190" s="10">
-        <v>6.9994108071941508E-2</v>
+        <v>5.3533731301071974E-3</v>
       </c>
       <c r="AD190" s="10">
-        <v>8.9847455594203485E-2</v>
+        <v>7.7211589552316662E-2</v>
       </c>
       <c r="AE190" s="10">
-        <v>8.1650031258757805E-2</v>
+        <v>5.0456417962321254E-2</v>
       </c>
       <c r="AF190" s="10">
-        <v>8.5103330976751712E-2</v>
+        <v>5.614594039054488E-2</v>
       </c>
       <c r="AG190" s="10">
-        <v>0.2072803329143007</v>
+        <v>4.3477794694743999E-2</v>
       </c>
       <c r="AH190" s="10">
-        <v>0.18016253161831974</v>
+        <v>6.7430335526850183E-3</v>
       </c>
       <c r="AI190" s="10">
-        <v>0.17448149120504075</v>
+        <v>9.4469929928919782E-3</v>
+      </c>
+      <c r="AJ190" s="10">
+        <v>5.8916343210577926E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>190</v>
       </c>
@@ -20700,100 +21318,103 @@
         <v>224</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F191" s="10">
-        <v>2.9562621466209693E-2</v>
+        <v>-8.2764847512039053E-3</v>
       </c>
       <c r="G191" s="10">
-        <v>2.0348339394183457E-2</v>
+        <v>-2.9404093097913475E-2</v>
       </c>
       <c r="H191" s="10">
-        <v>1.3067056210353645E-2</v>
+        <v>-3.4740166523112292E-2</v>
       </c>
       <c r="I191" s="10">
-        <v>1.0725791927640893E-2</v>
+        <v>-2.575345177413757E-2</v>
       </c>
       <c r="J191" s="10">
-        <v>9.2249814900045024E-3</v>
+        <v>-3.1793960923623521E-2</v>
       </c>
       <c r="K191" s="10">
-        <v>7.9781398966805028E-5</v>
+        <v>-2.3032781218208842E-2</v>
       </c>
       <c r="L191" s="10">
-        <v>7.1958220379526594E-3</v>
+        <v>3.1746196691329276E-2</v>
       </c>
       <c r="M191" s="10">
-        <v>4.0060288751386786E-3</v>
+        <v>3.0240796837295303E-2</v>
       </c>
       <c r="N191" s="10">
-        <v>-4.7134618585569776E-2</v>
+        <v>1.6172150560586962E-2</v>
       </c>
       <c r="O191" s="10">
-        <v>-8.3988524766725581E-2</v>
+        <v>9.5948618535706132E-3</v>
       </c>
       <c r="P191" s="10">
-        <v>-7.5631953415729924E-2</v>
+        <v>5.7761262795216428E-2</v>
       </c>
       <c r="Q191" s="10">
-        <v>-5.7361599595826096E-2</v>
+        <v>6.6828454421355987E-2</v>
       </c>
       <c r="R191" s="10">
-        <v>-5.5958276979362176E-2</v>
+        <v>6.2546153457083475E-2</v>
       </c>
       <c r="S191" s="10">
-        <v>-3.2628762673880152E-2</v>
+        <v>0.12415632202916838</v>
       </c>
       <c r="T191" s="10">
-        <v>-2.8720420337376096E-2</v>
+        <v>0.13972594309626851</v>
       </c>
       <c r="U191" s="10">
-        <v>-3.5270941812350243E-2</v>
+        <v>0.11739965255554541</v>
       </c>
       <c r="V191" s="10">
-        <v>-2.6827140421144313E-2</v>
+        <v>0.13945453433620747</v>
       </c>
       <c r="W191" s="10">
-        <v>-3.3056779880736298E-2</v>
+        <v>0.13977657584795011</v>
       </c>
       <c r="X191" s="10">
-        <v>-2.6380890181875838E-2</v>
+        <v>0.13778238842950219</v>
       </c>
       <c r="Y191" s="10">
-        <v>-2.5066171532414194E-2</v>
+        <v>0.15726103857271001</v>
       </c>
       <c r="Z191" s="10">
-        <v>1.6903174097555373E-2</v>
+        <v>0.18496548964689397</v>
       </c>
       <c r="AA191" s="10">
-        <v>6.6495644273421917E-2</v>
+        <v>0.13480672627475321</v>
       </c>
       <c r="AB191" s="10">
-        <v>2.5124894400350595E-2</v>
+        <v>0.1015917204026171</v>
       </c>
       <c r="AC191" s="10">
-        <v>9.2556327430890484E-3</v>
+        <v>0.10763572945101596</v>
       </c>
       <c r="AD191" s="10">
-        <v>8.1940178516211049E-3</v>
+        <v>0.13890211161674837</v>
       </c>
       <c r="AE191" s="10">
-        <v>4.2455044598208591E-3</v>
+        <v>0.11788232914371877</v>
       </c>
       <c r="AF191" s="10">
-        <v>1.0554787277312405E-2</v>
+        <v>0.12355000404963956</v>
       </c>
       <c r="AG191" s="10">
-        <v>2.1681801857267535E-2</v>
+        <v>9.4282155488276009E-2</v>
       </c>
       <c r="AH191" s="10">
-        <v>2.8045475846050438E-2</v>
+        <v>7.6501999087664752E-2</v>
       </c>
       <c r="AI191" s="10">
-        <v>4.8748543318861026E-2</v>
+        <v>8.9319768318535386E-2</v>
+      </c>
+      <c r="AJ191" s="10">
+        <v>0.15010578310480049</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>190</v>
       </c>
@@ -20807,100 +21428,103 @@
         <v>224</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F192" s="10">
-        <v>-9.527153326542126E-2</v>
+        <v>-7.0947802910094171E-2</v>
       </c>
       <c r="G192" s="10">
-        <v>-6.4862832033569573E-2</v>
+        <v>-3.3027997722920754E-2</v>
       </c>
       <c r="H192" s="10">
-        <v>-4.2400598967569092E-2</v>
+        <v>1.6247799777111549E-3</v>
       </c>
       <c r="I192" s="10">
-        <v>-4.5094895795625423E-3</v>
+        <v>-8.4578488223442383E-3</v>
       </c>
       <c r="J192" s="10">
-        <v>-1.39252765176614E-2</v>
+        <v>-5.4337728054397072E-2</v>
       </c>
       <c r="K192" s="10">
-        <v>4.9058756417570404E-3</v>
+        <v>-8.3079859247331078E-2</v>
       </c>
       <c r="L192" s="10">
-        <v>3.3851276359600391E-2</v>
+        <v>-6.2312011229195829E-2</v>
       </c>
       <c r="M192" s="10">
-        <v>5.0937120532178914E-2</v>
+        <v>-6.0737438809676525E-2</v>
       </c>
       <c r="N192" s="10">
-        <v>5.6682890303257238E-2</v>
+        <v>-9.2153087385837829E-3</v>
       </c>
       <c r="O192" s="10">
-        <v>3.7643295121301046E-2</v>
+        <v>-2.0510384731631248E-4</v>
       </c>
       <c r="P192" s="10">
-        <v>8.9620405877030462E-2</v>
+        <v>1.466888449942827E-2</v>
       </c>
       <c r="Q192" s="10">
-        <v>0.10045046490974641</v>
+        <v>3.7032677780393319E-2</v>
       </c>
       <c r="R192" s="10">
-        <v>0.14919434180895963</v>
+        <v>9.4215355763436204E-3</v>
       </c>
       <c r="S192" s="10">
-        <v>9.7851624510530311E-2</v>
+        <v>6.4758520294570854E-2</v>
       </c>
       <c r="T192" s="10">
-        <v>3.0379408254804341E-2</v>
+        <v>1.7614823903752796E-2</v>
       </c>
       <c r="U192" s="10">
-        <v>-1.5553408347099729E-2</v>
+        <v>-5.1984487168908244E-2</v>
       </c>
       <c r="V192" s="10">
-        <v>9.9039584819444748E-3</v>
+        <v>4.1281718991681426E-3</v>
       </c>
       <c r="W192" s="10">
-        <v>4.468045578399793E-2</v>
+        <v>3.3639044273882313E-2</v>
       </c>
       <c r="X192" s="10">
-        <v>5.2299496652791655E-2</v>
+        <v>-3.4322373696873409E-3</v>
       </c>
       <c r="Y192" s="10">
-        <v>5.7068794019832225E-3</v>
+        <v>4.9278911269788006E-2</v>
       </c>
       <c r="Z192" s="10">
-        <v>1.8231697440880934E-2</v>
+        <v>5.6086712530916794E-2</v>
       </c>
       <c r="AA192" s="10">
-        <v>-1.324700683418123E-2</v>
+        <v>-2.9897319066694128E-2</v>
       </c>
       <c r="AB192" s="10">
-        <v>-6.2280042706316374E-3</v>
+        <v>-3.053247405252002E-2</v>
       </c>
       <c r="AC192" s="10">
-        <v>-6.7867803630634604E-3</v>
+        <v>-2.415419061277968E-2</v>
       </c>
       <c r="AD192" s="10">
-        <v>-1.7312558263417044E-3</v>
+        <v>2.0226483533496875E-2</v>
       </c>
       <c r="AE192" s="10">
-        <v>2.9844991131333209E-2</v>
+        <v>-6.8560628908056476E-2</v>
       </c>
       <c r="AF192" s="10">
-        <v>5.2287907984464477E-2</v>
+        <v>-0.12009646137968388</v>
       </c>
       <c r="AG192" s="10">
-        <v>9.3813323201621168E-2</v>
+        <v>-6.9849421185481764E-2</v>
       </c>
       <c r="AH192" s="10">
-        <v>0.11930963178314413</v>
+        <v>-2.577045972585057E-2</v>
       </c>
       <c r="AI192" s="10">
-        <v>7.4542813954177722E-2</v>
+        <v>2.3996559933715966E-2</v>
+      </c>
+      <c r="AJ192" s="10">
+        <v>4.2884425561134698E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>190</v>
       </c>
@@ -20914,100 +21538,103 @@
         <v>224</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F193" s="10">
-        <v>3.6711162098836292E-2</v>
+        <v>-2.0202020202020332E-3</v>
       </c>
       <c r="G193" s="10">
-        <v>-2.0041976650488125E-2</v>
+        <v>-1.9203840768153846E-3</v>
       </c>
       <c r="H193" s="10">
-        <v>-1.8483345145287045E-2</v>
+        <v>-7.0484096819363851E-2</v>
       </c>
       <c r="I193" s="10">
-        <v>-4.4016305930311472E-2</v>
+        <v>-7.8955791158231703E-2</v>
       </c>
       <c r="J193" s="10">
-        <v>-0.12716693381760236</v>
+        <v>-8.3016603320664073E-2</v>
       </c>
       <c r="K193" s="10">
-        <v>-0.10504034312499422</v>
+        <v>-8.8387677535507136E-2</v>
       </c>
       <c r="L193" s="10">
-        <v>-0.14539894853546009</v>
+        <v>-0.1021804360872175</v>
       </c>
       <c r="M193" s="10">
-        <v>-8.7306899171520458E-2</v>
+        <v>-9.4043077412176213E-2</v>
       </c>
       <c r="N193" s="10">
-        <v>-0.14932004117678932</v>
+        <v>-0.11047077760775814</v>
       </c>
       <c r="O193" s="10">
-        <v>-9.9028523600387497E-2</v>
+        <v>-0.10789130153162396</v>
       </c>
       <c r="P193" s="10">
-        <v>-4.9468527590350364E-2</v>
+        <v>-8.2913663485103872E-2</v>
       </c>
       <c r="Q193" s="10">
-        <v>-4.3532096951551913E-2</v>
+        <v>-0.10575419890167148</v>
       </c>
       <c r="R193" s="10">
-        <v>4.4732868811718784E-3</v>
+        <v>-0.12334148394596534</v>
       </c>
       <c r="S193" s="10">
-        <v>2.7479514662434035E-2</v>
+        <v>-0.13192969094480289</v>
       </c>
       <c r="T193" s="10">
-        <v>5.8294582599235589E-2</v>
+        <v>-3.9426253322285998E-2</v>
       </c>
       <c r="U193" s="10">
-        <v>3.5311437128788148E-2</v>
+        <v>-5.2125187324891908E-2</v>
       </c>
       <c r="V193" s="10">
-        <v>0.12119442911129052</v>
+        <v>-4.8113001745200723E-2</v>
       </c>
       <c r="W193" s="10">
-        <v>0.11912845461132382</v>
+        <v>-3.5427844156984079E-2</v>
       </c>
       <c r="X193" s="10">
-        <v>0.10971731079073477</v>
+        <v>-2.0609598502740467E-2</v>
       </c>
       <c r="Y193" s="10">
-        <v>0.11159338426930665</v>
+        <v>-5.2714113389626061E-2</v>
       </c>
       <c r="Z193" s="10">
-        <v>0.20655796870687637</v>
+        <v>-3.0114829542915889E-2</v>
       </c>
       <c r="AA193" s="10">
-        <v>0.15904512384789626</v>
+        <v>-6.8752513292524964E-2</v>
       </c>
       <c r="AB193" s="10">
-        <v>0.10432913903420915</v>
+        <v>-5.4056492078705443E-2</v>
       </c>
       <c r="AC193" s="10">
-        <v>8.927812343007302E-2</v>
+        <v>-5.9886815711323926E-2</v>
       </c>
       <c r="AD193" s="10">
-        <v>4.4953785827653858E-2</v>
+        <v>-7.6703246456333307E-3</v>
       </c>
       <c r="AE193" s="10">
-        <v>2.3915653120667457E-3</v>
+        <v>8.6351200027705577E-3</v>
       </c>
       <c r="AF193" s="10">
-        <v>2.5317492085440652E-2</v>
+        <v>-1.4741959694854923E-2</v>
       </c>
       <c r="AG193" s="10">
-        <v>0.12739646769242841</v>
+        <v>-9.2798386911996378E-4</v>
       </c>
       <c r="AH193" s="10">
-        <v>1.6265704736747377E-2</v>
+        <v>1.6042351808776001E-3</v>
       </c>
       <c r="AI193" s="10">
-        <v>1.7665720178692057E-2</v>
+        <v>-1.14771253725231E-2</v>
+      </c>
+      <c r="AJ193" s="10">
+        <v>-2.7367654753509219E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>190</v>
       </c>
@@ -21021,100 +21648,103 @@
         <v>224</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F194" s="10">
-        <v>8.5268901013250131E-2</v>
+        <v>-0.12619011938658276</v>
       </c>
       <c r="G194" s="10">
-        <v>0.11611487639572871</v>
+        <v>-3.9683031015910419E-2</v>
       </c>
       <c r="H194" s="10">
-        <v>7.9534888179526142E-2</v>
+        <v>-2.9967986417240411E-2</v>
       </c>
       <c r="I194" s="10">
-        <v>5.8252978415360035E-2</v>
+        <v>1.010038546368941E-3</v>
       </c>
       <c r="J194" s="10">
-        <v>5.9667091000270123E-2</v>
+        <v>3.4159622629562847E-2</v>
       </c>
       <c r="K194" s="10">
-        <v>3.4728307490799137E-2</v>
+        <v>3.4785892621110648E-2</v>
       </c>
       <c r="L194" s="10">
-        <v>5.9099659551062667E-2</v>
+        <v>2.6944403449220999E-2</v>
       </c>
       <c r="M194" s="10">
-        <v>1.4967206681988809E-2</v>
+        <v>2.6470996021884963E-2</v>
       </c>
       <c r="N194" s="10">
-        <v>-2.3521542324115408E-2</v>
+        <v>5.1126707718113451E-2</v>
       </c>
       <c r="O194" s="10">
-        <v>-3.9346696362286493E-2</v>
+        <v>4.7706256076329945E-2</v>
       </c>
       <c r="P194" s="10">
-        <v>-9.0444891085881274E-3</v>
+        <v>3.6242546271199494E-2</v>
       </c>
       <c r="Q194" s="10">
-        <v>-4.9945554845618467E-3</v>
+        <v>0.11775014510871995</v>
       </c>
       <c r="R194" s="10">
-        <v>-1.8574044814708479E-2</v>
+        <v>4.8557120643922147E-2</v>
       </c>
       <c r="S194" s="10">
-        <v>4.0628385698808778E-3</v>
+        <v>-3.2018222451435374E-3</v>
       </c>
       <c r="T194" s="10">
-        <v>-6.4981885344888801E-2</v>
+        <v>2.9080250102803795E-2</v>
       </c>
       <c r="U194" s="10">
-        <v>-2.4518701993150538E-2</v>
+        <v>-4.9915571846299578E-2</v>
       </c>
       <c r="V194" s="10">
-        <v>-1.1740186932899244E-3</v>
+        <v>-5.1970448376497558E-2</v>
       </c>
       <c r="W194" s="10">
-        <v>-2.7019558202142968E-2</v>
+        <v>-3.4640416860971968E-2</v>
       </c>
       <c r="X194" s="10">
-        <v>-2.2564267870094357E-3</v>
+        <v>-2.6319571331786751E-2</v>
       </c>
       <c r="Y194" s="10">
-        <v>1.7793364998711425E-2</v>
+        <v>-1.8068471089407234E-2</v>
       </c>
       <c r="Z194" s="10">
-        <v>1.9583923728734076E-2</v>
+        <v>-6.8240753377912799E-4</v>
       </c>
       <c r="AA194" s="10">
-        <v>8.8023523202774401E-2</v>
+        <v>-5.5892444808908204E-2</v>
       </c>
       <c r="AB194" s="10">
-        <v>-4.5315426430952988E-3</v>
+        <v>7.900327756840575E-3</v>
       </c>
       <c r="AC194" s="10">
-        <v>7.8595589964365331E-3</v>
+        <v>6.9994108071941508E-2</v>
       </c>
       <c r="AD194" s="10">
-        <v>2.5484115876805546E-2</v>
+        <v>8.9847455594203485E-2</v>
       </c>
       <c r="AE194" s="10">
-        <v>-8.4060669874779115E-2</v>
+        <v>8.1650031258757805E-2</v>
       </c>
       <c r="AF194" s="10">
-        <v>7.9488689243860655E-3</v>
+        <v>8.5103330976751712E-2</v>
       </c>
       <c r="AG194" s="10">
-        <v>4.4027463310447379E-2</v>
+        <v>0.2072803329143007</v>
       </c>
       <c r="AH194" s="10">
-        <v>-7.8359908883827156E-3</v>
+        <v>0.18016253161831974</v>
       </c>
       <c r="AI194" s="10">
-        <v>5.5787149440662542E-2</v>
+        <v>0.17448149120504075</v>
+      </c>
+      <c r="AJ194" s="10">
+        <v>0.2372066544373459</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>190</v>
       </c>
@@ -21128,100 +21758,103 @@
         <v>224</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F195" s="10">
-        <v>4.0083924467978926E-2</v>
+        <v>-9.527153326542126E-2</v>
       </c>
       <c r="G195" s="10">
-        <v>2.7963017605980189E-2</v>
+        <v>-6.4862832033569573E-2</v>
       </c>
       <c r="H195" s="10">
-        <v>8.5240195399798324E-3</v>
+        <v>-4.2400598967569092E-2</v>
       </c>
       <c r="I195" s="10">
-        <v>5.5761628438735444E-2</v>
+        <v>-4.5094895795625423E-3</v>
       </c>
       <c r="J195" s="10">
-        <v>4.5474939429893224E-2</v>
+        <v>-1.39252765176614E-2</v>
       </c>
       <c r="K195" s="10">
-        <v>4.4452322569844549E-2</v>
+        <v>4.9058756417570404E-3</v>
       </c>
       <c r="L195" s="10">
-        <v>3.3725819176878336E-2</v>
+        <v>3.3851276359600391E-2</v>
       </c>
       <c r="M195" s="10">
-        <v>-1.1951035563032897E-2</v>
+        <v>5.0937120532178914E-2</v>
       </c>
       <c r="N195" s="10">
-        <v>-3.6885361122304672E-2</v>
+        <v>5.6682890303257238E-2</v>
       </c>
       <c r="O195" s="10">
-        <v>-8.0825918630714755E-3</v>
+        <v>3.7643295121301046E-2</v>
       </c>
       <c r="P195" s="10">
-        <v>3.1123325317760075E-2</v>
+        <v>8.9620405877030462E-2</v>
       </c>
       <c r="Q195" s="10">
-        <v>4.6259073675386286E-2</v>
+        <v>0.10045046490974641</v>
       </c>
       <c r="R195" s="10">
-        <v>-1.2583812030508845E-3</v>
+        <v>0.14919434180895963</v>
       </c>
       <c r="S195" s="10">
-        <v>4.5946437285313779E-2</v>
+        <v>9.7851624510530311E-2</v>
       </c>
       <c r="T195" s="10">
-        <v>1.1393497274189146E-2</v>
+        <v>3.0379408254804341E-2</v>
       </c>
       <c r="U195" s="10">
-        <v>-7.1394193747112311E-2</v>
+        <v>-1.5553408347099729E-2</v>
       </c>
       <c r="V195" s="10">
-        <v>-9.412729596215974E-3</v>
+        <v>9.9039584819444748E-3</v>
       </c>
       <c r="W195" s="10">
-        <v>9.6831068913172391E-3</v>
+        <v>4.468045578399793E-2</v>
       </c>
       <c r="X195" s="10">
-        <v>2.7244270974224882E-3</v>
+        <v>5.2299496652791655E-2</v>
       </c>
       <c r="Y195" s="10">
-        <v>1.8182529896463295E-2</v>
+        <v>5.7068794019832225E-3</v>
       </c>
       <c r="Z195" s="10">
-        <v>9.0685296721901842E-3</v>
+        <v>1.8231697440880934E-2</v>
       </c>
       <c r="AA195" s="10">
-        <v>-3.4276323512149265E-2</v>
+        <v>-1.324700683418123E-2</v>
       </c>
       <c r="AB195" s="10">
-        <v>-4.2272692659153233E-2</v>
+        <v>-6.2280042706316374E-3</v>
       </c>
       <c r="AC195" s="10">
-        <v>-0.1010197578075207</v>
+        <v>-6.7867803630634604E-3</v>
       </c>
       <c r="AD195" s="10">
-        <v>-4.8359638745419486E-2</v>
+        <v>-1.7312558263417044E-3</v>
       </c>
       <c r="AE195" s="10">
-        <v>-6.2571467776608936E-2</v>
+        <v>2.9844991131333209E-2</v>
       </c>
       <c r="AF195" s="10">
-        <v>6.4003877847794266E-2</v>
+        <v>5.2287907984464477E-2</v>
       </c>
       <c r="AG195" s="10">
-        <v>0.14721522530086761</v>
+        <v>9.3813323201621168E-2</v>
       </c>
       <c r="AH195" s="10">
-        <v>4.6625140799645859E-2</v>
+        <v>0.11930963178314413</v>
       </c>
       <c r="AI195" s="10">
-        <v>4.8539518900343692E-2</v>
+        <v>7.4542813954177722E-2</v>
+      </c>
+      <c r="AJ195" s="10">
+        <v>3.1770016265170176E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>190</v>
       </c>
@@ -21235,100 +21868,103 @@
         <v>224</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F196" s="10">
-        <v>-4.7649118778345434E-2</v>
+        <v>3.6711162098836292E-2</v>
       </c>
       <c r="G196" s="10">
-        <v>-9.9298680667221917E-2</v>
+        <v>-2.0041976650488125E-2</v>
       </c>
       <c r="H196" s="10">
-        <v>-9.1616708567008431E-2</v>
+        <v>-1.8483345145287045E-2</v>
       </c>
       <c r="I196" s="10">
-        <v>-6.0061499141408126E-2</v>
+        <v>-4.4016305930311472E-2</v>
       </c>
       <c r="J196" s="10">
-        <v>-3.0934663589414546E-2</v>
+        <v>-0.12716693381760236</v>
       </c>
       <c r="K196" s="10">
-        <v>3.685519217801736E-2</v>
+        <v>-0.10504034312499422</v>
       </c>
       <c r="L196" s="10">
-        <v>-9.0115717928659356E-3</v>
+        <v>-0.14539894853546009</v>
       </c>
       <c r="M196" s="10">
-        <v>-1.7554623179227402E-2</v>
+        <v>-8.7306899171520458E-2</v>
       </c>
       <c r="N196" s="10">
-        <v>3.6740275526742305E-2</v>
+        <v>-0.14932004117678932</v>
       </c>
       <c r="O196" s="10">
-        <v>1.5498964053668018E-2</v>
+        <v>-9.9028523600387497E-2</v>
       </c>
       <c r="P196" s="10">
-        <v>2.5652858733709705E-2</v>
+        <v>-4.9468527590350364E-2</v>
       </c>
       <c r="Q196" s="10">
-        <v>6.235883433550482E-2</v>
+        <v>-4.3532096951551913E-2</v>
       </c>
       <c r="R196" s="10">
-        <v>6.0059879036309161E-2</v>
+        <v>4.4732868811718784E-3</v>
       </c>
       <c r="S196" s="10">
-        <v>0.14758611789251797</v>
+        <v>2.7479514662434035E-2</v>
       </c>
       <c r="T196" s="10">
-        <v>0.13734631965511745</v>
+        <v>5.8294582599235589E-2</v>
       </c>
       <c r="U196" s="10">
-        <v>6.5747546416280667E-2</v>
+        <v>3.5311437128788148E-2</v>
       </c>
       <c r="V196" s="10">
-        <v>0.13604032723156112</v>
+        <v>0.12119442911129052</v>
       </c>
       <c r="W196" s="10">
-        <v>6.2585103139924936E-2</v>
+        <v>0.11912845461132382</v>
       </c>
       <c r="X196" s="10">
-        <v>8.5337598162842587E-2</v>
+        <v>0.10971731079073477</v>
       </c>
       <c r="Y196" s="10">
-        <v>3.6401361777562924E-2</v>
+        <v>0.11159338426930665</v>
       </c>
       <c r="Z196" s="10">
-        <v>7.8468347875365163E-2</v>
+        <v>0.20655796870687637</v>
       </c>
       <c r="AA196" s="10">
-        <v>6.2198540117068823E-3</v>
+        <v>0.15904512384789626</v>
       </c>
       <c r="AB196" s="10">
-        <v>6.7188997789385141E-2</v>
+        <v>0.10432913903420915</v>
       </c>
       <c r="AC196" s="10">
-        <v>-7.0113106993355823E-3</v>
+        <v>8.927812343007302E-2</v>
       </c>
       <c r="AD196" s="10">
-        <v>0.16444575024641739</v>
+        <v>4.4953785827653858E-2</v>
       </c>
       <c r="AE196" s="10">
-        <v>0.12525068880850188</v>
+        <v>2.3915653120667457E-3</v>
       </c>
       <c r="AF196" s="10">
-        <v>0.14399895178197064</v>
+        <v>2.5317492085440652E-2</v>
       </c>
       <c r="AG196" s="10">
-        <v>0.22102294245450382</v>
+        <v>0.12739646769242841</v>
       </c>
       <c r="AH196" s="10">
-        <v>0.15504080021058186</v>
+        <v>1.6265704736747377E-2</v>
       </c>
       <c r="AI196" s="10">
-        <v>0.17054767665369286</v>
+        <v>1.7665720178692057E-2</v>
+      </c>
+      <c r="AJ196" s="10">
+        <v>0.10409261895558553</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>190</v>
       </c>
@@ -21339,103 +21975,106 @@
         <v>223</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F197" s="10">
-        <v>-1.6044436896210601E-2</v>
+        <v>2.9562621466209693E-2</v>
       </c>
       <c r="G197" s="10">
-        <v>-2.4688043748446464E-2</v>
+        <v>2.0348339394183457E-2</v>
       </c>
       <c r="H197" s="10">
-        <v>-2.3794577466893729E-2</v>
+        <v>1.3067056210353645E-2</v>
       </c>
       <c r="I197" s="10">
-        <v>-2.6600729825121183E-2</v>
+        <v>1.0725791927640893E-2</v>
       </c>
       <c r="J197" s="10">
-        <v>-4.5253841082096291E-2</v>
+        <v>9.2249814900045024E-3</v>
       </c>
       <c r="K197" s="10">
-        <v>-3.4395503280524764E-2</v>
+        <v>7.9781398966805028E-5</v>
       </c>
       <c r="L197" s="10">
-        <v>-3.135783037714146E-2</v>
+        <v>7.1958220379526594E-3</v>
       </c>
       <c r="M197" s="10">
-        <v>-2.6842312786242162E-2</v>
+        <v>4.0060288751386786E-3</v>
       </c>
       <c r="N197" s="10">
-        <v>-1.8631336732521708E-2</v>
+        <v>-4.7134618585569776E-2</v>
       </c>
       <c r="O197" s="10">
-        <v>-1.2860750176349689E-2</v>
+        <v>-8.3988524766725581E-2</v>
       </c>
       <c r="P197" s="10">
-        <v>-2.1263045443340456E-3</v>
+        <v>-7.5631953415729924E-2</v>
       </c>
       <c r="Q197" s="10">
-        <v>-3.6162301311649658E-3</v>
+        <v>-5.7361599595826096E-2</v>
       </c>
       <c r="R197" s="10">
-        <v>-6.548821719751019E-3</v>
+        <v>-5.5958276979362176E-2</v>
       </c>
       <c r="S197" s="10">
-        <v>-8.1556090201029274E-4</v>
+        <v>-3.2628762673880152E-2</v>
       </c>
       <c r="T197" s="10">
-        <v>4.10325504486031E-3</v>
+        <v>-2.8720420337376096E-2</v>
       </c>
       <c r="U197" s="10">
-        <v>1.618355013827788E-3</v>
+        <v>-3.5270941812350243E-2</v>
       </c>
       <c r="V197" s="10">
-        <v>2.4693424852467283E-2</v>
+        <v>-2.6827140421144313E-2</v>
       </c>
       <c r="W197" s="10">
-        <v>1.8840954995080095E-2</v>
+        <v>-3.3056779880736298E-2</v>
       </c>
       <c r="X197" s="10">
-        <v>2.9852300897860617E-2</v>
+        <v>-2.6380890181875838E-2</v>
       </c>
       <c r="Y197" s="10">
-        <v>3.0917553191489366E-2</v>
+        <v>-2.5066171532414194E-2</v>
       </c>
       <c r="Z197" s="10">
-        <v>2.8043754454463832E-2</v>
+        <v>1.6903174097555373E-2</v>
       </c>
       <c r="AA197" s="10">
-        <v>3.3616752451868903E-2</v>
+        <v>6.6495644273421917E-2</v>
       </c>
       <c r="AB197" s="10">
-        <v>2.8555252457666436E-2</v>
+        <v>2.5124894400350595E-2</v>
       </c>
       <c r="AC197" s="10">
-        <v>2.6092394758965742E-2</v>
+        <v>9.2556327430890484E-3</v>
       </c>
       <c r="AD197" s="10">
-        <v>2.2893117756474402E-2</v>
+        <v>8.1940178516211049E-3</v>
       </c>
       <c r="AE197" s="10">
-        <v>2.2027914949189986E-2</v>
+        <v>4.2455044598208591E-3</v>
       </c>
       <c r="AF197" s="10">
-        <v>2.124566700212438E-2</v>
+        <v>1.0554787277312405E-2</v>
       </c>
       <c r="AG197" s="10">
-        <v>2.5473473227798804E-2</v>
+        <v>2.1681801857267535E-2</v>
       </c>
       <c r="AH197" s="10">
-        <v>3.388065188089695E-2</v>
+        <v>2.8045475846050438E-2</v>
       </c>
       <c r="AI197" s="10">
-        <v>3.3782684722052814E-2</v>
+        <v>4.8748543318861026E-2</v>
+      </c>
+      <c r="AJ197" s="10">
+        <v>4.2838848686885145E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>190</v>
       </c>
@@ -21446,103 +22085,106 @@
         <v>223</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F198" s="10">
-        <v>-9.2714701673987654E-2</v>
+        <v>8.5268901013250131E-2</v>
       </c>
       <c r="G198" s="10">
-        <v>-2.402747211856382E-2</v>
+        <v>0.11611487639572871</v>
       </c>
       <c r="H198" s="10">
-        <v>4.802213184318127E-2</v>
+        <v>7.9534888179526142E-2</v>
       </c>
       <c r="I198" s="10">
-        <v>7.634450290778183E-2</v>
+        <v>5.8252978415360035E-2</v>
       </c>
       <c r="J198" s="10">
-        <v>9.109116949380125E-2</v>
+        <v>5.9667091000270123E-2</v>
       </c>
       <c r="K198" s="10">
-        <v>0.12711329438635555</v>
+        <v>3.4728307490799137E-2</v>
       </c>
       <c r="L198" s="10">
-        <v>0.13227662773739146</v>
+        <v>5.9099659551062667E-2</v>
       </c>
       <c r="M198" s="10">
-        <v>0.13633145669689495</v>
+        <v>1.4967206681988809E-2</v>
       </c>
       <c r="N198" s="10">
-        <v>0.14528619341036464</v>
+        <v>-2.3521542324115408E-2</v>
       </c>
       <c r="O198" s="10">
-        <v>0.12519719544259411</v>
+        <v>-3.9346696362286493E-2</v>
       </c>
       <c r="P198" s="10">
-        <v>0.17404927267380033</v>
+        <v>-9.0444891085881274E-3</v>
       </c>
       <c r="Q198" s="10">
-        <v>0.23092541263160293</v>
+        <v>-4.9945554845618467E-3</v>
       </c>
       <c r="R198" s="10">
-        <v>0.1786931348221672</v>
+        <v>-1.8574044814708479E-2</v>
       </c>
       <c r="S198" s="10">
-        <v>0.15310624298739639</v>
+        <v>4.0628385698808778E-3</v>
       </c>
       <c r="T198" s="10">
-        <v>0.11282418021580454</v>
+        <v>-6.4981885344888801E-2</v>
       </c>
       <c r="U198" s="10">
-        <v>7.3769901303940566E-2</v>
+        <v>-2.4518701993150538E-2</v>
       </c>
       <c r="V198" s="10">
-        <v>8.0686677673746043E-2</v>
+        <v>-1.1740186932899244E-3</v>
       </c>
       <c r="W198" s="10">
-        <v>8.1240707928555533E-2</v>
+        <v>-2.7019558202142968E-2</v>
       </c>
       <c r="X198" s="10">
-        <v>6.4452676458547575E-2</v>
+        <v>-2.2564267870094357E-3</v>
       </c>
       <c r="Y198" s="10">
-        <v>5.8345941990289862E-3</v>
+        <v>1.7793364998711425E-2</v>
       </c>
       <c r="Z198" s="10">
-        <v>-2.7737240480221081E-2</v>
+        <v>1.9583923728734076E-2</v>
       </c>
       <c r="AA198" s="10">
-        <v>2.3503524555049227E-2</v>
+        <v>8.8023523202774401E-2</v>
       </c>
       <c r="AB198" s="10">
-        <v>1.3526923780987188E-2</v>
+        <v>-4.5315426430952988E-3</v>
       </c>
       <c r="AC198" s="10">
-        <v>-0.16694775469355227</v>
+        <v>7.8595589964365331E-3</v>
       </c>
       <c r="AD198" s="10">
-        <v>-0.14576432942233197</v>
+        <v>2.5484115876805546E-2</v>
       </c>
       <c r="AE198" s="10">
-        <v>-0.1193058363406202</v>
+        <v>-8.4060669874779115E-2</v>
       </c>
       <c r="AF198" s="10">
-        <v>-0.19273442077607872</v>
+        <v>7.9488689243860655E-3</v>
       </c>
       <c r="AG198" s="10">
-        <v>-0.17618248909761813</v>
+        <v>4.4027463310447379E-2</v>
       </c>
       <c r="AH198" s="10">
-        <v>-0.1759899792182652</v>
+        <v>-7.8359908883827156E-3</v>
       </c>
       <c r="AI198" s="10">
-        <v>-0.14164626106611422</v>
+        <v>5.5787149440662542E-2</v>
+      </c>
+      <c r="AJ198" s="10">
+        <v>1.5516606987409087E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>190</v>
       </c>
@@ -21553,103 +22195,106 @@
         <v>223</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F199" s="10">
-        <v>-1.7013943286855793E-2</v>
+        <v>4.0083924467978926E-2</v>
       </c>
       <c r="G199" s="10">
-        <v>-5.7665611361343849E-2</v>
+        <v>2.7963017605980189E-2</v>
       </c>
       <c r="H199" s="10">
-        <v>-7.408603729261487E-2</v>
+        <v>8.5240195399798324E-3</v>
       </c>
       <c r="I199" s="10">
-        <v>-0.11871839097260783</v>
+        <v>5.5761628438735444E-2</v>
       </c>
       <c r="J199" s="10">
-        <v>-5.9275918154254037E-2</v>
+        <v>4.5474939429893224E-2</v>
       </c>
       <c r="K199" s="10">
-        <v>-7.439198855507867E-2</v>
+        <v>4.4452322569844549E-2</v>
       </c>
       <c r="L199" s="10">
-        <v>-7.2797280630508721E-2</v>
+        <v>3.3725819176878336E-2</v>
       </c>
       <c r="M199" s="10">
-        <v>-5.8846103351814283E-2</v>
+        <v>-1.1951035563032897E-2</v>
       </c>
       <c r="N199" s="10">
-        <v>-4.33840587856551E-2</v>
+        <v>-3.6885361122304672E-2</v>
       </c>
       <c r="O199" s="10">
-        <v>-2.2383341491270969E-2</v>
+        <v>-8.0825918630714755E-3</v>
       </c>
       <c r="P199" s="10">
-        <v>1.317450789642538E-2</v>
+        <v>3.1123325317760075E-2</v>
       </c>
       <c r="Q199" s="10">
-        <v>5.9402137964879476E-2</v>
+        <v>4.6259073675386286E-2</v>
       </c>
       <c r="R199" s="10">
-        <v>5.7524756683241973E-2</v>
+        <v>-1.2583812030508845E-3</v>
       </c>
       <c r="S199" s="10">
-        <v>5.7135286948227337E-2</v>
+        <v>4.5946437285313779E-2</v>
       </c>
       <c r="T199" s="10">
-        <v>5.0118398240940332E-2</v>
+        <v>1.1393497274189146E-2</v>
       </c>
       <c r="U199" s="10">
-        <v>0.1008867953736261</v>
+        <v>-7.1394193747112311E-2</v>
       </c>
       <c r="V199" s="10">
-        <v>5.1228414694017177E-2</v>
+        <v>-9.412729596215974E-3</v>
       </c>
       <c r="W199" s="10">
-        <v>7.3992642096784689E-2</v>
+        <v>9.6831068913172391E-3</v>
       </c>
       <c r="X199" s="10">
-        <v>6.7341487417404755E-2</v>
+        <v>2.7244270974224882E-3</v>
       </c>
       <c r="Y199" s="10">
-        <v>8.5488336158980216E-2</v>
+        <v>1.8182529896463295E-2</v>
       </c>
       <c r="Z199" s="10">
-        <v>6.4902459349159169E-2</v>
+        <v>9.0685296721901842E-3</v>
       </c>
       <c r="AA199" s="10">
-        <v>-1.9672678342321226E-2</v>
+        <v>-3.4276323512149265E-2</v>
       </c>
       <c r="AB199" s="10">
-        <v>-5.1073044668481504E-4</v>
+        <v>-4.2272692659153233E-2</v>
       </c>
       <c r="AC199" s="10">
-        <v>-2.1288594388834126E-2</v>
+        <v>-0.1010197578075207</v>
       </c>
       <c r="AD199" s="10">
-        <v>-2.0305435547071204E-2</v>
+        <v>-4.8359638745419486E-2</v>
       </c>
       <c r="AE199" s="10">
-        <v>3.0477412628076017E-3</v>
+        <v>-6.2571467776608936E-2</v>
       </c>
       <c r="AF199" s="10">
-        <v>7.1775874044917032E-3</v>
+        <v>6.4003877847794266E-2</v>
       </c>
       <c r="AG199" s="10">
-        <v>-4.0758522327795643E-2</v>
+        <v>0.14721522530086761</v>
       </c>
       <c r="AH199" s="10">
-        <v>-3.7259639789640753E-3</v>
+        <v>4.6625140799645859E-2</v>
       </c>
       <c r="AI199" s="10">
-        <v>4.8615615372141985E-2</v>
+        <v>4.8539518900343692E-2</v>
+      </c>
+      <c r="AJ199" s="10">
+        <v>0.17870700452837451</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>190</v>
       </c>
@@ -21660,103 +22305,106 @@
         <v>223</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F200" s="10">
-        <v>-0.23779677489735618</v>
+        <v>-4.7649118778345434E-2</v>
       </c>
       <c r="G200" s="10">
-        <v>-0.27813068534084096</v>
+        <v>-9.9298680667221917E-2</v>
       </c>
       <c r="H200" s="10">
-        <v>-0.29125289215585903</v>
+        <v>-9.1616708567008431E-2</v>
       </c>
       <c r="I200" s="10">
-        <v>-0.26000547956753561</v>
+        <v>-6.0061499141408126E-2</v>
       </c>
       <c r="J200" s="10">
-        <v>-0.20762285776071798</v>
+        <v>-3.0934663589414546E-2</v>
       </c>
       <c r="K200" s="10">
-        <v>-0.21760844265166157</v>
+        <v>3.685519217801736E-2</v>
       </c>
       <c r="L200" s="10">
-        <v>-0.15137249550840326</v>
+        <v>-9.0115717928659356E-3</v>
       </c>
       <c r="M200" s="10">
-        <v>-0.12741126543209869</v>
+        <v>-1.7554623179227402E-2</v>
       </c>
       <c r="N200" s="10">
-        <v>-0.11808181086420966</v>
+        <v>3.6740275526742305E-2</v>
       </c>
       <c r="O200" s="10">
-        <v>-4.1410467178418342E-2</v>
+        <v>1.5498964053668018E-2</v>
       </c>
       <c r="P200" s="10">
-        <v>-9.7606507100472806E-3</v>
+        <v>2.5652858733709705E-2</v>
       </c>
       <c r="Q200" s="10">
-        <v>-4.6971347990513501E-2</v>
+        <v>6.235883433550482E-2</v>
       </c>
       <c r="R200" s="10">
-        <v>-5.1277714166753308E-2</v>
+        <v>6.0059879036309161E-2</v>
       </c>
       <c r="S200" s="10">
-        <v>2.9891304347826164E-2</v>
+        <v>0.14758611789251797</v>
       </c>
       <c r="T200" s="10">
-        <v>0.12695546663970303</v>
+        <v>0.13734631965511745</v>
       </c>
       <c r="U200" s="10">
-        <v>0.12081339712918648</v>
+        <v>6.5747546416280667E-2</v>
       </c>
       <c r="V200" s="10">
-        <v>0.12446269939822319</v>
+        <v>0.13604032723156112</v>
       </c>
       <c r="W200" s="10">
-        <v>0.18044884755357882</v>
+        <v>6.2585103139924936E-2</v>
       </c>
       <c r="X200" s="10">
-        <v>0.10734289159855304</v>
+        <v>8.5337598162842587E-2</v>
       </c>
       <c r="Y200" s="10">
-        <v>0.19343428760915216</v>
+        <v>3.6401361777562924E-2</v>
       </c>
       <c r="Z200" s="10">
-        <v>0.21491591990264403</v>
+        <v>7.8468347875365163E-2</v>
       </c>
       <c r="AA200" s="10">
-        <v>0.14527629233511585</v>
+        <v>6.2198540117068823E-3</v>
       </c>
       <c r="AB200" s="10">
-        <v>0.17582106836513445</v>
+        <v>6.7188997789385141E-2</v>
       </c>
       <c r="AC200" s="10">
-        <v>0.16494262923554981</v>
+        <v>-7.0113106993355823E-3</v>
       </c>
       <c r="AD200" s="10">
-        <v>0.16867585544812447</v>
+        <v>0.16444575024641739</v>
       </c>
       <c r="AE200" s="10">
-        <v>0.32401875675010583</v>
+        <v>0.12525068880850188</v>
       </c>
       <c r="AF200" s="10">
-        <v>0.1609756722807556</v>
+        <v>0.14399895178197064</v>
       </c>
       <c r="AG200" s="10">
-        <v>9.6699191949992436E-2</v>
+        <v>0.22102294245450382</v>
       </c>
       <c r="AH200" s="10">
-        <v>2.7304499781564129E-3</v>
+        <v>0.15504080021058186</v>
       </c>
       <c r="AI200" s="10">
-        <v>2.6193126903925723E-2</v>
+        <v>0.17054767665369286</v>
+      </c>
+      <c r="AJ200" s="10">
+        <v>0.13778739160825948</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>190</v>
       </c>
@@ -21862,8 +22510,11 @@
       <c r="AI201" s="10">
         <v>-1.1027847485737596E-2</v>
       </c>
+      <c r="AJ201" s="10">
+        <v>3.4668461797374706E-2</v>
+      </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>190</v>
       </c>
@@ -21969,8 +22620,11 @@
       <c r="AI202" s="10">
         <v>0.15614982284460943</v>
       </c>
+      <c r="AJ202" s="10">
+        <v>0.18263820161176292</v>
+      </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>190</v>
       </c>
@@ -22076,8 +22730,11 @@
       <c r="AI203" s="10">
         <v>0.10595655353869238</v>
       </c>
+      <c r="AJ203" s="10">
+        <v>0.10391080584860979</v>
+      </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>190</v>
       </c>
@@ -22183,8 +22840,11 @@
       <c r="AI204" s="10">
         <v>-5.5149620214447137E-2</v>
       </c>
+      <c r="AJ204" s="10">
+        <v>-6.8662104234037735E-2</v>
+      </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>190</v>
       </c>
@@ -22290,8 +22950,11 @@
       <c r="AI205" s="10">
         <v>-6.8231267360961856E-2</v>
       </c>
+      <c r="AJ205" s="10">
+        <v>-5.948885074197674E-2</v>
+      </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>190</v>
       </c>
@@ -22397,8 +23060,11 @@
       <c r="AI206" s="10">
         <v>3.8080723253812732E-2</v>
       </c>
+      <c r="AJ206" s="10">
+        <v>3.4962595051668988E-2</v>
+      </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>190</v>
       </c>
@@ -22504,8 +23170,11 @@
       <c r="AI207" s="10">
         <v>1.8209664747242726E-2</v>
       </c>
+      <c r="AJ207" s="10">
+        <v>-0.13057499656923288</v>
+      </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>252</v>
       </c>
@@ -22611,8 +23280,11 @@
       <c r="AI208" s="10">
         <v>7.6799328530460897E-2</v>
       </c>
+      <c r="AJ208" s="10">
+        <v>9.2777390090718725E-2</v>
+      </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>252</v>
       </c>
@@ -22718,8 +23390,11 @@
       <c r="AI209" s="10">
         <v>7.7402081444055915E-2</v>
       </c>
+      <c r="AJ209" s="10">
+        <v>7.7719449225473358E-2</v>
+      </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>252</v>
       </c>
@@ -22825,8 +23500,11 @@
       <c r="AI210" s="10">
         <v>6.2110689482351322E-2</v>
       </c>
+      <c r="AJ210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>252</v>
       </c>
@@ -22932,8 +23610,11 @@
       <c r="AI211" s="10">
         <v>9.564475501746994E-2</v>
       </c>
+      <c r="AJ211" s="10">
+        <v>9.1878734949014662E-2</v>
+      </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>252</v>
       </c>
@@ -23039,8 +23720,11 @@
       <c r="AI212" s="10">
         <v>-2.7505091649694613E-2</v>
       </c>
+      <c r="AJ212" s="10">
+        <v>-1.9244771651632298E-2</v>
+      </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>252</v>
       </c>
@@ -23146,8 +23830,11 @@
       <c r="AI213" s="10">
         <v>2.5387549711874069E-2</v>
       </c>
+      <c r="AJ213" s="10">
+        <v>5.2479506533560594E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>261</v>
       </c>
@@ -23253,8 +23940,11 @@
       <c r="AI214" s="10">
         <v>1.4914759076668727E-2</v>
       </c>
+      <c r="AJ214" s="10">
+        <v>3.3831553973902695E-2</v>
+      </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>261</v>
       </c>
@@ -23360,8 +24050,11 @@
       <c r="AI215" s="10">
         <v>-0.11283472705064357</v>
       </c>
+      <c r="AJ215" s="10">
+        <v>-3.3960137903372156E-2</v>
+      </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>261</v>
       </c>
@@ -23467,8 +24160,11 @@
       <c r="AI216" s="10">
         <v>0.10639344097783221</v>
       </c>
+      <c r="AJ216" s="10">
+        <v>0.10400040054073001</v>
+      </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>261</v>
       </c>
@@ -23574,8 +24270,11 @@
       <c r="AI217" s="10">
         <v>1.5304707861222511E-2</v>
       </c>
+      <c r="AJ217" s="10">
+        <v>1.5304707861222511E-2</v>
+      </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>261</v>
       </c>
@@ -23681,8 +24380,11 @@
       <c r="AI218" s="10">
         <v>5.0541893362350265E-2</v>
       </c>
+      <c r="AJ218" s="10">
+        <v>4.6651402404121356E-2</v>
+      </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>261</v>
       </c>
@@ -23788,8 +24490,11 @@
       <c r="AI219" s="10">
         <v>2.5931113744926959E-2</v>
       </c>
+      <c r="AJ219" s="10">
+        <v>5.3781723162830586E-2</v>
+      </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>261</v>
       </c>
@@ -23895,8 +24600,11 @@
       <c r="AI220" s="10">
         <v>-2.760225819171569E-3</v>
       </c>
+      <c r="AJ220" s="10">
+        <v>1.0483114224240087E-2</v>
+      </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>261</v>
       </c>
@@ -24002,8 +24710,11 @@
       <c r="AI221" s="10">
         <v>3.403920001775762E-2</v>
       </c>
+      <c r="AJ221" s="10">
+        <v>4.1251793796224678E-2</v>
+      </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>261</v>
       </c>
@@ -24109,8 +24820,11 @@
       <c r="AI222" s="10">
         <v>0.11722956188467659</v>
       </c>
+      <c r="AJ222" s="10">
+        <v>0.11722956188467659</v>
+      </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>261</v>
       </c>
@@ -24216,8 +24930,11 @@
       <c r="AI223" s="10">
         <v>-1.0135574566011218E-2</v>
       </c>
+      <c r="AJ223" s="10">
+        <v>-2.655969152600246E-2</v>
+      </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>261</v>
       </c>
@@ -24323,8 +25040,11 @@
       <c r="AI224" s="10">
         <v>-3.5181345389034391E-2</v>
       </c>
+      <c r="AJ224" s="10">
+        <v>-3.4439753315255395E-2</v>
+      </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>261</v>
       </c>
@@ -24430,8 +25150,11 @@
       <c r="AI225" s="10">
         <v>5.0150349115743342E-2</v>
       </c>
+      <c r="AJ225" s="10">
+        <v>1.1857909532328126E-2</v>
+      </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>261</v>
       </c>
@@ -24537,8 +25260,11 @@
       <c r="AI226" s="10">
         <v>-2.4969457959147512E-3</v>
       </c>
+      <c r="AJ226" s="10">
+        <v>4.7084030657385423E-2</v>
+      </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>261</v>
       </c>
@@ -24644,8 +25370,11 @@
       <c r="AI227" s="10">
         <v>0.12613522656882825</v>
       </c>
+      <c r="AJ227" s="10">
+        <v>0.11445323178146238</v>
+      </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>261</v>
       </c>
@@ -24751,8 +25480,11 @@
       <c r="AI228" s="10">
         <v>0.12309070954620061</v>
       </c>
+      <c r="AJ228" s="10">
+        <v>0.11616634482220523</v>
+      </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>261</v>
       </c>
@@ -24858,8 +25590,11 @@
       <c r="AI229" s="10">
         <v>1.6040709242336249E-2</v>
       </c>
+      <c r="AJ229" s="10">
+        <v>1.9325207560501712E-2</v>
+      </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>261</v>
       </c>
@@ -24965,8 +25700,11 @@
       <c r="AI230" s="10">
         <v>1.8685248005867905E-2</v>
       </c>
+      <c r="AJ230" s="10">
+        <v>2.4371177633696561E-2</v>
+      </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>261</v>
       </c>
@@ -25072,8 +25810,11 @@
       <c r="AI231" s="10">
         <v>3.442567730138113E-2</v>
       </c>
+      <c r="AJ231" s="10">
+        <v>8.4171687181113786E-3</v>
+      </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>261</v>
       </c>
@@ -25179,8 +25920,11 @@
       <c r="AI232" s="10">
         <v>-0.219740315821499</v>
       </c>
+      <c r="AJ232" s="10">
+        <v>-5.7784864611050368E-2</v>
+      </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>261</v>
       </c>
@@ -25286,8 +26030,11 @@
       <c r="AI233" s="10">
         <v>4.4970273719197928E-2</v>
       </c>
+      <c r="AJ233" s="10">
+        <v>-3.1399794290593697E-2</v>
+      </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>261</v>
       </c>
@@ -25393,8 +26140,11 @@
       <c r="AI234" s="10">
         <v>-2.8817483267122523E-2</v>
       </c>
+      <c r="AJ234" s="10">
+        <v>7.8716072692943229E-2</v>
+      </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>261</v>
       </c>
@@ -25500,8 +26250,11 @@
       <c r="AI235" s="10">
         <v>2.7795010526101782E-2</v>
       </c>
+      <c r="AJ235" s="10">
+        <v>-5.7876961140455929E-2</v>
+      </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>261</v>
       </c>
@@ -25607,8 +26360,11 @@
       <c r="AI236" s="10">
         <v>-7.4360291370937692E-2</v>
       </c>
+      <c r="AJ236" s="10">
+        <v>-3.0409506910720974E-2</v>
+      </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>261</v>
       </c>
@@ -25714,8 +26470,11 @@
       <c r="AI237" s="10">
         <v>8.6830422675552299E-3</v>
       </c>
+      <c r="AJ237" s="10">
+        <v>7.1754440359657945E-2</v>
+      </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>261</v>
       </c>
@@ -25821,8 +26580,11 @@
       <c r="AI238" s="10">
         <v>9.2584724329792589E-2</v>
       </c>
+      <c r="AJ238" s="10">
+        <v>0.10979015318615049</v>
+      </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>261</v>
       </c>
@@ -25928,8 +26690,11 @@
       <c r="AI239" s="10">
         <v>1.501848428835495E-2</v>
       </c>
+      <c r="AJ239" s="10">
+        <v>-9.7792172247057718E-2</v>
+      </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>261</v>
       </c>
@@ -26035,8 +26800,11 @@
       <c r="AI240" s="10">
         <v>6.4524716386124448E-2</v>
       </c>
+      <c r="AJ240" s="10">
+        <v>7.32322197171551E-2</v>
+      </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>261</v>
       </c>
@@ -26142,8 +26910,11 @@
       <c r="AI241" s="10">
         <v>3.9232322050261725E-2</v>
       </c>
+      <c r="AJ241" s="10">
+        <v>3.838029533739018E-2</v>
+      </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>261</v>
       </c>
@@ -26249,8 +27020,11 @@
       <c r="AI242" s="10">
         <v>3.3494309356378205E-2</v>
       </c>
+      <c r="AJ242" s="10">
+        <v>4.6492918483039825E-2</v>
+      </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>261</v>
       </c>
@@ -26356,8 +27130,11 @@
       <c r="AI243" s="10">
         <v>8.5917138491956591E-2</v>
       </c>
+      <c r="AJ243" s="10">
+        <v>7.1818830451653159E-2</v>
+      </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>261</v>
       </c>
@@ -26463,8 +27240,11 @@
       <c r="AI244" s="10">
         <v>0.18988957267545614</v>
       </c>
+      <c r="AJ244" s="10">
+        <v>0.10695069065210405</v>
+      </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>309</v>
       </c>
@@ -26478,100 +27258,103 @@
         <v>312</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F245" s="10">
-        <v>1.785732200363177E-2</v>
+        <v>0.12489050304622995</v>
       </c>
       <c r="G245" s="10">
-        <v>2.6026999128090367E-2</v>
+        <v>0.12792833721803021</v>
       </c>
       <c r="H245" s="10">
-        <v>2.9303551915307535E-2</v>
+        <v>0.10242571959145774</v>
       </c>
       <c r="I245" s="10">
-        <v>3.1563196690032047E-2</v>
+        <v>0.11710880355911302</v>
       </c>
       <c r="J245" s="10">
-        <v>4.3536483143540528E-2</v>
+        <v>9.3261119812798388E-2</v>
       </c>
       <c r="K245" s="10">
-        <v>3.7072553660328023E-2</v>
+        <v>7.127849169871503E-2</v>
       </c>
       <c r="L245" s="10">
-        <v>-7.6462496965773452E-3</v>
+        <v>6.3640109375585396E-2</v>
       </c>
       <c r="M245" s="10">
-        <v>4.908676944062762E-2</v>
+        <v>1.4940001589361707E-2</v>
       </c>
       <c r="N245" s="10">
-        <v>5.044208002397732E-2</v>
+        <v>1.9693499464994879E-2</v>
       </c>
       <c r="O245" s="10">
-        <v>6.7091499338703731E-2</v>
+        <v>-1.1873386044778056E-2</v>
       </c>
       <c r="P245" s="10">
-        <v>6.7836965294592266E-2</v>
+        <v>-8.4906075403634595E-3</v>
       </c>
       <c r="Q245" s="10">
-        <v>5.29872358682828E-2</v>
+        <v>-7.5354843237362967E-3</v>
       </c>
       <c r="R245" s="10">
-        <v>6.7840211316886556E-2</v>
+        <v>1.2757021611689456E-2</v>
       </c>
       <c r="S245" s="10">
-        <v>1.4387856766101992E-2</v>
+        <v>6.7159931701763487E-3</v>
       </c>
       <c r="T245" s="10">
-        <v>2.2177419354838745E-2</v>
+        <v>7.685424014318043E-3</v>
       </c>
       <c r="U245" s="10">
-        <v>7.3451387739605245E-2</v>
+        <v>-1.9999478274480564E-3</v>
       </c>
       <c r="V245" s="10">
-        <v>5.4121565362198254E-2</v>
+        <v>-2.9749883486096085E-2</v>
       </c>
       <c r="W245" s="10">
-        <v>5.5617855948375983E-2</v>
+        <v>1.6636167027117565E-3</v>
       </c>
       <c r="X245" s="10">
-        <v>8.471605038933494E-2</v>
+        <v>1.1867868713903329E-2</v>
       </c>
       <c r="Y245" s="10">
-        <v>4.8979396720684631E-2</v>
+        <v>-1.860020009569785E-2</v>
       </c>
       <c r="Z245" s="10">
-        <v>4.1076999163052408E-2</v>
+        <v>-2.1958199635764397E-2</v>
       </c>
       <c r="AA245" s="10">
-        <v>1.5990610328638466E-2</v>
+        <v>5.5706729171718372E-2</v>
       </c>
       <c r="AB245" s="10">
-        <v>4.421601602358205E-2</v>
+        <v>3.2336498358328303E-2</v>
       </c>
       <c r="AC245" s="10">
-        <v>1.7502106735070022E-3</v>
+        <v>-6.0989083837893476E-3</v>
       </c>
       <c r="AD245" s="10">
-        <v>1.3014343467907086E-2</v>
+        <v>-3.1318035732798788E-2</v>
       </c>
       <c r="AE245" s="10">
-        <v>6.5565088444020647E-2</v>
+        <v>-1.9187280381310123E-2</v>
       </c>
       <c r="AF245" s="10">
-        <v>7.2368483739721157E-2</v>
+        <v>-1.6307092235630094E-2</v>
       </c>
       <c r="AG245" s="10">
-        <v>2.5647071626793361E-2</v>
+        <v>2.8665278419142126E-3</v>
       </c>
       <c r="AH245" s="10">
-        <v>9.6914784871294568E-2</v>
+        <v>3.7271279765875853E-2</v>
       </c>
       <c r="AI245" s="10">
-        <v>0.10624161323989867</v>
+        <v>1.6363779403666179E-2</v>
+      </c>
+      <c r="AJ245" s="10">
+        <v>1.4913166046009785E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>309</v>
       </c>
@@ -26585,100 +27368,103 @@
         <v>312</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F246" s="10">
-        <v>0.12489050304622995</v>
+        <v>1.785732200363177E-2</v>
       </c>
       <c r="G246" s="10">
-        <v>0.12792833721803021</v>
+        <v>2.6026999128090367E-2</v>
       </c>
       <c r="H246" s="10">
-        <v>0.10242571959145774</v>
+        <v>2.9303551915307535E-2</v>
       </c>
       <c r="I246" s="10">
-        <v>0.11710880355911302</v>
+        <v>3.1563196690032047E-2</v>
       </c>
       <c r="J246" s="10">
-        <v>9.3261119812798388E-2</v>
+        <v>4.3536483143540528E-2</v>
       </c>
       <c r="K246" s="10">
-        <v>7.127849169871503E-2</v>
+        <v>3.7072553660328023E-2</v>
       </c>
       <c r="L246" s="10">
-        <v>6.3640109375585396E-2</v>
+        <v>-7.6462496965773452E-3</v>
       </c>
       <c r="M246" s="10">
-        <v>1.4940001589361707E-2</v>
+        <v>4.908676944062762E-2</v>
       </c>
       <c r="N246" s="10">
-        <v>1.9693499464994879E-2</v>
+        <v>5.044208002397732E-2</v>
       </c>
       <c r="O246" s="10">
-        <v>-1.1873386044778056E-2</v>
+        <v>6.7091499338703731E-2</v>
       </c>
       <c r="P246" s="10">
-        <v>-8.4906075403634595E-3</v>
+        <v>6.7836965294592266E-2</v>
       </c>
       <c r="Q246" s="10">
-        <v>-7.5354843237362967E-3</v>
+        <v>5.29872358682828E-2</v>
       </c>
       <c r="R246" s="10">
-        <v>1.2757021611689456E-2</v>
+        <v>6.7840211316886556E-2</v>
       </c>
       <c r="S246" s="10">
-        <v>6.7159931701763487E-3</v>
+        <v>1.4387856766101992E-2</v>
       </c>
       <c r="T246" s="10">
-        <v>7.685424014318043E-3</v>
+        <v>2.2177419354838745E-2</v>
       </c>
       <c r="U246" s="10">
-        <v>-1.9999478274480564E-3</v>
+        <v>7.3451387739605245E-2</v>
       </c>
       <c r="V246" s="10">
-        <v>-2.9749883486096085E-2</v>
+        <v>5.4121565362198254E-2</v>
       </c>
       <c r="W246" s="10">
-        <v>1.6636167027117565E-3</v>
+        <v>5.5617855948375983E-2</v>
       </c>
       <c r="X246" s="10">
-        <v>1.1867868713903329E-2</v>
+        <v>8.471605038933494E-2</v>
       </c>
       <c r="Y246" s="10">
-        <v>-1.860020009569785E-2</v>
+        <v>4.8979396720684631E-2</v>
       </c>
       <c r="Z246" s="10">
-        <v>-2.1958199635764397E-2</v>
+        <v>4.1076999163052408E-2</v>
       </c>
       <c r="AA246" s="10">
-        <v>5.5706729171718372E-2</v>
+        <v>1.5990610328638466E-2</v>
       </c>
       <c r="AB246" s="10">
-        <v>3.2336498358328303E-2</v>
+        <v>4.421601602358205E-2</v>
       </c>
       <c r="AC246" s="10">
-        <v>-6.0989083837893476E-3</v>
+        <v>1.7502106735070022E-3</v>
       </c>
       <c r="AD246" s="10">
-        <v>-3.1318035732798788E-2</v>
+        <v>1.3014343467907086E-2</v>
       </c>
       <c r="AE246" s="10">
-        <v>-1.9187280381310123E-2</v>
+        <v>6.5565088444020647E-2</v>
       </c>
       <c r="AF246" s="10">
-        <v>-1.6307092235630094E-2</v>
+        <v>7.2368483739721157E-2</v>
       </c>
       <c r="AG246" s="10">
-        <v>2.8665278419142126E-3</v>
+        <v>2.5647071626793361E-2</v>
       </c>
       <c r="AH246" s="10">
-        <v>3.7271279765875853E-2</v>
+        <v>9.6914784871294568E-2</v>
       </c>
       <c r="AI246" s="10">
-        <v>1.6363779403666179E-2</v>
+        <v>0.10624161323989867</v>
+      </c>
+      <c r="AJ246" s="10">
+        <v>0.12861277107528091</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>309</v>
       </c>
@@ -26784,8 +27570,11 @@
       <c r="AI247" s="10">
         <v>7.6625098009931669E-2</v>
       </c>
+      <c r="AJ247" s="10">
+        <v>8.36291286803168E-2</v>
+      </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>309</v>
       </c>
@@ -26891,8 +27680,11 @@
       <c r="AI248" s="10">
         <v>2.1316865114625827E-2</v>
       </c>
+      <c r="AJ248" s="10">
+        <v>2.0800548585896861E-2</v>
+      </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>309</v>
       </c>
@@ -26998,8 +27790,11 @@
       <c r="AI249" s="10">
         <v>2.2657023677340016E-2</v>
       </c>
+      <c r="AJ249" s="10">
+        <v>1.0803114483143306E-2</v>
+      </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>309</v>
       </c>
@@ -27105,8 +27900,11 @@
       <c r="AI250" s="10">
         <v>7.6232172334949722E-2</v>
       </c>
+      <c r="AJ250" s="10">
+        <v>9.6710065510279719E-2</v>
+      </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>309</v>
       </c>
@@ -27212,8 +28010,11 @@
       <c r="AI251" s="10">
         <v>0.10718995709730739</v>
       </c>
+      <c r="AJ251" s="10">
+        <v>0.13465339756809236</v>
+      </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>309</v>
       </c>
@@ -27319,8 +28120,11 @@
       <c r="AI252" s="10">
         <v>0.10973303380178678</v>
       </c>
+      <c r="AJ252" s="10">
+        <v>0.15276894373065342</v>
+      </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>309</v>
       </c>
@@ -27426,8 +28230,11 @@
       <c r="AI253" s="10">
         <v>3.4229566770879849E-2</v>
       </c>
+      <c r="AJ253" s="10">
+        <v>6.1209614228182829E-2</v>
+      </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>309</v>
       </c>
@@ -27533,8 +28340,11 @@
       <c r="AI254" s="10">
         <v>2.4733958486987673E-2</v>
       </c>
+      <c r="AJ254" s="10">
+        <v>-1.1159695149790982E-2</v>
+      </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>309</v>
       </c>
@@ -27640,8 +28450,11 @@
       <c r="AI255" s="10">
         <v>8.2953451043338733E-2</v>
       </c>
+      <c r="AJ255" s="10">
+        <v>0.1769132084398628</v>
+      </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>309</v>
       </c>
@@ -27747,8 +28560,11 @@
       <c r="AI256" s="10">
         <v>-1.8233066149916377E-2</v>
       </c>
+      <c r="AJ256" s="10">
+        <v>-4.6583361082388253E-2</v>
+      </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>309</v>
       </c>
@@ -27854,8 +28670,11 @@
       <c r="AI257" s="10">
         <v>-7.4346495751263508E-2</v>
       </c>
+      <c r="AJ257" s="10">
+        <v>-2.6906432276966874E-2</v>
+      </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>309</v>
       </c>
@@ -27961,8 +28780,11 @@
       <c r="AI258" s="10">
         <v>-1.0275360361229557E-2</v>
       </c>
+      <c r="AJ258" s="10">
+        <v>9.7651753510858974E-3</v>
+      </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>309</v>
       </c>
@@ -28068,8 +28890,11 @@
       <c r="AI259" s="10">
         <v>6.0708123784001922E-2</v>
       </c>
+      <c r="AJ259" s="10">
+        <v>5.7465081506874238E-2</v>
+      </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>309</v>
       </c>
@@ -28175,8 +29000,11 @@
       <c r="AI260" s="10">
         <v>7.8350837537098705E-2</v>
       </c>
+      <c r="AJ260" s="10">
+        <v>4.1251704437579306E-3</v>
+      </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>309</v>
       </c>
@@ -28282,8 +29110,11 @@
       <c r="AI261" s="10">
         <v>-0.16215832513061268</v>
       </c>
+      <c r="AJ261" s="10">
+        <v>-6.4536167203432804E-2</v>
+      </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>309</v>
       </c>
@@ -28389,8 +29220,11 @@
       <c r="AI262" s="10">
         <v>7.4187939194034103E-2</v>
       </c>
+      <c r="AJ262" s="10">
+        <v>7.2135982478643834E-2</v>
+      </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>309</v>
       </c>
@@ -28496,8 +29330,11 @@
       <c r="AI263" s="10">
         <v>0.10183681361175556</v>
       </c>
+      <c r="AJ263" s="10">
+        <v>0.11725638051044096</v>
+      </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>309</v>
       </c>
@@ -28603,8 +29440,11 @@
       <c r="AI264" s="10">
         <v>-9.5157139368436838E-2</v>
       </c>
+      <c r="AJ264" s="10">
+        <v>-5.648079710492715E-2</v>
+      </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>309</v>
       </c>
@@ -28710,8 +29550,11 @@
       <c r="AI265" s="10">
         <v>0.11913582106034593</v>
       </c>
+      <c r="AJ265" s="10">
+        <v>0.11509336202945342</v>
+      </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>309</v>
       </c>
@@ -28817,8 +29660,11 @@
       <c r="AI266" s="10">
         <v>-1.6233307924677476E-2</v>
       </c>
+      <c r="AJ266" s="10">
+        <v>-2.1434568902893525E-2</v>
+      </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>309</v>
       </c>
@@ -28924,8 +29770,11 @@
       <c r="AI267" s="10">
         <v>-0.11186135494035576</v>
       </c>
+      <c r="AJ267" s="10">
+        <v>-0.13986098127597346</v>
+      </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>309</v>
       </c>
@@ -29031,8 +29880,11 @@
       <c r="AI268" s="10">
         <v>2.4399894486942797E-2</v>
       </c>
+      <c r="AJ268" s="10">
+        <v>0.10894150575864736</v>
+      </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>309</v>
       </c>
@@ -29138,8 +29990,11 @@
       <c r="AI269" s="10">
         <v>6.8076685018079841E-2</v>
       </c>
+      <c r="AJ269" s="10">
+        <v>2.9582715356555989E-2</v>
+      </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>309</v>
       </c>
@@ -29245,8 +30100,11 @@
       <c r="AI270" s="10">
         <v>1.5127882096506617E-2</v>
       </c>
+      <c r="AJ270" s="10">
+        <v>3.6050093623532842E-2</v>
+      </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>309</v>
       </c>
@@ -29352,8 +30210,11 @@
       <c r="AI271" s="10">
         <v>1.6000700334604323E-2</v>
       </c>
+      <c r="AJ271" s="10">
+        <v>1.5982700152356699E-2</v>
+      </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>309</v>
       </c>
@@ -29459,8 +30320,11 @@
       <c r="AI272" s="10">
         <v>9.2063683149246067E-2</v>
       </c>
+      <c r="AJ272" s="10">
+        <v>0.10244199512799002</v>
+      </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>309</v>
       </c>
@@ -29566,8 +30430,11 @@
       <c r="AI273" s="10">
         <v>-2.2634865007400418E-2</v>
       </c>
+      <c r="AJ273" s="10">
+        <v>4.0183618820929023E-2</v>
+      </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>309</v>
       </c>
@@ -29673,8 +30540,11 @@
       <c r="AI274" s="10">
         <v>6.4632524574308459E-3</v>
       </c>
+      <c r="AJ274" s="10">
+        <v>1.7936587063460019E-2</v>
+      </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>309</v>
       </c>
@@ -29780,8 +30650,11 @@
       <c r="AI275" s="10">
         <v>1.9619506120059249E-2</v>
       </c>
+      <c r="AJ275" s="10">
+        <v>7.6879977220747353E-3</v>
+      </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>309</v>
       </c>
@@ -29887,8 +30760,11 @@
       <c r="AI276" s="10">
         <v>6.0664009618388581E-2</v>
       </c>
+      <c r="AJ276" s="10">
+        <v>5.8199010984862909E-2</v>
+      </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>309</v>
       </c>
@@ -29994,8 +30870,11 @@
       <c r="AI277" s="10">
         <v>3.3232046375999413E-2</v>
       </c>
+      <c r="AJ277" s="10">
+        <v>1.3624727247736335E-2</v>
+      </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>309</v>
       </c>
@@ -30101,8 +30980,11 @@
       <c r="AI278" s="10">
         <v>3.3608810362103503E-2</v>
       </c>
+      <c r="AJ278" s="10">
+        <v>2.871023522630578E-2</v>
+      </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>309</v>
       </c>
@@ -30208,8 +31090,11 @@
       <c r="AI279" s="10">
         <v>6.3623941969976228E-2</v>
       </c>
+      <c r="AJ279" s="10">
+        <v>6.3623941969976228E-2</v>
+      </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
         <v>309</v>
       </c>
@@ -30315,1948 +31200,2005 @@
       <c r="AI280" s="10">
         <v>3.2886689903161015E-2</v>
       </c>
+      <c r="AJ280" s="10">
+        <v>3.2886689903161015E-2</v>
+      </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>357</v>
+      <c r="B281" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F281" s="10">
-        <v>0.2015583474269147</v>
+        <v>4.8304501033171299E-2</v>
       </c>
       <c r="G281" s="10">
-        <v>0.15070559805610073</v>
+        <v>3.6721362927508716E-2</v>
       </c>
       <c r="H281" s="10">
-        <v>0.14793503840285505</v>
+        <v>3.8863012762300864E-2</v>
       </c>
       <c r="I281" s="10">
-        <v>0.194919921068331</v>
+        <v>2.8123756176644754E-2</v>
       </c>
       <c r="J281" s="10">
-        <v>0.14581806122805174</v>
+        <v>2.9379200497261282E-2</v>
       </c>
       <c r="K281" s="10">
-        <v>9.6243310834431384E-2</v>
+        <v>2.8136611285447533E-2</v>
       </c>
       <c r="L281" s="10">
-        <v>-3.8616141383585934E-2</v>
+        <v>3.0607236012589301E-2</v>
       </c>
       <c r="M281" s="10">
-        <v>-7.3728956338046547E-2</v>
+        <v>2.2396405869139269E-2</v>
       </c>
       <c r="N281" s="10">
-        <v>-0.33124317822377658</v>
+        <v>3.4831911882816424E-2</v>
       </c>
       <c r="O281" s="10">
-        <v>-0.22653286884563706</v>
+        <v>3.4311947620592864E-2</v>
       </c>
       <c r="P281" s="10">
-        <v>-0.24710697293702355</v>
+        <v>4.38169147019285E-2</v>
       </c>
       <c r="Q281" s="10">
-        <v>-0.35438786147252999</v>
+        <v>5.6708319003401009E-2</v>
       </c>
       <c r="R281" s="10">
-        <v>-0.26111697582064053</v>
+        <v>5.9219547497524117E-2</v>
       </c>
       <c r="S281" s="10">
-        <v>-0.19951501931801041</v>
+        <v>5.024550382683235E-2</v>
       </c>
       <c r="T281" s="10">
-        <v>-0.16454341679901763</v>
+        <v>4.2926563337124302E-2</v>
       </c>
       <c r="U281" s="10">
-        <v>-0.2858363577010965</v>
+        <v>5.1026381885823202E-2</v>
       </c>
       <c r="V281" s="10">
-        <v>-0.46819043847155684</v>
+        <v>5.3382898225287523E-2</v>
       </c>
       <c r="W281" s="10">
-        <v>-0.35323553942010499</v>
+        <v>6.399273469464184E-2</v>
       </c>
       <c r="X281" s="10">
-        <v>-0.24121607256750055</v>
+        <v>7.0416616080017258E-2</v>
       </c>
       <c r="Y281" s="10">
-        <v>-0.18120382807253177</v>
+        <v>7.5085547598122693E-2</v>
       </c>
       <c r="Z281" s="10">
-        <v>9.3579815138645994E-2</v>
+        <v>6.3558499875266738E-2</v>
       </c>
       <c r="AA281" s="10">
-        <v>0.11073877086727935</v>
+        <v>6.6799545995626097E-2</v>
       </c>
       <c r="AB281" s="10">
-        <v>0.23530930637095016</v>
+        <v>5.7166604254386355E-2</v>
       </c>
       <c r="AC281" s="10">
-        <v>0.57796615237411775</v>
+        <v>5.6811195891946609E-2</v>
       </c>
       <c r="AD281" s="10">
-        <v>0.12114078891867264</v>
+        <v>4.9265069447566034E-2</v>
       </c>
       <c r="AE281" s="10">
-        <v>0.15343585581145902</v>
+        <v>5.6651533167585422E-2</v>
       </c>
       <c r="AF281" s="10">
-        <v>9.9755969314152315E-2</v>
+        <v>6.7530056417743678E-2</v>
       </c>
       <c r="AG281" s="10">
-        <v>0.14116128685317886</v>
+        <v>6.7145809001886603E-2</v>
       </c>
       <c r="AH281" s="10">
-        <v>0.52190476190476187</v>
+        <v>6.3888864008885049E-2</v>
       </c>
       <c r="AI281" s="10">
-        <v>0.44517560494576336</v>
+        <v>5.9871176656928649E-2</v>
+      </c>
+      <c r="AJ281" s="10">
+        <v>5.9807881902335547E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B282" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C282" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C282" s="5" t="s">
+      <c r="D282" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>362</v>
       </c>
       <c r="F282" s="10">
-        <v>4.8304501033171299E-2</v>
+        <v>4.1267146412517164E-2</v>
       </c>
       <c r="G282" s="10">
-        <v>3.6721362927508716E-2</v>
+        <v>4.455388292438478E-2</v>
       </c>
       <c r="H282" s="10">
-        <v>3.8863012762300864E-2</v>
+        <v>8.7618473365869143E-4</v>
       </c>
       <c r="I282" s="10">
-        <v>2.8123756176644754E-2</v>
+        <v>1.9508868959117187E-3</v>
       </c>
       <c r="J282" s="10">
-        <v>2.9379200497261282E-2</v>
+        <v>3.8684903382790736E-3</v>
       </c>
       <c r="K282" s="10">
-        <v>2.8136611285447533E-2</v>
+        <v>2.1525131993733959E-2</v>
       </c>
       <c r="L282" s="10">
-        <v>3.0607236012589301E-2</v>
+        <v>4.1589738606549354E-2</v>
       </c>
       <c r="M282" s="10">
-        <v>2.2396405869139269E-2</v>
+        <v>5.4759735602551096E-2</v>
       </c>
       <c r="N282" s="10">
-        <v>3.4831911882816424E-2</v>
+        <v>5.1276106570837809E-2</v>
       </c>
       <c r="O282" s="10">
-        <v>3.4311947620592864E-2</v>
+        <v>6.4707231310197066E-2</v>
       </c>
       <c r="P282" s="10">
-        <v>4.38169147019285E-2</v>
+        <v>5.4081410638438854E-2</v>
       </c>
       <c r="Q282" s="10">
-        <v>5.6708319003401009E-2</v>
+        <v>4.2948224585008132E-2</v>
       </c>
       <c r="R282" s="10">
-        <v>5.9219547497524117E-2</v>
+        <v>2.4281108723041456E-2</v>
       </c>
       <c r="S282" s="10">
-        <v>5.024550382683235E-2</v>
+        <v>4.3031784841075726E-2</v>
       </c>
       <c r="T282" s="10">
-        <v>4.2926563337124302E-2</v>
+        <v>8.1931566809431811E-2</v>
       </c>
       <c r="U282" s="10">
-        <v>5.1026381885823202E-2</v>
+        <v>6.7325778126447133E-2</v>
       </c>
       <c r="V282" s="10">
-        <v>5.3382898225287523E-2</v>
+        <v>9.7769277382214748E-2</v>
       </c>
       <c r="W282" s="10">
-        <v>6.399273469464184E-2</v>
+        <v>9.8949261643316966E-2</v>
       </c>
       <c r="X282" s="10">
-        <v>7.0416616080017258E-2</v>
+        <v>7.7068756413844586E-2</v>
       </c>
       <c r="Y282" s="10">
-        <v>7.5085547598122693E-2</v>
+        <v>6.6710772962840448E-2</v>
       </c>
       <c r="Z282" s="10">
-        <v>6.3558499875266738E-2</v>
+        <v>4.4493043941705279E-2</v>
       </c>
       <c r="AA282" s="10">
-        <v>6.6799545995626097E-2</v>
+        <v>1.9357791578418215E-2</v>
       </c>
       <c r="AB282" s="10">
-        <v>5.7166604254386355E-2</v>
+        <v>5.9724665254693665E-2</v>
       </c>
       <c r="AC282" s="10">
-        <v>5.6811195891946609E-2</v>
+        <v>9.0768291682989721E-2</v>
       </c>
       <c r="AD282" s="10">
-        <v>4.9265069447566034E-2</v>
+        <v>0.13206710984488756</v>
       </c>
       <c r="AE282" s="10">
-        <v>5.6651533167585422E-2</v>
+        <v>0.10344187033941021</v>
       </c>
       <c r="AF282" s="10">
-        <v>6.7530056417743678E-2</v>
+        <v>9.1143998120742475E-2</v>
       </c>
       <c r="AG282" s="10">
-        <v>6.7145809001886603E-2</v>
+        <v>0.1167000230247428</v>
       </c>
       <c r="AH282" s="10">
-        <v>6.3888864008885049E-2</v>
+        <v>8.0540270135067704E-2</v>
       </c>
       <c r="AI282" s="10">
-        <v>5.9871176656928649E-2</v>
+        <v>4.351683564039166E-2</v>
+      </c>
+      <c r="AJ282" s="10">
+        <v>6.5153181869364474E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B283" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C283" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C283" s="5" t="s">
+      <c r="D283" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>363</v>
       </c>
       <c r="F283" s="10">
-        <v>4.1267146412517164E-2</v>
+        <v>9.1324662715670524E-3</v>
       </c>
       <c r="G283" s="10">
-        <v>4.455388292438478E-2</v>
+        <v>1.4776963093433793E-2</v>
       </c>
       <c r="H283" s="10">
-        <v>8.7618473365869143E-4</v>
+        <v>-6.3512546248223334E-4</v>
       </c>
       <c r="I283" s="10">
-        <v>1.9508868959117187E-3</v>
+        <v>-2.8879867134157688E-2</v>
       </c>
       <c r="J283" s="10">
-        <v>3.8684903382790736E-3</v>
+        <v>-2.8211581809543973E-2</v>
       </c>
       <c r="K283" s="10">
-        <v>2.1525131993733959E-2</v>
+        <v>-3.3635760123921332E-2</v>
       </c>
       <c r="L283" s="10">
-        <v>4.1589738606549354E-2</v>
+        <v>-1.5813132123936535E-2</v>
       </c>
       <c r="M283" s="10">
-        <v>5.4759735602551096E-2</v>
+        <v>-1.0222568597483828E-2</v>
       </c>
       <c r="N283" s="10">
-        <v>5.1276106570837809E-2</v>
+        <v>-2.8764017651107254E-2</v>
       </c>
       <c r="O283" s="10">
-        <v>6.4707231310197066E-2</v>
+        <v>-4.3111368538787165E-2</v>
       </c>
       <c r="P283" s="10">
-        <v>5.4081410638438854E-2</v>
+        <v>-6.2613975671830358E-2</v>
       </c>
       <c r="Q283" s="10">
-        <v>4.2948224585008132E-2</v>
+        <v>-2.5933955129821107E-2</v>
       </c>
       <c r="R283" s="10">
-        <v>2.4281108723041456E-2</v>
+        <v>-5.9530371513615288E-3</v>
       </c>
       <c r="S283" s="10">
-        <v>4.3031784841075726E-2</v>
+        <v>1.4329683636914003E-2</v>
       </c>
       <c r="T283" s="10">
-        <v>8.1931566809431811E-2</v>
+        <v>4.0351054171328116E-5</v>
       </c>
       <c r="U283" s="10">
-        <v>6.7325778126447133E-2</v>
+        <v>3.7783056215360267E-2</v>
       </c>
       <c r="V283" s="10">
-        <v>9.7769277382214748E-2</v>
+        <v>1.0942375702100993E-2</v>
       </c>
       <c r="W283" s="10">
-        <v>9.8949261643316966E-2</v>
+        <v>7.4078314632470832E-2</v>
       </c>
       <c r="X283" s="10">
-        <v>7.7068756413844586E-2</v>
+        <v>6.3504200309925762E-2</v>
       </c>
       <c r="Y283" s="10">
-        <v>6.6710772962840448E-2</v>
+        <v>0.1217494452454726</v>
       </c>
       <c r="Z283" s="10">
-        <v>4.4493043941705279E-2</v>
+        <v>0.13547029032325297</v>
       </c>
       <c r="AA283" s="10">
-        <v>1.9357791578418215E-2</v>
+        <v>0.14468946659848259</v>
       </c>
       <c r="AB283" s="10">
-        <v>5.9724665254693665E-2</v>
+        <v>0.18408816392846838</v>
       </c>
       <c r="AC283" s="10">
-        <v>9.0768291682989721E-2</v>
+        <v>0.14310114592714518</v>
       </c>
       <c r="AD283" s="10">
-        <v>0.13206710984488756</v>
+        <v>0.11708187564902661</v>
       </c>
       <c r="AE283" s="10">
-        <v>0.10344187033941021</v>
+        <v>0.10338755409640354</v>
       </c>
       <c r="AF283" s="10">
-        <v>9.1143998120742475E-2</v>
+        <v>0.11123328020658918</v>
       </c>
       <c r="AG283" s="10">
-        <v>0.1167000230247428</v>
+        <v>0.100799560546875</v>
       </c>
       <c r="AH283" s="10">
-        <v>8.0540270135067704E-2</v>
+        <v>0.15607251625648222</v>
       </c>
       <c r="AI283" s="10">
-        <v>4.351683564039166E-2</v>
+        <v>8.7575466852729322E-2</v>
+      </c>
+      <c r="AJ283" s="10">
+        <v>0.10744174008071572</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F284" s="10">
-        <v>9.1324662715670524E-3</v>
+        <v>6.3039999999999985E-2</v>
       </c>
       <c r="G284" s="10">
-        <v>1.4776963093433793E-2</v>
+        <v>5.6965493876981688E-2</v>
       </c>
       <c r="H284" s="10">
-        <v>-6.3512546248223334E-4</v>
+        <v>6.3061448062942116E-2</v>
       </c>
       <c r="I284" s="10">
-        <v>-2.8879867134157688E-2</v>
+        <v>3.4974326187288796E-2</v>
       </c>
       <c r="J284" s="10">
-        <v>-2.8211581809543973E-2</v>
+        <v>1.6730859367039663E-2</v>
       </c>
       <c r="K284" s="10">
-        <v>-3.3635760123921332E-2</v>
+        <v>2.3507627903232242E-2</v>
       </c>
       <c r="L284" s="10">
-        <v>-1.5813132123936535E-2</v>
+        <v>6.5713946399588163E-3</v>
       </c>
       <c r="M284" s="10">
-        <v>-1.0222568597483828E-2</v>
+        <v>2.5768164603912069E-3</v>
       </c>
       <c r="N284" s="10">
-        <v>-2.8764017651107254E-2</v>
+        <v>7.9933794177782236E-3</v>
       </c>
       <c r="O284" s="10">
-        <v>-4.3111368538787165E-2</v>
+        <v>-7.0873693296249485E-3</v>
       </c>
       <c r="P284" s="10">
-        <v>-6.2613975671830358E-2</v>
+        <v>-1.5425142411533699E-2</v>
       </c>
       <c r="Q284" s="10">
-        <v>-2.5933955129821107E-2</v>
+        <v>2.3818041460337724E-2</v>
       </c>
       <c r="R284" s="10">
-        <v>-5.9530371513615288E-3</v>
+        <v>2.3028296207104004E-2</v>
       </c>
       <c r="S284" s="10">
-        <v>1.4329683636914003E-2</v>
+        <v>2.8366454240355887E-2</v>
       </c>
       <c r="T284" s="10">
-        <v>4.0351054171328116E-5</v>
+        <v>3.4663019242659798E-2</v>
       </c>
       <c r="U284" s="10">
-        <v>3.7783056215360267E-2</v>
+        <v>6.1291661438375389E-2</v>
       </c>
       <c r="V284" s="10">
-        <v>1.0942375702100993E-2</v>
+        <v>0.11216227050428929</v>
       </c>
       <c r="W284" s="10">
-        <v>7.4078314632470832E-2</v>
+        <v>0.10091634876312572</v>
       </c>
       <c r="X284" s="10">
-        <v>6.3504200309925762E-2</v>
+        <v>9.7484956935540934E-2</v>
       </c>
       <c r="Y284" s="10">
-        <v>0.1217494452454726</v>
+        <v>0.11166712099380827</v>
       </c>
       <c r="Z284" s="10">
-        <v>0.13547029032325297</v>
+        <v>0.10816084071437526</v>
       </c>
       <c r="AA284" s="10">
-        <v>0.14468946659848259</v>
+        <v>0.10256831287247303</v>
       </c>
       <c r="AB284" s="10">
-        <v>0.18408816392846838</v>
+        <v>0.13914672899904357</v>
       </c>
       <c r="AC284" s="10">
-        <v>0.14310114592714518</v>
+        <v>0.11065543622186258</v>
       </c>
       <c r="AD284" s="10">
-        <v>0.11708187564902661</v>
+        <v>0.13848940709136381</v>
       </c>
       <c r="AE284" s="10">
-        <v>0.10338755409640354</v>
+        <v>0.17826465600220032</v>
       </c>
       <c r="AF284" s="10">
-        <v>0.11123328020658918</v>
+        <v>0.16571594139910539</v>
       </c>
       <c r="AG284" s="10">
-        <v>0.100799560546875</v>
+        <v>0.18956281320200441</v>
       </c>
       <c r="AH284" s="10">
-        <v>0.15607251625648222</v>
+        <v>0.22341767589388706</v>
       </c>
       <c r="AI284" s="10">
-        <v>8.7575466852729322E-2</v>
+        <v>0.25810023934555093</v>
+      </c>
+      <c r="AJ284" s="10">
+        <v>0.33396343047579813</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C285" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D285" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>367</v>
       </c>
       <c r="F285" s="10">
-        <v>6.3039999999999985E-2</v>
+        <v>4.3568915767421723E-2</v>
       </c>
       <c r="G285" s="10">
-        <v>5.6965493876981688E-2</v>
+        <v>3.0472642880127854E-2</v>
       </c>
       <c r="H285" s="10">
-        <v>6.3061448062942116E-2</v>
+        <v>1.7743162191564466E-2</v>
       </c>
       <c r="I285" s="10">
-        <v>3.4974326187288796E-2</v>
+        <v>1.5387716704744037E-2</v>
       </c>
       <c r="J285" s="10">
-        <v>1.6730859367039663E-2</v>
+        <v>3.3104200338831102E-2</v>
       </c>
       <c r="K285" s="10">
-        <v>2.3507627903232242E-2</v>
+        <v>4.7406196772637355E-2</v>
       </c>
       <c r="L285" s="10">
-        <v>6.5713946399588163E-3</v>
+        <v>2.773830611410677E-2</v>
       </c>
       <c r="M285" s="10">
-        <v>2.5768164603912069E-3</v>
+        <v>-6.3792135633211844E-2</v>
       </c>
       <c r="N285" s="10">
-        <v>7.9933794177782236E-3</v>
+        <v>-0.21935386330778894</v>
       </c>
       <c r="O285" s="10">
-        <v>-7.0873693296249485E-3</v>
+        <v>-0.193957538438291</v>
       </c>
       <c r="P285" s="10">
-        <v>-1.5425142411533699E-2</v>
+        <v>-0.14202202126452002</v>
       </c>
       <c r="Q285" s="10">
-        <v>2.3818041460337724E-2</v>
+        <v>-9.3336615944018875E-2</v>
       </c>
       <c r="R285" s="10">
-        <v>2.3028296207104004E-2</v>
+        <v>-9.2808105676814523E-2</v>
       </c>
       <c r="S285" s="10">
-        <v>2.8366454240355887E-2</v>
+        <v>-9.9729361444415021E-2</v>
       </c>
       <c r="T285" s="10">
-        <v>3.4663019242659798E-2</v>
+        <v>-0.10750704731634408</v>
       </c>
       <c r="U285" s="10">
-        <v>6.1291661438375389E-2</v>
+        <v>-0.13441485389073238</v>
       </c>
       <c r="V285" s="10">
-        <v>0.11216227050428929</v>
+        <v>-0.13575104141141869</v>
       </c>
       <c r="W285" s="10">
-        <v>0.10091634876312572</v>
+        <v>-9.7467664310422641E-2</v>
       </c>
       <c r="X285" s="10">
-        <v>9.7484956935540934E-2</v>
+        <v>-4.1223152392136142E-2</v>
       </c>
       <c r="Y285" s="10">
-        <v>0.11166712099380827</v>
+        <v>9.1471718054511042E-2</v>
       </c>
       <c r="Z285" s="10">
-        <v>0.10816084071437526</v>
+        <v>0.31500332869333669</v>
       </c>
       <c r="AA285" s="10">
-        <v>0.10256831287247303</v>
+        <v>0.2760846895614375</v>
       </c>
       <c r="AB285" s="10">
-        <v>0.13914672899904357</v>
+        <v>0.19998456483870242</v>
       </c>
       <c r="AC285" s="10">
-        <v>0.11065543622186258</v>
+        <v>0.13763968668407323</v>
       </c>
       <c r="AD285" s="10">
-        <v>0.13848940709136381</v>
+        <v>0.13810488079829653</v>
       </c>
       <c r="AE285" s="10">
-        <v>0.17826465600220032</v>
+        <v>0.1466201372757181</v>
       </c>
       <c r="AF285" s="10">
-        <v>0.16571594139910539</v>
+        <v>0.15983211268799868</v>
       </c>
       <c r="AG285" s="10">
-        <v>0.18956281320200441</v>
+        <v>0.19815638003910041</v>
       </c>
       <c r="AH285" s="10">
-        <v>0.22341767589388706</v>
+        <v>0.20949379511897237</v>
       </c>
       <c r="AI285" s="10">
-        <v>0.25810023934555093</v>
+        <v>0.17362912044992984</v>
+      </c>
+      <c r="AJ285" s="10">
+        <v>0.12319864089369137</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C286" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D286" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>368</v>
       </c>
       <c r="F286" s="10">
-        <v>4.3568915767421723E-2</v>
+        <v>4.6396511422341913E-2</v>
       </c>
       <c r="G286" s="10">
-        <v>3.0472642880127854E-2</v>
+        <v>3.0138311248670169E-2</v>
       </c>
       <c r="H286" s="10">
-        <v>1.7743162191564466E-2</v>
+        <v>1.5783045154395214E-2</v>
       </c>
       <c r="I286" s="10">
-        <v>1.5387716704744037E-2</v>
+        <v>1.4034119561183944E-2</v>
       </c>
       <c r="J286" s="10">
-        <v>3.3104200338831102E-2</v>
+        <v>3.1434754047683366E-2</v>
       </c>
       <c r="K286" s="10">
-        <v>4.7406196772637355E-2</v>
+        <v>4.4245034464655442E-2</v>
       </c>
       <c r="L286" s="10">
-        <v>2.773830611410677E-2</v>
+        <v>1.8670422320765878E-2</v>
       </c>
       <c r="M286" s="10">
-        <v>-6.3792135633211844E-2</v>
+        <v>-7.7881361402344029E-2</v>
       </c>
       <c r="N286" s="10">
-        <v>-0.21935386330778894</v>
+        <v>-0.23388298906552363</v>
       </c>
       <c r="O286" s="10">
-        <v>-0.193957538438291</v>
+        <v>-0.18923730227900681</v>
       </c>
       <c r="P286" s="10">
-        <v>-0.14202202126452002</v>
+        <v>-0.11567994192269393</v>
       </c>
       <c r="Q286" s="10">
-        <v>-9.3336615944018875E-2</v>
+        <v>-6.1430488759646629E-2</v>
       </c>
       <c r="R286" s="10">
-        <v>-9.2808105676814523E-2</v>
+        <v>-5.6569240299600199E-2</v>
       </c>
       <c r="S286" s="10">
-        <v>-9.9729361444415021E-2</v>
+        <v>-6.267252549152158E-2</v>
       </c>
       <c r="T286" s="10">
-        <v>-0.10750704731634408</v>
+        <v>-7.3668388914983507E-2</v>
       </c>
       <c r="U286" s="10">
-        <v>-0.13441485389073238</v>
+        <v>-0.11461304608917566</v>
       </c>
       <c r="V286" s="10">
-        <v>-0.13575104141141869</v>
+        <v>-0.11262526927039418</v>
       </c>
       <c r="W286" s="10">
-        <v>-9.7467664310422641E-2</v>
+        <v>-6.9565217391304279E-2</v>
       </c>
       <c r="X286" s="10">
-        <v>-4.1223152392136142E-2</v>
+        <v>-1.9084896495030312E-2</v>
       </c>
       <c r="Y286" s="10">
-        <v>9.1471718054511042E-2</v>
+        <v>7.9839201607983856E-2</v>
       </c>
       <c r="Z286" s="10">
-        <v>0.31500332869333669</v>
+        <v>0.30930800280376092</v>
       </c>
       <c r="AA286" s="10">
-        <v>0.2760846895614375</v>
+        <v>0.23724898220575441</v>
       </c>
       <c r="AB286" s="10">
-        <v>0.19998456483870242</v>
+        <v>0.13272780853347932</v>
       </c>
       <c r="AC286" s="10">
-        <v>0.13763968668407323</v>
+        <v>6.9036057238756499E-2</v>
       </c>
       <c r="AD286" s="10">
-        <v>0.13810488079829653</v>
+        <v>7.102422524001395E-2</v>
       </c>
       <c r="AE286" s="10">
-        <v>0.1466201372757181</v>
+        <v>7.4325610281375631E-2</v>
       </c>
       <c r="AF286" s="10">
-        <v>0.15983211268799868</v>
+        <v>8.4759857212396428E-2</v>
       </c>
       <c r="AG286" s="10">
-        <v>0.19815638003910041</v>
+        <v>0.13726009686205098</v>
       </c>
       <c r="AH286" s="10">
-        <v>0.20949379511897237</v>
+        <v>0.14188611536228812</v>
       </c>
       <c r="AI286" s="10">
-        <v>0.17362912044992984</v>
+        <v>0.10038223698693183</v>
+      </c>
+      <c r="AJ286" s="10">
+        <v>5.7740107613923231E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F287" s="10">
-        <v>4.6396511422341913E-2</v>
+        <v>5.329473004600116E-2</v>
       </c>
       <c r="G287" s="10">
-        <v>3.0138311248670169E-2</v>
+        <v>7.2056167277254612E-2</v>
       </c>
       <c r="H287" s="10">
-        <v>1.5783045154395214E-2</v>
+        <v>9.0755878494298114E-2</v>
       </c>
       <c r="I287" s="10">
-        <v>1.4034119561183944E-2</v>
+        <v>0.14346347159465922</v>
       </c>
       <c r="J287" s="10">
-        <v>3.1434754047683366E-2</v>
+        <v>0.16529420723968102</v>
       </c>
       <c r="K287" s="10">
-        <v>4.4245034464655442E-2</v>
+        <v>0.14565724350333076</v>
       </c>
       <c r="L287" s="10">
-        <v>1.8670422320765878E-2</v>
+        <v>0.12194765031267374</v>
       </c>
       <c r="M287" s="10">
-        <v>-7.7881361402344029E-2</v>
+        <v>0.13214049939808148</v>
       </c>
       <c r="N287" s="10">
-        <v>-0.23388298906552363</v>
+        <v>0.12974289165404462</v>
       </c>
       <c r="O287" s="10">
-        <v>-0.18923730227900681</v>
+        <v>0.11565682720524784</v>
       </c>
       <c r="P287" s="10">
-        <v>-0.11567994192269393</v>
+        <v>0.14983810089475602</v>
       </c>
       <c r="Q287" s="10">
-        <v>-6.1430488759646629E-2</v>
+        <v>0.14956278553026014</v>
       </c>
       <c r="R287" s="10">
-        <v>-5.6569240299600199E-2</v>
+        <v>0.16322992788116197</v>
       </c>
       <c r="S287" s="10">
-        <v>-6.267252549152158E-2</v>
+        <v>0.1616501989453043</v>
       </c>
       <c r="T287" s="10">
-        <v>-7.3668388914983507E-2</v>
+        <v>0.15766586789781933</v>
       </c>
       <c r="U287" s="10">
-        <v>-0.11461304608917566</v>
+        <v>0.11534977889072406</v>
       </c>
       <c r="V287" s="10">
-        <v>-0.11262526927039418</v>
+        <v>0.1097121048412395</v>
       </c>
       <c r="W287" s="10">
-        <v>-6.9565217391304279E-2</v>
+        <v>0.11844681874398799</v>
       </c>
       <c r="X287" s="10">
-        <v>-1.9084896495030312E-2</v>
+        <v>0.13517038685947314</v>
       </c>
       <c r="Y287" s="10">
-        <v>7.9839201607983856E-2</v>
+        <v>0.12227414998070585</v>
       </c>
       <c r="Z287" s="10">
-        <v>0.30930800280376092</v>
+        <v>0.11492770348245185</v>
       </c>
       <c r="AA287" s="10">
-        <v>0.23724898220575441</v>
+        <v>0.12822562621417632</v>
       </c>
       <c r="AB287" s="10">
-        <v>0.13272780853347932</v>
+        <v>8.8213485299141192E-2</v>
       </c>
       <c r="AC287" s="10">
-        <v>6.9036057238756499E-2</v>
+        <v>8.8238479675406323E-2</v>
       </c>
       <c r="AD287" s="10">
-        <v>7.102422524001395E-2</v>
+        <v>0.10114117278969825</v>
       </c>
       <c r="AE287" s="10">
-        <v>7.4325610281375631E-2</v>
+        <v>9.2267855386934938E-2</v>
       </c>
       <c r="AF287" s="10">
-        <v>8.4759857212396428E-2</v>
+        <v>7.0170390972155605E-2</v>
       </c>
       <c r="AG287" s="10">
-        <v>0.13726009686205098</v>
+        <v>9.0427056463169952E-2</v>
       </c>
       <c r="AH287" s="10">
-        <v>0.14188611536228812</v>
+        <v>8.6349181422009424E-2</v>
       </c>
       <c r="AI287" s="10">
-        <v>0.10038223698693183</v>
+        <v>7.8642021762668435E-2</v>
+      </c>
+      <c r="AJ287" s="10">
+        <v>7.6577197659098539E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>371</v>
       </c>
       <c r="F288" s="10">
-        <v>5.329473004600116E-2</v>
+        <v>9.3912237018518363E-2</v>
       </c>
       <c r="G288" s="10">
-        <v>7.2056167277254612E-2</v>
+        <v>0.12238369716294661</v>
       </c>
       <c r="H288" s="10">
-        <v>9.0755878494298114E-2</v>
+        <v>9.8919709784743848E-2</v>
       </c>
       <c r="I288" s="10">
-        <v>0.14346347159465922</v>
+        <v>0.1005021542723854</v>
       </c>
       <c r="J288" s="10">
-        <v>0.16529420723968102</v>
+        <v>0.11918008784773049</v>
       </c>
       <c r="K288" s="10">
-        <v>0.14565724350333076</v>
+        <v>9.3270365997638605E-2</v>
       </c>
       <c r="L288" s="10">
-        <v>0.12194765031267374</v>
+        <v>8.2642443937628984E-2</v>
       </c>
       <c r="M288" s="10">
-        <v>0.13214049939808148</v>
+        <v>5.7514770161871231E-2</v>
       </c>
       <c r="N288" s="10">
-        <v>0.12974289165404462</v>
+        <v>6.6593771281136416E-2</v>
       </c>
       <c r="O288" s="10">
-        <v>0.11565682720524784</v>
+        <v>0.1209912966514235</v>
       </c>
       <c r="P288" s="10">
-        <v>0.14983810089475602</v>
+        <v>9.4846454225521848E-2</v>
       </c>
       <c r="Q288" s="10">
-        <v>0.14956278553026014</v>
+        <v>4.8690712139340731E-2</v>
       </c>
       <c r="R288" s="10">
-        <v>0.16322992788116197</v>
+        <v>6.9953462654932519E-2</v>
       </c>
       <c r="S288" s="10">
-        <v>0.1616501989453043</v>
+        <v>2.055125064877128E-2</v>
       </c>
       <c r="T288" s="10">
-        <v>0.15766586789781933</v>
+        <v>6.3825130632232607E-2</v>
       </c>
       <c r="U288" s="10">
-        <v>0.11534977889072406</v>
+        <v>5.6051238384361879E-2</v>
       </c>
       <c r="V288" s="10">
-        <v>0.1097121048412395</v>
+        <v>9.1701402046229674E-2</v>
       </c>
       <c r="W288" s="10">
-        <v>0.11844681874398799</v>
+        <v>0.14644173003974803</v>
       </c>
       <c r="X288" s="10">
-        <v>0.13517038685947314</v>
+        <v>0.1447570656203101</v>
       </c>
       <c r="Y288" s="10">
-        <v>0.12227414998070585</v>
+        <v>0.18203702694355139</v>
       </c>
       <c r="Z288" s="10">
-        <v>0.11492770348245185</v>
+        <v>0.169430405927951</v>
       </c>
       <c r="AA288" s="10">
-        <v>0.12822562621417632</v>
+        <v>0.1572797136540689</v>
       </c>
       <c r="AB288" s="10">
-        <v>8.8213485299141192E-2</v>
+        <v>0.23657883612794128</v>
       </c>
       <c r="AC288" s="10">
-        <v>8.8238479675406323E-2</v>
+        <v>0.23105262241112023</v>
       </c>
       <c r="AD288" s="10">
-        <v>0.10114117278969825</v>
+        <v>0.22643963274938406</v>
       </c>
       <c r="AE288" s="10">
-        <v>9.2267855386934938E-2</v>
+        <v>0.27118129907209121</v>
       </c>
       <c r="AF288" s="10">
-        <v>7.0170390972155605E-2</v>
+        <v>0.26936000960071316</v>
       </c>
       <c r="AG288" s="10">
-        <v>9.0427056463169952E-2</v>
+        <v>0.26983347940403157</v>
       </c>
       <c r="AH288" s="10">
-        <v>8.6349181422009424E-2</v>
+        <v>0.23302920612882438</v>
       </c>
       <c r="AI288" s="10">
-        <v>7.8642021762668435E-2</v>
+        <v>0.22780631832250209</v>
+      </c>
+      <c r="AJ288" s="10">
+        <v>0.23543442033850104</v>
       </c>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>372</v>
       </c>
       <c r="F289" s="10">
-        <v>9.3912237018518363E-2</v>
+        <v>3.1649207005373992E-2</v>
       </c>
       <c r="G289" s="10">
-        <v>0.12238369716294661</v>
+        <v>7.8278727171760654E-2</v>
       </c>
       <c r="H289" s="10">
-        <v>9.8919709784743848E-2</v>
+        <v>6.8560204527031265E-2</v>
       </c>
       <c r="I289" s="10">
-        <v>0.1005021542723854</v>
+        <v>4.1436603003148109E-2</v>
       </c>
       <c r="J289" s="10">
-        <v>0.11918008784773049</v>
+        <v>4.9169148690795028E-2</v>
       </c>
       <c r="K289" s="10">
-        <v>9.3270365997638605E-2</v>
+        <v>4.0859224855861687E-2</v>
       </c>
       <c r="L289" s="10">
-        <v>8.2642443937628984E-2</v>
+        <v>5.186228669623949E-2</v>
       </c>
       <c r="M289" s="10">
-        <v>5.7514770161871231E-2</v>
+        <v>6.535091229193335E-2</v>
       </c>
       <c r="N289" s="10">
-        <v>6.6593771281136416E-2</v>
+        <v>6.6319622062408046E-2</v>
       </c>
       <c r="O289" s="10">
-        <v>0.1209912966514235</v>
+        <v>7.9394973809663982E-2</v>
       </c>
       <c r="P289" s="10">
-        <v>9.4846454225521848E-2</v>
+        <v>9.6129788897576285E-2</v>
       </c>
       <c r="Q289" s="10">
-        <v>4.8690712139340731E-2</v>
+        <v>7.4569976544175187E-2</v>
       </c>
       <c r="R289" s="10">
-        <v>6.9953462654932519E-2</v>
+        <v>0.10063526192337768</v>
       </c>
       <c r="S289" s="10">
-        <v>2.055125064877128E-2</v>
+        <v>0.11042444029850729</v>
       </c>
       <c r="T289" s="10">
-        <v>6.3825130632232607E-2</v>
+        <v>0.12938270164074739</v>
       </c>
       <c r="U289" s="10">
-        <v>5.6051238384361879E-2</v>
+        <v>0.1189098880723134</v>
       </c>
       <c r="V289" s="10">
-        <v>9.1701402046229674E-2</v>
+        <v>0.10328809023131336</v>
       </c>
       <c r="W289" s="10">
-        <v>0.14644173003974803</v>
+        <v>0.11947762198757528</v>
       </c>
       <c r="X289" s="10">
-        <v>0.1447570656203101</v>
+        <v>0.10648442768538136</v>
       </c>
       <c r="Y289" s="10">
-        <v>0.18203702694355139</v>
+        <v>8.993342785513736E-2</v>
       </c>
       <c r="Z289" s="10">
-        <v>0.169430405927951</v>
+        <v>9.1429861444253246E-2</v>
       </c>
       <c r="AA289" s="10">
-        <v>0.1572797136540689</v>
+        <v>4.7073791348600347E-2</v>
       </c>
       <c r="AB289" s="10">
-        <v>0.23657883612794128</v>
+        <v>2.0097007739220185E-2</v>
       </c>
       <c r="AC289" s="10">
-        <v>0.23105262241112023</v>
+        <v>6.1882673942701194E-2</v>
       </c>
       <c r="AD289" s="10">
-        <v>0.22643963274938406</v>
+        <v>4.6653702371755479E-2</v>
       </c>
       <c r="AE289" s="10">
-        <v>0.27118129907209121</v>
+        <v>2.9384997724806627E-2</v>
       </c>
       <c r="AF289" s="10">
-        <v>0.26936000960071316</v>
+        <v>4.4608256833329474E-3</v>
       </c>
       <c r="AG289" s="10">
-        <v>0.26983347940403157</v>
+        <v>2.9025910134470312E-2</v>
       </c>
       <c r="AH289" s="10">
-        <v>0.23302920612882438</v>
+        <v>4.4833919567515146E-2</v>
       </c>
       <c r="AI289" s="10">
-        <v>0.22780631832250209</v>
+        <v>5.4840649428743227E-2</v>
+      </c>
+      <c r="AJ289" s="10">
+        <v>5.4586502309131646E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F290" s="10">
-        <v>3.1649207005373992E-2</v>
+        <v>6.0711840544632301E-2</v>
       </c>
       <c r="G290" s="10">
-        <v>7.8278727171760654E-2</v>
+        <v>5.7603952402007108E-2</v>
       </c>
       <c r="H290" s="10">
-        <v>6.8560204527031265E-2</v>
+        <v>5.6466092500311982E-2</v>
       </c>
       <c r="I290" s="10">
-        <v>4.1436603003148109E-2</v>
+        <v>5.6466092500311982E-2</v>
       </c>
       <c r="J290" s="10">
-        <v>4.9169148690795028E-2</v>
+        <v>5.6629317049284422E-2</v>
       </c>
       <c r="K290" s="10">
-        <v>4.0859224855861687E-2</v>
+        <v>5.6067861015420384E-2</v>
       </c>
       <c r="L290" s="10">
-        <v>5.186228669623949E-2</v>
+        <v>3.1671384936303282E-2</v>
       </c>
       <c r="M290" s="10">
-        <v>6.535091229193335E-2</v>
+        <v>4.3925589146303068E-3</v>
       </c>
       <c r="N290" s="10">
-        <v>6.6319622062408046E-2</v>
+        <v>4.3743660339081725E-3</v>
       </c>
       <c r="O290" s="10">
-        <v>7.9394973809663982E-2</v>
+        <v>4.3743660339081725E-3</v>
       </c>
       <c r="P290" s="10">
-        <v>9.6129788897576285E-2</v>
+        <v>4.3743660339081725E-3</v>
       </c>
       <c r="Q290" s="10">
-        <v>7.4569976544175187E-2</v>
+        <v>8.181892562659776E-3</v>
       </c>
       <c r="R290" s="10">
-        <v>0.10063526192337768</v>
+        <v>8.181892562659776E-3</v>
       </c>
       <c r="S290" s="10">
-        <v>0.11042444029850729</v>
+        <v>7.8886859157873968E-3</v>
       </c>
       <c r="T290" s="10">
-        <v>0.12938270164074739</v>
+        <v>7.8795259560855424E-3</v>
       </c>
       <c r="U290" s="10">
-        <v>0.1189098880723134</v>
+        <v>7.8795259560855424E-3</v>
       </c>
       <c r="V290" s="10">
-        <v>0.10328809023131336</v>
+        <v>7.7238321111503527E-3</v>
       </c>
       <c r="W290" s="10">
-        <v>0.11947762198757528</v>
+        <v>1.2993385185723794E-2</v>
       </c>
       <c r="X290" s="10">
-        <v>0.10648442768538136</v>
+        <v>1.5290878729069757E-2</v>
       </c>
       <c r="Y290" s="10">
-        <v>8.993342785513736E-2</v>
+        <v>1.4247197900792541E-2</v>
       </c>
       <c r="Z290" s="10">
-        <v>9.1429861444253246E-2</v>
+        <v>1.4247197900792541E-2</v>
       </c>
       <c r="AA290" s="10">
-        <v>4.7073791348600347E-2</v>
+        <v>1.4247197900792541E-2</v>
       </c>
       <c r="AB290" s="10">
-        <v>2.0097007739220185E-2</v>
+        <v>1.4247197900792541E-2</v>
       </c>
       <c r="AC290" s="10">
-        <v>6.1882673942701194E-2</v>
+        <v>1.4247197900792541E-2</v>
       </c>
       <c r="AD290" s="10">
-        <v>4.6653702371755479E-2</v>
+        <v>1.4274249542376438E-2</v>
       </c>
       <c r="AE290" s="10">
-        <v>2.9384997724806627E-2</v>
+        <v>1.4274249542376438E-2</v>
       </c>
       <c r="AF290" s="10">
-        <v>4.4608256833329474E-3</v>
+        <v>1.4274249542376438E-2</v>
       </c>
       <c r="AG290" s="10">
-        <v>2.9025910134470312E-2</v>
+        <v>1.4274249542376438E-2</v>
       </c>
       <c r="AH290" s="10">
-        <v>4.4833919567515146E-2</v>
+        <v>1.4274249542376438E-2</v>
       </c>
       <c r="AI290" s="10">
-        <v>5.4840649428743227E-2</v>
+        <v>8.9338571659220989E-3</v>
+      </c>
+      <c r="AJ290" s="10">
+        <v>1.2446767841112205E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>375</v>
       </c>
       <c r="F291" s="10">
-        <v>6.0711840544632301E-2</v>
+        <v>5.1320000000000032E-2</v>
       </c>
       <c r="G291" s="10">
-        <v>5.7603952402007108E-2</v>
+        <v>3.9840164583003768E-2</v>
       </c>
       <c r="H291" s="10">
-        <v>5.6466092500311982E-2</v>
+        <v>2.8608328115216075E-2</v>
       </c>
       <c r="I291" s="10">
-        <v>5.6466092500311982E-2</v>
+        <v>2.8608328115216075E-2</v>
       </c>
       <c r="J291" s="10">
-        <v>5.6629317049284422E-2</v>
+        <v>2.8608328115216075E-2</v>
       </c>
       <c r="K291" s="10">
-        <v>5.6067861015420384E-2</v>
+        <v>3.2267532874139082E-2</v>
       </c>
       <c r="L291" s="10">
-        <v>3.1671384936303282E-2</v>
+        <v>3.2267532874139082E-2</v>
       </c>
       <c r="M291" s="10">
-        <v>4.3925589146303068E-3</v>
+        <v>2.7662517289073429E-2</v>
       </c>
       <c r="N291" s="10">
-        <v>4.3743660339081725E-3</v>
+        <v>2.3098405802723043E-2</v>
       </c>
       <c r="O291" s="10">
-        <v>4.3743660339081725E-3</v>
+        <v>1.3233712354025817E-2</v>
       </c>
       <c r="P291" s="10">
-        <v>4.3743660339081725E-3</v>
+        <v>4.6446372179735906E-2</v>
       </c>
       <c r="Q291" s="10">
-        <v>8.181892562659776E-3</v>
+        <v>4.2080432218544184E-2</v>
       </c>
       <c r="R291" s="10">
-        <v>8.181892562659776E-3</v>
+        <v>3.7704980405585342E-2</v>
       </c>
       <c r="S291" s="10">
-        <v>7.8886859157873968E-3</v>
+        <v>3.7704980405585342E-2</v>
       </c>
       <c r="T291" s="10">
-        <v>7.8795259560855424E-3</v>
+        <v>1.1043259901837743E-2</v>
       </c>
       <c r="U291" s="10">
-        <v>7.8795259560855424E-3</v>
+        <v>-1.5618460601910078E-2</v>
       </c>
       <c r="V291" s="10">
-        <v>7.7238321111503527E-3</v>
+        <v>3.5574325609708524E-3</v>
       </c>
       <c r="W291" s="10">
-        <v>1.2993385185723794E-2</v>
+        <v>0</v>
       </c>
       <c r="X291" s="10">
-        <v>1.5290878729069757E-2</v>
+        <v>0</v>
       </c>
       <c r="Y291" s="10">
-        <v>1.4247197900792541E-2</v>
+        <v>0</v>
       </c>
       <c r="Z291" s="10">
-        <v>1.4247197900792541E-2</v>
+        <v>0</v>
       </c>
       <c r="AA291" s="10">
-        <v>1.4247197900792541E-2</v>
+        <v>0</v>
       </c>
       <c r="AB291" s="10">
-        <v>1.4247197900792541E-2</v>
+        <v>-3.3513611780211727E-2</v>
       </c>
       <c r="AC291" s="10">
-        <v>1.4247197900792541E-2</v>
+        <v>-2.1970499105480323E-2</v>
       </c>
       <c r="AD291" s="10">
-        <v>1.4274249542376438E-2</v>
+        <v>-1.7846667155532736E-2</v>
       </c>
       <c r="AE291" s="10">
-        <v>1.4274249542376438E-2</v>
+        <v>-1.7846667155532736E-2</v>
       </c>
       <c r="AF291" s="10">
-        <v>1.4274249542376438E-2</v>
+        <v>8.0532114062072946E-3</v>
       </c>
       <c r="AG291" s="10">
-        <v>1.4274249542376438E-2</v>
+        <v>3.5356073050536452E-2</v>
       </c>
       <c r="AH291" s="10">
-        <v>1.4274249542376438E-2</v>
+        <v>4.2604212082725246E-2</v>
       </c>
       <c r="AI291" s="10">
-        <v>8.9338571659220989E-3</v>
+        <v>6.963585009383344E-2</v>
+      </c>
+      <c r="AJ291" s="10">
+        <v>6.963585009383344E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>376</v>
       </c>
       <c r="F292" s="10">
-        <v>5.1320000000000032E-2</v>
+        <v>0.10521000000000003</v>
       </c>
       <c r="G292" s="10">
-        <v>3.9840164583003768E-2</v>
+        <v>0.10521000000000003</v>
       </c>
       <c r="H292" s="10">
-        <v>2.8608328115216075E-2</v>
+        <v>0.10521000000000003</v>
       </c>
       <c r="I292" s="10">
-        <v>2.8608328115216075E-2</v>
+        <v>0.10521000000000003</v>
       </c>
       <c r="J292" s="10">
-        <v>2.8608328115216075E-2</v>
+        <v>0.10521000000000003</v>
       </c>
       <c r="K292" s="10">
-        <v>3.2267532874139082E-2</v>
+        <v>0.10521000000000003</v>
       </c>
       <c r="L292" s="10">
-        <v>3.2267532874139082E-2</v>
+        <v>3.6480948317093587E-2</v>
       </c>
       <c r="M292" s="10">
-        <v>2.7662517289073429E-2</v>
+        <v>-1.4639408717669777E-2</v>
       </c>
       <c r="N292" s="10">
-        <v>2.3098405802723043E-2</v>
+        <v>-4.8890729669378574E-3</v>
       </c>
       <c r="O292" s="10">
-        <v>1.3233712354025817E-2</v>
+        <v>-2.8250882275956402E-3</v>
       </c>
       <c r="P292" s="10">
-        <v>4.6446372179735906E-2</v>
+        <v>3.7241791152812675E-2</v>
       </c>
       <c r="Q292" s="10">
-        <v>4.2080432218544184E-2</v>
+        <v>7.978574207616651E-2</v>
       </c>
       <c r="R292" s="10">
-        <v>3.7704980405585342E-2</v>
+        <v>7.978574207616651E-2</v>
       </c>
       <c r="S292" s="10">
-        <v>3.7704980405585342E-2</v>
+        <v>7.978574207616651E-2</v>
       </c>
       <c r="T292" s="10">
-        <v>1.1043259901837743E-2</v>
+        <v>7.978574207616651E-2</v>
       </c>
       <c r="U292" s="10">
-        <v>-1.5618460601910078E-2</v>
+        <v>5.9174274572253216E-2</v>
       </c>
       <c r="V292" s="10">
-        <v>3.5574325609708524E-3</v>
+        <v>5.9174274572253216E-2</v>
       </c>
       <c r="W292" s="10">
-        <v>0</v>
+        <v>5.9174274572253216E-2</v>
       </c>
       <c r="X292" s="10">
-        <v>0</v>
+        <v>5.9174274572253216E-2</v>
       </c>
       <c r="Y292" s="10">
-        <v>0</v>
+        <v>5.9174274572253216E-2</v>
       </c>
       <c r="Z292" s="10">
-        <v>0</v>
+        <v>5.9174274572253216E-2</v>
       </c>
       <c r="AA292" s="10">
-        <v>0</v>
+        <v>5.9567342505430831E-2</v>
       </c>
       <c r="AB292" s="10">
-        <v>-3.3513611780211727E-2</v>
+        <v>2.1145005539223938E-2</v>
       </c>
       <c r="AC292" s="10">
-        <v>-2.1970499105480323E-2</v>
+        <v>-1.9088479038704809E-2</v>
       </c>
       <c r="AD292" s="10">
-        <v>-1.7846667155532736E-2</v>
+        <v>-4.2567811025733371E-2</v>
       </c>
       <c r="AE292" s="10">
-        <v>-1.7846667155532736E-2</v>
+        <v>-4.2567811025733371E-2</v>
       </c>
       <c r="AF292" s="10">
-        <v>8.0532114062072946E-3</v>
+        <v>-4.2567811025733371E-2</v>
       </c>
       <c r="AG292" s="10">
-        <v>3.5356073050536452E-2</v>
+        <v>-2.3936238371447427E-2</v>
       </c>
       <c r="AH292" s="10">
-        <v>4.2604212082725246E-2</v>
+        <v>-2.3936238371447427E-2</v>
       </c>
       <c r="AI292" s="10">
-        <v>6.963585009383344E-2</v>
+        <v>-2.3936238371447427E-2</v>
+      </c>
+      <c r="AJ292" s="10">
+        <v>-2.3936238371447427E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>377</v>
       </c>
       <c r="F293" s="10">
-        <v>0.10521000000000003</v>
+        <v>7.6674681557140856E-2</v>
       </c>
       <c r="G293" s="10">
-        <v>0.10521000000000003</v>
+        <v>7.1064347212143719E-2</v>
       </c>
       <c r="H293" s="10">
-        <v>0.10521000000000003</v>
+        <v>7.0295474624521459E-2</v>
       </c>
       <c r="I293" s="10">
-        <v>0.10521000000000003</v>
+        <v>6.8114993504019727E-2</v>
       </c>
       <c r="J293" s="10">
-        <v>0.10521000000000003</v>
+        <v>6.8114993504019727E-2</v>
       </c>
       <c r="K293" s="10">
-        <v>0.10521000000000003</v>
+        <v>7.7886194570572886E-2</v>
       </c>
       <c r="L293" s="10">
-        <v>3.6480948317093587E-2</v>
+        <v>6.3840128080507652E-2</v>
       </c>
       <c r="M293" s="10">
-        <v>-1.4639408717669777E-2</v>
+        <v>5.2817033751785258E-2</v>
       </c>
       <c r="N293" s="10">
-        <v>-4.8890729669378574E-3</v>
+        <v>7.1380332420365455E-2</v>
       </c>
       <c r="O293" s="10">
-        <v>-2.8250882275956402E-3</v>
+        <v>7.3744662601853417E-2</v>
       </c>
       <c r="P293" s="10">
-        <v>3.7241791152812675E-2</v>
+        <v>7.2636650299146455E-2</v>
       </c>
       <c r="Q293" s="10">
-        <v>7.978574207616651E-2</v>
+        <v>6.8411951284920391E-2</v>
       </c>
       <c r="R293" s="10">
-        <v>7.978574207616651E-2</v>
+        <v>6.6157267702075417E-2</v>
       </c>
       <c r="S293" s="10">
-        <v>7.978574207616651E-2</v>
+        <v>4.8889906157015384E-2</v>
       </c>
       <c r="T293" s="10">
-        <v>7.978574207616651E-2</v>
+        <v>6.1432069778319942E-2</v>
       </c>
       <c r="U293" s="10">
-        <v>5.9174274572253216E-2</v>
+        <v>6.2033582089552342E-2</v>
       </c>
       <c r="V293" s="10">
-        <v>5.9174274572253216E-2</v>
+        <v>7.7297336845185916E-2</v>
       </c>
       <c r="W293" s="10">
-        <v>5.9174274572253216E-2</v>
+        <v>7.1612949485533983E-2</v>
       </c>
       <c r="X293" s="10">
-        <v>5.9174274572253216E-2</v>
+        <v>7.2218788351114727E-2</v>
       </c>
       <c r="Y293" s="10">
-        <v>5.9174274572253216E-2</v>
+        <v>6.8276139051274054E-2</v>
       </c>
       <c r="Z293" s="10">
-        <v>5.9174274572253216E-2</v>
+        <v>5.6180070389242109E-2</v>
       </c>
       <c r="AA293" s="10">
-        <v>5.9567342505430831E-2</v>
+        <v>7.1354148577779331E-2</v>
       </c>
       <c r="AB293" s="10">
-        <v>2.1145005539223938E-2</v>
+        <v>6.6872995620538722E-2</v>
       </c>
       <c r="AC293" s="10">
-        <v>-1.9088479038704809E-2</v>
+        <v>7.1111418852835007E-2</v>
       </c>
       <c r="AD293" s="10">
-        <v>-4.2567811025733371E-2</v>
+        <v>9.086659972994493E-2</v>
       </c>
       <c r="AE293" s="10">
-        <v>-4.2567811025733371E-2</v>
+        <v>0.11369091781957841</v>
       </c>
       <c r="AF293" s="10">
-        <v>-4.2567811025733371E-2</v>
+        <v>9.5740911958108965E-2</v>
       </c>
       <c r="AG293" s="10">
-        <v>-2.3936238371447427E-2</v>
+        <v>9.6403075942717908E-2</v>
       </c>
       <c r="AH293" s="10">
-        <v>-2.3936238371447427E-2</v>
+        <v>9.9392169513395912E-2</v>
       </c>
       <c r="AI293" s="10">
-        <v>-2.3936238371447427E-2</v>
+        <v>0.11380706244458949</v>
+      </c>
+      <c r="AJ293" s="10">
+        <v>0.1336730857596391</v>
       </c>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>378</v>
       </c>
       <c r="F294" s="10">
-        <v>7.6674681557140856E-2</v>
+        <v>5.9399999999998343E-3</v>
       </c>
       <c r="G294" s="10">
-        <v>7.1064347212143719E-2</v>
+        <v>5.9399999999998343E-3</v>
       </c>
       <c r="H294" s="10">
-        <v>7.0295474624521459E-2</v>
+        <v>5.9399999999998343E-3</v>
       </c>
       <c r="I294" s="10">
-        <v>6.8114993504019727E-2</v>
+        <v>5.9399999999998343E-3</v>
       </c>
       <c r="J294" s="10">
-        <v>6.8114993504019727E-2</v>
+        <v>5.9399999999998343E-3</v>
       </c>
       <c r="K294" s="10">
-        <v>7.7886194570572886E-2</v>
+        <v>1.9940000000000069E-2</v>
       </c>
       <c r="L294" s="10">
-        <v>6.3840128080507652E-2</v>
+        <v>1.9940000000000069E-2</v>
       </c>
       <c r="M294" s="10">
-        <v>5.2817033751785258E-2</v>
+        <v>1.9940000000000069E-2</v>
       </c>
       <c r="N294" s="10">
-        <v>7.1380332420365455E-2</v>
+        <v>2.1885001545410177E-2</v>
       </c>
       <c r="O294" s="10">
-        <v>7.3744662601853417E-2</v>
+        <v>1.8867924528301883E-2</v>
       </c>
       <c r="P294" s="10">
-        <v>7.2636650299146455E-2</v>
+        <v>1.8867924528301883E-2</v>
       </c>
       <c r="Q294" s="10">
-        <v>6.8411951284920391E-2</v>
+        <v>1.8867924528301883E-2</v>
       </c>
       <c r="R294" s="10">
-        <v>6.6157267702075417E-2</v>
+        <v>1.8867924528301883E-2</v>
       </c>
       <c r="S294" s="10">
-        <v>4.8889906157015384E-2</v>
+        <v>1.8867924528301883E-2</v>
       </c>
       <c r="T294" s="10">
-        <v>6.1432069778319942E-2</v>
+        <v>3.1711632900570663E-2</v>
       </c>
       <c r="U294" s="10">
-        <v>6.2033582089552342E-2</v>
+        <v>4.454540032208687E-2</v>
       </c>
       <c r="V294" s="10">
-        <v>7.7297336845185916E-2</v>
+        <v>4.454540032208687E-2</v>
       </c>
       <c r="W294" s="10">
-        <v>7.1612949485533983E-2</v>
+        <v>3.0207659274074983E-2</v>
       </c>
       <c r="X294" s="10">
-        <v>7.2218788351114727E-2</v>
+        <v>3.0207659274074983E-2</v>
       </c>
       <c r="Y294" s="10">
-        <v>6.8276139051274054E-2</v>
+        <v>3.0207659274074983E-2</v>
       </c>
       <c r="Z294" s="10">
-        <v>5.6180070389242109E-2</v>
+        <v>2.5201966982788981E-2</v>
       </c>
       <c r="AA294" s="10">
-        <v>7.1354148577779331E-2</v>
+        <v>2.5201966982788981E-2</v>
       </c>
       <c r="AB294" s="10">
-        <v>6.6872995620538722E-2</v>
+        <v>4.3232642547710975E-2</v>
       </c>
       <c r="AC294" s="10">
-        <v>7.1111418852835007E-2</v>
+        <v>6.5761230144791627E-2</v>
       </c>
       <c r="AD294" s="10">
-        <v>9.086659972994493E-2</v>
+        <v>6.5761230144791627E-2</v>
       </c>
       <c r="AE294" s="10">
-        <v>0.11369091781957841</v>
+        <v>6.5761230144791627E-2</v>
       </c>
       <c r="AF294" s="10">
-        <v>9.5740911958108965E-2</v>
+        <v>5.2493640638248573E-2</v>
       </c>
       <c r="AG294" s="10">
-        <v>9.6403075942717908E-2</v>
+        <v>3.9562217463716465E-2</v>
       </c>
       <c r="AH294" s="10">
-        <v>9.9392169513395912E-2</v>
+        <v>3.9562217463716465E-2</v>
       </c>
       <c r="AI294" s="10">
-        <v>0.11380706244458949</v>
+        <v>5.6616702355460458E-2</v>
+      </c>
+      <c r="AJ294" s="10">
+        <v>0.10521056388294059</v>
       </c>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>379</v>
       </c>
       <c r="F295" s="10">
-        <v>5.9399999999998343E-3</v>
+        <v>6.817090734517528E-2</v>
       </c>
       <c r="G295" s="10">
-        <v>5.9399999999998343E-3</v>
+        <v>6.9739551060384875E-2</v>
       </c>
       <c r="H295" s="10">
-        <v>5.9399999999998343E-3</v>
+        <v>7.5404307962447348E-2</v>
       </c>
       <c r="I295" s="10">
-        <v>5.9399999999998343E-3</v>
+        <v>7.5380545989918613E-2</v>
       </c>
       <c r="J295" s="10">
-        <v>5.9399999999998343E-3</v>
+        <v>7.5428024105040459E-2</v>
       </c>
       <c r="K295" s="10">
-        <v>1.9940000000000069E-2</v>
+        <v>7.7289095933045449E-2</v>
       </c>
       <c r="L295" s="10">
-        <v>1.9940000000000069E-2</v>
+        <v>6.2321607842365179E-2</v>
       </c>
       <c r="M295" s="10">
-        <v>1.9940000000000069E-2</v>
+        <v>4.4491115326545705E-2</v>
       </c>
       <c r="N295" s="10">
-        <v>2.1885001545410177E-2</v>
+        <v>2.5186841083252087E-2</v>
       </c>
       <c r="O295" s="10">
-        <v>1.8867924528301883E-2</v>
+        <v>1.6889138682029126E-2</v>
       </c>
       <c r="P295" s="10">
-        <v>1.8867924528301883E-2</v>
+        <v>1.8296061838434907E-2</v>
       </c>
       <c r="Q295" s="10">
-        <v>1.8867924528301883E-2</v>
+        <v>1.393188854489158E-2</v>
       </c>
       <c r="R295" s="10">
-        <v>1.8867924528301883E-2</v>
+        <v>1.068352059925104E-2</v>
       </c>
       <c r="S295" s="10">
-        <v>1.8867924528301883E-2</v>
+        <v>9.0156582831943943E-3</v>
       </c>
       <c r="T295" s="10">
-        <v>3.1711632900570663E-2</v>
+        <v>7.4774331808777905E-3</v>
       </c>
       <c r="U295" s="10">
-        <v>4.454540032208687E-2</v>
+        <v>1.6521714916881036E-2</v>
       </c>
       <c r="V295" s="10">
-        <v>4.454540032208687E-2</v>
+        <v>2.4854343711730564E-2</v>
       </c>
       <c r="W295" s="10">
-        <v>3.0207659274074983E-2</v>
+        <v>2.8038335108106827E-2</v>
       </c>
       <c r="X295" s="10">
-        <v>3.0207659274074983E-2</v>
+        <v>3.7587785127948692E-2</v>
       </c>
       <c r="Y295" s="10">
-        <v>3.0207659274074983E-2</v>
+        <v>4.3531842736816762E-2</v>
       </c>
       <c r="Z295" s="10">
-        <v>2.5201966982788981E-2</v>
+        <v>4.6724568049524073E-2</v>
       </c>
       <c r="AA295" s="10">
-        <v>2.5201966982788981E-2</v>
+        <v>4.8554689658983907E-2</v>
       </c>
       <c r="AB295" s="10">
-        <v>4.3232642547710975E-2</v>
+        <v>4.8266447762846054E-2</v>
       </c>
       <c r="AC295" s="10">
-        <v>6.5761230144791627E-2</v>
+        <v>5.1991672449687609E-2</v>
       </c>
       <c r="AD295" s="10">
-        <v>6.5761230144791627E-2</v>
+        <v>6.0866584523026512E-2</v>
       </c>
       <c r="AE295" s="10">
-        <v>6.5761230144791627E-2</v>
+        <v>7.3490060277219715E-2</v>
       </c>
       <c r="AF295" s="10">
-        <v>5.2493640638248573E-2</v>
+        <v>7.7166035894177698E-2</v>
       </c>
       <c r="AG295" s="10">
-        <v>3.9562217463716465E-2</v>
+        <v>7.4865089438169496E-2</v>
       </c>
       <c r="AH295" s="10">
-        <v>3.9562217463716465E-2</v>
+        <v>7.7362470239981329E-2</v>
       </c>
       <c r="AI295" s="10">
-        <v>5.6616702355460458E-2</v>
+        <v>7.9668176864253315E-2</v>
+      </c>
+      <c r="AJ295" s="10">
+        <v>9.1534141136341285E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>380</v>
       </c>
       <c r="F296" s="10">
-        <v>6.817090734517528E-2</v>
+        <v>0.23079999999999989</v>
       </c>
       <c r="G296" s="10">
-        <v>6.9739551060384875E-2</v>
+        <v>0.23079999999999989</v>
       </c>
       <c r="H296" s="10">
-        <v>7.5404307962447348E-2</v>
+        <v>0.23079999999999989</v>
       </c>
       <c r="I296" s="10">
-        <v>7.5380545989918613E-2</v>
+        <v>0.23079999999999989</v>
       </c>
       <c r="J296" s="10">
-        <v>7.5428024105040459E-2</v>
+        <v>0.23079999999999989</v>
       </c>
       <c r="K296" s="10">
-        <v>7.7289095933045449E-2</v>
+        <v>5.6917931147006051E-2</v>
       </c>
       <c r="L296" s="10">
-        <v>6.2321607842365179E-2</v>
+        <v>5.6917931147006051E-2</v>
       </c>
       <c r="M296" s="10">
-        <v>4.4491115326545705E-2</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="N296" s="10">
-        <v>2.5186841083252087E-2</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="O296" s="10">
-        <v>1.6889138682029126E-2</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="P296" s="10">
-        <v>1.8296061838434907E-2</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="Q296" s="10">
-        <v>1.393188854489158E-2</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="R296" s="10">
-        <v>1.068352059925104E-2</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="S296" s="10">
-        <v>9.0156582831943943E-3</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="T296" s="10">
-        <v>7.4774331808777905E-3</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="U296" s="10">
-        <v>1.6521714916881036E-2</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="V296" s="10">
-        <v>2.4854343711730564E-2</v>
+        <v>5.2624309392265145E-2</v>
       </c>
       <c r="W296" s="10">
-        <v>2.8038335108106827E-2</v>
+        <v>4.3617867039218439E-2</v>
       </c>
       <c r="X296" s="10">
-        <v>3.7587785127948692E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="Y296" s="10">
-        <v>4.3531842736816762E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="Z296" s="10">
-        <v>4.6724568049524073E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="AA296" s="10">
-        <v>4.8554689658983907E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="AB296" s="10">
-        <v>4.8266447762846054E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="AC296" s="10">
-        <v>5.1991672449687609E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="AD296" s="10">
-        <v>6.0866584523026512E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="AE296" s="10">
-        <v>7.3490060277219715E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="AF296" s="10">
-        <v>7.7166035894177698E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="AG296" s="10">
-        <v>7.4865089438169496E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="AH296" s="10">
-        <v>7.7362470239981329E-2</v>
+        <v>4.6620406462020814E-2</v>
       </c>
       <c r="AI296" s="10">
-        <v>7.9668176864253315E-2</v>
+        <v>4.6121531270338911E-2</v>
+      </c>
+      <c r="AJ296" s="10">
+        <v>4.3120423018208287E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F297" s="10">
-        <v>0.23079999999999989</v>
+        <v>7.518729666000068E-2</v>
       </c>
       <c r="G297" s="10">
-        <v>0.23079999999999989</v>
+        <v>6.4337111877772246E-2</v>
       </c>
       <c r="H297" s="10">
-        <v>0.23079999999999989</v>
+        <v>5.7024542579956705E-2</v>
       </c>
       <c r="I297" s="10">
-        <v>0.23079999999999989</v>
+        <v>6.4512005663605487E-2</v>
       </c>
       <c r="J297" s="10">
-        <v>0.23079999999999989</v>
+        <v>4.5289243442947047E-2</v>
       </c>
       <c r="K297" s="10">
-        <v>5.6917931147006051E-2</v>
+        <v>2.8485387980832888E-2</v>
       </c>
       <c r="L297" s="10">
-        <v>5.6917931147006051E-2</v>
+        <v>2.3090117429740209E-2</v>
       </c>
       <c r="M297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>1.4665333171319794E-2</v>
       </c>
       <c r="N297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>1.2526466006920867E-2</v>
       </c>
       <c r="O297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>-3.9770257396798403E-4</v>
       </c>
       <c r="P297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>2.1140472878999894E-3</v>
       </c>
       <c r="Q297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>1.2099697042915913E-2</v>
       </c>
       <c r="R297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>1.5536801584216997E-2</v>
       </c>
       <c r="S297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>2.0902599627698359E-2</v>
       </c>
       <c r="T297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>1.6402096801081845E-2</v>
       </c>
       <c r="U297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>1.4058357887736239E-2</v>
       </c>
       <c r="V297" s="10">
-        <v>5.2624309392265145E-2</v>
+        <v>1.8419741237703402E-2</v>
       </c>
       <c r="W297" s="10">
-        <v>4.3617867039218439E-2</v>
+        <v>1.842439644218552E-2</v>
       </c>
       <c r="X297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>1.4729724750359274E-2</v>
       </c>
       <c r="Y297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>2.2965105567633426E-2</v>
       </c>
       <c r="Z297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>2.5452301116474452E-2</v>
       </c>
       <c r="AA297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>2.6101519273117546E-2</v>
       </c>
       <c r="AB297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>2.1197653546512596E-2</v>
       </c>
       <c r="AC297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>1.2680427516803094E-2</v>
       </c>
       <c r="AD297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>4.2279830516196437E-3</v>
       </c>
       <c r="AE297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>-7.6401110365223013E-2</v>
       </c>
       <c r="AF297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>-4.8576244931431978E-2</v>
       </c>
       <c r="AG297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>-3.8766680329735403E-2</v>
       </c>
       <c r="AH297" s="10">
-        <v>4.6620406462020814E-2</v>
+        <v>-1.5721560738686802E-2</v>
       </c>
       <c r="AI297" s="10">
-        <v>4.6121531270338911E-2</v>
+        <v>4.2402379596226947E-3</v>
+      </c>
+      <c r="AJ297" s="10">
+        <v>5.6193545458671501E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B298" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C298" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C298" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="D298" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="F298" s="10">
-        <v>7.518729666000068E-2</v>
+        <v>0.2015583474269147</v>
       </c>
       <c r="G298" s="10">
-        <v>6.4337111877772246E-2</v>
+        <v>0.15070559805610073</v>
       </c>
       <c r="H298" s="10">
-        <v>5.7024542579956705E-2</v>
+        <v>0.14793503840285505</v>
       </c>
       <c r="I298" s="10">
-        <v>6.4512005663605487E-2</v>
+        <v>0.194919921068331</v>
       </c>
       <c r="J298" s="10">
-        <v>4.5289243442947047E-2</v>
+        <v>0.14581806122805174</v>
       </c>
       <c r="K298" s="10">
-        <v>2.8485387980832888E-2</v>
+        <v>9.6243310834431384E-2</v>
       </c>
       <c r="L298" s="10">
-        <v>2.3090117429740209E-2</v>
+        <v>-3.8616141383585934E-2</v>
       </c>
       <c r="M298" s="10">
-        <v>1.4665333171319794E-2</v>
+        <v>-7.3728956338046547E-2</v>
       </c>
       <c r="N298" s="10">
-        <v>1.2526466006920867E-2</v>
+        <v>-0.33124317822377658</v>
       </c>
       <c r="O298" s="10">
-        <v>-3.9770257396798403E-4</v>
+        <v>-0.22653286884563706</v>
       </c>
       <c r="P298" s="10">
-        <v>2.1140472878999894E-3</v>
+        <v>-0.24710697293702355</v>
       </c>
       <c r="Q298" s="10">
-        <v>1.2099697042915913E-2</v>
+        <v>-0.35438786147252999</v>
       </c>
       <c r="R298" s="10">
-        <v>1.5536801584216997E-2</v>
+        <v>-0.26111697582064053</v>
       </c>
       <c r="S298" s="10">
-        <v>2.0902599627698359E-2</v>
+        <v>-0.19951501931801041</v>
       </c>
       <c r="T298" s="10">
-        <v>1.6402096801081845E-2</v>
+        <v>-0.16454341679901763</v>
       </c>
       <c r="U298" s="10">
-        <v>1.4058357887736239E-2</v>
+        <v>-0.2858363577010965</v>
       </c>
       <c r="V298" s="10">
-        <v>1.8419741237703402E-2</v>
+        <v>-0.46819043847155684</v>
       </c>
       <c r="W298" s="10">
-        <v>1.842439644218552E-2</v>
+        <v>-0.35323553942010499</v>
       </c>
       <c r="X298" s="10">
-        <v>1.4729724750359274E-2</v>
+        <v>-0.24121607256750055</v>
       </c>
       <c r="Y298" s="10">
-        <v>2.2965105567633426E-2</v>
+        <v>-0.18120382807253177</v>
       </c>
       <c r="Z298" s="10">
-        <v>2.5452301116474452E-2</v>
+        <v>9.3579815138645994E-2</v>
       </c>
       <c r="AA298" s="10">
-        <v>2.6101519273117546E-2</v>
+        <v>0.11073877086727935</v>
       </c>
       <c r="AB298" s="10">
-        <v>2.1197653546512596E-2</v>
+        <v>0.23530930637095016</v>
       </c>
       <c r="AC298" s="10">
-        <v>1.2680427516803094E-2</v>
+        <v>0.57796615237411775</v>
       </c>
       <c r="AD298" s="10">
-        <v>4.2279830516196437E-3</v>
+        <v>0.12114078891867264</v>
       </c>
       <c r="AE298" s="10">
-        <v>-7.6401110365223013E-2</v>
+        <v>0.15343585581145902</v>
       </c>
       <c r="AF298" s="10">
-        <v>-4.8576244931431978E-2</v>
+        <v>9.9755969314152315E-2</v>
       </c>
       <c r="AG298" s="10">
-        <v>-3.8766680329735403E-2</v>
+        <v>0.14116128685317886</v>
       </c>
       <c r="AH298" s="10">
-        <v>-1.5721560738686802E-2</v>
+        <v>0.52190476190476187</v>
       </c>
       <c r="AI298" s="10">
-        <v>4.2402379596226947E-3</v>
+        <v>0.44517560494576336</v>
+      </c>
+      <c r="AJ298" s="10">
+        <v>0.34487074118350258</v>
       </c>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C299" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E299" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="D299" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E299" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="F299" s="10">
         <v>4.0789999999999882E-2</v>
@@ -32348,22 +33290,25 @@
       <c r="AI299" s="10">
         <v>0</v>
       </c>
+      <c r="AJ299" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F300" s="10">
         <v>6.2950000000000061E-2</v>
@@ -32455,22 +33400,25 @@
       <c r="AI300" s="10">
         <v>0</v>
       </c>
+      <c r="AJ300" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="301" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F301" s="10">
         <v>0.35714000000000001</v>
@@ -32562,22 +33510,25 @@
       <c r="AI301" s="10">
         <v>0</v>
       </c>
+      <c r="AJ301" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="302" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F302" s="10">
         <v>4.2140000000000066E-2</v>
@@ -32669,22 +33620,25 @@
       <c r="AI302" s="10">
         <v>3.8233218872007146E-2</v>
       </c>
+      <c r="AJ302" s="10">
+        <v>7.9955428269815387E-2</v>
+      </c>
     </row>
-    <row r="303" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>356</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F303" s="10">
         <v>0.13623000000000007</v>
@@ -32776,22 +33730,25 @@
       <c r="AI303" s="10">
         <v>9.6642683780025385E-2</v>
       </c>
+      <c r="AJ303" s="10">
+        <v>0.10260440638813373</v>
+      </c>
     </row>
-    <row r="304" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="C304" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D304" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C304" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D304" s="6" t="s">
+      <c r="E304" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="E304" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="F304" s="10">
         <v>2.5442753803941232E-2</v>
@@ -32883,22 +33840,25 @@
       <c r="AI304" s="10">
         <v>3.3064901705275318E-2</v>
       </c>
+      <c r="AJ304" s="10">
+        <v>3.0648157656438135E-2</v>
+      </c>
     </row>
-    <row r="305" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B305" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B305" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="C305" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D305" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E305" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="E305" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="F305" s="10">
         <v>8.5339999999999971E-2</v>
@@ -32990,22 +33950,25 @@
       <c r="AI305" s="10">
         <v>4.2840295344226398E-2</v>
       </c>
+      <c r="AJ305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
     </row>
-    <row r="306" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B306" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="C306" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F306" s="10">
         <v>4.3394532029535027E-2</v>
@@ -33097,22 +34060,25 @@
       <c r="AI306" s="10">
         <v>0.14446400281640548</v>
       </c>
+      <c r="AJ306" s="10">
+        <v>0.14062976882897171</v>
+      </c>
     </row>
-    <row r="307" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B307" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B307" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="C307" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F307" s="10">
         <v>2.4727330785427215E-2</v>
@@ -33204,22 +34170,25 @@
       <c r="AI307" s="10">
         <v>3.0940315315315381E-2</v>
       </c>
+      <c r="AJ307" s="10">
+        <v>2.8881305221822196E-2</v>
+      </c>
     </row>
-    <row r="308" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B308" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D308" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C308" s="5" t="s">
+      <c r="E308" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="F308" s="10">
         <v>1.6779126407410416E-2</v>
@@ -33311,22 +34280,25 @@
       <c r="AI308" s="10">
         <v>9.3552524852394736E-2</v>
       </c>
+      <c r="AJ308" s="10">
+        <v>9.7008168116051285E-2</v>
+      </c>
     </row>
-    <row r="309" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D309" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E309" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="E309" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="F309" s="10">
         <v>-9.4068855244091365E-2</v>
@@ -33418,22 +34390,25 @@
       <c r="AI309" s="10">
         <v>9.4399593160002571E-2</v>
       </c>
+      <c r="AJ309" s="10">
+        <v>9.1521387873118476E-2</v>
+      </c>
     </row>
-    <row r="310" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F310" s="10">
         <v>4.2326828927820026E-2</v>
@@ -33525,22 +34500,25 @@
       <c r="AI310" s="10">
         <v>0.25551993004445106</v>
       </c>
+      <c r="AJ310" s="10">
+        <v>0.23499681182251231</v>
+      </c>
     </row>
-    <row r="311" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B311" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D311" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D311" s="4" t="s">
+      <c r="E311" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="E311" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="F311" s="10">
         <v>-5.7805205473961951E-3</v>
@@ -33632,22 +34610,25 @@
       <c r="AI311" s="10">
         <v>2.7356177430148954E-4</v>
       </c>
+      <c r="AJ311" s="10">
+        <v>2.4311921958730665E-4</v>
+      </c>
     </row>
-    <row r="312" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D312" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C312" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="E312" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F312" s="10">
         <v>0</v>
@@ -33739,22 +34720,25 @@
       <c r="AI312" s="10">
         <v>0</v>
       </c>
+      <c r="AJ312" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="313" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D313" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E313" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="E313" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="F313" s="10">
         <v>6.203000000000003E-2</v>
@@ -33846,22 +34830,25 @@
       <c r="AI313" s="10">
         <v>1.9957153142395434E-2</v>
       </c>
+      <c r="AJ313" s="10">
+        <v>2.1474091328615996E-2</v>
+      </c>
     </row>
-    <row r="314" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F314" s="11">
         <v>5.0240000000000062E-2</v>
@@ -33952,6 +34939,9 @@
       </c>
       <c r="AI314" s="11">
         <v>4.0041523228164788E-2</v>
+      </c>
+      <c r="AJ314" s="11">
+        <v>6.3952869361536102E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="453">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1379,10 +1379,13 @@
     <t xml:space="preserve"> 02/2022</t>
   </si>
   <si>
-    <t>Última actualización:  04/07/2022</t>
+    <t xml:space="preserve"> 03/2022</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/2022</t>
+    <t>Última actualización:  05/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04/2022</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1937,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2057,9 +2060,11 @@
         <v>449</v>
       </c>
       <c r="AK15" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="AL15" s="13"/>
+        <v>450</v>
+      </c>
+      <c r="AL15" s="13" t="s">
+        <v>452</v>
+      </c>
       <c r="AM15" s="13"/>
       <c r="AN15" s="13"/>
       <c r="AO15" s="13"/>
@@ -2270,7 +2275,9 @@
       <c r="AK16" s="10">
         <v>0.2769405468213586</v>
       </c>
-      <c r="AL16" s="10"/>
+      <c r="AL16" s="10">
+        <v>0.263251128864189</v>
+      </c>
       <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
@@ -2481,7 +2488,9 @@
       <c r="AK17" s="10">
         <v>5.7896044055807394E-3</v>
       </c>
-      <c r="AL17" s="10"/>
+      <c r="AL17" s="10">
+        <v>2.3596558480278862E-3</v>
+      </c>
       <c r="AM17" s="10"/>
       <c r="AN17" s="10"/>
       <c r="AO17" s="10"/>
@@ -2692,7 +2701,9 @@
       <c r="AK18" s="10">
         <v>7.9035677197318854E-2</v>
       </c>
-      <c r="AL18" s="10"/>
+      <c r="AL18" s="10">
+        <v>0.10269774206953874</v>
+      </c>
       <c r="AM18" s="10"/>
       <c r="AN18" s="10"/>
       <c r="AO18" s="10"/>
@@ -2903,7 +2914,9 @@
       <c r="AK19" s="10">
         <v>6.3155745028463439E-2</v>
       </c>
-      <c r="AL19" s="10"/>
+      <c r="AL19" s="10">
+        <v>0.10675581228895981</v>
+      </c>
       <c r="AM19" s="10"/>
       <c r="AN19" s="10"/>
       <c r="AO19" s="10"/>
@@ -3114,7 +3127,9 @@
       <c r="AK20" s="10">
         <v>7.6674729723058777E-2</v>
       </c>
-      <c r="AL20" s="10"/>
+      <c r="AL20" s="10">
+        <v>7.5058142943694062E-2</v>
+      </c>
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
       <c r="AO20" s="10"/>
@@ -3325,7 +3340,9 @@
       <c r="AK21" s="10">
         <v>0.11398446462505785</v>
       </c>
-      <c r="AL21" s="10"/>
+      <c r="AL21" s="10">
+        <v>0.10363921295490153</v>
+      </c>
       <c r="AM21" s="10"/>
       <c r="AN21" s="10"/>
       <c r="AO21" s="10"/>
@@ -3536,7 +3553,9 @@
       <c r="AK22" s="10">
         <v>3.2626761312930297E-2</v>
       </c>
-      <c r="AL22" s="10"/>
+      <c r="AL22" s="10">
+        <v>4.6018847926645901E-2</v>
+      </c>
       <c r="AM22" s="10"/>
       <c r="AN22" s="10"/>
       <c r="AO22" s="10"/>
@@ -3747,7 +3766,9 @@
       <c r="AK23" s="10">
         <v>0.13736300622660824</v>
       </c>
-      <c r="AL23" s="10"/>
+      <c r="AL23" s="10">
+        <v>0.14524482109227876</v>
+      </c>
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
       <c r="AO23" s="10"/>
@@ -3958,7 +3979,9 @@
       <c r="AK24" s="10">
         <v>0.12477036129822427</v>
       </c>
-      <c r="AL24" s="10"/>
+      <c r="AL24" s="10">
+        <v>9.2080614947354977E-2</v>
+      </c>
       <c r="AM24" s="10"/>
       <c r="AN24" s="10"/>
       <c r="AO24" s="10"/>
@@ -4169,7 +4192,9 @@
       <c r="AK25" s="10">
         <v>0.4290045907894624</v>
       </c>
-      <c r="AL25" s="10"/>
+      <c r="AL25" s="10">
+        <v>0.41907331006029835</v>
+      </c>
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
       <c r="AO25" s="10"/>
@@ -4380,7 +4405,9 @@
       <c r="AK26" s="10">
         <v>0.20200421940928281</v>
       </c>
-      <c r="AL26" s="10"/>
+      <c r="AL26" s="10">
+        <v>0.20692347273727352</v>
+      </c>
       <c r="AM26" s="10"/>
       <c r="AN26" s="10"/>
       <c r="AO26" s="10"/>
@@ -4591,7 +4618,9 @@
       <c r="AK27" s="10">
         <v>0.12574563031219155</v>
       </c>
-      <c r="AL27" s="10"/>
+      <c r="AL27" s="10">
+        <v>0.17728053504860752</v>
+      </c>
       <c r="AM27" s="10"/>
       <c r="AN27" s="10"/>
       <c r="AO27" s="10"/>
@@ -4802,7 +4831,9 @@
       <c r="AK28" s="10">
         <v>9.4701458044455622E-2</v>
       </c>
-      <c r="AL28" s="10"/>
+      <c r="AL28" s="10">
+        <v>0.10204098724487642</v>
+      </c>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
       <c r="AO28" s="10"/>
@@ -5013,7 +5044,9 @@
       <c r="AK29" s="10">
         <v>7.4674880769509233E-2</v>
       </c>
-      <c r="AL29" s="10"/>
+      <c r="AL29" s="10">
+        <v>7.1779282684640622E-2</v>
+      </c>
       <c r="AM29" s="10"/>
       <c r="AN29" s="10"/>
       <c r="AO29" s="10"/>
@@ -5224,7 +5257,9 @@
       <c r="AK30" s="10">
         <v>6.0322996798700457E-2</v>
       </c>
-      <c r="AL30" s="10"/>
+      <c r="AL30" s="10">
+        <v>5.9238464841824046E-2</v>
+      </c>
       <c r="AM30" s="10"/>
       <c r="AN30" s="10"/>
       <c r="AO30" s="10"/>
@@ -5435,7 +5470,9 @@
       <c r="AK31" s="10">
         <v>0.10651449843260186</v>
       </c>
-      <c r="AL31" s="10"/>
+      <c r="AL31" s="10">
+        <v>0.10142635329970773</v>
+      </c>
       <c r="AM31" s="10"/>
       <c r="AN31" s="10"/>
       <c r="AO31" s="10"/>
@@ -5646,7 +5683,9 @@
       <c r="AK32" s="10">
         <v>0.14159228910506161</v>
       </c>
-      <c r="AL32" s="10"/>
+      <c r="AL32" s="10">
+        <v>0.1219787528221643</v>
+      </c>
       <c r="AM32" s="10"/>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
@@ -5857,7 +5896,9 @@
       <c r="AK33" s="10">
         <v>0.871922115311766</v>
       </c>
-      <c r="AL33" s="10"/>
+      <c r="AL33" s="10">
+        <v>0.64981921004147836</v>
+      </c>
       <c r="AM33" s="10"/>
       <c r="AN33" s="10"/>
       <c r="AO33" s="10"/>
@@ -6068,7 +6109,9 @@
       <c r="AK34" s="10">
         <v>-4.5955021714211952E-2</v>
       </c>
-      <c r="AL34" s="10"/>
+      <c r="AL34" s="10">
+        <v>-7.4582048368771248E-2</v>
+      </c>
       <c r="AM34" s="10"/>
       <c r="AN34" s="10"/>
       <c r="AO34" s="10"/>
@@ -6279,7 +6322,9 @@
       <c r="AK35" s="10">
         <v>4.791039383355411E-2</v>
       </c>
-      <c r="AL35" s="10"/>
+      <c r="AL35" s="10">
+        <v>-1.2526441512094588E-2</v>
+      </c>
       <c r="AM35" s="10"/>
       <c r="AN35" s="10"/>
       <c r="AO35" s="10"/>
@@ -6490,7 +6535,9 @@
       <c r="AK36" s="10">
         <v>1.1684192458945222</v>
       </c>
-      <c r="AL36" s="10"/>
+      <c r="AL36" s="10">
+        <v>0.60434287116012619</v>
+      </c>
       <c r="AM36" s="10"/>
       <c r="AN36" s="10"/>
       <c r="AO36" s="10"/>
@@ -6701,7 +6748,9 @@
       <c r="AK37" s="10">
         <v>0.1907591113978726</v>
       </c>
-      <c r="AL37" s="10"/>
+      <c r="AL37" s="10">
+        <v>0.11810412480488441</v>
+      </c>
       <c r="AM37" s="10"/>
       <c r="AN37" s="10"/>
       <c r="AO37" s="10"/>
@@ -6912,7 +6961,9 @@
       <c r="AK38" s="10">
         <v>0.14983214367197939</v>
       </c>
-      <c r="AL38" s="10"/>
+      <c r="AL38" s="10">
+        <v>-3.0358142883810224E-2</v>
+      </c>
       <c r="AM38" s="10"/>
       <c r="AN38" s="10"/>
       <c r="AO38" s="10"/>
@@ -7123,7 +7174,9 @@
       <c r="AK39" s="10">
         <v>0.17892828720488119</v>
       </c>
-      <c r="AL39" s="10"/>
+      <c r="AL39" s="10">
+        <v>0.12109375</v>
+      </c>
       <c r="AM39" s="10"/>
       <c r="AN39" s="10"/>
       <c r="AO39" s="10"/>
@@ -7334,7 +7387,9 @@
       <c r="AK40" s="10">
         <v>2.5692557992299747E-2</v>
       </c>
-      <c r="AL40" s="10"/>
+      <c r="AL40" s="10">
+        <v>2.3512336719881954E-3</v>
+      </c>
       <c r="AM40" s="10"/>
       <c r="AN40" s="10"/>
       <c r="AO40" s="10"/>
@@ -7545,7 +7600,9 @@
       <c r="AK41" s="10">
         <v>0.24381092255228398</v>
       </c>
-      <c r="AL41" s="10"/>
+      <c r="AL41" s="10">
+        <v>0.25809841862292493</v>
+      </c>
       <c r="AM41" s="10"/>
       <c r="AN41" s="10"/>
       <c r="AO41" s="10"/>
@@ -7756,7 +7813,9 @@
       <c r="AK42" s="10">
         <v>0.10363426223192507</v>
       </c>
-      <c r="AL42" s="10"/>
+      <c r="AL42" s="10">
+        <v>8.607622249993252E-2</v>
+      </c>
       <c r="AM42" s="10"/>
       <c r="AN42" s="10"/>
       <c r="AO42" s="10"/>
@@ -7967,7 +8026,9 @@
       <c r="AK43" s="10">
         <v>7.9439182077882808E-2</v>
       </c>
-      <c r="AL43" s="10"/>
+      <c r="AL43" s="10">
+        <v>6.9723575775267665E-2</v>
+      </c>
       <c r="AM43" s="10"/>
       <c r="AN43" s="10"/>
       <c r="AO43" s="10"/>
@@ -8178,7 +8239,9 @@
       <c r="AK44" s="10">
         <v>0.1795006892768729</v>
       </c>
-      <c r="AL44" s="10"/>
+      <c r="AL44" s="10">
+        <v>8.6117627168790456E-2</v>
+      </c>
       <c r="AM44" s="10"/>
       <c r="AN44" s="10"/>
       <c r="AO44" s="10"/>
@@ -8389,7 +8452,9 @@
       <c r="AK45" s="10">
         <v>0.28704119103401293</v>
       </c>
-      <c r="AL45" s="10"/>
+      <c r="AL45" s="10">
+        <v>0.36593872024184404</v>
+      </c>
       <c r="AM45" s="10"/>
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
@@ -8600,7 +8665,9 @@
       <c r="AK46" s="10">
         <v>0.29254702305190228</v>
       </c>
-      <c r="AL46" s="10"/>
+      <c r="AL46" s="10">
+        <v>9.7501112564562398E-2</v>
+      </c>
       <c r="AM46" s="10"/>
       <c r="AN46" s="10"/>
       <c r="AO46" s="10"/>
@@ -8811,7 +8878,9 @@
       <c r="AK47" s="10">
         <v>0.10246208475047602</v>
       </c>
-      <c r="AL47" s="10"/>
+      <c r="AL47" s="10">
+        <v>7.7788836184990773E-2</v>
+      </c>
       <c r="AM47" s="10"/>
       <c r="AN47" s="10"/>
       <c r="AO47" s="10"/>
@@ -9022,7 +9091,9 @@
       <c r="AK48" s="10">
         <v>0.11866829890508779</v>
       </c>
-      <c r="AL48" s="10"/>
+      <c r="AL48" s="10">
+        <v>0.10828123530065747</v>
+      </c>
       <c r="AM48" s="10"/>
       <c r="AN48" s="10"/>
       <c r="AO48" s="10"/>
@@ -9233,7 +9304,9 @@
       <c r="AK49" s="10">
         <v>-8.0304849212413654E-3</v>
       </c>
-      <c r="AL49" s="10"/>
+      <c r="AL49" s="10">
+        <v>-5.4749172396231227E-3</v>
+      </c>
       <c r="AM49" s="10"/>
       <c r="AN49" s="10"/>
       <c r="AO49" s="10"/>
@@ -9444,7 +9517,9 @@
       <c r="AK50" s="10">
         <v>5.5129094097972731E-2</v>
       </c>
-      <c r="AL50" s="10"/>
+      <c r="AL50" s="10">
+        <v>6.1349040782100239E-2</v>
+      </c>
       <c r="AM50" s="10"/>
       <c r="AN50" s="10"/>
       <c r="AO50" s="10"/>
@@ -9655,7 +9730,9 @@
       <c r="AK51" s="10">
         <v>9.1468055448660435E-2</v>
       </c>
-      <c r="AL51" s="10"/>
+      <c r="AL51" s="10">
+        <v>8.3879123116601173E-2</v>
+      </c>
       <c r="AM51" s="10"/>
       <c r="AN51" s="10"/>
       <c r="AO51" s="10"/>
@@ -9866,7 +9943,9 @@
       <c r="AK52" s="10">
         <v>1.0676763819258861E-2</v>
       </c>
-      <c r="AL52" s="10"/>
+      <c r="AL52" s="10">
+        <v>1.9063856168629822E-2</v>
+      </c>
       <c r="AM52" s="10"/>
       <c r="AN52" s="10"/>
       <c r="AO52" s="10"/>
@@ -10077,7 +10156,9 @@
       <c r="AK53" s="10">
         <v>0.11793624419739968</v>
       </c>
-      <c r="AL53" s="10"/>
+      <c r="AL53" s="10">
+        <v>0.11576783037052918</v>
+      </c>
       <c r="AM53" s="10"/>
       <c r="AN53" s="10"/>
       <c r="AO53" s="10"/>
@@ -10288,7 +10369,9 @@
       <c r="AK54" s="10">
         <v>8.7042152872791823E-2</v>
       </c>
-      <c r="AL54" s="10"/>
+      <c r="AL54" s="10">
+        <v>0.10016851921380976</v>
+      </c>
       <c r="AM54" s="10"/>
       <c r="AN54" s="10"/>
       <c r="AO54" s="10"/>
@@ -10499,7 +10582,9 @@
       <c r="AK55" s="10">
         <v>0.16199460418360556</v>
       </c>
-      <c r="AL55" s="10"/>
+      <c r="AL55" s="10">
+        <v>0.23483831263287458</v>
+      </c>
       <c r="AM55" s="10"/>
       <c r="AN55" s="10"/>
       <c r="AO55" s="10"/>
@@ -10710,7 +10795,9 @@
       <c r="AK56" s="10">
         <v>1.5200542638244876</v>
       </c>
-      <c r="AL56" s="10"/>
+      <c r="AL56" s="10">
+        <v>1.2470240700218818</v>
+      </c>
       <c r="AM56" s="10"/>
       <c r="AN56" s="10"/>
       <c r="AO56" s="10"/>
@@ -10921,7 +11008,9 @@
       <c r="AK57" s="10">
         <v>0.40140473426150702</v>
       </c>
-      <c r="AL57" s="10"/>
+      <c r="AL57" s="10">
+        <v>0.26836071573408238</v>
+      </c>
       <c r="AM57" s="10"/>
       <c r="AN57" s="10"/>
       <c r="AO57" s="10"/>
@@ -11132,7 +11221,9 @@
       <c r="AK58" s="10">
         <v>0.55203387655588365</v>
       </c>
-      <c r="AL58" s="10"/>
+      <c r="AL58" s="10">
+        <v>0.691160169093471</v>
+      </c>
       <c r="AM58" s="10"/>
       <c r="AN58" s="10"/>
       <c r="AO58" s="10"/>
@@ -11343,7 +11434,9 @@
       <c r="AK59" s="10">
         <v>0.42621412291286376</v>
       </c>
-      <c r="AL59" s="10"/>
+      <c r="AL59" s="10">
+        <v>0.40878603647774092</v>
+      </c>
       <c r="AM59" s="10"/>
       <c r="AN59" s="10"/>
       <c r="AO59" s="10"/>
@@ -11554,7 +11647,9 @@
       <c r="AK60" s="10">
         <v>3.9469008749287715E-2</v>
       </c>
-      <c r="AL60" s="10"/>
+      <c r="AL60" s="10">
+        <v>0.12898215288083725</v>
+      </c>
       <c r="AM60" s="10"/>
       <c r="AN60" s="10"/>
       <c r="AO60" s="10"/>
@@ -11765,7 +11860,9 @@
       <c r="AK61" s="10">
         <v>0.26578236911204534</v>
       </c>
-      <c r="AL61" s="10"/>
+      <c r="AL61" s="10">
+        <v>0.39502583979328154</v>
+      </c>
       <c r="AM61" s="10"/>
       <c r="AN61" s="10"/>
       <c r="AO61" s="10"/>
@@ -11976,7 +12073,9 @@
       <c r="AK62" s="10">
         <v>0.19297744790179849</v>
       </c>
-      <c r="AL62" s="10"/>
+      <c r="AL62" s="10">
+        <v>0.20409888435641621</v>
+      </c>
       <c r="AM62" s="10"/>
       <c r="AN62" s="10"/>
       <c r="AO62" s="10"/>
@@ -12187,7 +12286,9 @@
       <c r="AK63" s="10">
         <v>0.20734553494656671</v>
       </c>
-      <c r="AL63" s="10"/>
+      <c r="AL63" s="10">
+        <v>0.17816838995568696</v>
+      </c>
       <c r="AM63" s="10"/>
       <c r="AN63" s="10"/>
       <c r="AO63" s="10"/>
@@ -12398,7 +12499,9 @@
       <c r="AK64" s="10">
         <v>0.13234077133548539</v>
       </c>
-      <c r="AL64" s="10"/>
+      <c r="AL64" s="10">
+        <v>0.14038667936450344</v>
+      </c>
       <c r="AM64" s="10"/>
       <c r="AN64" s="10"/>
       <c r="AO64" s="10"/>
@@ -12609,7 +12712,9 @@
       <c r="AK65" s="10">
         <v>0.27160588239792594</v>
       </c>
-      <c r="AL65" s="10"/>
+      <c r="AL65" s="10">
+        <v>0.21884959570233686</v>
+      </c>
       <c r="AM65" s="10"/>
       <c r="AN65" s="10"/>
       <c r="AO65" s="10"/>
@@ -12820,7 +12925,9 @@
       <c r="AK66" s="10">
         <v>-0.17154369268354941</v>
       </c>
-      <c r="AL66" s="10"/>
+      <c r="AL66" s="10">
+        <v>6.5173625723677908E-3</v>
+      </c>
       <c r="AM66" s="10"/>
       <c r="AN66" s="10"/>
       <c r="AO66" s="10"/>
@@ -13031,7 +13138,9 @@
       <c r="AK67" s="10">
         <v>0.2696630168661589</v>
       </c>
-      <c r="AL67" s="10"/>
+      <c r="AL67" s="10">
+        <v>0.28075333027101523</v>
+      </c>
       <c r="AM67" s="10"/>
       <c r="AN67" s="10"/>
       <c r="AO67" s="10"/>
@@ -13242,7 +13351,9 @@
       <c r="AK68" s="10">
         <v>0.17285477388347048</v>
       </c>
-      <c r="AL68" s="10"/>
+      <c r="AL68" s="10">
+        <v>1.5600587915330921E-2</v>
+      </c>
       <c r="AM68" s="10"/>
       <c r="AN68" s="10"/>
       <c r="AO68" s="10"/>
@@ -13453,7 +13564,9 @@
       <c r="AK69" s="10">
         <v>4.9017892497674742E-2</v>
       </c>
-      <c r="AL69" s="10"/>
+      <c r="AL69" s="10">
+        <v>-1.7550611273202454E-2</v>
+      </c>
       <c r="AM69" s="10"/>
       <c r="AN69" s="10"/>
       <c r="AO69" s="10"/>
@@ -13664,7 +13777,9 @@
       <c r="AK70" s="10">
         <v>5.879478289582285E-2</v>
       </c>
-      <c r="AL70" s="10"/>
+      <c r="AL70" s="10">
+        <v>5.8960541639525355E-2</v>
+      </c>
       <c r="AM70" s="10"/>
       <c r="AN70" s="10"/>
       <c r="AO70" s="10"/>
@@ -13875,7 +13990,9 @@
       <c r="AK71" s="10">
         <v>-0.16111183018379505</v>
       </c>
-      <c r="AL71" s="10"/>
+      <c r="AL71" s="10">
+        <v>-0.13656195759452738</v>
+      </c>
       <c r="AM71" s="10"/>
       <c r="AN71" s="10"/>
       <c r="AO71" s="10"/>
@@ -14086,7 +14203,9 @@
       <c r="AK72" s="10">
         <v>0.14892740854242481</v>
       </c>
-      <c r="AL72" s="10"/>
+      <c r="AL72" s="10">
+        <v>0.1243681341955889</v>
+      </c>
       <c r="AM72" s="10"/>
       <c r="AN72" s="10"/>
       <c r="AO72" s="10"/>
@@ -14297,7 +14416,9 @@
       <c r="AK73" s="10">
         <v>0.11409411876214381</v>
       </c>
-      <c r="AL73" s="10"/>
+      <c r="AL73" s="10">
+        <v>0.12042973488130304</v>
+      </c>
       <c r="AM73" s="10"/>
       <c r="AN73" s="10"/>
       <c r="AO73" s="10"/>
@@ -14508,7 +14629,9 @@
       <c r="AK74" s="10">
         <v>0.12722126653503607</v>
       </c>
-      <c r="AL74" s="10"/>
+      <c r="AL74" s="10">
+        <v>9.7352921821531879E-2</v>
+      </c>
       <c r="AM74" s="10"/>
       <c r="AN74" s="10"/>
       <c r="AO74" s="10"/>
@@ -14719,7 +14842,9 @@
       <c r="AK75" s="10">
         <v>6.69170337255931E-2</v>
       </c>
-      <c r="AL75" s="10"/>
+      <c r="AL75" s="10">
+        <v>7.5505555373471811E-2</v>
+      </c>
       <c r="AM75" s="10"/>
       <c r="AN75" s="10"/>
       <c r="AO75" s="10"/>
@@ -14930,7 +15055,9 @@
       <c r="AK76" s="10">
         <v>6.0165431702391858E-2</v>
       </c>
-      <c r="AL76" s="10"/>
+      <c r="AL76" s="10">
+        <v>8.6080089477876154E-2</v>
+      </c>
       <c r="AM76" s="10"/>
       <c r="AN76" s="10"/>
       <c r="AO76" s="10"/>
@@ -15141,7 +15268,9 @@
       <c r="AK77" s="10">
         <v>0.12331550532741131</v>
       </c>
-      <c r="AL77" s="10"/>
+      <c r="AL77" s="10">
+        <v>0.13674647804698159</v>
+      </c>
       <c r="AM77" s="10"/>
       <c r="AN77" s="10"/>
       <c r="AO77" s="10"/>
@@ -15352,7 +15481,9 @@
       <c r="AK78" s="10">
         <v>9.5468144394186938E-2</v>
       </c>
-      <c r="AL78" s="10"/>
+      <c r="AL78" s="10">
+        <v>0.10565711246755516</v>
+      </c>
       <c r="AM78" s="10"/>
       <c r="AN78" s="10"/>
       <c r="AO78" s="10"/>
@@ -15563,7 +15694,9 @@
       <c r="AK79" s="10">
         <v>0.10598789725360747</v>
       </c>
-      <c r="AL79" s="10"/>
+      <c r="AL79" s="10">
+        <v>0.13115211582045117</v>
+      </c>
       <c r="AM79" s="10"/>
       <c r="AN79" s="10"/>
       <c r="AO79" s="10"/>
@@ -15774,7 +15907,9 @@
       <c r="AK80" s="10">
         <v>6.3096136400247582E-2</v>
       </c>
-      <c r="AL80" s="10"/>
+      <c r="AL80" s="10">
+        <v>8.5144711004866425E-2</v>
+      </c>
       <c r="AM80" s="10"/>
       <c r="AN80" s="10"/>
       <c r="AO80" s="10"/>
@@ -15985,7 +16120,9 @@
       <c r="AK81" s="10">
         <v>6.6842688153058605E-2</v>
       </c>
-      <c r="AL81" s="10"/>
+      <c r="AL81" s="10">
+        <v>8.5116085897863902E-2</v>
+      </c>
       <c r="AM81" s="10"/>
       <c r="AN81" s="10"/>
       <c r="AO81" s="10"/>
@@ -16196,7 +16333,9 @@
       <c r="AK82" s="10">
         <v>9.2163018623767634E-2</v>
       </c>
-      <c r="AL82" s="10"/>
+      <c r="AL82" s="10">
+        <v>9.1513388163106502E-2</v>
+      </c>
       <c r="AM82" s="10"/>
       <c r="AN82" s="10"/>
       <c r="AO82" s="10"/>
@@ -16407,7 +16546,9 @@
       <c r="AK83" s="10">
         <v>4.3087692008555445E-2</v>
       </c>
-      <c r="AL83" s="10"/>
+      <c r="AL83" s="10">
+        <v>5.2636185918944811E-2</v>
+      </c>
       <c r="AM83" s="10"/>
       <c r="AN83" s="10"/>
       <c r="AO83" s="10"/>
@@ -16618,7 +16759,9 @@
       <c r="AK84" s="10">
         <v>0.13722686808740225</v>
       </c>
-      <c r="AL84" s="10"/>
+      <c r="AL84" s="10">
+        <v>0.13754290374326761</v>
+      </c>
       <c r="AM84" s="10"/>
       <c r="AN84" s="10"/>
       <c r="AO84" s="10"/>
@@ -16829,7 +16972,9 @@
       <c r="AK85" s="10">
         <v>3.4946638118474871E-2</v>
       </c>
-      <c r="AL85" s="10"/>
+      <c r="AL85" s="10">
+        <v>4.0947871932984103E-2</v>
+      </c>
       <c r="AM85" s="10"/>
       <c r="AN85" s="10"/>
       <c r="AO85" s="10"/>
@@ -17040,7 +17185,9 @@
       <c r="AK86" s="10">
         <v>3.788600759057692E-2</v>
       </c>
-      <c r="AL86" s="10"/>
+      <c r="AL86" s="10">
+        <v>4.2380485186955585E-2</v>
+      </c>
       <c r="AM86" s="10"/>
       <c r="AN86" s="10"/>
       <c r="AO86" s="10"/>
@@ -17251,7 +17398,9 @@
       <c r="AK87" s="10">
         <v>9.027506463062851E-2</v>
       </c>
-      <c r="AL87" s="10"/>
+      <c r="AL87" s="10">
+        <v>9.4333981163103431E-2</v>
+      </c>
       <c r="AM87" s="10"/>
       <c r="AN87" s="10"/>
       <c r="AO87" s="10"/>
@@ -17462,7 +17611,9 @@
       <c r="AK88" s="10">
         <v>0.12993116172208818</v>
       </c>
-      <c r="AL88" s="10"/>
+      <c r="AL88" s="10">
+        <v>0.14156940391829931</v>
+      </c>
       <c r="AM88" s="10"/>
       <c r="AN88" s="10"/>
       <c r="AO88" s="10"/>
@@ -17673,7 +17824,9 @@
       <c r="AK89" s="10">
         <v>0.11852560781800148</v>
       </c>
-      <c r="AL89" s="10"/>
+      <c r="AL89" s="10">
+        <v>0.13306200496460741</v>
+      </c>
       <c r="AM89" s="10"/>
       <c r="AN89" s="10"/>
       <c r="AO89" s="10"/>
@@ -17884,7 +18037,9 @@
       <c r="AK90" s="10">
         <v>9.4207984492237662E-2</v>
       </c>
-      <c r="AL90" s="10"/>
+      <c r="AL90" s="10">
+        <v>8.4297736957037239E-2</v>
+      </c>
       <c r="AM90" s="10"/>
       <c r="AN90" s="10"/>
       <c r="AO90" s="10"/>
@@ -18095,7 +18250,9 @@
       <c r="AK91" s="10">
         <v>0.11475881337825622</v>
       </c>
-      <c r="AL91" s="10"/>
+      <c r="AL91" s="10">
+        <v>0.12605793202991711</v>
+      </c>
       <c r="AM91" s="10"/>
       <c r="AN91" s="10"/>
       <c r="AO91" s="10"/>
@@ -18306,7 +18463,9 @@
       <c r="AK92" s="10">
         <v>1.8097701548503542E-2</v>
       </c>
-      <c r="AL92" s="10"/>
+      <c r="AL92" s="10">
+        <v>1.869980247300318E-2</v>
+      </c>
       <c r="AM92" s="10"/>
       <c r="AN92" s="10"/>
       <c r="AO92" s="10"/>
@@ -18517,7 +18676,9 @@
       <c r="AK93" s="10">
         <v>9.0086377140109697E-2</v>
       </c>
-      <c r="AL93" s="10"/>
+      <c r="AL93" s="10">
+        <v>8.6533242876526417E-2</v>
+      </c>
       <c r="AM93" s="10"/>
       <c r="AN93" s="10"/>
       <c r="AO93" s="10"/>
@@ -18728,7 +18889,9 @@
       <c r="AK94" s="10">
         <v>3.7832223061602832E-2</v>
       </c>
-      <c r="AL94" s="10"/>
+      <c r="AL94" s="10">
+        <v>4.1219249876231379E-2</v>
+      </c>
       <c r="AM94" s="10"/>
       <c r="AN94" s="10"/>
       <c r="AO94" s="10"/>
@@ -18939,7 +19102,9 @@
       <c r="AK95" s="10">
         <v>6.3817038771409207E-2</v>
       </c>
-      <c r="AL95" s="10"/>
+      <c r="AL95" s="10">
+        <v>4.8467277998418545E-2</v>
+      </c>
       <c r="AM95" s="10"/>
       <c r="AN95" s="10"/>
       <c r="AO95" s="10"/>
@@ -19150,7 +19315,9 @@
       <c r="AK96" s="10">
         <v>4.298891775461211E-2</v>
       </c>
-      <c r="AL96" s="10"/>
+      <c r="AL96" s="10">
+        <v>3.9742830967302467E-2</v>
+      </c>
       <c r="AM96" s="10"/>
       <c r="AN96" s="10"/>
       <c r="AO96" s="10"/>
@@ -19361,7 +19528,9 @@
       <c r="AK97" s="10">
         <v>9.3402847069780082E-2</v>
       </c>
-      <c r="AL97" s="10"/>
+      <c r="AL97" s="10">
+        <v>0.12011650095410276</v>
+      </c>
       <c r="AM97" s="10"/>
       <c r="AN97" s="10"/>
       <c r="AO97" s="10"/>
@@ -19572,7 +19741,9 @@
       <c r="AK98" s="10">
         <v>9.2989132926773355E-2</v>
       </c>
-      <c r="AL98" s="10"/>
+      <c r="AL98" s="10">
+        <v>0.10292077334726746</v>
+      </c>
       <c r="AM98" s="10"/>
       <c r="AN98" s="10"/>
       <c r="AO98" s="10"/>
@@ -19783,7 +19954,9 @@
       <c r="AK99" s="10">
         <v>6.3591063591063479E-2</v>
       </c>
-      <c r="AL99" s="10"/>
+      <c r="AL99" s="10">
+        <v>5.574042590906525E-2</v>
+      </c>
       <c r="AM99" s="10"/>
       <c r="AN99" s="10"/>
       <c r="AO99" s="10"/>
@@ -19994,7 +20167,9 @@
       <c r="AK100" s="10">
         <v>0.10100673655811021</v>
       </c>
-      <c r="AL100" s="10"/>
+      <c r="AL100" s="10">
+        <v>9.9261846046904134E-2</v>
+      </c>
       <c r="AM100" s="10"/>
       <c r="AN100" s="10"/>
       <c r="AO100" s="10"/>
@@ -20205,7 +20380,9 @@
       <c r="AK101" s="10">
         <v>1.4411879535265903E-2</v>
       </c>
-      <c r="AL101" s="10"/>
+      <c r="AL101" s="10">
+        <v>3.1609981667442E-2</v>
+      </c>
       <c r="AM101" s="10"/>
       <c r="AN101" s="10"/>
       <c r="AO101" s="10"/>
@@ -20416,7 +20593,9 @@
       <c r="AK102" s="10">
         <v>9.918610404900452E-2</v>
       </c>
-      <c r="AL102" s="10"/>
+      <c r="AL102" s="10">
+        <v>8.5555016965584096E-2</v>
+      </c>
       <c r="AM102" s="10"/>
       <c r="AN102" s="10"/>
       <c r="AO102" s="10"/>
@@ -20627,7 +20806,9 @@
       <c r="AK103" s="10">
         <v>9.8489782268142756E-2</v>
       </c>
-      <c r="AL103" s="10"/>
+      <c r="AL103" s="10">
+        <v>9.9803153066066796E-2</v>
+      </c>
       <c r="AM103" s="10"/>
       <c r="AN103" s="10"/>
       <c r="AO103" s="10"/>
@@ -20838,7 +21019,9 @@
       <c r="AK104" s="10">
         <v>0.1544111114401634</v>
       </c>
-      <c r="AL104" s="10"/>
+      <c r="AL104" s="10">
+        <v>0.14583733527988008</v>
+      </c>
       <c r="AM104" s="10"/>
       <c r="AN104" s="10"/>
       <c r="AO104" s="10"/>
@@ -21049,7 +21232,9 @@
       <c r="AK105" s="10">
         <v>6.1899251352053541E-2</v>
       </c>
-      <c r="AL105" s="10"/>
+      <c r="AL105" s="10">
+        <v>9.0699049796948428E-2</v>
+      </c>
       <c r="AM105" s="10"/>
       <c r="AN105" s="10"/>
       <c r="AO105" s="10"/>
@@ -21260,7 +21445,9 @@
       <c r="AK106" s="10">
         <v>0.13310058719540918</v>
       </c>
-      <c r="AL106" s="10"/>
+      <c r="AL106" s="10">
+        <v>0.13299901115976831</v>
+      </c>
       <c r="AM106" s="10"/>
       <c r="AN106" s="10"/>
       <c r="AO106" s="10"/>
@@ -21471,7 +21658,9 @@
       <c r="AK107" s="10">
         <v>0.16480798327184942</v>
       </c>
-      <c r="AL107" s="10"/>
+      <c r="AL107" s="10">
+        <v>0.24490420413783731</v>
+      </c>
       <c r="AM107" s="10"/>
       <c r="AN107" s="10"/>
       <c r="AO107" s="10"/>
@@ -21682,7 +21871,9 @@
       <c r="AK108" s="10">
         <v>0.11534295282589802</v>
       </c>
-      <c r="AL108" s="10"/>
+      <c r="AL108" s="10">
+        <v>0.11343741539572227</v>
+      </c>
       <c r="AM108" s="10"/>
       <c r="AN108" s="10"/>
       <c r="AO108" s="10"/>
@@ -21893,7 +22084,9 @@
       <c r="AK109" s="10">
         <v>0.12718862975827605</v>
       </c>
-      <c r="AL109" s="10"/>
+      <c r="AL109" s="10">
+        <v>0.14955479633923985</v>
+      </c>
       <c r="AM109" s="10"/>
       <c r="AN109" s="10"/>
       <c r="AO109" s="10"/>
@@ -22104,7 +22297,9 @@
       <c r="AK110" s="10">
         <v>0.11136706505144667</v>
       </c>
-      <c r="AL110" s="10"/>
+      <c r="AL110" s="10">
+        <v>8.3257982108839279E-2</v>
+      </c>
       <c r="AM110" s="10"/>
       <c r="AN110" s="10"/>
       <c r="AO110" s="10"/>
@@ -22315,7 +22510,9 @@
       <c r="AK111" s="10">
         <v>8.3222087378640675E-2</v>
       </c>
-      <c r="AL111" s="10"/>
+      <c r="AL111" s="10">
+        <v>0.10933854088428219</v>
+      </c>
       <c r="AM111" s="10"/>
       <c r="AN111" s="10"/>
       <c r="AO111" s="10"/>
@@ -22526,7 +22723,9 @@
       <c r="AK112" s="10">
         <v>0.1033604260320018</v>
       </c>
-      <c r="AL112" s="10"/>
+      <c r="AL112" s="10">
+        <v>9.5880339506424939E-2</v>
+      </c>
       <c r="AM112" s="10"/>
       <c r="AN112" s="10"/>
       <c r="AO112" s="10"/>
@@ -22737,7 +22936,9 @@
       <c r="AK113" s="10">
         <v>0.11578998573096388</v>
       </c>
-      <c r="AL113" s="10"/>
+      <c r="AL113" s="10">
+        <v>0.13709481656498301</v>
+      </c>
       <c r="AM113" s="10"/>
       <c r="AN113" s="10"/>
       <c r="AO113" s="10"/>
@@ -22948,7 +23149,9 @@
       <c r="AK114" s="10">
         <v>-1.3328268760023576E-2</v>
       </c>
-      <c r="AL114" s="10"/>
+      <c r="AL114" s="10">
+        <v>-1.9528596658062725E-2</v>
+      </c>
       <c r="AM114" s="10"/>
       <c r="AN114" s="10"/>
       <c r="AO114" s="10"/>
@@ -23159,7 +23362,9 @@
       <c r="AK115" s="10">
         <v>0.16299727614982906</v>
       </c>
-      <c r="AL115" s="10"/>
+      <c r="AL115" s="10">
+        <v>0.19006477613747408</v>
+      </c>
       <c r="AM115" s="10"/>
       <c r="AN115" s="10"/>
       <c r="AO115" s="10"/>
@@ -23370,7 +23575,9 @@
       <c r="AK116" s="10">
         <v>9.4486146028110563E-2</v>
       </c>
-      <c r="AL116" s="10"/>
+      <c r="AL116" s="10">
+        <v>8.5235059549598091E-2</v>
+      </c>
       <c r="AM116" s="10"/>
       <c r="AN116" s="10"/>
       <c r="AO116" s="10"/>
@@ -23581,7 +23788,9 @@
       <c r="AK117" s="10">
         <v>0.17475625772929027</v>
       </c>
-      <c r="AL117" s="10"/>
+      <c r="AL117" s="10">
+        <v>0.16521055224955461</v>
+      </c>
       <c r="AM117" s="10"/>
       <c r="AN117" s="10"/>
       <c r="AO117" s="10"/>
@@ -23792,7 +24001,9 @@
       <c r="AK118" s="10">
         <v>0.16501196574624921</v>
       </c>
-      <c r="AL118" s="10"/>
+      <c r="AL118" s="10">
+        <v>0.16793392148957897</v>
+      </c>
       <c r="AM118" s="10"/>
       <c r="AN118" s="10"/>
       <c r="AO118" s="10"/>
@@ -24003,7 +24214,9 @@
       <c r="AK119" s="10">
         <v>0.1753432938941184</v>
       </c>
-      <c r="AL119" s="10"/>
+      <c r="AL119" s="10">
+        <v>0.21166145811036419</v>
+      </c>
       <c r="AM119" s="10"/>
       <c r="AN119" s="10"/>
       <c r="AO119" s="10"/>
@@ -24214,7 +24427,9 @@
       <c r="AK120" s="10">
         <v>4.0586806605475978E-2</v>
       </c>
-      <c r="AL120" s="10"/>
+      <c r="AL120" s="10">
+        <v>3.17981096624671E-2</v>
+      </c>
       <c r="AM120" s="10"/>
       <c r="AN120" s="10"/>
       <c r="AO120" s="10"/>
@@ -24425,7 +24640,9 @@
       <c r="AK121" s="10">
         <v>7.1083062846396761E-2</v>
       </c>
-      <c r="AL121" s="10"/>
+      <c r="AL121" s="10">
+        <v>0.1164833575837545</v>
+      </c>
       <c r="AM121" s="10"/>
       <c r="AN121" s="10"/>
       <c r="AO121" s="10"/>
@@ -24636,7 +24853,9 @@
       <c r="AK122" s="10">
         <v>4.5963142681053171E-2</v>
       </c>
-      <c r="AL122" s="10"/>
+      <c r="AL122" s="10">
+        <v>5.6485191295466919E-2</v>
+      </c>
       <c r="AM122" s="10"/>
       <c r="AN122" s="10"/>
       <c r="AO122" s="10"/>
@@ -24847,7 +25066,9 @@
       <c r="AK123" s="10">
         <v>8.782343162763806E-2</v>
       </c>
-      <c r="AL123" s="10"/>
+      <c r="AL123" s="10">
+        <v>8.5311526340692501E-2</v>
+      </c>
       <c r="AM123" s="10"/>
       <c r="AN123" s="10"/>
       <c r="AO123" s="10"/>
@@ -25058,7 +25279,9 @@
       <c r="AK124" s="10">
         <v>4.2791811846689898E-2</v>
       </c>
-      <c r="AL124" s="10"/>
+      <c r="AL124" s="10">
+        <v>5.2959360353908469E-2</v>
+      </c>
       <c r="AM124" s="10"/>
       <c r="AN124" s="10"/>
       <c r="AO124" s="10"/>
@@ -25269,7 +25492,9 @@
       <c r="AK125" s="10">
         <v>9.0082865543972268E-2</v>
       </c>
-      <c r="AL125" s="10"/>
+      <c r="AL125" s="10">
+        <v>8.8766816535749804E-2</v>
+      </c>
       <c r="AM125" s="10"/>
       <c r="AN125" s="10"/>
       <c r="AO125" s="10"/>
@@ -25480,7 +25705,9 @@
       <c r="AK126" s="10">
         <v>8.935981628459766E-2</v>
       </c>
-      <c r="AL126" s="10"/>
+      <c r="AL126" s="10">
+        <v>0.12760722383931289</v>
+      </c>
       <c r="AM126" s="10"/>
       <c r="AN126" s="10"/>
       <c r="AO126" s="10"/>
@@ -25691,7 +25918,9 @@
       <c r="AK127" s="10">
         <v>0.10202814916710001</v>
       </c>
-      <c r="AL127" s="10"/>
+      <c r="AL127" s="10">
+        <v>9.8486243908973536E-2</v>
+      </c>
       <c r="AM127" s="10"/>
       <c r="AN127" s="10"/>
       <c r="AO127" s="10"/>
@@ -25902,7 +26131,9 @@
       <c r="AK128" s="10">
         <v>5.4178665281908511E-2</v>
       </c>
-      <c r="AL128" s="10"/>
+      <c r="AL128" s="10">
+        <v>5.4210137059591768E-2</v>
+      </c>
       <c r="AM128" s="10"/>
       <c r="AN128" s="10"/>
       <c r="AO128" s="10"/>
@@ -26113,7 +26344,9 @@
       <c r="AK129" s="10">
         <v>2.1996442573639641E-2</v>
       </c>
-      <c r="AL129" s="10"/>
+      <c r="AL129" s="10">
+        <v>2.3359887100068644E-2</v>
+      </c>
       <c r="AM129" s="10"/>
       <c r="AN129" s="10"/>
       <c r="AO129" s="10"/>
@@ -26324,7 +26557,9 @@
       <c r="AK130" s="10">
         <v>1.6537176092712436E-2</v>
       </c>
-      <c r="AL130" s="10"/>
+      <c r="AL130" s="10">
+        <v>2.4462960888559593E-2</v>
+      </c>
       <c r="AM130" s="10"/>
       <c r="AN130" s="10"/>
       <c r="AO130" s="10"/>
@@ -26535,7 +26770,9 @@
       <c r="AK131" s="10">
         <v>8.2447862262723604E-2</v>
       </c>
-      <c r="AL131" s="10"/>
+      <c r="AL131" s="10">
+        <v>6.6634923154246906E-2</v>
+      </c>
       <c r="AM131" s="10"/>
       <c r="AN131" s="10"/>
       <c r="AO131" s="10"/>
@@ -26746,7 +26983,9 @@
       <c r="AK132" s="10">
         <v>1.7282246419587199E-2</v>
       </c>
-      <c r="AL132" s="10"/>
+      <c r="AL132" s="10">
+        <v>1.7282246419587199E-2</v>
+      </c>
       <c r="AM132" s="10"/>
       <c r="AN132" s="10"/>
       <c r="AO132" s="10"/>
@@ -26957,7 +27196,9 @@
       <c r="AK133" s="10">
         <v>4.9580190165514404E-2</v>
       </c>
-      <c r="AL133" s="10"/>
+      <c r="AL133" s="10">
+        <v>4.9580190165514404E-2</v>
+      </c>
       <c r="AM133" s="10"/>
       <c r="AN133" s="10"/>
       <c r="AO133" s="10"/>
@@ -27168,7 +27409,9 @@
       <c r="AK134" s="10">
         <v>2.0827619157162802E-2</v>
       </c>
-      <c r="AL134" s="10"/>
+      <c r="AL134" s="10">
+        <v>2.0827619157162802E-2</v>
+      </c>
       <c r="AM134" s="10"/>
       <c r="AN134" s="10"/>
       <c r="AO134" s="10"/>
@@ -27379,7 +27622,9 @@
       <c r="AK135" s="10">
         <v>4.4741280902322433E-2</v>
       </c>
-      <c r="AL135" s="10"/>
+      <c r="AL135" s="10">
+        <v>4.4741280902322433E-2</v>
+      </c>
       <c r="AM135" s="10"/>
       <c r="AN135" s="10"/>
       <c r="AO135" s="10"/>
@@ -27590,7 +27835,9 @@
       <c r="AK136" s="10">
         <v>3.4548695230843807E-2</v>
       </c>
-      <c r="AL136" s="10"/>
+      <c r="AL136" s="10">
+        <v>3.4548695230843807E-2</v>
+      </c>
       <c r="AM136" s="10"/>
       <c r="AN136" s="10"/>
       <c r="AO136" s="10"/>
@@ -27801,7 +28048,9 @@
       <c r="AK137" s="10">
         <v>2.382803453865745E-2</v>
       </c>
-      <c r="AL137" s="10"/>
+      <c r="AL137" s="10">
+        <v>2.382803453865745E-2</v>
+      </c>
       <c r="AM137" s="10"/>
       <c r="AN137" s="10"/>
       <c r="AO137" s="10"/>
@@ -28012,7 +28261,9 @@
       <c r="AK138" s="10">
         <v>1.3508958665957138E-2</v>
       </c>
-      <c r="AL138" s="10"/>
+      <c r="AL138" s="10">
+        <v>1.3508958665957138E-2</v>
+      </c>
       <c r="AM138" s="10"/>
       <c r="AN138" s="10"/>
       <c r="AO138" s="10"/>
@@ -28223,7 +28474,9 @@
       <c r="AK139" s="10">
         <v>3.572511189172789E-2</v>
       </c>
-      <c r="AL139" s="10"/>
+      <c r="AL139" s="10">
+        <v>3.572511189172789E-2</v>
+      </c>
       <c r="AM139" s="10"/>
       <c r="AN139" s="10"/>
       <c r="AO139" s="10"/>
@@ -28434,7 +28687,9 @@
       <c r="AK140" s="10">
         <v>4.6105322540664906E-2</v>
       </c>
-      <c r="AL140" s="10"/>
+      <c r="AL140" s="10">
+        <v>4.6254702320802421E-2</v>
+      </c>
       <c r="AM140" s="10"/>
       <c r="AN140" s="10"/>
       <c r="AO140" s="10"/>
@@ -28645,7 +28900,9 @@
       <c r="AK141" s="10">
         <v>-7.7369608168831761E-2</v>
       </c>
-      <c r="AL141" s="10"/>
+      <c r="AL141" s="10">
+        <v>-7.7135662961370755E-2</v>
+      </c>
       <c r="AM141" s="10"/>
       <c r="AN141" s="10"/>
       <c r="AO141" s="10"/>
@@ -28856,7 +29113,9 @@
       <c r="AK142" s="10">
         <v>3.8001140034049641E-5</v>
       </c>
-      <c r="AL142" s="10"/>
+      <c r="AL142" s="10">
+        <v>-2.7746258958618264E-2</v>
+      </c>
       <c r="AM142" s="10"/>
       <c r="AN142" s="10"/>
       <c r="AO142" s="10"/>
@@ -29067,7 +29326,9 @@
       <c r="AK143" s="10">
         <v>7.5228220444043759E-2</v>
       </c>
-      <c r="AL143" s="10"/>
+      <c r="AL143" s="10">
+        <v>4.7277921341576601E-2</v>
+      </c>
       <c r="AM143" s="10"/>
       <c r="AN143" s="10"/>
       <c r="AO143" s="10"/>
@@ -29278,7 +29539,9 @@
       <c r="AK144" s="10">
         <v>0.18706815560074674</v>
       </c>
-      <c r="AL144" s="10"/>
+      <c r="AL144" s="10">
+        <v>0.20681936373708387</v>
+      </c>
       <c r="AM144" s="10"/>
       <c r="AN144" s="10"/>
       <c r="AO144" s="10"/>
@@ -29489,7 +29752,9 @@
       <c r="AK145" s="10">
         <v>5.0432291400214879E-2</v>
       </c>
-      <c r="AL145" s="10"/>
+      <c r="AL145" s="10">
+        <v>4.2874991112149541E-2</v>
+      </c>
       <c r="AM145" s="10"/>
       <c r="AN145" s="10"/>
       <c r="AO145" s="10"/>
@@ -29700,7 +29965,9 @@
       <c r="AK146" s="10">
         <v>1.700743800744875E-2</v>
       </c>
-      <c r="AL146" s="10"/>
+      <c r="AL146" s="10">
+        <v>7.5523587899301914E-2</v>
+      </c>
       <c r="AM146" s="10"/>
       <c r="AN146" s="10"/>
       <c r="AO146" s="10"/>
@@ -29911,7 +30178,9 @@
       <c r="AK147" s="10">
         <v>0.11333655208933613</v>
       </c>
-      <c r="AL147" s="10"/>
+      <c r="AL147" s="10">
+        <v>0.11272621955037887</v>
+      </c>
       <c r="AM147" s="10"/>
       <c r="AN147" s="10"/>
       <c r="AO147" s="10"/>
@@ -30122,7 +30391,9 @@
       <c r="AK148" s="10">
         <v>5.1672134867581265E-2</v>
       </c>
-      <c r="AL148" s="10"/>
+      <c r="AL148" s="10">
+        <v>5.1672134867581265E-2</v>
+      </c>
       <c r="AM148" s="10"/>
       <c r="AN148" s="10"/>
       <c r="AO148" s="10"/>
@@ -30333,7 +30604,9 @@
       <c r="AK149" s="10">
         <v>6.8201267212392169E-2</v>
       </c>
-      <c r="AL149" s="10"/>
+      <c r="AL149" s="10">
+        <v>6.6194944367533148E-2</v>
+      </c>
       <c r="AM149" s="10"/>
       <c r="AN149" s="10"/>
       <c r="AO149" s="10"/>
@@ -30544,7 +30817,9 @@
       <c r="AK150" s="10">
         <v>0.103510555459422</v>
       </c>
-      <c r="AL150" s="10"/>
+      <c r="AL150" s="10">
+        <v>0.17791225742424732</v>
+      </c>
       <c r="AM150" s="10"/>
       <c r="AN150" s="10"/>
       <c r="AO150" s="10"/>
@@ -30755,7 +31030,9 @@
       <c r="AK151" s="10">
         <v>0.34009145124690709</v>
       </c>
-      <c r="AL151" s="10"/>
+      <c r="AL151" s="10">
+        <v>0.63046818145063477</v>
+      </c>
       <c r="AM151" s="10"/>
       <c r="AN151" s="10"/>
       <c r="AO151" s="10"/>
@@ -30966,7 +31243,9 @@
       <c r="AK152" s="10">
         <v>6.3521264953394496E-2</v>
       </c>
-      <c r="AL152" s="10"/>
+      <c r="AL152" s="10">
+        <v>7.5653798256537952E-2</v>
+      </c>
       <c r="AM152" s="10"/>
       <c r="AN152" s="10"/>
       <c r="AO152" s="10"/>
@@ -31177,7 +31456,9 @@
       <c r="AK153" s="10">
         <v>7.7872660501765445E-4</v>
       </c>
-      <c r="AL153" s="10"/>
+      <c r="AL153" s="10">
+        <v>3.1125164970460251E-2</v>
+      </c>
       <c r="AM153" s="10"/>
       <c r="AN153" s="10"/>
       <c r="AO153" s="10"/>
@@ -31388,7 +31669,9 @@
       <c r="AK154" s="10">
         <v>1.0619998504225459E-2</v>
       </c>
-      <c r="AL154" s="10"/>
+      <c r="AL154" s="10">
+        <v>7.9063175952860387E-3</v>
+      </c>
       <c r="AM154" s="10"/>
       <c r="AN154" s="10"/>
       <c r="AO154" s="10"/>
@@ -31599,7 +31882,9 @@
       <c r="AK155" s="10">
         <v>7.392882669375167E-2</v>
       </c>
-      <c r="AL155" s="10"/>
+      <c r="AL155" s="10">
+        <v>6.4975299338524639E-2</v>
+      </c>
       <c r="AM155" s="10"/>
       <c r="AN155" s="10"/>
       <c r="AO155" s="10"/>
@@ -31810,7 +32095,9 @@
       <c r="AK156" s="10">
         <v>-7.5585415441138615E-2</v>
       </c>
-      <c r="AL156" s="10"/>
+      <c r="AL156" s="10">
+        <v>-7.9261178851296132E-2</v>
+      </c>
       <c r="AM156" s="10"/>
       <c r="AN156" s="10"/>
       <c r="AO156" s="10"/>
@@ -32021,7 +32308,9 @@
       <c r="AK157" s="10">
         <v>0</v>
       </c>
-      <c r="AL157" s="10"/>
+      <c r="AL157" s="10">
+        <v>0</v>
+      </c>
       <c r="AM157" s="10"/>
       <c r="AN157" s="10"/>
       <c r="AO157" s="10"/>
@@ -32232,7 +32521,9 @@
       <c r="AK158" s="10">
         <v>5.0991501416430829E-3</v>
       </c>
-      <c r="AL158" s="10"/>
+      <c r="AL158" s="10">
+        <v>-3.2884570982007921E-2</v>
+      </c>
       <c r="AM158" s="10"/>
       <c r="AN158" s="10"/>
       <c r="AO158" s="10"/>
@@ -32443,7 +32734,9 @@
       <c r="AK159" s="10">
         <v>7.7139819704578283E-2</v>
       </c>
-      <c r="AL159" s="10"/>
+      <c r="AL159" s="10">
+        <v>7.7139819704578283E-2</v>
+      </c>
       <c r="AM159" s="10"/>
       <c r="AN159" s="10"/>
       <c r="AO159" s="10"/>
@@ -32654,7 +32947,9 @@
       <c r="AK160" s="10">
         <v>0.27392748485778884</v>
       </c>
-      <c r="AL160" s="10"/>
+      <c r="AL160" s="10">
+        <v>0.22010293130454239</v>
+      </c>
       <c r="AM160" s="10"/>
       <c r="AN160" s="10"/>
       <c r="AO160" s="10"/>
@@ -32865,7 +33160,9 @@
       <c r="AK161" s="10">
         <v>2.5282628892345338E-2</v>
       </c>
-      <c r="AL161" s="10"/>
+      <c r="AL161" s="10">
+        <v>3.0811591775199876E-2</v>
+      </c>
       <c r="AM161" s="10"/>
       <c r="AN161" s="10"/>
       <c r="AO161" s="10"/>
@@ -33076,7 +33373,9 @@
       <c r="AK162" s="10">
         <v>-1.5464072005833884E-2</v>
       </c>
-      <c r="AL162" s="10"/>
+      <c r="AL162" s="10">
+        <v>3.4360474435006783E-3</v>
+      </c>
       <c r="AM162" s="10"/>
       <c r="AN162" s="10"/>
       <c r="AO162" s="10"/>
@@ -33287,7 +33586,9 @@
       <c r="AK163" s="10">
         <v>-2.5702626790792271E-3</v>
       </c>
-      <c r="AL163" s="10"/>
+      <c r="AL163" s="10">
+        <v>5.8947818648417361E-2</v>
+      </c>
       <c r="AM163" s="10"/>
       <c r="AN163" s="10"/>
       <c r="AO163" s="10"/>
@@ -33498,7 +33799,9 @@
       <c r="AK164" s="10">
         <v>6.5230809747586438E-2</v>
       </c>
-      <c r="AL164" s="10"/>
+      <c r="AL164" s="10">
+        <v>7.2798888240179549E-2</v>
+      </c>
       <c r="AM164" s="10"/>
       <c r="AN164" s="10"/>
       <c r="AO164" s="10"/>
@@ -33709,7 +34012,9 @@
       <c r="AK165" s="10">
         <v>5.7157093676390547E-2</v>
       </c>
-      <c r="AL165" s="10"/>
+      <c r="AL165" s="10">
+        <v>0.10880764989924341</v>
+      </c>
       <c r="AM165" s="10"/>
       <c r="AN165" s="10"/>
       <c r="AO165" s="10"/>
@@ -33920,7 +34225,9 @@
       <c r="AK166" s="10">
         <v>5.0709257490537452E-2</v>
       </c>
-      <c r="AL166" s="10"/>
+      <c r="AL166" s="10">
+        <v>5.3712103127238064E-2</v>
+      </c>
       <c r="AM166" s="10"/>
       <c r="AN166" s="10"/>
       <c r="AO166" s="10"/>
@@ -34131,7 +34438,9 @@
       <c r="AK167" s="10">
         <v>0.12042601047401646</v>
       </c>
-      <c r="AL167" s="10"/>
+      <c r="AL167" s="10">
+        <v>0.10092151201826227</v>
+      </c>
       <c r="AM167" s="10"/>
       <c r="AN167" s="10"/>
       <c r="AO167" s="10"/>
@@ -34342,7 +34651,9 @@
       <c r="AK168" s="10">
         <v>0.10189100077579516</v>
       </c>
-      <c r="AL168" s="10"/>
+      <c r="AL168" s="10">
+        <v>0.11877019484970153</v>
+      </c>
       <c r="AM168" s="10"/>
       <c r="AN168" s="10"/>
       <c r="AO168" s="10"/>
@@ -34553,7 +34864,9 @@
       <c r="AK169" s="10">
         <v>3.487808104413781E-2</v>
       </c>
-      <c r="AL169" s="10"/>
+      <c r="AL169" s="10">
+        <v>7.8557836976723694E-2</v>
+      </c>
       <c r="AM169" s="10"/>
       <c r="AN169" s="10"/>
       <c r="AO169" s="10"/>
@@ -34764,7 +35077,9 @@
       <c r="AK170" s="10">
         <v>0.23323882095811932</v>
       </c>
-      <c r="AL170" s="10"/>
+      <c r="AL170" s="10">
+        <v>0.25126241822146822</v>
+      </c>
       <c r="AM170" s="10"/>
       <c r="AN170" s="10"/>
       <c r="AO170" s="10"/>
@@ -34975,7 +35290,9 @@
       <c r="AK171" s="10">
         <v>0.11460679909891458</v>
       </c>
-      <c r="AL171" s="10"/>
+      <c r="AL171" s="10">
+        <v>9.9840626027709156E-2</v>
+      </c>
       <c r="AM171" s="10"/>
       <c r="AN171" s="10"/>
       <c r="AO171" s="10"/>
@@ -35186,7 +35503,9 @@
       <c r="AK172" s="10">
         <v>1.254941817899935E-2</v>
       </c>
-      <c r="AL172" s="10"/>
+      <c r="AL172" s="10">
+        <v>1.8001567600623547E-2</v>
+      </c>
       <c r="AM172" s="10"/>
       <c r="AN172" s="10"/>
       <c r="AO172" s="10"/>
@@ -35397,7 +35716,9 @@
       <c r="AK173" s="10">
         <v>1.4972404874228129E-2</v>
       </c>
-      <c r="AL173" s="10"/>
+      <c r="AL173" s="10">
+        <v>5.8523524161672613E-2</v>
+      </c>
       <c r="AM173" s="10"/>
       <c r="AN173" s="10"/>
       <c r="AO173" s="10"/>
@@ -35608,7 +35929,9 @@
       <c r="AK174" s="10">
         <v>-2.0514360052036329E-2</v>
       </c>
-      <c r="AL174" s="10"/>
+      <c r="AL174" s="10">
+        <v>1.0910510216122438E-2</v>
+      </c>
       <c r="AM174" s="10"/>
       <c r="AN174" s="10"/>
       <c r="AO174" s="10"/>
@@ -35819,7 +36142,9 @@
       <c r="AK175" s="10">
         <v>6.8406110585372382E-2</v>
       </c>
-      <c r="AL175" s="10"/>
+      <c r="AL175" s="10">
+        <v>7.4196207749381626E-2</v>
+      </c>
       <c r="AM175" s="10"/>
       <c r="AN175" s="10"/>
       <c r="AO175" s="10"/>
@@ -36030,7 +36355,9 @@
       <c r="AK176" s="10">
         <v>6.0635414435139534E-3</v>
       </c>
-      <c r="AL176" s="10"/>
+      <c r="AL176" s="10">
+        <v>7.252457782586208E-2</v>
+      </c>
       <c r="AM176" s="10"/>
       <c r="AN176" s="10"/>
       <c r="AO176" s="10"/>
@@ -36241,7 +36568,9 @@
       <c r="AK177" s="10">
         <v>7.8856738227815582E-2</v>
       </c>
-      <c r="AL177" s="10"/>
+      <c r="AL177" s="10">
+        <v>4.9792563785652E-2</v>
+      </c>
       <c r="AM177" s="10"/>
       <c r="AN177" s="10"/>
       <c r="AO177" s="10"/>
@@ -36452,7 +36781,9 @@
       <c r="AK178" s="10">
         <v>5.3995680345572339E-2</v>
       </c>
-      <c r="AL178" s="10"/>
+      <c r="AL178" s="10">
+        <v>5.2272070478408983E-2</v>
+      </c>
       <c r="AM178" s="10"/>
       <c r="AN178" s="10"/>
       <c r="AO178" s="10"/>
@@ -36663,7 +36994,9 @@
       <c r="AK179" s="10">
         <v>7.0893004423783434E-2</v>
       </c>
-      <c r="AL179" s="10"/>
+      <c r="AL179" s="10">
+        <v>7.4541301636437352E-2</v>
+      </c>
       <c r="AM179" s="10"/>
       <c r="AN179" s="10"/>
       <c r="AO179" s="10"/>
@@ -36874,7 +37207,9 @@
       <c r="AK180" s="10">
         <v>5.4025303382390755E-2</v>
       </c>
-      <c r="AL180" s="10"/>
+      <c r="AL180" s="10">
+        <v>0.1083513355789214</v>
+      </c>
       <c r="AM180" s="10"/>
       <c r="AN180" s="10"/>
       <c r="AO180" s="10"/>
@@ -37085,7 +37420,9 @@
       <c r="AK181" s="10">
         <v>-4.6889822469169395E-3</v>
       </c>
-      <c r="AL181" s="10"/>
+      <c r="AL181" s="10">
+        <v>1.7793626433149745E-2</v>
+      </c>
       <c r="AM181" s="10"/>
       <c r="AN181" s="10"/>
       <c r="AO181" s="10"/>
@@ -37296,7 +37633,9 @@
       <c r="AK182" s="10">
         <v>0.28651792429180256</v>
       </c>
-      <c r="AL182" s="10"/>
+      <c r="AL182" s="10">
+        <v>0.24054300685814289</v>
+      </c>
       <c r="AM182" s="10"/>
       <c r="AN182" s="10"/>
       <c r="AO182" s="10"/>
@@ -37507,7 +37846,9 @@
       <c r="AK183" s="10">
         <v>5.8375062392322929E-2</v>
       </c>
-      <c r="AL183" s="10"/>
+      <c r="AL183" s="10">
+        <v>7.4019480096423118E-2</v>
+      </c>
       <c r="AM183" s="10"/>
       <c r="AN183" s="10"/>
       <c r="AO183" s="10"/>
@@ -37718,7 +38059,9 @@
       <c r="AK184" s="10">
         <v>0.12342427093132646</v>
       </c>
-      <c r="AL184" s="10"/>
+      <c r="AL184" s="10">
+        <v>0.12016977418768415</v>
+      </c>
       <c r="AM184" s="10"/>
       <c r="AN184" s="10"/>
       <c r="AO184" s="10"/>
@@ -37929,7 +38272,9 @@
       <c r="AK185" s="10">
         <v>-1.4803692357304055E-2</v>
       </c>
-      <c r="AL185" s="10"/>
+      <c r="AL185" s="10">
+        <v>-1.961257133670935E-2</v>
+      </c>
       <c r="AM185" s="10"/>
       <c r="AN185" s="10"/>
       <c r="AO185" s="10"/>
@@ -38140,7 +38485,9 @@
       <c r="AK186" s="10">
         <v>-7.8683721524712147E-2</v>
       </c>
-      <c r="AL186" s="10"/>
+      <c r="AL186" s="10">
+        <v>-6.7914144193725989E-2</v>
+      </c>
       <c r="AM186" s="10"/>
       <c r="AN186" s="10"/>
       <c r="AO186" s="10"/>
@@ -38351,7 +38698,9 @@
       <c r="AK187" s="10">
         <v>-5.7284922054942178E-2</v>
       </c>
-      <c r="AL187" s="10"/>
+      <c r="AL187" s="10">
+        <v>4.8135477592624154E-2</v>
+      </c>
       <c r="AM187" s="10"/>
       <c r="AN187" s="10"/>
       <c r="AO187" s="10"/>
@@ -38562,7 +38911,9 @@
       <c r="AK188" s="10">
         <v>4.3704269704547549E-2</v>
       </c>
-      <c r="AL188" s="10"/>
+      <c r="AL188" s="10">
+        <v>-4.5826551170705554E-2</v>
+      </c>
       <c r="AM188" s="10"/>
       <c r="AN188" s="10"/>
       <c r="AO188" s="10"/>
@@ -38773,7 +39124,9 @@
       <c r="AK189" s="10">
         <v>-4.0652870378387718E-2</v>
       </c>
-      <c r="AL189" s="10"/>
+      <c r="AL189" s="10">
+        <v>-7.1544888510457039E-2</v>
+      </c>
       <c r="AM189" s="10"/>
       <c r="AN189" s="10"/>
       <c r="AO189" s="10"/>
@@ -38984,7 +39337,9 @@
       <c r="AK190" s="10">
         <v>9.8359970314312761E-2</v>
       </c>
-      <c r="AL190" s="10"/>
+      <c r="AL190" s="10">
+        <v>0.10556767424950664</v>
+      </c>
       <c r="AM190" s="10"/>
       <c r="AN190" s="10"/>
       <c r="AO190" s="10"/>
@@ -39195,7 +39550,9 @@
       <c r="AK191" s="10">
         <v>0.15425293692079789</v>
       </c>
-      <c r="AL191" s="10"/>
+      <c r="AL191" s="10">
+        <v>0.194806729640979</v>
+      </c>
       <c r="AM191" s="10"/>
       <c r="AN191" s="10"/>
       <c r="AO191" s="10"/>
@@ -39406,7 +39763,9 @@
       <c r="AK192" s="10">
         <v>3.1175456169518556E-2</v>
       </c>
-      <c r="AL192" s="10"/>
+      <c r="AL192" s="10">
+        <v>-3.2541845841984607E-2</v>
+      </c>
       <c r="AM192" s="10"/>
       <c r="AN192" s="10"/>
       <c r="AO192" s="10"/>
@@ -39617,7 +39976,9 @@
       <c r="AK193" s="10">
         <v>-3.0642603289999126E-2</v>
       </c>
-      <c r="AL193" s="10"/>
+      <c r="AL193" s="10">
+        <v>-4.2428709632837291E-2</v>
+      </c>
       <c r="AM193" s="10"/>
       <c r="AN193" s="10"/>
       <c r="AO193" s="10"/>
@@ -39828,7 +40189,9 @@
       <c r="AK194" s="10">
         <v>0.25989884240154071</v>
       </c>
-      <c r="AL194" s="10"/>
+      <c r="AL194" s="10">
+        <v>0.26359968902989928</v>
+      </c>
       <c r="AM194" s="10"/>
       <c r="AN194" s="10"/>
       <c r="AO194" s="10"/>
@@ -40039,7 +40402,9 @@
       <c r="AK195" s="10">
         <v>7.0072030130773344E-2</v>
       </c>
-      <c r="AL195" s="10"/>
+      <c r="AL195" s="10">
+        <v>9.7857533429437815E-2</v>
+      </c>
       <c r="AM195" s="10"/>
       <c r="AN195" s="10"/>
       <c r="AO195" s="10"/>
@@ -40250,7 +40615,9 @@
       <c r="AK196" s="10">
         <v>7.4002424847555481E-2</v>
       </c>
-      <c r="AL196" s="10"/>
+      <c r="AL196" s="10">
+        <v>7.3769410108652567E-2</v>
+      </c>
       <c r="AM196" s="10"/>
       <c r="AN196" s="10"/>
       <c r="AO196" s="10"/>
@@ -40461,7 +40828,9 @@
       <c r="AK197" s="10">
         <v>3.2224405859351268E-2</v>
       </c>
-      <c r="AL197" s="10"/>
+      <c r="AL197" s="10">
+        <v>2.6858251485388562E-2</v>
+      </c>
       <c r="AM197" s="10"/>
       <c r="AN197" s="10"/>
       <c r="AO197" s="10"/>
@@ -40672,7 +41041,9 @@
       <c r="AK198" s="10">
         <v>2.5956642458555113E-2</v>
       </c>
-      <c r="AL198" s="10"/>
+      <c r="AL198" s="10">
+        <v>-3.2488449573876421E-3</v>
+      </c>
       <c r="AM198" s="10"/>
       <c r="AN198" s="10"/>
       <c r="AO198" s="10"/>
@@ -40883,7 +41254,9 @@
       <c r="AK199" s="10">
         <v>0.20871938795125144</v>
       </c>
-      <c r="AL199" s="10"/>
+      <c r="AL199" s="10">
+        <v>0.24070199122510982</v>
+      </c>
       <c r="AM199" s="10"/>
       <c r="AN199" s="10"/>
       <c r="AO199" s="10"/>
@@ -41094,7 +41467,9 @@
       <c r="AK200" s="10">
         <v>0.29652270253459823</v>
       </c>
-      <c r="AL200" s="10"/>
+      <c r="AL200" s="10">
+        <v>0.19334468825309381</v>
+      </c>
       <c r="AM200" s="10"/>
       <c r="AN200" s="10"/>
       <c r="AO200" s="10"/>
@@ -41305,7 +41680,9 @@
       <c r="AK201" s="10">
         <v>8.8576128678486521E-2</v>
       </c>
-      <c r="AL201" s="10"/>
+      <c r="AL201" s="10">
+        <v>8.5471416401791567E-2</v>
+      </c>
       <c r="AM201" s="10"/>
       <c r="AN201" s="10"/>
       <c r="AO201" s="10"/>
@@ -41516,7 +41893,9 @@
       <c r="AK202" s="10">
         <v>8.5801321577794409E-2</v>
       </c>
-      <c r="AL202" s="10"/>
+      <c r="AL202" s="10">
+        <v>0.11345837984010743</v>
+      </c>
       <c r="AM202" s="10"/>
       <c r="AN202" s="10"/>
       <c r="AO202" s="10"/>
@@ -41727,7 +42106,9 @@
       <c r="AK203" s="10">
         <v>5.8218925981817549E-2</v>
       </c>
-      <c r="AL203" s="10"/>
+      <c r="AL203" s="10">
+        <v>1.4486233579269481E-3</v>
+      </c>
       <c r="AM203" s="10"/>
       <c r="AN203" s="10"/>
       <c r="AO203" s="10"/>
@@ -41938,7 +42319,9 @@
       <c r="AK204" s="10">
         <v>4.8063633039957976E-2</v>
       </c>
-      <c r="AL204" s="10"/>
+      <c r="AL204" s="10">
+        <v>4.9609629147690182E-2</v>
+      </c>
       <c r="AM204" s="10"/>
       <c r="AN204" s="10"/>
       <c r="AO204" s="10"/>
@@ -42149,7 +42532,9 @@
       <c r="AK205" s="10">
         <v>4.3502643807082242E-2</v>
       </c>
-      <c r="AL205" s="10"/>
+      <c r="AL205" s="10">
+        <v>5.7230208109847691E-2</v>
+      </c>
       <c r="AM205" s="10"/>
       <c r="AN205" s="10"/>
       <c r="AO205" s="10"/>
@@ -42360,7 +42745,9 @@
       <c r="AK206" s="10">
         <v>-1.1737851273206812E-2</v>
       </c>
-      <c r="AL206" s="10"/>
+      <c r="AL206" s="10">
+        <v>4.3432024409393977E-2</v>
+      </c>
       <c r="AM206" s="10"/>
       <c r="AN206" s="10"/>
       <c r="AO206" s="10"/>
@@ -42571,7 +42958,9 @@
       <c r="AK207" s="10">
         <v>-7.0247146477638744E-2</v>
       </c>
-      <c r="AL207" s="10"/>
+      <c r="AL207" s="10">
+        <v>2.7322456176941845E-2</v>
+      </c>
       <c r="AM207" s="10"/>
       <c r="AN207" s="10"/>
       <c r="AO207" s="10"/>
@@ -42782,7 +43171,9 @@
       <c r="AK208" s="10">
         <v>8.7973811164713922E-2</v>
       </c>
-      <c r="AL208" s="10"/>
+      <c r="AL208" s="10">
+        <v>0.10067668073910396</v>
+      </c>
       <c r="AM208" s="10"/>
       <c r="AN208" s="10"/>
       <c r="AO208" s="10"/>
@@ -42993,7 +43384,9 @@
       <c r="AK209" s="10">
         <v>7.7378090659340648E-2</v>
       </c>
-      <c r="AL209" s="10"/>
+      <c r="AL209" s="10">
+        <v>7.6253794881362191E-2</v>
+      </c>
       <c r="AM209" s="10"/>
       <c r="AN209" s="10"/>
       <c r="AO209" s="10"/>
@@ -43204,7 +43597,9 @@
       <c r="AK210" s="10">
         <v>5.5631201886708448E-2</v>
       </c>
-      <c r="AL210" s="10"/>
+      <c r="AL210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
       <c r="AM210" s="10"/>
       <c r="AN210" s="10"/>
       <c r="AO210" s="10"/>
@@ -43415,7 +43810,9 @@
       <c r="AK211" s="10">
         <v>0.13585571930729778</v>
       </c>
-      <c r="AL211" s="10"/>
+      <c r="AL211" s="10">
+        <v>0.10901649607161867</v>
+      </c>
       <c r="AM211" s="10"/>
       <c r="AN211" s="10"/>
       <c r="AO211" s="10"/>
@@ -43626,7 +44023,9 @@
       <c r="AK212" s="10">
         <v>-4.2575138546175895E-3</v>
       </c>
-      <c r="AL212" s="10"/>
+      <c r="AL212" s="10">
+        <v>6.7495702351391795E-2</v>
+      </c>
       <c r="AM212" s="10"/>
       <c r="AN212" s="10"/>
       <c r="AO212" s="10"/>
@@ -43837,7 +44236,9 @@
       <c r="AK213" s="10">
         <v>5.2479506533560594E-2</v>
       </c>
-      <c r="AL213" s="10"/>
+      <c r="AL213" s="10">
+        <v>5.2479506533560594E-2</v>
+      </c>
       <c r="AM213" s="10"/>
       <c r="AN213" s="10"/>
       <c r="AO213" s="10"/>
@@ -44048,7 +44449,9 @@
       <c r="AK214" s="10">
         <v>3.2677518282614004E-2</v>
       </c>
-      <c r="AL214" s="10"/>
+      <c r="AL214" s="10">
+        <v>3.7451730143105877E-2</v>
+      </c>
       <c r="AM214" s="10"/>
       <c r="AN214" s="10"/>
       <c r="AO214" s="10"/>
@@ -44259,7 +44662,9 @@
       <c r="AK215" s="10">
         <v>-2.3578178775837122E-3</v>
       </c>
-      <c r="AL215" s="10"/>
+      <c r="AL215" s="10">
+        <v>1.1123994833941442E-3</v>
+      </c>
       <c r="AM215" s="10"/>
       <c r="AN215" s="10"/>
       <c r="AO215" s="10"/>
@@ -44470,7 +44875,9 @@
       <c r="AK216" s="10">
         <v>6.1340598195978036E-2</v>
       </c>
-      <c r="AL216" s="10"/>
+      <c r="AL216" s="10">
+        <v>6.8050327785211584E-2</v>
+      </c>
       <c r="AM216" s="10"/>
       <c r="AN216" s="10"/>
       <c r="AO216" s="10"/>
@@ -44681,7 +45088,9 @@
       <c r="AK217" s="10">
         <v>1.5304707861222511E-2</v>
       </c>
-      <c r="AL217" s="10"/>
+      <c r="AL217" s="10">
+        <v>6.2558917580081808E-2</v>
+      </c>
       <c r="AM217" s="10"/>
       <c r="AN217" s="10"/>
       <c r="AO217" s="10"/>
@@ -44892,7 +45301,9 @@
       <c r="AK218" s="10">
         <v>7.2005269763839808E-2</v>
       </c>
-      <c r="AL218" s="10"/>
+      <c r="AL218" s="10">
+        <v>6.6686839739767301E-2</v>
+      </c>
       <c r="AM218" s="10"/>
       <c r="AN218" s="10"/>
       <c r="AO218" s="10"/>
@@ -45103,7 +45514,9 @@
       <c r="AK219" s="10">
         <v>9.6110467327748639E-2</v>
       </c>
-      <c r="AL219" s="10"/>
+      <c r="AL219" s="10">
+        <v>9.3152547099112804E-2</v>
+      </c>
       <c r="AM219" s="10"/>
       <c r="AN219" s="10"/>
       <c r="AO219" s="10"/>
@@ -45314,7 +45727,9 @@
       <c r="AK220" s="10">
         <v>2.7496236828901344E-2</v>
       </c>
-      <c r="AL220" s="10"/>
+      <c r="AL220" s="10">
+        <v>6.89344718767404E-2</v>
+      </c>
       <c r="AM220" s="10"/>
       <c r="AN220" s="10"/>
       <c r="AO220" s="10"/>
@@ -45525,7 +45940,9 @@
       <c r="AK221" s="10">
         <v>1.8778412530682909E-2</v>
       </c>
-      <c r="AL221" s="10"/>
+      <c r="AL221" s="10">
+        <v>1.5751411683122551E-2</v>
+      </c>
       <c r="AM221" s="10"/>
       <c r="AN221" s="10"/>
       <c r="AO221" s="10"/>
@@ -45736,7 +46153,9 @@
       <c r="AK222" s="10">
         <v>9.7407429755224317E-2</v>
       </c>
-      <c r="AL222" s="10"/>
+      <c r="AL222" s="10">
+        <v>9.0345040848287761E-2</v>
+      </c>
       <c r="AM222" s="10"/>
       <c r="AN222" s="10"/>
       <c r="AO222" s="10"/>
@@ -45947,7 +46366,9 @@
       <c r="AK223" s="10">
         <v>6.3090187491446459E-2</v>
       </c>
-      <c r="AL223" s="10"/>
+      <c r="AL223" s="10">
+        <v>5.7935596580592774E-2</v>
+      </c>
       <c r="AM223" s="10"/>
       <c r="AN223" s="10"/>
       <c r="AO223" s="10"/>
@@ -46158,7 +46579,9 @@
       <c r="AK224" s="10">
         <v>-6.4269429134294009E-2</v>
       </c>
-      <c r="AL224" s="10"/>
+      <c r="AL224" s="10">
+        <v>-1.7547933390831272E-2</v>
+      </c>
       <c r="AM224" s="10"/>
       <c r="AN224" s="10"/>
       <c r="AO224" s="10"/>
@@ -46369,7 +46792,9 @@
       <c r="AK225" s="10">
         <v>9.0296802690696287E-2</v>
       </c>
-      <c r="AL225" s="10"/>
+      <c r="AL225" s="10">
+        <v>0.14684869130852163</v>
+      </c>
       <c r="AM225" s="10"/>
       <c r="AN225" s="10"/>
       <c r="AO225" s="10"/>
@@ -46580,7 +47005,9 @@
       <c r="AK226" s="10">
         <v>4.7807340414344202E-2</v>
       </c>
-      <c r="AL226" s="10"/>
+      <c r="AL226" s="10">
+        <v>2.1331918280711015E-2</v>
+      </c>
       <c r="AM226" s="10"/>
       <c r="AN226" s="10"/>
       <c r="AO226" s="10"/>
@@ -46791,7 +47218,9 @@
       <c r="AK227" s="10">
         <v>9.5508881061230566E-2</v>
       </c>
-      <c r="AL227" s="10"/>
+      <c r="AL227" s="10">
+        <v>5.8157685656867741E-2</v>
+      </c>
       <c r="AM227" s="10"/>
       <c r="AN227" s="10"/>
       <c r="AO227" s="10"/>
@@ -47002,7 +47431,9 @@
       <c r="AK228" s="10">
         <v>0.16152446501325102</v>
       </c>
-      <c r="AL228" s="10"/>
+      <c r="AL228" s="10">
+        <v>0.19862372530274075</v>
+      </c>
       <c r="AM228" s="10"/>
       <c r="AN228" s="10"/>
       <c r="AO228" s="10"/>
@@ -47213,7 +47644,9 @@
       <c r="AK229" s="10">
         <v>3.0083024200671327E-2</v>
       </c>
-      <c r="AL229" s="10"/>
+      <c r="AL229" s="10">
+        <v>4.1409016436763535E-2</v>
+      </c>
       <c r="AM229" s="10"/>
       <c r="AN229" s="10"/>
       <c r="AO229" s="10"/>
@@ -47424,7 +47857,9 @@
       <c r="AK230" s="10">
         <v>2.0574739959417165E-2</v>
       </c>
-      <c r="AL230" s="10"/>
+      <c r="AL230" s="10">
+        <v>2.7474134464226863E-2</v>
+      </c>
       <c r="AM230" s="10"/>
       <c r="AN230" s="10"/>
       <c r="AO230" s="10"/>
@@ -47635,7 +48070,9 @@
       <c r="AK231" s="10">
         <v>1.4778607845575387E-2</v>
       </c>
-      <c r="AL231" s="10"/>
+      <c r="AL231" s="10">
+        <v>6.6711439444817611E-2</v>
+      </c>
       <c r="AM231" s="10"/>
       <c r="AN231" s="10"/>
       <c r="AO231" s="10"/>
@@ -47846,7 +48283,9 @@
       <c r="AK232" s="10">
         <v>-4.0242916576295862E-2</v>
       </c>
-      <c r="AL232" s="10"/>
+      <c r="AL232" s="10">
+        <v>-1.9891768277656707E-2</v>
+      </c>
       <c r="AM232" s="10"/>
       <c r="AN232" s="10"/>
       <c r="AO232" s="10"/>
@@ -48057,7 +48496,9 @@
       <c r="AK233" s="10">
         <v>-2.0225740474206555E-2</v>
       </c>
-      <c r="AL233" s="10"/>
+      <c r="AL233" s="10">
+        <v>7.7421405401362886E-2</v>
+      </c>
       <c r="AM233" s="10"/>
       <c r="AN233" s="10"/>
       <c r="AO233" s="10"/>
@@ -48268,7 +48709,9 @@
       <c r="AK234" s="10">
         <v>9.7797356828193793E-2</v>
       </c>
-      <c r="AL234" s="10"/>
+      <c r="AL234" s="10">
+        <v>8.1784655434232523E-2</v>
+      </c>
       <c r="AM234" s="10"/>
       <c r="AN234" s="10"/>
       <c r="AO234" s="10"/>
@@ -48479,7 +48922,9 @@
       <c r="AK235" s="10">
         <v>-7.1795964894395881E-2</v>
       </c>
-      <c r="AL235" s="10"/>
+      <c r="AL235" s="10">
+        <v>-3.2342134101980835E-2</v>
+      </c>
       <c r="AM235" s="10"/>
       <c r="AN235" s="10"/>
       <c r="AO235" s="10"/>
@@ -48690,7 +49135,9 @@
       <c r="AK236" s="10">
         <v>-0.10861549873461906</v>
       </c>
-      <c r="AL236" s="10"/>
+      <c r="AL236" s="10">
+        <v>6.3018242122718782E-3</v>
+      </c>
       <c r="AM236" s="10"/>
       <c r="AN236" s="10"/>
       <c r="AO236" s="10"/>
@@ -48901,7 +49348,9 @@
       <c r="AK237" s="10">
         <v>3.174369456762749E-2</v>
       </c>
-      <c r="AL237" s="10"/>
+      <c r="AL237" s="10">
+        <v>5.5139722732936436E-2</v>
+      </c>
       <c r="AM237" s="10"/>
       <c r="AN237" s="10"/>
       <c r="AO237" s="10"/>
@@ -49112,7 +49561,9 @@
       <c r="AK238" s="10">
         <v>9.8182848354850583E-2</v>
       </c>
-      <c r="AL238" s="10"/>
+      <c r="AL238" s="10">
+        <v>7.8604627917437275E-2</v>
+      </c>
       <c r="AM238" s="10"/>
       <c r="AN238" s="10"/>
       <c r="AO238" s="10"/>
@@ -49323,7 +49774,9 @@
       <c r="AK239" s="10">
         <v>3.2711675760784154E-2</v>
       </c>
-      <c r="AL239" s="10"/>
+      <c r="AL239" s="10">
+        <v>4.7244872301447804E-2</v>
+      </c>
       <c r="AM239" s="10"/>
       <c r="AN239" s="10"/>
       <c r="AO239" s="10"/>
@@ -49534,7 +49987,9 @@
       <c r="AK240" s="10">
         <v>6.1355533949116747E-2</v>
       </c>
-      <c r="AL240" s="10"/>
+      <c r="AL240" s="10">
+        <v>1.367662162024752E-2</v>
+      </c>
       <c r="AM240" s="10"/>
       <c r="AN240" s="10"/>
       <c r="AO240" s="10"/>
@@ -49745,7 +50200,9 @@
       <c r="AK241" s="10">
         <v>5.854381343457038E-2</v>
       </c>
-      <c r="AL241" s="10"/>
+      <c r="AL241" s="10">
+        <v>5.0667105594392137E-2</v>
+      </c>
       <c r="AM241" s="10"/>
       <c r="AN241" s="10"/>
       <c r="AO241" s="10"/>
@@ -49956,7 +50413,9 @@
       <c r="AK242" s="10">
         <v>3.9516250376166129E-2</v>
       </c>
-      <c r="AL242" s="10"/>
+      <c r="AL242" s="10">
+        <v>3.220711828078282E-2</v>
+      </c>
       <c r="AM242" s="10"/>
       <c r="AN242" s="10"/>
       <c r="AO242" s="10"/>
@@ -50167,7 +50626,9 @@
       <c r="AK243" s="10">
         <v>7.7778949083346927E-2</v>
       </c>
-      <c r="AL243" s="10"/>
+      <c r="AL243" s="10">
+        <v>9.1497828540817672E-2</v>
+      </c>
       <c r="AM243" s="10"/>
       <c r="AN243" s="10"/>
       <c r="AO243" s="10"/>
@@ -50378,7 +50839,9 @@
       <c r="AK244" s="10">
         <v>4.8902441167683053E-2</v>
       </c>
-      <c r="AL244" s="10"/>
+      <c r="AL244" s="10">
+        <v>8.3149823565307424E-2</v>
+      </c>
       <c r="AM244" s="10"/>
       <c r="AN244" s="10"/>
       <c r="AO244" s="10"/>
@@ -50589,7 +51052,9 @@
       <c r="AK245" s="10">
         <v>2.711711152676699E-2</v>
       </c>
-      <c r="AL245" s="10"/>
+      <c r="AL245" s="10">
+        <v>4.7686605543634464E-2</v>
+      </c>
       <c r="AM245" s="10"/>
       <c r="AN245" s="10"/>
       <c r="AO245" s="10"/>
@@ -50800,7 +51265,9 @@
       <c r="AK246" s="10">
         <v>9.3375745091963003E-2</v>
       </c>
-      <c r="AL246" s="10"/>
+      <c r="AL246" s="10">
+        <v>0.14213021751642119</v>
+      </c>
       <c r="AM246" s="10"/>
       <c r="AN246" s="10"/>
       <c r="AO246" s="10"/>
@@ -51011,7 +51478,9 @@
       <c r="AK247" s="10">
         <v>6.0424671009892794E-2</v>
       </c>
-      <c r="AL247" s="10"/>
+      <c r="AL247" s="10">
+        <v>8.2543451243716426E-2</v>
+      </c>
       <c r="AM247" s="10"/>
       <c r="AN247" s="10"/>
       <c r="AO247" s="10"/>
@@ -51222,7 +51691,9 @@
       <c r="AK248" s="10">
         <v>4.8499124799821214E-2</v>
       </c>
-      <c r="AL248" s="10"/>
+      <c r="AL248" s="10">
+        <v>4.4986746408323786E-2</v>
+      </c>
       <c r="AM248" s="10"/>
       <c r="AN248" s="10"/>
       <c r="AO248" s="10"/>
@@ -51433,7 +51904,9 @@
       <c r="AK249" s="10">
         <v>1.9134253450439065E-2</v>
       </c>
-      <c r="AL249" s="10"/>
+      <c r="AL249" s="10">
+        <v>6.5209311424100136E-2</v>
+      </c>
       <c r="AM249" s="10"/>
       <c r="AN249" s="10"/>
       <c r="AO249" s="10"/>
@@ -51644,7 +52117,9 @@
       <c r="AK250" s="10">
         <v>8.0366133644822035E-2</v>
       </c>
-      <c r="AL250" s="10"/>
+      <c r="AL250" s="10">
+        <v>0.10983022859796687</v>
+      </c>
       <c r="AM250" s="10"/>
       <c r="AN250" s="10"/>
       <c r="AO250" s="10"/>
@@ -51855,7 +52330,9 @@
       <c r="AK251" s="10">
         <v>0.10317153014889646</v>
       </c>
-      <c r="AL251" s="10"/>
+      <c r="AL251" s="10">
+        <v>0.17216903707778441</v>
+      </c>
       <c r="AM251" s="10"/>
       <c r="AN251" s="10"/>
       <c r="AO251" s="10"/>
@@ -52066,7 +52543,9 @@
       <c r="AK252" s="10">
         <v>0.19080933080372531</v>
       </c>
-      <c r="AL252" s="10"/>
+      <c r="AL252" s="10">
+        <v>0.17890928438414466</v>
+      </c>
       <c r="AM252" s="10"/>
       <c r="AN252" s="10"/>
       <c r="AO252" s="10"/>
@@ -52277,7 +52756,9 @@
       <c r="AK253" s="10">
         <v>8.1178228873039604E-2</v>
       </c>
-      <c r="AL253" s="10"/>
+      <c r="AL253" s="10">
+        <v>0.12194632795339522</v>
+      </c>
       <c r="AM253" s="10"/>
       <c r="AN253" s="10"/>
       <c r="AO253" s="10"/>
@@ -52488,7 +52969,9 @@
       <c r="AK254" s="10">
         <v>2.4558353527903698E-2</v>
       </c>
-      <c r="AL254" s="10"/>
+      <c r="AL254" s="10">
+        <v>2.9677238085203506E-2</v>
+      </c>
       <c r="AM254" s="10"/>
       <c r="AN254" s="10"/>
       <c r="AO254" s="10"/>
@@ -52699,7 +53182,9 @@
       <c r="AK255" s="10">
         <v>0.19383694115896732</v>
       </c>
-      <c r="AL255" s="10"/>
+      <c r="AL255" s="10">
+        <v>0.12286695739933151</v>
+      </c>
       <c r="AM255" s="10"/>
       <c r="AN255" s="10"/>
       <c r="AO255" s="10"/>
@@ -52910,7 +53395,9 @@
       <c r="AK256" s="10">
         <v>-2.9200842836343277E-2</v>
       </c>
-      <c r="AL256" s="10"/>
+      <c r="AL256" s="10">
+        <v>-2.4817848576729862E-2</v>
+      </c>
       <c r="AM256" s="10"/>
       <c r="AN256" s="10"/>
       <c r="AO256" s="10"/>
@@ -53121,7 +53608,9 @@
       <c r="AK257" s="10">
         <v>-5.1867127311031602E-3</v>
       </c>
-      <c r="AL257" s="10"/>
+      <c r="AL257" s="10">
+        <v>1.41486231475767E-2</v>
+      </c>
       <c r="AM257" s="10"/>
       <c r="AN257" s="10"/>
       <c r="AO257" s="10"/>
@@ -53332,7 +53821,9 @@
       <c r="AK258" s="10">
         <v>2.7084015328031397E-2</v>
       </c>
-      <c r="AL258" s="10"/>
+      <c r="AL258" s="10">
+        <v>2.7050012080212626E-2</v>
+      </c>
       <c r="AM258" s="10"/>
       <c r="AN258" s="10"/>
       <c r="AO258" s="10"/>
@@ -53543,7 +54034,9 @@
       <c r="AK259" s="10">
         <v>5.7465081506874238E-2</v>
       </c>
-      <c r="AL259" s="10"/>
+      <c r="AL259" s="10">
+        <v>4.7582145071295878E-2</v>
+      </c>
       <c r="AM259" s="10"/>
       <c r="AN259" s="10"/>
       <c r="AO259" s="10"/>
@@ -53754,7 +54247,9 @@
       <c r="AK260" s="10">
         <v>2.631578947368407E-2</v>
       </c>
-      <c r="AL260" s="10"/>
+      <c r="AL260" s="10">
+        <v>6.3078201953931545E-2</v>
+      </c>
       <c r="AM260" s="10"/>
       <c r="AN260" s="10"/>
       <c r="AO260" s="10"/>
@@ -53965,7 +54460,9 @@
       <c r="AK261" s="10">
         <v>7.2215206905831275E-2</v>
       </c>
-      <c r="AL261" s="10"/>
+      <c r="AL261" s="10">
+        <v>0.14694207435598394</v>
+      </c>
       <c r="AM261" s="10"/>
       <c r="AN261" s="10"/>
       <c r="AO261" s="10"/>
@@ -54176,7 +54673,9 @@
       <c r="AK262" s="10">
         <v>3.6393500029181514E-2</v>
       </c>
-      <c r="AL262" s="10"/>
+      <c r="AL262" s="10">
+        <v>6.0965907663448116E-2</v>
+      </c>
       <c r="AM262" s="10"/>
       <c r="AN262" s="10"/>
       <c r="AO262" s="10"/>
@@ -54387,7 +54886,9 @@
       <c r="AK263" s="10">
         <v>9.8747502405091447E-2</v>
       </c>
-      <c r="AL263" s="10"/>
+      <c r="AL263" s="10">
+        <v>1.1942860875000516E-3</v>
+      </c>
       <c r="AM263" s="10"/>
       <c r="AN263" s="10"/>
       <c r="AO263" s="10"/>
@@ -54598,7 +55099,9 @@
       <c r="AK264" s="10">
         <v>-3.3380751018181165E-2</v>
       </c>
-      <c r="AL264" s="10"/>
+      <c r="AL264" s="10">
+        <v>-4.6689056706334942E-3</v>
+      </c>
       <c r="AM264" s="10"/>
       <c r="AN264" s="10"/>
       <c r="AO264" s="10"/>
@@ -54809,7 +55312,9 @@
       <c r="AK265" s="10">
         <v>9.0404858702026747E-2</v>
       </c>
-      <c r="AL265" s="10"/>
+      <c r="AL265" s="10">
+        <v>0.12622132593899682</v>
+      </c>
       <c r="AM265" s="10"/>
       <c r="AN265" s="10"/>
       <c r="AO265" s="10"/>
@@ -55020,7 +55525,9 @@
       <c r="AK266" s="10">
         <v>7.8645912044733368E-2</v>
       </c>
-      <c r="AL266" s="10"/>
+      <c r="AL266" s="10">
+        <v>0.10276561580579857</v>
+      </c>
       <c r="AM266" s="10"/>
       <c r="AN266" s="10"/>
       <c r="AO266" s="10"/>
@@ -55231,7 +55738,9 @@
       <c r="AK267" s="10">
         <v>-0.11102070253626861</v>
       </c>
-      <c r="AL267" s="10"/>
+      <c r="AL267" s="10">
+        <v>1.3340692757909611E-2</v>
+      </c>
       <c r="AM267" s="10"/>
       <c r="AN267" s="10"/>
       <c r="AO267" s="10"/>
@@ -55442,7 +55951,9 @@
       <c r="AK268" s="10">
         <v>8.61480953390239E-2</v>
       </c>
-      <c r="AL268" s="10"/>
+      <c r="AL268" s="10">
+        <v>0.10635588200450186</v>
+      </c>
       <c r="AM268" s="10"/>
       <c r="AN268" s="10"/>
       <c r="AO268" s="10"/>
@@ -55653,7 +56164,9 @@
       <c r="AK269" s="10">
         <v>-1.1467436434813516E-2</v>
       </c>
-      <c r="AL269" s="10"/>
+      <c r="AL269" s="10">
+        <v>6.5140118696245253E-3</v>
+      </c>
       <c r="AM269" s="10"/>
       <c r="AN269" s="10"/>
       <c r="AO269" s="10"/>
@@ -55864,7 +56377,9 @@
       <c r="AK270" s="10">
         <v>4.9276333150640506E-2</v>
       </c>
-      <c r="AL270" s="10"/>
+      <c r="AL270" s="10">
+        <v>8.2024574823012619E-2</v>
+      </c>
       <c r="AM270" s="10"/>
       <c r="AN270" s="10"/>
       <c r="AO270" s="10"/>
@@ -56075,7 +56590,9 @@
       <c r="AK271" s="10">
         <v>-2.6736342601670571E-2</v>
       </c>
-      <c r="AL271" s="10"/>
+      <c r="AL271" s="10">
+        <v>-2.6304953135417031E-2</v>
+      </c>
       <c r="AM271" s="10"/>
       <c r="AN271" s="10"/>
       <c r="AO271" s="10"/>
@@ -56286,7 +56803,9 @@
       <c r="AK272" s="10">
         <v>0.10000394570707072</v>
       </c>
-      <c r="AL272" s="10"/>
+      <c r="AL272" s="10">
+        <v>6.4992075308582642E-2</v>
+      </c>
       <c r="AM272" s="10"/>
       <c r="AN272" s="10"/>
       <c r="AO272" s="10"/>
@@ -56497,7 +57016,9 @@
       <c r="AK273" s="10">
         <v>5.2766017005493548E-2</v>
       </c>
-      <c r="AL273" s="10"/>
+      <c r="AL273" s="10">
+        <v>5.4572169997765929E-2</v>
+      </c>
       <c r="AM273" s="10"/>
       <c r="AN273" s="10"/>
       <c r="AO273" s="10"/>
@@ -56708,7 +57229,9 @@
       <c r="AK274" s="10">
         <v>3.2997999267337486E-2</v>
       </c>
-      <c r="AL274" s="10"/>
+      <c r="AL274" s="10">
+        <v>4.1030097459329617E-2</v>
+      </c>
       <c r="AM274" s="10"/>
       <c r="AN274" s="10"/>
       <c r="AO274" s="10"/>
@@ -56919,7 +57442,9 @@
       <c r="AK275" s="10">
         <v>7.6879977220747353E-3</v>
       </c>
-      <c r="AL275" s="10"/>
+      <c r="AL275" s="10">
+        <v>1.7993772446289746E-2</v>
+      </c>
       <c r="AM275" s="10"/>
       <c r="AN275" s="10"/>
       <c r="AO275" s="10"/>
@@ -57130,7 +57655,9 @@
       <c r="AK276" s="10">
         <v>5.8199010984862909E-2</v>
       </c>
-      <c r="AL276" s="10"/>
+      <c r="AL276" s="10">
+        <v>5.6890416232406649E-2</v>
+      </c>
       <c r="AM276" s="10"/>
       <c r="AN276" s="10"/>
       <c r="AO276" s="10"/>
@@ -57341,7 +57868,9 @@
       <c r="AK277" s="10">
         <v>1.3624727247736335E-2</v>
       </c>
-      <c r="AL277" s="10"/>
+      <c r="AL277" s="10">
+        <v>3.145974952210473E-3</v>
+      </c>
       <c r="AM277" s="10"/>
       <c r="AN277" s="10"/>
       <c r="AO277" s="10"/>
@@ -57552,7 +58081,9 @@
       <c r="AK278" s="10">
         <v>2.871023522630578E-2</v>
       </c>
-      <c r="AL278" s="10"/>
+      <c r="AL278" s="10">
+        <v>2.5090030542006536E-2</v>
+      </c>
       <c r="AM278" s="10"/>
       <c r="AN278" s="10"/>
       <c r="AO278" s="10"/>
@@ -57763,7 +58294,9 @@
       <c r="AK279" s="10">
         <v>6.3623941969976228E-2</v>
       </c>
-      <c r="AL279" s="10"/>
+      <c r="AL279" s="10">
+        <v>5.7254065485305983E-2</v>
+      </c>
       <c r="AM279" s="10"/>
       <c r="AN279" s="10"/>
       <c r="AO279" s="10"/>
@@ -57974,7 +58507,9 @@
       <c r="AK280" s="10">
         <v>3.2886689903161015E-2</v>
       </c>
-      <c r="AL280" s="10"/>
+      <c r="AL280" s="10">
+        <v>4.014272970562005E-2</v>
+      </c>
       <c r="AM280" s="10"/>
       <c r="AN280" s="10"/>
       <c r="AO280" s="10"/>
@@ -58185,7 +58720,9 @@
       <c r="AK281" s="10">
         <v>6.0979745888737114E-2</v>
       </c>
-      <c r="AL281" s="10"/>
+      <c r="AL281" s="10">
+        <v>6.3469724611241451E-2</v>
+      </c>
       <c r="AM281" s="10"/>
       <c r="AN281" s="10"/>
       <c r="AO281" s="10"/>
@@ -58396,7 +58933,9 @@
       <c r="AK282" s="10">
         <v>7.4684721935083687E-2</v>
       </c>
-      <c r="AL282" s="10"/>
+      <c r="AL282" s="10">
+        <v>8.5740929725164561E-2</v>
+      </c>
       <c r="AM282" s="10"/>
       <c r="AN282" s="10"/>
       <c r="AO282" s="10"/>
@@ -58607,7 +59146,9 @@
       <c r="AK283" s="10">
         <v>8.8808262760148304E-2</v>
       </c>
-      <c r="AL283" s="10"/>
+      <c r="AL283" s="10">
+        <v>9.7960756961142259E-2</v>
+      </c>
       <c r="AM283" s="10"/>
       <c r="AN283" s="10"/>
       <c r="AO283" s="10"/>
@@ -58818,7 +59359,9 @@
       <c r="AK284" s="10">
         <v>0.29083250135743444</v>
       </c>
-      <c r="AL284" s="10"/>
+      <c r="AL284" s="10">
+        <v>0.3080476601382387</v>
+      </c>
       <c r="AM284" s="10"/>
       <c r="AN284" s="10"/>
       <c r="AO284" s="10"/>
@@ -59029,7 +59572,9 @@
       <c r="AK285" s="10">
         <v>7.672970028770143E-2</v>
       </c>
-      <c r="AL285" s="10"/>
+      <c r="AL285" s="10">
+        <v>7.6988926628558829E-2</v>
+      </c>
       <c r="AM285" s="10"/>
       <c r="AN285" s="10"/>
       <c r="AO285" s="10"/>
@@ -59240,7 +59785,9 @@
       <c r="AK286" s="10">
         <v>5.4989118859100738E-2</v>
       </c>
-      <c r="AL286" s="10"/>
+      <c r="AL286" s="10">
+        <v>6.2968432711833167E-2</v>
+      </c>
       <c r="AM286" s="10"/>
       <c r="AN286" s="10"/>
       <c r="AO286" s="10"/>
@@ -59451,7 +59998,9 @@
       <c r="AK287" s="10">
         <v>6.1089291990769734E-2</v>
       </c>
-      <c r="AL287" s="10"/>
+      <c r="AL287" s="10">
+        <v>5.5711154408183194E-2</v>
+      </c>
       <c r="AM287" s="10"/>
       <c r="AN287" s="10"/>
       <c r="AO287" s="10"/>
@@ -59662,7 +60211,9 @@
       <c r="AK288" s="10">
         <v>0.1985843945250958</v>
       </c>
-      <c r="AL288" s="10"/>
+      <c r="AL288" s="10">
+        <v>0.20061825703805658</v>
+      </c>
       <c r="AM288" s="10"/>
       <c r="AN288" s="10"/>
       <c r="AO288" s="10"/>
@@ -59873,7 +60424,9 @@
       <c r="AK289" s="10">
         <v>5.8356808725092302E-2</v>
       </c>
-      <c r="AL289" s="10"/>
+      <c r="AL289" s="10">
+        <v>6.5827235824908792E-2</v>
+      </c>
       <c r="AM289" s="10"/>
       <c r="AN289" s="10"/>
       <c r="AO289" s="10"/>
@@ -60084,7 +60637,9 @@
       <c r="AK290" s="10">
         <v>1.9559206607455693E-4</v>
       </c>
-      <c r="AL290" s="10"/>
+      <c r="AL290" s="10">
+        <v>1.9559206607455693E-4</v>
+      </c>
       <c r="AM290" s="10"/>
       <c r="AN290" s="10"/>
       <c r="AO290" s="10"/>
@@ -60295,7 +60850,9 @@
       <c r="AK291" s="10">
         <v>6.963585009383344E-2</v>
       </c>
-      <c r="AL291" s="10"/>
+      <c r="AL291" s="10">
+        <v>6.963585009383344E-2</v>
+      </c>
       <c r="AM291" s="10"/>
       <c r="AN291" s="10"/>
       <c r="AO291" s="10"/>
@@ -60506,7 +61063,9 @@
       <c r="AK292" s="10">
         <v>-2.3936238371447427E-2</v>
       </c>
-      <c r="AL292" s="10"/>
+      <c r="AL292" s="10">
+        <v>-2.3936238371447427E-2</v>
+      </c>
       <c r="AM292" s="10"/>
       <c r="AN292" s="10"/>
       <c r="AO292" s="10"/>
@@ -60717,7 +61276,9 @@
       <c r="AK293" s="10">
         <v>0.13856886252558587</v>
       </c>
-      <c r="AL293" s="10"/>
+      <c r="AL293" s="10">
+        <v>0.13894345941196473</v>
+      </c>
       <c r="AM293" s="10"/>
       <c r="AN293" s="10"/>
       <c r="AO293" s="10"/>
@@ -60928,7 +61489,9 @@
       <c r="AK294" s="10">
         <v>0.10521056388294059</v>
       </c>
-      <c r="AL294" s="10"/>
+      <c r="AL294" s="10">
+        <v>0.10521056388294059</v>
+      </c>
       <c r="AM294" s="10"/>
       <c r="AN294" s="10"/>
       <c r="AO294" s="10"/>
@@ -61139,7 +61702,9 @@
       <c r="AK295" s="10">
         <v>9.2249087631749438E-2</v>
       </c>
-      <c r="AL295" s="10"/>
+      <c r="AL295" s="10">
+        <v>8.8306690088006512E-2</v>
+      </c>
       <c r="AM295" s="10"/>
       <c r="AN295" s="10"/>
       <c r="AO295" s="10"/>
@@ -61350,7 +61915,9 @@
       <c r="AK296" s="10">
         <v>4.3120423018208287E-2</v>
       </c>
-      <c r="AL296" s="10"/>
+      <c r="AL296" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
       <c r="AM296" s="10"/>
       <c r="AN296" s="10"/>
       <c r="AO296" s="10"/>
@@ -61561,7 +62128,9 @@
       <c r="AK297" s="10">
         <v>1.9090671685471072E-3</v>
       </c>
-      <c r="AL297" s="10"/>
+      <c r="AL297" s="10">
+        <v>2.8458753671879888E-2</v>
+      </c>
       <c r="AM297" s="10"/>
       <c r="AN297" s="10"/>
       <c r="AO297" s="10"/>
@@ -61772,7 +62341,9 @@
       <c r="AK298" s="10">
         <v>0.73025067924334852</v>
       </c>
-      <c r="AL298" s="10"/>
+      <c r="AL298" s="10">
+        <v>0.47797880116959046</v>
+      </c>
       <c r="AM298" s="10"/>
       <c r="AN298" s="10"/>
       <c r="AO298" s="10"/>
@@ -61983,7 +62554,9 @@
       <c r="AK299" s="10">
         <v>0</v>
       </c>
-      <c r="AL299" s="10"/>
+      <c r="AL299" s="10">
+        <v>0</v>
+      </c>
       <c r="AM299" s="10"/>
       <c r="AN299" s="10"/>
       <c r="AO299" s="10"/>
@@ -62194,7 +62767,9 @@
       <c r="AK300" s="10">
         <v>0</v>
       </c>
-      <c r="AL300" s="10"/>
+      <c r="AL300" s="10">
+        <v>0</v>
+      </c>
       <c r="AM300" s="10"/>
       <c r="AN300" s="10"/>
       <c r="AO300" s="10"/>
@@ -62405,7 +62980,9 @@
       <c r="AK301" s="10">
         <v>0</v>
       </c>
-      <c r="AL301" s="10"/>
+      <c r="AL301" s="10">
+        <v>0</v>
+      </c>
       <c r="AM301" s="10"/>
       <c r="AN301" s="10"/>
       <c r="AO301" s="10"/>
@@ -62616,7 +63193,9 @@
       <c r="AK302" s="10">
         <v>3.4352404385493696E-2</v>
       </c>
-      <c r="AL302" s="10"/>
+      <c r="AL302" s="10">
+        <v>1.48237867544041E-2</v>
+      </c>
       <c r="AM302" s="10"/>
       <c r="AN302" s="10"/>
       <c r="AO302" s="10"/>
@@ -62827,7 +63406,9 @@
       <c r="AK303" s="10">
         <v>9.6964827246572183E-2</v>
       </c>
-      <c r="AL303" s="10"/>
+      <c r="AL303" s="10">
+        <v>9.0239315798964492E-2</v>
+      </c>
       <c r="AM303" s="10"/>
       <c r="AN303" s="10"/>
       <c r="AO303" s="10"/>
@@ -63038,7 +63619,9 @@
       <c r="AK304" s="10">
         <v>3.0181442416004955E-2</v>
       </c>
-      <c r="AL304" s="10"/>
+      <c r="AL304" s="10">
+        <v>2.9609902754064388E-2</v>
+      </c>
       <c r="AM304" s="10"/>
       <c r="AN304" s="10"/>
       <c r="AO304" s="10"/>
@@ -63249,7 +63832,9 @@
       <c r="AK305" s="10">
         <v>7.064845833048472E-2</v>
       </c>
-      <c r="AL305" s="10"/>
+      <c r="AL305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
       <c r="AM305" s="10"/>
       <c r="AN305" s="10"/>
       <c r="AO305" s="10"/>
@@ -63460,7 +64045,9 @@
       <c r="AK306" s="10">
         <v>0.17153036548738831</v>
       </c>
-      <c r="AL306" s="10"/>
+      <c r="AL306" s="10">
+        <v>0.15212196681587176</v>
+      </c>
       <c r="AM306" s="10"/>
       <c r="AN306" s="10"/>
       <c r="AO306" s="10"/>
@@ -63671,7 +64258,9 @@
       <c r="AK307" s="10">
         <v>2.8658826601508869E-2</v>
       </c>
-      <c r="AL307" s="10"/>
+      <c r="AL307" s="10">
+        <v>2.8072230900840545E-2</v>
+      </c>
       <c r="AM307" s="10"/>
       <c r="AN307" s="10"/>
       <c r="AO307" s="10"/>
@@ -63882,7 +64471,9 @@
       <c r="AK308" s="10">
         <v>0.11444344971650255</v>
       </c>
-      <c r="AL308" s="10"/>
+      <c r="AL308" s="10">
+        <v>9.6701614613589948E-2</v>
+      </c>
       <c r="AM308" s="10"/>
       <c r="AN308" s="10"/>
       <c r="AO308" s="10"/>
@@ -64093,7 +64684,9 @@
       <c r="AK309" s="10">
         <v>0.11089068054850171</v>
       </c>
-      <c r="AL309" s="10"/>
+      <c r="AL309" s="10">
+        <v>0.10342533033366075</v>
+      </c>
       <c r="AM309" s="10"/>
       <c r="AN309" s="10"/>
       <c r="AO309" s="10"/>
@@ -64304,7 +64897,9 @@
       <c r="AK310" s="10">
         <v>0.25413693922528102</v>
       </c>
-      <c r="AL310" s="10"/>
+      <c r="AL310" s="10">
+        <v>0.19224657263675793</v>
+      </c>
       <c r="AM310" s="10"/>
       <c r="AN310" s="10"/>
       <c r="AO310" s="10"/>
@@ -64515,7 +65110,9 @@
       <c r="AK311" s="10">
         <v>2.4311921958730665E-4</v>
       </c>
-      <c r="AL311" s="10"/>
+      <c r="AL311" s="10">
+        <v>7.0909772379645908E-4</v>
+      </c>
       <c r="AM311" s="10"/>
       <c r="AN311" s="10"/>
       <c r="AO311" s="10"/>
@@ -64726,7 +65323,9 @@
       <c r="AK312" s="10">
         <v>0</v>
       </c>
-      <c r="AL312" s="10"/>
+      <c r="AL312" s="10">
+        <v>0</v>
+      </c>
       <c r="AM312" s="10"/>
       <c r="AN312" s="10"/>
       <c r="AO312" s="10"/>
@@ -64937,7 +65536,9 @@
       <c r="AK313" s="10">
         <v>4.3387685140420906E-2</v>
       </c>
-      <c r="AL313" s="10"/>
+      <c r="AL313" s="10">
+        <v>4.9110007471542261E-2</v>
+      </c>
       <c r="AM313" s="10"/>
       <c r="AN313" s="10"/>
       <c r="AO313" s="10"/>
@@ -65148,7 +65749,9 @@
       <c r="AK314" s="11">
         <v>6.6883295113464358E-2</v>
       </c>
-      <c r="AL314" s="11"/>
+      <c r="AL314" s="11">
+        <v>6.9421005663594881E-2</v>
+      </c>
       <c r="AM314" s="11"/>
       <c r="AN314" s="11"/>
       <c r="AO314" s="11"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve"> 03/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/09/2022</t>
+    <t xml:space="preserve"> 04/2022</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04/2022</t>
+    <t>Última actualización:  05/24/2022</t>
   </si>
 </sst>
 </file>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>450</v>
       </c>
       <c r="AL15" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM15" s="13"/>
       <c r="AN15" s="13"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="454">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1385,7 +1385,10 @@
     <t xml:space="preserve"> 04/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/24/2022</t>
+    <t>Última actualización:  06/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/2022</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EE314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD314"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2065,7 +2070,9 @@
       <c r="AL15" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="AM15" s="13"/>
+      <c r="AM15" s="13" t="s">
+        <v>453</v>
+      </c>
       <c r="AN15" s="13"/>
       <c r="AO15" s="13"/>
       <c r="AP15" s="13"/>
@@ -2278,7 +2285,9 @@
       <c r="AL16" s="10">
         <v>0.263251128864189</v>
       </c>
-      <c r="AM16" s="10"/>
+      <c r="AM16" s="10">
+        <v>0.249764692913653</v>
+      </c>
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
@@ -2491,7 +2500,9 @@
       <c r="AL17" s="10">
         <v>2.3596558480278862E-3</v>
       </c>
-      <c r="AM17" s="10"/>
+      <c r="AM17" s="10">
+        <v>-1.2992896646636387E-3</v>
+      </c>
       <c r="AN17" s="10"/>
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
@@ -2704,7 +2715,9 @@
       <c r="AL18" s="10">
         <v>0.10269774206953874</v>
       </c>
-      <c r="AM18" s="10"/>
+      <c r="AM18" s="10">
+        <v>0.13744718720569549</v>
+      </c>
       <c r="AN18" s="10"/>
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
@@ -2917,7 +2930,9 @@
       <c r="AL19" s="10">
         <v>0.10675581228895981</v>
       </c>
-      <c r="AM19" s="10"/>
+      <c r="AM19" s="10">
+        <v>0.21566855308725397</v>
+      </c>
       <c r="AN19" s="10"/>
       <c r="AO19" s="10"/>
       <c r="AP19" s="10"/>
@@ -3130,7 +3145,9 @@
       <c r="AL20" s="10">
         <v>7.5058142943694062E-2</v>
       </c>
-      <c r="AM20" s="10"/>
+      <c r="AM20" s="10">
+        <v>7.7695384915601684E-2</v>
+      </c>
       <c r="AN20" s="10"/>
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
@@ -3343,7 +3360,9 @@
       <c r="AL21" s="10">
         <v>0.10363921295490153</v>
       </c>
-      <c r="AM21" s="10"/>
+      <c r="AM21" s="10">
+        <v>0.11733252184497656</v>
+      </c>
       <c r="AN21" s="10"/>
       <c r="AO21" s="10"/>
       <c r="AP21" s="10"/>
@@ -3556,7 +3575,9 @@
       <c r="AL22" s="10">
         <v>4.6018847926645901E-2</v>
       </c>
-      <c r="AM22" s="10"/>
+      <c r="AM22" s="10">
+        <v>3.2909321444639872E-2</v>
+      </c>
       <c r="AN22" s="10"/>
       <c r="AO22" s="10"/>
       <c r="AP22" s="10"/>
@@ -3769,7 +3790,9 @@
       <c r="AL23" s="10">
         <v>0.14524482109227876</v>
       </c>
-      <c r="AM23" s="10"/>
+      <c r="AM23" s="10">
+        <v>0.10416183002894219</v>
+      </c>
       <c r="AN23" s="10"/>
       <c r="AO23" s="10"/>
       <c r="AP23" s="10"/>
@@ -3982,7 +4005,9 @@
       <c r="AL24" s="10">
         <v>9.2080614947354977E-2</v>
       </c>
-      <c r="AM24" s="10"/>
+      <c r="AM24" s="10">
+        <v>1.4730121018635467E-2</v>
+      </c>
       <c r="AN24" s="10"/>
       <c r="AO24" s="10"/>
       <c r="AP24" s="10"/>
@@ -4195,7 +4220,9 @@
       <c r="AL25" s="10">
         <v>0.41907331006029835</v>
       </c>
-      <c r="AM25" s="10"/>
+      <c r="AM25" s="10">
+        <v>0.40820234261084143</v>
+      </c>
       <c r="AN25" s="10"/>
       <c r="AO25" s="10"/>
       <c r="AP25" s="10"/>
@@ -4408,7 +4435,9 @@
       <c r="AL26" s="10">
         <v>0.20692347273727352</v>
       </c>
-      <c r="AM26" s="10"/>
+      <c r="AM26" s="10">
+        <v>0.18478373792291447</v>
+      </c>
       <c r="AN26" s="10"/>
       <c r="AO26" s="10"/>
       <c r="AP26" s="10"/>
@@ -4621,7 +4650,9 @@
       <c r="AL27" s="10">
         <v>0.17728053504860752</v>
       </c>
-      <c r="AM27" s="10"/>
+      <c r="AM27" s="10">
+        <v>0.11675638131620047</v>
+      </c>
       <c r="AN27" s="10"/>
       <c r="AO27" s="10"/>
       <c r="AP27" s="10"/>
@@ -4834,7 +4865,9 @@
       <c r="AL28" s="10">
         <v>0.10204098724487642</v>
       </c>
-      <c r="AM28" s="10"/>
+      <c r="AM28" s="10">
+        <v>0.10234820612854634</v>
+      </c>
       <c r="AN28" s="10"/>
       <c r="AO28" s="10"/>
       <c r="AP28" s="10"/>
@@ -5047,7 +5080,9 @@
       <c r="AL29" s="10">
         <v>7.1779282684640622E-2</v>
       </c>
-      <c r="AM29" s="10"/>
+      <c r="AM29" s="10">
+        <v>5.6886740977472927E-2</v>
+      </c>
       <c r="AN29" s="10"/>
       <c r="AO29" s="10"/>
       <c r="AP29" s="10"/>
@@ -5260,7 +5295,9 @@
       <c r="AL30" s="10">
         <v>5.9238464841824046E-2</v>
       </c>
-      <c r="AM30" s="10"/>
+      <c r="AM30" s="10">
+        <v>6.6344600348595684E-2</v>
+      </c>
       <c r="AN30" s="10"/>
       <c r="AO30" s="10"/>
       <c r="AP30" s="10"/>
@@ -5473,7 +5510,9 @@
       <c r="AL31" s="10">
         <v>0.10142635329970773</v>
       </c>
-      <c r="AM31" s="10"/>
+      <c r="AM31" s="10">
+        <v>5.4621732515790056E-2</v>
+      </c>
       <c r="AN31" s="10"/>
       <c r="AO31" s="10"/>
       <c r="AP31" s="10"/>
@@ -5686,7 +5725,9 @@
       <c r="AL32" s="10">
         <v>0.1219787528221643</v>
       </c>
-      <c r="AM32" s="10"/>
+      <c r="AM32" s="10">
+        <v>9.7352515535881645E-2</v>
+      </c>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
       <c r="AP32" s="10"/>
@@ -5899,7 +5940,9 @@
       <c r="AL33" s="10">
         <v>0.64981921004147836</v>
       </c>
-      <c r="AM33" s="10"/>
+      <c r="AM33" s="10">
+        <v>0.90437425074576949</v>
+      </c>
       <c r="AN33" s="10"/>
       <c r="AO33" s="10"/>
       <c r="AP33" s="10"/>
@@ -6112,7 +6155,9 @@
       <c r="AL34" s="10">
         <v>-7.4582048368771248E-2</v>
       </c>
-      <c r="AM34" s="10"/>
+      <c r="AM34" s="10">
+        <v>-8.3035727970816708E-2</v>
+      </c>
       <c r="AN34" s="10"/>
       <c r="AO34" s="10"/>
       <c r="AP34" s="10"/>
@@ -6325,7 +6370,9 @@
       <c r="AL35" s="10">
         <v>-1.2526441512094588E-2</v>
       </c>
-      <c r="AM35" s="10"/>
+      <c r="AM35" s="10">
+        <v>-9.6319525344748191E-2</v>
+      </c>
       <c r="AN35" s="10"/>
       <c r="AO35" s="10"/>
       <c r="AP35" s="10"/>
@@ -6538,7 +6585,9 @@
       <c r="AL36" s="10">
         <v>0.60434287116012619</v>
       </c>
-      <c r="AM36" s="10"/>
+      <c r="AM36" s="10">
+        <v>0.34728209762710227</v>
+      </c>
       <c r="AN36" s="10"/>
       <c r="AO36" s="10"/>
       <c r="AP36" s="10"/>
@@ -6751,7 +6800,9 @@
       <c r="AL37" s="10">
         <v>0.11810412480488441</v>
       </c>
-      <c r="AM37" s="10"/>
+      <c r="AM37" s="10">
+        <v>5.9760392297253384E-2</v>
+      </c>
       <c r="AN37" s="10"/>
       <c r="AO37" s="10"/>
       <c r="AP37" s="10"/>
@@ -6964,7 +7015,9 @@
       <c r="AL38" s="10">
         <v>-3.0358142883810224E-2</v>
       </c>
-      <c r="AM38" s="10"/>
+      <c r="AM38" s="10">
+        <v>0.22989732888725567</v>
+      </c>
       <c r="AN38" s="10"/>
       <c r="AO38" s="10"/>
       <c r="AP38" s="10"/>
@@ -7177,7 +7230,9 @@
       <c r="AL39" s="10">
         <v>0.12109375</v>
       </c>
-      <c r="AM39" s="10"/>
+      <c r="AM39" s="10">
+        <v>0.14611556230053324</v>
+      </c>
       <c r="AN39" s="10"/>
       <c r="AO39" s="10"/>
       <c r="AP39" s="10"/>
@@ -7390,7 +7445,9 @@
       <c r="AL40" s="10">
         <v>2.3512336719881954E-3</v>
       </c>
-      <c r="AM40" s="10"/>
+      <c r="AM40" s="10">
+        <v>5.9253332528192537E-2</v>
+      </c>
       <c r="AN40" s="10"/>
       <c r="AO40" s="10"/>
       <c r="AP40" s="10"/>
@@ -7603,7 +7660,9 @@
       <c r="AL41" s="10">
         <v>0.25809841862292493</v>
       </c>
-      <c r="AM41" s="10"/>
+      <c r="AM41" s="10">
+        <v>0.13774592693990395</v>
+      </c>
       <c r="AN41" s="10"/>
       <c r="AO41" s="10"/>
       <c r="AP41" s="10"/>
@@ -7816,7 +7875,9 @@
       <c r="AL42" s="10">
         <v>8.607622249993252E-2</v>
       </c>
-      <c r="AM42" s="10"/>
+      <c r="AM42" s="10">
+        <v>4.5488435071000755E-2</v>
+      </c>
       <c r="AN42" s="10"/>
       <c r="AO42" s="10"/>
       <c r="AP42" s="10"/>
@@ -8029,7 +8090,9 @@
       <c r="AL43" s="10">
         <v>6.9723575775267665E-2</v>
       </c>
-      <c r="AM43" s="10"/>
+      <c r="AM43" s="10">
+        <v>5.806647825474176E-2</v>
+      </c>
       <c r="AN43" s="10"/>
       <c r="AO43" s="10"/>
       <c r="AP43" s="10"/>
@@ -8242,7 +8305,9 @@
       <c r="AL44" s="10">
         <v>8.6117627168790456E-2</v>
       </c>
-      <c r="AM44" s="10"/>
+      <c r="AM44" s="10">
+        <v>-2.380092555439639E-2</v>
+      </c>
       <c r="AN44" s="10"/>
       <c r="AO44" s="10"/>
       <c r="AP44" s="10"/>
@@ -8455,7 +8520,9 @@
       <c r="AL45" s="10">
         <v>0.36593872024184404</v>
       </c>
-      <c r="AM45" s="10"/>
+      <c r="AM45" s="10">
+        <v>0.21948635659035487</v>
+      </c>
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
       <c r="AP45" s="10"/>
@@ -8668,7 +8735,9 @@
       <c r="AL46" s="10">
         <v>9.7501112564562398E-2</v>
       </c>
-      <c r="AM46" s="10"/>
+      <c r="AM46" s="10">
+        <v>6.3667379464500407E-3</v>
+      </c>
       <c r="AN46" s="10"/>
       <c r="AO46" s="10"/>
       <c r="AP46" s="10"/>
@@ -8881,7 +8950,9 @@
       <c r="AL47" s="10">
         <v>7.7788836184990773E-2</v>
       </c>
-      <c r="AM47" s="10"/>
+      <c r="AM47" s="10">
+        <v>2.6829469175966736E-2</v>
+      </c>
       <c r="AN47" s="10"/>
       <c r="AO47" s="10"/>
       <c r="AP47" s="10"/>
@@ -9094,7 +9165,9 @@
       <c r="AL48" s="10">
         <v>0.10828123530065747</v>
       </c>
-      <c r="AM48" s="10"/>
+      <c r="AM48" s="10">
+        <v>0.12714220542792454</v>
+      </c>
       <c r="AN48" s="10"/>
       <c r="AO48" s="10"/>
       <c r="AP48" s="10"/>
@@ -9307,7 +9380,9 @@
       <c r="AL49" s="10">
         <v>-5.4749172396231227E-3</v>
       </c>
-      <c r="AM49" s="10"/>
+      <c r="AM49" s="10">
+        <v>-6.4316297713401527E-3</v>
+      </c>
       <c r="AN49" s="10"/>
       <c r="AO49" s="10"/>
       <c r="AP49" s="10"/>
@@ -9520,7 +9595,9 @@
       <c r="AL50" s="10">
         <v>6.1349040782100239E-2</v>
       </c>
-      <c r="AM50" s="10"/>
+      <c r="AM50" s="10">
+        <v>7.2787930581120097E-2</v>
+      </c>
       <c r="AN50" s="10"/>
       <c r="AO50" s="10"/>
       <c r="AP50" s="10"/>
@@ -9733,7 +9810,9 @@
       <c r="AL51" s="10">
         <v>8.3879123116601173E-2</v>
       </c>
-      <c r="AM51" s="10"/>
+      <c r="AM51" s="10">
+        <v>4.984638332022806E-2</v>
+      </c>
       <c r="AN51" s="10"/>
       <c r="AO51" s="10"/>
       <c r="AP51" s="10"/>
@@ -9946,7 +10025,9 @@
       <c r="AL52" s="10">
         <v>1.9063856168629822E-2</v>
       </c>
-      <c r="AM52" s="10"/>
+      <c r="AM52" s="10">
+        <v>2.7843611578758143E-2</v>
+      </c>
       <c r="AN52" s="10"/>
       <c r="AO52" s="10"/>
       <c r="AP52" s="10"/>
@@ -10159,7 +10240,9 @@
       <c r="AL53" s="10">
         <v>0.11576783037052918</v>
       </c>
-      <c r="AM53" s="10"/>
+      <c r="AM53" s="10">
+        <v>0.1689601398361722</v>
+      </c>
       <c r="AN53" s="10"/>
       <c r="AO53" s="10"/>
       <c r="AP53" s="10"/>
@@ -10372,7 +10455,9 @@
       <c r="AL54" s="10">
         <v>0.10016851921380976</v>
       </c>
-      <c r="AM54" s="10"/>
+      <c r="AM54" s="10">
+        <v>0.11835897616448965</v>
+      </c>
       <c r="AN54" s="10"/>
       <c r="AO54" s="10"/>
       <c r="AP54" s="10"/>
@@ -10585,7 +10670,9 @@
       <c r="AL55" s="10">
         <v>0.23483831263287458</v>
       </c>
-      <c r="AM55" s="10"/>
+      <c r="AM55" s="10">
+        <v>0.22386241023923792</v>
+      </c>
       <c r="AN55" s="10"/>
       <c r="AO55" s="10"/>
       <c r="AP55" s="10"/>
@@ -10798,7 +10885,9 @@
       <c r="AL56" s="10">
         <v>1.2470240700218818</v>
       </c>
-      <c r="AM56" s="10"/>
+      <c r="AM56" s="10">
+        <v>0.81731909845788864</v>
+      </c>
       <c r="AN56" s="10"/>
       <c r="AO56" s="10"/>
       <c r="AP56" s="10"/>
@@ -11011,7 +11100,9 @@
       <c r="AL57" s="10">
         <v>0.26836071573408238</v>
       </c>
-      <c r="AM57" s="10"/>
+      <c r="AM57" s="10">
+        <v>9.5556856622430297E-2</v>
+      </c>
       <c r="AN57" s="10"/>
       <c r="AO57" s="10"/>
       <c r="AP57" s="10"/>
@@ -11224,7 +11315,9 @@
       <c r="AL58" s="10">
         <v>0.691160169093471</v>
       </c>
-      <c r="AM58" s="10"/>
+      <c r="AM58" s="10">
+        <v>0.55094596015562436</v>
+      </c>
       <c r="AN58" s="10"/>
       <c r="AO58" s="10"/>
       <c r="AP58" s="10"/>
@@ -11437,7 +11530,9 @@
       <c r="AL59" s="10">
         <v>0.40878603647774092</v>
       </c>
-      <c r="AM59" s="10"/>
+      <c r="AM59" s="10">
+        <v>7.7970686106448195E-2</v>
+      </c>
       <c r="AN59" s="10"/>
       <c r="AO59" s="10"/>
       <c r="AP59" s="10"/>
@@ -11650,7 +11745,9 @@
       <c r="AL60" s="10">
         <v>0.12898215288083725</v>
       </c>
-      <c r="AM60" s="10"/>
+      <c r="AM60" s="10">
+        <v>0.23925838728663895</v>
+      </c>
       <c r="AN60" s="10"/>
       <c r="AO60" s="10"/>
       <c r="AP60" s="10"/>
@@ -11863,7 +11960,9 @@
       <c r="AL61" s="10">
         <v>0.39502583979328154</v>
       </c>
-      <c r="AM61" s="10"/>
+      <c r="AM61" s="10">
+        <v>0.1598049973614335</v>
+      </c>
       <c r="AN61" s="10"/>
       <c r="AO61" s="10"/>
       <c r="AP61" s="10"/>
@@ -12076,7 +12175,9 @@
       <c r="AL62" s="10">
         <v>0.20409888435641621</v>
       </c>
-      <c r="AM62" s="10"/>
+      <c r="AM62" s="10">
+        <v>7.7417596360799701E-2</v>
+      </c>
       <c r="AN62" s="10"/>
       <c r="AO62" s="10"/>
       <c r="AP62" s="10"/>
@@ -12289,7 +12390,9 @@
       <c r="AL63" s="10">
         <v>0.17816838995568696</v>
       </c>
-      <c r="AM63" s="10"/>
+      <c r="AM63" s="10">
+        <v>0.19041937079828886</v>
+      </c>
       <c r="AN63" s="10"/>
       <c r="AO63" s="10"/>
       <c r="AP63" s="10"/>
@@ -12502,7 +12605,9 @@
       <c r="AL64" s="10">
         <v>0.14038667936450344</v>
       </c>
-      <c r="AM64" s="10"/>
+      <c r="AM64" s="10">
+        <v>0.12057470397465875</v>
+      </c>
       <c r="AN64" s="10"/>
       <c r="AO64" s="10"/>
       <c r="AP64" s="10"/>
@@ -12715,7 +12820,9 @@
       <c r="AL65" s="10">
         <v>0.21884959570233686</v>
       </c>
-      <c r="AM65" s="10"/>
+      <c r="AM65" s="10">
+        <v>0.10951456801673953</v>
+      </c>
       <c r="AN65" s="10"/>
       <c r="AO65" s="10"/>
       <c r="AP65" s="10"/>
@@ -12928,7 +13035,9 @@
       <c r="AL66" s="10">
         <v>6.5173625723677908E-3</v>
       </c>
-      <c r="AM66" s="10"/>
+      <c r="AM66" s="10">
+        <v>7.5462345540593168E-2</v>
+      </c>
       <c r="AN66" s="10"/>
       <c r="AO66" s="10"/>
       <c r="AP66" s="10"/>
@@ -13141,7 +13250,9 @@
       <c r="AL67" s="10">
         <v>0.28075333027101523</v>
       </c>
-      <c r="AM67" s="10"/>
+      <c r="AM67" s="10">
+        <v>0.147802626446496</v>
+      </c>
       <c r="AN67" s="10"/>
       <c r="AO67" s="10"/>
       <c r="AP67" s="10"/>
@@ -13354,7 +13465,9 @@
       <c r="AL68" s="10">
         <v>1.5600587915330921E-2</v>
       </c>
-      <c r="AM68" s="10"/>
+      <c r="AM68" s="10">
+        <v>-0.21100832733248398</v>
+      </c>
       <c r="AN68" s="10"/>
       <c r="AO68" s="10"/>
       <c r="AP68" s="10"/>
@@ -13567,7 +13680,9 @@
       <c r="AL69" s="10">
         <v>-1.7550611273202454E-2</v>
       </c>
-      <c r="AM69" s="10"/>
+      <c r="AM69" s="10">
+        <v>-2.719181046649477E-3</v>
+      </c>
       <c r="AN69" s="10"/>
       <c r="AO69" s="10"/>
       <c r="AP69" s="10"/>
@@ -13780,7 +13895,9 @@
       <c r="AL70" s="10">
         <v>5.8960541639525355E-2</v>
       </c>
-      <c r="AM70" s="10"/>
+      <c r="AM70" s="10">
+        <v>5.5856740653440706E-2</v>
+      </c>
       <c r="AN70" s="10"/>
       <c r="AO70" s="10"/>
       <c r="AP70" s="10"/>
@@ -13993,7 +14110,9 @@
       <c r="AL71" s="10">
         <v>-0.13656195759452738</v>
       </c>
-      <c r="AM71" s="10"/>
+      <c r="AM71" s="10">
+        <v>-0.14959177398968337</v>
+      </c>
       <c r="AN71" s="10"/>
       <c r="AO71" s="10"/>
       <c r="AP71" s="10"/>
@@ -14206,7 +14325,9 @@
       <c r="AL72" s="10">
         <v>0.1243681341955889</v>
       </c>
-      <c r="AM72" s="10"/>
+      <c r="AM72" s="10">
+        <v>0.12806652026202681</v>
+      </c>
       <c r="AN72" s="10"/>
       <c r="AO72" s="10"/>
       <c r="AP72" s="10"/>
@@ -14419,7 +14540,9 @@
       <c r="AL73" s="10">
         <v>0.12042973488130304</v>
       </c>
-      <c r="AM73" s="10"/>
+      <c r="AM73" s="10">
+        <v>0.12408992656985207</v>
+      </c>
       <c r="AN73" s="10"/>
       <c r="AO73" s="10"/>
       <c r="AP73" s="10"/>
@@ -14632,7 +14755,9 @@
       <c r="AL74" s="10">
         <v>9.7352921821531879E-2</v>
       </c>
-      <c r="AM74" s="10"/>
+      <c r="AM74" s="10">
+        <v>8.7917521093882955E-2</v>
+      </c>
       <c r="AN74" s="10"/>
       <c r="AO74" s="10"/>
       <c r="AP74" s="10"/>
@@ -14845,7 +14970,9 @@
       <c r="AL75" s="10">
         <v>7.5505555373471811E-2</v>
       </c>
-      <c r="AM75" s="10"/>
+      <c r="AM75" s="10">
+        <v>6.9661717310299576E-2</v>
+      </c>
       <c r="AN75" s="10"/>
       <c r="AO75" s="10"/>
       <c r="AP75" s="10"/>
@@ -15058,7 +15185,9 @@
       <c r="AL76" s="10">
         <v>8.6080089477876154E-2</v>
       </c>
-      <c r="AM76" s="10"/>
+      <c r="AM76" s="10">
+        <v>9.1664629674896192E-2</v>
+      </c>
       <c r="AN76" s="10"/>
       <c r="AO76" s="10"/>
       <c r="AP76" s="10"/>
@@ -15271,7 +15400,9 @@
       <c r="AL77" s="10">
         <v>0.13674647804698159</v>
       </c>
-      <c r="AM77" s="10"/>
+      <c r="AM77" s="10">
+        <v>0.15001964045432126</v>
+      </c>
       <c r="AN77" s="10"/>
       <c r="AO77" s="10"/>
       <c r="AP77" s="10"/>
@@ -15484,7 +15615,9 @@
       <c r="AL78" s="10">
         <v>0.10565711246755516</v>
       </c>
-      <c r="AM78" s="10"/>
+      <c r="AM78" s="10">
+        <v>8.4266675009385672E-2</v>
+      </c>
       <c r="AN78" s="10"/>
       <c r="AO78" s="10"/>
       <c r="AP78" s="10"/>
@@ -15697,7 +15830,9 @@
       <c r="AL79" s="10">
         <v>0.13115211582045117</v>
       </c>
-      <c r="AM79" s="10"/>
+      <c r="AM79" s="10">
+        <v>0.15226921420064365</v>
+      </c>
       <c r="AN79" s="10"/>
       <c r="AO79" s="10"/>
       <c r="AP79" s="10"/>
@@ -15910,7 +16045,9 @@
       <c r="AL80" s="10">
         <v>8.5144711004866425E-2</v>
       </c>
-      <c r="AM80" s="10"/>
+      <c r="AM80" s="10">
+        <v>9.7932810015396887E-2</v>
+      </c>
       <c r="AN80" s="10"/>
       <c r="AO80" s="10"/>
       <c r="AP80" s="10"/>
@@ -16123,7 +16260,9 @@
       <c r="AL81" s="10">
         <v>8.5116085897863902E-2</v>
       </c>
-      <c r="AM81" s="10"/>
+      <c r="AM81" s="10">
+        <v>9.9441812848866995E-2</v>
+      </c>
       <c r="AN81" s="10"/>
       <c r="AO81" s="10"/>
       <c r="AP81" s="10"/>
@@ -16336,7 +16475,9 @@
       <c r="AL82" s="10">
         <v>9.1513388163106502E-2</v>
       </c>
-      <c r="AM82" s="10"/>
+      <c r="AM82" s="10">
+        <v>0.14617027092922763</v>
+      </c>
       <c r="AN82" s="10"/>
       <c r="AO82" s="10"/>
       <c r="AP82" s="10"/>
@@ -16549,7 +16690,9 @@
       <c r="AL83" s="10">
         <v>5.2636185918944811E-2</v>
       </c>
-      <c r="AM83" s="10"/>
+      <c r="AM83" s="10">
+        <v>5.2659212445308912E-2</v>
+      </c>
       <c r="AN83" s="10"/>
       <c r="AO83" s="10"/>
       <c r="AP83" s="10"/>
@@ -16762,7 +16905,9 @@
       <c r="AL84" s="10">
         <v>0.13754290374326761</v>
       </c>
-      <c r="AM84" s="10"/>
+      <c r="AM84" s="10">
+        <v>0.13686053158045164</v>
+      </c>
       <c r="AN84" s="10"/>
       <c r="AO84" s="10"/>
       <c r="AP84" s="10"/>
@@ -16975,7 +17120,9 @@
       <c r="AL85" s="10">
         <v>4.0947871932984103E-2</v>
       </c>
-      <c r="AM85" s="10"/>
+      <c r="AM85" s="10">
+        <v>4.5905239786144358E-2</v>
+      </c>
       <c r="AN85" s="10"/>
       <c r="AO85" s="10"/>
       <c r="AP85" s="10"/>
@@ -17188,7 +17335,9 @@
       <c r="AL86" s="10">
         <v>4.2380485186955585E-2</v>
       </c>
-      <c r="AM86" s="10"/>
+      <c r="AM86" s="10">
+        <v>4.8788685999512582E-2</v>
+      </c>
       <c r="AN86" s="10"/>
       <c r="AO86" s="10"/>
       <c r="AP86" s="10"/>
@@ -17401,7 +17550,9 @@
       <c r="AL87" s="10">
         <v>9.4333981163103431E-2</v>
       </c>
-      <c r="AM87" s="10"/>
+      <c r="AM87" s="10">
+        <v>0.10330393182837505</v>
+      </c>
       <c r="AN87" s="10"/>
       <c r="AO87" s="10"/>
       <c r="AP87" s="10"/>
@@ -17614,7 +17765,9 @@
       <c r="AL88" s="10">
         <v>0.14156940391829931</v>
       </c>
-      <c r="AM88" s="10"/>
+      <c r="AM88" s="10">
+        <v>9.5066363666304277E-2</v>
+      </c>
       <c r="AN88" s="10"/>
       <c r="AO88" s="10"/>
       <c r="AP88" s="10"/>
@@ -17827,7 +17980,9 @@
       <c r="AL89" s="10">
         <v>0.13306200496460741</v>
       </c>
-      <c r="AM89" s="10"/>
+      <c r="AM89" s="10">
+        <v>0.1252636238185747</v>
+      </c>
       <c r="AN89" s="10"/>
       <c r="AO89" s="10"/>
       <c r="AP89" s="10"/>
@@ -18040,7 +18195,9 @@
       <c r="AL90" s="10">
         <v>8.4297736957037239E-2</v>
       </c>
-      <c r="AM90" s="10"/>
+      <c r="AM90" s="10">
+        <v>7.2291302376789046E-2</v>
+      </c>
       <c r="AN90" s="10"/>
       <c r="AO90" s="10"/>
       <c r="AP90" s="10"/>
@@ -18253,7 +18410,9 @@
       <c r="AL91" s="10">
         <v>0.12605793202991711</v>
       </c>
-      <c r="AM91" s="10"/>
+      <c r="AM91" s="10">
+        <v>0.13410658102799022</v>
+      </c>
       <c r="AN91" s="10"/>
       <c r="AO91" s="10"/>
       <c r="AP91" s="10"/>
@@ -18466,7 +18625,9 @@
       <c r="AL92" s="10">
         <v>1.869980247300318E-2</v>
       </c>
-      <c r="AM92" s="10"/>
+      <c r="AM92" s="10">
+        <v>5.5710475266731452E-2</v>
+      </c>
       <c r="AN92" s="10"/>
       <c r="AO92" s="10"/>
       <c r="AP92" s="10"/>
@@ -18679,7 +18840,9 @@
       <c r="AL93" s="10">
         <v>8.6533242876526417E-2</v>
       </c>
-      <c r="AM93" s="10"/>
+      <c r="AM93" s="10">
+        <v>7.7200819534477549E-2</v>
+      </c>
       <c r="AN93" s="10"/>
       <c r="AO93" s="10"/>
       <c r="AP93" s="10"/>
@@ -18892,7 +19055,9 @@
       <c r="AL94" s="10">
         <v>4.1219249876231379E-2</v>
       </c>
-      <c r="AM94" s="10"/>
+      <c r="AM94" s="10">
+        <v>4.2940976356523164E-2</v>
+      </c>
       <c r="AN94" s="10"/>
       <c r="AO94" s="10"/>
       <c r="AP94" s="10"/>
@@ -19105,7 +19270,9 @@
       <c r="AL95" s="10">
         <v>4.8467277998418545E-2</v>
       </c>
-      <c r="AM95" s="10"/>
+      <c r="AM95" s="10">
+        <v>3.580937405071194E-2</v>
+      </c>
       <c r="AN95" s="10"/>
       <c r="AO95" s="10"/>
       <c r="AP95" s="10"/>
@@ -19318,7 +19485,9 @@
       <c r="AL96" s="10">
         <v>3.9742830967302467E-2</v>
       </c>
-      <c r="AM96" s="10"/>
+      <c r="AM96" s="10">
+        <v>5.3405359944362685E-2</v>
+      </c>
       <c r="AN96" s="10"/>
       <c r="AO96" s="10"/>
       <c r="AP96" s="10"/>
@@ -19531,7 +19700,9 @@
       <c r="AL97" s="10">
         <v>0.12011650095410276</v>
       </c>
-      <c r="AM97" s="10"/>
+      <c r="AM97" s="10">
+        <v>0.13269622962700756</v>
+      </c>
       <c r="AN97" s="10"/>
       <c r="AO97" s="10"/>
       <c r="AP97" s="10"/>
@@ -19744,7 +19915,9 @@
       <c r="AL98" s="10">
         <v>0.10292077334726746</v>
       </c>
-      <c r="AM98" s="10"/>
+      <c r="AM98" s="10">
+        <v>0.10955277987150502</v>
+      </c>
       <c r="AN98" s="10"/>
       <c r="AO98" s="10"/>
       <c r="AP98" s="10"/>
@@ -19957,7 +20130,9 @@
       <c r="AL99" s="10">
         <v>5.574042590906525E-2</v>
       </c>
-      <c r="AM99" s="10"/>
+      <c r="AM99" s="10">
+        <v>9.3371545547594526E-2</v>
+      </c>
       <c r="AN99" s="10"/>
       <c r="AO99" s="10"/>
       <c r="AP99" s="10"/>
@@ -20170,7 +20345,9 @@
       <c r="AL100" s="10">
         <v>9.9261846046904134E-2</v>
       </c>
-      <c r="AM100" s="10"/>
+      <c r="AM100" s="10">
+        <v>0.11242628229190132</v>
+      </c>
       <c r="AN100" s="10"/>
       <c r="AO100" s="10"/>
       <c r="AP100" s="10"/>
@@ -20383,7 +20560,9 @@
       <c r="AL101" s="10">
         <v>3.1609981667442E-2</v>
       </c>
-      <c r="AM101" s="10"/>
+      <c r="AM101" s="10">
+        <v>4.711835037255252E-2</v>
+      </c>
       <c r="AN101" s="10"/>
       <c r="AO101" s="10"/>
       <c r="AP101" s="10"/>
@@ -20596,7 +20775,9 @@
       <c r="AL102" s="10">
         <v>8.5555016965584096E-2</v>
       </c>
-      <c r="AM102" s="10"/>
+      <c r="AM102" s="10">
+        <v>6.032402908554757E-2</v>
+      </c>
       <c r="AN102" s="10"/>
       <c r="AO102" s="10"/>
       <c r="AP102" s="10"/>
@@ -20809,7 +20990,9 @@
       <c r="AL103" s="10">
         <v>9.9803153066066796E-2</v>
       </c>
-      <c r="AM103" s="10"/>
+      <c r="AM103" s="10">
+        <v>0.1033225212588762</v>
+      </c>
       <c r="AN103" s="10"/>
       <c r="AO103" s="10"/>
       <c r="AP103" s="10"/>
@@ -21022,7 +21205,9 @@
       <c r="AL104" s="10">
         <v>0.14583733527988008</v>
       </c>
-      <c r="AM104" s="10"/>
+      <c r="AM104" s="10">
+        <v>0.17176345231752799</v>
+      </c>
       <c r="AN104" s="10"/>
       <c r="AO104" s="10"/>
       <c r="AP104" s="10"/>
@@ -21235,7 +21420,9 @@
       <c r="AL105" s="10">
         <v>9.0699049796948428E-2</v>
       </c>
-      <c r="AM105" s="10"/>
+      <c r="AM105" s="10">
+        <v>0.10753760097473752</v>
+      </c>
       <c r="AN105" s="10"/>
       <c r="AO105" s="10"/>
       <c r="AP105" s="10"/>
@@ -21448,7 +21635,9 @@
       <c r="AL106" s="10">
         <v>0.13299901115976831</v>
       </c>
-      <c r="AM106" s="10"/>
+      <c r="AM106" s="10">
+        <v>0.13225534931112404</v>
+      </c>
       <c r="AN106" s="10"/>
       <c r="AO106" s="10"/>
       <c r="AP106" s="10"/>
@@ -21661,7 +21850,9 @@
       <c r="AL107" s="10">
         <v>0.24490420413783731</v>
       </c>
-      <c r="AM107" s="10"/>
+      <c r="AM107" s="10">
+        <v>0.27194294748652736</v>
+      </c>
       <c r="AN107" s="10"/>
       <c r="AO107" s="10"/>
       <c r="AP107" s="10"/>
@@ -21874,7 +22065,9 @@
       <c r="AL108" s="10">
         <v>0.11343741539572227</v>
       </c>
-      <c r="AM108" s="10"/>
+      <c r="AM108" s="10">
+        <v>0.15830651151275066</v>
+      </c>
       <c r="AN108" s="10"/>
       <c r="AO108" s="10"/>
       <c r="AP108" s="10"/>
@@ -22087,7 +22280,9 @@
       <c r="AL109" s="10">
         <v>0.14955479633923985</v>
       </c>
-      <c r="AM109" s="10"/>
+      <c r="AM109" s="10">
+        <v>0.19023012203574208</v>
+      </c>
       <c r="AN109" s="10"/>
       <c r="AO109" s="10"/>
       <c r="AP109" s="10"/>
@@ -22300,7 +22495,9 @@
       <c r="AL110" s="10">
         <v>8.3257982108839279E-2</v>
       </c>
-      <c r="AM110" s="10"/>
+      <c r="AM110" s="10">
+        <v>9.1372896676401139E-2</v>
+      </c>
       <c r="AN110" s="10"/>
       <c r="AO110" s="10"/>
       <c r="AP110" s="10"/>
@@ -22513,7 +22710,9 @@
       <c r="AL111" s="10">
         <v>0.10933854088428219</v>
       </c>
-      <c r="AM111" s="10"/>
+      <c r="AM111" s="10">
+        <v>0.11001863378662335</v>
+      </c>
       <c r="AN111" s="10"/>
       <c r="AO111" s="10"/>
       <c r="AP111" s="10"/>
@@ -22726,7 +22925,9 @@
       <c r="AL112" s="10">
         <v>9.5880339506424939E-2</v>
       </c>
-      <c r="AM112" s="10"/>
+      <c r="AM112" s="10">
+        <v>7.6191628357125785E-2</v>
+      </c>
       <c r="AN112" s="10"/>
       <c r="AO112" s="10"/>
       <c r="AP112" s="10"/>
@@ -22939,7 +23140,9 @@
       <c r="AL113" s="10">
         <v>0.13709481656498301</v>
       </c>
-      <c r="AM113" s="10"/>
+      <c r="AM113" s="10">
+        <v>0.1449356687642791</v>
+      </c>
       <c r="AN113" s="10"/>
       <c r="AO113" s="10"/>
       <c r="AP113" s="10"/>
@@ -23152,7 +23355,9 @@
       <c r="AL114" s="10">
         <v>-1.9528596658062725E-2</v>
       </c>
-      <c r="AM114" s="10"/>
+      <c r="AM114" s="10">
+        <v>1.178010471204205E-2</v>
+      </c>
       <c r="AN114" s="10"/>
       <c r="AO114" s="10"/>
       <c r="AP114" s="10"/>
@@ -23365,7 +23570,9 @@
       <c r="AL115" s="10">
         <v>0.19006477613747408</v>
       </c>
-      <c r="AM115" s="10"/>
+      <c r="AM115" s="10">
+        <v>0.18151404275502259</v>
+      </c>
       <c r="AN115" s="10"/>
       <c r="AO115" s="10"/>
       <c r="AP115" s="10"/>
@@ -23578,7 +23785,9 @@
       <c r="AL116" s="10">
         <v>8.5235059549598091E-2</v>
       </c>
-      <c r="AM116" s="10"/>
+      <c r="AM116" s="10">
+        <v>8.6123857227923928E-2</v>
+      </c>
       <c r="AN116" s="10"/>
       <c r="AO116" s="10"/>
       <c r="AP116" s="10"/>
@@ -23791,7 +24000,9 @@
       <c r="AL117" s="10">
         <v>0.16521055224955461</v>
       </c>
-      <c r="AM117" s="10"/>
+      <c r="AM117" s="10">
+        <v>9.3467381590705889E-2</v>
+      </c>
       <c r="AN117" s="10"/>
       <c r="AO117" s="10"/>
       <c r="AP117" s="10"/>
@@ -24004,7 +24215,9 @@
       <c r="AL118" s="10">
         <v>0.16793392148957897</v>
       </c>
-      <c r="AM118" s="10"/>
+      <c r="AM118" s="10">
+        <v>0.10995188978386849</v>
+      </c>
       <c r="AN118" s="10"/>
       <c r="AO118" s="10"/>
       <c r="AP118" s="10"/>
@@ -24217,7 +24430,9 @@
       <c r="AL119" s="10">
         <v>0.21166145811036419</v>
       </c>
-      <c r="AM119" s="10"/>
+      <c r="AM119" s="10">
+        <v>0.21327258588044362</v>
+      </c>
       <c r="AN119" s="10"/>
       <c r="AO119" s="10"/>
       <c r="AP119" s="10"/>
@@ -24430,7 +24645,9 @@
       <c r="AL120" s="10">
         <v>3.17981096624671E-2</v>
       </c>
-      <c r="AM120" s="10"/>
+      <c r="AM120" s="10">
+        <v>5.9052995775628059E-2</v>
+      </c>
       <c r="AN120" s="10"/>
       <c r="AO120" s="10"/>
       <c r="AP120" s="10"/>
@@ -24643,7 +24860,9 @@
       <c r="AL121" s="10">
         <v>0.1164833575837545</v>
       </c>
-      <c r="AM121" s="10"/>
+      <c r="AM121" s="10">
+        <v>0.14655375846357721</v>
+      </c>
       <c r="AN121" s="10"/>
       <c r="AO121" s="10"/>
       <c r="AP121" s="10"/>
@@ -24856,7 +25075,9 @@
       <c r="AL122" s="10">
         <v>5.6485191295466919E-2</v>
       </c>
-      <c r="AM122" s="10"/>
+      <c r="AM122" s="10">
+        <v>6.1761672401390078E-2</v>
+      </c>
       <c r="AN122" s="10"/>
       <c r="AO122" s="10"/>
       <c r="AP122" s="10"/>
@@ -25069,7 +25290,9 @@
       <c r="AL123" s="10">
         <v>8.5311526340692501E-2</v>
       </c>
-      <c r="AM123" s="10"/>
+      <c r="AM123" s="10">
+        <v>8.0964563618175944E-2</v>
+      </c>
       <c r="AN123" s="10"/>
       <c r="AO123" s="10"/>
       <c r="AP123" s="10"/>
@@ -25282,7 +25505,9 @@
       <c r="AL124" s="10">
         <v>5.2959360353908469E-2</v>
       </c>
-      <c r="AM124" s="10"/>
+      <c r="AM124" s="10">
+        <v>3.4977264777894312E-2</v>
+      </c>
       <c r="AN124" s="10"/>
       <c r="AO124" s="10"/>
       <c r="AP124" s="10"/>
@@ -25495,7 +25720,9 @@
       <c r="AL125" s="10">
         <v>8.8766816535749804E-2</v>
       </c>
-      <c r="AM125" s="10"/>
+      <c r="AM125" s="10">
+        <v>8.3979981516033808E-2</v>
+      </c>
       <c r="AN125" s="10"/>
       <c r="AO125" s="10"/>
       <c r="AP125" s="10"/>
@@ -25708,7 +25935,9 @@
       <c r="AL126" s="10">
         <v>0.12760722383931289</v>
       </c>
-      <c r="AM126" s="10"/>
+      <c r="AM126" s="10">
+        <v>0.15345685999491465</v>
+      </c>
       <c r="AN126" s="10"/>
       <c r="AO126" s="10"/>
       <c r="AP126" s="10"/>
@@ -25921,7 +26150,9 @@
       <c r="AL127" s="10">
         <v>9.8486243908973536E-2</v>
       </c>
-      <c r="AM127" s="10"/>
+      <c r="AM127" s="10">
+        <v>3.0047057649777997E-2</v>
+      </c>
       <c r="AN127" s="10"/>
       <c r="AO127" s="10"/>
       <c r="AP127" s="10"/>
@@ -26134,7 +26365,9 @@
       <c r="AL128" s="10">
         <v>5.4210137059591768E-2</v>
       </c>
-      <c r="AM128" s="10"/>
+      <c r="AM128" s="10">
+        <v>5.4210137059591768E-2</v>
+      </c>
       <c r="AN128" s="10"/>
       <c r="AO128" s="10"/>
       <c r="AP128" s="10"/>
@@ -26347,7 +26580,9 @@
       <c r="AL129" s="10">
         <v>2.3359887100068644E-2</v>
       </c>
-      <c r="AM129" s="10"/>
+      <c r="AM129" s="10">
+        <v>3.4755719324883527E-2</v>
+      </c>
       <c r="AN129" s="10"/>
       <c r="AO129" s="10"/>
       <c r="AP129" s="10"/>
@@ -26560,7 +26795,9 @@
       <c r="AL130" s="10">
         <v>2.4462960888559593E-2</v>
       </c>
-      <c r="AM130" s="10"/>
+      <c r="AM130" s="10">
+        <v>7.1717875293451083E-3</v>
+      </c>
       <c r="AN130" s="10"/>
       <c r="AO130" s="10"/>
       <c r="AP130" s="10"/>
@@ -26773,7 +27010,9 @@
       <c r="AL131" s="10">
         <v>6.6634923154246906E-2</v>
       </c>
-      <c r="AM131" s="10"/>
+      <c r="AM131" s="10">
+        <v>4.4847814630184724E-2</v>
+      </c>
       <c r="AN131" s="10"/>
       <c r="AO131" s="10"/>
       <c r="AP131" s="10"/>
@@ -26986,7 +27225,9 @@
       <c r="AL132" s="10">
         <v>1.7282246419587199E-2</v>
       </c>
-      <c r="AM132" s="10"/>
+      <c r="AM132" s="10">
+        <v>1.7282246419587199E-2</v>
+      </c>
       <c r="AN132" s="10"/>
       <c r="AO132" s="10"/>
       <c r="AP132" s="10"/>
@@ -27199,7 +27440,9 @@
       <c r="AL133" s="10">
         <v>4.9580190165514404E-2</v>
       </c>
-      <c r="AM133" s="10"/>
+      <c r="AM133" s="10">
+        <v>4.9580190165514404E-2</v>
+      </c>
       <c r="AN133" s="10"/>
       <c r="AO133" s="10"/>
       <c r="AP133" s="10"/>
@@ -27412,7 +27655,9 @@
       <c r="AL134" s="10">
         <v>2.0827619157162802E-2</v>
       </c>
-      <c r="AM134" s="10"/>
+      <c r="AM134" s="10">
+        <v>2.0827619157162802E-2</v>
+      </c>
       <c r="AN134" s="10"/>
       <c r="AO134" s="10"/>
       <c r="AP134" s="10"/>
@@ -27625,7 +27870,9 @@
       <c r="AL135" s="10">
         <v>4.4741280902322433E-2</v>
       </c>
-      <c r="AM135" s="10"/>
+      <c r="AM135" s="10">
+        <v>4.4741280902322433E-2</v>
+      </c>
       <c r="AN135" s="10"/>
       <c r="AO135" s="10"/>
       <c r="AP135" s="10"/>
@@ -27838,7 +28085,9 @@
       <c r="AL136" s="10">
         <v>3.4548695230843807E-2</v>
       </c>
-      <c r="AM136" s="10"/>
+      <c r="AM136" s="10">
+        <v>3.4548695230843807E-2</v>
+      </c>
       <c r="AN136" s="10"/>
       <c r="AO136" s="10"/>
       <c r="AP136" s="10"/>
@@ -28051,7 +28300,9 @@
       <c r="AL137" s="10">
         <v>2.382803453865745E-2</v>
       </c>
-      <c r="AM137" s="10"/>
+      <c r="AM137" s="10">
+        <v>2.382803453865745E-2</v>
+      </c>
       <c r="AN137" s="10"/>
       <c r="AO137" s="10"/>
       <c r="AP137" s="10"/>
@@ -28264,7 +28515,9 @@
       <c r="AL138" s="10">
         <v>1.3508958665957138E-2</v>
       </c>
-      <c r="AM138" s="10"/>
+      <c r="AM138" s="10">
+        <v>1.3508958665957138E-2</v>
+      </c>
       <c r="AN138" s="10"/>
       <c r="AO138" s="10"/>
       <c r="AP138" s="10"/>
@@ -28477,7 +28730,9 @@
       <c r="AL139" s="10">
         <v>3.572511189172789E-2</v>
       </c>
-      <c r="AM139" s="10"/>
+      <c r="AM139" s="10">
+        <v>3.572511189172789E-2</v>
+      </c>
       <c r="AN139" s="10"/>
       <c r="AO139" s="10"/>
       <c r="AP139" s="10"/>
@@ -28690,7 +28945,9 @@
       <c r="AL140" s="10">
         <v>4.6254702320802421E-2</v>
       </c>
-      <c r="AM140" s="10"/>
+      <c r="AM140" s="10">
+        <v>5.4815578097417994E-2</v>
+      </c>
       <c r="AN140" s="10"/>
       <c r="AO140" s="10"/>
       <c r="AP140" s="10"/>
@@ -28903,7 +29160,9 @@
       <c r="AL141" s="10">
         <v>-7.7135662961370755E-2</v>
       </c>
-      <c r="AM141" s="10"/>
+      <c r="AM141" s="10">
+        <v>-2.0648598398169349E-2</v>
+      </c>
       <c r="AN141" s="10"/>
       <c r="AO141" s="10"/>
       <c r="AP141" s="10"/>
@@ -29116,7 +29375,9 @@
       <c r="AL142" s="10">
         <v>-2.7746258958618264E-2</v>
       </c>
-      <c r="AM142" s="10"/>
+      <c r="AM142" s="10">
+        <v>-1.1025835044859988E-2</v>
+      </c>
       <c r="AN142" s="10"/>
       <c r="AO142" s="10"/>
       <c r="AP142" s="10"/>
@@ -29329,7 +29590,9 @@
       <c r="AL143" s="10">
         <v>4.7277921341576601E-2</v>
       </c>
-      <c r="AM143" s="10"/>
+      <c r="AM143" s="10">
+        <v>7.1466267921540982E-2</v>
+      </c>
       <c r="AN143" s="10"/>
       <c r="AO143" s="10"/>
       <c r="AP143" s="10"/>
@@ -29542,7 +29805,9 @@
       <c r="AL144" s="10">
         <v>0.20681936373708387</v>
       </c>
-      <c r="AM144" s="10"/>
+      <c r="AM144" s="10">
+        <v>0.19359401728145964</v>
+      </c>
       <c r="AN144" s="10"/>
       <c r="AO144" s="10"/>
       <c r="AP144" s="10"/>
@@ -29755,7 +30020,9 @@
       <c r="AL145" s="10">
         <v>4.2874991112149541E-2</v>
       </c>
-      <c r="AM145" s="10"/>
+      <c r="AM145" s="10">
+        <v>5.1708651451435106E-2</v>
+      </c>
       <c r="AN145" s="10"/>
       <c r="AO145" s="10"/>
       <c r="AP145" s="10"/>
@@ -29968,7 +30235,9 @@
       <c r="AL146" s="10">
         <v>7.5523587899301914E-2</v>
       </c>
-      <c r="AM146" s="10"/>
+      <c r="AM146" s="10">
+        <v>0.1704907709866581</v>
+      </c>
       <c r="AN146" s="10"/>
       <c r="AO146" s="10"/>
       <c r="AP146" s="10"/>
@@ -30181,7 +30450,9 @@
       <c r="AL147" s="10">
         <v>0.11272621955037887</v>
       </c>
-      <c r="AM147" s="10"/>
+      <c r="AM147" s="10">
+        <v>9.6830524753339642E-2</v>
+      </c>
       <c r="AN147" s="10"/>
       <c r="AO147" s="10"/>
       <c r="AP147" s="10"/>
@@ -30394,7 +30665,9 @@
       <c r="AL148" s="10">
         <v>5.1672134867581265E-2</v>
       </c>
-      <c r="AM148" s="10"/>
+      <c r="AM148" s="10">
+        <v>0.10329864372393582</v>
+      </c>
       <c r="AN148" s="10"/>
       <c r="AO148" s="10"/>
       <c r="AP148" s="10"/>
@@ -30607,7 +30880,9 @@
       <c r="AL149" s="10">
         <v>6.6194944367533148E-2</v>
       </c>
-      <c r="AM149" s="10"/>
+      <c r="AM149" s="10">
+        <v>7.1368035662830343E-2</v>
+      </c>
       <c r="AN149" s="10"/>
       <c r="AO149" s="10"/>
       <c r="AP149" s="10"/>
@@ -30820,7 +31095,9 @@
       <c r="AL150" s="10">
         <v>0.17791225742424732</v>
       </c>
-      <c r="AM150" s="10"/>
+      <c r="AM150" s="10">
+        <v>0.13105608719907291</v>
+      </c>
       <c r="AN150" s="10"/>
       <c r="AO150" s="10"/>
       <c r="AP150" s="10"/>
@@ -31033,7 +31310,9 @@
       <c r="AL151" s="10">
         <v>0.63046818145063477</v>
       </c>
-      <c r="AM151" s="10"/>
+      <c r="AM151" s="10">
+        <v>0.24325830293217821</v>
+      </c>
       <c r="AN151" s="10"/>
       <c r="AO151" s="10"/>
       <c r="AP151" s="10"/>
@@ -31246,7 +31525,9 @@
       <c r="AL152" s="10">
         <v>7.5653798256537952E-2</v>
       </c>
-      <c r="AM152" s="10"/>
+      <c r="AM152" s="10">
+        <v>7.5653798256537952E-2</v>
+      </c>
       <c r="AN152" s="10"/>
       <c r="AO152" s="10"/>
       <c r="AP152" s="10"/>
@@ -31459,7 +31740,9 @@
       <c r="AL153" s="10">
         <v>3.1125164970460251E-2</v>
       </c>
-      <c r="AM153" s="10"/>
+      <c r="AM153" s="10">
+        <v>7.2622347434907031E-2</v>
+      </c>
       <c r="AN153" s="10"/>
       <c r="AO153" s="10"/>
       <c r="AP153" s="10"/>
@@ -31672,7 +31955,9 @@
       <c r="AL154" s="10">
         <v>7.9063175952860387E-3</v>
       </c>
-      <c r="AM154" s="10"/>
+      <c r="AM154" s="10">
+        <v>7.9063175952860387E-3</v>
+      </c>
       <c r="AN154" s="10"/>
       <c r="AO154" s="10"/>
       <c r="AP154" s="10"/>
@@ -31885,7 +32170,9 @@
       <c r="AL155" s="10">
         <v>6.4975299338524639E-2</v>
       </c>
-      <c r="AM155" s="10"/>
+      <c r="AM155" s="10">
+        <v>5.0773113099334743E-2</v>
+      </c>
       <c r="AN155" s="10"/>
       <c r="AO155" s="10"/>
       <c r="AP155" s="10"/>
@@ -32098,7 +32385,9 @@
       <c r="AL156" s="10">
         <v>-7.9261178851296132E-2</v>
       </c>
-      <c r="AM156" s="10"/>
+      <c r="AM156" s="10">
+        <v>-8.1803728862552494E-2</v>
+      </c>
       <c r="AN156" s="10"/>
       <c r="AO156" s="10"/>
       <c r="AP156" s="10"/>
@@ -32311,7 +32600,9 @@
       <c r="AL157" s="10">
         <v>0</v>
       </c>
-      <c r="AM157" s="10"/>
+      <c r="AM157" s="10">
+        <v>0</v>
+      </c>
       <c r="AN157" s="10"/>
       <c r="AO157" s="10"/>
       <c r="AP157" s="10"/>
@@ -32524,7 +32815,9 @@
       <c r="AL158" s="10">
         <v>-3.2884570982007921E-2</v>
       </c>
-      <c r="AM158" s="10"/>
+      <c r="AM158" s="10">
+        <v>-5.4939175736951507E-2</v>
+      </c>
       <c r="AN158" s="10"/>
       <c r="AO158" s="10"/>
       <c r="AP158" s="10"/>
@@ -32737,7 +33030,9 @@
       <c r="AL159" s="10">
         <v>7.7139819704578283E-2</v>
       </c>
-      <c r="AM159" s="10"/>
+      <c r="AM159" s="10">
+        <v>7.7139819704578283E-2</v>
+      </c>
       <c r="AN159" s="10"/>
       <c r="AO159" s="10"/>
       <c r="AP159" s="10"/>
@@ -32950,7 +33245,9 @@
       <c r="AL160" s="10">
         <v>0.22010293130454239</v>
       </c>
-      <c r="AM160" s="10"/>
+      <c r="AM160" s="10">
+        <v>0.15945370698829375</v>
+      </c>
       <c r="AN160" s="10"/>
       <c r="AO160" s="10"/>
       <c r="AP160" s="10"/>
@@ -33163,7 +33460,9 @@
       <c r="AL161" s="10">
         <v>3.0811591775199876E-2</v>
       </c>
-      <c r="AM161" s="10"/>
+      <c r="AM161" s="10">
+        <v>1.3572103727448548E-2</v>
+      </c>
       <c r="AN161" s="10"/>
       <c r="AO161" s="10"/>
       <c r="AP161" s="10"/>
@@ -33376,7 +33675,9 @@
       <c r="AL162" s="10">
         <v>3.4360474435006783E-3</v>
       </c>
-      <c r="AM162" s="10"/>
+      <c r="AM162" s="10">
+        <v>-2.5093535020316082E-2</v>
+      </c>
       <c r="AN162" s="10"/>
       <c r="AO162" s="10"/>
       <c r="AP162" s="10"/>
@@ -33589,7 +33890,9 @@
       <c r="AL163" s="10">
         <v>5.8947818648417361E-2</v>
       </c>
-      <c r="AM163" s="10"/>
+      <c r="AM163" s="10">
+        <v>0.10767401339422111</v>
+      </c>
       <c r="AN163" s="10"/>
       <c r="AO163" s="10"/>
       <c r="AP163" s="10"/>
@@ -33802,7 +34105,9 @@
       <c r="AL164" s="10">
         <v>7.2798888240179549E-2</v>
       </c>
-      <c r="AM164" s="10"/>
+      <c r="AM164" s="10">
+        <v>2.316123359085509E-2</v>
+      </c>
       <c r="AN164" s="10"/>
       <c r="AO164" s="10"/>
       <c r="AP164" s="10"/>
@@ -34015,7 +34320,9 @@
       <c r="AL165" s="10">
         <v>0.10880764989924341</v>
       </c>
-      <c r="AM165" s="10"/>
+      <c r="AM165" s="10">
+        <v>0.13767365686532873</v>
+      </c>
       <c r="AN165" s="10"/>
       <c r="AO165" s="10"/>
       <c r="AP165" s="10"/>
@@ -34228,7 +34535,9 @@
       <c r="AL166" s="10">
         <v>5.3712103127238064E-2</v>
       </c>
-      <c r="AM166" s="10"/>
+      <c r="AM166" s="10">
+        <v>3.2511598919742424E-2</v>
+      </c>
       <c r="AN166" s="10"/>
       <c r="AO166" s="10"/>
       <c r="AP166" s="10"/>
@@ -34441,7 +34750,9 @@
       <c r="AL167" s="10">
         <v>0.10092151201826227</v>
       </c>
-      <c r="AM167" s="10"/>
+      <c r="AM167" s="10">
+        <v>9.6765858131199645E-2</v>
+      </c>
       <c r="AN167" s="10"/>
       <c r="AO167" s="10"/>
       <c r="AP167" s="10"/>
@@ -34654,7 +34965,9 @@
       <c r="AL168" s="10">
         <v>0.11877019484970153</v>
       </c>
-      <c r="AM168" s="10"/>
+      <c r="AM168" s="10">
+        <v>0.11008147032703963</v>
+      </c>
       <c r="AN168" s="10"/>
       <c r="AO168" s="10"/>
       <c r="AP168" s="10"/>
@@ -34867,7 +35180,9 @@
       <c r="AL169" s="10">
         <v>7.8557836976723694E-2</v>
       </c>
-      <c r="AM169" s="10"/>
+      <c r="AM169" s="10">
+        <v>2.3449013678591424E-2</v>
+      </c>
       <c r="AN169" s="10"/>
       <c r="AO169" s="10"/>
       <c r="AP169" s="10"/>
@@ -35080,7 +35395,9 @@
       <c r="AL170" s="10">
         <v>0.25126241822146822</v>
       </c>
-      <c r="AM170" s="10"/>
+      <c r="AM170" s="10">
+        <v>0.25314233079388226</v>
+      </c>
       <c r="AN170" s="10"/>
       <c r="AO170" s="10"/>
       <c r="AP170" s="10"/>
@@ -35293,7 +35610,9 @@
       <c r="AL171" s="10">
         <v>9.9840626027709156E-2</v>
       </c>
-      <c r="AM171" s="10"/>
+      <c r="AM171" s="10">
+        <v>0.14848168100560155</v>
+      </c>
       <c r="AN171" s="10"/>
       <c r="AO171" s="10"/>
       <c r="AP171" s="10"/>
@@ -35506,7 +35825,9 @@
       <c r="AL172" s="10">
         <v>1.8001567600623547E-2</v>
       </c>
-      <c r="AM172" s="10"/>
+      <c r="AM172" s="10">
+        <v>1.3389639353159177E-2</v>
+      </c>
       <c r="AN172" s="10"/>
       <c r="AO172" s="10"/>
       <c r="AP172" s="10"/>
@@ -35719,7 +36040,9 @@
       <c r="AL173" s="10">
         <v>5.8523524161672613E-2</v>
       </c>
-      <c r="AM173" s="10"/>
+      <c r="AM173" s="10">
+        <v>0.13256201773146548</v>
+      </c>
       <c r="AN173" s="10"/>
       <c r="AO173" s="10"/>
       <c r="AP173" s="10"/>
@@ -35932,7 +36255,9 @@
       <c r="AL174" s="10">
         <v>1.0910510216122438E-2</v>
       </c>
-      <c r="AM174" s="10"/>
+      <c r="AM174" s="10">
+        <v>3.3186495891019518E-2</v>
+      </c>
       <c r="AN174" s="10"/>
       <c r="AO174" s="10"/>
       <c r="AP174" s="10"/>
@@ -36145,7 +36470,9 @@
       <c r="AL175" s="10">
         <v>7.4196207749381626E-2</v>
       </c>
-      <c r="AM175" s="10"/>
+      <c r="AM175" s="10">
+        <v>6.2969613500462041E-2</v>
+      </c>
       <c r="AN175" s="10"/>
       <c r="AO175" s="10"/>
       <c r="AP175" s="10"/>
@@ -36358,7 +36685,9 @@
       <c r="AL176" s="10">
         <v>7.252457782586208E-2</v>
       </c>
-      <c r="AM176" s="10"/>
+      <c r="AM176" s="10">
+        <v>8.9430208245431464E-2</v>
+      </c>
       <c r="AN176" s="10"/>
       <c r="AO176" s="10"/>
       <c r="AP176" s="10"/>
@@ -36571,7 +36900,9 @@
       <c r="AL177" s="10">
         <v>4.9792563785652E-2</v>
       </c>
-      <c r="AM177" s="10"/>
+      <c r="AM177" s="10">
+        <v>7.8576149865385636E-2</v>
+      </c>
       <c r="AN177" s="10"/>
       <c r="AO177" s="10"/>
       <c r="AP177" s="10"/>
@@ -36784,7 +37115,9 @@
       <c r="AL178" s="10">
         <v>5.2272070478408983E-2</v>
       </c>
-      <c r="AM178" s="10"/>
+      <c r="AM178" s="10">
+        <v>7.2319496029038977E-2</v>
+      </c>
       <c r="AN178" s="10"/>
       <c r="AO178" s="10"/>
       <c r="AP178" s="10"/>
@@ -36997,7 +37330,9 @@
       <c r="AL179" s="10">
         <v>7.4541301636437352E-2</v>
       </c>
-      <c r="AM179" s="10"/>
+      <c r="AM179" s="10">
+        <v>7.0792153339322983E-2</v>
+      </c>
       <c r="AN179" s="10"/>
       <c r="AO179" s="10"/>
       <c r="AP179" s="10"/>
@@ -37210,7 +37545,9 @@
       <c r="AL180" s="10">
         <v>0.1083513355789214</v>
       </c>
-      <c r="AM180" s="10"/>
+      <c r="AM180" s="10">
+        <v>5.1474072395393478E-2</v>
+      </c>
       <c r="AN180" s="10"/>
       <c r="AO180" s="10"/>
       <c r="AP180" s="10"/>
@@ -37423,7 +37760,9 @@
       <c r="AL181" s="10">
         <v>1.7793626433149745E-2</v>
       </c>
-      <c r="AM181" s="10"/>
+      <c r="AM181" s="10">
+        <v>-3.0462099165011747E-3</v>
+      </c>
       <c r="AN181" s="10"/>
       <c r="AO181" s="10"/>
       <c r="AP181" s="10"/>
@@ -37636,7 +37975,9 @@
       <c r="AL182" s="10">
         <v>0.24054300685814289</v>
       </c>
-      <c r="AM182" s="10"/>
+      <c r="AM182" s="10">
+        <v>0.19763135112943675</v>
+      </c>
       <c r="AN182" s="10"/>
       <c r="AO182" s="10"/>
       <c r="AP182" s="10"/>
@@ -37849,7 +38190,9 @@
       <c r="AL183" s="10">
         <v>7.4019480096423118E-2</v>
       </c>
-      <c r="AM183" s="10"/>
+      <c r="AM183" s="10">
+        <v>7.838003181206421E-2</v>
+      </c>
       <c r="AN183" s="10"/>
       <c r="AO183" s="10"/>
       <c r="AP183" s="10"/>
@@ -38062,7 +38405,9 @@
       <c r="AL184" s="10">
         <v>0.12016977418768415</v>
       </c>
-      <c r="AM184" s="10"/>
+      <c r="AM184" s="10">
+        <v>0.12616661459459899</v>
+      </c>
       <c r="AN184" s="10"/>
       <c r="AO184" s="10"/>
       <c r="AP184" s="10"/>
@@ -38275,7 +38620,9 @@
       <c r="AL185" s="10">
         <v>-1.961257133670935E-2</v>
       </c>
-      <c r="AM185" s="10"/>
+      <c r="AM185" s="10">
+        <v>-4.0609187916437195E-2</v>
+      </c>
       <c r="AN185" s="10"/>
       <c r="AO185" s="10"/>
       <c r="AP185" s="10"/>
@@ -38488,7 +38835,9 @@
       <c r="AL186" s="10">
         <v>-6.7914144193725989E-2</v>
       </c>
-      <c r="AM186" s="10"/>
+      <c r="AM186" s="10">
+        <v>-0.15161431479614162</v>
+      </c>
       <c r="AN186" s="10"/>
       <c r="AO186" s="10"/>
       <c r="AP186" s="10"/>
@@ -38701,7 +39050,9 @@
       <c r="AL187" s="10">
         <v>4.8135477592624154E-2</v>
       </c>
-      <c r="AM187" s="10"/>
+      <c r="AM187" s="10">
+        <v>0.11171169254014024</v>
+      </c>
       <c r="AN187" s="10"/>
       <c r="AO187" s="10"/>
       <c r="AP187" s="10"/>
@@ -38914,7 +39265,9 @@
       <c r="AL188" s="10">
         <v>-4.5826551170705554E-2</v>
       </c>
-      <c r="AM188" s="10"/>
+      <c r="AM188" s="10">
+        <v>-1.2144794245962931E-3</v>
+      </c>
       <c r="AN188" s="10"/>
       <c r="AO188" s="10"/>
       <c r="AP188" s="10"/>
@@ -39127,7 +39480,9 @@
       <c r="AL189" s="10">
         <v>-7.1544888510457039E-2</v>
       </c>
-      <c r="AM189" s="10"/>
+      <c r="AM189" s="10">
+        <v>-7.2740819584885652E-2</v>
+      </c>
       <c r="AN189" s="10"/>
       <c r="AO189" s="10"/>
       <c r="AP189" s="10"/>
@@ -39340,7 +39695,9 @@
       <c r="AL190" s="10">
         <v>0.10556767424950664</v>
       </c>
-      <c r="AM190" s="10"/>
+      <c r="AM190" s="10">
+        <v>0.11690053107809906</v>
+      </c>
       <c r="AN190" s="10"/>
       <c r="AO190" s="10"/>
       <c r="AP190" s="10"/>
@@ -39553,7 +39910,9 @@
       <c r="AL191" s="10">
         <v>0.194806729640979</v>
       </c>
-      <c r="AM191" s="10"/>
+      <c r="AM191" s="10">
+        <v>0.19879677659183548</v>
+      </c>
       <c r="AN191" s="10"/>
       <c r="AO191" s="10"/>
       <c r="AP191" s="10"/>
@@ -39766,7 +40125,9 @@
       <c r="AL192" s="10">
         <v>-3.2541845841984607E-2</v>
       </c>
-      <c r="AM192" s="10"/>
+      <c r="AM192" s="10">
+        <v>6.5521770100614329E-2</v>
+      </c>
       <c r="AN192" s="10"/>
       <c r="AO192" s="10"/>
       <c r="AP192" s="10"/>
@@ -39979,7 +40340,9 @@
       <c r="AL193" s="10">
         <v>-4.2428709632837291E-2</v>
       </c>
-      <c r="AM193" s="10"/>
+      <c r="AM193" s="10">
+        <v>-9.4879391620386055E-3</v>
+      </c>
       <c r="AN193" s="10"/>
       <c r="AO193" s="10"/>
       <c r="AP193" s="10"/>
@@ -40192,7 +40555,9 @@
       <c r="AL194" s="10">
         <v>0.26359968902989928</v>
       </c>
-      <c r="AM194" s="10"/>
+      <c r="AM194" s="10">
+        <v>0.34819081579007505</v>
+      </c>
       <c r="AN194" s="10"/>
       <c r="AO194" s="10"/>
       <c r="AP194" s="10"/>
@@ -40405,7 +40770,9 @@
       <c r="AL195" s="10">
         <v>9.7857533429437815E-2</v>
       </c>
-      <c r="AM195" s="10"/>
+      <c r="AM195" s="10">
+        <v>0.13348816863856006</v>
+      </c>
       <c r="AN195" s="10"/>
       <c r="AO195" s="10"/>
       <c r="AP195" s="10"/>
@@ -40618,7 +40985,9 @@
       <c r="AL196" s="10">
         <v>7.3769410108652567E-2</v>
       </c>
-      <c r="AM196" s="10"/>
+      <c r="AM196" s="10">
+        <v>9.8225864553314057E-2</v>
+      </c>
       <c r="AN196" s="10"/>
       <c r="AO196" s="10"/>
       <c r="AP196" s="10"/>
@@ -40831,7 +41200,9 @@
       <c r="AL197" s="10">
         <v>2.6858251485388562E-2</v>
       </c>
-      <c r="AM197" s="10"/>
+      <c r="AM197" s="10">
+        <v>2.7261064785118583E-2</v>
+      </c>
       <c r="AN197" s="10"/>
       <c r="AO197" s="10"/>
       <c r="AP197" s="10"/>
@@ -41044,7 +41415,9 @@
       <c r="AL198" s="10">
         <v>-3.2488449573876421E-3</v>
       </c>
-      <c r="AM198" s="10"/>
+      <c r="AM198" s="10">
+        <v>-1.2533781442727321E-2</v>
+      </c>
       <c r="AN198" s="10"/>
       <c r="AO198" s="10"/>
       <c r="AP198" s="10"/>
@@ -41257,7 +41630,9 @@
       <c r="AL199" s="10">
         <v>0.24070199122510982</v>
       </c>
-      <c r="AM199" s="10"/>
+      <c r="AM199" s="10">
+        <v>0.31917264292370651</v>
+      </c>
       <c r="AN199" s="10"/>
       <c r="AO199" s="10"/>
       <c r="AP199" s="10"/>
@@ -41470,7 +41845,9 @@
       <c r="AL200" s="10">
         <v>0.19334468825309381</v>
       </c>
-      <c r="AM200" s="10"/>
+      <c r="AM200" s="10">
+        <v>0.31492691569467013</v>
+      </c>
       <c r="AN200" s="10"/>
       <c r="AO200" s="10"/>
       <c r="AP200" s="10"/>
@@ -41683,7 +42060,9 @@
       <c r="AL201" s="10">
         <v>8.5471416401791567E-2</v>
       </c>
-      <c r="AM201" s="10"/>
+      <c r="AM201" s="10">
+        <v>0.11660728460927849</v>
+      </c>
       <c r="AN201" s="10"/>
       <c r="AO201" s="10"/>
       <c r="AP201" s="10"/>
@@ -41896,7 +42275,9 @@
       <c r="AL202" s="10">
         <v>0.11345837984010743</v>
       </c>
-      <c r="AM202" s="10"/>
+      <c r="AM202" s="10">
+        <v>9.3305715922612498E-2</v>
+      </c>
       <c r="AN202" s="10"/>
       <c r="AO202" s="10"/>
       <c r="AP202" s="10"/>
@@ -42109,7 +42490,9 @@
       <c r="AL203" s="10">
         <v>1.4486233579269481E-3</v>
       </c>
-      <c r="AM203" s="10"/>
+      <c r="AM203" s="10">
+        <v>-7.0282421871542655E-2</v>
+      </c>
       <c r="AN203" s="10"/>
       <c r="AO203" s="10"/>
       <c r="AP203" s="10"/>
@@ -42322,7 +42705,9 @@
       <c r="AL204" s="10">
         <v>4.9609629147690182E-2</v>
       </c>
-      <c r="AM204" s="10"/>
+      <c r="AM204" s="10">
+        <v>-1.4461879524749754E-3</v>
+      </c>
       <c r="AN204" s="10"/>
       <c r="AO204" s="10"/>
       <c r="AP204" s="10"/>
@@ -42535,7 +42920,9 @@
       <c r="AL205" s="10">
         <v>5.7230208109847691E-2</v>
       </c>
-      <c r="AM205" s="10"/>
+      <c r="AM205" s="10">
+        <v>-4.006740310803214E-2</v>
+      </c>
       <c r="AN205" s="10"/>
       <c r="AO205" s="10"/>
       <c r="AP205" s="10"/>
@@ -42748,7 +43135,9 @@
       <c r="AL206" s="10">
         <v>4.3432024409393977E-2</v>
       </c>
-      <c r="AM206" s="10"/>
+      <c r="AM206" s="10">
+        <v>3.7759472162326002E-2</v>
+      </c>
       <c r="AN206" s="10"/>
       <c r="AO206" s="10"/>
       <c r="AP206" s="10"/>
@@ -42961,7 +43350,9 @@
       <c r="AL207" s="10">
         <v>2.7322456176941845E-2</v>
       </c>
-      <c r="AM207" s="10"/>
+      <c r="AM207" s="10">
+        <v>-4.8208375305799356E-3</v>
+      </c>
       <c r="AN207" s="10"/>
       <c r="AO207" s="10"/>
       <c r="AP207" s="10"/>
@@ -43174,7 +43565,9 @@
       <c r="AL208" s="10">
         <v>0.10067668073910396</v>
       </c>
-      <c r="AM208" s="10"/>
+      <c r="AM208" s="10">
+        <v>0.10373383822877225</v>
+      </c>
       <c r="AN208" s="10"/>
       <c r="AO208" s="10"/>
       <c r="AP208" s="10"/>
@@ -43387,7 +43780,9 @@
       <c r="AL209" s="10">
         <v>7.6253794881362191E-2</v>
       </c>
-      <c r="AM209" s="10"/>
+      <c r="AM209" s="10">
+        <v>8.3896895553135176E-2</v>
+      </c>
       <c r="AN209" s="10"/>
       <c r="AO209" s="10"/>
       <c r="AP209" s="10"/>
@@ -43600,7 +43995,9 @@
       <c r="AL210" s="10">
         <v>5.5631201886708448E-2</v>
       </c>
-      <c r="AM210" s="10"/>
+      <c r="AM210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
       <c r="AN210" s="10"/>
       <c r="AO210" s="10"/>
       <c r="AP210" s="10"/>
@@ -43813,7 +44210,9 @@
       <c r="AL211" s="10">
         <v>0.10901649607161867</v>
       </c>
-      <c r="AM211" s="10"/>
+      <c r="AM211" s="10">
+        <v>9.9192350538432894E-2</v>
+      </c>
       <c r="AN211" s="10"/>
       <c r="AO211" s="10"/>
       <c r="AP211" s="10"/>
@@ -44026,7 +44425,9 @@
       <c r="AL212" s="10">
         <v>6.7495702351391795E-2</v>
       </c>
-      <c r="AM212" s="10"/>
+      <c r="AM212" s="10">
+        <v>0.15204725117678208</v>
+      </c>
       <c r="AN212" s="10"/>
       <c r="AO212" s="10"/>
       <c r="AP212" s="10"/>
@@ -44239,7 +44640,9 @@
       <c r="AL213" s="10">
         <v>5.2479506533560594E-2</v>
       </c>
-      <c r="AM213" s="10"/>
+      <c r="AM213" s="10">
+        <v>6.7648729810891872E-2</v>
+      </c>
       <c r="AN213" s="10"/>
       <c r="AO213" s="10"/>
       <c r="AP213" s="10"/>
@@ -44452,7 +44855,9 @@
       <c r="AL214" s="10">
         <v>3.7451730143105877E-2</v>
       </c>
-      <c r="AM214" s="10"/>
+      <c r="AM214" s="10">
+        <v>5.3299201467160939E-2</v>
+      </c>
       <c r="AN214" s="10"/>
       <c r="AO214" s="10"/>
       <c r="AP214" s="10"/>
@@ -44665,7 +45070,9 @@
       <c r="AL215" s="10">
         <v>1.1123994833941442E-3</v>
       </c>
-      <c r="AM215" s="10"/>
+      <c r="AM215" s="10">
+        <v>1.7900260471129581E-2</v>
+      </c>
       <c r="AN215" s="10"/>
       <c r="AO215" s="10"/>
       <c r="AP215" s="10"/>
@@ -44878,7 +45285,9 @@
       <c r="AL216" s="10">
         <v>6.8050327785211584E-2</v>
       </c>
-      <c r="AM216" s="10"/>
+      <c r="AM216" s="10">
+        <v>6.8050327785211584E-2</v>
+      </c>
       <c r="AN216" s="10"/>
       <c r="AO216" s="10"/>
       <c r="AP216" s="10"/>
@@ -45091,7 +45500,9 @@
       <c r="AL217" s="10">
         <v>6.2558917580081808E-2</v>
       </c>
-      <c r="AM217" s="10"/>
+      <c r="AM217" s="10">
+        <v>9.2807896342026908E-2</v>
+      </c>
       <c r="AN217" s="10"/>
       <c r="AO217" s="10"/>
       <c r="AP217" s="10"/>
@@ -45304,7 +45715,9 @@
       <c r="AL218" s="10">
         <v>6.6686839739767301E-2</v>
       </c>
-      <c r="AM218" s="10"/>
+      <c r="AM218" s="10">
+        <v>4.848910135520379E-2</v>
+      </c>
       <c r="AN218" s="10"/>
       <c r="AO218" s="10"/>
       <c r="AP218" s="10"/>
@@ -45517,7 +45930,9 @@
       <c r="AL219" s="10">
         <v>9.3152547099112804E-2</v>
       </c>
-      <c r="AM219" s="10"/>
+      <c r="AM219" s="10">
+        <v>0.11566673433900299</v>
+      </c>
       <c r="AN219" s="10"/>
       <c r="AO219" s="10"/>
       <c r="AP219" s="10"/>
@@ -45730,7 +46145,9 @@
       <c r="AL220" s="10">
         <v>6.89344718767404E-2</v>
       </c>
-      <c r="AM220" s="10"/>
+      <c r="AM220" s="10">
+        <v>0.12570605075827923</v>
+      </c>
       <c r="AN220" s="10"/>
       <c r="AO220" s="10"/>
       <c r="AP220" s="10"/>
@@ -45943,7 +46360,9 @@
       <c r="AL221" s="10">
         <v>1.5751411683122551E-2</v>
       </c>
-      <c r="AM221" s="10"/>
+      <c r="AM221" s="10">
+        <v>4.2373165900010168E-2</v>
+      </c>
       <c r="AN221" s="10"/>
       <c r="AO221" s="10"/>
       <c r="AP221" s="10"/>
@@ -46156,7 +46575,9 @@
       <c r="AL222" s="10">
         <v>9.0345040848287761E-2</v>
       </c>
-      <c r="AM222" s="10"/>
+      <c r="AM222" s="10">
+        <v>0.12423501868813402</v>
+      </c>
       <c r="AN222" s="10"/>
       <c r="AO222" s="10"/>
       <c r="AP222" s="10"/>
@@ -46369,7 +46790,9 @@
       <c r="AL223" s="10">
         <v>5.7935596580592774E-2</v>
       </c>
-      <c r="AM223" s="10"/>
+      <c r="AM223" s="10">
+        <v>4.0152349039051627E-2</v>
+      </c>
       <c r="AN223" s="10"/>
       <c r="AO223" s="10"/>
       <c r="AP223" s="10"/>
@@ -46582,7 +47005,9 @@
       <c r="AL224" s="10">
         <v>-1.7547933390831272E-2</v>
       </c>
-      <c r="AM224" s="10"/>
+      <c r="AM224" s="10">
+        <v>2.5774563789557448E-2</v>
+      </c>
       <c r="AN224" s="10"/>
       <c r="AO224" s="10"/>
       <c r="AP224" s="10"/>
@@ -46795,7 +47220,9 @@
       <c r="AL225" s="10">
         <v>0.14684869130852163</v>
       </c>
-      <c r="AM225" s="10"/>
+      <c r="AM225" s="10">
+        <v>0.14719794824760313</v>
+      </c>
       <c r="AN225" s="10"/>
       <c r="AO225" s="10"/>
       <c r="AP225" s="10"/>
@@ -47008,7 +47435,9 @@
       <c r="AL226" s="10">
         <v>2.1331918280711015E-2</v>
       </c>
-      <c r="AM226" s="10"/>
+      <c r="AM226" s="10">
+        <v>1.4330631855303144E-2</v>
+      </c>
       <c r="AN226" s="10"/>
       <c r="AO226" s="10"/>
       <c r="AP226" s="10"/>
@@ -47221,7 +47650,9 @@
       <c r="AL227" s="10">
         <v>5.8157685656867741E-2</v>
       </c>
-      <c r="AM227" s="10"/>
+      <c r="AM227" s="10">
+        <v>5.2560299239004182E-2</v>
+      </c>
       <c r="AN227" s="10"/>
       <c r="AO227" s="10"/>
       <c r="AP227" s="10"/>
@@ -47434,7 +47865,9 @@
       <c r="AL228" s="10">
         <v>0.19862372530274075</v>
       </c>
-      <c r="AM228" s="10"/>
+      <c r="AM228" s="10">
+        <v>7.5807081720353775E-2</v>
+      </c>
       <c r="AN228" s="10"/>
       <c r="AO228" s="10"/>
       <c r="AP228" s="10"/>
@@ -47647,7 +48080,9 @@
       <c r="AL229" s="10">
         <v>4.1409016436763535E-2</v>
       </c>
-      <c r="AM229" s="10"/>
+      <c r="AM229" s="10">
+        <v>-2.236492081109176E-2</v>
+      </c>
       <c r="AN229" s="10"/>
       <c r="AO229" s="10"/>
       <c r="AP229" s="10"/>
@@ -47860,7 +48295,9 @@
       <c r="AL230" s="10">
         <v>2.7474134464226863E-2</v>
       </c>
-      <c r="AM230" s="10"/>
+      <c r="AM230" s="10">
+        <v>3.3712792588667551E-2</v>
+      </c>
       <c r="AN230" s="10"/>
       <c r="AO230" s="10"/>
       <c r="AP230" s="10"/>
@@ -48073,7 +48510,9 @@
       <c r="AL231" s="10">
         <v>6.6711439444817611E-2</v>
       </c>
-      <c r="AM231" s="10"/>
+      <c r="AM231" s="10">
+        <v>5.8250744026120405E-2</v>
+      </c>
       <c r="AN231" s="10"/>
       <c r="AO231" s="10"/>
       <c r="AP231" s="10"/>
@@ -48286,7 +48725,9 @@
       <c r="AL232" s="10">
         <v>-1.9891768277656707E-2</v>
       </c>
-      <c r="AM232" s="10"/>
+      <c r="AM232" s="10">
+        <v>-4.051044963903061E-2</v>
+      </c>
       <c r="AN232" s="10"/>
       <c r="AO232" s="10"/>
       <c r="AP232" s="10"/>
@@ -48499,7 +48940,9 @@
       <c r="AL233" s="10">
         <v>7.7421405401362886E-2</v>
       </c>
-      <c r="AM233" s="10"/>
+      <c r="AM233" s="10">
+        <v>5.7217857079512546E-2</v>
+      </c>
       <c r="AN233" s="10"/>
       <c r="AO233" s="10"/>
       <c r="AP233" s="10"/>
@@ -48712,7 +49155,9 @@
       <c r="AL234" s="10">
         <v>8.1784655434232523E-2</v>
       </c>
-      <c r="AM234" s="10"/>
+      <c r="AM234" s="10">
+        <v>7.6554003625119993E-2</v>
+      </c>
       <c r="AN234" s="10"/>
       <c r="AO234" s="10"/>
       <c r="AP234" s="10"/>
@@ -48925,7 +49370,9 @@
       <c r="AL235" s="10">
         <v>-3.2342134101980835E-2</v>
       </c>
-      <c r="AM235" s="10"/>
+      <c r="AM235" s="10">
+        <v>2.6869891677823388E-2</v>
+      </c>
       <c r="AN235" s="10"/>
       <c r="AO235" s="10"/>
       <c r="AP235" s="10"/>
@@ -49138,7 +49585,9 @@
       <c r="AL236" s="10">
         <v>6.3018242122718782E-3</v>
       </c>
-      <c r="AM236" s="10"/>
+      <c r="AM236" s="10">
+        <v>0.1100964092362986</v>
+      </c>
       <c r="AN236" s="10"/>
       <c r="AO236" s="10"/>
       <c r="AP236" s="10"/>
@@ -49351,7 +49800,9 @@
       <c r="AL237" s="10">
         <v>5.5139722732936436E-2</v>
       </c>
-      <c r="AM237" s="10"/>
+      <c r="AM237" s="10">
+        <v>7.3281901368251745E-2</v>
+      </c>
       <c r="AN237" s="10"/>
       <c r="AO237" s="10"/>
       <c r="AP237" s="10"/>
@@ -49564,7 +50015,9 @@
       <c r="AL238" s="10">
         <v>7.8604627917437275E-2</v>
       </c>
-      <c r="AM238" s="10"/>
+      <c r="AM238" s="10">
+        <v>5.7379137353269716E-2</v>
+      </c>
       <c r="AN238" s="10"/>
       <c r="AO238" s="10"/>
       <c r="AP238" s="10"/>
@@ -49777,7 +50230,9 @@
       <c r="AL239" s="10">
         <v>4.7244872301447804E-2</v>
       </c>
-      <c r="AM239" s="10"/>
+      <c r="AM239" s="10">
+        <v>7.02896430661204E-2</v>
+      </c>
       <c r="AN239" s="10"/>
       <c r="AO239" s="10"/>
       <c r="AP239" s="10"/>
@@ -49990,7 +50445,9 @@
       <c r="AL240" s="10">
         <v>1.367662162024752E-2</v>
       </c>
-      <c r="AM240" s="10"/>
+      <c r="AM240" s="10">
+        <v>8.8348141137198688E-2</v>
+      </c>
       <c r="AN240" s="10"/>
       <c r="AO240" s="10"/>
       <c r="AP240" s="10"/>
@@ -50203,7 +50660,9 @@
       <c r="AL241" s="10">
         <v>5.0667105594392137E-2</v>
       </c>
-      <c r="AM241" s="10"/>
+      <c r="AM241" s="10">
+        <v>4.8230795295028717E-2</v>
+      </c>
       <c r="AN241" s="10"/>
       <c r="AO241" s="10"/>
       <c r="AP241" s="10"/>
@@ -50416,7 +50875,9 @@
       <c r="AL242" s="10">
         <v>3.220711828078282E-2</v>
       </c>
-      <c r="AM242" s="10"/>
+      <c r="AM242" s="10">
+        <v>4.944951715327095E-2</v>
+      </c>
       <c r="AN242" s="10"/>
       <c r="AO242" s="10"/>
       <c r="AP242" s="10"/>
@@ -50629,7 +51090,9 @@
       <c r="AL243" s="10">
         <v>9.1497828540817672E-2</v>
       </c>
-      <c r="AM243" s="10"/>
+      <c r="AM243" s="10">
+        <v>0.10879556335933516</v>
+      </c>
       <c r="AN243" s="10"/>
       <c r="AO243" s="10"/>
       <c r="AP243" s="10"/>
@@ -50842,7 +51305,9 @@
       <c r="AL244" s="10">
         <v>8.3149823565307424E-2</v>
       </c>
-      <c r="AM244" s="10"/>
+      <c r="AM244" s="10">
+        <v>0.10051307856122338</v>
+      </c>
       <c r="AN244" s="10"/>
       <c r="AO244" s="10"/>
       <c r="AP244" s="10"/>
@@ -51055,7 +51520,9 @@
       <c r="AL245" s="10">
         <v>4.7686605543634464E-2</v>
       </c>
-      <c r="AM245" s="10"/>
+      <c r="AM245" s="10">
+        <v>3.9394661176991086E-2</v>
+      </c>
       <c r="AN245" s="10"/>
       <c r="AO245" s="10"/>
       <c r="AP245" s="10"/>
@@ -51268,7 +51735,9 @@
       <c r="AL246" s="10">
         <v>0.14213021751642119</v>
       </c>
-      <c r="AM246" s="10"/>
+      <c r="AM246" s="10">
+        <v>0.15771281757437405</v>
+      </c>
       <c r="AN246" s="10"/>
       <c r="AO246" s="10"/>
       <c r="AP246" s="10"/>
@@ -51481,7 +51950,9 @@
       <c r="AL247" s="10">
         <v>8.2543451243716426E-2</v>
       </c>
-      <c r="AM247" s="10"/>
+      <c r="AM247" s="10">
+        <v>0.1097966936864081</v>
+      </c>
       <c r="AN247" s="10"/>
       <c r="AO247" s="10"/>
       <c r="AP247" s="10"/>
@@ -51694,7 +52165,9 @@
       <c r="AL248" s="10">
         <v>4.4986746408323786E-2</v>
       </c>
-      <c r="AM248" s="10"/>
+      <c r="AM248" s="10">
+        <v>9.8884357346303409E-2</v>
+      </c>
       <c r="AN248" s="10"/>
       <c r="AO248" s="10"/>
       <c r="AP248" s="10"/>
@@ -51907,7 +52380,9 @@
       <c r="AL249" s="10">
         <v>6.5209311424100136E-2</v>
       </c>
-      <c r="AM249" s="10"/>
+      <c r="AM249" s="10">
+        <v>4.7254832206806485E-2</v>
+      </c>
       <c r="AN249" s="10"/>
       <c r="AO249" s="10"/>
       <c r="AP249" s="10"/>
@@ -52120,7 +52595,9 @@
       <c r="AL250" s="10">
         <v>0.10983022859796687</v>
       </c>
-      <c r="AM250" s="10"/>
+      <c r="AM250" s="10">
+        <v>7.5226439881075802E-2</v>
+      </c>
       <c r="AN250" s="10"/>
       <c r="AO250" s="10"/>
       <c r="AP250" s="10"/>
@@ -52333,7 +52810,9 @@
       <c r="AL251" s="10">
         <v>0.17216903707778441</v>
       </c>
-      <c r="AM251" s="10"/>
+      <c r="AM251" s="10">
+        <v>8.9036725056635069E-2</v>
+      </c>
       <c r="AN251" s="10"/>
       <c r="AO251" s="10"/>
       <c r="AP251" s="10"/>
@@ -52546,7 +53025,9 @@
       <c r="AL252" s="10">
         <v>0.17890928438414466</v>
       </c>
-      <c r="AM252" s="10"/>
+      <c r="AM252" s="10">
+        <v>0.16508702753877991</v>
+      </c>
       <c r="AN252" s="10"/>
       <c r="AO252" s="10"/>
       <c r="AP252" s="10"/>
@@ -52759,7 +53240,9 @@
       <c r="AL253" s="10">
         <v>0.12194632795339522</v>
       </c>
-      <c r="AM253" s="10"/>
+      <c r="AM253" s="10">
+        <v>0.10798319327731098</v>
+      </c>
       <c r="AN253" s="10"/>
       <c r="AO253" s="10"/>
       <c r="AP253" s="10"/>
@@ -52972,7 +53455,9 @@
       <c r="AL254" s="10">
         <v>2.9677238085203506E-2</v>
       </c>
-      <c r="AM254" s="10"/>
+      <c r="AM254" s="10">
+        <v>-3.6864788313765939E-2</v>
+      </c>
       <c r="AN254" s="10"/>
       <c r="AO254" s="10"/>
       <c r="AP254" s="10"/>
@@ -53185,7 +53670,9 @@
       <c r="AL255" s="10">
         <v>0.12286695739933151</v>
       </c>
-      <c r="AM255" s="10"/>
+      <c r="AM255" s="10">
+        <v>9.688468439080089E-2</v>
+      </c>
       <c r="AN255" s="10"/>
       <c r="AO255" s="10"/>
       <c r="AP255" s="10"/>
@@ -53398,7 +53885,9 @@
       <c r="AL256" s="10">
         <v>-2.4817848576729862E-2</v>
       </c>
-      <c r="AM256" s="10"/>
+      <c r="AM256" s="10">
+        <v>-1.4622154391672471E-3</v>
+      </c>
       <c r="AN256" s="10"/>
       <c r="AO256" s="10"/>
       <c r="AP256" s="10"/>
@@ -53611,7 +54100,9 @@
       <c r="AL257" s="10">
         <v>1.41486231475767E-2</v>
       </c>
-      <c r="AM257" s="10"/>
+      <c r="AM257" s="10">
+        <v>1.9613113637789059E-2</v>
+      </c>
       <c r="AN257" s="10"/>
       <c r="AO257" s="10"/>
       <c r="AP257" s="10"/>
@@ -53824,7 +54315,9 @@
       <c r="AL258" s="10">
         <v>2.7050012080212626E-2</v>
       </c>
-      <c r="AM258" s="10"/>
+      <c r="AM258" s="10">
+        <v>4.4598910753637977E-2</v>
+      </c>
       <c r="AN258" s="10"/>
       <c r="AO258" s="10"/>
       <c r="AP258" s="10"/>
@@ -54037,7 +54530,9 @@
       <c r="AL259" s="10">
         <v>4.7582145071295878E-2</v>
       </c>
-      <c r="AM259" s="10"/>
+      <c r="AM259" s="10">
+        <v>5.4426557492450955E-2</v>
+      </c>
       <c r="AN259" s="10"/>
       <c r="AO259" s="10"/>
       <c r="AP259" s="10"/>
@@ -54250,7 +54745,9 @@
       <c r="AL260" s="10">
         <v>6.3078201953931545E-2</v>
       </c>
-      <c r="AM260" s="10"/>
+      <c r="AM260" s="10">
+        <v>0.14820550867105631</v>
+      </c>
       <c r="AN260" s="10"/>
       <c r="AO260" s="10"/>
       <c r="AP260" s="10"/>
@@ -54463,7 +54960,9 @@
       <c r="AL261" s="10">
         <v>0.14694207435598394</v>
       </c>
-      <c r="AM261" s="10"/>
+      <c r="AM261" s="10">
+        <v>0.17546635576282488</v>
+      </c>
       <c r="AN261" s="10"/>
       <c r="AO261" s="10"/>
       <c r="AP261" s="10"/>
@@ -54676,7 +55175,9 @@
       <c r="AL262" s="10">
         <v>6.0965907663448116E-2</v>
       </c>
-      <c r="AM262" s="10"/>
+      <c r="AM262" s="10">
+        <v>7.4381265338380187E-2</v>
+      </c>
       <c r="AN262" s="10"/>
       <c r="AO262" s="10"/>
       <c r="AP262" s="10"/>
@@ -54889,7 +55390,9 @@
       <c r="AL263" s="10">
         <v>1.1942860875000516E-3</v>
       </c>
-      <c r="AM263" s="10"/>
+      <c r="AM263" s="10">
+        <v>0.12042925644022717</v>
+      </c>
       <c r="AN263" s="10"/>
       <c r="AO263" s="10"/>
       <c r="AP263" s="10"/>
@@ -55102,7 +55605,9 @@
       <c r="AL264" s="10">
         <v>-4.6689056706334942E-3</v>
       </c>
-      <c r="AM264" s="10"/>
+      <c r="AM264" s="10">
+        <v>1.1617533161439653E-2</v>
+      </c>
       <c r="AN264" s="10"/>
       <c r="AO264" s="10"/>
       <c r="AP264" s="10"/>
@@ -55315,7 +55820,9 @@
       <c r="AL265" s="10">
         <v>0.12622132593899682</v>
       </c>
-      <c r="AM265" s="10"/>
+      <c r="AM265" s="10">
+        <v>0.15310236998025029</v>
+      </c>
       <c r="AN265" s="10"/>
       <c r="AO265" s="10"/>
       <c r="AP265" s="10"/>
@@ -55528,7 +56035,9 @@
       <c r="AL266" s="10">
         <v>0.10276561580579857</v>
       </c>
-      <c r="AM266" s="10"/>
+      <c r="AM266" s="10">
+        <v>0.10221515549542248</v>
+      </c>
       <c r="AN266" s="10"/>
       <c r="AO266" s="10"/>
       <c r="AP266" s="10"/>
@@ -55741,7 +56250,9 @@
       <c r="AL267" s="10">
         <v>1.3340692757909611E-2</v>
       </c>
-      <c r="AM267" s="10"/>
+      <c r="AM267" s="10">
+        <v>-0.10429516969440922</v>
+      </c>
       <c r="AN267" s="10"/>
       <c r="AO267" s="10"/>
       <c r="AP267" s="10"/>
@@ -55954,7 +56465,9 @@
       <c r="AL268" s="10">
         <v>0.10635588200450186</v>
       </c>
-      <c r="AM268" s="10"/>
+      <c r="AM268" s="10">
+        <v>-7.0801799323922943E-3</v>
+      </c>
       <c r="AN268" s="10"/>
       <c r="AO268" s="10"/>
       <c r="AP268" s="10"/>
@@ -56167,7 +56680,9 @@
       <c r="AL269" s="10">
         <v>6.5140118696245253E-3</v>
       </c>
-      <c r="AM269" s="10"/>
+      <c r="AM269" s="10">
+        <v>5.8411559443652727E-2</v>
+      </c>
       <c r="AN269" s="10"/>
       <c r="AO269" s="10"/>
       <c r="AP269" s="10"/>
@@ -56380,7 +56895,9 @@
       <c r="AL270" s="10">
         <v>8.2024574823012619E-2</v>
       </c>
-      <c r="AM270" s="10"/>
+      <c r="AM270" s="10">
+        <v>0.10791301446725909</v>
+      </c>
       <c r="AN270" s="10"/>
       <c r="AO270" s="10"/>
       <c r="AP270" s="10"/>
@@ -56593,7 +57110,9 @@
       <c r="AL271" s="10">
         <v>-2.6304953135417031E-2</v>
       </c>
-      <c r="AM271" s="10"/>
+      <c r="AM271" s="10">
+        <v>2.8771453046997353E-2</v>
+      </c>
       <c r="AN271" s="10"/>
       <c r="AO271" s="10"/>
       <c r="AP271" s="10"/>
@@ -56806,7 +57325,9 @@
       <c r="AL272" s="10">
         <v>6.4992075308582642E-2</v>
       </c>
-      <c r="AM272" s="10"/>
+      <c r="AM272" s="10">
+        <v>7.1604255643685111E-2</v>
+      </c>
       <c r="AN272" s="10"/>
       <c r="AO272" s="10"/>
       <c r="AP272" s="10"/>
@@ -57019,7 +57540,9 @@
       <c r="AL273" s="10">
         <v>5.4572169997765929E-2</v>
       </c>
-      <c r="AM273" s="10"/>
+      <c r="AM273" s="10">
+        <v>5.0029056848870157E-2</v>
+      </c>
       <c r="AN273" s="10"/>
       <c r="AO273" s="10"/>
       <c r="AP273" s="10"/>
@@ -57232,7 +57755,9 @@
       <c r="AL274" s="10">
         <v>4.1030097459329617E-2</v>
       </c>
-      <c r="AM274" s="10"/>
+      <c r="AM274" s="10">
+        <v>3.8555474765553654E-2</v>
+      </c>
       <c r="AN274" s="10"/>
       <c r="AO274" s="10"/>
       <c r="AP274" s="10"/>
@@ -57445,7 +57970,9 @@
       <c r="AL275" s="10">
         <v>1.7993772446289746E-2</v>
       </c>
-      <c r="AM275" s="10"/>
+      <c r="AM275" s="10">
+        <v>3.1904570089350992E-2</v>
+      </c>
       <c r="AN275" s="10"/>
       <c r="AO275" s="10"/>
       <c r="AP275" s="10"/>
@@ -57658,7 +58185,9 @@
       <c r="AL276" s="10">
         <v>5.6890416232406649E-2</v>
       </c>
-      <c r="AM276" s="10"/>
+      <c r="AM276" s="10">
+        <v>3.8864431338889283E-2</v>
+      </c>
       <c r="AN276" s="10"/>
       <c r="AO276" s="10"/>
       <c r="AP276" s="10"/>
@@ -57871,7 +58400,9 @@
       <c r="AL277" s="10">
         <v>3.145974952210473E-3</v>
       </c>
-      <c r="AM277" s="10"/>
+      <c r="AM277" s="10">
+        <v>3.145974952210473E-3</v>
+      </c>
       <c r="AN277" s="10"/>
       <c r="AO277" s="10"/>
       <c r="AP277" s="10"/>
@@ -58084,7 +58615,9 @@
       <c r="AL278" s="10">
         <v>2.5090030542006536E-2</v>
       </c>
-      <c r="AM278" s="10"/>
+      <c r="AM278" s="10">
+        <v>1.7916312082420394E-2</v>
+      </c>
       <c r="AN278" s="10"/>
       <c r="AO278" s="10"/>
       <c r="AP278" s="10"/>
@@ -58297,7 +58830,9 @@
       <c r="AL279" s="10">
         <v>5.7254065485305983E-2</v>
       </c>
-      <c r="AM279" s="10"/>
+      <c r="AM279" s="10">
+        <v>6.8611901115729568E-2</v>
+      </c>
       <c r="AN279" s="10"/>
       <c r="AO279" s="10"/>
       <c r="AP279" s="10"/>
@@ -58510,7 +59045,9 @@
       <c r="AL280" s="10">
         <v>4.014272970562005E-2</v>
       </c>
-      <c r="AM280" s="10"/>
+      <c r="AM280" s="10">
+        <v>3.4330760507736757E-2</v>
+      </c>
       <c r="AN280" s="10"/>
       <c r="AO280" s="10"/>
       <c r="AP280" s="10"/>
@@ -58723,7 +59260,9 @@
       <c r="AL281" s="10">
         <v>6.3469724611241451E-2</v>
       </c>
-      <c r="AM281" s="10"/>
+      <c r="AM281" s="10">
+        <v>6.3741263580375129E-2</v>
+      </c>
       <c r="AN281" s="10"/>
       <c r="AO281" s="10"/>
       <c r="AP281" s="10"/>
@@ -58936,7 +59475,9 @@
       <c r="AL282" s="10">
         <v>8.5740929725164561E-2</v>
       </c>
-      <c r="AM282" s="10"/>
+      <c r="AM282" s="10">
+        <v>8.6551921468503767E-2</v>
+      </c>
       <c r="AN282" s="10"/>
       <c r="AO282" s="10"/>
       <c r="AP282" s="10"/>
@@ -59149,7 +59690,9 @@
       <c r="AL283" s="10">
         <v>9.7960756961142259E-2</v>
       </c>
-      <c r="AM283" s="10"/>
+      <c r="AM283" s="10">
+        <v>7.4259456798227541E-2</v>
+      </c>
       <c r="AN283" s="10"/>
       <c r="AO283" s="10"/>
       <c r="AP283" s="10"/>
@@ -59362,7 +59905,9 @@
       <c r="AL284" s="10">
         <v>0.3080476601382387</v>
       </c>
-      <c r="AM284" s="10"/>
+      <c r="AM284" s="10">
+        <v>0.29265002190100753</v>
+      </c>
       <c r="AN284" s="10"/>
       <c r="AO284" s="10"/>
       <c r="AP284" s="10"/>
@@ -59575,7 +60120,9 @@
       <c r="AL285" s="10">
         <v>7.6988926628558829E-2</v>
       </c>
-      <c r="AM285" s="10"/>
+      <c r="AM285" s="10">
+        <v>8.5538518042420408E-2</v>
+      </c>
       <c r="AN285" s="10"/>
       <c r="AO285" s="10"/>
       <c r="AP285" s="10"/>
@@ -59788,7 +60335,9 @@
       <c r="AL286" s="10">
         <v>6.2968432711833167E-2</v>
       </c>
-      <c r="AM286" s="10"/>
+      <c r="AM286" s="10">
+        <v>7.2714668638506286E-2</v>
+      </c>
       <c r="AN286" s="10"/>
       <c r="AO286" s="10"/>
       <c r="AP286" s="10"/>
@@ -60001,7 +60550,9 @@
       <c r="AL287" s="10">
         <v>5.5711154408183194E-2</v>
       </c>
-      <c r="AM287" s="10"/>
+      <c r="AM287" s="10">
+        <v>7.6083229842058175E-2</v>
+      </c>
       <c r="AN287" s="10"/>
       <c r="AO287" s="10"/>
       <c r="AP287" s="10"/>
@@ -60214,7 +60765,9 @@
       <c r="AL288" s="10">
         <v>0.20061825703805658</v>
       </c>
-      <c r="AM288" s="10"/>
+      <c r="AM288" s="10">
+        <v>0.19191758391703817</v>
+      </c>
       <c r="AN288" s="10"/>
       <c r="AO288" s="10"/>
       <c r="AP288" s="10"/>
@@ -60427,7 +60980,9 @@
       <c r="AL289" s="10">
         <v>6.5827235824908792E-2</v>
       </c>
-      <c r="AM289" s="10"/>
+      <c r="AM289" s="10">
+        <v>7.772956084013205E-2</v>
+      </c>
       <c r="AN289" s="10"/>
       <c r="AO289" s="10"/>
       <c r="AP289" s="10"/>
@@ -60640,7 +61195,9 @@
       <c r="AL290" s="10">
         <v>1.9559206607455693E-4</v>
       </c>
-      <c r="AM290" s="10"/>
+      <c r="AM290" s="10">
+        <v>1.9559206607455693E-4</v>
+      </c>
       <c r="AN290" s="10"/>
       <c r="AO290" s="10"/>
       <c r="AP290" s="10"/>
@@ -60853,7 +61410,9 @@
       <c r="AL291" s="10">
         <v>6.963585009383344E-2</v>
       </c>
-      <c r="AM291" s="10"/>
+      <c r="AM291" s="10">
+        <v>6.963585009383344E-2</v>
+      </c>
       <c r="AN291" s="10"/>
       <c r="AO291" s="10"/>
       <c r="AP291" s="10"/>
@@ -61066,7 +61625,9 @@
       <c r="AL292" s="10">
         <v>-2.3936238371447427E-2</v>
       </c>
-      <c r="AM292" s="10"/>
+      <c r="AM292" s="10">
+        <v>-2.3936238371447427E-2</v>
+      </c>
       <c r="AN292" s="10"/>
       <c r="AO292" s="10"/>
       <c r="AP292" s="10"/>
@@ -61279,7 +61840,9 @@
       <c r="AL293" s="10">
         <v>0.13894345941196473</v>
       </c>
-      <c r="AM293" s="10"/>
+      <c r="AM293" s="10">
+        <v>0.13258772996190937</v>
+      </c>
       <c r="AN293" s="10"/>
       <c r="AO293" s="10"/>
       <c r="AP293" s="10"/>
@@ -61492,7 +62055,9 @@
       <c r="AL294" s="10">
         <v>0.10521056388294059</v>
       </c>
-      <c r="AM294" s="10"/>
+      <c r="AM294" s="10">
+        <v>0.12068522483940036</v>
+      </c>
       <c r="AN294" s="10"/>
       <c r="AO294" s="10"/>
       <c r="AP294" s="10"/>
@@ -61705,7 +62270,9 @@
       <c r="AL295" s="10">
         <v>8.8306690088006512E-2</v>
       </c>
-      <c r="AM295" s="10"/>
+      <c r="AM295" s="10">
+        <v>8.9326972915513725E-2</v>
+      </c>
       <c r="AN295" s="10"/>
       <c r="AO295" s="10"/>
       <c r="AP295" s="10"/>
@@ -61918,7 +62485,9 @@
       <c r="AL296" s="10">
         <v>4.3120423018208287E-2</v>
       </c>
-      <c r="AM296" s="10"/>
+      <c r="AM296" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
       <c r="AN296" s="10"/>
       <c r="AO296" s="10"/>
       <c r="AP296" s="10"/>
@@ -62131,7 +62700,9 @@
       <c r="AL297" s="10">
         <v>2.8458753671879888E-2</v>
       </c>
-      <c r="AM297" s="10"/>
+      <c r="AM297" s="10">
+        <v>3.5446667688617595E-2</v>
+      </c>
       <c r="AN297" s="10"/>
       <c r="AO297" s="10"/>
       <c r="AP297" s="10"/>
@@ -62344,7 +62915,9 @@
       <c r="AL298" s="10">
         <v>0.47797880116959046</v>
       </c>
-      <c r="AM298" s="10"/>
+      <c r="AM298" s="10">
+        <v>0.38006864291843123</v>
+      </c>
       <c r="AN298" s="10"/>
       <c r="AO298" s="10"/>
       <c r="AP298" s="10"/>
@@ -62557,7 +63130,9 @@
       <c r="AL299" s="10">
         <v>0</v>
       </c>
-      <c r="AM299" s="10"/>
+      <c r="AM299" s="10">
+        <v>0</v>
+      </c>
       <c r="AN299" s="10"/>
       <c r="AO299" s="10"/>
       <c r="AP299" s="10"/>
@@ -62770,7 +63345,9 @@
       <c r="AL300" s="10">
         <v>0</v>
       </c>
-      <c r="AM300" s="10"/>
+      <c r="AM300" s="10">
+        <v>0</v>
+      </c>
       <c r="AN300" s="10"/>
       <c r="AO300" s="10"/>
       <c r="AP300" s="10"/>
@@ -62983,7 +63560,9 @@
       <c r="AL301" s="10">
         <v>0</v>
       </c>
-      <c r="AM301" s="10"/>
+      <c r="AM301" s="10">
+        <v>0</v>
+      </c>
       <c r="AN301" s="10"/>
       <c r="AO301" s="10"/>
       <c r="AP301" s="10"/>
@@ -63196,7 +63775,9 @@
       <c r="AL302" s="10">
         <v>1.48237867544041E-2</v>
       </c>
-      <c r="AM302" s="10"/>
+      <c r="AM302" s="10">
+        <v>3.1116428597523171E-2</v>
+      </c>
       <c r="AN302" s="10"/>
       <c r="AO302" s="10"/>
       <c r="AP302" s="10"/>
@@ -63409,7 +63990,9 @@
       <c r="AL303" s="10">
         <v>9.0239315798964492E-2</v>
       </c>
-      <c r="AM303" s="10"/>
+      <c r="AM303" s="10">
+        <v>8.8821617158877819E-2</v>
+      </c>
       <c r="AN303" s="10"/>
       <c r="AO303" s="10"/>
       <c r="AP303" s="10"/>
@@ -63622,7 +64205,9 @@
       <c r="AL304" s="10">
         <v>2.9609902754064388E-2</v>
       </c>
-      <c r="AM304" s="10"/>
+      <c r="AM304" s="10">
+        <v>2.6565184459921287E-2</v>
+      </c>
       <c r="AN304" s="10"/>
       <c r="AO304" s="10"/>
       <c r="AP304" s="10"/>
@@ -63835,7 +64420,9 @@
       <c r="AL305" s="10">
         <v>7.064845833048472E-2</v>
       </c>
-      <c r="AM305" s="10"/>
+      <c r="AM305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
       <c r="AN305" s="10"/>
       <c r="AO305" s="10"/>
       <c r="AP305" s="10"/>
@@ -64048,7 +64635,9 @@
       <c r="AL306" s="10">
         <v>0.15212196681587176</v>
       </c>
-      <c r="AM306" s="10"/>
+      <c r="AM306" s="10">
+        <v>0.14691618126988071</v>
+      </c>
       <c r="AN306" s="10"/>
       <c r="AO306" s="10"/>
       <c r="AP306" s="10"/>
@@ -64261,7 +64850,9 @@
       <c r="AL307" s="10">
         <v>2.8072230900840545E-2</v>
       </c>
-      <c r="AM307" s="10"/>
+      <c r="AM307" s="10">
+        <v>2.5300167556909114E-2</v>
+      </c>
       <c r="AN307" s="10"/>
       <c r="AO307" s="10"/>
       <c r="AP307" s="10"/>
@@ -64474,7 +65065,9 @@
       <c r="AL308" s="10">
         <v>9.6701614613589948E-2</v>
       </c>
-      <c r="AM308" s="10"/>
+      <c r="AM308" s="10">
+        <v>0.10063480900207278</v>
+      </c>
       <c r="AN308" s="10"/>
       <c r="AO308" s="10"/>
       <c r="AP308" s="10"/>
@@ -64687,7 +65280,9 @@
       <c r="AL309" s="10">
         <v>0.10342533033366075</v>
       </c>
-      <c r="AM309" s="10"/>
+      <c r="AM309" s="10">
+        <v>0.10725196334031772</v>
+      </c>
       <c r="AN309" s="10"/>
       <c r="AO309" s="10"/>
       <c r="AP309" s="10"/>
@@ -64900,7 +65495,9 @@
       <c r="AL310" s="10">
         <v>0.19224657263675793</v>
       </c>
-      <c r="AM310" s="10"/>
+      <c r="AM310" s="10">
+        <v>0.12097242704562716</v>
+      </c>
       <c r="AN310" s="10"/>
       <c r="AO310" s="10"/>
       <c r="AP310" s="10"/>
@@ -65113,7 +65710,9 @@
       <c r="AL311" s="10">
         <v>7.0909772379645908E-4</v>
       </c>
-      <c r="AM311" s="10"/>
+      <c r="AM311" s="10">
+        <v>7.0909772379645908E-4</v>
+      </c>
       <c r="AN311" s="10"/>
       <c r="AO311" s="10"/>
       <c r="AP311" s="10"/>
@@ -65326,7 +65925,9 @@
       <c r="AL312" s="10">
         <v>0</v>
       </c>
-      <c r="AM312" s="10"/>
+      <c r="AM312" s="10">
+        <v>0</v>
+      </c>
       <c r="AN312" s="10"/>
       <c r="AO312" s="10"/>
       <c r="AP312" s="10"/>
@@ -65539,7 +66140,9 @@
       <c r="AL313" s="10">
         <v>4.9110007471542261E-2</v>
       </c>
-      <c r="AM313" s="10"/>
+      <c r="AM313" s="10">
+        <v>6.4360743638201656E-2</v>
+      </c>
       <c r="AN313" s="10"/>
       <c r="AO313" s="10"/>
       <c r="AP313" s="10"/>
@@ -65752,7 +66355,9 @@
       <c r="AL314" s="11">
         <v>6.9421005663594881E-2</v>
       </c>
-      <c r="AM314" s="11"/>
+      <c r="AM314" s="11">
+        <v>7.3450021647125441E-2</v>
+      </c>
       <c r="AN314" s="11"/>
       <c r="AO314" s="11"/>
       <c r="AP314" s="11"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="455">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1385,10 +1385,13 @@
     <t xml:space="preserve"> 04/2022</t>
   </si>
   <si>
-    <t>Última actualización:  06/09/2022</t>
+    <t xml:space="preserve"> 05/2022</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/2022</t>
+    <t>Última actualización:  07/07/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/2022</t>
   </si>
 </sst>
 </file>
@@ -1910,9 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EE314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD314"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1942,7 +1943,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2071,9 +2072,11 @@
         <v>451</v>
       </c>
       <c r="AM15" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="AN15" s="13"/>
+        <v>452</v>
+      </c>
+      <c r="AN15" s="13" t="s">
+        <v>454</v>
+      </c>
       <c r="AO15" s="13"/>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="13"/>
@@ -2288,7 +2291,9 @@
       <c r="AM16" s="10">
         <v>0.249764692913653</v>
       </c>
-      <c r="AN16" s="10"/>
+      <c r="AN16" s="10">
+        <v>0.27122304576547496</v>
+      </c>
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
@@ -2503,7 +2508,9 @@
       <c r="AM17" s="10">
         <v>-1.2992896646636387E-3</v>
       </c>
-      <c r="AN17" s="10"/>
+      <c r="AN17" s="10">
+        <v>-5.8198950340360156E-3</v>
+      </c>
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
@@ -2718,7 +2725,9 @@
       <c r="AM18" s="10">
         <v>0.13744718720569549</v>
       </c>
-      <c r="AN18" s="10"/>
+      <c r="AN18" s="10">
+        <v>0.11868126324286132</v>
+      </c>
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
@@ -2933,7 +2942,9 @@
       <c r="AM19" s="10">
         <v>0.21566855308725397</v>
       </c>
-      <c r="AN19" s="10"/>
+      <c r="AN19" s="10">
+        <v>0.2719629732353348</v>
+      </c>
       <c r="AO19" s="10"/>
       <c r="AP19" s="10"/>
       <c r="AQ19" s="10"/>
@@ -3148,7 +3159,9 @@
       <c r="AM20" s="10">
         <v>7.7695384915601684E-2</v>
       </c>
-      <c r="AN20" s="10"/>
+      <c r="AN20" s="10">
+        <v>8.201775783003229E-2</v>
+      </c>
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
@@ -3363,7 +3376,9 @@
       <c r="AM21" s="10">
         <v>0.11733252184497656</v>
       </c>
-      <c r="AN21" s="10"/>
+      <c r="AN21" s="10">
+        <v>9.2186046511627984E-2</v>
+      </c>
       <c r="AO21" s="10"/>
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
@@ -3578,7 +3593,9 @@
       <c r="AM22" s="10">
         <v>3.2909321444639872E-2</v>
       </c>
-      <c r="AN22" s="10"/>
+      <c r="AN22" s="10">
+        <v>5.0706505740359065E-2</v>
+      </c>
       <c r="AO22" s="10"/>
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
@@ -3793,7 +3810,9 @@
       <c r="AM23" s="10">
         <v>0.10416183002894219</v>
       </c>
-      <c r="AN23" s="10"/>
+      <c r="AN23" s="10">
+        <v>0.12798095282267741</v>
+      </c>
       <c r="AO23" s="10"/>
       <c r="AP23" s="10"/>
       <c r="AQ23" s="10"/>
@@ -4008,7 +4027,9 @@
       <c r="AM24" s="10">
         <v>1.4730121018635467E-2</v>
       </c>
-      <c r="AN24" s="10"/>
+      <c r="AN24" s="10">
+        <v>1.8933128544423417E-2</v>
+      </c>
       <c r="AO24" s="10"/>
       <c r="AP24" s="10"/>
       <c r="AQ24" s="10"/>
@@ -4223,7 +4244,9 @@
       <c r="AM25" s="10">
         <v>0.40820234261084143</v>
       </c>
-      <c r="AN25" s="10"/>
+      <c r="AN25" s="10">
+        <v>0.45368987152674034</v>
+      </c>
       <c r="AO25" s="10"/>
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
@@ -4438,7 +4461,9 @@
       <c r="AM26" s="10">
         <v>0.18478373792291447</v>
       </c>
-      <c r="AN26" s="10"/>
+      <c r="AN26" s="10">
+        <v>0.19638865152731388</v>
+      </c>
       <c r="AO26" s="10"/>
       <c r="AP26" s="10"/>
       <c r="AQ26" s="10"/>
@@ -4653,7 +4678,9 @@
       <c r="AM27" s="10">
         <v>0.11675638131620047</v>
       </c>
-      <c r="AN27" s="10"/>
+      <c r="AN27" s="10">
+        <v>9.7087793700195046E-2</v>
+      </c>
       <c r="AO27" s="10"/>
       <c r="AP27" s="10"/>
       <c r="AQ27" s="10"/>
@@ -4868,7 +4895,9 @@
       <c r="AM28" s="10">
         <v>0.10234820612854634</v>
       </c>
-      <c r="AN28" s="10"/>
+      <c r="AN28" s="10">
+        <v>0.11901164774111783</v>
+      </c>
       <c r="AO28" s="10"/>
       <c r="AP28" s="10"/>
       <c r="AQ28" s="10"/>
@@ -5083,7 +5112,9 @@
       <c r="AM29" s="10">
         <v>5.6886740977472927E-2</v>
       </c>
-      <c r="AN29" s="10"/>
+      <c r="AN29" s="10">
+        <v>5.6739831253566964E-2</v>
+      </c>
       <c r="AO29" s="10"/>
       <c r="AP29" s="10"/>
       <c r="AQ29" s="10"/>
@@ -5298,7 +5329,9 @@
       <c r="AM30" s="10">
         <v>6.6344600348595684E-2</v>
       </c>
-      <c r="AN30" s="10"/>
+      <c r="AN30" s="10">
+        <v>6.3499012927466181E-2</v>
+      </c>
       <c r="AO30" s="10"/>
       <c r="AP30" s="10"/>
       <c r="AQ30" s="10"/>
@@ -5513,7 +5546,9 @@
       <c r="AM31" s="10">
         <v>5.4621732515790056E-2</v>
       </c>
-      <c r="AN31" s="10"/>
+      <c r="AN31" s="10">
+        <v>7.2373735966793751E-2</v>
+      </c>
       <c r="AO31" s="10"/>
       <c r="AP31" s="10"/>
       <c r="AQ31" s="10"/>
@@ -5728,7 +5763,9 @@
       <c r="AM32" s="10">
         <v>9.7352515535881645E-2</v>
       </c>
-      <c r="AN32" s="10"/>
+      <c r="AN32" s="10">
+        <v>8.8278049425135396E-2</v>
+      </c>
       <c r="AO32" s="10"/>
       <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
@@ -5943,7 +5980,9 @@
       <c r="AM33" s="10">
         <v>0.90437425074576949</v>
       </c>
-      <c r="AN33" s="10"/>
+      <c r="AN33" s="10">
+        <v>0.7848794161201611</v>
+      </c>
       <c r="AO33" s="10"/>
       <c r="AP33" s="10"/>
       <c r="AQ33" s="10"/>
@@ -6158,7 +6197,9 @@
       <c r="AM34" s="10">
         <v>-8.3035727970816708E-2</v>
       </c>
-      <c r="AN34" s="10"/>
+      <c r="AN34" s="10">
+        <v>-6.5297734730939583E-2</v>
+      </c>
       <c r="AO34" s="10"/>
       <c r="AP34" s="10"/>
       <c r="AQ34" s="10"/>
@@ -6373,7 +6414,9 @@
       <c r="AM35" s="10">
         <v>-9.6319525344748191E-2</v>
       </c>
-      <c r="AN35" s="10"/>
+      <c r="AN35" s="10">
+        <v>-4.11453640378735E-2</v>
+      </c>
       <c r="AO35" s="10"/>
       <c r="AP35" s="10"/>
       <c r="AQ35" s="10"/>
@@ -6588,7 +6631,9 @@
       <c r="AM36" s="10">
         <v>0.34728209762710227</v>
       </c>
-      <c r="AN36" s="10"/>
+      <c r="AN36" s="10">
+        <v>6.709525996224297E-2</v>
+      </c>
       <c r="AO36" s="10"/>
       <c r="AP36" s="10"/>
       <c r="AQ36" s="10"/>
@@ -6803,7 +6848,9 @@
       <c r="AM37" s="10">
         <v>5.9760392297253384E-2</v>
       </c>
-      <c r="AN37" s="10"/>
+      <c r="AN37" s="10">
+        <v>4.097552079447575E-2</v>
+      </c>
       <c r="AO37" s="10"/>
       <c r="AP37" s="10"/>
       <c r="AQ37" s="10"/>
@@ -7018,7 +7065,9 @@
       <c r="AM38" s="10">
         <v>0.22989732888725567</v>
       </c>
-      <c r="AN38" s="10"/>
+      <c r="AN38" s="10">
+        <v>0.27076540079877209</v>
+      </c>
       <c r="AO38" s="10"/>
       <c r="AP38" s="10"/>
       <c r="AQ38" s="10"/>
@@ -7233,7 +7282,9 @@
       <c r="AM39" s="10">
         <v>0.14611556230053324</v>
       </c>
-      <c r="AN39" s="10"/>
+      <c r="AN39" s="10">
+        <v>0.18485288811304734</v>
+      </c>
       <c r="AO39" s="10"/>
       <c r="AP39" s="10"/>
       <c r="AQ39" s="10"/>
@@ -7448,7 +7499,9 @@
       <c r="AM40" s="10">
         <v>5.9253332528192537E-2</v>
       </c>
-      <c r="AN40" s="10"/>
+      <c r="AN40" s="10">
+        <v>0.19147883840881796</v>
+      </c>
       <c r="AO40" s="10"/>
       <c r="AP40" s="10"/>
       <c r="AQ40" s="10"/>
@@ -7663,7 +7716,9 @@
       <c r="AM41" s="10">
         <v>0.13774592693990395</v>
       </c>
-      <c r="AN41" s="10"/>
+      <c r="AN41" s="10">
+        <v>0.13990786246345732</v>
+      </c>
       <c r="AO41" s="10"/>
       <c r="AP41" s="10"/>
       <c r="AQ41" s="10"/>
@@ -7878,7 +7933,9 @@
       <c r="AM42" s="10">
         <v>4.5488435071000755E-2</v>
       </c>
-      <c r="AN42" s="10"/>
+      <c r="AN42" s="10">
+        <v>-2.3984663327957234E-3</v>
+      </c>
       <c r="AO42" s="10"/>
       <c r="AP42" s="10"/>
       <c r="AQ42" s="10"/>
@@ -8093,7 +8150,9 @@
       <c r="AM43" s="10">
         <v>5.806647825474176E-2</v>
       </c>
-      <c r="AN43" s="10"/>
+      <c r="AN43" s="10">
+        <v>0.20328158186006151</v>
+      </c>
       <c r="AO43" s="10"/>
       <c r="AP43" s="10"/>
       <c r="AQ43" s="10"/>
@@ -8308,7 +8367,9 @@
       <c r="AM44" s="10">
         <v>-2.380092555439639E-2</v>
       </c>
-      <c r="AN44" s="10"/>
+      <c r="AN44" s="10">
+        <v>1.1299801694609535E-2</v>
+      </c>
       <c r="AO44" s="10"/>
       <c r="AP44" s="10"/>
       <c r="AQ44" s="10"/>
@@ -8523,7 +8584,9 @@
       <c r="AM45" s="10">
         <v>0.21948635659035487</v>
       </c>
-      <c r="AN45" s="10"/>
+      <c r="AN45" s="10">
+        <v>0.2431060949517605</v>
+      </c>
       <c r="AO45" s="10"/>
       <c r="AP45" s="10"/>
       <c r="AQ45" s="10"/>
@@ -8738,7 +8801,9 @@
       <c r="AM46" s="10">
         <v>6.3667379464500407E-3</v>
       </c>
-      <c r="AN46" s="10"/>
+      <c r="AN46" s="10">
+        <v>6.4481823764660051E-2</v>
+      </c>
       <c r="AO46" s="10"/>
       <c r="AP46" s="10"/>
       <c r="AQ46" s="10"/>
@@ -8953,7 +9018,9 @@
       <c r="AM47" s="10">
         <v>2.6829469175966736E-2</v>
       </c>
-      <c r="AN47" s="10"/>
+      <c r="AN47" s="10">
+        <v>3.2151723995837989E-2</v>
+      </c>
       <c r="AO47" s="10"/>
       <c r="AP47" s="10"/>
       <c r="AQ47" s="10"/>
@@ -9168,7 +9235,9 @@
       <c r="AM48" s="10">
         <v>0.12714220542792454</v>
       </c>
-      <c r="AN48" s="10"/>
+      <c r="AN48" s="10">
+        <v>0.13741820853193909</v>
+      </c>
       <c r="AO48" s="10"/>
       <c r="AP48" s="10"/>
       <c r="AQ48" s="10"/>
@@ -9383,7 +9452,9 @@
       <c r="AM49" s="10">
         <v>-6.4316297713401527E-3</v>
       </c>
-      <c r="AN49" s="10"/>
+      <c r="AN49" s="10">
+        <v>-1.7474531414276906E-2</v>
+      </c>
       <c r="AO49" s="10"/>
       <c r="AP49" s="10"/>
       <c r="AQ49" s="10"/>
@@ -9598,7 +9669,9 @@
       <c r="AM50" s="10">
         <v>7.2787930581120097E-2</v>
       </c>
-      <c r="AN50" s="10"/>
+      <c r="AN50" s="10">
+        <v>7.9421140183392858E-2</v>
+      </c>
       <c r="AO50" s="10"/>
       <c r="AP50" s="10"/>
       <c r="AQ50" s="10"/>
@@ -9813,7 +9886,9 @@
       <c r="AM51" s="10">
         <v>4.984638332022806E-2</v>
       </c>
-      <c r="AN51" s="10"/>
+      <c r="AN51" s="10">
+        <v>3.4489577977296904E-2</v>
+      </c>
       <c r="AO51" s="10"/>
       <c r="AP51" s="10"/>
       <c r="AQ51" s="10"/>
@@ -10028,7 +10103,9 @@
       <c r="AM52" s="10">
         <v>2.7843611578758143E-2</v>
       </c>
-      <c r="AN52" s="10"/>
+      <c r="AN52" s="10">
+        <v>4.523260268836049E-2</v>
+      </c>
       <c r="AO52" s="10"/>
       <c r="AP52" s="10"/>
       <c r="AQ52" s="10"/>
@@ -10243,7 +10320,9 @@
       <c r="AM53" s="10">
         <v>0.1689601398361722</v>
       </c>
-      <c r="AN53" s="10"/>
+      <c r="AN53" s="10">
+        <v>0.17393150778011823</v>
+      </c>
       <c r="AO53" s="10"/>
       <c r="AP53" s="10"/>
       <c r="AQ53" s="10"/>
@@ -10458,7 +10537,9 @@
       <c r="AM54" s="10">
         <v>0.11835897616448965</v>
       </c>
-      <c r="AN54" s="10"/>
+      <c r="AN54" s="10">
+        <v>0.14535872601810151</v>
+      </c>
       <c r="AO54" s="10"/>
       <c r="AP54" s="10"/>
       <c r="AQ54" s="10"/>
@@ -10673,7 +10754,9 @@
       <c r="AM55" s="10">
         <v>0.22386241023923792</v>
       </c>
-      <c r="AN55" s="10"/>
+      <c r="AN55" s="10">
+        <v>0.37461606645915357</v>
+      </c>
       <c r="AO55" s="10"/>
       <c r="AP55" s="10"/>
       <c r="AQ55" s="10"/>
@@ -10888,7 +10971,9 @@
       <c r="AM56" s="10">
         <v>0.81731909845788864</v>
       </c>
-      <c r="AN56" s="10"/>
+      <c r="AN56" s="10">
+        <v>0.72092409089343357</v>
+      </c>
       <c r="AO56" s="10"/>
       <c r="AP56" s="10"/>
       <c r="AQ56" s="10"/>
@@ -11103,7 +11188,9 @@
       <c r="AM57" s="10">
         <v>9.5556856622430297E-2</v>
       </c>
-      <c r="AN57" s="10"/>
+      <c r="AN57" s="10">
+        <v>0.1120605374354442</v>
+      </c>
       <c r="AO57" s="10"/>
       <c r="AP57" s="10"/>
       <c r="AQ57" s="10"/>
@@ -11318,7 +11405,9 @@
       <c r="AM58" s="10">
         <v>0.55094596015562436</v>
       </c>
-      <c r="AN58" s="10"/>
+      <c r="AN58" s="10">
+        <v>0.32695871820165578</v>
+      </c>
       <c r="AO58" s="10"/>
       <c r="AP58" s="10"/>
       <c r="AQ58" s="10"/>
@@ -11533,7 +11622,9 @@
       <c r="AM59" s="10">
         <v>7.7970686106448195E-2</v>
       </c>
-      <c r="AN59" s="10"/>
+      <c r="AN59" s="10">
+        <v>7.9398545173514856E-2</v>
+      </c>
       <c r="AO59" s="10"/>
       <c r="AP59" s="10"/>
       <c r="AQ59" s="10"/>
@@ -11748,7 +11839,9 @@
       <c r="AM60" s="10">
         <v>0.23925838728663895</v>
       </c>
-      <c r="AN60" s="10"/>
+      <c r="AN60" s="10">
+        <v>0.20767646328073019</v>
+      </c>
       <c r="AO60" s="10"/>
       <c r="AP60" s="10"/>
       <c r="AQ60" s="10"/>
@@ -11963,7 +12056,9 @@
       <c r="AM61" s="10">
         <v>0.1598049973614335</v>
       </c>
-      <c r="AN61" s="10"/>
+      <c r="AN61" s="10">
+        <v>3.115990241738742E-2</v>
+      </c>
       <c r="AO61" s="10"/>
       <c r="AP61" s="10"/>
       <c r="AQ61" s="10"/>
@@ -12178,7 +12273,9 @@
       <c r="AM62" s="10">
         <v>7.7417596360799701E-2</v>
       </c>
-      <c r="AN62" s="10"/>
+      <c r="AN62" s="10">
+        <v>9.8973776254815959E-2</v>
+      </c>
       <c r="AO62" s="10"/>
       <c r="AP62" s="10"/>
       <c r="AQ62" s="10"/>
@@ -12393,7 +12490,9 @@
       <c r="AM63" s="10">
         <v>0.19041937079828886</v>
       </c>
-      <c r="AN63" s="10"/>
+      <c r="AN63" s="10">
+        <v>0.17513143160811562</v>
+      </c>
       <c r="AO63" s="10"/>
       <c r="AP63" s="10"/>
       <c r="AQ63" s="10"/>
@@ -12608,7 +12707,9 @@
       <c r="AM64" s="10">
         <v>0.12057470397465875</v>
       </c>
-      <c r="AN64" s="10"/>
+      <c r="AN64" s="10">
+        <v>9.5467510012265944E-2</v>
+      </c>
       <c r="AO64" s="10"/>
       <c r="AP64" s="10"/>
       <c r="AQ64" s="10"/>
@@ -12823,7 +12924,9 @@
       <c r="AM65" s="10">
         <v>0.10951456801673953</v>
       </c>
-      <c r="AN65" s="10"/>
+      <c r="AN65" s="10">
+        <v>0.1069901125255952</v>
+      </c>
       <c r="AO65" s="10"/>
       <c r="AP65" s="10"/>
       <c r="AQ65" s="10"/>
@@ -13038,7 +13141,9 @@
       <c r="AM66" s="10">
         <v>7.5462345540593168E-2</v>
       </c>
-      <c r="AN66" s="10"/>
+      <c r="AN66" s="10">
+        <v>0.29726612203156022</v>
+      </c>
       <c r="AO66" s="10"/>
       <c r="AP66" s="10"/>
       <c r="AQ66" s="10"/>
@@ -13253,7 +13358,9 @@
       <c r="AM67" s="10">
         <v>0.147802626446496</v>
       </c>
-      <c r="AN67" s="10"/>
+      <c r="AN67" s="10">
+        <v>0.12279155722486967</v>
+      </c>
       <c r="AO67" s="10"/>
       <c r="AP67" s="10"/>
       <c r="AQ67" s="10"/>
@@ -13468,7 +13575,9 @@
       <c r="AM68" s="10">
         <v>-0.21100832733248398</v>
       </c>
-      <c r="AN68" s="10"/>
+      <c r="AN68" s="10">
+        <v>-4.5905179465366541E-2</v>
+      </c>
       <c r="AO68" s="10"/>
       <c r="AP68" s="10"/>
       <c r="AQ68" s="10"/>
@@ -13683,7 +13792,9 @@
       <c r="AM69" s="10">
         <v>-2.719181046649477E-3</v>
       </c>
-      <c r="AN69" s="10"/>
+      <c r="AN69" s="10">
+        <v>4.2174756512788125E-2</v>
+      </c>
       <c r="AO69" s="10"/>
       <c r="AP69" s="10"/>
       <c r="AQ69" s="10"/>
@@ -13898,7 +14009,9 @@
       <c r="AM70" s="10">
         <v>5.5856740653440706E-2</v>
       </c>
-      <c r="AN70" s="10"/>
+      <c r="AN70" s="10">
+        <v>8.0003404678814283E-2</v>
+      </c>
       <c r="AO70" s="10"/>
       <c r="AP70" s="10"/>
       <c r="AQ70" s="10"/>
@@ -14113,7 +14226,9 @@
       <c r="AM71" s="10">
         <v>-0.14959177398968337</v>
       </c>
-      <c r="AN71" s="10"/>
+      <c r="AN71" s="10">
+        <v>-0.16062654396394926</v>
+      </c>
       <c r="AO71" s="10"/>
       <c r="AP71" s="10"/>
       <c r="AQ71" s="10"/>
@@ -14328,7 +14443,9 @@
       <c r="AM72" s="10">
         <v>0.12806652026202681</v>
       </c>
-      <c r="AN72" s="10"/>
+      <c r="AN72" s="10">
+        <v>0.13488205254066088</v>
+      </c>
       <c r="AO72" s="10"/>
       <c r="AP72" s="10"/>
       <c r="AQ72" s="10"/>
@@ -14543,7 +14660,9 @@
       <c r="AM73" s="10">
         <v>0.12408992656985207</v>
       </c>
-      <c r="AN73" s="10"/>
+      <c r="AN73" s="10">
+        <v>0.11381530749951785</v>
+      </c>
       <c r="AO73" s="10"/>
       <c r="AP73" s="10"/>
       <c r="AQ73" s="10"/>
@@ -14758,7 +14877,9 @@
       <c r="AM74" s="10">
         <v>8.7917521093882955E-2</v>
       </c>
-      <c r="AN74" s="10"/>
+      <c r="AN74" s="10">
+        <v>8.051687447912026E-2</v>
+      </c>
       <c r="AO74" s="10"/>
       <c r="AP74" s="10"/>
       <c r="AQ74" s="10"/>
@@ -14973,7 +15094,9 @@
       <c r="AM75" s="10">
         <v>6.9661717310299576E-2</v>
       </c>
-      <c r="AN75" s="10"/>
+      <c r="AN75" s="10">
+        <v>5.2256341574907994E-2</v>
+      </c>
       <c r="AO75" s="10"/>
       <c r="AP75" s="10"/>
       <c r="AQ75" s="10"/>
@@ -15188,7 +15311,9 @@
       <c r="AM76" s="10">
         <v>9.1664629674896192E-2</v>
       </c>
-      <c r="AN76" s="10"/>
+      <c r="AN76" s="10">
+        <v>0.11291118560999269</v>
+      </c>
       <c r="AO76" s="10"/>
       <c r="AP76" s="10"/>
       <c r="AQ76" s="10"/>
@@ -15403,7 +15528,9 @@
       <c r="AM77" s="10">
         <v>0.15001964045432126</v>
       </c>
-      <c r="AN77" s="10"/>
+      <c r="AN77" s="10">
+        <v>0.16116889714271432</v>
+      </c>
       <c r="AO77" s="10"/>
       <c r="AP77" s="10"/>
       <c r="AQ77" s="10"/>
@@ -15618,7 +15745,9 @@
       <c r="AM78" s="10">
         <v>8.4266675009385672E-2</v>
       </c>
-      <c r="AN78" s="10"/>
+      <c r="AN78" s="10">
+        <v>9.8690464032930914E-2</v>
+      </c>
       <c r="AO78" s="10"/>
       <c r="AP78" s="10"/>
       <c r="AQ78" s="10"/>
@@ -15833,7 +15962,9 @@
       <c r="AM79" s="10">
         <v>0.15226921420064365</v>
       </c>
-      <c r="AN79" s="10"/>
+      <c r="AN79" s="10">
+        <v>0.16410721178859755</v>
+      </c>
       <c r="AO79" s="10"/>
       <c r="AP79" s="10"/>
       <c r="AQ79" s="10"/>
@@ -16048,7 +16179,9 @@
       <c r="AM80" s="10">
         <v>9.7932810015396887E-2</v>
       </c>
-      <c r="AN80" s="10"/>
+      <c r="AN80" s="10">
+        <v>8.3838143067325399E-2</v>
+      </c>
       <c r="AO80" s="10"/>
       <c r="AP80" s="10"/>
       <c r="AQ80" s="10"/>
@@ -16263,7 +16396,9 @@
       <c r="AM81" s="10">
         <v>9.9441812848866995E-2</v>
       </c>
-      <c r="AN81" s="10"/>
+      <c r="AN81" s="10">
+        <v>9.3582090754569469E-2</v>
+      </c>
       <c r="AO81" s="10"/>
       <c r="AP81" s="10"/>
       <c r="AQ81" s="10"/>
@@ -16478,7 +16613,9 @@
       <c r="AM82" s="10">
         <v>0.14617027092922763</v>
       </c>
-      <c r="AN82" s="10"/>
+      <c r="AN82" s="10">
+        <v>0.18665816901517918</v>
+      </c>
       <c r="AO82" s="10"/>
       <c r="AP82" s="10"/>
       <c r="AQ82" s="10"/>
@@ -16693,7 +16830,9 @@
       <c r="AM83" s="10">
         <v>5.2659212445308912E-2</v>
       </c>
-      <c r="AN83" s="10"/>
+      <c r="AN83" s="10">
+        <v>5.4825969376836037E-2</v>
+      </c>
       <c r="AO83" s="10"/>
       <c r="AP83" s="10"/>
       <c r="AQ83" s="10"/>
@@ -16908,7 +17047,9 @@
       <c r="AM84" s="10">
         <v>0.13686053158045164</v>
       </c>
-      <c r="AN84" s="10"/>
+      <c r="AN84" s="10">
+        <v>0.15098721382366276</v>
+      </c>
       <c r="AO84" s="10"/>
       <c r="AP84" s="10"/>
       <c r="AQ84" s="10"/>
@@ -17123,7 +17264,9 @@
       <c r="AM85" s="10">
         <v>4.5905239786144358E-2</v>
       </c>
-      <c r="AN85" s="10"/>
+      <c r="AN85" s="10">
+        <v>8.2352356827099849E-2</v>
+      </c>
       <c r="AO85" s="10"/>
       <c r="AP85" s="10"/>
       <c r="AQ85" s="10"/>
@@ -17338,7 +17481,9 @@
       <c r="AM86" s="10">
         <v>4.8788685999512582E-2</v>
       </c>
-      <c r="AN86" s="10"/>
+      <c r="AN86" s="10">
+        <v>6.3257722251181203E-2</v>
+      </c>
       <c r="AO86" s="10"/>
       <c r="AP86" s="10"/>
       <c r="AQ86" s="10"/>
@@ -17553,7 +17698,9 @@
       <c r="AM87" s="10">
         <v>0.10330393182837505</v>
       </c>
-      <c r="AN87" s="10"/>
+      <c r="AN87" s="10">
+        <v>0.10521900751681845</v>
+      </c>
       <c r="AO87" s="10"/>
       <c r="AP87" s="10"/>
       <c r="AQ87" s="10"/>
@@ -17768,7 +17915,9 @@
       <c r="AM88" s="10">
         <v>9.5066363666304277E-2</v>
       </c>
-      <c r="AN88" s="10"/>
+      <c r="AN88" s="10">
+        <v>0.10186504493460813</v>
+      </c>
       <c r="AO88" s="10"/>
       <c r="AP88" s="10"/>
       <c r="AQ88" s="10"/>
@@ -17983,7 +18132,9 @@
       <c r="AM89" s="10">
         <v>0.1252636238185747</v>
       </c>
-      <c r="AN89" s="10"/>
+      <c r="AN89" s="10">
+        <v>0.12557461793328351</v>
+      </c>
       <c r="AO89" s="10"/>
       <c r="AP89" s="10"/>
       <c r="AQ89" s="10"/>
@@ -18198,7 +18349,9 @@
       <c r="AM90" s="10">
         <v>7.2291302376789046E-2</v>
       </c>
-      <c r="AN90" s="10"/>
+      <c r="AN90" s="10">
+        <v>7.6911903551456051E-2</v>
+      </c>
       <c r="AO90" s="10"/>
       <c r="AP90" s="10"/>
       <c r="AQ90" s="10"/>
@@ -18413,7 +18566,9 @@
       <c r="AM91" s="10">
         <v>0.13410658102799022</v>
       </c>
-      <c r="AN91" s="10"/>
+      <c r="AN91" s="10">
+        <v>0.15937899896177887</v>
+      </c>
       <c r="AO91" s="10"/>
       <c r="AP91" s="10"/>
       <c r="AQ91" s="10"/>
@@ -18628,7 +18783,9 @@
       <c r="AM92" s="10">
         <v>5.5710475266731452E-2</v>
       </c>
-      <c r="AN92" s="10"/>
+      <c r="AN92" s="10">
+        <v>6.7476592122572177E-2</v>
+      </c>
       <c r="AO92" s="10"/>
       <c r="AP92" s="10"/>
       <c r="AQ92" s="10"/>
@@ -18843,7 +19000,9 @@
       <c r="AM93" s="10">
         <v>7.7200819534477549E-2</v>
       </c>
-      <c r="AN93" s="10"/>
+      <c r="AN93" s="10">
+        <v>7.1783352052914084E-2</v>
+      </c>
       <c r="AO93" s="10"/>
       <c r="AP93" s="10"/>
       <c r="AQ93" s="10"/>
@@ -19058,7 +19217,9 @@
       <c r="AM94" s="10">
         <v>4.2940976356523164E-2</v>
       </c>
-      <c r="AN94" s="10"/>
+      <c r="AN94" s="10">
+        <v>5.4039802687531946E-2</v>
+      </c>
       <c r="AO94" s="10"/>
       <c r="AP94" s="10"/>
       <c r="AQ94" s="10"/>
@@ -19273,7 +19434,9 @@
       <c r="AM95" s="10">
         <v>3.580937405071194E-2</v>
       </c>
-      <c r="AN95" s="10"/>
+      <c r="AN95" s="10">
+        <v>5.9567243434598849E-2</v>
+      </c>
       <c r="AO95" s="10"/>
       <c r="AP95" s="10"/>
       <c r="AQ95" s="10"/>
@@ -19488,7 +19651,9 @@
       <c r="AM96" s="10">
         <v>5.3405359944362685E-2</v>
       </c>
-      <c r="AN96" s="10"/>
+      <c r="AN96" s="10">
+        <v>6.197001450910844E-2</v>
+      </c>
       <c r="AO96" s="10"/>
       <c r="AP96" s="10"/>
       <c r="AQ96" s="10"/>
@@ -19703,7 +19868,9 @@
       <c r="AM97" s="10">
         <v>0.13269622962700756</v>
       </c>
-      <c r="AN97" s="10"/>
+      <c r="AN97" s="10">
+        <v>0.11491401841154647</v>
+      </c>
       <c r="AO97" s="10"/>
       <c r="AP97" s="10"/>
       <c r="AQ97" s="10"/>
@@ -19918,7 +20085,9 @@
       <c r="AM98" s="10">
         <v>0.10955277987150502</v>
       </c>
-      <c r="AN98" s="10"/>
+      <c r="AN98" s="10">
+        <v>0.10173832830313723</v>
+      </c>
       <c r="AO98" s="10"/>
       <c r="AP98" s="10"/>
       <c r="AQ98" s="10"/>
@@ -20133,7 +20302,9 @@
       <c r="AM99" s="10">
         <v>9.3371545547594526E-2</v>
       </c>
-      <c r="AN99" s="10"/>
+      <c r="AN99" s="10">
+        <v>0.14399726926952972</v>
+      </c>
       <c r="AO99" s="10"/>
       <c r="AP99" s="10"/>
       <c r="AQ99" s="10"/>
@@ -20348,7 +20519,9 @@
       <c r="AM100" s="10">
         <v>0.11242628229190132</v>
       </c>
-      <c r="AN100" s="10"/>
+      <c r="AN100" s="10">
+        <v>0.11276230303935475</v>
+      </c>
       <c r="AO100" s="10"/>
       <c r="AP100" s="10"/>
       <c r="AQ100" s="10"/>
@@ -20563,7 +20736,9 @@
       <c r="AM101" s="10">
         <v>4.711835037255252E-2</v>
       </c>
-      <c r="AN101" s="10"/>
+      <c r="AN101" s="10">
+        <v>6.4363129680346631E-2</v>
+      </c>
       <c r="AO101" s="10"/>
       <c r="AP101" s="10"/>
       <c r="AQ101" s="10"/>
@@ -20778,7 +20953,9 @@
       <c r="AM102" s="10">
         <v>6.032402908554757E-2</v>
       </c>
-      <c r="AN102" s="10"/>
+      <c r="AN102" s="10">
+        <v>0.15389955636831609</v>
+      </c>
       <c r="AO102" s="10"/>
       <c r="AP102" s="10"/>
       <c r="AQ102" s="10"/>
@@ -20993,7 +21170,9 @@
       <c r="AM103" s="10">
         <v>0.1033225212588762</v>
       </c>
-      <c r="AN103" s="10"/>
+      <c r="AN103" s="10">
+        <v>0.11902147388970241</v>
+      </c>
       <c r="AO103" s="10"/>
       <c r="AP103" s="10"/>
       <c r="AQ103" s="10"/>
@@ -21208,7 +21387,9 @@
       <c r="AM104" s="10">
         <v>0.17176345231752799</v>
       </c>
-      <c r="AN104" s="10"/>
+      <c r="AN104" s="10">
+        <v>0.19599878232082046</v>
+      </c>
       <c r="AO104" s="10"/>
       <c r="AP104" s="10"/>
       <c r="AQ104" s="10"/>
@@ -21423,7 +21604,9 @@
       <c r="AM105" s="10">
         <v>0.10753760097473752</v>
       </c>
-      <c r="AN105" s="10"/>
+      <c r="AN105" s="10">
+        <v>0.10976522787633303</v>
+      </c>
       <c r="AO105" s="10"/>
       <c r="AP105" s="10"/>
       <c r="AQ105" s="10"/>
@@ -21638,7 +21821,9 @@
       <c r="AM106" s="10">
         <v>0.13225534931112404</v>
       </c>
-      <c r="AN106" s="10"/>
+      <c r="AN106" s="10">
+        <v>0.15480312601873147</v>
+      </c>
       <c r="AO106" s="10"/>
       <c r="AP106" s="10"/>
       <c r="AQ106" s="10"/>
@@ -21853,7 +22038,9 @@
       <c r="AM107" s="10">
         <v>0.27194294748652736</v>
       </c>
-      <c r="AN107" s="10"/>
+      <c r="AN107" s="10">
+        <v>0.28709858388725484</v>
+      </c>
       <c r="AO107" s="10"/>
       <c r="AP107" s="10"/>
       <c r="AQ107" s="10"/>
@@ -22068,7 +22255,9 @@
       <c r="AM108" s="10">
         <v>0.15830651151275066</v>
       </c>
-      <c r="AN108" s="10"/>
+      <c r="AN108" s="10">
+        <v>0.19763692287339607</v>
+      </c>
       <c r="AO108" s="10"/>
       <c r="AP108" s="10"/>
       <c r="AQ108" s="10"/>
@@ -22283,7 +22472,9 @@
       <c r="AM109" s="10">
         <v>0.19023012203574208</v>
       </c>
-      <c r="AN109" s="10"/>
+      <c r="AN109" s="10">
+        <v>0.2186686695428901</v>
+      </c>
       <c r="AO109" s="10"/>
       <c r="AP109" s="10"/>
       <c r="AQ109" s="10"/>
@@ -22498,7 +22689,9 @@
       <c r="AM110" s="10">
         <v>9.1372896676401139E-2</v>
       </c>
-      <c r="AN110" s="10"/>
+      <c r="AN110" s="10">
+        <v>0.12155693254380928</v>
+      </c>
       <c r="AO110" s="10"/>
       <c r="AP110" s="10"/>
       <c r="AQ110" s="10"/>
@@ -22713,7 +22906,9 @@
       <c r="AM111" s="10">
         <v>0.11001863378662335</v>
       </c>
-      <c r="AN111" s="10"/>
+      <c r="AN111" s="10">
+        <v>0.14298383721625441</v>
+      </c>
       <c r="AO111" s="10"/>
       <c r="AP111" s="10"/>
       <c r="AQ111" s="10"/>
@@ -22928,7 +23123,9 @@
       <c r="AM112" s="10">
         <v>7.6191628357125785E-2</v>
       </c>
-      <c r="AN112" s="10"/>
+      <c r="AN112" s="10">
+        <v>6.8714348398420277E-2</v>
+      </c>
       <c r="AO112" s="10"/>
       <c r="AP112" s="10"/>
       <c r="AQ112" s="10"/>
@@ -23143,7 +23340,9 @@
       <c r="AM113" s="10">
         <v>0.1449356687642791</v>
       </c>
-      <c r="AN113" s="10"/>
+      <c r="AN113" s="10">
+        <v>0.13113507751634201</v>
+      </c>
       <c r="AO113" s="10"/>
       <c r="AP113" s="10"/>
       <c r="AQ113" s="10"/>
@@ -23358,7 +23557,9 @@
       <c r="AM114" s="10">
         <v>1.178010471204205E-2</v>
       </c>
-      <c r="AN114" s="10"/>
+      <c r="AN114" s="10">
+        <v>4.9026120691945785E-2</v>
+      </c>
       <c r="AO114" s="10"/>
       <c r="AP114" s="10"/>
       <c r="AQ114" s="10"/>
@@ -23573,7 +23774,9 @@
       <c r="AM115" s="10">
         <v>0.18151404275502259</v>
       </c>
-      <c r="AN115" s="10"/>
+      <c r="AN115" s="10">
+        <v>0.18586992960107263</v>
+      </c>
       <c r="AO115" s="10"/>
       <c r="AP115" s="10"/>
       <c r="AQ115" s="10"/>
@@ -23788,7 +23991,9 @@
       <c r="AM116" s="10">
         <v>8.6123857227923928E-2</v>
       </c>
-      <c r="AN116" s="10"/>
+      <c r="AN116" s="10">
+        <v>9.6233651636802087E-2</v>
+      </c>
       <c r="AO116" s="10"/>
       <c r="AP116" s="10"/>
       <c r="AQ116" s="10"/>
@@ -24003,7 +24208,9 @@
       <c r="AM117" s="10">
         <v>9.3467381590705889E-2</v>
       </c>
-      <c r="AN117" s="10"/>
+      <c r="AN117" s="10">
+        <v>2.7010834711580722E-2</v>
+      </c>
       <c r="AO117" s="10"/>
       <c r="AP117" s="10"/>
       <c r="AQ117" s="10"/>
@@ -24218,7 +24425,9 @@
       <c r="AM118" s="10">
         <v>0.10995188978386849</v>
       </c>
-      <c r="AN118" s="10"/>
+      <c r="AN118" s="10">
+        <v>0.11124963526884013</v>
+      </c>
       <c r="AO118" s="10"/>
       <c r="AP118" s="10"/>
       <c r="AQ118" s="10"/>
@@ -24433,7 +24642,9 @@
       <c r="AM119" s="10">
         <v>0.21327258588044362</v>
       </c>
-      <c r="AN119" s="10"/>
+      <c r="AN119" s="10">
+        <v>0.21323782571819661</v>
+      </c>
       <c r="AO119" s="10"/>
       <c r="AP119" s="10"/>
       <c r="AQ119" s="10"/>
@@ -24648,7 +24859,9 @@
       <c r="AM120" s="10">
         <v>5.9052995775628059E-2</v>
       </c>
-      <c r="AN120" s="10"/>
+      <c r="AN120" s="10">
+        <v>8.8342808721955546E-2</v>
+      </c>
       <c r="AO120" s="10"/>
       <c r="AP120" s="10"/>
       <c r="AQ120" s="10"/>
@@ -24863,7 +25076,9 @@
       <c r="AM121" s="10">
         <v>0.14655375846357721</v>
       </c>
-      <c r="AN121" s="10"/>
+      <c r="AN121" s="10">
+        <v>0.16738721373169962</v>
+      </c>
       <c r="AO121" s="10"/>
       <c r="AP121" s="10"/>
       <c r="AQ121" s="10"/>
@@ -25078,7 +25293,9 @@
       <c r="AM122" s="10">
         <v>6.1761672401390078E-2</v>
       </c>
-      <c r="AN122" s="10"/>
+      <c r="AN122" s="10">
+        <v>9.0381781418143348E-2</v>
+      </c>
       <c r="AO122" s="10"/>
       <c r="AP122" s="10"/>
       <c r="AQ122" s="10"/>
@@ -25293,7 +25510,9 @@
       <c r="AM123" s="10">
         <v>8.0964563618175944E-2</v>
       </c>
-      <c r="AN123" s="10"/>
+      <c r="AN123" s="10">
+        <v>7.1698345761398663E-2</v>
+      </c>
       <c r="AO123" s="10"/>
       <c r="AP123" s="10"/>
       <c r="AQ123" s="10"/>
@@ -25508,7 +25727,9 @@
       <c r="AM124" s="10">
         <v>3.4977264777894312E-2</v>
       </c>
-      <c r="AN124" s="10"/>
+      <c r="AN124" s="10">
+        <v>3.8576383922185764E-2</v>
+      </c>
       <c r="AO124" s="10"/>
       <c r="AP124" s="10"/>
       <c r="AQ124" s="10"/>
@@ -25723,7 +25944,9 @@
       <c r="AM125" s="10">
         <v>8.3979981516033808E-2</v>
       </c>
-      <c r="AN125" s="10"/>
+      <c r="AN125" s="10">
+        <v>9.5191622926173114E-2</v>
+      </c>
       <c r="AO125" s="10"/>
       <c r="AP125" s="10"/>
       <c r="AQ125" s="10"/>
@@ -25938,7 +26161,9 @@
       <c r="AM126" s="10">
         <v>0.15345685999491465</v>
       </c>
-      <c r="AN126" s="10"/>
+      <c r="AN126" s="10">
+        <v>0.1382796062973084</v>
+      </c>
       <c r="AO126" s="10"/>
       <c r="AP126" s="10"/>
       <c r="AQ126" s="10"/>
@@ -26153,7 +26378,9 @@
       <c r="AM127" s="10">
         <v>3.0047057649777997E-2</v>
       </c>
-      <c r="AN127" s="10"/>
+      <c r="AN127" s="10">
+        <v>8.9408117763097872E-2</v>
+      </c>
       <c r="AO127" s="10"/>
       <c r="AP127" s="10"/>
       <c r="AQ127" s="10"/>
@@ -26368,7 +26595,9 @@
       <c r="AM128" s="10">
         <v>5.4210137059591768E-2</v>
       </c>
-      <c r="AN128" s="10"/>
+      <c r="AN128" s="10">
+        <v>5.4210137059591768E-2</v>
+      </c>
       <c r="AO128" s="10"/>
       <c r="AP128" s="10"/>
       <c r="AQ128" s="10"/>
@@ -26583,7 +26812,9 @@
       <c r="AM129" s="10">
         <v>3.4755719324883527E-2</v>
       </c>
-      <c r="AN129" s="10"/>
+      <c r="AN129" s="10">
+        <v>3.806144815544088E-2</v>
+      </c>
       <c r="AO129" s="10"/>
       <c r="AP129" s="10"/>
       <c r="AQ129" s="10"/>
@@ -26798,7 +27029,9 @@
       <c r="AM130" s="10">
         <v>7.1717875293451083E-3</v>
       </c>
-      <c r="AN130" s="10"/>
+      <c r="AN130" s="10">
+        <v>2.0416219695344351E-2</v>
+      </c>
       <c r="AO130" s="10"/>
       <c r="AP130" s="10"/>
       <c r="AQ130" s="10"/>
@@ -27013,7 +27246,9 @@
       <c r="AM131" s="10">
         <v>4.4847814630184724E-2</v>
       </c>
-      <c r="AN131" s="10"/>
+      <c r="AN131" s="10">
+        <v>7.3079325421611552E-2</v>
+      </c>
       <c r="AO131" s="10"/>
       <c r="AP131" s="10"/>
       <c r="AQ131" s="10"/>
@@ -27228,7 +27463,9 @@
       <c r="AM132" s="10">
         <v>1.7282246419587199E-2</v>
       </c>
-      <c r="AN132" s="10"/>
+      <c r="AN132" s="10">
+        <v>1.7282246419587199E-2</v>
+      </c>
       <c r="AO132" s="10"/>
       <c r="AP132" s="10"/>
       <c r="AQ132" s="10"/>
@@ -27443,7 +27680,9 @@
       <c r="AM133" s="10">
         <v>4.9580190165514404E-2</v>
       </c>
-      <c r="AN133" s="10"/>
+      <c r="AN133" s="10">
+        <v>4.9580190165514404E-2</v>
+      </c>
       <c r="AO133" s="10"/>
       <c r="AP133" s="10"/>
       <c r="AQ133" s="10"/>
@@ -27658,7 +27897,9 @@
       <c r="AM134" s="10">
         <v>2.0827619157162802E-2</v>
       </c>
-      <c r="AN134" s="10"/>
+      <c r="AN134" s="10">
+        <v>2.0827619157162802E-2</v>
+      </c>
       <c r="AO134" s="10"/>
       <c r="AP134" s="10"/>
       <c r="AQ134" s="10"/>
@@ -27873,7 +28114,9 @@
       <c r="AM135" s="10">
         <v>4.4741280902322433E-2</v>
       </c>
-      <c r="AN135" s="10"/>
+      <c r="AN135" s="10">
+        <v>4.4741280902322433E-2</v>
+      </c>
       <c r="AO135" s="10"/>
       <c r="AP135" s="10"/>
       <c r="AQ135" s="10"/>
@@ -28088,7 +28331,9 @@
       <c r="AM136" s="10">
         <v>3.4548695230843807E-2</v>
       </c>
-      <c r="AN136" s="10"/>
+      <c r="AN136" s="10">
+        <v>3.4548695230843807E-2</v>
+      </c>
       <c r="AO136" s="10"/>
       <c r="AP136" s="10"/>
       <c r="AQ136" s="10"/>
@@ -28303,7 +28548,9 @@
       <c r="AM137" s="10">
         <v>2.382803453865745E-2</v>
       </c>
-      <c r="AN137" s="10"/>
+      <c r="AN137" s="10">
+        <v>2.382803453865745E-2</v>
+      </c>
       <c r="AO137" s="10"/>
       <c r="AP137" s="10"/>
       <c r="AQ137" s="10"/>
@@ -28518,7 +28765,9 @@
       <c r="AM138" s="10">
         <v>1.3508958665957138E-2</v>
       </c>
-      <c r="AN138" s="10"/>
+      <c r="AN138" s="10">
+        <v>1.3508958665957138E-2</v>
+      </c>
       <c r="AO138" s="10"/>
       <c r="AP138" s="10"/>
       <c r="AQ138" s="10"/>
@@ -28733,7 +28982,9 @@
       <c r="AM139" s="10">
         <v>3.572511189172789E-2</v>
       </c>
-      <c r="AN139" s="10"/>
+      <c r="AN139" s="10">
+        <v>3.572511189172789E-2</v>
+      </c>
       <c r="AO139" s="10"/>
       <c r="AP139" s="10"/>
       <c r="AQ139" s="10"/>
@@ -28948,7 +29199,9 @@
       <c r="AM140" s="10">
         <v>5.4815578097417994E-2</v>
       </c>
-      <c r="AN140" s="10"/>
+      <c r="AN140" s="10">
+        <v>5.8245057688415036E-2</v>
+      </c>
       <c r="AO140" s="10"/>
       <c r="AP140" s="10"/>
       <c r="AQ140" s="10"/>
@@ -29163,7 +29416,9 @@
       <c r="AM141" s="10">
         <v>-2.0648598398169349E-2</v>
       </c>
-      <c r="AN141" s="10"/>
+      <c r="AN141" s="10">
+        <v>-4.3212024215433908E-2</v>
+      </c>
       <c r="AO141" s="10"/>
       <c r="AP141" s="10"/>
       <c r="AQ141" s="10"/>
@@ -29378,7 +29633,9 @@
       <c r="AM142" s="10">
         <v>-1.1025835044859988E-2</v>
       </c>
-      <c r="AN142" s="10"/>
+      <c r="AN142" s="10">
+        <v>2.1169268325242907E-3</v>
+      </c>
       <c r="AO142" s="10"/>
       <c r="AP142" s="10"/>
       <c r="AQ142" s="10"/>
@@ -29593,7 +29850,9 @@
       <c r="AM143" s="10">
         <v>7.1466267921540982E-2</v>
       </c>
-      <c r="AN143" s="10"/>
+      <c r="AN143" s="10">
+        <v>8.3054798135280272E-2</v>
+      </c>
       <c r="AO143" s="10"/>
       <c r="AP143" s="10"/>
       <c r="AQ143" s="10"/>
@@ -29808,7 +30067,9 @@
       <c r="AM144" s="10">
         <v>0.19359401728145964</v>
       </c>
-      <c r="AN144" s="10"/>
+      <c r="AN144" s="10">
+        <v>0.22169322198311892</v>
+      </c>
       <c r="AO144" s="10"/>
       <c r="AP144" s="10"/>
       <c r="AQ144" s="10"/>
@@ -30023,7 +30284,9 @@
       <c r="AM145" s="10">
         <v>5.1708651451435106E-2</v>
       </c>
-      <c r="AN145" s="10"/>
+      <c r="AN145" s="10">
+        <v>0.11341427302339357</v>
+      </c>
       <c r="AO145" s="10"/>
       <c r="AP145" s="10"/>
       <c r="AQ145" s="10"/>
@@ -30238,7 +30501,9 @@
       <c r="AM146" s="10">
         <v>0.1704907709866581</v>
       </c>
-      <c r="AN146" s="10"/>
+      <c r="AN146" s="10">
+        <v>8.2970412607192623E-2</v>
+      </c>
       <c r="AO146" s="10"/>
       <c r="AP146" s="10"/>
       <c r="AQ146" s="10"/>
@@ -30453,7 +30718,9 @@
       <c r="AM147" s="10">
         <v>9.6830524753339642E-2</v>
       </c>
-      <c r="AN147" s="10"/>
+      <c r="AN147" s="10">
+        <v>0.10447509105863007</v>
+      </c>
       <c r="AO147" s="10"/>
       <c r="AP147" s="10"/>
       <c r="AQ147" s="10"/>
@@ -30668,7 +30935,9 @@
       <c r="AM148" s="10">
         <v>0.10329864372393582</v>
       </c>
-      <c r="AN148" s="10"/>
+      <c r="AN148" s="10">
+        <v>0.10553844420238123</v>
+      </c>
       <c r="AO148" s="10"/>
       <c r="AP148" s="10"/>
       <c r="AQ148" s="10"/>
@@ -30883,7 +31152,9 @@
       <c r="AM149" s="10">
         <v>7.1368035662830343E-2</v>
       </c>
-      <c r="AN149" s="10"/>
+      <c r="AN149" s="10">
+        <v>7.284099395749899E-2</v>
+      </c>
       <c r="AO149" s="10"/>
       <c r="AP149" s="10"/>
       <c r="AQ149" s="10"/>
@@ -31098,7 +31369,9 @@
       <c r="AM150" s="10">
         <v>0.13105608719907291</v>
       </c>
-      <c r="AN150" s="10"/>
+      <c r="AN150" s="10">
+        <v>0.10370926311561202</v>
+      </c>
       <c r="AO150" s="10"/>
       <c r="AP150" s="10"/>
       <c r="AQ150" s="10"/>
@@ -31313,7 +31586,9 @@
       <c r="AM151" s="10">
         <v>0.24325830293217821</v>
       </c>
-      <c r="AN151" s="10"/>
+      <c r="AN151" s="10">
+        <v>0.22714065286656115</v>
+      </c>
       <c r="AO151" s="10"/>
       <c r="AP151" s="10"/>
       <c r="AQ151" s="10"/>
@@ -31528,7 +31803,9 @@
       <c r="AM152" s="10">
         <v>7.5653798256537952E-2</v>
       </c>
-      <c r="AN152" s="10"/>
+      <c r="AN152" s="10">
+        <v>9.2456319106381413E-2</v>
+      </c>
       <c r="AO152" s="10"/>
       <c r="AP152" s="10"/>
       <c r="AQ152" s="10"/>
@@ -31743,7 +32020,9 @@
       <c r="AM153" s="10">
         <v>7.2622347434907031E-2</v>
       </c>
-      <c r="AN153" s="10"/>
+      <c r="AN153" s="10">
+        <v>8.3441460336645346E-2</v>
+      </c>
       <c r="AO153" s="10"/>
       <c r="AP153" s="10"/>
       <c r="AQ153" s="10"/>
@@ -31958,7 +32237,9 @@
       <c r="AM154" s="10">
         <v>7.9063175952860387E-3</v>
       </c>
-      <c r="AN154" s="10"/>
+      <c r="AN154" s="10">
+        <v>5.4850078317296935E-2</v>
+      </c>
       <c r="AO154" s="10"/>
       <c r="AP154" s="10"/>
       <c r="AQ154" s="10"/>
@@ -32173,7 +32454,9 @@
       <c r="AM155" s="10">
         <v>5.0773113099334743E-2</v>
       </c>
-      <c r="AN155" s="10"/>
+      <c r="AN155" s="10">
+        <v>6.0516288990574818E-2</v>
+      </c>
       <c r="AO155" s="10"/>
       <c r="AP155" s="10"/>
       <c r="AQ155" s="10"/>
@@ -32388,7 +32671,9 @@
       <c r="AM156" s="10">
         <v>-8.1803728862552494E-2</v>
       </c>
-      <c r="AN156" s="10"/>
+      <c r="AN156" s="10">
+        <v>-8.2428873857592788E-2</v>
+      </c>
       <c r="AO156" s="10"/>
       <c r="AP156" s="10"/>
       <c r="AQ156" s="10"/>
@@ -32603,7 +32888,9 @@
       <c r="AM157" s="10">
         <v>0</v>
       </c>
-      <c r="AN157" s="10"/>
+      <c r="AN157" s="10">
+        <v>0</v>
+      </c>
       <c r="AO157" s="10"/>
       <c r="AP157" s="10"/>
       <c r="AQ157" s="10"/>
@@ -32818,7 +33105,9 @@
       <c r="AM158" s="10">
         <v>-5.4939175736951507E-2</v>
       </c>
-      <c r="AN158" s="10"/>
+      <c r="AN158" s="10">
+        <v>-6.020066889632103E-2</v>
+      </c>
       <c r="AO158" s="10"/>
       <c r="AP158" s="10"/>
       <c r="AQ158" s="10"/>
@@ -33033,7 +33322,9 @@
       <c r="AM159" s="10">
         <v>7.7139819704578283E-2</v>
       </c>
-      <c r="AN159" s="10"/>
+      <c r="AN159" s="10">
+        <v>9.7572148419606153E-2</v>
+      </c>
       <c r="AO159" s="10"/>
       <c r="AP159" s="10"/>
       <c r="AQ159" s="10"/>
@@ -33248,7 +33539,9 @@
       <c r="AM160" s="10">
         <v>0.15945370698829375</v>
       </c>
-      <c r="AN160" s="10"/>
+      <c r="AN160" s="10">
+        <v>0.1311324325658707</v>
+      </c>
       <c r="AO160" s="10"/>
       <c r="AP160" s="10"/>
       <c r="AQ160" s="10"/>
@@ -33463,7 +33756,9 @@
       <c r="AM161" s="10">
         <v>1.3572103727448548E-2</v>
       </c>
-      <c r="AN161" s="10"/>
+      <c r="AN161" s="10">
+        <v>5.8116772142065676E-2</v>
+      </c>
       <c r="AO161" s="10"/>
       <c r="AP161" s="10"/>
       <c r="AQ161" s="10"/>
@@ -33678,7 +33973,9 @@
       <c r="AM162" s="10">
         <v>-2.5093535020316082E-2</v>
       </c>
-      <c r="AN162" s="10"/>
+      <c r="AN162" s="10">
+        <v>2.0708283313326525E-3</v>
+      </c>
       <c r="AO162" s="10"/>
       <c r="AP162" s="10"/>
       <c r="AQ162" s="10"/>
@@ -33893,7 +34190,9 @@
       <c r="AM163" s="10">
         <v>0.10767401339422111</v>
       </c>
-      <c r="AN163" s="10"/>
+      <c r="AN163" s="10">
+        <v>0.100145543650761</v>
+      </c>
       <c r="AO163" s="10"/>
       <c r="AP163" s="10"/>
       <c r="AQ163" s="10"/>
@@ -34108,7 +34407,9 @@
       <c r="AM164" s="10">
         <v>2.316123359085509E-2</v>
       </c>
-      <c r="AN164" s="10"/>
+      <c r="AN164" s="10">
+        <v>2.7195008879040694E-2</v>
+      </c>
       <c r="AO164" s="10"/>
       <c r="AP164" s="10"/>
       <c r="AQ164" s="10"/>
@@ -34323,7 +34624,9 @@
       <c r="AM165" s="10">
         <v>0.13767365686532873</v>
       </c>
-      <c r="AN165" s="10"/>
+      <c r="AN165" s="10">
+        <v>0.13606545015834715</v>
+      </c>
       <c r="AO165" s="10"/>
       <c r="AP165" s="10"/>
       <c r="AQ165" s="10"/>
@@ -34538,7 +34841,9 @@
       <c r="AM166" s="10">
         <v>3.2511598919742424E-2</v>
       </c>
-      <c r="AN166" s="10"/>
+      <c r="AN166" s="10">
+        <v>4.1159209535433172E-2</v>
+      </c>
       <c r="AO166" s="10"/>
       <c r="AP166" s="10"/>
       <c r="AQ166" s="10"/>
@@ -34753,7 +35058,9 @@
       <c r="AM167" s="10">
         <v>9.6765858131199645E-2</v>
       </c>
-      <c r="AN167" s="10"/>
+      <c r="AN167" s="10">
+        <v>0.14056527861597279</v>
+      </c>
       <c r="AO167" s="10"/>
       <c r="AP167" s="10"/>
       <c r="AQ167" s="10"/>
@@ -34968,7 +35275,9 @@
       <c r="AM168" s="10">
         <v>0.11008147032703963</v>
       </c>
-      <c r="AN168" s="10"/>
+      <c r="AN168" s="10">
+        <v>9.3164973409475493E-2</v>
+      </c>
       <c r="AO168" s="10"/>
       <c r="AP168" s="10"/>
       <c r="AQ168" s="10"/>
@@ -35183,7 +35492,9 @@
       <c r="AM169" s="10">
         <v>2.3449013678591424E-2</v>
       </c>
-      <c r="AN169" s="10"/>
+      <c r="AN169" s="10">
+        <v>2.0497276215104776E-2</v>
+      </c>
       <c r="AO169" s="10"/>
       <c r="AP169" s="10"/>
       <c r="AQ169" s="10"/>
@@ -35398,7 +35709,9 @@
       <c r="AM170" s="10">
         <v>0.25314233079388226</v>
       </c>
-      <c r="AN170" s="10"/>
+      <c r="AN170" s="10">
+        <v>0.21324945794288164</v>
+      </c>
       <c r="AO170" s="10"/>
       <c r="AP170" s="10"/>
       <c r="AQ170" s="10"/>
@@ -35613,7 +35926,9 @@
       <c r="AM171" s="10">
         <v>0.14848168100560155</v>
       </c>
-      <c r="AN171" s="10"/>
+      <c r="AN171" s="10">
+        <v>0.11596909605067252</v>
+      </c>
       <c r="AO171" s="10"/>
       <c r="AP171" s="10"/>
       <c r="AQ171" s="10"/>
@@ -35828,7 +36143,9 @@
       <c r="AM172" s="10">
         <v>1.3389639353159177E-2</v>
       </c>
-      <c r="AN172" s="10"/>
+      <c r="AN172" s="10">
+        <v>2.3226605792649346E-2</v>
+      </c>
       <c r="AO172" s="10"/>
       <c r="AP172" s="10"/>
       <c r="AQ172" s="10"/>
@@ -36043,7 +36360,9 @@
       <c r="AM173" s="10">
         <v>0.13256201773146548</v>
       </c>
-      <c r="AN173" s="10"/>
+      <c r="AN173" s="10">
+        <v>8.7512808189987412E-2</v>
+      </c>
       <c r="AO173" s="10"/>
       <c r="AP173" s="10"/>
       <c r="AQ173" s="10"/>
@@ -36258,7 +36577,9 @@
       <c r="AM174" s="10">
         <v>3.3186495891019518E-2</v>
       </c>
-      <c r="AN174" s="10"/>
+      <c r="AN174" s="10">
+        <v>2.8198341600651489E-2</v>
+      </c>
       <c r="AO174" s="10"/>
       <c r="AP174" s="10"/>
       <c r="AQ174" s="10"/>
@@ -36473,7 +36794,9 @@
       <c r="AM175" s="10">
         <v>6.2969613500462041E-2</v>
       </c>
-      <c r="AN175" s="10"/>
+      <c r="AN175" s="10">
+        <v>6.833760299106828E-2</v>
+      </c>
       <c r="AO175" s="10"/>
       <c r="AP175" s="10"/>
       <c r="AQ175" s="10"/>
@@ -36688,7 +37011,9 @@
       <c r="AM176" s="10">
         <v>8.9430208245431464E-2</v>
       </c>
-      <c r="AN176" s="10"/>
+      <c r="AN176" s="10">
+        <v>8.533952078795326E-2</v>
+      </c>
       <c r="AO176" s="10"/>
       <c r="AP176" s="10"/>
       <c r="AQ176" s="10"/>
@@ -36903,7 +37228,9 @@
       <c r="AM177" s="10">
         <v>7.8576149865385636E-2</v>
       </c>
-      <c r="AN177" s="10"/>
+      <c r="AN177" s="10">
+        <v>7.911309269142075E-3</v>
+      </c>
       <c r="AO177" s="10"/>
       <c r="AP177" s="10"/>
       <c r="AQ177" s="10"/>
@@ -37118,7 +37445,9 @@
       <c r="AM178" s="10">
         <v>7.2319496029038977E-2</v>
       </c>
-      <c r="AN178" s="10"/>
+      <c r="AN178" s="10">
+        <v>8.1120459502935116E-2</v>
+      </c>
       <c r="AO178" s="10"/>
       <c r="AP178" s="10"/>
       <c r="AQ178" s="10"/>
@@ -37333,7 +37662,9 @@
       <c r="AM179" s="10">
         <v>7.0792153339322983E-2</v>
       </c>
-      <c r="AN179" s="10"/>
+      <c r="AN179" s="10">
+        <v>7.7704829571004552E-2</v>
+      </c>
       <c r="AO179" s="10"/>
       <c r="AP179" s="10"/>
       <c r="AQ179" s="10"/>
@@ -37548,7 +37879,9 @@
       <c r="AM180" s="10">
         <v>5.1474072395393478E-2</v>
       </c>
-      <c r="AN180" s="10"/>
+      <c r="AN180" s="10">
+        <v>9.6325503006595703E-2</v>
+      </c>
       <c r="AO180" s="10"/>
       <c r="AP180" s="10"/>
       <c r="AQ180" s="10"/>
@@ -37763,7 +38096,9 @@
       <c r="AM181" s="10">
         <v>-3.0462099165011747E-3</v>
       </c>
-      <c r="AN181" s="10"/>
+      <c r="AN181" s="10">
+        <v>3.8362705254141538E-2</v>
+      </c>
       <c r="AO181" s="10"/>
       <c r="AP181" s="10"/>
       <c r="AQ181" s="10"/>
@@ -37978,7 +38313,9 @@
       <c r="AM182" s="10">
         <v>0.19763135112943675</v>
       </c>
-      <c r="AN182" s="10"/>
+      <c r="AN182" s="10">
+        <v>0.24153387815344241</v>
+      </c>
       <c r="AO182" s="10"/>
       <c r="AP182" s="10"/>
       <c r="AQ182" s="10"/>
@@ -38193,7 +38530,9 @@
       <c r="AM183" s="10">
         <v>7.838003181206421E-2</v>
       </c>
-      <c r="AN183" s="10"/>
+      <c r="AN183" s="10">
+        <v>9.4165003216919452E-2</v>
+      </c>
       <c r="AO183" s="10"/>
       <c r="AP183" s="10"/>
       <c r="AQ183" s="10"/>
@@ -38408,7 +38747,9 @@
       <c r="AM184" s="10">
         <v>0.12616661459459899</v>
       </c>
-      <c r="AN184" s="10"/>
+      <c r="AN184" s="10">
+        <v>0.14950957127036868</v>
+      </c>
       <c r="AO184" s="10"/>
       <c r="AP184" s="10"/>
       <c r="AQ184" s="10"/>
@@ -38623,7 +38964,9 @@
       <c r="AM185" s="10">
         <v>-4.0609187916437195E-2</v>
       </c>
-      <c r="AN185" s="10"/>
+      <c r="AN185" s="10">
+        <v>-6.6343738428126686E-2</v>
+      </c>
       <c r="AO185" s="10"/>
       <c r="AP185" s="10"/>
       <c r="AQ185" s="10"/>
@@ -38838,7 +39181,9 @@
       <c r="AM186" s="10">
         <v>-0.15161431479614162</v>
       </c>
-      <c r="AN186" s="10"/>
+      <c r="AN186" s="10">
+        <v>-0.15232373546774147</v>
+      </c>
       <c r="AO186" s="10"/>
       <c r="AP186" s="10"/>
       <c r="AQ186" s="10"/>
@@ -39053,7 +39398,9 @@
       <c r="AM187" s="10">
         <v>0.11171169254014024</v>
       </c>
-      <c r="AN187" s="10"/>
+      <c r="AN187" s="10">
+        <v>8.376171447843106E-2</v>
+      </c>
       <c r="AO187" s="10"/>
       <c r="AP187" s="10"/>
       <c r="AQ187" s="10"/>
@@ -39268,7 +39615,9 @@
       <c r="AM188" s="10">
         <v>-1.2144794245962931E-3</v>
       </c>
-      <c r="AN188" s="10"/>
+      <c r="AN188" s="10">
+        <v>-8.451672010994038E-2</v>
+      </c>
       <c r="AO188" s="10"/>
       <c r="AP188" s="10"/>
       <c r="AQ188" s="10"/>
@@ -39483,7 +39832,9 @@
       <c r="AM189" s="10">
         <v>-7.2740819584885652E-2</v>
       </c>
-      <c r="AN189" s="10"/>
+      <c r="AN189" s="10">
+        <v>3.0905949705845925E-2</v>
+      </c>
       <c r="AO189" s="10"/>
       <c r="AP189" s="10"/>
       <c r="AQ189" s="10"/>
@@ -39698,7 +40049,9 @@
       <c r="AM190" s="10">
         <v>0.11690053107809906</v>
       </c>
-      <c r="AN190" s="10"/>
+      <c r="AN190" s="10">
+        <v>2.3342909911758802E-2</v>
+      </c>
       <c r="AO190" s="10"/>
       <c r="AP190" s="10"/>
       <c r="AQ190" s="10"/>
@@ -39913,7 +40266,9 @@
       <c r="AM191" s="10">
         <v>0.19879677659183548</v>
       </c>
-      <c r="AN191" s="10"/>
+      <c r="AN191" s="10">
+        <v>0.20876239921607742</v>
+      </c>
       <c r="AO191" s="10"/>
       <c r="AP191" s="10"/>
       <c r="AQ191" s="10"/>
@@ -40128,7 +40483,9 @@
       <c r="AM192" s="10">
         <v>6.5521770100614329E-2</v>
       </c>
-      <c r="AN192" s="10"/>
+      <c r="AN192" s="10">
+        <v>3.6545798501389726E-2</v>
+      </c>
       <c r="AO192" s="10"/>
       <c r="AP192" s="10"/>
       <c r="AQ192" s="10"/>
@@ -40343,7 +40700,9 @@
       <c r="AM193" s="10">
         <v>-9.4879391620386055E-3</v>
       </c>
-      <c r="AN193" s="10"/>
+      <c r="AN193" s="10">
+        <v>-2.904960007628965E-2</v>
+      </c>
       <c r="AO193" s="10"/>
       <c r="AP193" s="10"/>
       <c r="AQ193" s="10"/>
@@ -40558,7 +40917,9 @@
       <c r="AM194" s="10">
         <v>0.34819081579007505</v>
       </c>
-      <c r="AN194" s="10"/>
+      <c r="AN194" s="10">
+        <v>0.25584967216414056</v>
+      </c>
       <c r="AO194" s="10"/>
       <c r="AP194" s="10"/>
       <c r="AQ194" s="10"/>
@@ -40773,7 +41134,9 @@
       <c r="AM195" s="10">
         <v>0.13348816863856006</v>
       </c>
-      <c r="AN195" s="10"/>
+      <c r="AN195" s="10">
+        <v>9.6333286910848859E-2</v>
+      </c>
       <c r="AO195" s="10"/>
       <c r="AP195" s="10"/>
       <c r="AQ195" s="10"/>
@@ -40988,7 +41351,9 @@
       <c r="AM196" s="10">
         <v>9.8225864553314057E-2</v>
       </c>
-      <c r="AN196" s="10"/>
+      <c r="AN196" s="10">
+        <v>7.320788609367157E-2</v>
+      </c>
       <c r="AO196" s="10"/>
       <c r="AP196" s="10"/>
       <c r="AQ196" s="10"/>
@@ -41203,7 +41568,9 @@
       <c r="AM197" s="10">
         <v>2.7261064785118583E-2</v>
       </c>
-      <c r="AN197" s="10"/>
+      <c r="AN197" s="10">
+        <v>2.2932139586936628E-2</v>
+      </c>
       <c r="AO197" s="10"/>
       <c r="AP197" s="10"/>
       <c r="AQ197" s="10"/>
@@ -41418,7 +41785,9 @@
       <c r="AM198" s="10">
         <v>-1.2533781442727321E-2</v>
       </c>
-      <c r="AN198" s="10"/>
+      <c r="AN198" s="10">
+        <v>7.15131379693279E-2</v>
+      </c>
       <c r="AO198" s="10"/>
       <c r="AP198" s="10"/>
       <c r="AQ198" s="10"/>
@@ -41633,7 +42002,9 @@
       <c r="AM199" s="10">
         <v>0.31917264292370651</v>
       </c>
-      <c r="AN199" s="10"/>
+      <c r="AN199" s="10">
+        <v>0.27662873329026505</v>
+      </c>
       <c r="AO199" s="10"/>
       <c r="AP199" s="10"/>
       <c r="AQ199" s="10"/>
@@ -41848,7 +42219,9 @@
       <c r="AM200" s="10">
         <v>0.31492691569467013</v>
       </c>
-      <c r="AN200" s="10"/>
+      <c r="AN200" s="10">
+        <v>0.20591551103086081</v>
+      </c>
       <c r="AO200" s="10"/>
       <c r="AP200" s="10"/>
       <c r="AQ200" s="10"/>
@@ -42063,7 +42436,9 @@
       <c r="AM201" s="10">
         <v>0.11660728460927849</v>
       </c>
-      <c r="AN201" s="10"/>
+      <c r="AN201" s="10">
+        <v>0.1360867613787291</v>
+      </c>
       <c r="AO201" s="10"/>
       <c r="AP201" s="10"/>
       <c r="AQ201" s="10"/>
@@ -42278,7 +42653,9 @@
       <c r="AM202" s="10">
         <v>9.3305715922612498E-2</v>
       </c>
-      <c r="AN202" s="10"/>
+      <c r="AN202" s="10">
+        <v>0.15680422995922383</v>
+      </c>
       <c r="AO202" s="10"/>
       <c r="AP202" s="10"/>
       <c r="AQ202" s="10"/>
@@ -42493,7 +42870,9 @@
       <c r="AM203" s="10">
         <v>-7.0282421871542655E-2</v>
       </c>
-      <c r="AN203" s="10"/>
+      <c r="AN203" s="10">
+        <v>2.5505999115098543E-3</v>
+      </c>
       <c r="AO203" s="10"/>
       <c r="AP203" s="10"/>
       <c r="AQ203" s="10"/>
@@ -42708,7 +43087,9 @@
       <c r="AM204" s="10">
         <v>-1.4461879524749754E-3</v>
       </c>
-      <c r="AN204" s="10"/>
+      <c r="AN204" s="10">
+        <v>6.4239289836082625E-2</v>
+      </c>
       <c r="AO204" s="10"/>
       <c r="AP204" s="10"/>
       <c r="AQ204" s="10"/>
@@ -42923,7 +43304,9 @@
       <c r="AM205" s="10">
         <v>-4.006740310803214E-2</v>
       </c>
-      <c r="AN205" s="10"/>
+      <c r="AN205" s="10">
+        <v>-6.727746036039095E-3</v>
+      </c>
       <c r="AO205" s="10"/>
       <c r="AP205" s="10"/>
       <c r="AQ205" s="10"/>
@@ -43138,7 +43521,9 @@
       <c r="AM206" s="10">
         <v>3.7759472162326002E-2</v>
       </c>
-      <c r="AN206" s="10"/>
+      <c r="AN206" s="10">
+        <v>0.10112457417157006</v>
+      </c>
       <c r="AO206" s="10"/>
       <c r="AP206" s="10"/>
       <c r="AQ206" s="10"/>
@@ -43353,7 +43738,9 @@
       <c r="AM207" s="10">
         <v>-4.8208375305799356E-3</v>
       </c>
-      <c r="AN207" s="10"/>
+      <c r="AN207" s="10">
+        <v>5.7447500045141764E-2</v>
+      </c>
       <c r="AO207" s="10"/>
       <c r="AP207" s="10"/>
       <c r="AQ207" s="10"/>
@@ -43568,7 +43955,9 @@
       <c r="AM208" s="10">
         <v>0.10373383822877225</v>
       </c>
-      <c r="AN208" s="10"/>
+      <c r="AN208" s="10">
+        <v>0.11042763850853166</v>
+      </c>
       <c r="AO208" s="10"/>
       <c r="AP208" s="10"/>
       <c r="AQ208" s="10"/>
@@ -43783,7 +44172,9 @@
       <c r="AM209" s="10">
         <v>8.3896895553135176E-2</v>
       </c>
-      <c r="AN209" s="10"/>
+      <c r="AN209" s="10">
+        <v>9.8732516379723467E-2</v>
+      </c>
       <c r="AO209" s="10"/>
       <c r="AP209" s="10"/>
       <c r="AQ209" s="10"/>
@@ -43998,7 +44389,9 @@
       <c r="AM210" s="10">
         <v>5.5631201886708448E-2</v>
       </c>
-      <c r="AN210" s="10"/>
+      <c r="AN210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
       <c r="AO210" s="10"/>
       <c r="AP210" s="10"/>
       <c r="AQ210" s="10"/>
@@ -44213,7 +44606,9 @@
       <c r="AM211" s="10">
         <v>9.9192350538432894E-2</v>
       </c>
-      <c r="AN211" s="10"/>
+      <c r="AN211" s="10">
+        <v>0.10138865263581121</v>
+      </c>
       <c r="AO211" s="10"/>
       <c r="AP211" s="10"/>
       <c r="AQ211" s="10"/>
@@ -44428,7 +44823,9 @@
       <c r="AM212" s="10">
         <v>0.15204725117678208</v>
       </c>
-      <c r="AN212" s="10"/>
+      <c r="AN212" s="10">
+        <v>0.17964041934420005</v>
+      </c>
       <c r="AO212" s="10"/>
       <c r="AP212" s="10"/>
       <c r="AQ212" s="10"/>
@@ -44643,7 +45040,9 @@
       <c r="AM213" s="10">
         <v>6.7648729810891872E-2</v>
       </c>
-      <c r="AN213" s="10"/>
+      <c r="AN213" s="10">
+        <v>8.4994176265044574E-2</v>
+      </c>
       <c r="AO213" s="10"/>
       <c r="AP213" s="10"/>
       <c r="AQ213" s="10"/>
@@ -44858,7 +45257,9 @@
       <c r="AM214" s="10">
         <v>5.3299201467160939E-2</v>
       </c>
-      <c r="AN214" s="10"/>
+      <c r="AN214" s="10">
+        <v>4.1862903994661194E-2</v>
+      </c>
       <c r="AO214" s="10"/>
       <c r="AP214" s="10"/>
       <c r="AQ214" s="10"/>
@@ -45073,7 +45474,9 @@
       <c r="AM215" s="10">
         <v>1.7900260471129581E-2</v>
       </c>
-      <c r="AN215" s="10"/>
+      <c r="AN215" s="10">
+        <v>1.443858035152279E-2</v>
+      </c>
       <c r="AO215" s="10"/>
       <c r="AP215" s="10"/>
       <c r="AQ215" s="10"/>
@@ -45288,7 +45691,9 @@
       <c r="AM216" s="10">
         <v>6.8050327785211584E-2</v>
       </c>
-      <c r="AN216" s="10"/>
+      <c r="AN216" s="10">
+        <v>7.0216309359928397E-2</v>
+      </c>
       <c r="AO216" s="10"/>
       <c r="AP216" s="10"/>
       <c r="AQ216" s="10"/>
@@ -45503,7 +45908,9 @@
       <c r="AM217" s="10">
         <v>9.2807896342026908E-2</v>
       </c>
-      <c r="AN217" s="10"/>
+      <c r="AN217" s="10">
+        <v>0.12239145302304943</v>
+      </c>
       <c r="AO217" s="10"/>
       <c r="AP217" s="10"/>
       <c r="AQ217" s="10"/>
@@ -45718,7 +46125,9 @@
       <c r="AM218" s="10">
         <v>4.848910135520379E-2</v>
       </c>
-      <c r="AN218" s="10"/>
+      <c r="AN218" s="10">
+        <v>4.848910135520379E-2</v>
+      </c>
       <c r="AO218" s="10"/>
       <c r="AP218" s="10"/>
       <c r="AQ218" s="10"/>
@@ -45933,7 +46342,9 @@
       <c r="AM219" s="10">
         <v>0.11566673433900299</v>
       </c>
-      <c r="AN219" s="10"/>
+      <c r="AN219" s="10">
+        <v>0.11400173611111097</v>
+      </c>
       <c r="AO219" s="10"/>
       <c r="AP219" s="10"/>
       <c r="AQ219" s="10"/>
@@ -46148,7 +46559,9 @@
       <c r="AM220" s="10">
         <v>0.12570605075827923</v>
       </c>
-      <c r="AN220" s="10"/>
+      <c r="AN220" s="10">
+        <v>0.12037466203167235</v>
+      </c>
       <c r="AO220" s="10"/>
       <c r="AP220" s="10"/>
       <c r="AQ220" s="10"/>
@@ -46363,7 +46776,9 @@
       <c r="AM221" s="10">
         <v>4.2373165900010168E-2</v>
       </c>
-      <c r="AN221" s="10"/>
+      <c r="AN221" s="10">
+        <v>3.512496699815193E-2</v>
+      </c>
       <c r="AO221" s="10"/>
       <c r="AP221" s="10"/>
       <c r="AQ221" s="10"/>
@@ -46578,7 +46993,9 @@
       <c r="AM222" s="10">
         <v>0.12423501868813402</v>
       </c>
-      <c r="AN222" s="10"/>
+      <c r="AN222" s="10">
+        <v>9.8958124222106258E-2</v>
+      </c>
       <c r="AO222" s="10"/>
       <c r="AP222" s="10"/>
       <c r="AQ222" s="10"/>
@@ -46793,7 +47210,9 @@
       <c r="AM223" s="10">
         <v>4.0152349039051627E-2</v>
       </c>
-      <c r="AN223" s="10"/>
+      <c r="AN223" s="10">
+        <v>4.7721082986222463E-2</v>
+      </c>
       <c r="AO223" s="10"/>
       <c r="AP223" s="10"/>
       <c r="AQ223" s="10"/>
@@ -47008,7 +47427,9 @@
       <c r="AM224" s="10">
         <v>2.5774563789557448E-2</v>
       </c>
-      <c r="AN224" s="10"/>
+      <c r="AN224" s="10">
+        <v>2.5774563789557448E-2</v>
+      </c>
       <c r="AO224" s="10"/>
       <c r="AP224" s="10"/>
       <c r="AQ224" s="10"/>
@@ -47223,7 +47644,9 @@
       <c r="AM225" s="10">
         <v>0.14719794824760313</v>
       </c>
-      <c r="AN225" s="10"/>
+      <c r="AN225" s="10">
+        <v>0.16454452193553415</v>
+      </c>
       <c r="AO225" s="10"/>
       <c r="AP225" s="10"/>
       <c r="AQ225" s="10"/>
@@ -47438,7 +47861,9 @@
       <c r="AM226" s="10">
         <v>1.4330631855303144E-2</v>
       </c>
-      <c r="AN226" s="10"/>
+      <c r="AN226" s="10">
+        <v>3.4022536958544292E-2</v>
+      </c>
       <c r="AO226" s="10"/>
       <c r="AP226" s="10"/>
       <c r="AQ226" s="10"/>
@@ -47653,7 +48078,9 @@
       <c r="AM227" s="10">
         <v>5.2560299239004182E-2</v>
       </c>
-      <c r="AN227" s="10"/>
+      <c r="AN227" s="10">
+        <v>8.102110837622134E-2</v>
+      </c>
       <c r="AO227" s="10"/>
       <c r="AP227" s="10"/>
       <c r="AQ227" s="10"/>
@@ -47868,7 +48295,9 @@
       <c r="AM228" s="10">
         <v>7.5807081720353775E-2</v>
       </c>
-      <c r="AN228" s="10"/>
+      <c r="AN228" s="10">
+        <v>4.5888120218078532E-2</v>
+      </c>
       <c r="AO228" s="10"/>
       <c r="AP228" s="10"/>
       <c r="AQ228" s="10"/>
@@ -48083,7 +48512,9 @@
       <c r="AM229" s="10">
         <v>-2.236492081109176E-2</v>
       </c>
-      <c r="AN229" s="10"/>
+      <c r="AN229" s="10">
+        <v>3.4776174620791744E-2</v>
+      </c>
       <c r="AO229" s="10"/>
       <c r="AP229" s="10"/>
       <c r="AQ229" s="10"/>
@@ -48298,7 +48729,9 @@
       <c r="AM230" s="10">
         <v>3.3712792588667551E-2</v>
       </c>
-      <c r="AN230" s="10"/>
+      <c r="AN230" s="10">
+        <v>1.8700599401507922E-2</v>
+      </c>
       <c r="AO230" s="10"/>
       <c r="AP230" s="10"/>
       <c r="AQ230" s="10"/>
@@ -48513,7 +48946,9 @@
       <c r="AM231" s="10">
         <v>5.8250744026120405E-2</v>
       </c>
-      <c r="AN231" s="10"/>
+      <c r="AN231" s="10">
+        <v>-2.2939241756501194E-2</v>
+      </c>
       <c r="AO231" s="10"/>
       <c r="AP231" s="10"/>
       <c r="AQ231" s="10"/>
@@ -48728,7 +49163,9 @@
       <c r="AM232" s="10">
         <v>-4.051044963903061E-2</v>
       </c>
-      <c r="AN232" s="10"/>
+      <c r="AN232" s="10">
+        <v>-3.1643681368916377E-2</v>
+      </c>
       <c r="AO232" s="10"/>
       <c r="AP232" s="10"/>
       <c r="AQ232" s="10"/>
@@ -48943,7 +49380,9 @@
       <c r="AM233" s="10">
         <v>5.7217857079512546E-2</v>
       </c>
-      <c r="AN233" s="10"/>
+      <c r="AN233" s="10">
+        <v>5.7357689415719282E-2</v>
+      </c>
       <c r="AO233" s="10"/>
       <c r="AP233" s="10"/>
       <c r="AQ233" s="10"/>
@@ -49158,7 +49597,9 @@
       <c r="AM234" s="10">
         <v>7.6554003625119993E-2</v>
       </c>
-      <c r="AN234" s="10"/>
+      <c r="AN234" s="10">
+        <v>6.4519842042818576E-2</v>
+      </c>
       <c r="AO234" s="10"/>
       <c r="AP234" s="10"/>
       <c r="AQ234" s="10"/>
@@ -49373,7 +49814,9 @@
       <c r="AM235" s="10">
         <v>2.6869891677823388E-2</v>
       </c>
-      <c r="AN235" s="10"/>
+      <c r="AN235" s="10">
+        <v>3.6744595982082018E-2</v>
+      </c>
       <c r="AO235" s="10"/>
       <c r="AP235" s="10"/>
       <c r="AQ235" s="10"/>
@@ -49588,7 +50031,9 @@
       <c r="AM236" s="10">
         <v>0.1100964092362986</v>
       </c>
-      <c r="AN236" s="10"/>
+      <c r="AN236" s="10">
+        <v>0.11412133295357441</v>
+      </c>
       <c r="AO236" s="10"/>
       <c r="AP236" s="10"/>
       <c r="AQ236" s="10"/>
@@ -49803,7 +50248,9 @@
       <c r="AM237" s="10">
         <v>7.3281901368251745E-2</v>
       </c>
-      <c r="AN237" s="10"/>
+      <c r="AN237" s="10">
+        <v>3.7850584343229299E-2</v>
+      </c>
       <c r="AO237" s="10"/>
       <c r="AP237" s="10"/>
       <c r="AQ237" s="10"/>
@@ -50018,7 +50465,9 @@
       <c r="AM238" s="10">
         <v>5.7379137353269716E-2</v>
       </c>
-      <c r="AN238" s="10"/>
+      <c r="AN238" s="10">
+        <v>5.9311797617092044E-2</v>
+      </c>
       <c r="AO238" s="10"/>
       <c r="AP238" s="10"/>
       <c r="AQ238" s="10"/>
@@ -50233,7 +50682,9 @@
       <c r="AM239" s="10">
         <v>7.02896430661204E-2</v>
       </c>
-      <c r="AN239" s="10"/>
+      <c r="AN239" s="10">
+        <v>4.4700998355972965E-2</v>
+      </c>
       <c r="AO239" s="10"/>
       <c r="AP239" s="10"/>
       <c r="AQ239" s="10"/>
@@ -50448,7 +50899,9 @@
       <c r="AM240" s="10">
         <v>8.8348141137198688E-2</v>
       </c>
-      <c r="AN240" s="10"/>
+      <c r="AN240" s="10">
+        <v>0.12979586940440235</v>
+      </c>
       <c r="AO240" s="10"/>
       <c r="AP240" s="10"/>
       <c r="AQ240" s="10"/>
@@ -50663,7 +51116,9 @@
       <c r="AM241" s="10">
         <v>4.8230795295028717E-2</v>
       </c>
-      <c r="AN241" s="10"/>
+      <c r="AN241" s="10">
+        <v>1.0233904300698926E-2</v>
+      </c>
       <c r="AO241" s="10"/>
       <c r="AP241" s="10"/>
       <c r="AQ241" s="10"/>
@@ -50878,7 +51333,9 @@
       <c r="AM242" s="10">
         <v>4.944951715327095E-2</v>
       </c>
-      <c r="AN242" s="10"/>
+      <c r="AN242" s="10">
+        <v>3.8418650849427083E-2</v>
+      </c>
       <c r="AO242" s="10"/>
       <c r="AP242" s="10"/>
       <c r="AQ242" s="10"/>
@@ -51093,7 +51550,9 @@
       <c r="AM243" s="10">
         <v>0.10879556335933516</v>
       </c>
-      <c r="AN243" s="10"/>
+      <c r="AN243" s="10">
+        <v>0.10559512856749897</v>
+      </c>
       <c r="AO243" s="10"/>
       <c r="AP243" s="10"/>
       <c r="AQ243" s="10"/>
@@ -51308,7 +51767,9 @@
       <c r="AM244" s="10">
         <v>0.10051307856122338</v>
       </c>
-      <c r="AN244" s="10"/>
+      <c r="AN244" s="10">
+        <v>9.9821298682639004E-2</v>
+      </c>
       <c r="AO244" s="10"/>
       <c r="AP244" s="10"/>
       <c r="AQ244" s="10"/>
@@ -51523,7 +51984,9 @@
       <c r="AM245" s="10">
         <v>3.9394661176991086E-2</v>
       </c>
-      <c r="AN245" s="10"/>
+      <c r="AN245" s="10">
+        <v>3.3472587549641553E-2</v>
+      </c>
       <c r="AO245" s="10"/>
       <c r="AP245" s="10"/>
       <c r="AQ245" s="10"/>
@@ -51738,7 +52201,9 @@
       <c r="AM246" s="10">
         <v>0.15771281757437405</v>
       </c>
-      <c r="AN246" s="10"/>
+      <c r="AN246" s="10">
+        <v>0.18374289747023265</v>
+      </c>
       <c r="AO246" s="10"/>
       <c r="AP246" s="10"/>
       <c r="AQ246" s="10"/>
@@ -51953,7 +52418,9 @@
       <c r="AM247" s="10">
         <v>0.1097966936864081</v>
       </c>
-      <c r="AN247" s="10"/>
+      <c r="AN247" s="10">
+        <v>8.93157573628649E-2</v>
+      </c>
       <c r="AO247" s="10"/>
       <c r="AP247" s="10"/>
       <c r="AQ247" s="10"/>
@@ -52168,7 +52635,9 @@
       <c r="AM248" s="10">
         <v>9.8884357346303409E-2</v>
       </c>
-      <c r="AN248" s="10"/>
+      <c r="AN248" s="10">
+        <v>6.2994566604674951E-2</v>
+      </c>
       <c r="AO248" s="10"/>
       <c r="AP248" s="10"/>
       <c r="AQ248" s="10"/>
@@ -52383,7 +52852,9 @@
       <c r="AM249" s="10">
         <v>4.7254832206806485E-2</v>
       </c>
-      <c r="AN249" s="10"/>
+      <c r="AN249" s="10">
+        <v>5.6681057277193858E-2</v>
+      </c>
       <c r="AO249" s="10"/>
       <c r="AP249" s="10"/>
       <c r="AQ249" s="10"/>
@@ -52598,7 +53069,9 @@
       <c r="AM250" s="10">
         <v>7.5226439881075802E-2</v>
       </c>
-      <c r="AN250" s="10"/>
+      <c r="AN250" s="10">
+        <v>0.14251300528518174</v>
+      </c>
       <c r="AO250" s="10"/>
       <c r="AP250" s="10"/>
       <c r="AQ250" s="10"/>
@@ -52813,7 +53286,9 @@
       <c r="AM251" s="10">
         <v>8.9036725056635069E-2</v>
       </c>
-      <c r="AN251" s="10"/>
+      <c r="AN251" s="10">
+        <v>0.14154004304667667</v>
+      </c>
       <c r="AO251" s="10"/>
       <c r="AP251" s="10"/>
       <c r="AQ251" s="10"/>
@@ -53028,7 +53503,9 @@
       <c r="AM252" s="10">
         <v>0.16508702753877991</v>
       </c>
-      <c r="AN252" s="10"/>
+      <c r="AN252" s="10">
+        <v>0.11078088864832947</v>
+      </c>
       <c r="AO252" s="10"/>
       <c r="AP252" s="10"/>
       <c r="AQ252" s="10"/>
@@ -53243,7 +53720,9 @@
       <c r="AM253" s="10">
         <v>0.10798319327731098</v>
       </c>
-      <c r="AN253" s="10"/>
+      <c r="AN253" s="10">
+        <v>0.12580782155914183</v>
+      </c>
       <c r="AO253" s="10"/>
       <c r="AP253" s="10"/>
       <c r="AQ253" s="10"/>
@@ -53458,7 +53937,9 @@
       <c r="AM254" s="10">
         <v>-3.6864788313765939E-2</v>
       </c>
-      <c r="AN254" s="10"/>
+      <c r="AN254" s="10">
+        <v>8.7860332927324425E-2</v>
+      </c>
       <c r="AO254" s="10"/>
       <c r="AP254" s="10"/>
       <c r="AQ254" s="10"/>
@@ -53673,7 +54154,9 @@
       <c r="AM255" s="10">
         <v>9.688468439080089E-2</v>
       </c>
-      <c r="AN255" s="10"/>
+      <c r="AN255" s="10">
+        <v>9.0332400785720912E-2</v>
+      </c>
       <c r="AO255" s="10"/>
       <c r="AP255" s="10"/>
       <c r="AQ255" s="10"/>
@@ -53888,7 +54371,9 @@
       <c r="AM256" s="10">
         <v>-1.4622154391672471E-3</v>
       </c>
-      <c r="AN256" s="10"/>
+      <c r="AN256" s="10">
+        <v>1.9324462246528729E-2</v>
+      </c>
       <c r="AO256" s="10"/>
       <c r="AP256" s="10"/>
       <c r="AQ256" s="10"/>
@@ -54103,7 +54588,9 @@
       <c r="AM257" s="10">
         <v>1.9613113637789059E-2</v>
       </c>
-      <c r="AN257" s="10"/>
+      <c r="AN257" s="10">
+        <v>2.3223933553745635E-2</v>
+      </c>
       <c r="AO257" s="10"/>
       <c r="AP257" s="10"/>
       <c r="AQ257" s="10"/>
@@ -54318,7 +54805,9 @@
       <c r="AM258" s="10">
         <v>4.4598910753637977E-2</v>
       </c>
-      <c r="AN258" s="10"/>
+      <c r="AN258" s="10">
+        <v>4.9356348741954381E-2</v>
+      </c>
       <c r="AO258" s="10"/>
       <c r="AP258" s="10"/>
       <c r="AQ258" s="10"/>
@@ -54533,7 +55022,9 @@
       <c r="AM259" s="10">
         <v>5.4426557492450955E-2</v>
       </c>
-      <c r="AN259" s="10"/>
+      <c r="AN259" s="10">
+        <v>6.6233201724200441E-2</v>
+      </c>
       <c r="AO259" s="10"/>
       <c r="AP259" s="10"/>
       <c r="AQ259" s="10"/>
@@ -54748,7 +55239,9 @@
       <c r="AM260" s="10">
         <v>0.14820550867105631</v>
       </c>
-      <c r="AN260" s="10"/>
+      <c r="AN260" s="10">
+        <v>0.1142626624831915</v>
+      </c>
       <c r="AO260" s="10"/>
       <c r="AP260" s="10"/>
       <c r="AQ260" s="10"/>
@@ -54963,7 +55456,9 @@
       <c r="AM261" s="10">
         <v>0.17546635576282488</v>
       </c>
-      <c r="AN261" s="10"/>
+      <c r="AN261" s="10">
+        <v>0.19413880882755152</v>
+      </c>
       <c r="AO261" s="10"/>
       <c r="AP261" s="10"/>
       <c r="AQ261" s="10"/>
@@ -55178,7 +55673,9 @@
       <c r="AM262" s="10">
         <v>7.4381265338380187E-2</v>
       </c>
-      <c r="AN262" s="10"/>
+      <c r="AN262" s="10">
+        <v>7.0290712589270221E-2</v>
+      </c>
       <c r="AO262" s="10"/>
       <c r="AP262" s="10"/>
       <c r="AQ262" s="10"/>
@@ -55393,7 +55890,9 @@
       <c r="AM263" s="10">
         <v>0.12042925644022717</v>
       </c>
-      <c r="AN263" s="10"/>
+      <c r="AN263" s="10">
+        <v>0.12131280314395365</v>
+      </c>
       <c r="AO263" s="10"/>
       <c r="AP263" s="10"/>
       <c r="AQ263" s="10"/>
@@ -55608,7 +56107,9 @@
       <c r="AM264" s="10">
         <v>1.1617533161439653E-2</v>
       </c>
-      <c r="AN264" s="10"/>
+      <c r="AN264" s="10">
+        <v>-4.8455299371183869E-2</v>
+      </c>
       <c r="AO264" s="10"/>
       <c r="AP264" s="10"/>
       <c r="AQ264" s="10"/>
@@ -55823,7 +56324,9 @@
       <c r="AM265" s="10">
         <v>0.15310236998025029</v>
       </c>
-      <c r="AN265" s="10"/>
+      <c r="AN265" s="10">
+        <v>0.11819831016407245</v>
+      </c>
       <c r="AO265" s="10"/>
       <c r="AP265" s="10"/>
       <c r="AQ265" s="10"/>
@@ -56038,7 +56541,9 @@
       <c r="AM266" s="10">
         <v>0.10221515549542248</v>
       </c>
-      <c r="AN266" s="10"/>
+      <c r="AN266" s="10">
+        <v>0.13753416069976798</v>
+      </c>
       <c r="AO266" s="10"/>
       <c r="AP266" s="10"/>
       <c r="AQ266" s="10"/>
@@ -56253,7 +56758,9 @@
       <c r="AM267" s="10">
         <v>-0.10429516969440922</v>
       </c>
-      <c r="AN267" s="10"/>
+      <c r="AN267" s="10">
+        <v>-0.13544819718283951</v>
+      </c>
       <c r="AO267" s="10"/>
       <c r="AP267" s="10"/>
       <c r="AQ267" s="10"/>
@@ -56468,7 +56975,9 @@
       <c r="AM268" s="10">
         <v>-7.0801799323922943E-3</v>
       </c>
-      <c r="AN268" s="10"/>
+      <c r="AN268" s="10">
+        <v>6.7677946324387506E-2</v>
+      </c>
       <c r="AO268" s="10"/>
       <c r="AP268" s="10"/>
       <c r="AQ268" s="10"/>
@@ -56683,7 +57192,9 @@
       <c r="AM269" s="10">
         <v>5.8411559443652727E-2</v>
       </c>
-      <c r="AN269" s="10"/>
+      <c r="AN269" s="10">
+        <v>3.1696446496687347E-2</v>
+      </c>
       <c r="AO269" s="10"/>
       <c r="AP269" s="10"/>
       <c r="AQ269" s="10"/>
@@ -56898,7 +57409,9 @@
       <c r="AM270" s="10">
         <v>0.10791301446725909</v>
       </c>
-      <c r="AN270" s="10"/>
+      <c r="AN270" s="10">
+        <v>0.15958521311696194</v>
+      </c>
       <c r="AO270" s="10"/>
       <c r="AP270" s="10"/>
       <c r="AQ270" s="10"/>
@@ -57113,7 +57626,9 @@
       <c r="AM271" s="10">
         <v>2.8771453046997353E-2</v>
       </c>
-      <c r="AN271" s="10"/>
+      <c r="AN271" s="10">
+        <v>4.9943135024903107E-2</v>
+      </c>
       <c r="AO271" s="10"/>
       <c r="AP271" s="10"/>
       <c r="AQ271" s="10"/>
@@ -57328,7 +57843,9 @@
       <c r="AM272" s="10">
         <v>7.1604255643685111E-2</v>
       </c>
-      <c r="AN272" s="10"/>
+      <c r="AN272" s="10">
+        <v>8.7207447307670716E-2</v>
+      </c>
       <c r="AO272" s="10"/>
       <c r="AP272" s="10"/>
       <c r="AQ272" s="10"/>
@@ -57543,7 +58060,9 @@
       <c r="AM273" s="10">
         <v>5.0029056848870157E-2</v>
       </c>
-      <c r="AN273" s="10"/>
+      <c r="AN273" s="10">
+        <v>2.9385566800417262E-2</v>
+      </c>
       <c r="AO273" s="10"/>
       <c r="AP273" s="10"/>
       <c r="AQ273" s="10"/>
@@ -57758,7 +58277,9 @@
       <c r="AM274" s="10">
         <v>3.8555474765553654E-2</v>
       </c>
-      <c r="AN274" s="10"/>
+      <c r="AN274" s="10">
+        <v>4.1384569600475984E-2</v>
+      </c>
       <c r="AO274" s="10"/>
       <c r="AP274" s="10"/>
       <c r="AQ274" s="10"/>
@@ -57973,7 +58494,9 @@
       <c r="AM275" s="10">
         <v>3.1904570089350992E-2</v>
       </c>
-      <c r="AN275" s="10"/>
+      <c r="AN275" s="10">
+        <v>2.2496983771329138E-2</v>
+      </c>
       <c r="AO275" s="10"/>
       <c r="AP275" s="10"/>
       <c r="AQ275" s="10"/>
@@ -58188,7 +58711,9 @@
       <c r="AM276" s="10">
         <v>3.8864431338889283E-2</v>
       </c>
-      <c r="AN276" s="10"/>
+      <c r="AN276" s="10">
+        <v>4.0538301515123498E-2</v>
+      </c>
       <c r="AO276" s="10"/>
       <c r="AP276" s="10"/>
       <c r="AQ276" s="10"/>
@@ -58403,7 +58928,9 @@
       <c r="AM277" s="10">
         <v>3.145974952210473E-3</v>
       </c>
-      <c r="AN277" s="10"/>
+      <c r="AN277" s="10">
+        <v>3.145974952210473E-3</v>
+      </c>
       <c r="AO277" s="10"/>
       <c r="AP277" s="10"/>
       <c r="AQ277" s="10"/>
@@ -58618,7 +59145,9 @@
       <c r="AM278" s="10">
         <v>1.7916312082420394E-2</v>
       </c>
-      <c r="AN278" s="10"/>
+      <c r="AN278" s="10">
+        <v>3.9675261624770863E-2</v>
+      </c>
       <c r="AO278" s="10"/>
       <c r="AP278" s="10"/>
       <c r="AQ278" s="10"/>
@@ -58833,7 +59362,9 @@
       <c r="AM279" s="10">
         <v>6.8611901115729568E-2</v>
       </c>
-      <c r="AN279" s="10"/>
+      <c r="AN279" s="10">
+        <v>7.996062130824777E-2</v>
+      </c>
       <c r="AO279" s="10"/>
       <c r="AP279" s="10"/>
       <c r="AQ279" s="10"/>
@@ -59048,7 +59579,9 @@
       <c r="AM280" s="10">
         <v>3.4330760507736757E-2</v>
       </c>
-      <c r="AN280" s="10"/>
+      <c r="AN280" s="10">
+        <v>2.858338107840197E-2</v>
+      </c>
       <c r="AO280" s="10"/>
       <c r="AP280" s="10"/>
       <c r="AQ280" s="10"/>
@@ -59263,7 +59796,9 @@
       <c r="AM281" s="10">
         <v>6.3741263580375129E-2</v>
       </c>
-      <c r="AN281" s="10"/>
+      <c r="AN281" s="10">
+        <v>7.3635374008605092E-2</v>
+      </c>
       <c r="AO281" s="10"/>
       <c r="AP281" s="10"/>
       <c r="AQ281" s="10"/>
@@ -59478,7 +60013,9 @@
       <c r="AM282" s="10">
         <v>8.6551921468503767E-2</v>
       </c>
-      <c r="AN282" s="10"/>
+      <c r="AN282" s="10">
+        <v>5.6570378462606818E-2</v>
+      </c>
       <c r="AO282" s="10"/>
       <c r="AP282" s="10"/>
       <c r="AQ282" s="10"/>
@@ -59693,7 +60230,9 @@
       <c r="AM283" s="10">
         <v>7.4259456798227541E-2</v>
       </c>
-      <c r="AN283" s="10"/>
+      <c r="AN283" s="10">
+        <v>8.1128413450688219E-2</v>
+      </c>
       <c r="AO283" s="10"/>
       <c r="AP283" s="10"/>
       <c r="AQ283" s="10"/>
@@ -59908,7 +60447,9 @@
       <c r="AM284" s="10">
         <v>0.29265002190100753</v>
       </c>
-      <c r="AN284" s="10"/>
+      <c r="AN284" s="10">
+        <v>0.29825245682016677</v>
+      </c>
       <c r="AO284" s="10"/>
       <c r="AP284" s="10"/>
       <c r="AQ284" s="10"/>
@@ -60123,7 +60664,9 @@
       <c r="AM285" s="10">
         <v>8.5538518042420408E-2</v>
       </c>
-      <c r="AN285" s="10"/>
+      <c r="AN285" s="10">
+        <v>9.7261142400382417E-2</v>
+      </c>
       <c r="AO285" s="10"/>
       <c r="AP285" s="10"/>
       <c r="AQ285" s="10"/>
@@ -60338,7 +60881,9 @@
       <c r="AM286" s="10">
         <v>7.2714668638506286E-2</v>
       </c>
-      <c r="AN286" s="10"/>
+      <c r="AN286" s="10">
+        <v>9.1400696864111453E-2</v>
+      </c>
       <c r="AO286" s="10"/>
       <c r="AP286" s="10"/>
       <c r="AQ286" s="10"/>
@@ -60553,7 +61098,9 @@
       <c r="AM287" s="10">
         <v>7.6083229842058175E-2</v>
       </c>
-      <c r="AN287" s="10"/>
+      <c r="AN287" s="10">
+        <v>7.7640393522949047E-2</v>
+      </c>
       <c r="AO287" s="10"/>
       <c r="AP287" s="10"/>
       <c r="AQ287" s="10"/>
@@ -60768,7 +61315,9 @@
       <c r="AM288" s="10">
         <v>0.19191758391703817</v>
       </c>
-      <c r="AN288" s="10"/>
+      <c r="AN288" s="10">
+        <v>0.170436417502279</v>
+      </c>
       <c r="AO288" s="10"/>
       <c r="AP288" s="10"/>
       <c r="AQ288" s="10"/>
@@ -60983,7 +61532,9 @@
       <c r="AM289" s="10">
         <v>7.772956084013205E-2</v>
       </c>
-      <c r="AN289" s="10"/>
+      <c r="AN289" s="10">
+        <v>6.1148501005156897E-2</v>
+      </c>
       <c r="AO289" s="10"/>
       <c r="AP289" s="10"/>
       <c r="AQ289" s="10"/>
@@ -61198,7 +61749,9 @@
       <c r="AM290" s="10">
         <v>1.9559206607455693E-4</v>
       </c>
-      <c r="AN290" s="10"/>
+      <c r="AN290" s="10">
+        <v>1.9559206607455693E-4</v>
+      </c>
       <c r="AO290" s="10"/>
       <c r="AP290" s="10"/>
       <c r="AQ290" s="10"/>
@@ -61413,7 +61966,9 @@
       <c r="AM291" s="10">
         <v>6.963585009383344E-2</v>
       </c>
-      <c r="AN291" s="10"/>
+      <c r="AN291" s="10">
+        <v>6.1366714317959481E-2</v>
+      </c>
       <c r="AO291" s="10"/>
       <c r="AP291" s="10"/>
       <c r="AQ291" s="10"/>
@@ -61628,7 +62183,9 @@
       <c r="AM292" s="10">
         <v>-2.3936238371447427E-2</v>
       </c>
-      <c r="AN292" s="10"/>
+      <c r="AN292" s="10">
+        <v>-6.2360649575865512E-4</v>
+      </c>
       <c r="AO292" s="10"/>
       <c r="AP292" s="10"/>
       <c r="AQ292" s="10"/>
@@ -61843,7 +62400,9 @@
       <c r="AM293" s="10">
         <v>0.13258772996190937</v>
       </c>
-      <c r="AN293" s="10"/>
+      <c r="AN293" s="10">
+        <v>0.17054132021041912</v>
+      </c>
       <c r="AO293" s="10"/>
       <c r="AP293" s="10"/>
       <c r="AQ293" s="10"/>
@@ -62058,7 +62617,9 @@
       <c r="AM294" s="10">
         <v>0.12068522483940036</v>
       </c>
-      <c r="AN294" s="10"/>
+      <c r="AN294" s="10">
+        <v>0.17395695968126601</v>
+      </c>
       <c r="AO294" s="10"/>
       <c r="AP294" s="10"/>
       <c r="AQ294" s="10"/>
@@ -62273,7 +62834,9 @@
       <c r="AM295" s="10">
         <v>8.9326972915513725E-2</v>
       </c>
-      <c r="AN295" s="10"/>
+      <c r="AN295" s="10">
+        <v>0.10309541407102385</v>
+      </c>
       <c r="AO295" s="10"/>
       <c r="AP295" s="10"/>
       <c r="AQ295" s="10"/>
@@ -62488,7 +63051,9 @@
       <c r="AM296" s="10">
         <v>4.3120423018208287E-2</v>
       </c>
-      <c r="AN296" s="10"/>
+      <c r="AN296" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
       <c r="AO296" s="10"/>
       <c r="AP296" s="10"/>
       <c r="AQ296" s="10"/>
@@ -62703,7 +63268,9 @@
       <c r="AM297" s="10">
         <v>3.5446667688617595E-2</v>
       </c>
-      <c r="AN297" s="10"/>
+      <c r="AN297" s="10">
+        <v>5.0521432648660269E-2</v>
+      </c>
       <c r="AO297" s="10"/>
       <c r="AP297" s="10"/>
       <c r="AQ297" s="10"/>
@@ -62918,7 +63485,9 @@
       <c r="AM298" s="10">
         <v>0.38006864291843123</v>
       </c>
-      <c r="AN298" s="10"/>
+      <c r="AN298" s="10">
+        <v>-2.9252246999416975E-2</v>
+      </c>
       <c r="AO298" s="10"/>
       <c r="AP298" s="10"/>
       <c r="AQ298" s="10"/>
@@ -63133,7 +63702,9 @@
       <c r="AM299" s="10">
         <v>0</v>
       </c>
-      <c r="AN299" s="10"/>
+      <c r="AN299" s="10">
+        <v>0</v>
+      </c>
       <c r="AO299" s="10"/>
       <c r="AP299" s="10"/>
       <c r="AQ299" s="10"/>
@@ -63348,7 +63919,9 @@
       <c r="AM300" s="10">
         <v>0</v>
       </c>
-      <c r="AN300" s="10"/>
+      <c r="AN300" s="10">
+        <v>0</v>
+      </c>
       <c r="AO300" s="10"/>
       <c r="AP300" s="10"/>
       <c r="AQ300" s="10"/>
@@ -63563,7 +64136,9 @@
       <c r="AM301" s="10">
         <v>0</v>
       </c>
-      <c r="AN301" s="10"/>
+      <c r="AN301" s="10">
+        <v>0</v>
+      </c>
       <c r="AO301" s="10"/>
       <c r="AP301" s="10"/>
       <c r="AQ301" s="10"/>
@@ -63778,7 +64353,9 @@
       <c r="AM302" s="10">
         <v>3.1116428597523171E-2</v>
       </c>
-      <c r="AN302" s="10"/>
+      <c r="AN302" s="10">
+        <v>5.7187789084181428E-2</v>
+      </c>
       <c r="AO302" s="10"/>
       <c r="AP302" s="10"/>
       <c r="AQ302" s="10"/>
@@ -63993,7 +64570,9 @@
       <c r="AM303" s="10">
         <v>8.8821617158877819E-2</v>
       </c>
-      <c r="AN303" s="10"/>
+      <c r="AN303" s="10">
+        <v>9.6363949681199434E-2</v>
+      </c>
       <c r="AO303" s="10"/>
       <c r="AP303" s="10"/>
       <c r="AQ303" s="10"/>
@@ -64208,7 +64787,9 @@
       <c r="AM304" s="10">
         <v>2.6565184459921287E-2</v>
       </c>
-      <c r="AN304" s="10"/>
+      <c r="AN304" s="10">
+        <v>2.7399407929320274E-2</v>
+      </c>
       <c r="AO304" s="10"/>
       <c r="AP304" s="10"/>
       <c r="AQ304" s="10"/>
@@ -64423,7 +65004,9 @@
       <c r="AM305" s="10">
         <v>7.064845833048472E-2</v>
       </c>
-      <c r="AN305" s="10"/>
+      <c r="AN305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
       <c r="AO305" s="10"/>
       <c r="AP305" s="10"/>
       <c r="AQ305" s="10"/>
@@ -64638,7 +65221,9 @@
       <c r="AM306" s="10">
         <v>0.14691618126988071</v>
       </c>
-      <c r="AN306" s="10"/>
+      <c r="AN306" s="10">
+        <v>0.17653571281034397</v>
+      </c>
       <c r="AO306" s="10"/>
       <c r="AP306" s="10"/>
       <c r="AQ306" s="10"/>
@@ -64853,7 +65438,9 @@
       <c r="AM307" s="10">
         <v>2.5300167556909114E-2</v>
       </c>
-      <c r="AN307" s="10"/>
+      <c r="AN307" s="10">
+        <v>2.5941020451542007E-2</v>
+      </c>
       <c r="AO307" s="10"/>
       <c r="AP307" s="10"/>
       <c r="AQ307" s="10"/>
@@ -65068,7 +65655,9 @@
       <c r="AM308" s="10">
         <v>0.10063480900207278</v>
       </c>
-      <c r="AN308" s="10"/>
+      <c r="AN308" s="10">
+        <v>0.12314941897703346</v>
+      </c>
       <c r="AO308" s="10"/>
       <c r="AP308" s="10"/>
       <c r="AQ308" s="10"/>
@@ -65283,7 +65872,9 @@
       <c r="AM309" s="10">
         <v>0.10725196334031772</v>
       </c>
-      <c r="AN309" s="10"/>
+      <c r="AN309" s="10">
+        <v>5.1384658419842077E-2</v>
+      </c>
       <c r="AO309" s="10"/>
       <c r="AP309" s="10"/>
       <c r="AQ309" s="10"/>
@@ -65498,7 +66089,9 @@
       <c r="AM310" s="10">
         <v>0.12097242704562716</v>
       </c>
-      <c r="AN310" s="10"/>
+      <c r="AN310" s="10">
+        <v>0.22826963393001143</v>
+      </c>
       <c r="AO310" s="10"/>
       <c r="AP310" s="10"/>
       <c r="AQ310" s="10"/>
@@ -65713,7 +66306,9 @@
       <c r="AM311" s="10">
         <v>7.0909772379645908E-4</v>
       </c>
-      <c r="AN311" s="10"/>
+      <c r="AN311" s="10">
+        <v>7.0909772379645908E-4</v>
+      </c>
       <c r="AO311" s="10"/>
       <c r="AP311" s="10"/>
       <c r="AQ311" s="10"/>
@@ -65928,7 +66523,9 @@
       <c r="AM312" s="10">
         <v>0</v>
       </c>
-      <c r="AN312" s="10"/>
+      <c r="AN312" s="10">
+        <v>0</v>
+      </c>
       <c r="AO312" s="10"/>
       <c r="AP312" s="10"/>
       <c r="AQ312" s="10"/>
@@ -66143,7 +66740,9 @@
       <c r="AM313" s="10">
         <v>6.4360743638201656E-2</v>
       </c>
-      <c r="AN313" s="10"/>
+      <c r="AN313" s="10">
+        <v>6.9696303784116287E-2</v>
+      </c>
       <c r="AO313" s="10"/>
       <c r="AP313" s="10"/>
       <c r="AQ313" s="10"/>
@@ -66358,7 +66957,9 @@
       <c r="AM314" s="11">
         <v>7.3450021647125441E-2</v>
       </c>
-      <c r="AN314" s="11"/>
+      <c r="AN314" s="11">
+        <v>8.1737778209738599E-2</v>
+      </c>
       <c r="AO314" s="11"/>
       <c r="AP314" s="11"/>
       <c r="AQ314" s="11"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="456">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1388,10 +1388,13 @@
     <t xml:space="preserve"> 05/2022</t>
   </si>
   <si>
-    <t>Última actualización:  07/07/2022</t>
+    <t xml:space="preserve"> 06/2022</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/2022</t>
+    <t>Última actualización:  08/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07/2022</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EE314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD314"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1943,7 +1948,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2075,9 +2080,11 @@
         <v>452</v>
       </c>
       <c r="AN15" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="AO15" s="13"/>
+        <v>453</v>
+      </c>
+      <c r="AO15" s="13" t="s">
+        <v>455</v>
+      </c>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="13"/>
       <c r="AR15" s="13"/>
@@ -2294,7 +2301,9 @@
       <c r="AN16" s="10">
         <v>0.27122304576547496</v>
       </c>
-      <c r="AO16" s="10"/>
+      <c r="AO16" s="10">
+        <v>0.29510538291617538</v>
+      </c>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
@@ -2511,7 +2520,9 @@
       <c r="AN17" s="10">
         <v>-5.8198950340360156E-3</v>
       </c>
-      <c r="AO17" s="10"/>
+      <c r="AO17" s="10">
+        <v>1.2294938306225411E-2</v>
+      </c>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
@@ -2728,7 +2739,9 @@
       <c r="AN18" s="10">
         <v>0.11868126324286132</v>
       </c>
-      <c r="AO18" s="10"/>
+      <c r="AO18" s="10">
+        <v>0.12188453131882282</v>
+      </c>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
@@ -2945,7 +2958,9 @@
       <c r="AN19" s="10">
         <v>0.2719629732353348</v>
       </c>
-      <c r="AO19" s="10"/>
+      <c r="AO19" s="10">
+        <v>0.23201114365072018</v>
+      </c>
       <c r="AP19" s="10"/>
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
@@ -3162,7 +3177,9 @@
       <c r="AN20" s="10">
         <v>8.201775783003229E-2</v>
       </c>
-      <c r="AO20" s="10"/>
+      <c r="AO20" s="10">
+        <v>8.3879221616214084E-2</v>
+      </c>
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
@@ -3379,7 +3396,9 @@
       <c r="AN21" s="10">
         <v>9.2186046511627984E-2</v>
       </c>
-      <c r="AO21" s="10"/>
+      <c r="AO21" s="10">
+        <v>9.8324433805928813E-2</v>
+      </c>
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
@@ -3596,7 +3615,9 @@
       <c r="AN22" s="10">
         <v>5.0706505740359065E-2</v>
       </c>
-      <c r="AO22" s="10"/>
+      <c r="AO22" s="10">
+        <v>8.4125659813145903E-2</v>
+      </c>
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
@@ -3813,7 +3834,9 @@
       <c r="AN23" s="10">
         <v>0.12798095282267741</v>
       </c>
-      <c r="AO23" s="10"/>
+      <c r="AO23" s="10">
+        <v>0.11218447159765588</v>
+      </c>
       <c r="AP23" s="10"/>
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
@@ -4030,7 +4053,9 @@
       <c r="AN24" s="10">
         <v>1.8933128544423417E-2</v>
       </c>
-      <c r="AO24" s="10"/>
+      <c r="AO24" s="10">
+        <v>1.52436473180666E-2</v>
+      </c>
       <c r="AP24" s="10"/>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="10"/>
@@ -4247,7 +4272,9 @@
       <c r="AN25" s="10">
         <v>0.45368987152674034</v>
       </c>
-      <c r="AO25" s="10"/>
+      <c r="AO25" s="10">
+        <v>0.43808889093165404</v>
+      </c>
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
@@ -4464,7 +4491,9 @@
       <c r="AN26" s="10">
         <v>0.19638865152731388</v>
       </c>
-      <c r="AO26" s="10"/>
+      <c r="AO26" s="10">
+        <v>0.16980877769353886</v>
+      </c>
       <c r="AP26" s="10"/>
       <c r="AQ26" s="10"/>
       <c r="AR26" s="10"/>
@@ -4681,7 +4710,9 @@
       <c r="AN27" s="10">
         <v>9.7087793700195046E-2</v>
       </c>
-      <c r="AO27" s="10"/>
+      <c r="AO27" s="10">
+        <v>6.2308546245211094E-2</v>
+      </c>
       <c r="AP27" s="10"/>
       <c r="AQ27" s="10"/>
       <c r="AR27" s="10"/>
@@ -4898,7 +4929,9 @@
       <c r="AN28" s="10">
         <v>0.11901164774111783</v>
       </c>
-      <c r="AO28" s="10"/>
+      <c r="AO28" s="10">
+        <v>0.12074920827383773</v>
+      </c>
       <c r="AP28" s="10"/>
       <c r="AQ28" s="10"/>
       <c r="AR28" s="10"/>
@@ -5115,7 +5148,9 @@
       <c r="AN29" s="10">
         <v>5.6739831253566964E-2</v>
       </c>
-      <c r="AO29" s="10"/>
+      <c r="AO29" s="10">
+        <v>7.571801566579639E-2</v>
+      </c>
       <c r="AP29" s="10"/>
       <c r="AQ29" s="10"/>
       <c r="AR29" s="10"/>
@@ -5332,7 +5367,9 @@
       <c r="AN30" s="10">
         <v>6.3499012927466181E-2</v>
       </c>
-      <c r="AO30" s="10"/>
+      <c r="AO30" s="10">
+        <v>7.7861410848124812E-2</v>
+      </c>
       <c r="AP30" s="10"/>
       <c r="AQ30" s="10"/>
       <c r="AR30" s="10"/>
@@ -5549,7 +5586,9 @@
       <c r="AN31" s="10">
         <v>7.2373735966793751E-2</v>
       </c>
-      <c r="AO31" s="10"/>
+      <c r="AO31" s="10">
+        <v>7.5332101779564287E-2</v>
+      </c>
       <c r="AP31" s="10"/>
       <c r="AQ31" s="10"/>
       <c r="AR31" s="10"/>
@@ -5766,7 +5805,9 @@
       <c r="AN32" s="10">
         <v>8.8278049425135396E-2</v>
       </c>
-      <c r="AO32" s="10"/>
+      <c r="AO32" s="10">
+        <v>6.5532557448414908E-2</v>
+      </c>
       <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
       <c r="AR32" s="10"/>
@@ -5983,7 +6024,9 @@
       <c r="AN33" s="10">
         <v>0.7848794161201611</v>
       </c>
-      <c r="AO33" s="10"/>
+      <c r="AO33" s="10">
+        <v>0.58033380079294994</v>
+      </c>
       <c r="AP33" s="10"/>
       <c r="AQ33" s="10"/>
       <c r="AR33" s="10"/>
@@ -6200,7 +6243,9 @@
       <c r="AN34" s="10">
         <v>-6.5297734730939583E-2</v>
       </c>
-      <c r="AO34" s="10"/>
+      <c r="AO34" s="10">
+        <v>-6.4518853185829839E-3</v>
+      </c>
       <c r="AP34" s="10"/>
       <c r="AQ34" s="10"/>
       <c r="AR34" s="10"/>
@@ -6417,7 +6462,9 @@
       <c r="AN35" s="10">
         <v>-4.11453640378735E-2</v>
       </c>
-      <c r="AO35" s="10"/>
+      <c r="AO35" s="10">
+        <v>4.7912106067493632E-4</v>
+      </c>
       <c r="AP35" s="10"/>
       <c r="AQ35" s="10"/>
       <c r="AR35" s="10"/>
@@ -6634,7 +6681,9 @@
       <c r="AN36" s="10">
         <v>6.709525996224297E-2</v>
       </c>
-      <c r="AO36" s="10"/>
+      <c r="AO36" s="10">
+        <v>0.25423322444331231</v>
+      </c>
       <c r="AP36" s="10"/>
       <c r="AQ36" s="10"/>
       <c r="AR36" s="10"/>
@@ -6851,7 +6900,9 @@
       <c r="AN37" s="10">
         <v>4.097552079447575E-2</v>
       </c>
-      <c r="AO37" s="10"/>
+      <c r="AO37" s="10">
+        <v>2.6526526526526428E-2</v>
+      </c>
       <c r="AP37" s="10"/>
       <c r="AQ37" s="10"/>
       <c r="AR37" s="10"/>
@@ -7068,7 +7119,9 @@
       <c r="AN38" s="10">
         <v>0.27076540079877209</v>
       </c>
-      <c r="AO38" s="10"/>
+      <c r="AO38" s="10">
+        <v>0.43134970424807317</v>
+      </c>
       <c r="AP38" s="10"/>
       <c r="AQ38" s="10"/>
       <c r="AR38" s="10"/>
@@ -7285,7 +7338,9 @@
       <c r="AN39" s="10">
         <v>0.18485288811304734</v>
       </c>
-      <c r="AO39" s="10"/>
+      <c r="AO39" s="10">
+        <v>0.39689796067940719</v>
+      </c>
       <c r="AP39" s="10"/>
       <c r="AQ39" s="10"/>
       <c r="AR39" s="10"/>
@@ -7502,7 +7557,9 @@
       <c r="AN40" s="10">
         <v>0.19147883840881796</v>
       </c>
-      <c r="AO40" s="10"/>
+      <c r="AO40" s="10">
+        <v>0.28677348214779741</v>
+      </c>
       <c r="AP40" s="10"/>
       <c r="AQ40" s="10"/>
       <c r="AR40" s="10"/>
@@ -7719,7 +7776,9 @@
       <c r="AN41" s="10">
         <v>0.13990786246345732</v>
       </c>
-      <c r="AO41" s="10"/>
+      <c r="AO41" s="10">
+        <v>0.19502051680159727</v>
+      </c>
       <c r="AP41" s="10"/>
       <c r="AQ41" s="10"/>
       <c r="AR41" s="10"/>
@@ -7936,7 +7995,9 @@
       <c r="AN42" s="10">
         <v>-2.3984663327957234E-3</v>
       </c>
-      <c r="AO42" s="10"/>
+      <c r="AO42" s="10">
+        <v>1.7949176654995957E-2</v>
+      </c>
       <c r="AP42" s="10"/>
       <c r="AQ42" s="10"/>
       <c r="AR42" s="10"/>
@@ -8153,7 +8214,9 @@
       <c r="AN43" s="10">
         <v>0.20328158186006151</v>
       </c>
-      <c r="AO43" s="10"/>
+      <c r="AO43" s="10">
+        <v>0.50488998479679914</v>
+      </c>
       <c r="AP43" s="10"/>
       <c r="AQ43" s="10"/>
       <c r="AR43" s="10"/>
@@ -8370,7 +8433,9 @@
       <c r="AN44" s="10">
         <v>1.1299801694609535E-2</v>
       </c>
-      <c r="AO44" s="10"/>
+      <c r="AO44" s="10">
+        <v>0.10971782137426311</v>
+      </c>
       <c r="AP44" s="10"/>
       <c r="AQ44" s="10"/>
       <c r="AR44" s="10"/>
@@ -8587,7 +8652,9 @@
       <c r="AN45" s="10">
         <v>0.2431060949517605</v>
       </c>
-      <c r="AO45" s="10"/>
+      <c r="AO45" s="10">
+        <v>0.27435606700280668</v>
+      </c>
       <c r="AP45" s="10"/>
       <c r="AQ45" s="10"/>
       <c r="AR45" s="10"/>
@@ -8804,7 +8871,9 @@
       <c r="AN46" s="10">
         <v>6.4481823764660051E-2</v>
       </c>
-      <c r="AO46" s="10"/>
+      <c r="AO46" s="10">
+        <v>-1.557727803206499E-2</v>
+      </c>
       <c r="AP46" s="10"/>
       <c r="AQ46" s="10"/>
       <c r="AR46" s="10"/>
@@ -9021,7 +9090,9 @@
       <c r="AN47" s="10">
         <v>3.2151723995837989E-2</v>
       </c>
-      <c r="AO47" s="10"/>
+      <c r="AO47" s="10">
+        <v>5.3670875534783002E-2</v>
+      </c>
       <c r="AP47" s="10"/>
       <c r="AQ47" s="10"/>
       <c r="AR47" s="10"/>
@@ -9238,7 +9309,9 @@
       <c r="AN48" s="10">
         <v>0.13741820853193909</v>
       </c>
-      <c r="AO48" s="10"/>
+      <c r="AO48" s="10">
+        <v>0.14325960810697169</v>
+      </c>
       <c r="AP48" s="10"/>
       <c r="AQ48" s="10"/>
       <c r="AR48" s="10"/>
@@ -9455,7 +9528,9 @@
       <c r="AN49" s="10">
         <v>-1.7474531414276906E-2</v>
       </c>
-      <c r="AO49" s="10"/>
+      <c r="AO49" s="10">
+        <v>-1.6289576307393028E-2</v>
+      </c>
       <c r="AP49" s="10"/>
       <c r="AQ49" s="10"/>
       <c r="AR49" s="10"/>
@@ -9672,7 +9747,9 @@
       <c r="AN50" s="10">
         <v>7.9421140183392858E-2</v>
       </c>
-      <c r="AO50" s="10"/>
+      <c r="AO50" s="10">
+        <v>6.2300873535034107E-2</v>
+      </c>
       <c r="AP50" s="10"/>
       <c r="AQ50" s="10"/>
       <c r="AR50" s="10"/>
@@ -9889,7 +9966,9 @@
       <c r="AN51" s="10">
         <v>3.4489577977296904E-2</v>
       </c>
-      <c r="AO51" s="10"/>
+      <c r="AO51" s="10">
+        <v>4.3791009656762636E-2</v>
+      </c>
       <c r="AP51" s="10"/>
       <c r="AQ51" s="10"/>
       <c r="AR51" s="10"/>
@@ -10106,7 +10185,9 @@
       <c r="AN52" s="10">
         <v>4.523260268836049E-2</v>
       </c>
-      <c r="AO52" s="10"/>
+      <c r="AO52" s="10">
+        <v>4.8086087374449082E-2</v>
+      </c>
       <c r="AP52" s="10"/>
       <c r="AQ52" s="10"/>
       <c r="AR52" s="10"/>
@@ -10323,7 +10404,9 @@
       <c r="AN53" s="10">
         <v>0.17393150778011823</v>
       </c>
-      <c r="AO53" s="10"/>
+      <c r="AO53" s="10">
+        <v>0.14560109900113383</v>
+      </c>
       <c r="AP53" s="10"/>
       <c r="AQ53" s="10"/>
       <c r="AR53" s="10"/>
@@ -10540,7 +10623,9 @@
       <c r="AN54" s="10">
         <v>0.14535872601810151</v>
       </c>
-      <c r="AO54" s="10"/>
+      <c r="AO54" s="10">
+        <v>0.15742044987270232</v>
+      </c>
       <c r="AP54" s="10"/>
       <c r="AQ54" s="10"/>
       <c r="AR54" s="10"/>
@@ -10757,7 +10842,9 @@
       <c r="AN55" s="10">
         <v>0.37461606645915357</v>
       </c>
-      <c r="AO55" s="10"/>
+      <c r="AO55" s="10">
+        <v>-1.6237406467926707E-2</v>
+      </c>
       <c r="AP55" s="10"/>
       <c r="AQ55" s="10"/>
       <c r="AR55" s="10"/>
@@ -10974,7 +11061,9 @@
       <c r="AN56" s="10">
         <v>0.72092409089343357</v>
       </c>
-      <c r="AO56" s="10"/>
+      <c r="AO56" s="10">
+        <v>0.57583365645599072</v>
+      </c>
       <c r="AP56" s="10"/>
       <c r="AQ56" s="10"/>
       <c r="AR56" s="10"/>
@@ -11191,7 +11280,9 @@
       <c r="AN57" s="10">
         <v>0.1120605374354442</v>
       </c>
-      <c r="AO57" s="10"/>
+      <c r="AO57" s="10">
+        <v>9.9736212574062177E-2</v>
+      </c>
       <c r="AP57" s="10"/>
       <c r="AQ57" s="10"/>
       <c r="AR57" s="10"/>
@@ -11408,7 +11499,9 @@
       <c r="AN58" s="10">
         <v>0.32695871820165578</v>
       </c>
-      <c r="AO58" s="10"/>
+      <c r="AO58" s="10">
+        <v>0.2118046487333507</v>
+      </c>
       <c r="AP58" s="10"/>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="10"/>
@@ -11625,7 +11718,9 @@
       <c r="AN59" s="10">
         <v>7.9398545173514856E-2</v>
       </c>
-      <c r="AO59" s="10"/>
+      <c r="AO59" s="10">
+        <v>3.2753058992647466E-2</v>
+      </c>
       <c r="AP59" s="10"/>
       <c r="AQ59" s="10"/>
       <c r="AR59" s="10"/>
@@ -11842,7 +11937,9 @@
       <c r="AN60" s="10">
         <v>0.20767646328073019</v>
       </c>
-      <c r="AO60" s="10"/>
+      <c r="AO60" s="10">
+        <v>9.7435018655117833E-2</v>
+      </c>
       <c r="AP60" s="10"/>
       <c r="AQ60" s="10"/>
       <c r="AR60" s="10"/>
@@ -12059,7 +12156,9 @@
       <c r="AN61" s="10">
         <v>3.115990241738742E-2</v>
       </c>
-      <c r="AO61" s="10"/>
+      <c r="AO61" s="10">
+        <v>1.4372954089070245E-3</v>
+      </c>
       <c r="AP61" s="10"/>
       <c r="AQ61" s="10"/>
       <c r="AR61" s="10"/>
@@ -12276,7 +12375,9 @@
       <c r="AN62" s="10">
         <v>9.8973776254815959E-2</v>
       </c>
-      <c r="AO62" s="10"/>
+      <c r="AO62" s="10">
+        <v>0.19636923505158221</v>
+      </c>
       <c r="AP62" s="10"/>
       <c r="AQ62" s="10"/>
       <c r="AR62" s="10"/>
@@ -12493,7 +12594,9 @@
       <c r="AN63" s="10">
         <v>0.17513143160811562</v>
       </c>
-      <c r="AO63" s="10"/>
+      <c r="AO63" s="10">
+        <v>0.16512227344536723</v>
+      </c>
       <c r="AP63" s="10"/>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="10"/>
@@ -12710,7 +12813,9 @@
       <c r="AN64" s="10">
         <v>9.5467510012265944E-2</v>
       </c>
-      <c r="AO64" s="10"/>
+      <c r="AO64" s="10">
+        <v>0.13237666827763106</v>
+      </c>
       <c r="AP64" s="10"/>
       <c r="AQ64" s="10"/>
       <c r="AR64" s="10"/>
@@ -12927,7 +13032,9 @@
       <c r="AN65" s="10">
         <v>0.1069901125255952</v>
       </c>
-      <c r="AO65" s="10"/>
+      <c r="AO65" s="10">
+        <v>6.8536052882832044E-2</v>
+      </c>
       <c r="AP65" s="10"/>
       <c r="AQ65" s="10"/>
       <c r="AR65" s="10"/>
@@ -13144,7 +13251,9 @@
       <c r="AN66" s="10">
         <v>0.29726612203156022</v>
       </c>
-      <c r="AO66" s="10"/>
+      <c r="AO66" s="10">
+        <v>0.54535971223021584</v>
+      </c>
       <c r="AP66" s="10"/>
       <c r="AQ66" s="10"/>
       <c r="AR66" s="10"/>
@@ -13361,7 +13470,9 @@
       <c r="AN67" s="10">
         <v>0.12279155722486967</v>
       </c>
-      <c r="AO67" s="10"/>
+      <c r="AO67" s="10">
+        <v>0.1936075704905369</v>
+      </c>
       <c r="AP67" s="10"/>
       <c r="AQ67" s="10"/>
       <c r="AR67" s="10"/>
@@ -13578,7 +13689,9 @@
       <c r="AN68" s="10">
         <v>-4.5905179465366541E-2</v>
       </c>
-      <c r="AO68" s="10"/>
+      <c r="AO68" s="10">
+        <v>0.34728768978358793</v>
+      </c>
       <c r="AP68" s="10"/>
       <c r="AQ68" s="10"/>
       <c r="AR68" s="10"/>
@@ -13795,7 +13908,9 @@
       <c r="AN69" s="10">
         <v>4.2174756512788125E-2</v>
       </c>
-      <c r="AO69" s="10"/>
+      <c r="AO69" s="10">
+        <v>8.5006091836938413E-2</v>
+      </c>
       <c r="AP69" s="10"/>
       <c r="AQ69" s="10"/>
       <c r="AR69" s="10"/>
@@ -14012,7 +14127,9 @@
       <c r="AN70" s="10">
         <v>8.0003404678814283E-2</v>
       </c>
-      <c r="AO70" s="10"/>
+      <c r="AO70" s="10">
+        <v>8.5986989931281066E-2</v>
+      </c>
       <c r="AP70" s="10"/>
       <c r="AQ70" s="10"/>
       <c r="AR70" s="10"/>
@@ -14229,7 +14346,9 @@
       <c r="AN71" s="10">
         <v>-0.16062654396394926</v>
       </c>
-      <c r="AO71" s="10"/>
+      <c r="AO71" s="10">
+        <v>-0.16409956235579182</v>
+      </c>
       <c r="AP71" s="10"/>
       <c r="AQ71" s="10"/>
       <c r="AR71" s="10"/>
@@ -14446,7 +14565,9 @@
       <c r="AN72" s="10">
         <v>0.13488205254066088</v>
       </c>
-      <c r="AO72" s="10"/>
+      <c r="AO72" s="10">
+        <v>0.1364565764305703</v>
+      </c>
       <c r="AP72" s="10"/>
       <c r="AQ72" s="10"/>
       <c r="AR72" s="10"/>
@@ -14663,7 +14784,9 @@
       <c r="AN73" s="10">
         <v>0.11381530749951785</v>
       </c>
-      <c r="AO73" s="10"/>
+      <c r="AO73" s="10">
+        <v>0.11071381683103332</v>
+      </c>
       <c r="AP73" s="10"/>
       <c r="AQ73" s="10"/>
       <c r="AR73" s="10"/>
@@ -14880,7 +15003,9 @@
       <c r="AN74" s="10">
         <v>8.051687447912026E-2</v>
       </c>
-      <c r="AO74" s="10"/>
+      <c r="AO74" s="10">
+        <v>7.0582182293109641E-2</v>
+      </c>
       <c r="AP74" s="10"/>
       <c r="AQ74" s="10"/>
       <c r="AR74" s="10"/>
@@ -15097,7 +15222,9 @@
       <c r="AN75" s="10">
         <v>5.2256341574907994E-2</v>
       </c>
-      <c r="AO75" s="10"/>
+      <c r="AO75" s="10">
+        <v>5.7198328552823918E-2</v>
+      </c>
       <c r="AP75" s="10"/>
       <c r="AQ75" s="10"/>
       <c r="AR75" s="10"/>
@@ -15314,7 +15441,9 @@
       <c r="AN76" s="10">
         <v>0.11291118560999269</v>
       </c>
-      <c r="AO76" s="10"/>
+      <c r="AO76" s="10">
+        <v>0.10212722801146024</v>
+      </c>
       <c r="AP76" s="10"/>
       <c r="AQ76" s="10"/>
       <c r="AR76" s="10"/>
@@ -15531,7 +15660,9 @@
       <c r="AN77" s="10">
         <v>0.16116889714271432</v>
       </c>
-      <c r="AO77" s="10"/>
+      <c r="AO77" s="10">
+        <v>0.16600201876458232</v>
+      </c>
       <c r="AP77" s="10"/>
       <c r="AQ77" s="10"/>
       <c r="AR77" s="10"/>
@@ -15748,7 +15879,9 @@
       <c r="AN78" s="10">
         <v>9.8690464032930914E-2</v>
       </c>
-      <c r="AO78" s="10"/>
+      <c r="AO78" s="10">
+        <v>9.5126068810279296E-2</v>
+      </c>
       <c r="AP78" s="10"/>
       <c r="AQ78" s="10"/>
       <c r="AR78" s="10"/>
@@ -15965,7 +16098,9 @@
       <c r="AN79" s="10">
         <v>0.16410721178859755</v>
       </c>
-      <c r="AO79" s="10"/>
+      <c r="AO79" s="10">
+        <v>0.13743332543721354</v>
+      </c>
       <c r="AP79" s="10"/>
       <c r="AQ79" s="10"/>
       <c r="AR79" s="10"/>
@@ -16182,7 +16317,9 @@
       <c r="AN80" s="10">
         <v>8.3838143067325399E-2</v>
       </c>
-      <c r="AO80" s="10"/>
+      <c r="AO80" s="10">
+        <v>0.10483709774135508</v>
+      </c>
       <c r="AP80" s="10"/>
       <c r="AQ80" s="10"/>
       <c r="AR80" s="10"/>
@@ -16399,7 +16536,9 @@
       <c r="AN81" s="10">
         <v>9.3582090754569469E-2</v>
       </c>
-      <c r="AO81" s="10"/>
+      <c r="AO81" s="10">
+        <v>9.8112876467585375E-2</v>
+      </c>
       <c r="AP81" s="10"/>
       <c r="AQ81" s="10"/>
       <c r="AR81" s="10"/>
@@ -16616,7 +16755,9 @@
       <c r="AN82" s="10">
         <v>0.18665816901517918</v>
       </c>
-      <c r="AO82" s="10"/>
+      <c r="AO82" s="10">
+        <v>0.42317333203118657</v>
+      </c>
       <c r="AP82" s="10"/>
       <c r="AQ82" s="10"/>
       <c r="AR82" s="10"/>
@@ -16833,7 +16974,9 @@
       <c r="AN83" s="10">
         <v>5.4825969376836037E-2</v>
       </c>
-      <c r="AO83" s="10"/>
+      <c r="AO83" s="10">
+        <v>5.1753681133043683E-2</v>
+      </c>
       <c r="AP83" s="10"/>
       <c r="AQ83" s="10"/>
       <c r="AR83" s="10"/>
@@ -17050,7 +17193,9 @@
       <c r="AN84" s="10">
         <v>0.15098721382366276</v>
       </c>
-      <c r="AO84" s="10"/>
+      <c r="AO84" s="10">
+        <v>0.15921039842362439</v>
+      </c>
       <c r="AP84" s="10"/>
       <c r="AQ84" s="10"/>
       <c r="AR84" s="10"/>
@@ -17267,7 +17412,9 @@
       <c r="AN85" s="10">
         <v>8.2352356827099849E-2</v>
       </c>
-      <c r="AO85" s="10"/>
+      <c r="AO85" s="10">
+        <v>4.3968849705454449E-2</v>
+      </c>
       <c r="AP85" s="10"/>
       <c r="AQ85" s="10"/>
       <c r="AR85" s="10"/>
@@ -17484,7 +17631,9 @@
       <c r="AN86" s="10">
         <v>6.3257722251181203E-2</v>
       </c>
-      <c r="AO86" s="10"/>
+      <c r="AO86" s="10">
+        <v>6.2986937154869027E-2</v>
+      </c>
       <c r="AP86" s="10"/>
       <c r="AQ86" s="10"/>
       <c r="AR86" s="10"/>
@@ -17701,7 +17850,9 @@
       <c r="AN87" s="10">
         <v>0.10521900751681845</v>
       </c>
-      <c r="AO87" s="10"/>
+      <c r="AO87" s="10">
+        <v>9.6355760052864836E-2</v>
+      </c>
       <c r="AP87" s="10"/>
       <c r="AQ87" s="10"/>
       <c r="AR87" s="10"/>
@@ -17918,7 +18069,9 @@
       <c r="AN88" s="10">
         <v>0.10186504493460813</v>
       </c>
-      <c r="AO88" s="10"/>
+      <c r="AO88" s="10">
+        <v>0.12160598519551735</v>
+      </c>
       <c r="AP88" s="10"/>
       <c r="AQ88" s="10"/>
       <c r="AR88" s="10"/>
@@ -18135,7 +18288,9 @@
       <c r="AN89" s="10">
         <v>0.12557461793328351</v>
       </c>
-      <c r="AO89" s="10"/>
+      <c r="AO89" s="10">
+        <v>0.10775630588776841</v>
+      </c>
       <c r="AP89" s="10"/>
       <c r="AQ89" s="10"/>
       <c r="AR89" s="10"/>
@@ -18352,7 +18507,9 @@
       <c r="AN90" s="10">
         <v>7.6911903551456051E-2</v>
       </c>
-      <c r="AO90" s="10"/>
+      <c r="AO90" s="10">
+        <v>0.1097773365018393</v>
+      </c>
       <c r="AP90" s="10"/>
       <c r="AQ90" s="10"/>
       <c r="AR90" s="10"/>
@@ -18569,7 +18726,9 @@
       <c r="AN91" s="10">
         <v>0.15937899896177887</v>
       </c>
-      <c r="AO91" s="10"/>
+      <c r="AO91" s="10">
+        <v>0.17135475770818753</v>
+      </c>
       <c r="AP91" s="10"/>
       <c r="AQ91" s="10"/>
       <c r="AR91" s="10"/>
@@ -18786,7 +18945,9 @@
       <c r="AN92" s="10">
         <v>6.7476592122572177E-2</v>
       </c>
-      <c r="AO92" s="10"/>
+      <c r="AO92" s="10">
+        <v>8.3954616347027278E-2</v>
+      </c>
       <c r="AP92" s="10"/>
       <c r="AQ92" s="10"/>
       <c r="AR92" s="10"/>
@@ -19003,7 +19164,9 @@
       <c r="AN93" s="10">
         <v>7.1783352052914084E-2</v>
       </c>
-      <c r="AO93" s="10"/>
+      <c r="AO93" s="10">
+        <v>7.6285695289385336E-2</v>
+      </c>
       <c r="AP93" s="10"/>
       <c r="AQ93" s="10"/>
       <c r="AR93" s="10"/>
@@ -19220,7 +19383,9 @@
       <c r="AN94" s="10">
         <v>5.4039802687531946E-2</v>
       </c>
-      <c r="AO94" s="10"/>
+      <c r="AO94" s="10">
+        <v>6.1709643838421702E-2</v>
+      </c>
       <c r="AP94" s="10"/>
       <c r="AQ94" s="10"/>
       <c r="AR94" s="10"/>
@@ -19437,7 +19602,9 @@
       <c r="AN95" s="10">
         <v>5.9567243434598849E-2</v>
       </c>
-      <c r="AO95" s="10"/>
+      <c r="AO95" s="10">
+        <v>8.1436983177809674E-2</v>
+      </c>
       <c r="AP95" s="10"/>
       <c r="AQ95" s="10"/>
       <c r="AR95" s="10"/>
@@ -19654,7 +19821,9 @@
       <c r="AN96" s="10">
         <v>6.197001450910844E-2</v>
       </c>
-      <c r="AO96" s="10"/>
+      <c r="AO96" s="10">
+        <v>8.5489958491276719E-2</v>
+      </c>
       <c r="AP96" s="10"/>
       <c r="AQ96" s="10"/>
       <c r="AR96" s="10"/>
@@ -19871,7 +20040,9 @@
       <c r="AN97" s="10">
         <v>0.11491401841154647</v>
       </c>
-      <c r="AO97" s="10"/>
+      <c r="AO97" s="10">
+        <v>9.2808800039521078E-2</v>
+      </c>
       <c r="AP97" s="10"/>
       <c r="AQ97" s="10"/>
       <c r="AR97" s="10"/>
@@ -20088,7 +20259,9 @@
       <c r="AN98" s="10">
         <v>0.10173832830313723</v>
       </c>
-      <c r="AO98" s="10"/>
+      <c r="AO98" s="10">
+        <v>8.2424253165903183E-2</v>
+      </c>
       <c r="AP98" s="10"/>
       <c r="AQ98" s="10"/>
       <c r="AR98" s="10"/>
@@ -20305,7 +20478,9 @@
       <c r="AN99" s="10">
         <v>0.14399726926952972</v>
       </c>
-      <c r="AO99" s="10"/>
+      <c r="AO99" s="10">
+        <v>0.13032190652252518</v>
+      </c>
       <c r="AP99" s="10"/>
       <c r="AQ99" s="10"/>
       <c r="AR99" s="10"/>
@@ -20522,7 +20697,9 @@
       <c r="AN100" s="10">
         <v>0.11276230303935475</v>
       </c>
-      <c r="AO100" s="10"/>
+      <c r="AO100" s="10">
+        <v>0.11001977696897169</v>
+      </c>
       <c r="AP100" s="10"/>
       <c r="AQ100" s="10"/>
       <c r="AR100" s="10"/>
@@ -20739,7 +20916,9 @@
       <c r="AN101" s="10">
         <v>6.4363129680346631E-2</v>
       </c>
-      <c r="AO101" s="10"/>
+      <c r="AO101" s="10">
+        <v>8.0553503241888258E-2</v>
+      </c>
       <c r="AP101" s="10"/>
       <c r="AQ101" s="10"/>
       <c r="AR101" s="10"/>
@@ -20956,7 +21135,9 @@
       <c r="AN102" s="10">
         <v>0.15389955636831609</v>
       </c>
-      <c r="AO102" s="10"/>
+      <c r="AO102" s="10">
+        <v>0.15649742259357846</v>
+      </c>
       <c r="AP102" s="10"/>
       <c r="AQ102" s="10"/>
       <c r="AR102" s="10"/>
@@ -21173,7 +21354,9 @@
       <c r="AN103" s="10">
         <v>0.11902147388970241</v>
       </c>
-      <c r="AO103" s="10"/>
+      <c r="AO103" s="10">
+        <v>0.1174239782396429</v>
+      </c>
       <c r="AP103" s="10"/>
       <c r="AQ103" s="10"/>
       <c r="AR103" s="10"/>
@@ -21390,7 +21573,9 @@
       <c r="AN104" s="10">
         <v>0.19599878232082046</v>
       </c>
-      <c r="AO104" s="10"/>
+      <c r="AO104" s="10">
+        <v>0.21136810335994349</v>
+      </c>
       <c r="AP104" s="10"/>
       <c r="AQ104" s="10"/>
       <c r="AR104" s="10"/>
@@ -21607,7 +21792,9 @@
       <c r="AN105" s="10">
         <v>0.10976522787633303</v>
       </c>
-      <c r="AO105" s="10"/>
+      <c r="AO105" s="10">
+        <v>8.7322739039793484E-2</v>
+      </c>
       <c r="AP105" s="10"/>
       <c r="AQ105" s="10"/>
       <c r="AR105" s="10"/>
@@ -21824,7 +22011,9 @@
       <c r="AN106" s="10">
         <v>0.15480312601873147</v>
       </c>
-      <c r="AO106" s="10"/>
+      <c r="AO106" s="10">
+        <v>0.16342127483586366</v>
+      </c>
       <c r="AP106" s="10"/>
       <c r="AQ106" s="10"/>
       <c r="AR106" s="10"/>
@@ -22041,7 +22230,9 @@
       <c r="AN107" s="10">
         <v>0.28709858388725484</v>
       </c>
-      <c r="AO107" s="10"/>
+      <c r="AO107" s="10">
+        <v>0.33880454924094305</v>
+      </c>
       <c r="AP107" s="10"/>
       <c r="AQ107" s="10"/>
       <c r="AR107" s="10"/>
@@ -22258,7 +22449,9 @@
       <c r="AN108" s="10">
         <v>0.19763692287339607</v>
       </c>
-      <c r="AO108" s="10"/>
+      <c r="AO108" s="10">
+        <v>0.21556226064755712</v>
+      </c>
       <c r="AP108" s="10"/>
       <c r="AQ108" s="10"/>
       <c r="AR108" s="10"/>
@@ -22475,7 +22668,9 @@
       <c r="AN109" s="10">
         <v>0.2186686695428901</v>
       </c>
-      <c r="AO109" s="10"/>
+      <c r="AO109" s="10">
+        <v>0.2325777670605258</v>
+      </c>
       <c r="AP109" s="10"/>
       <c r="AQ109" s="10"/>
       <c r="AR109" s="10"/>
@@ -22692,7 +22887,9 @@
       <c r="AN110" s="10">
         <v>0.12155693254380928</v>
       </c>
-      <c r="AO110" s="10"/>
+      <c r="AO110" s="10">
+        <v>0.17479360052893922</v>
+      </c>
       <c r="AP110" s="10"/>
       <c r="AQ110" s="10"/>
       <c r="AR110" s="10"/>
@@ -22909,7 +23106,9 @@
       <c r="AN111" s="10">
         <v>0.14298383721625441</v>
       </c>
-      <c r="AO111" s="10"/>
+      <c r="AO111" s="10">
+        <v>0.14708833845022684</v>
+      </c>
       <c r="AP111" s="10"/>
       <c r="AQ111" s="10"/>
       <c r="AR111" s="10"/>
@@ -23126,7 +23325,9 @@
       <c r="AN112" s="10">
         <v>6.8714348398420277E-2</v>
       </c>
-      <c r="AO112" s="10"/>
+      <c r="AO112" s="10">
+        <v>7.964964113103945E-2</v>
+      </c>
       <c r="AP112" s="10"/>
       <c r="AQ112" s="10"/>
       <c r="AR112" s="10"/>
@@ -23343,7 +23544,9 @@
       <c r="AN113" s="10">
         <v>0.13113507751634201</v>
       </c>
-      <c r="AO113" s="10"/>
+      <c r="AO113" s="10">
+        <v>0.10887028646033325</v>
+      </c>
       <c r="AP113" s="10"/>
       <c r="AQ113" s="10"/>
       <c r="AR113" s="10"/>
@@ -23560,7 +23763,9 @@
       <c r="AN114" s="10">
         <v>4.9026120691945785E-2</v>
       </c>
-      <c r="AO114" s="10"/>
+      <c r="AO114" s="10">
+        <v>7.1569247769866395E-2</v>
+      </c>
       <c r="AP114" s="10"/>
       <c r="AQ114" s="10"/>
       <c r="AR114" s="10"/>
@@ -23777,7 +23982,9 @@
       <c r="AN115" s="10">
         <v>0.18586992960107263</v>
       </c>
-      <c r="AO115" s="10"/>
+      <c r="AO115" s="10">
+        <v>0.16806018004686152</v>
+      </c>
       <c r="AP115" s="10"/>
       <c r="AQ115" s="10"/>
       <c r="AR115" s="10"/>
@@ -23994,7 +24201,9 @@
       <c r="AN116" s="10">
         <v>9.6233651636802087E-2</v>
       </c>
-      <c r="AO116" s="10"/>
+      <c r="AO116" s="10">
+        <v>9.7518380747803945E-2</v>
+      </c>
       <c r="AP116" s="10"/>
       <c r="AQ116" s="10"/>
       <c r="AR116" s="10"/>
@@ -24211,7 +24420,9 @@
       <c r="AN117" s="10">
         <v>2.7010834711580722E-2</v>
       </c>
-      <c r="AO117" s="10"/>
+      <c r="AO117" s="10">
+        <v>5.3105200863329483E-2</v>
+      </c>
       <c r="AP117" s="10"/>
       <c r="AQ117" s="10"/>
       <c r="AR117" s="10"/>
@@ -24428,7 +24639,9 @@
       <c r="AN118" s="10">
         <v>0.11124963526884013</v>
       </c>
-      <c r="AO118" s="10"/>
+      <c r="AO118" s="10">
+        <v>9.8150472405257538E-2</v>
+      </c>
       <c r="AP118" s="10"/>
       <c r="AQ118" s="10"/>
       <c r="AR118" s="10"/>
@@ -24645,7 +24858,9 @@
       <c r="AN119" s="10">
         <v>0.21323782571819661</v>
       </c>
-      <c r="AO119" s="10"/>
+      <c r="AO119" s="10">
+        <v>0.20167750999314293</v>
+      </c>
       <c r="AP119" s="10"/>
       <c r="AQ119" s="10"/>
       <c r="AR119" s="10"/>
@@ -24862,7 +25077,9 @@
       <c r="AN120" s="10">
         <v>8.8342808721955546E-2</v>
       </c>
-      <c r="AO120" s="10"/>
+      <c r="AO120" s="10">
+        <v>0.11050927288784229</v>
+      </c>
       <c r="AP120" s="10"/>
       <c r="AQ120" s="10"/>
       <c r="AR120" s="10"/>
@@ -25079,7 +25296,9 @@
       <c r="AN121" s="10">
         <v>0.16738721373169962</v>
       </c>
-      <c r="AO121" s="10"/>
+      <c r="AO121" s="10">
+        <v>0.16572015743552582</v>
+      </c>
       <c r="AP121" s="10"/>
       <c r="AQ121" s="10"/>
       <c r="AR121" s="10"/>
@@ -25296,7 +25515,9 @@
       <c r="AN122" s="10">
         <v>9.0381781418143348E-2</v>
       </c>
-      <c r="AO122" s="10"/>
+      <c r="AO122" s="10">
+        <v>0.10385489880782561</v>
+      </c>
       <c r="AP122" s="10"/>
       <c r="AQ122" s="10"/>
       <c r="AR122" s="10"/>
@@ -25513,7 +25734,9 @@
       <c r="AN123" s="10">
         <v>7.1698345761398663E-2</v>
       </c>
-      <c r="AO123" s="10"/>
+      <c r="AO123" s="10">
+        <v>6.7620673055883707E-2</v>
+      </c>
       <c r="AP123" s="10"/>
       <c r="AQ123" s="10"/>
       <c r="AR123" s="10"/>
@@ -25730,7 +25953,9 @@
       <c r="AN124" s="10">
         <v>3.8576383922185764E-2</v>
       </c>
-      <c r="AO124" s="10"/>
+      <c r="AO124" s="10">
+        <v>4.1221196922912151E-2</v>
+      </c>
       <c r="AP124" s="10"/>
       <c r="AQ124" s="10"/>
       <c r="AR124" s="10"/>
@@ -25947,7 +26172,9 @@
       <c r="AN125" s="10">
         <v>9.5191622926173114E-2</v>
       </c>
-      <c r="AO125" s="10"/>
+      <c r="AO125" s="10">
+        <v>0.15542910016192457</v>
+      </c>
       <c r="AP125" s="10"/>
       <c r="AQ125" s="10"/>
       <c r="AR125" s="10"/>
@@ -26164,7 +26391,9 @@
       <c r="AN126" s="10">
         <v>0.1382796062973084</v>
       </c>
-      <c r="AO126" s="10"/>
+      <c r="AO126" s="10">
+        <v>0.13392270380222193</v>
+      </c>
       <c r="AP126" s="10"/>
       <c r="AQ126" s="10"/>
       <c r="AR126" s="10"/>
@@ -26381,7 +26610,9 @@
       <c r="AN127" s="10">
         <v>8.9408117763097872E-2</v>
       </c>
-      <c r="AO127" s="10"/>
+      <c r="AO127" s="10">
+        <v>0.14190321434012088</v>
+      </c>
       <c r="AP127" s="10"/>
       <c r="AQ127" s="10"/>
       <c r="AR127" s="10"/>
@@ -26598,7 +26829,9 @@
       <c r="AN128" s="10">
         <v>5.4210137059591768E-2</v>
       </c>
-      <c r="AO128" s="10"/>
+      <c r="AO128" s="10">
+        <v>5.4210137059591768E-2</v>
+      </c>
       <c r="AP128" s="10"/>
       <c r="AQ128" s="10"/>
       <c r="AR128" s="10"/>
@@ -26815,7 +27048,9 @@
       <c r="AN129" s="10">
         <v>3.806144815544088E-2</v>
       </c>
-      <c r="AO129" s="10"/>
+      <c r="AO129" s="10">
+        <v>3.806144815544088E-2</v>
+      </c>
       <c r="AP129" s="10"/>
       <c r="AQ129" s="10"/>
       <c r="AR129" s="10"/>
@@ -27032,7 +27267,9 @@
       <c r="AN130" s="10">
         <v>2.0416219695344351E-2</v>
       </c>
-      <c r="AO130" s="10"/>
+      <c r="AO130" s="10">
+        <v>-5.0554315902736735E-2</v>
+      </c>
       <c r="AP130" s="10"/>
       <c r="AQ130" s="10"/>
       <c r="AR130" s="10"/>
@@ -27249,7 +27486,9 @@
       <c r="AN131" s="10">
         <v>7.3079325421611552E-2</v>
       </c>
-      <c r="AO131" s="10"/>
+      <c r="AO131" s="10">
+        <v>8.183370663096734E-2</v>
+      </c>
       <c r="AP131" s="10"/>
       <c r="AQ131" s="10"/>
       <c r="AR131" s="10"/>
@@ -27466,7 +27705,9 @@
       <c r="AN132" s="10">
         <v>1.7282246419587199E-2</v>
       </c>
-      <c r="AO132" s="10"/>
+      <c r="AO132" s="10">
+        <v>1.7282246419587199E-2</v>
+      </c>
       <c r="AP132" s="10"/>
       <c r="AQ132" s="10"/>
       <c r="AR132" s="10"/>
@@ -27683,7 +27924,9 @@
       <c r="AN133" s="10">
         <v>4.9580190165514404E-2</v>
       </c>
-      <c r="AO133" s="10"/>
+      <c r="AO133" s="10">
+        <v>4.9580190165514404E-2</v>
+      </c>
       <c r="AP133" s="10"/>
       <c r="AQ133" s="10"/>
       <c r="AR133" s="10"/>
@@ -27900,7 +28143,9 @@
       <c r="AN134" s="10">
         <v>2.0827619157162802E-2</v>
       </c>
-      <c r="AO134" s="10"/>
+      <c r="AO134" s="10">
+        <v>2.0304029854705918E-2</v>
+      </c>
       <c r="AP134" s="10"/>
       <c r="AQ134" s="10"/>
       <c r="AR134" s="10"/>
@@ -28117,7 +28362,9 @@
       <c r="AN135" s="10">
         <v>4.4741280902322433E-2</v>
       </c>
-      <c r="AO135" s="10"/>
+      <c r="AO135" s="10">
+        <v>4.2831268441595016E-2</v>
+      </c>
       <c r="AP135" s="10"/>
       <c r="AQ135" s="10"/>
       <c r="AR135" s="10"/>
@@ -28334,7 +28581,9 @@
       <c r="AN136" s="10">
         <v>3.4548695230843807E-2</v>
       </c>
-      <c r="AO136" s="10"/>
+      <c r="AO136" s="10">
+        <v>3.3770522984878593E-2</v>
+      </c>
       <c r="AP136" s="10"/>
       <c r="AQ136" s="10"/>
       <c r="AR136" s="10"/>
@@ -28551,7 +28800,9 @@
       <c r="AN137" s="10">
         <v>2.382803453865745E-2</v>
       </c>
-      <c r="AO137" s="10"/>
+      <c r="AO137" s="10">
+        <v>2.1538385363800705E-2</v>
+      </c>
       <c r="AP137" s="10"/>
       <c r="AQ137" s="10"/>
       <c r="AR137" s="10"/>
@@ -28768,7 +29019,9 @@
       <c r="AN138" s="10">
         <v>1.3508958665957138E-2</v>
       </c>
-      <c r="AO138" s="10"/>
+      <c r="AO138" s="10">
+        <v>1.2530017988639619E-2</v>
+      </c>
       <c r="AP138" s="10"/>
       <c r="AQ138" s="10"/>
       <c r="AR138" s="10"/>
@@ -28985,7 +29238,9 @@
       <c r="AN139" s="10">
         <v>3.572511189172789E-2</v>
       </c>
-      <c r="AO139" s="10"/>
+      <c r="AO139" s="10">
+        <v>3.572511189172789E-2</v>
+      </c>
       <c r="AP139" s="10"/>
       <c r="AQ139" s="10"/>
       <c r="AR139" s="10"/>
@@ -29202,7 +29457,9 @@
       <c r="AN140" s="10">
         <v>5.8245057688415036E-2</v>
       </c>
-      <c r="AO140" s="10"/>
+      <c r="AO140" s="10">
+        <v>6.1260411490748679E-2</v>
+      </c>
       <c r="AP140" s="10"/>
       <c r="AQ140" s="10"/>
       <c r="AR140" s="10"/>
@@ -29419,7 +29676,9 @@
       <c r="AN141" s="10">
         <v>-4.3212024215433908E-2</v>
       </c>
-      <c r="AO141" s="10"/>
+      <c r="AO141" s="10">
+        <v>-5.7944744166867013E-2</v>
+      </c>
       <c r="AP141" s="10"/>
       <c r="AQ141" s="10"/>
       <c r="AR141" s="10"/>
@@ -29636,7 +29895,9 @@
       <c r="AN142" s="10">
         <v>2.1169268325242907E-3</v>
       </c>
-      <c r="AO142" s="10"/>
+      <c r="AO142" s="10">
+        <v>1.5183959509441403E-2</v>
+      </c>
       <c r="AP142" s="10"/>
       <c r="AQ142" s="10"/>
       <c r="AR142" s="10"/>
@@ -29853,7 +30114,9 @@
       <c r="AN143" s="10">
         <v>8.3054798135280272E-2</v>
       </c>
-      <c r="AO143" s="10"/>
+      <c r="AO143" s="10">
+        <v>0.14045879197114042</v>
+      </c>
       <c r="AP143" s="10"/>
       <c r="AQ143" s="10"/>
       <c r="AR143" s="10"/>
@@ -30070,7 +30333,9 @@
       <c r="AN144" s="10">
         <v>0.22169322198311892</v>
       </c>
-      <c r="AO144" s="10"/>
+      <c r="AO144" s="10">
+        <v>0.14312452797145392</v>
+      </c>
       <c r="AP144" s="10"/>
       <c r="AQ144" s="10"/>
       <c r="AR144" s="10"/>
@@ -30287,7 +30552,9 @@
       <c r="AN145" s="10">
         <v>0.11341427302339357</v>
       </c>
-      <c r="AO145" s="10"/>
+      <c r="AO145" s="10">
+        <v>8.4246293245469506E-2</v>
+      </c>
       <c r="AP145" s="10"/>
       <c r="AQ145" s="10"/>
       <c r="AR145" s="10"/>
@@ -30504,7 +30771,9 @@
       <c r="AN146" s="10">
         <v>8.2970412607192623E-2</v>
       </c>
-      <c r="AO146" s="10"/>
+      <c r="AO146" s="10">
+        <v>0.18966519695721695</v>
+      </c>
       <c r="AP146" s="10"/>
       <c r="AQ146" s="10"/>
       <c r="AR146" s="10"/>
@@ -30721,7 +30990,9 @@
       <c r="AN147" s="10">
         <v>0.10447509105863007</v>
       </c>
-      <c r="AO147" s="10"/>
+      <c r="AO147" s="10">
+        <v>0.10420441924358448</v>
+      </c>
       <c r="AP147" s="10"/>
       <c r="AQ147" s="10"/>
       <c r="AR147" s="10"/>
@@ -30938,7 +31209,9 @@
       <c r="AN148" s="10">
         <v>0.10553844420238123</v>
       </c>
-      <c r="AO148" s="10"/>
+      <c r="AO148" s="10">
+        <v>0.10776683534083764</v>
+      </c>
       <c r="AP148" s="10"/>
       <c r="AQ148" s="10"/>
       <c r="AR148" s="10"/>
@@ -31155,7 +31428,9 @@
       <c r="AN149" s="10">
         <v>7.284099395749899E-2</v>
       </c>
-      <c r="AO149" s="10"/>
+      <c r="AO149" s="10">
+        <v>6.6352667587880498E-2</v>
+      </c>
       <c r="AP149" s="10"/>
       <c r="AQ149" s="10"/>
       <c r="AR149" s="10"/>
@@ -31372,7 +31647,9 @@
       <c r="AN150" s="10">
         <v>0.10370926311561202</v>
       </c>
-      <c r="AO150" s="10"/>
+      <c r="AO150" s="10">
+        <v>0.10841315040124244</v>
+      </c>
       <c r="AP150" s="10"/>
       <c r="AQ150" s="10"/>
       <c r="AR150" s="10"/>
@@ -31589,7 +31866,9 @@
       <c r="AN151" s="10">
         <v>0.22714065286656115</v>
       </c>
-      <c r="AO151" s="10"/>
+      <c r="AO151" s="10">
+        <v>0.20132055169715346</v>
+      </c>
       <c r="AP151" s="10"/>
       <c r="AQ151" s="10"/>
       <c r="AR151" s="10"/>
@@ -31806,7 +32085,9 @@
       <c r="AN152" s="10">
         <v>9.2456319106381413E-2</v>
       </c>
-      <c r="AO152" s="10"/>
+      <c r="AO152" s="10">
+        <v>0.11089097701800066</v>
+      </c>
       <c r="AP152" s="10"/>
       <c r="AQ152" s="10"/>
       <c r="AR152" s="10"/>
@@ -32023,7 +32304,9 @@
       <c r="AN153" s="10">
         <v>8.3441460336645346E-2</v>
       </c>
-      <c r="AO153" s="10"/>
+      <c r="AO153" s="10">
+        <v>1.488270986846052E-2</v>
+      </c>
       <c r="AP153" s="10"/>
       <c r="AQ153" s="10"/>
       <c r="AR153" s="10"/>
@@ -32240,7 +32523,9 @@
       <c r="AN154" s="10">
         <v>5.4850078317296935E-2</v>
       </c>
-      <c r="AO154" s="10"/>
+      <c r="AO154" s="10">
+        <v>8.1105019765793873E-2</v>
+      </c>
       <c r="AP154" s="10"/>
       <c r="AQ154" s="10"/>
       <c r="AR154" s="10"/>
@@ -32457,7 +32742,9 @@
       <c r="AN155" s="10">
         <v>6.0516288990574818E-2</v>
       </c>
-      <c r="AO155" s="10"/>
+      <c r="AO155" s="10">
+        <v>6.2186678312452726E-2</v>
+      </c>
       <c r="AP155" s="10"/>
       <c r="AQ155" s="10"/>
       <c r="AR155" s="10"/>
@@ -32674,7 +32961,9 @@
       <c r="AN156" s="10">
         <v>-8.2428873857592788E-2</v>
       </c>
-      <c r="AO156" s="10"/>
+      <c r="AO156" s="10">
+        <v>-8.2201963679162438E-2</v>
+      </c>
       <c r="AP156" s="10"/>
       <c r="AQ156" s="10"/>
       <c r="AR156" s="10"/>
@@ -32891,7 +33180,9 @@
       <c r="AN157" s="10">
         <v>0</v>
       </c>
-      <c r="AO157" s="10"/>
+      <c r="AO157" s="10">
+        <v>0</v>
+      </c>
       <c r="AP157" s="10"/>
       <c r="AQ157" s="10"/>
       <c r="AR157" s="10"/>
@@ -33108,7 +33399,9 @@
       <c r="AN158" s="10">
         <v>-6.020066889632103E-2</v>
       </c>
-      <c r="AO158" s="10"/>
+      <c r="AO158" s="10">
+        <v>-5.2255313124878411E-2</v>
+      </c>
       <c r="AP158" s="10"/>
       <c r="AQ158" s="10"/>
       <c r="AR158" s="10"/>
@@ -33325,7 +33618,9 @@
       <c r="AN159" s="10">
         <v>9.7572148419606153E-2</v>
       </c>
-      <c r="AO159" s="10"/>
+      <c r="AO159" s="10">
+        <v>0.18639746238083288</v>
+      </c>
       <c r="AP159" s="10"/>
       <c r="AQ159" s="10"/>
       <c r="AR159" s="10"/>
@@ -33542,7 +33837,9 @@
       <c r="AN160" s="10">
         <v>0.1311324325658707</v>
       </c>
-      <c r="AO160" s="10"/>
+      <c r="AO160" s="10">
+        <v>0.13498872075216939</v>
+      </c>
       <c r="AP160" s="10"/>
       <c r="AQ160" s="10"/>
       <c r="AR160" s="10"/>
@@ -33759,7 +34056,9 @@
       <c r="AN161" s="10">
         <v>5.8116772142065676E-2</v>
       </c>
-      <c r="AO161" s="10"/>
+      <c r="AO161" s="10">
+        <v>6.4367576578453711E-2</v>
+      </c>
       <c r="AP161" s="10"/>
       <c r="AQ161" s="10"/>
       <c r="AR161" s="10"/>
@@ -33976,7 +34275,9 @@
       <c r="AN162" s="10">
         <v>2.0708283313326525E-3</v>
       </c>
-      <c r="AO162" s="10"/>
+      <c r="AO162" s="10">
+        <v>-6.9398316595120635E-3</v>
+      </c>
       <c r="AP162" s="10"/>
       <c r="AQ162" s="10"/>
       <c r="AR162" s="10"/>
@@ -34193,7 +34494,9 @@
       <c r="AN163" s="10">
         <v>0.100145543650761</v>
       </c>
-      <c r="AO163" s="10"/>
+      <c r="AO163" s="10">
+        <v>0.10157631174298798</v>
+      </c>
       <c r="AP163" s="10"/>
       <c r="AQ163" s="10"/>
       <c r="AR163" s="10"/>
@@ -34410,7 +34713,9 @@
       <c r="AN164" s="10">
         <v>2.7195008879040694E-2</v>
       </c>
-      <c r="AO164" s="10"/>
+      <c r="AO164" s="10">
+        <v>2.3613046678045091E-2</v>
+      </c>
       <c r="AP164" s="10"/>
       <c r="AQ164" s="10"/>
       <c r="AR164" s="10"/>
@@ -34627,7 +34932,9 @@
       <c r="AN165" s="10">
         <v>0.13606545015834715</v>
       </c>
-      <c r="AO165" s="10"/>
+      <c r="AO165" s="10">
+        <v>0.14132818750882481</v>
+      </c>
       <c r="AP165" s="10"/>
       <c r="AQ165" s="10"/>
       <c r="AR165" s="10"/>
@@ -34844,7 +35151,9 @@
       <c r="AN166" s="10">
         <v>4.1159209535433172E-2</v>
       </c>
-      <c r="AO166" s="10"/>
+      <c r="AO166" s="10">
+        <v>5.2676685480799179E-2</v>
+      </c>
       <c r="AP166" s="10"/>
       <c r="AQ166" s="10"/>
       <c r="AR166" s="10"/>
@@ -35061,7 +35370,9 @@
       <c r="AN167" s="10">
         <v>0.14056527861597279</v>
       </c>
-      <c r="AO167" s="10"/>
+      <c r="AO167" s="10">
+        <v>0.13448721774594663</v>
+      </c>
       <c r="AP167" s="10"/>
       <c r="AQ167" s="10"/>
       <c r="AR167" s="10"/>
@@ -35278,7 +35589,9 @@
       <c r="AN168" s="10">
         <v>9.3164973409475493E-2</v>
       </c>
-      <c r="AO168" s="10"/>
+      <c r="AO168" s="10">
+        <v>7.7755698207891966E-2</v>
+      </c>
       <c r="AP168" s="10"/>
       <c r="AQ168" s="10"/>
       <c r="AR168" s="10"/>
@@ -35495,7 +35808,9 @@
       <c r="AN169" s="10">
         <v>2.0497276215104776E-2</v>
       </c>
-      <c r="AO169" s="10"/>
+      <c r="AO169" s="10">
+        <v>1.893931364860002E-2</v>
+      </c>
       <c r="AP169" s="10"/>
       <c r="AQ169" s="10"/>
       <c r="AR169" s="10"/>
@@ -35712,7 +36027,9 @@
       <c r="AN170" s="10">
         <v>0.21324945794288164</v>
       </c>
-      <c r="AO170" s="10"/>
+      <c r="AO170" s="10">
+        <v>0.16388607411696565</v>
+      </c>
       <c r="AP170" s="10"/>
       <c r="AQ170" s="10"/>
       <c r="AR170" s="10"/>
@@ -35929,7 +36246,9 @@
       <c r="AN171" s="10">
         <v>0.11596909605067252</v>
       </c>
-      <c r="AO171" s="10"/>
+      <c r="AO171" s="10">
+        <v>1.6684326222069501E-3</v>
+      </c>
       <c r="AP171" s="10"/>
       <c r="AQ171" s="10"/>
       <c r="AR171" s="10"/>
@@ -36146,7 +36465,9 @@
       <c r="AN172" s="10">
         <v>2.3226605792649346E-2</v>
       </c>
-      <c r="AO172" s="10"/>
+      <c r="AO172" s="10">
+        <v>3.2721590474815487E-2</v>
+      </c>
       <c r="AP172" s="10"/>
       <c r="AQ172" s="10"/>
       <c r="AR172" s="10"/>
@@ -36363,7 +36684,9 @@
       <c r="AN173" s="10">
         <v>8.7512808189987412E-2</v>
       </c>
-      <c r="AO173" s="10"/>
+      <c r="AO173" s="10">
+        <v>0.1009167669710489</v>
+      </c>
       <c r="AP173" s="10"/>
       <c r="AQ173" s="10"/>
       <c r="AR173" s="10"/>
@@ -36580,7 +36903,9 @@
       <c r="AN174" s="10">
         <v>2.8198341600651489E-2</v>
       </c>
-      <c r="AO174" s="10"/>
+      <c r="AO174" s="10">
+        <v>2.9355909341000519E-2</v>
+      </c>
       <c r="AP174" s="10"/>
       <c r="AQ174" s="10"/>
       <c r="AR174" s="10"/>
@@ -36797,7 +37122,9 @@
       <c r="AN175" s="10">
         <v>6.833760299106828E-2</v>
       </c>
-      <c r="AO175" s="10"/>
+      <c r="AO175" s="10">
+        <v>7.7508416339846731E-2</v>
+      </c>
       <c r="AP175" s="10"/>
       <c r="AQ175" s="10"/>
       <c r="AR175" s="10"/>
@@ -37014,7 +37341,9 @@
       <c r="AN176" s="10">
         <v>8.533952078795326E-2</v>
       </c>
-      <c r="AO176" s="10"/>
+      <c r="AO176" s="10">
+        <v>0.11597692451328223</v>
+      </c>
       <c r="AP176" s="10"/>
       <c r="AQ176" s="10"/>
       <c r="AR176" s="10"/>
@@ -37231,7 +37560,9 @@
       <c r="AN177" s="10">
         <v>7.911309269142075E-3</v>
       </c>
-      <c r="AO177" s="10"/>
+      <c r="AO177" s="10">
+        <v>1.6325000936926015E-2</v>
+      </c>
       <c r="AP177" s="10"/>
       <c r="AQ177" s="10"/>
       <c r="AR177" s="10"/>
@@ -37448,7 +37779,9 @@
       <c r="AN178" s="10">
         <v>8.1120459502935116E-2</v>
       </c>
-      <c r="AO178" s="10"/>
+      <c r="AO178" s="10">
+        <v>9.7080101400574437E-2</v>
+      </c>
       <c r="AP178" s="10"/>
       <c r="AQ178" s="10"/>
       <c r="AR178" s="10"/>
@@ -37665,7 +37998,9 @@
       <c r="AN179" s="10">
         <v>7.7704829571004552E-2</v>
       </c>
-      <c r="AO179" s="10"/>
+      <c r="AO179" s="10">
+        <v>7.1530800882581014E-2</v>
+      </c>
       <c r="AP179" s="10"/>
       <c r="AQ179" s="10"/>
       <c r="AR179" s="10"/>
@@ -37882,7 +38217,9 @@
       <c r="AN180" s="10">
         <v>9.6325503006595703E-2</v>
       </c>
-      <c r="AO180" s="10"/>
+      <c r="AO180" s="10">
+        <v>0.14807831014940764</v>
+      </c>
       <c r="AP180" s="10"/>
       <c r="AQ180" s="10"/>
       <c r="AR180" s="10"/>
@@ -38099,7 +38436,9 @@
       <c r="AN181" s="10">
         <v>3.8362705254141538E-2</v>
       </c>
-      <c r="AO181" s="10"/>
+      <c r="AO181" s="10">
+        <v>0.11607631484591741</v>
+      </c>
       <c r="AP181" s="10"/>
       <c r="AQ181" s="10"/>
       <c r="AR181" s="10"/>
@@ -38316,7 +38655,9 @@
       <c r="AN182" s="10">
         <v>0.24153387815344241</v>
       </c>
-      <c r="AO182" s="10"/>
+      <c r="AO182" s="10">
+        <v>0.22234468047284683</v>
+      </c>
       <c r="AP182" s="10"/>
       <c r="AQ182" s="10"/>
       <c r="AR182" s="10"/>
@@ -38533,7 +38874,9 @@
       <c r="AN183" s="10">
         <v>9.4165003216919452E-2</v>
       </c>
-      <c r="AO183" s="10"/>
+      <c r="AO183" s="10">
+        <v>9.5459656785254587E-2</v>
+      </c>
       <c r="AP183" s="10"/>
       <c r="AQ183" s="10"/>
       <c r="AR183" s="10"/>
@@ -38750,7 +39093,9 @@
       <c r="AN184" s="10">
         <v>0.14950957127036868</v>
       </c>
-      <c r="AO184" s="10"/>
+      <c r="AO184" s="10">
+        <v>7.5174915973556855E-2</v>
+      </c>
       <c r="AP184" s="10"/>
       <c r="AQ184" s="10"/>
       <c r="AR184" s="10"/>
@@ -38967,7 +39312,9 @@
       <c r="AN185" s="10">
         <v>-6.6343738428126686E-2</v>
       </c>
-      <c r="AO185" s="10"/>
+      <c r="AO185" s="10">
+        <v>-4.9468940779153203E-2</v>
+      </c>
       <c r="AP185" s="10"/>
       <c r="AQ185" s="10"/>
       <c r="AR185" s="10"/>
@@ -39184,7 +39531,9 @@
       <c r="AN186" s="10">
         <v>-0.15232373546774147</v>
       </c>
-      <c r="AO186" s="10"/>
+      <c r="AO186" s="10">
+        <v>0.10797793054350491</v>
+      </c>
       <c r="AP186" s="10"/>
       <c r="AQ186" s="10"/>
       <c r="AR186" s="10"/>
@@ -39401,7 +39750,9 @@
       <c r="AN187" s="10">
         <v>8.376171447843106E-2</v>
       </c>
-      <c r="AO187" s="10"/>
+      <c r="AO187" s="10">
+        <v>8.6420134172943142E-2</v>
+      </c>
       <c r="AP187" s="10"/>
       <c r="AQ187" s="10"/>
       <c r="AR187" s="10"/>
@@ -39618,7 +39969,9 @@
       <c r="AN188" s="10">
         <v>-8.451672010994038E-2</v>
       </c>
-      <c r="AO188" s="10"/>
+      <c r="AO188" s="10">
+        <v>-0.1203422514231608</v>
+      </c>
       <c r="AP188" s="10"/>
       <c r="AQ188" s="10"/>
       <c r="AR188" s="10"/>
@@ -39835,7 +40188,9 @@
       <c r="AN189" s="10">
         <v>3.0905949705845925E-2</v>
       </c>
-      <c r="AO189" s="10"/>
+      <c r="AO189" s="10">
+        <v>7.2116364954573298E-2</v>
+      </c>
       <c r="AP189" s="10"/>
       <c r="AQ189" s="10"/>
       <c r="AR189" s="10"/>
@@ -40052,7 +40407,9 @@
       <c r="AN190" s="10">
         <v>2.3342909911758802E-2</v>
       </c>
-      <c r="AO190" s="10"/>
+      <c r="AO190" s="10">
+        <v>-2.4604904905910607E-2</v>
+      </c>
       <c r="AP190" s="10"/>
       <c r="AQ190" s="10"/>
       <c r="AR190" s="10"/>
@@ -40269,7 +40626,9 @@
       <c r="AN191" s="10">
         <v>0.20876239921607742</v>
       </c>
-      <c r="AO191" s="10"/>
+      <c r="AO191" s="10">
+        <v>0.20610987506417944</v>
+      </c>
       <c r="AP191" s="10"/>
       <c r="AQ191" s="10"/>
       <c r="AR191" s="10"/>
@@ -40486,7 +40845,9 @@
       <c r="AN192" s="10">
         <v>3.6545798501389726E-2</v>
       </c>
-      <c r="AO192" s="10"/>
+      <c r="AO192" s="10">
+        <v>2.4942375605320422E-2</v>
+      </c>
       <c r="AP192" s="10"/>
       <c r="AQ192" s="10"/>
       <c r="AR192" s="10"/>
@@ -40703,7 +41064,9 @@
       <c r="AN193" s="10">
         <v>-2.904960007628965E-2</v>
       </c>
-      <c r="AO193" s="10"/>
+      <c r="AO193" s="10">
+        <v>-3.5975253602889445E-2</v>
+      </c>
       <c r="AP193" s="10"/>
       <c r="AQ193" s="10"/>
       <c r="AR193" s="10"/>
@@ -40920,7 +41283,9 @@
       <c r="AN194" s="10">
         <v>0.25584967216414056</v>
       </c>
-      <c r="AO194" s="10"/>
+      <c r="AO194" s="10">
+        <v>6.4118119201836743E-2</v>
+      </c>
       <c r="AP194" s="10"/>
       <c r="AQ194" s="10"/>
       <c r="AR194" s="10"/>
@@ -41137,7 +41502,9 @@
       <c r="AN195" s="10">
         <v>9.6333286910848859E-2</v>
       </c>
-      <c r="AO195" s="10"/>
+      <c r="AO195" s="10">
+        <v>9.3030768778940676E-2</v>
+      </c>
       <c r="AP195" s="10"/>
       <c r="AQ195" s="10"/>
       <c r="AR195" s="10"/>
@@ -41354,7 +41721,9 @@
       <c r="AN196" s="10">
         <v>7.320788609367157E-2</v>
       </c>
-      <c r="AO196" s="10"/>
+      <c r="AO196" s="10">
+        <v>7.2018377103122866E-2</v>
+      </c>
       <c r="AP196" s="10"/>
       <c r="AQ196" s="10"/>
       <c r="AR196" s="10"/>
@@ -41571,7 +41940,9 @@
       <c r="AN197" s="10">
         <v>2.2932139586936628E-2</v>
       </c>
-      <c r="AO197" s="10"/>
+      <c r="AO197" s="10">
+        <v>5.2583741830065422E-2</v>
+      </c>
       <c r="AP197" s="10"/>
       <c r="AQ197" s="10"/>
       <c r="AR197" s="10"/>
@@ -41788,7 +42159,9 @@
       <c r="AN198" s="10">
         <v>7.15131379693279E-2</v>
       </c>
-      <c r="AO198" s="10"/>
+      <c r="AO198" s="10">
+        <v>-4.5048683088795283E-3</v>
+      </c>
       <c r="AP198" s="10"/>
       <c r="AQ198" s="10"/>
       <c r="AR198" s="10"/>
@@ -42005,7 +42378,9 @@
       <c r="AN199" s="10">
         <v>0.27662873329026505</v>
       </c>
-      <c r="AO199" s="10"/>
+      <c r="AO199" s="10">
+        <v>0.31240188383045542</v>
+      </c>
       <c r="AP199" s="10"/>
       <c r="AQ199" s="10"/>
       <c r="AR199" s="10"/>
@@ -42222,7 +42597,9 @@
       <c r="AN200" s="10">
         <v>0.20591551103086081</v>
       </c>
-      <c r="AO200" s="10"/>
+      <c r="AO200" s="10">
+        <v>0.19414389981634272</v>
+      </c>
       <c r="AP200" s="10"/>
       <c r="AQ200" s="10"/>
       <c r="AR200" s="10"/>
@@ -42439,7 +42816,9 @@
       <c r="AN201" s="10">
         <v>0.1360867613787291</v>
       </c>
-      <c r="AO201" s="10"/>
+      <c r="AO201" s="10">
+        <v>2.4209557496571277E-2</v>
+      </c>
       <c r="AP201" s="10"/>
       <c r="AQ201" s="10"/>
       <c r="AR201" s="10"/>
@@ -42656,7 +43035,9 @@
       <c r="AN202" s="10">
         <v>0.15680422995922383</v>
       </c>
-      <c r="AO202" s="10"/>
+      <c r="AO202" s="10">
+        <v>0.13872904344732495</v>
+      </c>
       <c r="AP202" s="10"/>
       <c r="AQ202" s="10"/>
       <c r="AR202" s="10"/>
@@ -42873,7 +43254,9 @@
       <c r="AN203" s="10">
         <v>2.5505999115098543E-3</v>
       </c>
-      <c r="AO203" s="10"/>
+      <c r="AO203" s="10">
+        <v>2.3729019281453878E-2</v>
+      </c>
       <c r="AP203" s="10"/>
       <c r="AQ203" s="10"/>
       <c r="AR203" s="10"/>
@@ -43090,7 +43473,9 @@
       <c r="AN204" s="10">
         <v>6.4239289836082625E-2</v>
       </c>
-      <c r="AO204" s="10"/>
+      <c r="AO204" s="10">
+        <v>9.4935862579224706E-2</v>
+      </c>
       <c r="AP204" s="10"/>
       <c r="AQ204" s="10"/>
       <c r="AR204" s="10"/>
@@ -43307,7 +43692,9 @@
       <c r="AN205" s="10">
         <v>-6.727746036039095E-3</v>
       </c>
-      <c r="AO205" s="10"/>
+      <c r="AO205" s="10">
+        <v>2.9636736526155616E-2</v>
+      </c>
       <c r="AP205" s="10"/>
       <c r="AQ205" s="10"/>
       <c r="AR205" s="10"/>
@@ -43524,7 +43911,9 @@
       <c r="AN206" s="10">
         <v>0.10112457417157006</v>
       </c>
-      <c r="AO206" s="10"/>
+      <c r="AO206" s="10">
+        <v>4.8400514255463767E-2</v>
+      </c>
       <c r="AP206" s="10"/>
       <c r="AQ206" s="10"/>
       <c r="AR206" s="10"/>
@@ -43741,7 +44130,9 @@
       <c r="AN207" s="10">
         <v>5.7447500045141764E-2</v>
       </c>
-      <c r="AO207" s="10"/>
+      <c r="AO207" s="10">
+        <v>3.3863081818772178E-2</v>
+      </c>
       <c r="AP207" s="10"/>
       <c r="AQ207" s="10"/>
       <c r="AR207" s="10"/>
@@ -43958,7 +44349,9 @@
       <c r="AN208" s="10">
         <v>0.11042763850853166</v>
       </c>
-      <c r="AO208" s="10"/>
+      <c r="AO208" s="10">
+        <v>0.11638507404946741</v>
+      </c>
       <c r="AP208" s="10"/>
       <c r="AQ208" s="10"/>
       <c r="AR208" s="10"/>
@@ -44175,7 +44568,9 @@
       <c r="AN209" s="10">
         <v>9.8732516379723467E-2</v>
       </c>
-      <c r="AO209" s="10"/>
+      <c r="AO209" s="10">
+        <v>9.1305289823672586E-2</v>
+      </c>
       <c r="AP209" s="10"/>
       <c r="AQ209" s="10"/>
       <c r="AR209" s="10"/>
@@ -44392,7 +44787,9 @@
       <c r="AN210" s="10">
         <v>5.5631201886708448E-2</v>
       </c>
-      <c r="AO210" s="10"/>
+      <c r="AO210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
       <c r="AP210" s="10"/>
       <c r="AQ210" s="10"/>
       <c r="AR210" s="10"/>
@@ -44609,7 +45006,9 @@
       <c r="AN211" s="10">
         <v>0.10138865263581121</v>
       </c>
-      <c r="AO211" s="10"/>
+      <c r="AO211" s="10">
+        <v>9.9672343977002198E-2</v>
+      </c>
       <c r="AP211" s="10"/>
       <c r="AQ211" s="10"/>
       <c r="AR211" s="10"/>
@@ -44826,7 +45225,9 @@
       <c r="AN212" s="10">
         <v>0.17964041934420005</v>
       </c>
-      <c r="AO212" s="10"/>
+      <c r="AO212" s="10">
+        <v>0.17964041934420005</v>
+      </c>
       <c r="AP212" s="10"/>
       <c r="AQ212" s="10"/>
       <c r="AR212" s="10"/>
@@ -45043,7 +45444,9 @@
       <c r="AN213" s="10">
         <v>8.4994176265044574E-2</v>
       </c>
-      <c r="AO213" s="10"/>
+      <c r="AO213" s="10">
+        <v>0.11225040909933659</v>
+      </c>
       <c r="AP213" s="10"/>
       <c r="AQ213" s="10"/>
       <c r="AR213" s="10"/>
@@ -45260,7 +45663,9 @@
       <c r="AN214" s="10">
         <v>4.1862903994661194E-2</v>
       </c>
-      <c r="AO214" s="10"/>
+      <c r="AO214" s="10">
+        <v>3.5915704778734403E-2</v>
+      </c>
       <c r="AP214" s="10"/>
       <c r="AQ214" s="10"/>
       <c r="AR214" s="10"/>
@@ -45477,7 +45882,9 @@
       <c r="AN215" s="10">
         <v>1.443858035152279E-2</v>
       </c>
-      <c r="AO215" s="10"/>
+      <c r="AO215" s="10">
+        <v>-2.3870624122403594E-2</v>
+      </c>
       <c r="AP215" s="10"/>
       <c r="AQ215" s="10"/>
       <c r="AR215" s="10"/>
@@ -45694,7 +46101,9 @@
       <c r="AN216" s="10">
         <v>7.0216309359928397E-2</v>
       </c>
-      <c r="AO216" s="10"/>
+      <c r="AO216" s="10">
+        <v>7.2372664349868554E-2</v>
+      </c>
       <c r="AP216" s="10"/>
       <c r="AQ216" s="10"/>
       <c r="AR216" s="10"/>
@@ -45911,7 +46320,9 @@
       <c r="AN217" s="10">
         <v>0.12239145302304943</v>
       </c>
-      <c r="AO217" s="10"/>
+      <c r="AO217" s="10">
+        <v>0.14595017008366273</v>
+      </c>
       <c r="AP217" s="10"/>
       <c r="AQ217" s="10"/>
       <c r="AR217" s="10"/>
@@ -46128,7 +46539,9 @@
       <c r="AN218" s="10">
         <v>4.848910135520379E-2</v>
       </c>
-      <c r="AO218" s="10"/>
+      <c r="AO218" s="10">
+        <v>8.4467808273007483E-2</v>
+      </c>
       <c r="AP218" s="10"/>
       <c r="AQ218" s="10"/>
       <c r="AR218" s="10"/>
@@ -46345,7 +46758,9 @@
       <c r="AN219" s="10">
         <v>0.11400173611111097</v>
       </c>
-      <c r="AO219" s="10"/>
+      <c r="AO219" s="10">
+        <v>0.10577039118666276</v>
+      </c>
       <c r="AP219" s="10"/>
       <c r="AQ219" s="10"/>
       <c r="AR219" s="10"/>
@@ -46562,7 +46977,9 @@
       <c r="AN220" s="10">
         <v>0.12037466203167235</v>
       </c>
-      <c r="AO220" s="10"/>
+      <c r="AO220" s="10">
+        <v>7.8821028256595094E-2</v>
+      </c>
       <c r="AP220" s="10"/>
       <c r="AQ220" s="10"/>
       <c r="AR220" s="10"/>
@@ -46779,7 +47196,9 @@
       <c r="AN221" s="10">
         <v>3.512496699815193E-2</v>
       </c>
-      <c r="AO221" s="10"/>
+      <c r="AO221" s="10">
+        <v>3.0815282464351723E-2</v>
+      </c>
       <c r="AP221" s="10"/>
       <c r="AQ221" s="10"/>
       <c r="AR221" s="10"/>
@@ -46996,7 +47415,9 @@
       <c r="AN222" s="10">
         <v>9.8958124222106258E-2</v>
       </c>
-      <c r="AO222" s="10"/>
+      <c r="AO222" s="10">
+        <v>8.7863186462324272E-2</v>
+      </c>
       <c r="AP222" s="10"/>
       <c r="AQ222" s="10"/>
       <c r="AR222" s="10"/>
@@ -47213,7 +47634,9 @@
       <c r="AN223" s="10">
         <v>4.7721082986222463E-2</v>
       </c>
-      <c r="AO223" s="10"/>
+      <c r="AO223" s="10">
+        <v>-7.7492535035249777E-2</v>
+      </c>
       <c r="AP223" s="10"/>
       <c r="AQ223" s="10"/>
       <c r="AR223" s="10"/>
@@ -47430,7 +47853,9 @@
       <c r="AN224" s="10">
         <v>2.5774563789557448E-2</v>
       </c>
-      <c r="AO224" s="10"/>
+      <c r="AO224" s="10">
+        <v>2.7958250783074456E-2</v>
+      </c>
       <c r="AP224" s="10"/>
       <c r="AQ224" s="10"/>
       <c r="AR224" s="10"/>
@@ -47647,7 +48072,9 @@
       <c r="AN225" s="10">
         <v>0.16454452193553415</v>
       </c>
-      <c r="AO225" s="10"/>
+      <c r="AO225" s="10">
+        <v>0.18325231025270439</v>
+      </c>
       <c r="AP225" s="10"/>
       <c r="AQ225" s="10"/>
       <c r="AR225" s="10"/>
@@ -47864,7 +48291,9 @@
       <c r="AN226" s="10">
         <v>3.4022536958544292E-2</v>
       </c>
-      <c r="AO226" s="10"/>
+      <c r="AO226" s="10">
+        <v>-4.8695352394906299E-2</v>
+      </c>
       <c r="AP226" s="10"/>
       <c r="AQ226" s="10"/>
       <c r="AR226" s="10"/>
@@ -48081,7 +48510,9 @@
       <c r="AN227" s="10">
         <v>8.102110837622134E-2</v>
       </c>
-      <c r="AO227" s="10"/>
+      <c r="AO227" s="10">
+        <v>0.11078408288203434</v>
+      </c>
       <c r="AP227" s="10"/>
       <c r="AQ227" s="10"/>
       <c r="AR227" s="10"/>
@@ -48298,7 +48729,9 @@
       <c r="AN228" s="10">
         <v>4.5888120218078532E-2</v>
       </c>
-      <c r="AO228" s="10"/>
+      <c r="AO228" s="10">
+        <v>2.5184101438673334E-2</v>
+      </c>
       <c r="AP228" s="10"/>
       <c r="AQ228" s="10"/>
       <c r="AR228" s="10"/>
@@ -48515,7 +48948,9 @@
       <c r="AN229" s="10">
         <v>3.4776174620791744E-2</v>
       </c>
-      <c r="AO229" s="10"/>
+      <c r="AO229" s="10">
+        <v>4.1911237417332714E-2</v>
+      </c>
       <c r="AP229" s="10"/>
       <c r="AQ229" s="10"/>
       <c r="AR229" s="10"/>
@@ -48732,7 +49167,9 @@
       <c r="AN230" s="10">
         <v>1.8700599401507922E-2</v>
       </c>
-      <c r="AO230" s="10"/>
+      <c r="AO230" s="10">
+        <v>1.6905825937978847E-2</v>
+      </c>
       <c r="AP230" s="10"/>
       <c r="AQ230" s="10"/>
       <c r="AR230" s="10"/>
@@ -48949,7 +49386,9 @@
       <c r="AN231" s="10">
         <v>-2.2939241756501194E-2</v>
       </c>
-      <c r="AO231" s="10"/>
+      <c r="AO231" s="10">
+        <v>4.128858422157955E-2</v>
+      </c>
       <c r="AP231" s="10"/>
       <c r="AQ231" s="10"/>
       <c r="AR231" s="10"/>
@@ -49166,7 +49605,9 @@
       <c r="AN232" s="10">
         <v>-3.1643681368916377E-2</v>
       </c>
-      <c r="AO232" s="10"/>
+      <c r="AO232" s="10">
+        <v>3.4275678431817003E-2</v>
+      </c>
       <c r="AP232" s="10"/>
       <c r="AQ232" s="10"/>
       <c r="AR232" s="10"/>
@@ -49383,7 +49824,9 @@
       <c r="AN233" s="10">
         <v>5.7357689415719282E-2</v>
       </c>
-      <c r="AO233" s="10"/>
+      <c r="AO233" s="10">
+        <v>4.0104703136369269E-2</v>
+      </c>
       <c r="AP233" s="10"/>
       <c r="AQ233" s="10"/>
       <c r="AR233" s="10"/>
@@ -49600,7 +50043,9 @@
       <c r="AN234" s="10">
         <v>6.4519842042818576E-2</v>
       </c>
-      <c r="AO234" s="10"/>
+      <c r="AO234" s="10">
+        <v>2.851867632438565E-2</v>
+      </c>
       <c r="AP234" s="10"/>
       <c r="AQ234" s="10"/>
       <c r="AR234" s="10"/>
@@ -49817,7 +50262,9 @@
       <c r="AN235" s="10">
         <v>3.6744595982082018E-2</v>
       </c>
-      <c r="AO235" s="10"/>
+      <c r="AO235" s="10">
+        <v>4.8307760819400025E-2</v>
+      </c>
       <c r="AP235" s="10"/>
       <c r="AQ235" s="10"/>
       <c r="AR235" s="10"/>
@@ -50034,7 +50481,9 @@
       <c r="AN236" s="10">
         <v>0.11412133295357441</v>
       </c>
-      <c r="AO236" s="10"/>
+      <c r="AO236" s="10">
+        <v>0.29670096531240064</v>
+      </c>
       <c r="AP236" s="10"/>
       <c r="AQ236" s="10"/>
       <c r="AR236" s="10"/>
@@ -50251,7 +50700,9 @@
       <c r="AN237" s="10">
         <v>3.7850584343229299E-2</v>
       </c>
-      <c r="AO237" s="10"/>
+      <c r="AO237" s="10">
+        <v>0.10022503673120209</v>
+      </c>
       <c r="AP237" s="10"/>
       <c r="AQ237" s="10"/>
       <c r="AR237" s="10"/>
@@ -50468,7 +50919,9 @@
       <c r="AN238" s="10">
         <v>5.9311797617092044E-2</v>
       </c>
-      <c r="AO238" s="10"/>
+      <c r="AO238" s="10">
+        <v>4.5850466041461813E-2</v>
+      </c>
       <c r="AP238" s="10"/>
       <c r="AQ238" s="10"/>
       <c r="AR238" s="10"/>
@@ -50685,7 +51138,9 @@
       <c r="AN239" s="10">
         <v>4.4700998355972965E-2</v>
       </c>
-      <c r="AO239" s="10"/>
+      <c r="AO239" s="10">
+        <v>4.9939110719483537E-2</v>
+      </c>
       <c r="AP239" s="10"/>
       <c r="AQ239" s="10"/>
       <c r="AR239" s="10"/>
@@ -50902,7 +51357,9 @@
       <c r="AN240" s="10">
         <v>0.12979586940440235</v>
       </c>
-      <c r="AO240" s="10"/>
+      <c r="AO240" s="10">
+        <v>6.2662690616055228E-2</v>
+      </c>
       <c r="AP240" s="10"/>
       <c r="AQ240" s="10"/>
       <c r="AR240" s="10"/>
@@ -51119,7 +51576,9 @@
       <c r="AN241" s="10">
         <v>1.0233904300698926E-2</v>
       </c>
-      <c r="AO241" s="10"/>
+      <c r="AO241" s="10">
+        <v>2.760848538346683E-2</v>
+      </c>
       <c r="AP241" s="10"/>
       <c r="AQ241" s="10"/>
       <c r="AR241" s="10"/>
@@ -51336,7 +51795,9 @@
       <c r="AN242" s="10">
         <v>3.8418650849427083E-2</v>
       </c>
-      <c r="AO242" s="10"/>
+      <c r="AO242" s="10">
+        <v>4.4822665545233953E-2</v>
+      </c>
       <c r="AP242" s="10"/>
       <c r="AQ242" s="10"/>
       <c r="AR242" s="10"/>
@@ -51553,7 +52014,9 @@
       <c r="AN243" s="10">
         <v>0.10559512856749897</v>
       </c>
-      <c r="AO243" s="10"/>
+      <c r="AO243" s="10">
+        <v>8.4231062047963379E-2</v>
+      </c>
       <c r="AP243" s="10"/>
       <c r="AQ243" s="10"/>
       <c r="AR243" s="10"/>
@@ -51770,7 +52233,9 @@
       <c r="AN244" s="10">
         <v>9.9821298682639004E-2</v>
       </c>
-      <c r="AO244" s="10"/>
+      <c r="AO244" s="10">
+        <v>1.6056841217926276E-4</v>
+      </c>
       <c r="AP244" s="10"/>
       <c r="AQ244" s="10"/>
       <c r="AR244" s="10"/>
@@ -51987,7 +52452,9 @@
       <c r="AN245" s="10">
         <v>3.3472587549641553E-2</v>
       </c>
-      <c r="AO245" s="10"/>
+      <c r="AO245" s="10">
+        <v>9.5593401218373453E-2</v>
+      </c>
       <c r="AP245" s="10"/>
       <c r="AQ245" s="10"/>
       <c r="AR245" s="10"/>
@@ -52204,7 +52671,9 @@
       <c r="AN246" s="10">
         <v>0.18374289747023265</v>
       </c>
-      <c r="AO246" s="10"/>
+      <c r="AO246" s="10">
+        <v>0.21559310752847205</v>
+      </c>
       <c r="AP246" s="10"/>
       <c r="AQ246" s="10"/>
       <c r="AR246" s="10"/>
@@ -52421,7 +52890,9 @@
       <c r="AN247" s="10">
         <v>8.93157573628649E-2</v>
       </c>
-      <c r="AO247" s="10"/>
+      <c r="AO247" s="10">
+        <v>0.11623507262961663</v>
+      </c>
       <c r="AP247" s="10"/>
       <c r="AQ247" s="10"/>
       <c r="AR247" s="10"/>
@@ -52638,7 +53109,9 @@
       <c r="AN248" s="10">
         <v>6.2994566604674951E-2</v>
       </c>
-      <c r="AO248" s="10"/>
+      <c r="AO248" s="10">
+        <v>3.1967566331600805E-2</v>
+      </c>
       <c r="AP248" s="10"/>
       <c r="AQ248" s="10"/>
       <c r="AR248" s="10"/>
@@ -52855,7 +53328,9 @@
       <c r="AN249" s="10">
         <v>5.6681057277193858E-2</v>
       </c>
-      <c r="AO249" s="10"/>
+      <c r="AO249" s="10">
+        <v>3.2948575223140208E-2</v>
+      </c>
       <c r="AP249" s="10"/>
       <c r="AQ249" s="10"/>
       <c r="AR249" s="10"/>
@@ -53072,7 +53547,9 @@
       <c r="AN250" s="10">
         <v>0.14251300528518174</v>
       </c>
-      <c r="AO250" s="10"/>
+      <c r="AO250" s="10">
+        <v>0.13187751616445031</v>
+      </c>
       <c r="AP250" s="10"/>
       <c r="AQ250" s="10"/>
       <c r="AR250" s="10"/>
@@ -53289,7 +53766,9 @@
       <c r="AN251" s="10">
         <v>0.14154004304667667</v>
       </c>
-      <c r="AO251" s="10"/>
+      <c r="AO251" s="10">
+        <v>0.19087310904638932</v>
+      </c>
       <c r="AP251" s="10"/>
       <c r="AQ251" s="10"/>
       <c r="AR251" s="10"/>
@@ -53506,7 +53985,9 @@
       <c r="AN252" s="10">
         <v>0.11078088864832947</v>
       </c>
-      <c r="AO252" s="10"/>
+      <c r="AO252" s="10">
+        <v>0.11360387003270733</v>
+      </c>
       <c r="AP252" s="10"/>
       <c r="AQ252" s="10"/>
       <c r="AR252" s="10"/>
@@ -53723,7 +54204,9 @@
       <c r="AN253" s="10">
         <v>0.12580782155914183</v>
       </c>
-      <c r="AO253" s="10"/>
+      <c r="AO253" s="10">
+        <v>0.14519024515986478</v>
+      </c>
       <c r="AP253" s="10"/>
       <c r="AQ253" s="10"/>
       <c r="AR253" s="10"/>
@@ -53940,7 +54423,9 @@
       <c r="AN254" s="10">
         <v>8.7860332927324425E-2</v>
       </c>
-      <c r="AO254" s="10"/>
+      <c r="AO254" s="10">
+        <v>8.850204543476381E-2</v>
+      </c>
       <c r="AP254" s="10"/>
       <c r="AQ254" s="10"/>
       <c r="AR254" s="10"/>
@@ -54157,7 +54642,9 @@
       <c r="AN255" s="10">
         <v>9.0332400785720912E-2</v>
       </c>
-      <c r="AO255" s="10"/>
+      <c r="AO255" s="10">
+        <v>-1.5028037383177595E-2</v>
+      </c>
       <c r="AP255" s="10"/>
       <c r="AQ255" s="10"/>
       <c r="AR255" s="10"/>
@@ -54374,7 +54861,9 @@
       <c r="AN256" s="10">
         <v>1.9324462246528729E-2</v>
       </c>
-      <c r="AO256" s="10"/>
+      <c r="AO256" s="10">
+        <v>3.4472807164534602E-2</v>
+      </c>
       <c r="AP256" s="10"/>
       <c r="AQ256" s="10"/>
       <c r="AR256" s="10"/>
@@ -54591,7 +55080,9 @@
       <c r="AN257" s="10">
         <v>2.3223933553745635E-2</v>
       </c>
-      <c r="AO257" s="10"/>
+      <c r="AO257" s="10">
+        <v>2.3223933553745635E-2</v>
+      </c>
       <c r="AP257" s="10"/>
       <c r="AQ257" s="10"/>
       <c r="AR257" s="10"/>
@@ -54808,7 +55299,9 @@
       <c r="AN258" s="10">
         <v>4.9356348741954381E-2</v>
       </c>
-      <c r="AO258" s="10"/>
+      <c r="AO258" s="10">
+        <v>4.9356348741954381E-2</v>
+      </c>
       <c r="AP258" s="10"/>
       <c r="AQ258" s="10"/>
       <c r="AR258" s="10"/>
@@ -55025,7 +55518,9 @@
       <c r="AN259" s="10">
         <v>6.6233201724200441E-2</v>
       </c>
-      <c r="AO259" s="10"/>
+      <c r="AO259" s="10">
+        <v>6.6848092795003256E-2</v>
+      </c>
       <c r="AP259" s="10"/>
       <c r="AQ259" s="10"/>
       <c r="AR259" s="10"/>
@@ -55242,7 +55737,9 @@
       <c r="AN260" s="10">
         <v>0.1142626624831915</v>
       </c>
-      <c r="AO260" s="10"/>
+      <c r="AO260" s="10">
+        <v>5.5283346149031631E-2</v>
+      </c>
       <c r="AP260" s="10"/>
       <c r="AQ260" s="10"/>
       <c r="AR260" s="10"/>
@@ -55459,7 +55956,9 @@
       <c r="AN261" s="10">
         <v>0.19413880882755152</v>
       </c>
-      <c r="AO261" s="10"/>
+      <c r="AO261" s="10">
+        <v>0.15350606319050275</v>
+      </c>
       <c r="AP261" s="10"/>
       <c r="AQ261" s="10"/>
       <c r="AR261" s="10"/>
@@ -55676,7 +56175,9 @@
       <c r="AN262" s="10">
         <v>7.0290712589270221E-2</v>
       </c>
-      <c r="AO262" s="10"/>
+      <c r="AO262" s="10">
+        <v>0.11360359840839629</v>
+      </c>
       <c r="AP262" s="10"/>
       <c r="AQ262" s="10"/>
       <c r="AR262" s="10"/>
@@ -55893,7 +56394,9 @@
       <c r="AN263" s="10">
         <v>0.12131280314395365</v>
       </c>
-      <c r="AO263" s="10"/>
+      <c r="AO263" s="10">
+        <v>0.1435157908518736</v>
+      </c>
       <c r="AP263" s="10"/>
       <c r="AQ263" s="10"/>
       <c r="AR263" s="10"/>
@@ -56110,7 +56613,9 @@
       <c r="AN264" s="10">
         <v>-4.8455299371183869E-2</v>
       </c>
-      <c r="AO264" s="10"/>
+      <c r="AO264" s="10">
+        <v>-1.0357388814382529E-2</v>
+      </c>
       <c r="AP264" s="10"/>
       <c r="AQ264" s="10"/>
       <c r="AR264" s="10"/>
@@ -56327,7 +56832,9 @@
       <c r="AN265" s="10">
         <v>0.11819831016407245</v>
       </c>
-      <c r="AO265" s="10"/>
+      <c r="AO265" s="10">
+        <v>9.0399245879474011E-2</v>
+      </c>
       <c r="AP265" s="10"/>
       <c r="AQ265" s="10"/>
       <c r="AR265" s="10"/>
@@ -56544,7 +57051,9 @@
       <c r="AN266" s="10">
         <v>0.13753416069976798</v>
       </c>
-      <c r="AO266" s="10"/>
+      <c r="AO266" s="10">
+        <v>0.15579472628540669</v>
+      </c>
       <c r="AP266" s="10"/>
       <c r="AQ266" s="10"/>
       <c r="AR266" s="10"/>
@@ -56761,7 +57270,9 @@
       <c r="AN267" s="10">
         <v>-0.13544819718283951</v>
       </c>
-      <c r="AO267" s="10"/>
+      <c r="AO267" s="10">
+        <v>5.0780015044315396E-2</v>
+      </c>
       <c r="AP267" s="10"/>
       <c r="AQ267" s="10"/>
       <c r="AR267" s="10"/>
@@ -56978,7 +57489,9 @@
       <c r="AN268" s="10">
         <v>6.7677946324387506E-2</v>
       </c>
-      <c r="AO268" s="10"/>
+      <c r="AO268" s="10">
+        <v>7.8246241379614112E-2</v>
+      </c>
       <c r="AP268" s="10"/>
       <c r="AQ268" s="10"/>
       <c r="AR268" s="10"/>
@@ -57195,7 +57708,9 @@
       <c r="AN269" s="10">
         <v>3.1696446496687347E-2</v>
       </c>
-      <c r="AO269" s="10"/>
+      <c r="AO269" s="10">
+        <v>5.4571688820461484E-2</v>
+      </c>
       <c r="AP269" s="10"/>
       <c r="AQ269" s="10"/>
       <c r="AR269" s="10"/>
@@ -57412,7 +57927,9 @@
       <c r="AN270" s="10">
         <v>0.15958521311696194</v>
       </c>
-      <c r="AO270" s="10"/>
+      <c r="AO270" s="10">
+        <v>0.23676027503090213</v>
+      </c>
       <c r="AP270" s="10"/>
       <c r="AQ270" s="10"/>
       <c r="AR270" s="10"/>
@@ -57629,7 +58146,9 @@
       <c r="AN271" s="10">
         <v>4.9943135024903107E-2</v>
       </c>
-      <c r="AO271" s="10"/>
+      <c r="AO271" s="10">
+        <v>0.1103572689125063</v>
+      </c>
       <c r="AP271" s="10"/>
       <c r="AQ271" s="10"/>
       <c r="AR271" s="10"/>
@@ -57846,7 +58365,9 @@
       <c r="AN272" s="10">
         <v>8.7207447307670716E-2</v>
       </c>
-      <c r="AO272" s="10"/>
+      <c r="AO272" s="10">
+        <v>0.14257526268905485</v>
+      </c>
       <c r="AP272" s="10"/>
       <c r="AQ272" s="10"/>
       <c r="AR272" s="10"/>
@@ -58063,7 +58584,9 @@
       <c r="AN273" s="10">
         <v>2.9385566800417262E-2</v>
       </c>
-      <c r="AO273" s="10"/>
+      <c r="AO273" s="10">
+        <v>7.7853508687721895E-2</v>
+      </c>
       <c r="AP273" s="10"/>
       <c r="AQ273" s="10"/>
       <c r="AR273" s="10"/>
@@ -58280,7 +58803,9 @@
       <c r="AN274" s="10">
         <v>4.1384569600475984E-2</v>
       </c>
-      <c r="AO274" s="10"/>
+      <c r="AO274" s="10">
+        <v>4.1384569600475984E-2</v>
+      </c>
       <c r="AP274" s="10"/>
       <c r="AQ274" s="10"/>
       <c r="AR274" s="10"/>
@@ -58497,7 +59022,9 @@
       <c r="AN275" s="10">
         <v>2.2496983771329138E-2</v>
       </c>
-      <c r="AO275" s="10"/>
+      <c r="AO275" s="10">
+        <v>2.49608991379624E-2</v>
+      </c>
       <c r="AP275" s="10"/>
       <c r="AQ275" s="10"/>
       <c r="AR275" s="10"/>
@@ -58714,7 +59241,9 @@
       <c r="AN276" s="10">
         <v>4.0538301515123498E-2</v>
       </c>
-      <c r="AO276" s="10"/>
+      <c r="AO276" s="10">
+        <v>3.592902185071134E-2</v>
+      </c>
       <c r="AP276" s="10"/>
       <c r="AQ276" s="10"/>
       <c r="AR276" s="10"/>
@@ -58931,7 +59460,9 @@
       <c r="AN277" s="10">
         <v>3.145974952210473E-3</v>
       </c>
-      <c r="AO277" s="10"/>
+      <c r="AO277" s="10">
+        <v>5.3090046904797905E-3</v>
+      </c>
       <c r="AP277" s="10"/>
       <c r="AQ277" s="10"/>
       <c r="AR277" s="10"/>
@@ -59148,7 +59679,9 @@
       <c r="AN278" s="10">
         <v>3.9675261624770863E-2</v>
       </c>
-      <c r="AO278" s="10"/>
+      <c r="AO278" s="10">
+        <v>3.7948892858104655E-2</v>
+      </c>
       <c r="AP278" s="10"/>
       <c r="AQ278" s="10"/>
       <c r="AR278" s="10"/>
@@ -59365,7 +59898,9 @@
       <c r="AN279" s="10">
         <v>7.996062130824777E-2</v>
       </c>
-      <c r="AO279" s="10"/>
+      <c r="AO279" s="10">
+        <v>8.0748741151572601E-2</v>
+      </c>
       <c r="AP279" s="10"/>
       <c r="AQ279" s="10"/>
       <c r="AR279" s="10"/>
@@ -59582,7 +60117,9 @@
       <c r="AN280" s="10">
         <v>2.858338107840197E-2</v>
       </c>
-      <c r="AO280" s="10"/>
+      <c r="AO280" s="10">
+        <v>2.5356964779475133E-2</v>
+      </c>
       <c r="AP280" s="10"/>
       <c r="AQ280" s="10"/>
       <c r="AR280" s="10"/>
@@ -59799,7 +60336,9 @@
       <c r="AN281" s="10">
         <v>7.3635374008605092E-2</v>
       </c>
-      <c r="AO281" s="10"/>
+      <c r="AO281" s="10">
+        <v>6.4535997810019063E-2</v>
+      </c>
       <c r="AP281" s="10"/>
       <c r="AQ281" s="10"/>
       <c r="AR281" s="10"/>
@@ -60016,7 +60555,9 @@
       <c r="AN282" s="10">
         <v>5.6570378462606818E-2</v>
       </c>
-      <c r="AO282" s="10"/>
+      <c r="AO282" s="10">
+        <v>7.9665235621335428E-2</v>
+      </c>
       <c r="AP282" s="10"/>
       <c r="AQ282" s="10"/>
       <c r="AR282" s="10"/>
@@ -60233,7 +60774,9 @@
       <c r="AN283" s="10">
         <v>8.1128413450688219E-2</v>
       </c>
-      <c r="AO283" s="10"/>
+      <c r="AO283" s="10">
+        <v>0.10780877865014893</v>
+      </c>
       <c r="AP283" s="10"/>
       <c r="AQ283" s="10"/>
       <c r="AR283" s="10"/>
@@ -60450,7 +60993,9 @@
       <c r="AN284" s="10">
         <v>0.29825245682016677</v>
       </c>
-      <c r="AO284" s="10"/>
+      <c r="AO284" s="10">
+        <v>0.2735581938304108</v>
+      </c>
       <c r="AP284" s="10"/>
       <c r="AQ284" s="10"/>
       <c r="AR284" s="10"/>
@@ -60667,7 +61212,9 @@
       <c r="AN285" s="10">
         <v>9.7261142400382417E-2</v>
       </c>
-      <c r="AO285" s="10"/>
+      <c r="AO285" s="10">
+        <v>9.9459280815944462E-2</v>
+      </c>
       <c r="AP285" s="10"/>
       <c r="AQ285" s="10"/>
       <c r="AR285" s="10"/>
@@ -60884,7 +61431,9 @@
       <c r="AN286" s="10">
         <v>9.1400696864111453E-2</v>
       </c>
-      <c r="AO286" s="10"/>
+      <c r="AO286" s="10">
+        <v>9.0308676952802092E-2</v>
+      </c>
       <c r="AP286" s="10"/>
       <c r="AQ286" s="10"/>
       <c r="AR286" s="10"/>
@@ -61101,7 +61650,9 @@
       <c r="AN287" s="10">
         <v>7.7640393522949047E-2</v>
       </c>
-      <c r="AO287" s="10"/>
+      <c r="AO287" s="10">
+        <v>7.998131957310628E-2</v>
+      </c>
       <c r="AP287" s="10"/>
       <c r="AQ287" s="10"/>
       <c r="AR287" s="10"/>
@@ -61318,7 +61869,9 @@
       <c r="AN288" s="10">
         <v>0.170436417502279</v>
       </c>
-      <c r="AO288" s="10"/>
+      <c r="AO288" s="10">
+        <v>0.16743899764409576</v>
+      </c>
       <c r="AP288" s="10"/>
       <c r="AQ288" s="10"/>
       <c r="AR288" s="10"/>
@@ -61535,7 +62088,9 @@
       <c r="AN289" s="10">
         <v>6.1148501005156897E-2</v>
       </c>
-      <c r="AO289" s="10"/>
+      <c r="AO289" s="10">
+        <v>1.8551826918135506E-2</v>
+      </c>
       <c r="AP289" s="10"/>
       <c r="AQ289" s="10"/>
       <c r="AR289" s="10"/>
@@ -61752,7 +62307,9 @@
       <c r="AN290" s="10">
         <v>1.9559206607455693E-4</v>
       </c>
-      <c r="AO290" s="10"/>
+      <c r="AO290" s="10">
+        <v>1.9559206607455693E-4</v>
+      </c>
       <c r="AP290" s="10"/>
       <c r="AQ290" s="10"/>
       <c r="AR290" s="10"/>
@@ -61969,7 +62526,9 @@
       <c r="AN291" s="10">
         <v>6.1366714317959481E-2</v>
       </c>
-      <c r="AO291" s="10"/>
+      <c r="AO291" s="10">
+        <v>5.3234281234542546E-2</v>
+      </c>
       <c r="AP291" s="10"/>
       <c r="AQ291" s="10"/>
       <c r="AR291" s="10"/>
@@ -62186,7 +62745,9 @@
       <c r="AN292" s="10">
         <v>-6.2360649575865512E-4</v>
       </c>
-      <c r="AO292" s="10"/>
+      <c r="AO292" s="10">
+        <v>-6.2360649575865512E-4</v>
+      </c>
       <c r="AP292" s="10"/>
       <c r="AQ292" s="10"/>
       <c r="AR292" s="10"/>
@@ -62403,7 +62964,9 @@
       <c r="AN293" s="10">
         <v>0.17054132021041912</v>
       </c>
-      <c r="AO293" s="10"/>
+      <c r="AO293" s="10">
+        <v>0.17209279775035768</v>
+      </c>
       <c r="AP293" s="10"/>
       <c r="AQ293" s="10"/>
       <c r="AR293" s="10"/>
@@ -62620,7 +63183,9 @@
       <c r="AN294" s="10">
         <v>0.17395695968126601</v>
       </c>
-      <c r="AO294" s="10"/>
+      <c r="AO294" s="10">
+        <v>0.14914127728138271</v>
+      </c>
       <c r="AP294" s="10"/>
       <c r="AQ294" s="10"/>
       <c r="AR294" s="10"/>
@@ -62837,7 +63402,9 @@
       <c r="AN295" s="10">
         <v>0.10309541407102385</v>
       </c>
-      <c r="AO295" s="10"/>
+      <c r="AO295" s="10">
+        <v>0.10919661547663018</v>
+      </c>
       <c r="AP295" s="10"/>
       <c r="AQ295" s="10"/>
       <c r="AR295" s="10"/>
@@ -63054,7 +63621,9 @@
       <c r="AN296" s="10">
         <v>4.3120423018208287E-2</v>
       </c>
-      <c r="AO296" s="10"/>
+      <c r="AO296" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
       <c r="AP296" s="10"/>
       <c r="AQ296" s="10"/>
       <c r="AR296" s="10"/>
@@ -63271,7 +63840,9 @@
       <c r="AN297" s="10">
         <v>5.0521432648660269E-2</v>
       </c>
-      <c r="AO297" s="10"/>
+      <c r="AO297" s="10">
+        <v>5.8518981947428994E-2</v>
+      </c>
       <c r="AP297" s="10"/>
       <c r="AQ297" s="10"/>
       <c r="AR297" s="10"/>
@@ -63488,7 +64059,9 @@
       <c r="AN298" s="10">
         <v>-2.9252246999416975E-2</v>
       </c>
-      <c r="AO298" s="10"/>
+      <c r="AO298" s="10">
+        <v>-0.15924659156584264</v>
+      </c>
       <c r="AP298" s="10"/>
       <c r="AQ298" s="10"/>
       <c r="AR298" s="10"/>
@@ -63705,7 +64278,9 @@
       <c r="AN299" s="10">
         <v>0</v>
       </c>
-      <c r="AO299" s="10"/>
+      <c r="AO299" s="10">
+        <v>1.5653996971696893E-2</v>
+      </c>
       <c r="AP299" s="10"/>
       <c r="AQ299" s="10"/>
       <c r="AR299" s="10"/>
@@ -63922,7 +64497,9 @@
       <c r="AN300" s="10">
         <v>0</v>
       </c>
-      <c r="AO300" s="10"/>
+      <c r="AO300" s="10">
+        <v>0</v>
+      </c>
       <c r="AP300" s="10"/>
       <c r="AQ300" s="10"/>
       <c r="AR300" s="10"/>
@@ -64139,7 +64716,9 @@
       <c r="AN301" s="10">
         <v>0</v>
       </c>
-      <c r="AO301" s="10"/>
+      <c r="AO301" s="10">
+        <v>0</v>
+      </c>
       <c r="AP301" s="10"/>
       <c r="AQ301" s="10"/>
       <c r="AR301" s="10"/>
@@ -64356,7 +64935,9 @@
       <c r="AN302" s="10">
         <v>5.7187789084181428E-2</v>
       </c>
-      <c r="AO302" s="10"/>
+      <c r="AO302" s="10">
+        <v>7.7066817143227162E-2</v>
+      </c>
       <c r="AP302" s="10"/>
       <c r="AQ302" s="10"/>
       <c r="AR302" s="10"/>
@@ -64573,7 +65154,9 @@
       <c r="AN303" s="10">
         <v>9.6363949681199434E-2</v>
       </c>
-      <c r="AO303" s="10"/>
+      <c r="AO303" s="10">
+        <v>0.10497156643115613</v>
+      </c>
       <c r="AP303" s="10"/>
       <c r="AQ303" s="10"/>
       <c r="AR303" s="10"/>
@@ -64790,7 +65373,9 @@
       <c r="AN304" s="10">
         <v>2.7399407929320274E-2</v>
       </c>
-      <c r="AO304" s="10"/>
+      <c r="AO304" s="10">
+        <v>2.7048916294694081E-2</v>
+      </c>
       <c r="AP304" s="10"/>
       <c r="AQ304" s="10"/>
       <c r="AR304" s="10"/>
@@ -65007,7 +65592,9 @@
       <c r="AN305" s="10">
         <v>7.064845833048472E-2</v>
       </c>
-      <c r="AO305" s="10"/>
+      <c r="AO305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
       <c r="AP305" s="10"/>
       <c r="AQ305" s="10"/>
       <c r="AR305" s="10"/>
@@ -65224,7 +65811,9 @@
       <c r="AN306" s="10">
         <v>0.17653571281034397</v>
       </c>
-      <c r="AO306" s="10"/>
+      <c r="AO306" s="10">
+        <v>0.20616350642376169</v>
+      </c>
       <c r="AP306" s="10"/>
       <c r="AQ306" s="10"/>
       <c r="AR306" s="10"/>
@@ -65441,7 +66030,9 @@
       <c r="AN307" s="10">
         <v>2.5941020451542007E-2</v>
       </c>
-      <c r="AO307" s="10"/>
+      <c r="AO307" s="10">
+        <v>2.5615718107185659E-2</v>
+      </c>
       <c r="AP307" s="10"/>
       <c r="AQ307" s="10"/>
       <c r="AR307" s="10"/>
@@ -65658,7 +66249,9 @@
       <c r="AN308" s="10">
         <v>0.12314941897703346</v>
       </c>
-      <c r="AO308" s="10"/>
+      <c r="AO308" s="10">
+        <v>0.13755928493250624</v>
+      </c>
       <c r="AP308" s="10"/>
       <c r="AQ308" s="10"/>
       <c r="AR308" s="10"/>
@@ -65875,7 +66468,9 @@
       <c r="AN309" s="10">
         <v>5.1384658419842077E-2</v>
       </c>
-      <c r="AO309" s="10"/>
+      <c r="AO309" s="10">
+        <v>-1.1006772273172705E-2</v>
+      </c>
       <c r="AP309" s="10"/>
       <c r="AQ309" s="10"/>
       <c r="AR309" s="10"/>
@@ -66092,7 +66687,9 @@
       <c r="AN310" s="10">
         <v>0.22826963393001143</v>
       </c>
-      <c r="AO310" s="10"/>
+      <c r="AO310" s="10">
+        <v>0.34148426963320788</v>
+      </c>
       <c r="AP310" s="10"/>
       <c r="AQ310" s="10"/>
       <c r="AR310" s="10"/>
@@ -66309,7 +66906,9 @@
       <c r="AN311" s="10">
         <v>7.0909772379645908E-4</v>
       </c>
-      <c r="AO311" s="10"/>
+      <c r="AO311" s="10">
+        <v>7.0909772379645908E-4</v>
+      </c>
       <c r="AP311" s="10"/>
       <c r="AQ311" s="10"/>
       <c r="AR311" s="10"/>
@@ -66526,7 +67125,9 @@
       <c r="AN312" s="10">
         <v>0</v>
       </c>
-      <c r="AO312" s="10"/>
+      <c r="AO312" s="10">
+        <v>0</v>
+      </c>
       <c r="AP312" s="10"/>
       <c r="AQ312" s="10"/>
       <c r="AR312" s="10"/>
@@ -66743,7 +67344,9 @@
       <c r="AN313" s="10">
         <v>6.9696303784116287E-2</v>
       </c>
-      <c r="AO313" s="10"/>
+      <c r="AO313" s="10">
+        <v>0.14009581154133532</v>
+      </c>
       <c r="AP313" s="10"/>
       <c r="AQ313" s="10"/>
       <c r="AR313" s="10"/>
@@ -66960,7 +67563,9 @@
       <c r="AN314" s="11">
         <v>8.1737778209738599E-2</v>
       </c>
-      <c r="AO314" s="11"/>
+      <c r="AO314" s="11">
+        <v>8.1267484209229801E-2</v>
+      </c>
       <c r="AP314" s="11"/>
       <c r="AQ314" s="11"/>
       <c r="AR314" s="11"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="457">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1391,10 +1391,13 @@
     <t xml:space="preserve"> 06/2022</t>
   </si>
   <si>
-    <t>Última actualización:  08/09/2022</t>
+    <t xml:space="preserve"> 07/2022</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07/2022</t>
+    <t>Última actualización:  09/08/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/2022</t>
   </si>
 </sst>
 </file>
@@ -1916,9 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EE314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD314"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1948,7 +1949,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2083,9 +2084,11 @@
         <v>453</v>
       </c>
       <c r="AO15" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="AP15" s="13"/>
+        <v>454</v>
+      </c>
+      <c r="AP15" s="13" t="s">
+        <v>456</v>
+      </c>
       <c r="AQ15" s="13"/>
       <c r="AR15" s="13"/>
       <c r="AS15" s="13"/>
@@ -2304,7 +2307,9 @@
       <c r="AO16" s="10">
         <v>0.29510538291617538</v>
       </c>
-      <c r="AP16" s="10"/>
+      <c r="AP16" s="10">
+        <v>0.26256549738010482</v>
+      </c>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
@@ -2523,7 +2528,9 @@
       <c r="AO17" s="10">
         <v>1.2294938306225411E-2</v>
       </c>
-      <c r="AP17" s="10"/>
+      <c r="AP17" s="10">
+        <v>6.1042098928439925E-2</v>
+      </c>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
       <c r="AS17" s="10"/>
@@ -2742,7 +2749,9 @@
       <c r="AO18" s="10">
         <v>0.12188453131882282</v>
       </c>
-      <c r="AP18" s="10"/>
+      <c r="AP18" s="10">
+        <v>0.13308946731034021</v>
+      </c>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
@@ -2961,7 +2970,9 @@
       <c r="AO19" s="10">
         <v>0.23201114365072018</v>
       </c>
-      <c r="AP19" s="10"/>
+      <c r="AP19" s="10">
+        <v>0.22005266390167155</v>
+      </c>
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
       <c r="AS19" s="10"/>
@@ -3180,7 +3191,9 @@
       <c r="AO20" s="10">
         <v>8.3879221616214084E-2</v>
       </c>
-      <c r="AP20" s="10"/>
+      <c r="AP20" s="10">
+        <v>7.8705385306543807E-2</v>
+      </c>
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
@@ -3399,7 +3412,9 @@
       <c r="AO21" s="10">
         <v>9.8324433805928813E-2</v>
       </c>
-      <c r="AP21" s="10"/>
+      <c r="AP21" s="10">
+        <v>0.12368237317575748</v>
+      </c>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
       <c r="AS21" s="10"/>
@@ -3618,7 +3633,9 @@
       <c r="AO22" s="10">
         <v>8.4125659813145903E-2</v>
       </c>
-      <c r="AP22" s="10"/>
+      <c r="AP22" s="10">
+        <v>9.8983298226991367E-2</v>
+      </c>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
@@ -3837,7 +3854,9 @@
       <c r="AO23" s="10">
         <v>0.11218447159765588</v>
       </c>
-      <c r="AP23" s="10"/>
+      <c r="AP23" s="10">
+        <v>8.2492586138371626E-2</v>
+      </c>
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
@@ -4056,7 +4075,9 @@
       <c r="AO24" s="10">
         <v>1.52436473180666E-2</v>
       </c>
-      <c r="AP24" s="10"/>
+      <c r="AP24" s="10">
+        <v>4.7303077575609365E-2</v>
+      </c>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
@@ -4275,7 +4296,9 @@
       <c r="AO25" s="10">
         <v>0.43808889093165404</v>
       </c>
-      <c r="AP25" s="10"/>
+      <c r="AP25" s="10">
+        <v>0.44044920044738656</v>
+      </c>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
@@ -4494,7 +4517,9 @@
       <c r="AO26" s="10">
         <v>0.16980877769353886</v>
       </c>
-      <c r="AP26" s="10"/>
+      <c r="AP26" s="10">
+        <v>0.15485485485485473</v>
+      </c>
       <c r="AQ26" s="10"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
@@ -4713,7 +4738,9 @@
       <c r="AO27" s="10">
         <v>6.2308546245211094E-2</v>
       </c>
-      <c r="AP27" s="10"/>
+      <c r="AP27" s="10">
+        <v>4.840090906096628E-2</v>
+      </c>
       <c r="AQ27" s="10"/>
       <c r="AR27" s="10"/>
       <c r="AS27" s="10"/>
@@ -4932,7 +4959,9 @@
       <c r="AO28" s="10">
         <v>0.12074920827383773</v>
       </c>
-      <c r="AP28" s="10"/>
+      <c r="AP28" s="10">
+        <v>0.10588355080750023</v>
+      </c>
       <c r="AQ28" s="10"/>
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
@@ -5151,7 +5180,9 @@
       <c r="AO29" s="10">
         <v>7.571801566579639E-2</v>
       </c>
-      <c r="AP29" s="10"/>
+      <c r="AP29" s="10">
+        <v>9.1495370976058421E-2</v>
+      </c>
       <c r="AQ29" s="10"/>
       <c r="AR29" s="10"/>
       <c r="AS29" s="10"/>
@@ -5370,7 +5401,9 @@
       <c r="AO30" s="10">
         <v>7.7861410848124812E-2</v>
       </c>
-      <c r="AP30" s="10"/>
+      <c r="AP30" s="10">
+        <v>9.8382309644871935E-2</v>
+      </c>
       <c r="AQ30" s="10"/>
       <c r="AR30" s="10"/>
       <c r="AS30" s="10"/>
@@ -5589,7 +5622,9 @@
       <c r="AO31" s="10">
         <v>7.5332101779564287E-2</v>
       </c>
-      <c r="AP31" s="10"/>
+      <c r="AP31" s="10">
+        <v>8.0411390088573231E-2</v>
+      </c>
       <c r="AQ31" s="10"/>
       <c r="AR31" s="10"/>
       <c r="AS31" s="10"/>
@@ -5808,7 +5843,9 @@
       <c r="AO32" s="10">
         <v>6.5532557448414908E-2</v>
       </c>
-      <c r="AP32" s="10"/>
+      <c r="AP32" s="10">
+        <v>6.8114189328962738E-2</v>
+      </c>
       <c r="AQ32" s="10"/>
       <c r="AR32" s="10"/>
       <c r="AS32" s="10"/>
@@ -6027,7 +6064,9 @@
       <c r="AO33" s="10">
         <v>0.58033380079294994</v>
       </c>
-      <c r="AP33" s="10"/>
+      <c r="AP33" s="10">
+        <v>0.16789378394689192</v>
+      </c>
       <c r="AQ33" s="10"/>
       <c r="AR33" s="10"/>
       <c r="AS33" s="10"/>
@@ -6246,7 +6285,9 @@
       <c r="AO34" s="10">
         <v>-6.4518853185829839E-3</v>
       </c>
-      <c r="AP34" s="10"/>
+      <c r="AP34" s="10">
+        <v>0.13250322592798414</v>
+      </c>
       <c r="AQ34" s="10"/>
       <c r="AR34" s="10"/>
       <c r="AS34" s="10"/>
@@ -6465,7 +6506,9 @@
       <c r="AO35" s="10">
         <v>4.7912106067493632E-4</v>
       </c>
-      <c r="AP35" s="10"/>
+      <c r="AP35" s="10">
+        <v>-1.9637729366489665E-2</v>
+      </c>
       <c r="AQ35" s="10"/>
       <c r="AR35" s="10"/>
       <c r="AS35" s="10"/>
@@ -6684,7 +6727,9 @@
       <c r="AO36" s="10">
         <v>0.25423322444331231</v>
       </c>
-      <c r="AP36" s="10"/>
+      <c r="AP36" s="10">
+        <v>0.18711668928086822</v>
+      </c>
       <c r="AQ36" s="10"/>
       <c r="AR36" s="10"/>
       <c r="AS36" s="10"/>
@@ -6903,7 +6948,9 @@
       <c r="AO37" s="10">
         <v>2.6526526526526428E-2</v>
       </c>
-      <c r="AP37" s="10"/>
+      <c r="AP37" s="10">
+        <v>2.5540305552105291E-2</v>
+      </c>
       <c r="AQ37" s="10"/>
       <c r="AR37" s="10"/>
       <c r="AS37" s="10"/>
@@ -7122,7 +7169,9 @@
       <c r="AO38" s="10">
         <v>0.43134970424807317</v>
       </c>
-      <c r="AP38" s="10"/>
+      <c r="AP38" s="10">
+        <v>0.26632064769778263</v>
+      </c>
       <c r="AQ38" s="10"/>
       <c r="AR38" s="10"/>
       <c r="AS38" s="10"/>
@@ -7341,7 +7390,9 @@
       <c r="AO39" s="10">
         <v>0.39689796067940719</v>
       </c>
-      <c r="AP39" s="10"/>
+      <c r="AP39" s="10">
+        <v>0.40225949117659932</v>
+      </c>
       <c r="AQ39" s="10"/>
       <c r="AR39" s="10"/>
       <c r="AS39" s="10"/>
@@ -7560,7 +7611,9 @@
       <c r="AO40" s="10">
         <v>0.28677348214779741</v>
       </c>
-      <c r="AP40" s="10"/>
+      <c r="AP40" s="10">
+        <v>0.29857046915475394</v>
+      </c>
       <c r="AQ40" s="10"/>
       <c r="AR40" s="10"/>
       <c r="AS40" s="10"/>
@@ -7779,7 +7832,9 @@
       <c r="AO41" s="10">
         <v>0.19502051680159727</v>
       </c>
-      <c r="AP41" s="10"/>
+      <c r="AP41" s="10">
+        <v>8.4903959265333562E-2</v>
+      </c>
       <c r="AQ41" s="10"/>
       <c r="AR41" s="10"/>
       <c r="AS41" s="10"/>
@@ -7998,7 +8053,9 @@
       <c r="AO42" s="10">
         <v>1.7949176654995957E-2</v>
       </c>
-      <c r="AP42" s="10"/>
+      <c r="AP42" s="10">
+        <v>1.9674266027067677E-2</v>
+      </c>
       <c r="AQ42" s="10"/>
       <c r="AR42" s="10"/>
       <c r="AS42" s="10"/>
@@ -8217,7 +8274,9 @@
       <c r="AO43" s="10">
         <v>0.50488998479679914</v>
       </c>
-      <c r="AP43" s="10"/>
+      <c r="AP43" s="10">
+        <v>0.26199075811741257</v>
+      </c>
       <c r="AQ43" s="10"/>
       <c r="AR43" s="10"/>
       <c r="AS43" s="10"/>
@@ -8436,7 +8495,9 @@
       <c r="AO44" s="10">
         <v>0.10971782137426311</v>
       </c>
-      <c r="AP44" s="10"/>
+      <c r="AP44" s="10">
+        <v>0.11338621092392875</v>
+      </c>
       <c r="AQ44" s="10"/>
       <c r="AR44" s="10"/>
       <c r="AS44" s="10"/>
@@ -8655,7 +8716,9 @@
       <c r="AO45" s="10">
         <v>0.27435606700280668</v>
       </c>
-      <c r="AP45" s="10"/>
+      <c r="AP45" s="10">
+        <v>0.37189154374224365</v>
+      </c>
       <c r="AQ45" s="10"/>
       <c r="AR45" s="10"/>
       <c r="AS45" s="10"/>
@@ -8874,7 +8937,9 @@
       <c r="AO46" s="10">
         <v>-1.557727803206499E-2</v>
       </c>
-      <c r="AP46" s="10"/>
+      <c r="AP46" s="10">
+        <v>8.2468184862692695E-2</v>
+      </c>
       <c r="AQ46" s="10"/>
       <c r="AR46" s="10"/>
       <c r="AS46" s="10"/>
@@ -9093,7 +9158,9 @@
       <c r="AO47" s="10">
         <v>5.3670875534783002E-2</v>
       </c>
-      <c r="AP47" s="10"/>
+      <c r="AP47" s="10">
+        <v>6.7793083357609696E-2</v>
+      </c>
       <c r="AQ47" s="10"/>
       <c r="AR47" s="10"/>
       <c r="AS47" s="10"/>
@@ -9312,7 +9379,9 @@
       <c r="AO48" s="10">
         <v>0.14325960810697169</v>
       </c>
-      <c r="AP48" s="10"/>
+      <c r="AP48" s="10">
+        <v>0.12033773801368453</v>
+      </c>
       <c r="AQ48" s="10"/>
       <c r="AR48" s="10"/>
       <c r="AS48" s="10"/>
@@ -9531,7 +9600,9 @@
       <c r="AO49" s="10">
         <v>-1.6289576307393028E-2</v>
       </c>
-      <c r="AP49" s="10"/>
+      <c r="AP49" s="10">
+        <v>-1.0536997272883819E-2</v>
+      </c>
       <c r="AQ49" s="10"/>
       <c r="AR49" s="10"/>
       <c r="AS49" s="10"/>
@@ -9750,7 +9821,9 @@
       <c r="AO50" s="10">
         <v>6.2300873535034107E-2</v>
       </c>
-      <c r="AP50" s="10"/>
+      <c r="AP50" s="10">
+        <v>6.2641010765164484E-2</v>
+      </c>
       <c r="AQ50" s="10"/>
       <c r="AR50" s="10"/>
       <c r="AS50" s="10"/>
@@ -9969,7 +10042,9 @@
       <c r="AO51" s="10">
         <v>4.3791009656762636E-2</v>
       </c>
-      <c r="AP51" s="10"/>
+      <c r="AP51" s="10">
+        <v>4.3168535776338723E-2</v>
+      </c>
       <c r="AQ51" s="10"/>
       <c r="AR51" s="10"/>
       <c r="AS51" s="10"/>
@@ -10188,7 +10263,9 @@
       <c r="AO52" s="10">
         <v>4.8086087374449082E-2</v>
       </c>
-      <c r="AP52" s="10"/>
+      <c r="AP52" s="10">
+        <v>4.9151493436695892E-2</v>
+      </c>
       <c r="AQ52" s="10"/>
       <c r="AR52" s="10"/>
       <c r="AS52" s="10"/>
@@ -10407,7 +10484,9 @@
       <c r="AO53" s="10">
         <v>0.14560109900113383</v>
       </c>
-      <c r="AP53" s="10"/>
+      <c r="AP53" s="10">
+        <v>0.14306021166107952</v>
+      </c>
       <c r="AQ53" s="10"/>
       <c r="AR53" s="10"/>
       <c r="AS53" s="10"/>
@@ -10626,7 +10705,9 @@
       <c r="AO54" s="10">
         <v>0.15742044987270232</v>
       </c>
-      <c r="AP54" s="10"/>
+      <c r="AP54" s="10">
+        <v>0.17122143612974305</v>
+      </c>
       <c r="AQ54" s="10"/>
       <c r="AR54" s="10"/>
       <c r="AS54" s="10"/>
@@ -10845,7 +10926,9 @@
       <c r="AO55" s="10">
         <v>-1.6237406467926707E-2</v>
       </c>
-      <c r="AP55" s="10"/>
+      <c r="AP55" s="10">
+        <v>-2.04083219910558E-2</v>
+      </c>
       <c r="AQ55" s="10"/>
       <c r="AR55" s="10"/>
       <c r="AS55" s="10"/>
@@ -11064,7 +11147,9 @@
       <c r="AO56" s="10">
         <v>0.57583365645599072</v>
       </c>
-      <c r="AP56" s="10"/>
+      <c r="AP56" s="10">
+        <v>0.94689443151422537</v>
+      </c>
       <c r="AQ56" s="10"/>
       <c r="AR56" s="10"/>
       <c r="AS56" s="10"/>
@@ -11283,7 +11368,9 @@
       <c r="AO57" s="10">
         <v>9.9736212574062177E-2</v>
       </c>
-      <c r="AP57" s="10"/>
+      <c r="AP57" s="10">
+        <v>-4.3497700129388805E-2</v>
+      </c>
       <c r="AQ57" s="10"/>
       <c r="AR57" s="10"/>
       <c r="AS57" s="10"/>
@@ -11502,7 +11589,9 @@
       <c r="AO58" s="10">
         <v>0.2118046487333507</v>
       </c>
-      <c r="AP58" s="10"/>
+      <c r="AP58" s="10">
+        <v>0.20480019010653883</v>
+      </c>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="10"/>
       <c r="AS58" s="10"/>
@@ -11721,7 +11810,9 @@
       <c r="AO59" s="10">
         <v>3.2753058992647466E-2</v>
       </c>
-      <c r="AP59" s="10"/>
+      <c r="AP59" s="10">
+        <v>-4.2754989637982854E-2</v>
+      </c>
       <c r="AQ59" s="10"/>
       <c r="AR59" s="10"/>
       <c r="AS59" s="10"/>
@@ -11940,7 +12031,9 @@
       <c r="AO60" s="10">
         <v>9.7435018655117833E-2</v>
       </c>
-      <c r="AP60" s="10"/>
+      <c r="AP60" s="10">
+        <v>7.1853198193550405E-2</v>
+      </c>
       <c r="AQ60" s="10"/>
       <c r="AR60" s="10"/>
       <c r="AS60" s="10"/>
@@ -12159,7 +12252,9 @@
       <c r="AO61" s="10">
         <v>1.4372954089070245E-3</v>
       </c>
-      <c r="AP61" s="10"/>
+      <c r="AP61" s="10">
+        <v>-0.12925371405776498</v>
+      </c>
       <c r="AQ61" s="10"/>
       <c r="AR61" s="10"/>
       <c r="AS61" s="10"/>
@@ -12378,7 +12473,9 @@
       <c r="AO62" s="10">
         <v>0.19636923505158221</v>
       </c>
-      <c r="AP62" s="10"/>
+      <c r="AP62" s="10">
+        <v>0.17631881938666583</v>
+      </c>
       <c r="AQ62" s="10"/>
       <c r="AR62" s="10"/>
       <c r="AS62" s="10"/>
@@ -12597,7 +12694,9 @@
       <c r="AO63" s="10">
         <v>0.16512227344536723</v>
       </c>
-      <c r="AP63" s="10"/>
+      <c r="AP63" s="10">
+        <v>0.13390184411840789</v>
+      </c>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="10"/>
       <c r="AS63" s="10"/>
@@ -12816,7 +12915,9 @@
       <c r="AO64" s="10">
         <v>0.13237666827763106</v>
       </c>
-      <c r="AP64" s="10"/>
+      <c r="AP64" s="10">
+        <v>0.1024085934450405</v>
+      </c>
       <c r="AQ64" s="10"/>
       <c r="AR64" s="10"/>
       <c r="AS64" s="10"/>
@@ -13035,7 +13136,9 @@
       <c r="AO65" s="10">
         <v>6.8536052882832044E-2</v>
       </c>
-      <c r="AP65" s="10"/>
+      <c r="AP65" s="10">
+        <v>4.0909602211842699E-3</v>
+      </c>
       <c r="AQ65" s="10"/>
       <c r="AR65" s="10"/>
       <c r="AS65" s="10"/>
@@ -13254,7 +13357,9 @@
       <c r="AO66" s="10">
         <v>0.54535971223021584</v>
       </c>
-      <c r="AP66" s="10"/>
+      <c r="AP66" s="10">
+        <v>0.70424836601307184</v>
+      </c>
       <c r="AQ66" s="10"/>
       <c r="AR66" s="10"/>
       <c r="AS66" s="10"/>
@@ -13473,7 +13578,9 @@
       <c r="AO67" s="10">
         <v>0.1936075704905369</v>
       </c>
-      <c r="AP67" s="10"/>
+      <c r="AP67" s="10">
+        <v>0.23490316710714443</v>
+      </c>
       <c r="AQ67" s="10"/>
       <c r="AR67" s="10"/>
       <c r="AS67" s="10"/>
@@ -13692,7 +13799,9 @@
       <c r="AO68" s="10">
         <v>0.34728768978358793</v>
       </c>
-      <c r="AP68" s="10"/>
+      <c r="AP68" s="10">
+        <v>0.35202134360988624</v>
+      </c>
       <c r="AQ68" s="10"/>
       <c r="AR68" s="10"/>
       <c r="AS68" s="10"/>
@@ -13911,7 +14020,9 @@
       <c r="AO69" s="10">
         <v>8.5006091836938413E-2</v>
       </c>
-      <c r="AP69" s="10"/>
+      <c r="AP69" s="10">
+        <v>0.11325893855316371</v>
+      </c>
       <c r="AQ69" s="10"/>
       <c r="AR69" s="10"/>
       <c r="AS69" s="10"/>
@@ -14130,7 +14241,9 @@
       <c r="AO70" s="10">
         <v>8.5986989931281066E-2</v>
       </c>
-      <c r="AP70" s="10"/>
+      <c r="AP70" s="10">
+        <v>8.3233063039497734E-2</v>
+      </c>
       <c r="AQ70" s="10"/>
       <c r="AR70" s="10"/>
       <c r="AS70" s="10"/>
@@ -14349,7 +14462,9 @@
       <c r="AO71" s="10">
         <v>-0.16409956235579182</v>
       </c>
-      <c r="AP71" s="10"/>
+      <c r="AP71" s="10">
+        <v>-0.16203520906231705</v>
+      </c>
       <c r="AQ71" s="10"/>
       <c r="AR71" s="10"/>
       <c r="AS71" s="10"/>
@@ -14568,7 +14683,9 @@
       <c r="AO72" s="10">
         <v>0.1364565764305703</v>
       </c>
-      <c r="AP72" s="10"/>
+      <c r="AP72" s="10">
+        <v>0.13039791197504913</v>
+      </c>
       <c r="AQ72" s="10"/>
       <c r="AR72" s="10"/>
       <c r="AS72" s="10"/>
@@ -14787,7 +14904,9 @@
       <c r="AO73" s="10">
         <v>0.11071381683103332</v>
       </c>
-      <c r="AP73" s="10"/>
+      <c r="AP73" s="10">
+        <v>0.14858080115815264</v>
+      </c>
       <c r="AQ73" s="10"/>
       <c r="AR73" s="10"/>
       <c r="AS73" s="10"/>
@@ -15006,7 +15125,9 @@
       <c r="AO74" s="10">
         <v>7.0582182293109641E-2</v>
       </c>
-      <c r="AP74" s="10"/>
+      <c r="AP74" s="10">
+        <v>7.2254243729414691E-2</v>
+      </c>
       <c r="AQ74" s="10"/>
       <c r="AR74" s="10"/>
       <c r="AS74" s="10"/>
@@ -15225,7 +15346,9 @@
       <c r="AO75" s="10">
         <v>5.7198328552823918E-2</v>
       </c>
-      <c r="AP75" s="10"/>
+      <c r="AP75" s="10">
+        <v>8.21245239939008E-2</v>
+      </c>
       <c r="AQ75" s="10"/>
       <c r="AR75" s="10"/>
       <c r="AS75" s="10"/>
@@ -15444,7 +15567,9 @@
       <c r="AO76" s="10">
         <v>0.10212722801146024</v>
       </c>
-      <c r="AP76" s="10"/>
+      <c r="AP76" s="10">
+        <v>0.11037400575393463</v>
+      </c>
       <c r="AQ76" s="10"/>
       <c r="AR76" s="10"/>
       <c r="AS76" s="10"/>
@@ -15663,7 +15788,9 @@
       <c r="AO77" s="10">
         <v>0.16600201876458232</v>
       </c>
-      <c r="AP77" s="10"/>
+      <c r="AP77" s="10">
+        <v>0.19052435233160625</v>
+      </c>
       <c r="AQ77" s="10"/>
       <c r="AR77" s="10"/>
       <c r="AS77" s="10"/>
@@ -15882,7 +16009,9 @@
       <c r="AO78" s="10">
         <v>9.5126068810279296E-2</v>
       </c>
-      <c r="AP78" s="10"/>
+      <c r="AP78" s="10">
+        <v>0.11713510980696396</v>
+      </c>
       <c r="AQ78" s="10"/>
       <c r="AR78" s="10"/>
       <c r="AS78" s="10"/>
@@ -16101,7 +16230,9 @@
       <c r="AO79" s="10">
         <v>0.13743332543721354</v>
       </c>
-      <c r="AP79" s="10"/>
+      <c r="AP79" s="10">
+        <v>0.15247713290582987</v>
+      </c>
       <c r="AQ79" s="10"/>
       <c r="AR79" s="10"/>
       <c r="AS79" s="10"/>
@@ -16320,7 +16451,9 @@
       <c r="AO80" s="10">
         <v>0.10483709774135508</v>
       </c>
-      <c r="AP80" s="10"/>
+      <c r="AP80" s="10">
+        <v>0.12941689570612724</v>
+      </c>
       <c r="AQ80" s="10"/>
       <c r="AR80" s="10"/>
       <c r="AS80" s="10"/>
@@ -16539,7 +16672,9 @@
       <c r="AO81" s="10">
         <v>9.8112876467585375E-2</v>
       </c>
-      <c r="AP81" s="10"/>
+      <c r="AP81" s="10">
+        <v>8.668917857703784E-2</v>
+      </c>
       <c r="AQ81" s="10"/>
       <c r="AR81" s="10"/>
       <c r="AS81" s="10"/>
@@ -16758,7 +16893,9 @@
       <c r="AO82" s="10">
         <v>0.42317333203118657</v>
       </c>
-      <c r="AP82" s="10"/>
+      <c r="AP82" s="10">
+        <v>0.30865940514406032</v>
+      </c>
       <c r="AQ82" s="10"/>
       <c r="AR82" s="10"/>
       <c r="AS82" s="10"/>
@@ -16977,7 +17114,9 @@
       <c r="AO83" s="10">
         <v>5.1753681133043683E-2</v>
       </c>
-      <c r="AP83" s="10"/>
+      <c r="AP83" s="10">
+        <v>6.5699303071718562E-2</v>
+      </c>
       <c r="AQ83" s="10"/>
       <c r="AR83" s="10"/>
       <c r="AS83" s="10"/>
@@ -17196,7 +17335,9 @@
       <c r="AO84" s="10">
         <v>0.15921039842362439</v>
       </c>
-      <c r="AP84" s="10"/>
+      <c r="AP84" s="10">
+        <v>0.13343450451840799</v>
+      </c>
       <c r="AQ84" s="10"/>
       <c r="AR84" s="10"/>
       <c r="AS84" s="10"/>
@@ -17415,7 +17556,9 @@
       <c r="AO85" s="10">
         <v>4.3968849705454449E-2</v>
       </c>
-      <c r="AP85" s="10"/>
+      <c r="AP85" s="10">
+        <v>5.6864811355399114E-2</v>
+      </c>
       <c r="AQ85" s="10"/>
       <c r="AR85" s="10"/>
       <c r="AS85" s="10"/>
@@ -17634,7 +17777,9 @@
       <c r="AO86" s="10">
         <v>6.2986937154869027E-2</v>
       </c>
-      <c r="AP86" s="10"/>
+      <c r="AP86" s="10">
+        <v>7.388916208940044E-2</v>
+      </c>
       <c r="AQ86" s="10"/>
       <c r="AR86" s="10"/>
       <c r="AS86" s="10"/>
@@ -17853,7 +17998,9 @@
       <c r="AO87" s="10">
         <v>9.6355760052864836E-2</v>
       </c>
-      <c r="AP87" s="10"/>
+      <c r="AP87" s="10">
+        <v>9.0820542374532298E-2</v>
+      </c>
       <c r="AQ87" s="10"/>
       <c r="AR87" s="10"/>
       <c r="AS87" s="10"/>
@@ -18072,7 +18219,9 @@
       <c r="AO88" s="10">
         <v>0.12160598519551735</v>
       </c>
-      <c r="AP88" s="10"/>
+      <c r="AP88" s="10">
+        <v>0.16854635045202881</v>
+      </c>
       <c r="AQ88" s="10"/>
       <c r="AR88" s="10"/>
       <c r="AS88" s="10"/>
@@ -18291,7 +18440,9 @@
       <c r="AO89" s="10">
         <v>0.10775630588776841</v>
       </c>
-      <c r="AP89" s="10"/>
+      <c r="AP89" s="10">
+        <v>8.9411979002798514E-2</v>
+      </c>
       <c r="AQ89" s="10"/>
       <c r="AR89" s="10"/>
       <c r="AS89" s="10"/>
@@ -18510,7 +18661,9 @@
       <c r="AO90" s="10">
         <v>0.1097773365018393</v>
       </c>
-      <c r="AP90" s="10"/>
+      <c r="AP90" s="10">
+        <v>9.836385360025357E-2</v>
+      </c>
       <c r="AQ90" s="10"/>
       <c r="AR90" s="10"/>
       <c r="AS90" s="10"/>
@@ -18729,7 +18882,9 @@
       <c r="AO91" s="10">
         <v>0.17135475770818753</v>
       </c>
-      <c r="AP91" s="10"/>
+      <c r="AP91" s="10">
+        <v>0.1600723472668808</v>
+      </c>
       <c r="AQ91" s="10"/>
       <c r="AR91" s="10"/>
       <c r="AS91" s="10"/>
@@ -18948,7 +19103,9 @@
       <c r="AO92" s="10">
         <v>8.3954616347027278E-2</v>
       </c>
-      <c r="AP92" s="10"/>
+      <c r="AP92" s="10">
+        <v>7.5881175927350997E-2</v>
+      </c>
       <c r="AQ92" s="10"/>
       <c r="AR92" s="10"/>
       <c r="AS92" s="10"/>
@@ -19167,7 +19324,9 @@
       <c r="AO93" s="10">
         <v>7.6285695289385336E-2</v>
       </c>
-      <c r="AP93" s="10"/>
+      <c r="AP93" s="10">
+        <v>6.1974798561328814E-2</v>
+      </c>
       <c r="AQ93" s="10"/>
       <c r="AR93" s="10"/>
       <c r="AS93" s="10"/>
@@ -19386,7 +19545,9 @@
       <c r="AO94" s="10">
         <v>6.1709643838421702E-2</v>
       </c>
-      <c r="AP94" s="10"/>
+      <c r="AP94" s="10">
+        <v>6.2861579944365698E-2</v>
+      </c>
       <c r="AQ94" s="10"/>
       <c r="AR94" s="10"/>
       <c r="AS94" s="10"/>
@@ -19605,7 +19766,9 @@
       <c r="AO95" s="10">
         <v>8.1436983177809674E-2</v>
       </c>
-      <c r="AP95" s="10"/>
+      <c r="AP95" s="10">
+        <v>6.3343493467842737E-2</v>
+      </c>
       <c r="AQ95" s="10"/>
       <c r="AR95" s="10"/>
       <c r="AS95" s="10"/>
@@ -19824,7 +19987,9 @@
       <c r="AO96" s="10">
         <v>8.5489958491276719E-2</v>
       </c>
-      <c r="AP96" s="10"/>
+      <c r="AP96" s="10">
+        <v>7.5988725660429024E-2</v>
+      </c>
       <c r="AQ96" s="10"/>
       <c r="AR96" s="10"/>
       <c r="AS96" s="10"/>
@@ -20043,7 +20208,9 @@
       <c r="AO97" s="10">
         <v>9.2808800039521078E-2</v>
       </c>
-      <c r="AP97" s="10"/>
+      <c r="AP97" s="10">
+        <v>8.8671964420026894E-2</v>
+      </c>
       <c r="AQ97" s="10"/>
       <c r="AR97" s="10"/>
       <c r="AS97" s="10"/>
@@ -20262,7 +20429,9 @@
       <c r="AO98" s="10">
         <v>8.2424253165903183E-2</v>
       </c>
-      <c r="AP98" s="10"/>
+      <c r="AP98" s="10">
+        <v>8.9768083638486207E-2</v>
+      </c>
       <c r="AQ98" s="10"/>
       <c r="AR98" s="10"/>
       <c r="AS98" s="10"/>
@@ -20481,7 +20650,9 @@
       <c r="AO99" s="10">
         <v>0.13032190652252518</v>
       </c>
-      <c r="AP99" s="10"/>
+      <c r="AP99" s="10">
+        <v>0.16130817287257493</v>
+      </c>
       <c r="AQ99" s="10"/>
       <c r="AR99" s="10"/>
       <c r="AS99" s="10"/>
@@ -20700,7 +20871,9 @@
       <c r="AO100" s="10">
         <v>0.11001977696897169</v>
       </c>
-      <c r="AP100" s="10"/>
+      <c r="AP100" s="10">
+        <v>0.10636177122874635</v>
+      </c>
       <c r="AQ100" s="10"/>
       <c r="AR100" s="10"/>
       <c r="AS100" s="10"/>
@@ -20919,7 +21092,9 @@
       <c r="AO101" s="10">
         <v>8.0553503241888258E-2</v>
       </c>
-      <c r="AP101" s="10"/>
+      <c r="AP101" s="10">
+        <v>6.3592330838562416E-2</v>
+      </c>
       <c r="AQ101" s="10"/>
       <c r="AR101" s="10"/>
       <c r="AS101" s="10"/>
@@ -21138,7 +21313,9 @@
       <c r="AO102" s="10">
         <v>0.15649742259357846</v>
       </c>
-      <c r="AP102" s="10"/>
+      <c r="AP102" s="10">
+        <v>0.11813786780028335</v>
+      </c>
       <c r="AQ102" s="10"/>
       <c r="AR102" s="10"/>
       <c r="AS102" s="10"/>
@@ -21357,7 +21534,9 @@
       <c r="AO103" s="10">
         <v>0.1174239782396429</v>
       </c>
-      <c r="AP103" s="10"/>
+      <c r="AP103" s="10">
+        <v>0.14094838646881325</v>
+      </c>
       <c r="AQ103" s="10"/>
       <c r="AR103" s="10"/>
       <c r="AS103" s="10"/>
@@ -21576,7 +21755,9 @@
       <c r="AO104" s="10">
         <v>0.21136810335994349</v>
       </c>
-      <c r="AP104" s="10"/>
+      <c r="AP104" s="10">
+        <v>0.21511281554843986</v>
+      </c>
       <c r="AQ104" s="10"/>
       <c r="AR104" s="10"/>
       <c r="AS104" s="10"/>
@@ -21795,7 +21976,9 @@
       <c r="AO105" s="10">
         <v>8.7322739039793484E-2</v>
       </c>
-      <c r="AP105" s="10"/>
+      <c r="AP105" s="10">
+        <v>9.2668016773445494E-2</v>
+      </c>
       <c r="AQ105" s="10"/>
       <c r="AR105" s="10"/>
       <c r="AS105" s="10"/>
@@ -22014,7 +22197,9 @@
       <c r="AO106" s="10">
         <v>0.16342127483586366</v>
       </c>
-      <c r="AP106" s="10"/>
+      <c r="AP106" s="10">
+        <v>0.16733310451347161</v>
+      </c>
       <c r="AQ106" s="10"/>
       <c r="AR106" s="10"/>
       <c r="AS106" s="10"/>
@@ -22233,7 +22418,9 @@
       <c r="AO107" s="10">
         <v>0.33880454924094305</v>
       </c>
-      <c r="AP107" s="10"/>
+      <c r="AP107" s="10">
+        <v>0.40895568060112542</v>
+      </c>
       <c r="AQ107" s="10"/>
       <c r="AR107" s="10"/>
       <c r="AS107" s="10"/>
@@ -22452,7 +22639,9 @@
       <c r="AO108" s="10">
         <v>0.21556226064755712</v>
       </c>
-      <c r="AP108" s="10"/>
+      <c r="AP108" s="10">
+        <v>0.22139814950800418</v>
+      </c>
       <c r="AQ108" s="10"/>
       <c r="AR108" s="10"/>
       <c r="AS108" s="10"/>
@@ -22671,7 +22860,9 @@
       <c r="AO109" s="10">
         <v>0.2325777670605258</v>
       </c>
-      <c r="AP109" s="10"/>
+      <c r="AP109" s="10">
+        <v>0.27881601157463232</v>
+      </c>
       <c r="AQ109" s="10"/>
       <c r="AR109" s="10"/>
       <c r="AS109" s="10"/>
@@ -22890,7 +23081,9 @@
       <c r="AO110" s="10">
         <v>0.17479360052893922</v>
       </c>
-      <c r="AP110" s="10"/>
+      <c r="AP110" s="10">
+        <v>0.23348579661340585</v>
+      </c>
       <c r="AQ110" s="10"/>
       <c r="AR110" s="10"/>
       <c r="AS110" s="10"/>
@@ -23109,7 +23302,9 @@
       <c r="AO111" s="10">
         <v>0.14708833845022684</v>
       </c>
-      <c r="AP111" s="10"/>
+      <c r="AP111" s="10">
+        <v>0.18670203781533479</v>
+      </c>
       <c r="AQ111" s="10"/>
       <c r="AR111" s="10"/>
       <c r="AS111" s="10"/>
@@ -23328,7 +23523,9 @@
       <c r="AO112" s="10">
         <v>7.964964113103945E-2</v>
       </c>
-      <c r="AP112" s="10"/>
+      <c r="AP112" s="10">
+        <v>8.6844965949419706E-2</v>
+      </c>
       <c r="AQ112" s="10"/>
       <c r="AR112" s="10"/>
       <c r="AS112" s="10"/>
@@ -23547,7 +23744,9 @@
       <c r="AO113" s="10">
         <v>0.10887028646033325</v>
       </c>
-      <c r="AP113" s="10"/>
+      <c r="AP113" s="10">
+        <v>0.10559934455579256</v>
+      </c>
       <c r="AQ113" s="10"/>
       <c r="AR113" s="10"/>
       <c r="AS113" s="10"/>
@@ -23766,7 +23965,9 @@
       <c r="AO114" s="10">
         <v>7.1569247769866395E-2</v>
       </c>
-      <c r="AP114" s="10"/>
+      <c r="AP114" s="10">
+        <v>0.11637091347005279</v>
+      </c>
       <c r="AQ114" s="10"/>
       <c r="AR114" s="10"/>
       <c r="AS114" s="10"/>
@@ -23985,7 +24186,9 @@
       <c r="AO115" s="10">
         <v>0.16806018004686152</v>
       </c>
-      <c r="AP115" s="10"/>
+      <c r="AP115" s="10">
+        <v>0.15666916101415351</v>
+      </c>
       <c r="AQ115" s="10"/>
       <c r="AR115" s="10"/>
       <c r="AS115" s="10"/>
@@ -24204,7 +24407,9 @@
       <c r="AO116" s="10">
         <v>9.7518380747803945E-2</v>
       </c>
-      <c r="AP116" s="10"/>
+      <c r="AP116" s="10">
+        <v>9.5197825430383576E-2</v>
+      </c>
       <c r="AQ116" s="10"/>
       <c r="AR116" s="10"/>
       <c r="AS116" s="10"/>
@@ -24423,7 +24628,9 @@
       <c r="AO117" s="10">
         <v>5.3105200863329483E-2</v>
       </c>
-      <c r="AP117" s="10"/>
+      <c r="AP117" s="10">
+        <v>1.0631509967579555E-2</v>
+      </c>
       <c r="AQ117" s="10"/>
       <c r="AR117" s="10"/>
       <c r="AS117" s="10"/>
@@ -24642,7 +24849,9 @@
       <c r="AO118" s="10">
         <v>9.8150472405257538E-2</v>
       </c>
-      <c r="AP118" s="10"/>
+      <c r="AP118" s="10">
+        <v>8.2926788378681948E-2</v>
+      </c>
       <c r="AQ118" s="10"/>
       <c r="AR118" s="10"/>
       <c r="AS118" s="10"/>
@@ -24861,7 +25070,9 @@
       <c r="AO119" s="10">
         <v>0.20167750999314293</v>
       </c>
-      <c r="AP119" s="10"/>
+      <c r="AP119" s="10">
+        <v>0.1920174985868417</v>
+      </c>
       <c r="AQ119" s="10"/>
       <c r="AR119" s="10"/>
       <c r="AS119" s="10"/>
@@ -25080,7 +25291,9 @@
       <c r="AO120" s="10">
         <v>0.11050927288784229</v>
       </c>
-      <c r="AP120" s="10"/>
+      <c r="AP120" s="10">
+        <v>9.1918651324591982E-2</v>
+      </c>
       <c r="AQ120" s="10"/>
       <c r="AR120" s="10"/>
       <c r="AS120" s="10"/>
@@ -25299,7 +25512,9 @@
       <c r="AO121" s="10">
         <v>0.16572015743552582</v>
       </c>
-      <c r="AP121" s="10"/>
+      <c r="AP121" s="10">
+        <v>0.13304888566111384</v>
+      </c>
       <c r="AQ121" s="10"/>
       <c r="AR121" s="10"/>
       <c r="AS121" s="10"/>
@@ -25518,7 +25733,9 @@
       <c r="AO122" s="10">
         <v>0.10385489880782561</v>
       </c>
-      <c r="AP122" s="10"/>
+      <c r="AP122" s="10">
+        <v>0.12700724923308937</v>
+      </c>
       <c r="AQ122" s="10"/>
       <c r="AR122" s="10"/>
       <c r="AS122" s="10"/>
@@ -25737,7 +25954,9 @@
       <c r="AO123" s="10">
         <v>6.7620673055883707E-2</v>
       </c>
-      <c r="AP123" s="10"/>
+      <c r="AP123" s="10">
+        <v>0.11673824284164769</v>
+      </c>
       <c r="AQ123" s="10"/>
       <c r="AR123" s="10"/>
       <c r="AS123" s="10"/>
@@ -25956,7 +26175,9 @@
       <c r="AO124" s="10">
         <v>4.1221196922912151E-2</v>
       </c>
-      <c r="AP124" s="10"/>
+      <c r="AP124" s="10">
+        <v>5.1341119325690299E-2</v>
+      </c>
       <c r="AQ124" s="10"/>
       <c r="AR124" s="10"/>
       <c r="AS124" s="10"/>
@@ -26175,7 +26396,9 @@
       <c r="AO125" s="10">
         <v>0.15542910016192457</v>
       </c>
-      <c r="AP125" s="10"/>
+      <c r="AP125" s="10">
+        <v>0.17313600565519627</v>
+      </c>
       <c r="AQ125" s="10"/>
       <c r="AR125" s="10"/>
       <c r="AS125" s="10"/>
@@ -26394,7 +26617,9 @@
       <c r="AO126" s="10">
         <v>0.13392270380222193</v>
       </c>
-      <c r="AP126" s="10"/>
+      <c r="AP126" s="10">
+        <v>0.13256784151658185</v>
+      </c>
       <c r="AQ126" s="10"/>
       <c r="AR126" s="10"/>
       <c r="AS126" s="10"/>
@@ -26613,7 +26838,9 @@
       <c r="AO127" s="10">
         <v>0.14190321434012088</v>
       </c>
-      <c r="AP127" s="10"/>
+      <c r="AP127" s="10">
+        <v>0.15965868729834032</v>
+      </c>
       <c r="AQ127" s="10"/>
       <c r="AR127" s="10"/>
       <c r="AS127" s="10"/>
@@ -26832,7 +27059,9 @@
       <c r="AO128" s="10">
         <v>5.4210137059591768E-2</v>
       </c>
-      <c r="AP128" s="10"/>
+      <c r="AP128" s="10">
+        <v>5.4210137059591768E-2</v>
+      </c>
       <c r="AQ128" s="10"/>
       <c r="AR128" s="10"/>
       <c r="AS128" s="10"/>
@@ -27051,7 +27280,9 @@
       <c r="AO129" s="10">
         <v>3.806144815544088E-2</v>
       </c>
-      <c r="AP129" s="10"/>
+      <c r="AP129" s="10">
+        <v>3.806144815544088E-2</v>
+      </c>
       <c r="AQ129" s="10"/>
       <c r="AR129" s="10"/>
       <c r="AS129" s="10"/>
@@ -27270,7 +27501,9 @@
       <c r="AO130" s="10">
         <v>-5.0554315902736735E-2</v>
       </c>
-      <c r="AP130" s="10"/>
+      <c r="AP130" s="10">
+        <v>-1.7679447755372335E-2</v>
+      </c>
       <c r="AQ130" s="10"/>
       <c r="AR130" s="10"/>
       <c r="AS130" s="10"/>
@@ -27489,7 +27722,9 @@
       <c r="AO131" s="10">
         <v>8.183370663096734E-2</v>
       </c>
-      <c r="AP131" s="10"/>
+      <c r="AP131" s="10">
+        <v>0.14692768382449928</v>
+      </c>
       <c r="AQ131" s="10"/>
       <c r="AR131" s="10"/>
       <c r="AS131" s="10"/>
@@ -27708,7 +27943,9 @@
       <c r="AO132" s="10">
         <v>1.7282246419587199E-2</v>
       </c>
-      <c r="AP132" s="10"/>
+      <c r="AP132" s="10">
+        <v>8.5625534596858177E-3</v>
+      </c>
       <c r="AQ132" s="10"/>
       <c r="AR132" s="10"/>
       <c r="AS132" s="10"/>
@@ -27927,7 +28164,9 @@
       <c r="AO133" s="10">
         <v>4.9580190165514404E-2</v>
       </c>
-      <c r="AP133" s="10"/>
+      <c r="AP133" s="10">
+        <v>2.7339852324885117E-2</v>
+      </c>
       <c r="AQ133" s="10"/>
       <c r="AR133" s="10"/>
       <c r="AS133" s="10"/>
@@ -28146,7 +28385,9 @@
       <c r="AO134" s="10">
         <v>2.0304029854705918E-2</v>
       </c>
-      <c r="AP134" s="10"/>
+      <c r="AP134" s="10">
+        <v>1.7254452477517113E-2</v>
+      </c>
       <c r="AQ134" s="10"/>
       <c r="AR134" s="10"/>
       <c r="AS134" s="10"/>
@@ -28365,7 +28606,9 @@
       <c r="AO135" s="10">
         <v>4.2831268441595016E-2</v>
       </c>
-      <c r="AP135" s="10"/>
+      <c r="AP135" s="10">
+        <v>4.597166813171949E-2</v>
+      </c>
       <c r="AQ135" s="10"/>
       <c r="AR135" s="10"/>
       <c r="AS135" s="10"/>
@@ -28584,7 +28827,9 @@
       <c r="AO136" s="10">
         <v>3.3770522984878593E-2</v>
       </c>
-      <c r="AP136" s="10"/>
+      <c r="AP136" s="10">
+        <v>4.1343142995341253E-2</v>
+      </c>
       <c r="AQ136" s="10"/>
       <c r="AR136" s="10"/>
       <c r="AS136" s="10"/>
@@ -28803,7 +29048,9 @@
       <c r="AO137" s="10">
         <v>2.1538385363800705E-2</v>
       </c>
-      <c r="AP137" s="10"/>
+      <c r="AP137" s="10">
+        <v>2.1336471130347423E-2</v>
+      </c>
       <c r="AQ137" s="10"/>
       <c r="AR137" s="10"/>
       <c r="AS137" s="10"/>
@@ -29022,7 +29269,9 @@
       <c r="AO138" s="10">
         <v>1.2530017988639619E-2</v>
       </c>
-      <c r="AP138" s="10"/>
+      <c r="AP138" s="10">
+        <v>1.4106416828707724E-2</v>
+      </c>
       <c r="AQ138" s="10"/>
       <c r="AR138" s="10"/>
       <c r="AS138" s="10"/>
@@ -29241,7 +29490,9 @@
       <c r="AO139" s="10">
         <v>3.572511189172789E-2</v>
       </c>
-      <c r="AP139" s="10"/>
+      <c r="AP139" s="10">
+        <v>2.6215380277222033E-2</v>
+      </c>
       <c r="AQ139" s="10"/>
       <c r="AR139" s="10"/>
       <c r="AS139" s="10"/>
@@ -29460,7 +29711,9 @@
       <c r="AO140" s="10">
         <v>6.1260411490748679E-2</v>
       </c>
-      <c r="AP140" s="10"/>
+      <c r="AP140" s="10">
+        <v>7.1039910915394966E-2</v>
+      </c>
       <c r="AQ140" s="10"/>
       <c r="AR140" s="10"/>
       <c r="AS140" s="10"/>
@@ -29679,7 +29932,9 @@
       <c r="AO141" s="10">
         <v>-5.7944744166867013E-2</v>
       </c>
-      <c r="AP141" s="10"/>
+      <c r="AP141" s="10">
+        <v>-4.7356235422771675E-2</v>
+      </c>
       <c r="AQ141" s="10"/>
       <c r="AR141" s="10"/>
       <c r="AS141" s="10"/>
@@ -29898,7 +30153,9 @@
       <c r="AO142" s="10">
         <v>1.5183959509441403E-2</v>
       </c>
-      <c r="AP142" s="10"/>
+      <c r="AP142" s="10">
+        <v>2.7172594497548719E-3</v>
+      </c>
       <c r="AQ142" s="10"/>
       <c r="AR142" s="10"/>
       <c r="AS142" s="10"/>
@@ -30117,7 +30374,9 @@
       <c r="AO143" s="10">
         <v>0.14045879197114042</v>
       </c>
-      <c r="AP143" s="10"/>
+      <c r="AP143" s="10">
+        <v>6.6987053746567327E-2</v>
+      </c>
       <c r="AQ143" s="10"/>
       <c r="AR143" s="10"/>
       <c r="AS143" s="10"/>
@@ -30336,7 +30595,9 @@
       <c r="AO144" s="10">
         <v>0.14312452797145392</v>
       </c>
-      <c r="AP144" s="10"/>
+      <c r="AP144" s="10">
+        <v>3.7052676026601894E-2</v>
+      </c>
       <c r="AQ144" s="10"/>
       <c r="AR144" s="10"/>
       <c r="AS144" s="10"/>
@@ -30555,7 +30816,9 @@
       <c r="AO145" s="10">
         <v>8.4246293245469506E-2</v>
       </c>
-      <c r="AP145" s="10"/>
+      <c r="AP145" s="10">
+        <v>9.8110450569466989E-2</v>
+      </c>
       <c r="AQ145" s="10"/>
       <c r="AR145" s="10"/>
       <c r="AS145" s="10"/>
@@ -30774,7 +31037,9 @@
       <c r="AO146" s="10">
         <v>0.18966519695721695</v>
       </c>
-      <c r="AP146" s="10"/>
+      <c r="AP146" s="10">
+        <v>0.18302457603625544</v>
+      </c>
       <c r="AQ146" s="10"/>
       <c r="AR146" s="10"/>
       <c r="AS146" s="10"/>
@@ -30993,7 +31258,9 @@
       <c r="AO147" s="10">
         <v>0.10420441924358448</v>
       </c>
-      <c r="AP147" s="10"/>
+      <c r="AP147" s="10">
+        <v>9.3021903328753375E-2</v>
+      </c>
       <c r="AQ147" s="10"/>
       <c r="AR147" s="10"/>
       <c r="AS147" s="10"/>
@@ -31212,7 +31479,9 @@
       <c r="AO148" s="10">
         <v>0.10776683534083764</v>
       </c>
-      <c r="AP148" s="10"/>
+      <c r="AP148" s="10">
+        <v>0.1006678855266594</v>
+      </c>
       <c r="AQ148" s="10"/>
       <c r="AR148" s="10"/>
       <c r="AS148" s="10"/>
@@ -31431,7 +31700,9 @@
       <c r="AO149" s="10">
         <v>6.6352667587880498E-2</v>
       </c>
-      <c r="AP149" s="10"/>
+      <c r="AP149" s="10">
+        <v>6.0826355019784728E-2</v>
+      </c>
       <c r="AQ149" s="10"/>
       <c r="AR149" s="10"/>
       <c r="AS149" s="10"/>
@@ -31650,7 +31921,9 @@
       <c r="AO150" s="10">
         <v>0.10841315040124244</v>
       </c>
-      <c r="AP150" s="10"/>
+      <c r="AP150" s="10">
+        <v>0.10603506231576776</v>
+      </c>
       <c r="AQ150" s="10"/>
       <c r="AR150" s="10"/>
       <c r="AS150" s="10"/>
@@ -31869,7 +32142,9 @@
       <c r="AO151" s="10">
         <v>0.20132055169715346</v>
       </c>
-      <c r="AP151" s="10"/>
+      <c r="AP151" s="10">
+        <v>0.2431684685451605</v>
+      </c>
       <c r="AQ151" s="10"/>
       <c r="AR151" s="10"/>
       <c r="AS151" s="10"/>
@@ -32088,7 +32363,9 @@
       <c r="AO152" s="10">
         <v>0.11089097701800066</v>
       </c>
-      <c r="AP152" s="10"/>
+      <c r="AP152" s="10">
+        <v>0.12487797621814578</v>
+      </c>
       <c r="AQ152" s="10"/>
       <c r="AR152" s="10"/>
       <c r="AS152" s="10"/>
@@ -32307,7 +32584,9 @@
       <c r="AO153" s="10">
         <v>1.488270986846052E-2</v>
       </c>
-      <c r="AP153" s="10"/>
+      <c r="AP153" s="10">
+        <v>4.8131244383946781E-2</v>
+      </c>
       <c r="AQ153" s="10"/>
       <c r="AR153" s="10"/>
       <c r="AS153" s="10"/>
@@ -32526,7 +32805,9 @@
       <c r="AO154" s="10">
         <v>8.1105019765793873E-2</v>
       </c>
-      <c r="AP154" s="10"/>
+      <c r="AP154" s="10">
+        <v>8.2885805922279454E-2</v>
+      </c>
       <c r="AQ154" s="10"/>
       <c r="AR154" s="10"/>
       <c r="AS154" s="10"/>
@@ -32745,7 +33026,9 @@
       <c r="AO155" s="10">
         <v>6.2186678312452726E-2</v>
       </c>
-      <c r="AP155" s="10"/>
+      <c r="AP155" s="10">
+        <v>6.9583826609598276E-2</v>
+      </c>
       <c r="AQ155" s="10"/>
       <c r="AR155" s="10"/>
       <c r="AS155" s="10"/>
@@ -32964,7 +33247,9 @@
       <c r="AO156" s="10">
         <v>-8.2201963679162438E-2</v>
       </c>
-      <c r="AP156" s="10"/>
+      <c r="AP156" s="10">
+        <v>-8.5572559149522998E-2</v>
+      </c>
       <c r="AQ156" s="10"/>
       <c r="AR156" s="10"/>
       <c r="AS156" s="10"/>
@@ -33183,7 +33468,9 @@
       <c r="AO157" s="10">
         <v>0</v>
       </c>
-      <c r="AP157" s="10"/>
+      <c r="AP157" s="10">
+        <v>0</v>
+      </c>
       <c r="AQ157" s="10"/>
       <c r="AR157" s="10"/>
       <c r="AS157" s="10"/>
@@ -33402,7 +33689,9 @@
       <c r="AO158" s="10">
         <v>-5.2255313124878411E-2</v>
       </c>
-      <c r="AP158" s="10"/>
+      <c r="AP158" s="10">
+        <v>-5.4458424023641427E-2</v>
+      </c>
       <c r="AQ158" s="10"/>
       <c r="AR158" s="10"/>
       <c r="AS158" s="10"/>
@@ -33621,7 +33910,9 @@
       <c r="AO159" s="10">
         <v>0.18639746238083288</v>
       </c>
-      <c r="AP159" s="10"/>
+      <c r="AP159" s="10">
+        <v>0.16733850392897232</v>
+      </c>
       <c r="AQ159" s="10"/>
       <c r="AR159" s="10"/>
       <c r="AS159" s="10"/>
@@ -33840,7 +34131,9 @@
       <c r="AO160" s="10">
         <v>0.13498872075216939</v>
       </c>
-      <c r="AP160" s="10"/>
+      <c r="AP160" s="10">
+        <v>0.12957334509861584</v>
+      </c>
       <c r="AQ160" s="10"/>
       <c r="AR160" s="10"/>
       <c r="AS160" s="10"/>
@@ -34059,7 +34352,9 @@
       <c r="AO161" s="10">
         <v>6.4367576578453711E-2</v>
       </c>
-      <c r="AP161" s="10"/>
+      <c r="AP161" s="10">
+        <v>7.3687815204532603E-2</v>
+      </c>
       <c r="AQ161" s="10"/>
       <c r="AR161" s="10"/>
       <c r="AS161" s="10"/>
@@ -34278,7 +34573,9 @@
       <c r="AO162" s="10">
         <v>-6.9398316595120635E-3</v>
       </c>
-      <c r="AP162" s="10"/>
+      <c r="AP162" s="10">
+        <v>-7.3264794233991459E-3</v>
+      </c>
       <c r="AQ162" s="10"/>
       <c r="AR162" s="10"/>
       <c r="AS162" s="10"/>
@@ -34497,7 +34794,9 @@
       <c r="AO163" s="10">
         <v>0.10157631174298798</v>
       </c>
-      <c r="AP163" s="10"/>
+      <c r="AP163" s="10">
+        <v>-2.55831176354131E-2</v>
+      </c>
       <c r="AQ163" s="10"/>
       <c r="AR163" s="10"/>
       <c r="AS163" s="10"/>
@@ -34716,7 +35015,9 @@
       <c r="AO164" s="10">
         <v>2.3613046678045091E-2</v>
       </c>
-      <c r="AP164" s="10"/>
+      <c r="AP164" s="10">
+        <v>1.0011939413330229E-2</v>
+      </c>
       <c r="AQ164" s="10"/>
       <c r="AR164" s="10"/>
       <c r="AS164" s="10"/>
@@ -34935,7 +35236,9 @@
       <c r="AO165" s="10">
         <v>0.14132818750882481</v>
       </c>
-      <c r="AP165" s="10"/>
+      <c r="AP165" s="10">
+        <v>0.13272040160189524</v>
+      </c>
       <c r="AQ165" s="10"/>
       <c r="AR165" s="10"/>
       <c r="AS165" s="10"/>
@@ -35154,7 +35457,9 @@
       <c r="AO166" s="10">
         <v>5.2676685480799179E-2</v>
       </c>
-      <c r="AP166" s="10"/>
+      <c r="AP166" s="10">
+        <v>5.4899904589174708E-2</v>
+      </c>
       <c r="AQ166" s="10"/>
       <c r="AR166" s="10"/>
       <c r="AS166" s="10"/>
@@ -35373,7 +35678,9 @@
       <c r="AO167" s="10">
         <v>0.13448721774594663</v>
       </c>
-      <c r="AP167" s="10"/>
+      <c r="AP167" s="10">
+        <v>0.19055059970980404</v>
+      </c>
       <c r="AQ167" s="10"/>
       <c r="AR167" s="10"/>
       <c r="AS167" s="10"/>
@@ -35592,7 +35899,9 @@
       <c r="AO168" s="10">
         <v>7.7755698207891966E-2</v>
       </c>
-      <c r="AP168" s="10"/>
+      <c r="AP168" s="10">
+        <v>0.11140143618253417</v>
+      </c>
       <c r="AQ168" s="10"/>
       <c r="AR168" s="10"/>
       <c r="AS168" s="10"/>
@@ -35811,7 +36120,9 @@
       <c r="AO169" s="10">
         <v>1.893931364860002E-2</v>
       </c>
-      <c r="AP169" s="10"/>
+      <c r="AP169" s="10">
+        <v>9.2747406661706222E-2</v>
+      </c>
       <c r="AQ169" s="10"/>
       <c r="AR169" s="10"/>
       <c r="AS169" s="10"/>
@@ -36030,7 +36341,9 @@
       <c r="AO170" s="10">
         <v>0.16388607411696565</v>
       </c>
-      <c r="AP170" s="10"/>
+      <c r="AP170" s="10">
+        <v>0.15634952229299359</v>
+      </c>
       <c r="AQ170" s="10"/>
       <c r="AR170" s="10"/>
       <c r="AS170" s="10"/>
@@ -36249,7 +36562,9 @@
       <c r="AO171" s="10">
         <v>1.6684326222069501E-3</v>
       </c>
-      <c r="AP171" s="10"/>
+      <c r="AP171" s="10">
+        <v>-1.6235429490158992E-3</v>
+      </c>
       <c r="AQ171" s="10"/>
       <c r="AR171" s="10"/>
       <c r="AS171" s="10"/>
@@ -36468,7 +36783,9 @@
       <c r="AO172" s="10">
         <v>3.2721590474815487E-2</v>
       </c>
-      <c r="AP172" s="10"/>
+      <c r="AP172" s="10">
+        <v>3.8173773471138261E-2</v>
+      </c>
       <c r="AQ172" s="10"/>
       <c r="AR172" s="10"/>
       <c r="AS172" s="10"/>
@@ -36687,7 +37004,9 @@
       <c r="AO173" s="10">
         <v>0.1009167669710489</v>
       </c>
-      <c r="AP173" s="10"/>
+      <c r="AP173" s="10">
+        <v>0.12018855984665744</v>
+      </c>
       <c r="AQ173" s="10"/>
       <c r="AR173" s="10"/>
       <c r="AS173" s="10"/>
@@ -36906,7 +37225,9 @@
       <c r="AO174" s="10">
         <v>2.9355909341000519E-2</v>
       </c>
-      <c r="AP174" s="10"/>
+      <c r="AP174" s="10">
+        <v>5.5281316111294609E-2</v>
+      </c>
       <c r="AQ174" s="10"/>
       <c r="AR174" s="10"/>
       <c r="AS174" s="10"/>
@@ -37125,7 +37446,9 @@
       <c r="AO175" s="10">
         <v>7.7508416339846731E-2</v>
       </c>
-      <c r="AP175" s="10"/>
+      <c r="AP175" s="10">
+        <v>9.2131891137473776E-2</v>
+      </c>
       <c r="AQ175" s="10"/>
       <c r="AR175" s="10"/>
       <c r="AS175" s="10"/>
@@ -37344,7 +37667,9 @@
       <c r="AO176" s="10">
         <v>0.11597692451328223</v>
       </c>
-      <c r="AP176" s="10"/>
+      <c r="AP176" s="10">
+        <v>9.8100866594854841E-2</v>
+      </c>
       <c r="AQ176" s="10"/>
       <c r="AR176" s="10"/>
       <c r="AS176" s="10"/>
@@ -37563,7 +37888,9 @@
       <c r="AO177" s="10">
         <v>1.6325000936926015E-2</v>
       </c>
-      <c r="AP177" s="10"/>
+      <c r="AP177" s="10">
+        <v>2.1390213902139132E-2</v>
+      </c>
       <c r="AQ177" s="10"/>
       <c r="AR177" s="10"/>
       <c r="AS177" s="10"/>
@@ -37782,7 +38109,9 @@
       <c r="AO178" s="10">
         <v>9.7080101400574437E-2</v>
       </c>
-      <c r="AP178" s="10"/>
+      <c r="AP178" s="10">
+        <v>0.10815593914079158</v>
+      </c>
       <c r="AQ178" s="10"/>
       <c r="AR178" s="10"/>
       <c r="AS178" s="10"/>
@@ -38001,7 +38330,9 @@
       <c r="AO179" s="10">
         <v>7.1530800882581014E-2</v>
       </c>
-      <c r="AP179" s="10"/>
+      <c r="AP179" s="10">
+        <v>7.4988630178860261E-2</v>
+      </c>
       <c r="AQ179" s="10"/>
       <c r="AR179" s="10"/>
       <c r="AS179" s="10"/>
@@ -38220,7 +38551,9 @@
       <c r="AO180" s="10">
         <v>0.14807831014940764</v>
       </c>
-      <c r="AP180" s="10"/>
+      <c r="AP180" s="10">
+        <v>0.13304836802025188</v>
+      </c>
       <c r="AQ180" s="10"/>
       <c r="AR180" s="10"/>
       <c r="AS180" s="10"/>
@@ -38439,7 +38772,9 @@
       <c r="AO181" s="10">
         <v>0.11607631484591741</v>
       </c>
-      <c r="AP181" s="10"/>
+      <c r="AP181" s="10">
+        <v>8.6314880799324145E-2</v>
+      </c>
       <c r="AQ181" s="10"/>
       <c r="AR181" s="10"/>
       <c r="AS181" s="10"/>
@@ -38658,7 +38993,9 @@
       <c r="AO182" s="10">
         <v>0.22234468047284683</v>
       </c>
-      <c r="AP182" s="10"/>
+      <c r="AP182" s="10">
+        <v>0.20481293740024209</v>
+      </c>
       <c r="AQ182" s="10"/>
       <c r="AR182" s="10"/>
       <c r="AS182" s="10"/>
@@ -38877,7 +39214,9 @@
       <c r="AO183" s="10">
         <v>9.5459656785254587E-2</v>
       </c>
-      <c r="AP183" s="10"/>
+      <c r="AP183" s="10">
+        <v>9.6502466209723803E-2</v>
+      </c>
       <c r="AQ183" s="10"/>
       <c r="AR183" s="10"/>
       <c r="AS183" s="10"/>
@@ -39096,7 +39435,9 @@
       <c r="AO184" s="10">
         <v>7.5174915973556855E-2</v>
       </c>
-      <c r="AP184" s="10"/>
+      <c r="AP184" s="10">
+        <v>0.12055752391952423</v>
+      </c>
       <c r="AQ184" s="10"/>
       <c r="AR184" s="10"/>
       <c r="AS184" s="10"/>
@@ -39315,7 +39656,9 @@
       <c r="AO185" s="10">
         <v>-4.9468940779153203E-2</v>
       </c>
-      <c r="AP185" s="10"/>
+      <c r="AP185" s="10">
+        <v>-3.9535999040824832E-2</v>
+      </c>
       <c r="AQ185" s="10"/>
       <c r="AR185" s="10"/>
       <c r="AS185" s="10"/>
@@ -39534,7 +39877,9 @@
       <c r="AO186" s="10">
         <v>0.10797793054350491</v>
       </c>
-      <c r="AP186" s="10"/>
+      <c r="AP186" s="10">
+        <v>9.0121469019375899E-2</v>
+      </c>
       <c r="AQ186" s="10"/>
       <c r="AR186" s="10"/>
       <c r="AS186" s="10"/>
@@ -39753,7 +40098,9 @@
       <c r="AO187" s="10">
         <v>8.6420134172943142E-2</v>
       </c>
-      <c r="AP187" s="10"/>
+      <c r="AP187" s="10">
+        <v>3.807853634023517E-2</v>
+      </c>
       <c r="AQ187" s="10"/>
       <c r="AR187" s="10"/>
       <c r="AS187" s="10"/>
@@ -39972,7 +40319,9 @@
       <c r="AO188" s="10">
         <v>-0.1203422514231608</v>
       </c>
-      <c r="AP188" s="10"/>
+      <c r="AP188" s="10">
+        <v>-0.16052526580139415</v>
+      </c>
       <c r="AQ188" s="10"/>
       <c r="AR188" s="10"/>
       <c r="AS188" s="10"/>
@@ -40191,7 +40540,9 @@
       <c r="AO189" s="10">
         <v>7.2116364954573298E-2</v>
       </c>
-      <c r="AP189" s="10"/>
+      <c r="AP189" s="10">
+        <v>5.3287051412855613E-2</v>
+      </c>
       <c r="AQ189" s="10"/>
       <c r="AR189" s="10"/>
       <c r="AS189" s="10"/>
@@ -40410,7 +40761,9 @@
       <c r="AO190" s="10">
         <v>-2.4604904905910607E-2</v>
       </c>
-      <c r="AP190" s="10"/>
+      <c r="AP190" s="10">
+        <v>-3.5659709460897249E-2</v>
+      </c>
       <c r="AQ190" s="10"/>
       <c r="AR190" s="10"/>
       <c r="AS190" s="10"/>
@@ -40629,7 +40982,9 @@
       <c r="AO191" s="10">
         <v>0.20610987506417944</v>
       </c>
-      <c r="AP191" s="10"/>
+      <c r="AP191" s="10">
+        <v>0.18509044705252964</v>
+      </c>
       <c r="AQ191" s="10"/>
       <c r="AR191" s="10"/>
       <c r="AS191" s="10"/>
@@ -40848,7 +41203,9 @@
       <c r="AO192" s="10">
         <v>2.4942375605320422E-2</v>
       </c>
-      <c r="AP192" s="10"/>
+      <c r="AP192" s="10">
+        <v>7.6407782776001465E-2</v>
+      </c>
       <c r="AQ192" s="10"/>
       <c r="AR192" s="10"/>
       <c r="AS192" s="10"/>
@@ -41067,7 +41424,9 @@
       <c r="AO193" s="10">
         <v>-3.5975253602889445E-2</v>
       </c>
-      <c r="AP193" s="10"/>
+      <c r="AP193" s="10">
+        <v>-5.6987178748747258E-2</v>
+      </c>
       <c r="AQ193" s="10"/>
       <c r="AR193" s="10"/>
       <c r="AS193" s="10"/>
@@ -41286,7 +41645,9 @@
       <c r="AO194" s="10">
         <v>6.4118119201836743E-2</v>
       </c>
-      <c r="AP194" s="10"/>
+      <c r="AP194" s="10">
+        <v>0.12981360866824754</v>
+      </c>
       <c r="AQ194" s="10"/>
       <c r="AR194" s="10"/>
       <c r="AS194" s="10"/>
@@ -41505,7 +41866,9 @@
       <c r="AO195" s="10">
         <v>9.3030768778940676E-2</v>
       </c>
-      <c r="AP195" s="10"/>
+      <c r="AP195" s="10">
+        <v>6.7312090257661161E-2</v>
+      </c>
       <c r="AQ195" s="10"/>
       <c r="AR195" s="10"/>
       <c r="AS195" s="10"/>
@@ -41724,7 +42087,9 @@
       <c r="AO196" s="10">
         <v>7.2018377103122866E-2</v>
       </c>
-      <c r="AP196" s="10"/>
+      <c r="AP196" s="10">
+        <v>0.11211078847442479</v>
+      </c>
       <c r="AQ196" s="10"/>
       <c r="AR196" s="10"/>
       <c r="AS196" s="10"/>
@@ -41943,7 +42308,9 @@
       <c r="AO197" s="10">
         <v>5.2583741830065422E-2</v>
       </c>
-      <c r="AP197" s="10"/>
+      <c r="AP197" s="10">
+        <v>8.1366224684870758E-2</v>
+      </c>
       <c r="AQ197" s="10"/>
       <c r="AR197" s="10"/>
       <c r="AS197" s="10"/>
@@ -42162,7 +42529,9 @@
       <c r="AO198" s="10">
         <v>-4.5048683088795283E-3</v>
       </c>
-      <c r="AP198" s="10"/>
+      <c r="AP198" s="10">
+        <v>-3.3592307486464024E-2</v>
+      </c>
       <c r="AQ198" s="10"/>
       <c r="AR198" s="10"/>
       <c r="AS198" s="10"/>
@@ -42381,7 +42750,9 @@
       <c r="AO199" s="10">
         <v>0.31240188383045542</v>
       </c>
-      <c r="AP199" s="10"/>
+      <c r="AP199" s="10">
+        <v>0.31802148711884626</v>
+      </c>
       <c r="AQ199" s="10"/>
       <c r="AR199" s="10"/>
       <c r="AS199" s="10"/>
@@ -42600,7 +42971,9 @@
       <c r="AO200" s="10">
         <v>0.19414389981634272</v>
       </c>
-      <c r="AP200" s="10"/>
+      <c r="AP200" s="10">
+        <v>2.0811798507280432E-2</v>
+      </c>
       <c r="AQ200" s="10"/>
       <c r="AR200" s="10"/>
       <c r="AS200" s="10"/>
@@ -42819,7 +43192,9 @@
       <c r="AO201" s="10">
         <v>2.4209557496571277E-2</v>
       </c>
-      <c r="AP201" s="10"/>
+      <c r="AP201" s="10">
+        <v>7.790833658183427E-2</v>
+      </c>
       <c r="AQ201" s="10"/>
       <c r="AR201" s="10"/>
       <c r="AS201" s="10"/>
@@ -43038,7 +43413,9 @@
       <c r="AO202" s="10">
         <v>0.13872904344732495</v>
       </c>
-      <c r="AP202" s="10"/>
+      <c r="AP202" s="10">
+        <v>0.14780095728348241</v>
+      </c>
       <c r="AQ202" s="10"/>
       <c r="AR202" s="10"/>
       <c r="AS202" s="10"/>
@@ -43257,7 +43634,9 @@
       <c r="AO203" s="10">
         <v>2.3729019281453878E-2</v>
       </c>
-      <c r="AP203" s="10"/>
+      <c r="AP203" s="10">
+        <v>2.0650078850534381E-2</v>
+      </c>
       <c r="AQ203" s="10"/>
       <c r="AR203" s="10"/>
       <c r="AS203" s="10"/>
@@ -43476,7 +43855,9 @@
       <c r="AO204" s="10">
         <v>9.4935862579224706E-2</v>
       </c>
-      <c r="AP204" s="10"/>
+      <c r="AP204" s="10">
+        <v>7.0680372001957981E-2</v>
+      </c>
       <c r="AQ204" s="10"/>
       <c r="AR204" s="10"/>
       <c r="AS204" s="10"/>
@@ -43695,7 +44076,9 @@
       <c r="AO205" s="10">
         <v>2.9636736526155616E-2</v>
       </c>
-      <c r="AP205" s="10"/>
+      <c r="AP205" s="10">
+        <v>-1.5898909863020783E-2</v>
+      </c>
       <c r="AQ205" s="10"/>
       <c r="AR205" s="10"/>
       <c r="AS205" s="10"/>
@@ -43914,7 +44297,9 @@
       <c r="AO206" s="10">
         <v>4.8400514255463767E-2</v>
       </c>
-      <c r="AP206" s="10"/>
+      <c r="AP206" s="10">
+        <v>1.7089465078252708E-2</v>
+      </c>
       <c r="AQ206" s="10"/>
       <c r="AR206" s="10"/>
       <c r="AS206" s="10"/>
@@ -44133,7 +44518,9 @@
       <c r="AO207" s="10">
         <v>3.3863081818772178E-2</v>
       </c>
-      <c r="AP207" s="10"/>
+      <c r="AP207" s="10">
+        <v>8.3577483495449023E-2</v>
+      </c>
       <c r="AQ207" s="10"/>
       <c r="AR207" s="10"/>
       <c r="AS207" s="10"/>
@@ -44352,7 +44739,9 @@
       <c r="AO208" s="10">
         <v>0.11638507404946741</v>
       </c>
-      <c r="AP208" s="10"/>
+      <c r="AP208" s="10">
+        <v>0.11584479387731217</v>
+      </c>
       <c r="AQ208" s="10"/>
       <c r="AR208" s="10"/>
       <c r="AS208" s="10"/>
@@ -44571,7 +44960,9 @@
       <c r="AO209" s="10">
         <v>9.1305289823672586E-2</v>
       </c>
-      <c r="AP209" s="10"/>
+      <c r="AP209" s="10">
+        <v>8.1860910795562569E-2</v>
+      </c>
       <c r="AQ209" s="10"/>
       <c r="AR209" s="10"/>
       <c r="AS209" s="10"/>
@@ -44790,7 +45181,9 @@
       <c r="AO210" s="10">
         <v>5.5631201886708448E-2</v>
       </c>
-      <c r="AP210" s="10"/>
+      <c r="AP210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
       <c r="AQ210" s="10"/>
       <c r="AR210" s="10"/>
       <c r="AS210" s="10"/>
@@ -45009,7 +45402,9 @@
       <c r="AO211" s="10">
         <v>9.9672343977002198E-2</v>
       </c>
-      <c r="AP211" s="10"/>
+      <c r="AP211" s="10">
+        <v>9.6758987357423276E-2</v>
+      </c>
       <c r="AQ211" s="10"/>
       <c r="AR211" s="10"/>
       <c r="AS211" s="10"/>
@@ -45228,7 +45623,9 @@
       <c r="AO212" s="10">
         <v>0.17964041934420005</v>
       </c>
-      <c r="AP212" s="10"/>
+      <c r="AP212" s="10">
+        <v>0.17964041934420005</v>
+      </c>
       <c r="AQ212" s="10"/>
       <c r="AR212" s="10"/>
       <c r="AS212" s="10"/>
@@ -45447,7 +45844,9 @@
       <c r="AO213" s="10">
         <v>0.11225040909933659</v>
       </c>
-      <c r="AP213" s="10"/>
+      <c r="AP213" s="10">
+        <v>0.14688882977437068</v>
+      </c>
       <c r="AQ213" s="10"/>
       <c r="AR213" s="10"/>
       <c r="AS213" s="10"/>
@@ -45666,7 +46065,9 @@
       <c r="AO214" s="10">
         <v>3.5915704778734403E-2</v>
       </c>
-      <c r="AP214" s="10"/>
+      <c r="AP214" s="10">
+        <v>2.1465725431915272E-2</v>
+      </c>
       <c r="AQ214" s="10"/>
       <c r="AR214" s="10"/>
       <c r="AS214" s="10"/>
@@ -45885,7 +46286,9 @@
       <c r="AO215" s="10">
         <v>-2.3870624122403594E-2</v>
       </c>
-      <c r="AP215" s="10"/>
+      <c r="AP215" s="10">
+        <v>-1.186180422264882E-2</v>
+      </c>
       <c r="AQ215" s="10"/>
       <c r="AR215" s="10"/>
       <c r="AS215" s="10"/>
@@ -46104,7 +46507,9 @@
       <c r="AO216" s="10">
         <v>7.2372664349868554E-2</v>
       </c>
-      <c r="AP216" s="10"/>
+      <c r="AP216" s="10">
+        <v>7.2372664349868554E-2</v>
+      </c>
       <c r="AQ216" s="10"/>
       <c r="AR216" s="10"/>
       <c r="AS216" s="10"/>
@@ -46323,7 +46728,9 @@
       <c r="AO217" s="10">
         <v>0.14595017008366273</v>
       </c>
-      <c r="AP217" s="10"/>
+      <c r="AP217" s="10">
+        <v>0.13999707329565214</v>
+      </c>
       <c r="AQ217" s="10"/>
       <c r="AR217" s="10"/>
       <c r="AS217" s="10"/>
@@ -46542,7 +46949,9 @@
       <c r="AO218" s="10">
         <v>8.4467808273007483E-2</v>
       </c>
-      <c r="AP218" s="10"/>
+      <c r="AP218" s="10">
+        <v>7.965017213200265E-2</v>
+      </c>
       <c r="AQ218" s="10"/>
       <c r="AR218" s="10"/>
       <c r="AS218" s="10"/>
@@ -46761,7 +47170,9 @@
       <c r="AO219" s="10">
         <v>0.10577039118666276</v>
       </c>
-      <c r="AP219" s="10"/>
+      <c r="AP219" s="10">
+        <v>4.4860035330887227E-2</v>
+      </c>
       <c r="AQ219" s="10"/>
       <c r="AR219" s="10"/>
       <c r="AS219" s="10"/>
@@ -46980,7 +47391,9 @@
       <c r="AO220" s="10">
         <v>7.8821028256595094E-2</v>
       </c>
-      <c r="AP220" s="10"/>
+      <c r="AP220" s="10">
+        <v>7.8099663363520033E-2</v>
+      </c>
       <c r="AQ220" s="10"/>
       <c r="AR220" s="10"/>
       <c r="AS220" s="10"/>
@@ -47199,7 +47612,9 @@
       <c r="AO221" s="10">
         <v>3.0815282464351723E-2</v>
       </c>
-      <c r="AP221" s="10"/>
+      <c r="AP221" s="10">
+        <v>1.140672261747544E-2</v>
+      </c>
       <c r="AQ221" s="10"/>
       <c r="AR221" s="10"/>
       <c r="AS221" s="10"/>
@@ -47418,7 +47833,9 @@
       <c r="AO222" s="10">
         <v>8.7863186462324272E-2</v>
       </c>
-      <c r="AP222" s="10"/>
+      <c r="AP222" s="10">
+        <v>7.5745167878602526E-2</v>
+      </c>
       <c r="AQ222" s="10"/>
       <c r="AR222" s="10"/>
       <c r="AS222" s="10"/>
@@ -47637,7 +48054,9 @@
       <c r="AO223" s="10">
         <v>-7.7492535035249777E-2</v>
       </c>
-      <c r="AP223" s="10"/>
+      <c r="AP223" s="10">
+        <v>3.577050982291663E-3</v>
+      </c>
       <c r="AQ223" s="10"/>
       <c r="AR223" s="10"/>
       <c r="AS223" s="10"/>
@@ -47856,7 +48275,9 @@
       <c r="AO224" s="10">
         <v>2.7958250783074456E-2</v>
       </c>
-      <c r="AP224" s="10"/>
+      <c r="AP224" s="10">
+        <v>3.1689320388349485E-2</v>
+      </c>
       <c r="AQ224" s="10"/>
       <c r="AR224" s="10"/>
       <c r="AS224" s="10"/>
@@ -48075,7 +48496,9 @@
       <c r="AO225" s="10">
         <v>0.18325231025270439</v>
       </c>
-      <c r="AP225" s="10"/>
+      <c r="AP225" s="10">
+        <v>0.21726972365948582</v>
+      </c>
       <c r="AQ225" s="10"/>
       <c r="AR225" s="10"/>
       <c r="AS225" s="10"/>
@@ -48294,7 +48717,9 @@
       <c r="AO226" s="10">
         <v>-4.8695352394906299E-2</v>
       </c>
-      <c r="AP226" s="10"/>
+      <c r="AP226" s="10">
+        <v>-7.5800307284322188E-2</v>
+      </c>
       <c r="AQ226" s="10"/>
       <c r="AR226" s="10"/>
       <c r="AS226" s="10"/>
@@ -48513,7 +48938,9 @@
       <c r="AO227" s="10">
         <v>0.11078408288203434</v>
       </c>
-      <c r="AP227" s="10"/>
+      <c r="AP227" s="10">
+        <v>9.9880143827407064E-2</v>
+      </c>
       <c r="AQ227" s="10"/>
       <c r="AR227" s="10"/>
       <c r="AS227" s="10"/>
@@ -48732,7 +49159,9 @@
       <c r="AO228" s="10">
         <v>2.5184101438673334E-2</v>
       </c>
-      <c r="AP228" s="10"/>
+      <c r="AP228" s="10">
+        <v>0.1435886333901224</v>
+      </c>
       <c r="AQ228" s="10"/>
       <c r="AR228" s="10"/>
       <c r="AS228" s="10"/>
@@ -48951,7 +49380,9 @@
       <c r="AO229" s="10">
         <v>4.1911237417332714E-2</v>
       </c>
-      <c r="AP229" s="10"/>
+      <c r="AP229" s="10">
+        <v>3.6027513526894595E-2</v>
+      </c>
       <c r="AQ229" s="10"/>
       <c r="AR229" s="10"/>
       <c r="AS229" s="10"/>
@@ -49170,7 +49601,9 @@
       <c r="AO230" s="10">
         <v>1.6905825937978847E-2</v>
       </c>
-      <c r="AP230" s="10"/>
+      <c r="AP230" s="10">
+        <v>3.7169665926295226E-2</v>
+      </c>
       <c r="AQ230" s="10"/>
       <c r="AR230" s="10"/>
       <c r="AS230" s="10"/>
@@ -49389,7 +49822,9 @@
       <c r="AO231" s="10">
         <v>4.128858422157955E-2</v>
       </c>
-      <c r="AP231" s="10"/>
+      <c r="AP231" s="10">
+        <v>1.4422800666551661E-2</v>
+      </c>
       <c r="AQ231" s="10"/>
       <c r="AR231" s="10"/>
       <c r="AS231" s="10"/>
@@ -49608,7 +50043,9 @@
       <c r="AO232" s="10">
         <v>3.4275678431817003E-2</v>
       </c>
-      <c r="AP232" s="10"/>
+      <c r="AP232" s="10">
+        <v>3.1007132667617565E-2</v>
+      </c>
       <c r="AQ232" s="10"/>
       <c r="AR232" s="10"/>
       <c r="AS232" s="10"/>
@@ -49827,7 +50264,9 @@
       <c r="AO233" s="10">
         <v>4.0104703136369269E-2</v>
       </c>
-      <c r="AP233" s="10"/>
+      <c r="AP233" s="10">
+        <v>2.5668139873287199E-3</v>
+      </c>
       <c r="AQ233" s="10"/>
       <c r="AR233" s="10"/>
       <c r="AS233" s="10"/>
@@ -50046,7 +50485,9 @@
       <c r="AO234" s="10">
         <v>2.851867632438565E-2</v>
       </c>
-      <c r="AP234" s="10"/>
+      <c r="AP234" s="10">
+        <v>-5.1304724271647895E-2</v>
+      </c>
       <c r="AQ234" s="10"/>
       <c r="AR234" s="10"/>
       <c r="AS234" s="10"/>
@@ -50265,7 +50706,9 @@
       <c r="AO235" s="10">
         <v>4.8307760819400025E-2</v>
       </c>
-      <c r="AP235" s="10"/>
+      <c r="AP235" s="10">
+        <v>-9.1502654834049513E-2</v>
+      </c>
       <c r="AQ235" s="10"/>
       <c r="AR235" s="10"/>
       <c r="AS235" s="10"/>
@@ -50484,7 +50927,9 @@
       <c r="AO236" s="10">
         <v>0.29670096531240064</v>
       </c>
-      <c r="AP236" s="10"/>
+      <c r="AP236" s="10">
+        <v>7.2068933481977071E-2</v>
+      </c>
       <c r="AQ236" s="10"/>
       <c r="AR236" s="10"/>
       <c r="AS236" s="10"/>
@@ -50703,7 +51148,9 @@
       <c r="AO237" s="10">
         <v>0.10022503673120209</v>
       </c>
-      <c r="AP237" s="10"/>
+      <c r="AP237" s="10">
+        <v>4.3758185121034243E-2</v>
+      </c>
       <c r="AQ237" s="10"/>
       <c r="AR237" s="10"/>
       <c r="AS237" s="10"/>
@@ -50922,7 +51369,9 @@
       <c r="AO238" s="10">
         <v>4.5850466041461813E-2</v>
       </c>
-      <c r="AP238" s="10"/>
+      <c r="AP238" s="10">
+        <v>5.2958966579848665E-2</v>
+      </c>
       <c r="AQ238" s="10"/>
       <c r="AR238" s="10"/>
       <c r="AS238" s="10"/>
@@ -51141,7 +51590,9 @@
       <c r="AO239" s="10">
         <v>4.9939110719483537E-2</v>
       </c>
-      <c r="AP239" s="10"/>
+      <c r="AP239" s="10">
+        <v>0.11441297305838649</v>
+      </c>
       <c r="AQ239" s="10"/>
       <c r="AR239" s="10"/>
       <c r="AS239" s="10"/>
@@ -51360,7 +51811,9 @@
       <c r="AO240" s="10">
         <v>6.2662690616055228E-2</v>
       </c>
-      <c r="AP240" s="10"/>
+      <c r="AP240" s="10">
+        <v>8.1421570101325891E-2</v>
+      </c>
       <c r="AQ240" s="10"/>
       <c r="AR240" s="10"/>
       <c r="AS240" s="10"/>
@@ -51579,7 +52032,9 @@
       <c r="AO241" s="10">
         <v>2.760848538346683E-2</v>
       </c>
-      <c r="AP241" s="10"/>
+      <c r="AP241" s="10">
+        <v>5.6483421087395458E-2</v>
+      </c>
       <c r="AQ241" s="10"/>
       <c r="AR241" s="10"/>
       <c r="AS241" s="10"/>
@@ -51798,7 +52253,9 @@
       <c r="AO242" s="10">
         <v>4.4822665545233953E-2</v>
       </c>
-      <c r="AP242" s="10"/>
+      <c r="AP242" s="10">
+        <v>5.8234165782073299E-2</v>
+      </c>
       <c r="AQ242" s="10"/>
       <c r="AR242" s="10"/>
       <c r="AS242" s="10"/>
@@ -52017,7 +52474,9 @@
       <c r="AO243" s="10">
         <v>8.4231062047963379E-2</v>
       </c>
-      <c r="AP243" s="10"/>
+      <c r="AP243" s="10">
+        <v>4.9590687550276735E-2</v>
+      </c>
       <c r="AQ243" s="10"/>
       <c r="AR243" s="10"/>
       <c r="AS243" s="10"/>
@@ -52236,7 +52695,9 @@
       <c r="AO244" s="10">
         <v>1.6056841217926276E-4</v>
       </c>
-      <c r="AP244" s="10"/>
+      <c r="AP244" s="10">
+        <v>-7.392436731607599E-2</v>
+      </c>
       <c r="AQ244" s="10"/>
       <c r="AR244" s="10"/>
       <c r="AS244" s="10"/>
@@ -52455,7 +52916,9 @@
       <c r="AO245" s="10">
         <v>9.5593401218373453E-2</v>
       </c>
-      <c r="AP245" s="10"/>
+      <c r="AP245" s="10">
+        <v>0.12565664493458084</v>
+      </c>
       <c r="AQ245" s="10"/>
       <c r="AR245" s="10"/>
       <c r="AS245" s="10"/>
@@ -52674,7 +53137,9 @@
       <c r="AO246" s="10">
         <v>0.21559310752847205</v>
       </c>
-      <c r="AP246" s="10"/>
+      <c r="AP246" s="10">
+        <v>0.21531270500765376</v>
+      </c>
       <c r="AQ246" s="10"/>
       <c r="AR246" s="10"/>
       <c r="AS246" s="10"/>
@@ -52893,7 +53358,9 @@
       <c r="AO247" s="10">
         <v>0.11623507262961663</v>
       </c>
-      <c r="AP247" s="10"/>
+      <c r="AP247" s="10">
+        <v>0.11633854161943558</v>
+      </c>
       <c r="AQ247" s="10"/>
       <c r="AR247" s="10"/>
       <c r="AS247" s="10"/>
@@ -53112,7 +53579,9 @@
       <c r="AO248" s="10">
         <v>3.1967566331600805E-2</v>
       </c>
-      <c r="AP248" s="10"/>
+      <c r="AP248" s="10">
+        <v>2.5075357127255282E-2</v>
+      </c>
       <c r="AQ248" s="10"/>
       <c r="AR248" s="10"/>
       <c r="AS248" s="10"/>
@@ -53331,7 +53800,9 @@
       <c r="AO249" s="10">
         <v>3.2948575223140208E-2</v>
       </c>
-      <c r="AP249" s="10"/>
+      <c r="AP249" s="10">
+        <v>3.9287328250146691E-2</v>
+      </c>
       <c r="AQ249" s="10"/>
       <c r="AR249" s="10"/>
       <c r="AS249" s="10"/>
@@ -53550,7 +54021,9 @@
       <c r="AO250" s="10">
         <v>0.13187751616445031</v>
       </c>
-      <c r="AP250" s="10"/>
+      <c r="AP250" s="10">
+        <v>0.13973331176643056</v>
+      </c>
       <c r="AQ250" s="10"/>
       <c r="AR250" s="10"/>
       <c r="AS250" s="10"/>
@@ -53769,7 +54242,9 @@
       <c r="AO251" s="10">
         <v>0.19087310904638932</v>
       </c>
-      <c r="AP251" s="10"/>
+      <c r="AP251" s="10">
+        <v>0.20464600868580374</v>
+      </c>
       <c r="AQ251" s="10"/>
       <c r="AR251" s="10"/>
       <c r="AS251" s="10"/>
@@ -53988,7 +54463,9 @@
       <c r="AO252" s="10">
         <v>0.11360387003270733</v>
       </c>
-      <c r="AP252" s="10"/>
+      <c r="AP252" s="10">
+        <v>0.250335507630848</v>
+      </c>
       <c r="AQ252" s="10"/>
       <c r="AR252" s="10"/>
       <c r="AS252" s="10"/>
@@ -54207,7 +54684,9 @@
       <c r="AO253" s="10">
         <v>0.14519024515986478</v>
       </c>
-      <c r="AP253" s="10"/>
+      <c r="AP253" s="10">
+        <v>0.138973793203234</v>
+      </c>
       <c r="AQ253" s="10"/>
       <c r="AR253" s="10"/>
       <c r="AS253" s="10"/>
@@ -54426,7 +54905,9 @@
       <c r="AO254" s="10">
         <v>8.850204543476381E-2</v>
       </c>
-      <c r="AP254" s="10"/>
+      <c r="AP254" s="10">
+        <v>9.2028054581438257E-2</v>
+      </c>
       <c r="AQ254" s="10"/>
       <c r="AR254" s="10"/>
       <c r="AS254" s="10"/>
@@ -54645,7 +55126,9 @@
       <c r="AO255" s="10">
         <v>-1.5028037383177595E-2</v>
       </c>
-      <c r="AP255" s="10"/>
+      <c r="AP255" s="10">
+        <v>4.7996585742190678E-2</v>
+      </c>
       <c r="AQ255" s="10"/>
       <c r="AR255" s="10"/>
       <c r="AS255" s="10"/>
@@ -54864,7 +55347,9 @@
       <c r="AO256" s="10">
         <v>3.4472807164534602E-2</v>
       </c>
-      <c r="AP256" s="10"/>
+      <c r="AP256" s="10">
+        <v>9.9431818181816567E-4</v>
+      </c>
       <c r="AQ256" s="10"/>
       <c r="AR256" s="10"/>
       <c r="AS256" s="10"/>
@@ -55083,7 +55568,9 @@
       <c r="AO257" s="10">
         <v>2.3223933553745635E-2</v>
       </c>
-      <c r="AP257" s="10"/>
+      <c r="AP257" s="10">
+        <v>6.8897416697865976E-2</v>
+      </c>
       <c r="AQ257" s="10"/>
       <c r="AR257" s="10"/>
       <c r="AS257" s="10"/>
@@ -55302,7 +55789,9 @@
       <c r="AO258" s="10">
         <v>4.9356348741954381E-2</v>
       </c>
-      <c r="AP258" s="10"/>
+      <c r="AP258" s="10">
+        <v>5.9388199155254062E-2</v>
+      </c>
       <c r="AQ258" s="10"/>
       <c r="AR258" s="10"/>
       <c r="AS258" s="10"/>
@@ -55521,7 +56010,9 @@
       <c r="AO259" s="10">
         <v>6.6848092795003256E-2</v>
       </c>
-      <c r="AP259" s="10"/>
+      <c r="AP259" s="10">
+        <v>6.093392038946166E-2</v>
+      </c>
       <c r="AQ259" s="10"/>
       <c r="AR259" s="10"/>
       <c r="AS259" s="10"/>
@@ -55740,7 +56231,9 @@
       <c r="AO260" s="10">
         <v>5.5283346149031631E-2</v>
       </c>
-      <c r="AP260" s="10"/>
+      <c r="AP260" s="10">
+        <v>8.9273399232551176E-2</v>
+      </c>
       <c r="AQ260" s="10"/>
       <c r="AR260" s="10"/>
       <c r="AS260" s="10"/>
@@ -55959,7 +56452,9 @@
       <c r="AO261" s="10">
         <v>0.15350606319050275</v>
       </c>
-      <c r="AP261" s="10"/>
+      <c r="AP261" s="10">
+        <v>0.13468449604098276</v>
+      </c>
       <c r="AQ261" s="10"/>
       <c r="AR261" s="10"/>
       <c r="AS261" s="10"/>
@@ -56178,7 +56673,9 @@
       <c r="AO262" s="10">
         <v>0.11360359840839629</v>
       </c>
-      <c r="AP262" s="10"/>
+      <c r="AP262" s="10">
+        <v>7.0570277994284281E-2</v>
+      </c>
       <c r="AQ262" s="10"/>
       <c r="AR262" s="10"/>
       <c r="AS262" s="10"/>
@@ -56397,7 +56894,9 @@
       <c r="AO263" s="10">
         <v>0.1435157908518736</v>
       </c>
-      <c r="AP263" s="10"/>
+      <c r="AP263" s="10">
+        <v>3.0892965829058427E-2</v>
+      </c>
       <c r="AQ263" s="10"/>
       <c r="AR263" s="10"/>
       <c r="AS263" s="10"/>
@@ -56616,7 +57115,9 @@
       <c r="AO264" s="10">
         <v>-1.0357388814382529E-2</v>
       </c>
-      <c r="AP264" s="10"/>
+      <c r="AP264" s="10">
+        <v>-2.6708761148167559E-2</v>
+      </c>
       <c r="AQ264" s="10"/>
       <c r="AR264" s="10"/>
       <c r="AS264" s="10"/>
@@ -56835,7 +57336,9 @@
       <c r="AO265" s="10">
         <v>9.0399245879474011E-2</v>
       </c>
-      <c r="AP265" s="10"/>
+      <c r="AP265" s="10">
+        <v>0.12863953853398202</v>
+      </c>
       <c r="AQ265" s="10"/>
       <c r="AR265" s="10"/>
       <c r="AS265" s="10"/>
@@ -57054,7 +57557,9 @@
       <c r="AO266" s="10">
         <v>0.15579472628540669</v>
       </c>
-      <c r="AP266" s="10"/>
+      <c r="AP266" s="10">
+        <v>0.13464678667236885</v>
+      </c>
       <c r="AQ266" s="10"/>
       <c r="AR266" s="10"/>
       <c r="AS266" s="10"/>
@@ -57273,7 +57778,9 @@
       <c r="AO267" s="10">
         <v>5.0780015044315396E-2</v>
       </c>
-      <c r="AP267" s="10"/>
+      <c r="AP267" s="10">
+        <v>1.3893473058833372E-2</v>
+      </c>
       <c r="AQ267" s="10"/>
       <c r="AR267" s="10"/>
       <c r="AS267" s="10"/>
@@ -57492,7 +57999,9 @@
       <c r="AO268" s="10">
         <v>7.8246241379614112E-2</v>
       </c>
-      <c r="AP268" s="10"/>
+      <c r="AP268" s="10">
+        <v>8.4386522679698928E-2</v>
+      </c>
       <c r="AQ268" s="10"/>
       <c r="AR268" s="10"/>
       <c r="AS268" s="10"/>
@@ -57711,7 +58220,9 @@
       <c r="AO269" s="10">
         <v>5.4571688820461484E-2</v>
       </c>
-      <c r="AP269" s="10"/>
+      <c r="AP269" s="10">
+        <v>3.000496145031839E-2</v>
+      </c>
       <c r="AQ269" s="10"/>
       <c r="AR269" s="10"/>
       <c r="AS269" s="10"/>
@@ -57930,7 +58441,9 @@
       <c r="AO270" s="10">
         <v>0.23676027503090213</v>
       </c>
-      <c r="AP270" s="10"/>
+      <c r="AP270" s="10">
+        <v>6.9317565902931921E-2</v>
+      </c>
       <c r="AQ270" s="10"/>
       <c r="AR270" s="10"/>
       <c r="AS270" s="10"/>
@@ -58149,7 +58662,9 @@
       <c r="AO271" s="10">
         <v>0.1103572689125063</v>
       </c>
-      <c r="AP271" s="10"/>
+      <c r="AP271" s="10">
+        <v>6.6316994647278138E-2</v>
+      </c>
       <c r="AQ271" s="10"/>
       <c r="AR271" s="10"/>
       <c r="AS271" s="10"/>
@@ -58368,7 +58883,9 @@
       <c r="AO272" s="10">
         <v>0.14257526268905485</v>
       </c>
-      <c r="AP272" s="10"/>
+      <c r="AP272" s="10">
+        <v>5.7294459132171127E-2</v>
+      </c>
       <c r="AQ272" s="10"/>
       <c r="AR272" s="10"/>
       <c r="AS272" s="10"/>
@@ -58587,7 +59104,9 @@
       <c r="AO273" s="10">
         <v>7.7853508687721895E-2</v>
       </c>
-      <c r="AP273" s="10"/>
+      <c r="AP273" s="10">
+        <v>9.4493441685582047E-2</v>
+      </c>
       <c r="AQ273" s="10"/>
       <c r="AR273" s="10"/>
       <c r="AS273" s="10"/>
@@ -58806,7 +59325,9 @@
       <c r="AO274" s="10">
         <v>4.1384569600475984E-2</v>
       </c>
-      <c r="AP274" s="10"/>
+      <c r="AP274" s="10">
+        <v>4.1384569600475984E-2</v>
+      </c>
       <c r="AQ274" s="10"/>
       <c r="AR274" s="10"/>
       <c r="AS274" s="10"/>
@@ -59025,7 +59546,9 @@
       <c r="AO275" s="10">
         <v>2.49608991379624E-2</v>
       </c>
-      <c r="AP275" s="10"/>
+      <c r="AP275" s="10">
+        <v>2.7427352608743183E-2</v>
+      </c>
       <c r="AQ275" s="10"/>
       <c r="AR275" s="10"/>
       <c r="AS275" s="10"/>
@@ -59244,7 +59767,9 @@
       <c r="AO276" s="10">
         <v>3.592902185071134E-2</v>
       </c>
-      <c r="AP276" s="10"/>
+      <c r="AP276" s="10">
+        <v>4.1391677969650376E-2</v>
+      </c>
       <c r="AQ276" s="10"/>
       <c r="AR276" s="10"/>
       <c r="AS276" s="10"/>
@@ -59463,7 +59988,9 @@
       <c r="AO277" s="10">
         <v>5.3090046904797905E-3</v>
       </c>
-      <c r="AP277" s="10"/>
+      <c r="AP277" s="10">
+        <v>5.3090046904797905E-3</v>
+      </c>
       <c r="AQ277" s="10"/>
       <c r="AR277" s="10"/>
       <c r="AS277" s="10"/>
@@ -59682,7 +60209,9 @@
       <c r="AO278" s="10">
         <v>3.7948892858104655E-2</v>
       </c>
-      <c r="AP278" s="10"/>
+      <c r="AP278" s="10">
+        <v>3.6228247818061332E-2</v>
+      </c>
       <c r="AQ278" s="10"/>
       <c r="AR278" s="10"/>
       <c r="AS278" s="10"/>
@@ -59901,7 +60430,9 @@
       <c r="AO279" s="10">
         <v>8.0748741151572601E-2</v>
       </c>
-      <c r="AP279" s="10"/>
+      <c r="AP279" s="10">
+        <v>8.1538012122982506E-2</v>
+      </c>
       <c r="AQ279" s="10"/>
       <c r="AR279" s="10"/>
       <c r="AS279" s="10"/>
@@ -60120,7 +60651,9 @@
       <c r="AO280" s="10">
         <v>2.5356964779475133E-2</v>
       </c>
-      <c r="AP280" s="10"/>
+      <c r="AP280" s="10">
+        <v>2.4202002675053347E-2</v>
+      </c>
       <c r="AQ280" s="10"/>
       <c r="AR280" s="10"/>
       <c r="AS280" s="10"/>
@@ -60339,7 +60872,9 @@
       <c r="AO281" s="10">
         <v>6.4535997810019063E-2</v>
       </c>
-      <c r="AP281" s="10"/>
+      <c r="AP281" s="10">
+        <v>6.5904125433748906E-2</v>
+      </c>
       <c r="AQ281" s="10"/>
       <c r="AR281" s="10"/>
       <c r="AS281" s="10"/>
@@ -60558,7 +61093,9 @@
       <c r="AO282" s="10">
         <v>7.9665235621335428E-2</v>
       </c>
-      <c r="AP282" s="10"/>
+      <c r="AP282" s="10">
+        <v>2.8434012159754607E-2</v>
+      </c>
       <c r="AQ282" s="10"/>
       <c r="AR282" s="10"/>
       <c r="AS282" s="10"/>
@@ -60777,7 +61314,9 @@
       <c r="AO283" s="10">
         <v>0.10780877865014893</v>
       </c>
-      <c r="AP283" s="10"/>
+      <c r="AP283" s="10">
+        <v>9.5947653429602875E-2</v>
+      </c>
       <c r="AQ283" s="10"/>
       <c r="AR283" s="10"/>
       <c r="AS283" s="10"/>
@@ -60996,7 +61535,9 @@
       <c r="AO284" s="10">
         <v>0.2735581938304108</v>
       </c>
-      <c r="AP284" s="10"/>
+      <c r="AP284" s="10">
+        <v>0.25580512547147727</v>
+      </c>
       <c r="AQ284" s="10"/>
       <c r="AR284" s="10"/>
       <c r="AS284" s="10"/>
@@ -61215,7 +61756,9 @@
       <c r="AO285" s="10">
         <v>9.9459280815944462E-2</v>
       </c>
-      <c r="AP285" s="10"/>
+      <c r="AP285" s="10">
+        <v>9.8748108405557922E-2</v>
+      </c>
       <c r="AQ285" s="10"/>
       <c r="AR285" s="10"/>
       <c r="AS285" s="10"/>
@@ -61434,7 +61977,9 @@
       <c r="AO286" s="10">
         <v>9.0308676952802092E-2</v>
       </c>
-      <c r="AP286" s="10"/>
+      <c r="AP286" s="10">
+        <v>8.979694205510258E-2</v>
+      </c>
       <c r="AQ286" s="10"/>
       <c r="AR286" s="10"/>
       <c r="AS286" s="10"/>
@@ -61653,7 +62198,9 @@
       <c r="AO287" s="10">
         <v>7.998131957310628E-2</v>
       </c>
-      <c r="AP287" s="10"/>
+      <c r="AP287" s="10">
+        <v>6.7161165861610028E-2</v>
+      </c>
       <c r="AQ287" s="10"/>
       <c r="AR287" s="10"/>
       <c r="AS287" s="10"/>
@@ -61872,7 +62419,9 @@
       <c r="AO288" s="10">
         <v>0.16743899764409576</v>
       </c>
-      <c r="AP288" s="10"/>
+      <c r="AP288" s="10">
+        <v>0.18595897385478644</v>
+      </c>
       <c r="AQ288" s="10"/>
       <c r="AR288" s="10"/>
       <c r="AS288" s="10"/>
@@ -62091,7 +62640,9 @@
       <c r="AO289" s="10">
         <v>1.8551826918135506E-2</v>
       </c>
-      <c r="AP289" s="10"/>
+      <c r="AP289" s="10">
+        <v>2.2634914440362808E-2</v>
+      </c>
       <c r="AQ289" s="10"/>
       <c r="AR289" s="10"/>
       <c r="AS289" s="10"/>
@@ -62310,7 +62861,9 @@
       <c r="AO290" s="10">
         <v>1.9559206607455693E-4</v>
       </c>
-      <c r="AP290" s="10"/>
+      <c r="AP290" s="10">
+        <v>1.6891591543544138E-4</v>
+      </c>
       <c r="AQ290" s="10"/>
       <c r="AR290" s="10"/>
       <c r="AS290" s="10"/>
@@ -62529,7 +63082,9 @@
       <c r="AO291" s="10">
         <v>5.3234281234542546E-2</v>
       </c>
-      <c r="AP291" s="10"/>
+      <c r="AP291" s="10">
+        <v>5.3234281234542546E-2</v>
+      </c>
       <c r="AQ291" s="10"/>
       <c r="AR291" s="10"/>
       <c r="AS291" s="10"/>
@@ -62748,7 +63303,9 @@
       <c r="AO292" s="10">
         <v>-6.2360649575865512E-4</v>
       </c>
-      <c r="AP292" s="10"/>
+      <c r="AP292" s="10">
+        <v>2.3884332962829991E-2</v>
+      </c>
       <c r="AQ292" s="10"/>
       <c r="AR292" s="10"/>
       <c r="AS292" s="10"/>
@@ -62967,7 +63524,9 @@
       <c r="AO293" s="10">
         <v>0.17209279775035768</v>
       </c>
-      <c r="AP293" s="10"/>
+      <c r="AP293" s="10">
+        <v>0.14971038641593259</v>
+      </c>
       <c r="AQ293" s="10"/>
       <c r="AR293" s="10"/>
       <c r="AS293" s="10"/>
@@ -63186,7 +63745,9 @@
       <c r="AO294" s="10">
         <v>0.14914127728138271</v>
       </c>
-      <c r="AP294" s="10"/>
+      <c r="AP294" s="10">
+        <v>0.14914127728138271</v>
+      </c>
       <c r="AQ294" s="10"/>
       <c r="AR294" s="10"/>
       <c r="AS294" s="10"/>
@@ -63405,7 +63966,9 @@
       <c r="AO295" s="10">
         <v>0.10919661547663018</v>
       </c>
-      <c r="AP295" s="10"/>
+      <c r="AP295" s="10">
+        <v>0.10905502528141398</v>
+      </c>
       <c r="AQ295" s="10"/>
       <c r="AR295" s="10"/>
       <c r="AS295" s="10"/>
@@ -63624,7 +64187,9 @@
       <c r="AO296" s="10">
         <v>4.3120423018208287E-2</v>
       </c>
-      <c r="AP296" s="10"/>
+      <c r="AP296" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
       <c r="AQ296" s="10"/>
       <c r="AR296" s="10"/>
       <c r="AS296" s="10"/>
@@ -63843,7 +64408,9 @@
       <c r="AO297" s="10">
         <v>5.8518981947428994E-2</v>
       </c>
-      <c r="AP297" s="10"/>
+      <c r="AP297" s="10">
+        <v>7.3714487927483141E-2</v>
+      </c>
       <c r="AQ297" s="10"/>
       <c r="AR297" s="10"/>
       <c r="AS297" s="10"/>
@@ -64062,7 +64629,9 @@
       <c r="AO298" s="10">
         <v>-0.15924659156584264</v>
       </c>
-      <c r="AP298" s="10"/>
+      <c r="AP298" s="10">
+        <v>-7.3353075392009304E-2</v>
+      </c>
       <c r="AQ298" s="10"/>
       <c r="AR298" s="10"/>
       <c r="AS298" s="10"/>
@@ -64281,7 +64850,9 @@
       <c r="AO299" s="10">
         <v>1.5653996971696893E-2</v>
       </c>
-      <c r="AP299" s="10"/>
+      <c r="AP299" s="10">
+        <v>3.131575882284432E-2</v>
+      </c>
       <c r="AQ299" s="10"/>
       <c r="AR299" s="10"/>
       <c r="AS299" s="10"/>
@@ -64500,7 +65071,9 @@
       <c r="AO300" s="10">
         <v>0</v>
       </c>
-      <c r="AP300" s="10"/>
+      <c r="AP300" s="10">
+        <v>0</v>
+      </c>
       <c r="AQ300" s="10"/>
       <c r="AR300" s="10"/>
       <c r="AS300" s="10"/>
@@ -64719,7 +65292,9 @@
       <c r="AO301" s="10">
         <v>0</v>
       </c>
-      <c r="AP301" s="10"/>
+      <c r="AP301" s="10">
+        <v>0</v>
+      </c>
       <c r="AQ301" s="10"/>
       <c r="AR301" s="10"/>
       <c r="AS301" s="10"/>
@@ -64938,7 +65513,9 @@
       <c r="AO302" s="10">
         <v>7.7066817143227162E-2</v>
       </c>
-      <c r="AP302" s="10"/>
+      <c r="AP302" s="10">
+        <v>9.3444644720614756E-2</v>
+      </c>
       <c r="AQ302" s="10"/>
       <c r="AR302" s="10"/>
       <c r="AS302" s="10"/>
@@ -65157,7 +65734,9 @@
       <c r="AO303" s="10">
         <v>0.10497156643115613</v>
       </c>
-      <c r="AP303" s="10"/>
+      <c r="AP303" s="10">
+        <v>0.12361853369999465</v>
+      </c>
       <c r="AQ303" s="10"/>
       <c r="AR303" s="10"/>
       <c r="AS303" s="10"/>
@@ -65376,7 +65955,9 @@
       <c r="AO304" s="10">
         <v>2.7048916294694081E-2</v>
       </c>
-      <c r="AP304" s="10"/>
+      <c r="AP304" s="10">
+        <v>2.7585953570379074E-2</v>
+      </c>
       <c r="AQ304" s="10"/>
       <c r="AR304" s="10"/>
       <c r="AS304" s="10"/>
@@ -65595,7 +66176,9 @@
       <c r="AO305" s="10">
         <v>7.064845833048472E-2</v>
       </c>
-      <c r="AP305" s="10"/>
+      <c r="AP305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
       <c r="AQ305" s="10"/>
       <c r="AR305" s="10"/>
       <c r="AS305" s="10"/>
@@ -65814,7 +66397,9 @@
       <c r="AO306" s="10">
         <v>0.20616350642376169</v>
       </c>
-      <c r="AP306" s="10"/>
+      <c r="AP306" s="10">
+        <v>0.18712769033750565</v>
+      </c>
       <c r="AQ306" s="10"/>
       <c r="AR306" s="10"/>
       <c r="AS306" s="10"/>
@@ -66033,7 +66618,9 @@
       <c r="AO307" s="10">
         <v>2.5615718107185659E-2</v>
       </c>
-      <c r="AP307" s="10"/>
+      <c r="AP307" s="10">
+        <v>2.6100406006315691E-2</v>
+      </c>
       <c r="AQ307" s="10"/>
       <c r="AR307" s="10"/>
       <c r="AS307" s="10"/>
@@ -66252,7 +66839,9 @@
       <c r="AO308" s="10">
         <v>0.13755928493250624</v>
       </c>
-      <c r="AP308" s="10"/>
+      <c r="AP308" s="10">
+        <v>0.11424102985978646</v>
+      </c>
       <c r="AQ308" s="10"/>
       <c r="AR308" s="10"/>
       <c r="AS308" s="10"/>
@@ -66471,7 +67060,9 @@
       <c r="AO309" s="10">
         <v>-1.1006772273172705E-2</v>
       </c>
-      <c r="AP309" s="10"/>
+      <c r="AP309" s="10">
+        <v>4.7269953428617173E-2</v>
+      </c>
       <c r="AQ309" s="10"/>
       <c r="AR309" s="10"/>
       <c r="AS309" s="10"/>
@@ -66690,7 +67281,9 @@
       <c r="AO310" s="10">
         <v>0.34148426963320788</v>
       </c>
-      <c r="AP310" s="10"/>
+      <c r="AP310" s="10">
+        <v>0.28519930139119509</v>
+      </c>
       <c r="AQ310" s="10"/>
       <c r="AR310" s="10"/>
       <c r="AS310" s="10"/>
@@ -66909,7 +67502,9 @@
       <c r="AO311" s="10">
         <v>7.0909772379645908E-4</v>
       </c>
-      <c r="AP311" s="10"/>
+      <c r="AP311" s="10">
+        <v>8.103973986244295E-4</v>
+      </c>
       <c r="AQ311" s="10"/>
       <c r="AR311" s="10"/>
       <c r="AS311" s="10"/>
@@ -67128,7 +67723,9 @@
       <c r="AO312" s="10">
         <v>0</v>
       </c>
-      <c r="AP312" s="10"/>
+      <c r="AP312" s="10">
+        <v>0</v>
+      </c>
       <c r="AQ312" s="10"/>
       <c r="AR312" s="10"/>
       <c r="AS312" s="10"/>
@@ -67347,7 +67944,9 @@
       <c r="AO313" s="10">
         <v>0.14009581154133532</v>
       </c>
-      <c r="AP313" s="10"/>
+      <c r="AP313" s="10">
+        <v>0.13471837005250586</v>
+      </c>
       <c r="AQ313" s="10"/>
       <c r="AR313" s="10"/>
       <c r="AS313" s="10"/>
@@ -67566,7 +68165,9 @@
       <c r="AO314" s="11">
         <v>8.1267484209229801E-2</v>
       </c>
-      <c r="AP314" s="11"/>
+      <c r="AP314" s="11">
+        <v>7.8901855281087396E-2</v>
+      </c>
       <c r="AQ314" s="11"/>
       <c r="AR314" s="11"/>
       <c r="AS314" s="11"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="459">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1394,10 +1394,16 @@
     <t xml:space="preserve"> 07/2022</t>
   </si>
   <si>
-    <t>Última actualización:  09/08/2022</t>
+    <t xml:space="preserve"> 08/2022</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/2022</t>
+    <t>Última actualización:  11/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/2022</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EE314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD314"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1949,7 +1957,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2087,10 +2095,14 @@
         <v>454</v>
       </c>
       <c r="AP15" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
+        <v>455</v>
+      </c>
+      <c r="AQ15" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="AR15" s="13" t="s">
+        <v>458</v>
+      </c>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
       <c r="AU15" s="13"/>
@@ -2310,8 +2322,12 @@
       <c r="AP16" s="10">
         <v>0.26256549738010482</v>
       </c>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
+      <c r="AQ16" s="10">
+        <v>0.24373392192369558</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>0.22906290037678056</v>
+      </c>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -2531,8 +2547,12 @@
       <c r="AP17" s="10">
         <v>6.1042098928439925E-2</v>
       </c>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
+      <c r="AQ17" s="10">
+        <v>4.1340448688691467E-2</v>
+      </c>
+      <c r="AR17" s="10">
+        <v>7.2609141684714329E-2</v>
+      </c>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -2752,8 +2772,12 @@
       <c r="AP18" s="10">
         <v>0.13308946731034021</v>
       </c>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
+      <c r="AQ18" s="10">
+        <v>0.12843584370762962</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>0.13232111234997057</v>
+      </c>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -2973,8 +2997,12 @@
       <c r="AP19" s="10">
         <v>0.22005266390167155</v>
       </c>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
+      <c r="AQ19" s="10">
+        <v>0.21224340770791073</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>0.24075897032042137</v>
+      </c>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -3194,8 +3222,12 @@
       <c r="AP20" s="10">
         <v>7.8705385306543807E-2</v>
       </c>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
+      <c r="AQ20" s="10">
+        <v>7.8178505680246424E-2</v>
+      </c>
+      <c r="AR20" s="10">
+        <v>8.7770743085638259E-2</v>
+      </c>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -3415,8 +3447,12 @@
       <c r="AP21" s="10">
         <v>0.12368237317575748</v>
       </c>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
+      <c r="AQ21" s="10">
+        <v>0.15389748255990288</v>
+      </c>
+      <c r="AR21" s="10">
+        <v>0.15355363567222979</v>
+      </c>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -3636,8 +3672,12 @@
       <c r="AP22" s="10">
         <v>9.8983298226991367E-2</v>
       </c>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
+      <c r="AQ22" s="10">
+        <v>9.866233216954301E-2</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>0.11576796571314674</v>
+      </c>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -3857,8 +3897,12 @@
       <c r="AP23" s="10">
         <v>8.2492586138371626E-2</v>
       </c>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
+      <c r="AQ23" s="10">
+        <v>8.9741590380986391E-2</v>
+      </c>
+      <c r="AR23" s="10">
+        <v>9.4263289910186954E-2</v>
+      </c>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -4078,8 +4122,12 @@
       <c r="AP24" s="10">
         <v>4.7303077575609365E-2</v>
       </c>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
+      <c r="AQ24" s="10">
+        <v>8.1064258985684479E-2</v>
+      </c>
+      <c r="AR24" s="10">
+        <v>0.10209686398218598</v>
+      </c>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -4299,8 +4347,12 @@
       <c r="AP25" s="10">
         <v>0.44044920044738656</v>
       </c>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
+      <c r="AQ25" s="10">
+        <v>0.45505213412347167</v>
+      </c>
+      <c r="AR25" s="10">
+        <v>0.46926215750486744</v>
+      </c>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -4520,8 +4572,12 @@
       <c r="AP26" s="10">
         <v>0.15485485485485473</v>
       </c>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
+      <c r="AQ26" s="10">
+        <v>0.14689102748804239</v>
+      </c>
+      <c r="AR26" s="10">
+        <v>0.12294447668794728</v>
+      </c>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -4741,8 +4797,12 @@
       <c r="AP27" s="10">
         <v>4.840090906096628E-2</v>
       </c>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
+      <c r="AQ27" s="10">
+        <v>2.6879104840671353E-2</v>
+      </c>
+      <c r="AR27" s="10">
+        <v>4.2762757893883396E-2</v>
+      </c>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -4962,8 +5022,12 @@
       <c r="AP28" s="10">
         <v>0.10588355080750023</v>
       </c>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
+      <c r="AQ28" s="10">
+        <v>0.12652348278346959</v>
+      </c>
+      <c r="AR28" s="10">
+        <v>0.14019430548705558</v>
+      </c>
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
       <c r="AU28" s="10"/>
@@ -5183,8 +5247,12 @@
       <c r="AP29" s="10">
         <v>9.1495370976058421E-2</v>
       </c>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
+      <c r="AQ29" s="10">
+        <v>9.9339281854950556E-2</v>
+      </c>
+      <c r="AR29" s="10">
+        <v>0.11187277634646065</v>
+      </c>
       <c r="AS29" s="10"/>
       <c r="AT29" s="10"/>
       <c r="AU29" s="10"/>
@@ -5404,8 +5472,12 @@
       <c r="AP30" s="10">
         <v>9.8382309644871935E-2</v>
       </c>
-      <c r="AQ30" s="10"/>
-      <c r="AR30" s="10"/>
+      <c r="AQ30" s="10">
+        <v>0.10846280649502704</v>
+      </c>
+      <c r="AR30" s="10">
+        <v>0.10657039825890813</v>
+      </c>
       <c r="AS30" s="10"/>
       <c r="AT30" s="10"/>
       <c r="AU30" s="10"/>
@@ -5625,8 +5697,12 @@
       <c r="AP31" s="10">
         <v>8.0411390088573231E-2</v>
       </c>
-      <c r="AQ31" s="10"/>
-      <c r="AR31" s="10"/>
+      <c r="AQ31" s="10">
+        <v>8.2442944627324044E-2</v>
+      </c>
+      <c r="AR31" s="10">
+        <v>8.113145488433271E-2</v>
+      </c>
       <c r="AS31" s="10"/>
       <c r="AT31" s="10"/>
       <c r="AU31" s="10"/>
@@ -5846,8 +5922,12 @@
       <c r="AP32" s="10">
         <v>6.8114189328962738E-2</v>
       </c>
-      <c r="AQ32" s="10"/>
-      <c r="AR32" s="10"/>
+      <c r="AQ32" s="10">
+        <v>6.6321358423620413E-2</v>
+      </c>
+      <c r="AR32" s="10">
+        <v>6.7040431437360049E-2</v>
+      </c>
       <c r="AS32" s="10"/>
       <c r="AT32" s="10"/>
       <c r="AU32" s="10"/>
@@ -6067,8 +6147,12 @@
       <c r="AP33" s="10">
         <v>0.16789378394689192</v>
       </c>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
+      <c r="AQ33" s="10">
+        <v>-1.1275703733280018E-2</v>
+      </c>
+      <c r="AR33" s="10">
+        <v>-8.4927581808969754E-2</v>
+      </c>
       <c r="AS33" s="10"/>
       <c r="AT33" s="10"/>
       <c r="AU33" s="10"/>
@@ -6288,8 +6372,12 @@
       <c r="AP34" s="10">
         <v>0.13250322592798414</v>
       </c>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
+      <c r="AQ34" s="10">
+        <v>0.12804025719876977</v>
+      </c>
+      <c r="AR34" s="10">
+        <v>0.13489538562427428</v>
+      </c>
       <c r="AS34" s="10"/>
       <c r="AT34" s="10"/>
       <c r="AU34" s="10"/>
@@ -6509,8 +6597,12 @@
       <c r="AP35" s="10">
         <v>-1.9637729366489665E-2</v>
       </c>
-      <c r="AQ35" s="10"/>
-      <c r="AR35" s="10"/>
+      <c r="AQ35" s="10">
+        <v>4.4451073985680267E-2</v>
+      </c>
+      <c r="AR35" s="10">
+        <v>7.1154725475713221E-2</v>
+      </c>
       <c r="AS35" s="10"/>
       <c r="AT35" s="10"/>
       <c r="AU35" s="10"/>
@@ -6730,8 +6822,12 @@
       <c r="AP36" s="10">
         <v>0.18711668928086822</v>
       </c>
-      <c r="AQ36" s="10"/>
-      <c r="AR36" s="10"/>
+      <c r="AQ36" s="10">
+        <v>0.11815610519347675</v>
+      </c>
+      <c r="AR36" s="10">
+        <v>0.15886799840847798</v>
+      </c>
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
       <c r="AU36" s="10"/>
@@ -6951,8 +7047,12 @@
       <c r="AP37" s="10">
         <v>2.5540305552105291E-2</v>
       </c>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="10"/>
+      <c r="AQ37" s="10">
+        <v>5.586878928582717E-2</v>
+      </c>
+      <c r="AR37" s="10">
+        <v>8.4353926517290789E-2</v>
+      </c>
       <c r="AS37" s="10"/>
       <c r="AT37" s="10"/>
       <c r="AU37" s="10"/>
@@ -7172,8 +7272,12 @@
       <c r="AP38" s="10">
         <v>0.26632064769778263</v>
       </c>
-      <c r="AQ38" s="10"/>
-      <c r="AR38" s="10"/>
+      <c r="AQ38" s="10">
+        <v>0.1964585739787883</v>
+      </c>
+      <c r="AR38" s="10">
+        <v>0.29271826787177679</v>
+      </c>
       <c r="AS38" s="10"/>
       <c r="AT38" s="10"/>
       <c r="AU38" s="10"/>
@@ -7393,8 +7497,12 @@
       <c r="AP39" s="10">
         <v>0.40225949117659932</v>
       </c>
-      <c r="AQ39" s="10"/>
-      <c r="AR39" s="10"/>
+      <c r="AQ39" s="10">
+        <v>0.56432198608237716</v>
+      </c>
+      <c r="AR39" s="10">
+        <v>0.52376578893342973</v>
+      </c>
       <c r="AS39" s="10"/>
       <c r="AT39" s="10"/>
       <c r="AU39" s="10"/>
@@ -7614,8 +7722,12 @@
       <c r="AP40" s="10">
         <v>0.29857046915475394</v>
       </c>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
+      <c r="AQ40" s="10">
+        <v>0.12753905518300668</v>
+      </c>
+      <c r="AR40" s="10">
+        <v>0.14558848929507451</v>
+      </c>
       <c r="AS40" s="10"/>
       <c r="AT40" s="10"/>
       <c r="AU40" s="10"/>
@@ -7835,8 +7947,12 @@
       <c r="AP41" s="10">
         <v>8.4903959265333562E-2</v>
       </c>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="10"/>
+      <c r="AQ41" s="10">
+        <v>4.0895828530087552E-2</v>
+      </c>
+      <c r="AR41" s="10">
+        <v>5.7800263899624449E-2</v>
+      </c>
       <c r="AS41" s="10"/>
       <c r="AT41" s="10"/>
       <c r="AU41" s="10"/>
@@ -8056,8 +8172,12 @@
       <c r="AP42" s="10">
         <v>1.9674266027067677E-2</v>
       </c>
-      <c r="AQ42" s="10"/>
-      <c r="AR42" s="10"/>
+      <c r="AQ42" s="10">
+        <v>7.4475443855199774E-3</v>
+      </c>
+      <c r="AR42" s="10">
+        <v>5.2348721463676862E-2</v>
+      </c>
       <c r="AS42" s="10"/>
       <c r="AT42" s="10"/>
       <c r="AU42" s="10"/>
@@ -8277,8 +8397,12 @@
       <c r="AP43" s="10">
         <v>0.26199075811741257</v>
       </c>
-      <c r="AQ43" s="10"/>
-      <c r="AR43" s="10"/>
+      <c r="AQ43" s="10">
+        <v>0.15036321797590579</v>
+      </c>
+      <c r="AR43" s="10">
+        <v>0.16718229211178537</v>
+      </c>
       <c r="AS43" s="10"/>
       <c r="AT43" s="10"/>
       <c r="AU43" s="10"/>
@@ -8498,8 +8622,12 @@
       <c r="AP44" s="10">
         <v>0.11338621092392875</v>
       </c>
-      <c r="AQ44" s="10"/>
-      <c r="AR44" s="10"/>
+      <c r="AQ44" s="10">
+        <v>0.20083561558570917</v>
+      </c>
+      <c r="AR44" s="10">
+        <v>0.20316762951555267</v>
+      </c>
       <c r="AS44" s="10"/>
       <c r="AT44" s="10"/>
       <c r="AU44" s="10"/>
@@ -8719,8 +8847,12 @@
       <c r="AP45" s="10">
         <v>0.37189154374224365</v>
       </c>
-      <c r="AQ45" s="10"/>
-      <c r="AR45" s="10"/>
+      <c r="AQ45" s="10">
+        <v>0.55539320283266846</v>
+      </c>
+      <c r="AR45" s="10">
+        <v>0.46921930933199651</v>
+      </c>
       <c r="AS45" s="10"/>
       <c r="AT45" s="10"/>
       <c r="AU45" s="10"/>
@@ -8940,8 +9072,12 @@
       <c r="AP46" s="10">
         <v>8.2468184862692695E-2</v>
       </c>
-      <c r="AQ46" s="10"/>
-      <c r="AR46" s="10"/>
+      <c r="AQ46" s="10">
+        <v>6.6298775766248985E-2</v>
+      </c>
+      <c r="AR46" s="10">
+        <v>0.25351957360779265</v>
+      </c>
       <c r="AS46" s="10"/>
       <c r="AT46" s="10"/>
       <c r="AU46" s="10"/>
@@ -9161,8 +9297,12 @@
       <c r="AP47" s="10">
         <v>6.7793083357609696E-2</v>
       </c>
-      <c r="AQ47" s="10"/>
-      <c r="AR47" s="10"/>
+      <c r="AQ47" s="10">
+        <v>0.14570498721100344</v>
+      </c>
+      <c r="AR47" s="10">
+        <v>0.1625207792078518</v>
+      </c>
       <c r="AS47" s="10"/>
       <c r="AT47" s="10"/>
       <c r="AU47" s="10"/>
@@ -9382,8 +9522,12 @@
       <c r="AP48" s="10">
         <v>0.12033773801368453</v>
       </c>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="10"/>
+      <c r="AQ48" s="10">
+        <v>0.13508596528608652</v>
+      </c>
+      <c r="AR48" s="10">
+        <v>0.20106466388808641</v>
+      </c>
       <c r="AS48" s="10"/>
       <c r="AT48" s="10"/>
       <c r="AU48" s="10"/>
@@ -9603,8 +9747,12 @@
       <c r="AP49" s="10">
         <v>-1.0536997272883819E-2</v>
       </c>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
+      <c r="AQ49" s="10">
+        <v>1.7051428571428495E-2</v>
+      </c>
+      <c r="AR49" s="10">
+        <v>3.1551397806616421E-2</v>
+      </c>
       <c r="AS49" s="10"/>
       <c r="AT49" s="10"/>
       <c r="AU49" s="10"/>
@@ -9824,8 +9972,12 @@
       <c r="AP50" s="10">
         <v>6.2641010765164484E-2</v>
       </c>
-      <c r="AQ50" s="10"/>
-      <c r="AR50" s="10"/>
+      <c r="AQ50" s="10">
+        <v>6.600554061107311E-2</v>
+      </c>
+      <c r="AR50" s="10">
+        <v>0.107097515020661</v>
+      </c>
       <c r="AS50" s="10"/>
       <c r="AT50" s="10"/>
       <c r="AU50" s="10"/>
@@ -10045,8 +10197,12 @@
       <c r="AP51" s="10">
         <v>4.3168535776338723E-2</v>
       </c>
-      <c r="AQ51" s="10"/>
-      <c r="AR51" s="10"/>
+      <c r="AQ51" s="10">
+        <v>3.3437087342010896E-2</v>
+      </c>
+      <c r="AR51" s="10">
+        <v>-3.3434841302232288E-3</v>
+      </c>
       <c r="AS51" s="10"/>
       <c r="AT51" s="10"/>
       <c r="AU51" s="10"/>
@@ -10266,8 +10422,12 @@
       <c r="AP52" s="10">
         <v>4.9151493436695892E-2</v>
       </c>
-      <c r="AQ52" s="10"/>
-      <c r="AR52" s="10"/>
+      <c r="AQ52" s="10">
+        <v>8.1221641632131414E-2</v>
+      </c>
+      <c r="AR52" s="10">
+        <v>0.10205451969767698</v>
+      </c>
       <c r="AS52" s="10"/>
       <c r="AT52" s="10"/>
       <c r="AU52" s="10"/>
@@ -10487,8 +10647,12 @@
       <c r="AP53" s="10">
         <v>0.14306021166107952</v>
       </c>
-      <c r="AQ53" s="10"/>
-      <c r="AR53" s="10"/>
+      <c r="AQ53" s="10">
+        <v>0.14629266699330401</v>
+      </c>
+      <c r="AR53" s="10">
+        <v>0.22568064693207068</v>
+      </c>
       <c r="AS53" s="10"/>
       <c r="AT53" s="10"/>
       <c r="AU53" s="10"/>
@@ -10708,8 +10872,12 @@
       <c r="AP54" s="10">
         <v>0.17122143612974305</v>
       </c>
-      <c r="AQ54" s="10"/>
-      <c r="AR54" s="10"/>
+      <c r="AQ54" s="10">
+        <v>0.19157896564898746</v>
+      </c>
+      <c r="AR54" s="10">
+        <v>0.1767473286454293</v>
+      </c>
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
       <c r="AU54" s="10"/>
@@ -10929,8 +11097,12 @@
       <c r="AP55" s="10">
         <v>-2.04083219910558E-2</v>
       </c>
-      <c r="AQ55" s="10"/>
-      <c r="AR55" s="10"/>
+      <c r="AQ55" s="10">
+        <v>1.8217634421944906E-2</v>
+      </c>
+      <c r="AR55" s="10">
+        <v>0.35359042992630774</v>
+      </c>
       <c r="AS55" s="10"/>
       <c r="AT55" s="10"/>
       <c r="AU55" s="10"/>
@@ -11150,8 +11322,12 @@
       <c r="AP56" s="10">
         <v>0.94689443151422537</v>
       </c>
-      <c r="AQ56" s="10"/>
-      <c r="AR56" s="10"/>
+      <c r="AQ56" s="10">
+        <v>0.81563868100089709</v>
+      </c>
+      <c r="AR56" s="10">
+        <v>0.3860274368231047</v>
+      </c>
       <c r="AS56" s="10"/>
       <c r="AT56" s="10"/>
       <c r="AU56" s="10"/>
@@ -11371,8 +11547,12 @@
       <c r="AP57" s="10">
         <v>-4.3497700129388805E-2</v>
       </c>
-      <c r="AQ57" s="10"/>
-      <c r="AR57" s="10"/>
+      <c r="AQ57" s="10">
+        <v>0.12344683188027727</v>
+      </c>
+      <c r="AR57" s="10">
+        <v>0.11776729140561826</v>
+      </c>
       <c r="AS57" s="10"/>
       <c r="AT57" s="10"/>
       <c r="AU57" s="10"/>
@@ -11592,8 +11772,12 @@
       <c r="AP58" s="10">
         <v>0.20480019010653883</v>
       </c>
-      <c r="AQ58" s="10"/>
-      <c r="AR58" s="10"/>
+      <c r="AQ58" s="10">
+        <v>2.7242709672934629E-2</v>
+      </c>
+      <c r="AR58" s="10">
+        <v>0.13875346280635337</v>
+      </c>
       <c r="AS58" s="10"/>
       <c r="AT58" s="10"/>
       <c r="AU58" s="10"/>
@@ -11813,8 +11997,12 @@
       <c r="AP59" s="10">
         <v>-4.2754989637982854E-2</v>
       </c>
-      <c r="AQ59" s="10"/>
-      <c r="AR59" s="10"/>
+      <c r="AQ59" s="10">
+        <v>-0.1660103969139477</v>
+      </c>
+      <c r="AR59" s="10">
+        <v>-0.25904826189672636</v>
+      </c>
       <c r="AS59" s="10"/>
       <c r="AT59" s="10"/>
       <c r="AU59" s="10"/>
@@ -12034,8 +12222,12 @@
       <c r="AP60" s="10">
         <v>7.1853198193550405E-2</v>
       </c>
-      <c r="AQ60" s="10"/>
-      <c r="AR60" s="10"/>
+      <c r="AQ60" s="10">
+        <v>-0.10492899346947238</v>
+      </c>
+      <c r="AR60" s="10">
+        <v>-8.9426667296875761E-2</v>
+      </c>
       <c r="AS60" s="10"/>
       <c r="AT60" s="10"/>
       <c r="AU60" s="10"/>
@@ -12255,8 +12447,12 @@
       <c r="AP61" s="10">
         <v>-0.12925371405776498</v>
       </c>
-      <c r="AQ61" s="10"/>
-      <c r="AR61" s="10"/>
+      <c r="AQ61" s="10">
+        <v>-0.11037398298548495</v>
+      </c>
+      <c r="AR61" s="10">
+        <v>-8.0943966254343191E-4</v>
+      </c>
       <c r="AS61" s="10"/>
       <c r="AT61" s="10"/>
       <c r="AU61" s="10"/>
@@ -12476,8 +12672,12 @@
       <c r="AP62" s="10">
         <v>0.17631881938666583</v>
       </c>
-      <c r="AQ62" s="10"/>
-      <c r="AR62" s="10"/>
+      <c r="AQ62" s="10">
+        <v>0.19378840164969269</v>
+      </c>
+      <c r="AR62" s="10">
+        <v>0.22814474153889575</v>
+      </c>
       <c r="AS62" s="10"/>
       <c r="AT62" s="10"/>
       <c r="AU62" s="10"/>
@@ -12697,8 +12897,12 @@
       <c r="AP63" s="10">
         <v>0.13390184411840789</v>
       </c>
-      <c r="AQ63" s="10"/>
-      <c r="AR63" s="10"/>
+      <c r="AQ63" s="10">
+        <v>0.22537642306279837</v>
+      </c>
+      <c r="AR63" s="10">
+        <v>0.20386079062502716</v>
+      </c>
       <c r="AS63" s="10"/>
       <c r="AT63" s="10"/>
       <c r="AU63" s="10"/>
@@ -12918,8 +13122,12 @@
       <c r="AP64" s="10">
         <v>0.1024085934450405</v>
       </c>
-      <c r="AQ64" s="10"/>
-      <c r="AR64" s="10"/>
+      <c r="AQ64" s="10">
+        <v>0.10527870009579288</v>
+      </c>
+      <c r="AR64" s="10">
+        <v>4.7265682607354975E-2</v>
+      </c>
       <c r="AS64" s="10"/>
       <c r="AT64" s="10"/>
       <c r="AU64" s="10"/>
@@ -13139,8 +13347,12 @@
       <c r="AP65" s="10">
         <v>4.0909602211842699E-3</v>
       </c>
-      <c r="AQ65" s="10"/>
-      <c r="AR65" s="10"/>
+      <c r="AQ65" s="10">
+        <v>4.7613298158131423E-2</v>
+      </c>
+      <c r="AR65" s="10">
+        <v>2.420230525796252E-2</v>
+      </c>
       <c r="AS65" s="10"/>
       <c r="AT65" s="10"/>
       <c r="AU65" s="10"/>
@@ -13360,8 +13572,12 @@
       <c r="AP66" s="10">
         <v>0.70424836601307184</v>
       </c>
-      <c r="AQ66" s="10"/>
-      <c r="AR66" s="10"/>
+      <c r="AQ66" s="10">
+        <v>0.7991488759740184</v>
+      </c>
+      <c r="AR66" s="10">
+        <v>0.64648262515977217</v>
+      </c>
       <c r="AS66" s="10"/>
       <c r="AT66" s="10"/>
       <c r="AU66" s="10"/>
@@ -13581,8 +13797,12 @@
       <c r="AP67" s="10">
         <v>0.23490316710714443</v>
       </c>
-      <c r="AQ67" s="10"/>
-      <c r="AR67" s="10"/>
+      <c r="AQ67" s="10">
+        <v>0.29411557806619526</v>
+      </c>
+      <c r="AR67" s="10">
+        <v>0.33179458578231591</v>
+      </c>
       <c r="AS67" s="10"/>
       <c r="AT67" s="10"/>
       <c r="AU67" s="10"/>
@@ -13802,8 +14022,12 @@
       <c r="AP68" s="10">
         <v>0.35202134360988624</v>
       </c>
-      <c r="AQ68" s="10"/>
-      <c r="AR68" s="10"/>
+      <c r="AQ68" s="10">
+        <v>0.38657497565725429</v>
+      </c>
+      <c r="AR68" s="10">
+        <v>0.36476556256105153</v>
+      </c>
       <c r="AS68" s="10"/>
       <c r="AT68" s="10"/>
       <c r="AU68" s="10"/>
@@ -14023,8 +14247,12 @@
       <c r="AP69" s="10">
         <v>0.11325893855316371</v>
       </c>
-      <c r="AQ69" s="10"/>
-      <c r="AR69" s="10"/>
+      <c r="AQ69" s="10">
+        <v>0.14202930026852001</v>
+      </c>
+      <c r="AR69" s="10">
+        <v>0.1007229691956375</v>
+      </c>
       <c r="AS69" s="10"/>
       <c r="AT69" s="10"/>
       <c r="AU69" s="10"/>
@@ -14244,8 +14472,12 @@
       <c r="AP70" s="10">
         <v>8.3233063039497734E-2</v>
       </c>
-      <c r="AQ70" s="10"/>
-      <c r="AR70" s="10"/>
+      <c r="AQ70" s="10">
+        <v>8.8103041426324191E-2</v>
+      </c>
+      <c r="AR70" s="10">
+        <v>9.6562177418300976E-2</v>
+      </c>
       <c r="AS70" s="10"/>
       <c r="AT70" s="10"/>
       <c r="AU70" s="10"/>
@@ -14465,8 +14697,12 @@
       <c r="AP71" s="10">
         <v>-0.16203520906231705</v>
       </c>
-      <c r="AQ71" s="10"/>
-      <c r="AR71" s="10"/>
+      <c r="AQ71" s="10">
+        <v>-9.5465196416264719E-2</v>
+      </c>
+      <c r="AR71" s="10">
+        <v>-6.9379469240387071E-2</v>
+      </c>
       <c r="AS71" s="10"/>
       <c r="AT71" s="10"/>
       <c r="AU71" s="10"/>
@@ -14686,8 +14922,12 @@
       <c r="AP72" s="10">
         <v>0.13039791197504913</v>
       </c>
-      <c r="AQ72" s="10"/>
-      <c r="AR72" s="10"/>
+      <c r="AQ72" s="10">
+        <v>0.10568738299226244</v>
+      </c>
+      <c r="AR72" s="10">
+        <v>5.7768121528568583E-2</v>
+      </c>
       <c r="AS72" s="10"/>
       <c r="AT72" s="10"/>
       <c r="AU72" s="10"/>
@@ -14907,8 +15147,12 @@
       <c r="AP73" s="10">
         <v>0.14858080115815264</v>
       </c>
-      <c r="AQ73" s="10"/>
-      <c r="AR73" s="10"/>
+      <c r="AQ73" s="10">
+        <v>0.14245604908426035</v>
+      </c>
+      <c r="AR73" s="10">
+        <v>0.14908354646206301</v>
+      </c>
       <c r="AS73" s="10"/>
       <c r="AT73" s="10"/>
       <c r="AU73" s="10"/>
@@ -15128,8 +15372,12 @@
       <c r="AP74" s="10">
         <v>7.2254243729414691E-2</v>
       </c>
-      <c r="AQ74" s="10"/>
-      <c r="AR74" s="10"/>
+      <c r="AQ74" s="10">
+        <v>5.6535265685491165E-2</v>
+      </c>
+      <c r="AR74" s="10">
+        <v>7.1862941812007808E-2</v>
+      </c>
       <c r="AS74" s="10"/>
       <c r="AT74" s="10"/>
       <c r="AU74" s="10"/>
@@ -15349,8 +15597,12 @@
       <c r="AP75" s="10">
         <v>8.21245239939008E-2</v>
       </c>
-      <c r="AQ75" s="10"/>
-      <c r="AR75" s="10"/>
+      <c r="AQ75" s="10">
+        <v>8.9872154365286949E-2</v>
+      </c>
+      <c r="AR75" s="10">
+        <v>8.3194177510318434E-2</v>
+      </c>
       <c r="AS75" s="10"/>
       <c r="AT75" s="10"/>
       <c r="AU75" s="10"/>
@@ -15570,8 +15822,12 @@
       <c r="AP76" s="10">
         <v>0.11037400575393463</v>
       </c>
-      <c r="AQ76" s="10"/>
-      <c r="AR76" s="10"/>
+      <c r="AQ76" s="10">
+        <v>0.13993759358870328</v>
+      </c>
+      <c r="AR76" s="10">
+        <v>0.14702061612173978</v>
+      </c>
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
       <c r="AU76" s="10"/>
@@ -15791,8 +16047,12 @@
       <c r="AP77" s="10">
         <v>0.19052435233160625</v>
       </c>
-      <c r="AQ77" s="10"/>
-      <c r="AR77" s="10"/>
+      <c r="AQ77" s="10">
+        <v>0.2187597844536362</v>
+      </c>
+      <c r="AR77" s="10">
+        <v>0.24190614472278171</v>
+      </c>
       <c r="AS77" s="10"/>
       <c r="AT77" s="10"/>
       <c r="AU77" s="10"/>
@@ -16012,8 +16272,12 @@
       <c r="AP78" s="10">
         <v>0.11713510980696396</v>
       </c>
-      <c r="AQ78" s="10"/>
-      <c r="AR78" s="10"/>
+      <c r="AQ78" s="10">
+        <v>0.12963921055434668</v>
+      </c>
+      <c r="AR78" s="10">
+        <v>0.1375450062025354</v>
+      </c>
       <c r="AS78" s="10"/>
       <c r="AT78" s="10"/>
       <c r="AU78" s="10"/>
@@ -16233,8 +16497,12 @@
       <c r="AP79" s="10">
         <v>0.15247713290582987</v>
       </c>
-      <c r="AQ79" s="10"/>
-      <c r="AR79" s="10"/>
+      <c r="AQ79" s="10">
+        <v>0.17973539588845933</v>
+      </c>
+      <c r="AR79" s="10">
+        <v>0.19410317421777612</v>
+      </c>
       <c r="AS79" s="10"/>
       <c r="AT79" s="10"/>
       <c r="AU79" s="10"/>
@@ -16454,8 +16722,12 @@
       <c r="AP80" s="10">
         <v>0.12941689570612724</v>
       </c>
-      <c r="AQ80" s="10"/>
-      <c r="AR80" s="10"/>
+      <c r="AQ80" s="10">
+        <v>0.10980172860420567</v>
+      </c>
+      <c r="AR80" s="10">
+        <v>0.12984342483401057</v>
+      </c>
       <c r="AS80" s="10"/>
       <c r="AT80" s="10"/>
       <c r="AU80" s="10"/>
@@ -16675,8 +16947,12 @@
       <c r="AP81" s="10">
         <v>8.668917857703784E-2</v>
       </c>
-      <c r="AQ81" s="10"/>
-      <c r="AR81" s="10"/>
+      <c r="AQ81" s="10">
+        <v>9.6474289095835886E-2</v>
+      </c>
+      <c r="AR81" s="10">
+        <v>8.1164582446087818E-2</v>
+      </c>
       <c r="AS81" s="10"/>
       <c r="AT81" s="10"/>
       <c r="AU81" s="10"/>
@@ -16896,8 +17172,12 @@
       <c r="AP82" s="10">
         <v>0.30865940514406032</v>
       </c>
-      <c r="AQ82" s="10"/>
-      <c r="AR82" s="10"/>
+      <c r="AQ82" s="10">
+        <v>0.33069086278255333</v>
+      </c>
+      <c r="AR82" s="10">
+        <v>0.25409793604629671</v>
+      </c>
       <c r="AS82" s="10"/>
       <c r="AT82" s="10"/>
       <c r="AU82" s="10"/>
@@ -17117,8 +17397,12 @@
       <c r="AP83" s="10">
         <v>6.5699303071718562E-2</v>
       </c>
-      <c r="AQ83" s="10"/>
-      <c r="AR83" s="10"/>
+      <c r="AQ83" s="10">
+        <v>6.6803168892801024E-2</v>
+      </c>
+      <c r="AR83" s="10">
+        <v>7.2897303171561845E-2</v>
+      </c>
       <c r="AS83" s="10"/>
       <c r="AT83" s="10"/>
       <c r="AU83" s="10"/>
@@ -17338,8 +17622,12 @@
       <c r="AP84" s="10">
         <v>0.13343450451840799</v>
       </c>
-      <c r="AQ84" s="10"/>
-      <c r="AR84" s="10"/>
+      <c r="AQ84" s="10">
+        <v>0.13384585392315596</v>
+      </c>
+      <c r="AR84" s="10">
+        <v>0.15407213003725007</v>
+      </c>
       <c r="AS84" s="10"/>
       <c r="AT84" s="10"/>
       <c r="AU84" s="10"/>
@@ -17559,8 +17847,12 @@
       <c r="AP85" s="10">
         <v>5.6864811355399114E-2</v>
       </c>
-      <c r="AQ85" s="10"/>
-      <c r="AR85" s="10"/>
+      <c r="AQ85" s="10">
+        <v>7.483816515514663E-2</v>
+      </c>
+      <c r="AR85" s="10">
+        <v>5.3130703912388055E-2</v>
+      </c>
       <c r="AS85" s="10"/>
       <c r="AT85" s="10"/>
       <c r="AU85" s="10"/>
@@ -17780,8 +18072,12 @@
       <c r="AP86" s="10">
         <v>7.388916208940044E-2</v>
       </c>
-      <c r="AQ86" s="10"/>
-      <c r="AR86" s="10"/>
+      <c r="AQ86" s="10">
+        <v>8.1230723187044163E-2</v>
+      </c>
+      <c r="AR86" s="10">
+        <v>7.7929936833728508E-2</v>
+      </c>
       <c r="AS86" s="10"/>
       <c r="AT86" s="10"/>
       <c r="AU86" s="10"/>
@@ -18001,8 +18297,12 @@
       <c r="AP87" s="10">
         <v>9.0820542374532298E-2</v>
       </c>
-      <c r="AQ87" s="10"/>
-      <c r="AR87" s="10"/>
+      <c r="AQ87" s="10">
+        <v>8.2883434594124283E-2</v>
+      </c>
+      <c r="AR87" s="10">
+        <v>7.0141426982361255E-2</v>
+      </c>
       <c r="AS87" s="10"/>
       <c r="AT87" s="10"/>
       <c r="AU87" s="10"/>
@@ -18222,8 +18522,12 @@
       <c r="AP88" s="10">
         <v>0.16854635045202881</v>
       </c>
-      <c r="AQ88" s="10"/>
-      <c r="AR88" s="10"/>
+      <c r="AQ88" s="10">
+        <v>0.16797280165955986</v>
+      </c>
+      <c r="AR88" s="10">
+        <v>0.17611419351652158</v>
+      </c>
       <c r="AS88" s="10"/>
       <c r="AT88" s="10"/>
       <c r="AU88" s="10"/>
@@ -18443,8 +18747,12 @@
       <c r="AP89" s="10">
         <v>8.9411979002798514E-2</v>
       </c>
-      <c r="AQ89" s="10"/>
-      <c r="AR89" s="10"/>
+      <c r="AQ89" s="10">
+        <v>0.10401609418076152</v>
+      </c>
+      <c r="AR89" s="10">
+        <v>0.10835702196881325</v>
+      </c>
       <c r="AS89" s="10"/>
       <c r="AT89" s="10"/>
       <c r="AU89" s="10"/>
@@ -18664,8 +18972,12 @@
       <c r="AP90" s="10">
         <v>9.836385360025357E-2</v>
       </c>
-      <c r="AQ90" s="10"/>
-      <c r="AR90" s="10"/>
+      <c r="AQ90" s="10">
+        <v>8.393674837196774E-2</v>
+      </c>
+      <c r="AR90" s="10">
+        <v>0.15037721523077185</v>
+      </c>
       <c r="AS90" s="10"/>
       <c r="AT90" s="10"/>
       <c r="AU90" s="10"/>
@@ -18885,8 +19197,12 @@
       <c r="AP91" s="10">
         <v>0.1600723472668808</v>
       </c>
-      <c r="AQ91" s="10"/>
-      <c r="AR91" s="10"/>
+      <c r="AQ91" s="10">
+        <v>0.16285663937971573</v>
+      </c>
+      <c r="AR91" s="10">
+        <v>0.17310890772429244</v>
+      </c>
       <c r="AS91" s="10"/>
       <c r="AT91" s="10"/>
       <c r="AU91" s="10"/>
@@ -19106,8 +19422,12 @@
       <c r="AP92" s="10">
         <v>7.5881175927350997E-2</v>
       </c>
-      <c r="AQ92" s="10"/>
-      <c r="AR92" s="10"/>
+      <c r="AQ92" s="10">
+        <v>8.4465108343286133E-2</v>
+      </c>
+      <c r="AR92" s="10">
+        <v>7.7944361860267541E-2</v>
+      </c>
       <c r="AS92" s="10"/>
       <c r="AT92" s="10"/>
       <c r="AU92" s="10"/>
@@ -19327,8 +19647,12 @@
       <c r="AP93" s="10">
         <v>6.1974798561328814E-2</v>
       </c>
-      <c r="AQ93" s="10"/>
-      <c r="AR93" s="10"/>
+      <c r="AQ93" s="10">
+        <v>6.8811577613343555E-2</v>
+      </c>
+      <c r="AR93" s="10">
+        <v>7.8202954514111411E-2</v>
+      </c>
       <c r="AS93" s="10"/>
       <c r="AT93" s="10"/>
       <c r="AU93" s="10"/>
@@ -19548,8 +19872,12 @@
       <c r="AP94" s="10">
         <v>6.2861579944365698E-2</v>
       </c>
-      <c r="AQ94" s="10"/>
-      <c r="AR94" s="10"/>
+      <c r="AQ94" s="10">
+        <v>7.0843658626514427E-2</v>
+      </c>
+      <c r="AR94" s="10">
+        <v>5.9834188308669933E-2</v>
+      </c>
       <c r="AS94" s="10"/>
       <c r="AT94" s="10"/>
       <c r="AU94" s="10"/>
@@ -19769,8 +20097,12 @@
       <c r="AP95" s="10">
         <v>6.3343493467842737E-2</v>
       </c>
-      <c r="AQ95" s="10"/>
-      <c r="AR95" s="10"/>
+      <c r="AQ95" s="10">
+        <v>6.136676869104507E-2</v>
+      </c>
+      <c r="AR95" s="10">
+        <v>6.1976301127396827E-2</v>
+      </c>
       <c r="AS95" s="10"/>
       <c r="AT95" s="10"/>
       <c r="AU95" s="10"/>
@@ -19990,8 +20322,12 @@
       <c r="AP96" s="10">
         <v>7.5988725660429024E-2</v>
       </c>
-      <c r="AQ96" s="10"/>
-      <c r="AR96" s="10"/>
+      <c r="AQ96" s="10">
+        <v>7.1613832853026027E-2</v>
+      </c>
+      <c r="AR96" s="10">
+        <v>8.1806251300353683E-2</v>
+      </c>
       <c r="AS96" s="10"/>
       <c r="AT96" s="10"/>
       <c r="AU96" s="10"/>
@@ -20211,8 +20547,12 @@
       <c r="AP97" s="10">
         <v>8.8671964420026894E-2</v>
       </c>
-      <c r="AQ97" s="10"/>
-      <c r="AR97" s="10"/>
+      <c r="AQ97" s="10">
+        <v>9.8264820983861023E-2</v>
+      </c>
+      <c r="AR97" s="10">
+        <v>9.3879847297568819E-2</v>
+      </c>
       <c r="AS97" s="10"/>
       <c r="AT97" s="10"/>
       <c r="AU97" s="10"/>
@@ -20432,8 +20772,12 @@
       <c r="AP98" s="10">
         <v>8.9768083638486207E-2</v>
       </c>
-      <c r="AQ98" s="10"/>
-      <c r="AR98" s="10"/>
+      <c r="AQ98" s="10">
+        <v>8.2795300592718002E-2</v>
+      </c>
+      <c r="AR98" s="10">
+        <v>8.2409825651161173E-2</v>
+      </c>
       <c r="AS98" s="10"/>
       <c r="AT98" s="10"/>
       <c r="AU98" s="10"/>
@@ -20653,8 +20997,12 @@
       <c r="AP99" s="10">
         <v>0.16130817287257493</v>
       </c>
-      <c r="AQ99" s="10"/>
-      <c r="AR99" s="10"/>
+      <c r="AQ99" s="10">
+        <v>0.15514173975061318</v>
+      </c>
+      <c r="AR99" s="10">
+        <v>0.19825197186101051</v>
+      </c>
       <c r="AS99" s="10"/>
       <c r="AT99" s="10"/>
       <c r="AU99" s="10"/>
@@ -20874,8 +21222,12 @@
       <c r="AP100" s="10">
         <v>0.10636177122874635</v>
       </c>
-      <c r="AQ100" s="10"/>
-      <c r="AR100" s="10"/>
+      <c r="AQ100" s="10">
+        <v>0.11154536292800432</v>
+      </c>
+      <c r="AR100" s="10">
+        <v>7.872932495388163E-2</v>
+      </c>
       <c r="AS100" s="10"/>
       <c r="AT100" s="10"/>
       <c r="AU100" s="10"/>
@@ -21095,8 +21447,12 @@
       <c r="AP101" s="10">
         <v>6.3592330838562416E-2</v>
       </c>
-      <c r="AQ101" s="10"/>
-      <c r="AR101" s="10"/>
+      <c r="AQ101" s="10">
+        <v>7.0294091070224551E-2</v>
+      </c>
+      <c r="AR101" s="10">
+        <v>7.5467642858133344E-2</v>
+      </c>
       <c r="AS101" s="10"/>
       <c r="AT101" s="10"/>
       <c r="AU101" s="10"/>
@@ -21316,8 +21672,12 @@
       <c r="AP102" s="10">
         <v>0.11813786780028335</v>
       </c>
-      <c r="AQ102" s="10"/>
-      <c r="AR102" s="10"/>
+      <c r="AQ102" s="10">
+        <v>0.1195632347820319</v>
+      </c>
+      <c r="AR102" s="10">
+        <v>0.14788121454788139</v>
+      </c>
       <c r="AS102" s="10"/>
       <c r="AT102" s="10"/>
       <c r="AU102" s="10"/>
@@ -21537,8 +21897,12 @@
       <c r="AP103" s="10">
         <v>0.14094838646881325</v>
       </c>
-      <c r="AQ103" s="10"/>
-      <c r="AR103" s="10"/>
+      <c r="AQ103" s="10">
+        <v>0.1355965168191664</v>
+      </c>
+      <c r="AR103" s="10">
+        <v>0.16436612997295907</v>
+      </c>
       <c r="AS103" s="10"/>
       <c r="AT103" s="10"/>
       <c r="AU103" s="10"/>
@@ -21758,8 +22122,12 @@
       <c r="AP104" s="10">
         <v>0.21511281554843986</v>
       </c>
-      <c r="AQ104" s="10"/>
-      <c r="AR104" s="10"/>
+      <c r="AQ104" s="10">
+        <v>0.24232536212458733</v>
+      </c>
+      <c r="AR104" s="10">
+        <v>0.30570643251812868</v>
+      </c>
       <c r="AS104" s="10"/>
       <c r="AT104" s="10"/>
       <c r="AU104" s="10"/>
@@ -21979,8 +22347,12 @@
       <c r="AP105" s="10">
         <v>9.2668016773445494E-2</v>
       </c>
-      <c r="AQ105" s="10"/>
-      <c r="AR105" s="10"/>
+      <c r="AQ105" s="10">
+        <v>0.12501956341901499</v>
+      </c>
+      <c r="AR105" s="10">
+        <v>0.13287028684827695</v>
+      </c>
       <c r="AS105" s="10"/>
       <c r="AT105" s="10"/>
       <c r="AU105" s="10"/>
@@ -22200,8 +22572,12 @@
       <c r="AP106" s="10">
         <v>0.16733310451347161</v>
       </c>
-      <c r="AQ106" s="10"/>
-      <c r="AR106" s="10"/>
+      <c r="AQ106" s="10">
+        <v>0.20230647928327583</v>
+      </c>
+      <c r="AR106" s="10">
+        <v>0.22995831900636521</v>
+      </c>
       <c r="AS106" s="10"/>
       <c r="AT106" s="10"/>
       <c r="AU106" s="10"/>
@@ -22421,8 +22797,12 @@
       <c r="AP107" s="10">
         <v>0.40895568060112542</v>
       </c>
-      <c r="AQ107" s="10"/>
-      <c r="AR107" s="10"/>
+      <c r="AQ107" s="10">
+        <v>0.44981554833993509</v>
+      </c>
+      <c r="AR107" s="10">
+        <v>0.39730765180907346</v>
+      </c>
       <c r="AS107" s="10"/>
       <c r="AT107" s="10"/>
       <c r="AU107" s="10"/>
@@ -22642,8 +23022,12 @@
       <c r="AP108" s="10">
         <v>0.22139814950800418</v>
       </c>
-      <c r="AQ108" s="10"/>
-      <c r="AR108" s="10"/>
+      <c r="AQ108" s="10">
+        <v>0.27101008225635903</v>
+      </c>
+      <c r="AR108" s="10">
+        <v>0.27551339017653431</v>
+      </c>
       <c r="AS108" s="10"/>
       <c r="AT108" s="10"/>
       <c r="AU108" s="10"/>
@@ -22863,8 +23247,12 @@
       <c r="AP109" s="10">
         <v>0.27881601157463232</v>
       </c>
-      <c r="AQ109" s="10"/>
-      <c r="AR109" s="10"/>
+      <c r="AQ109" s="10">
+        <v>0.29161355885493823</v>
+      </c>
+      <c r="AR109" s="10">
+        <v>0.26984548046952717</v>
+      </c>
       <c r="AS109" s="10"/>
       <c r="AT109" s="10"/>
       <c r="AU109" s="10"/>
@@ -23084,8 +23472,12 @@
       <c r="AP110" s="10">
         <v>0.23348579661340585</v>
       </c>
-      <c r="AQ110" s="10"/>
-      <c r="AR110" s="10"/>
+      <c r="AQ110" s="10">
+        <v>0.27798359582313825</v>
+      </c>
+      <c r="AR110" s="10">
+        <v>0.27531656283856987</v>
+      </c>
       <c r="AS110" s="10"/>
       <c r="AT110" s="10"/>
       <c r="AU110" s="10"/>
@@ -23305,8 +23697,12 @@
       <c r="AP111" s="10">
         <v>0.18670203781533479</v>
       </c>
-      <c r="AQ111" s="10"/>
-      <c r="AR111" s="10"/>
+      <c r="AQ111" s="10">
+        <v>0.19349862041002019</v>
+      </c>
+      <c r="AR111" s="10">
+        <v>0.19212665387734118</v>
+      </c>
       <c r="AS111" s="10"/>
       <c r="AT111" s="10"/>
       <c r="AU111" s="10"/>
@@ -23526,8 +23922,12 @@
       <c r="AP112" s="10">
         <v>8.6844965949419706E-2</v>
       </c>
-      <c r="AQ112" s="10"/>
-      <c r="AR112" s="10"/>
+      <c r="AQ112" s="10">
+        <v>8.8580677923067119E-2</v>
+      </c>
+      <c r="AR112" s="10">
+        <v>0.10631626816016859</v>
+      </c>
       <c r="AS112" s="10"/>
       <c r="AT112" s="10"/>
       <c r="AU112" s="10"/>
@@ -23747,8 +24147,12 @@
       <c r="AP113" s="10">
         <v>0.10559934455579256</v>
       </c>
-      <c r="AQ113" s="10"/>
-      <c r="AR113" s="10"/>
+      <c r="AQ113" s="10">
+        <v>0.10524894008179198</v>
+      </c>
+      <c r="AR113" s="10">
+        <v>0.11385687162697522</v>
+      </c>
       <c r="AS113" s="10"/>
       <c r="AT113" s="10"/>
       <c r="AU113" s="10"/>
@@ -23968,8 +24372,12 @@
       <c r="AP114" s="10">
         <v>0.11637091347005279</v>
       </c>
-      <c r="AQ114" s="10"/>
-      <c r="AR114" s="10"/>
+      <c r="AQ114" s="10">
+        <v>0.13782754957507093</v>
+      </c>
+      <c r="AR114" s="10">
+        <v>0.13214724903346808</v>
+      </c>
       <c r="AS114" s="10"/>
       <c r="AT114" s="10"/>
       <c r="AU114" s="10"/>
@@ -24189,8 +24597,12 @@
       <c r="AP115" s="10">
         <v>0.15666916101415351</v>
       </c>
-      <c r="AQ115" s="10"/>
-      <c r="AR115" s="10"/>
+      <c r="AQ115" s="10">
+        <v>0.18066061624289587</v>
+      </c>
+      <c r="AR115" s="10">
+        <v>0.19537657870009073</v>
+      </c>
       <c r="AS115" s="10"/>
       <c r="AT115" s="10"/>
       <c r="AU115" s="10"/>
@@ -24410,8 +24822,12 @@
       <c r="AP116" s="10">
         <v>9.5197825430383576E-2</v>
       </c>
-      <c r="AQ116" s="10"/>
-      <c r="AR116" s="10"/>
+      <c r="AQ116" s="10">
+        <v>0.10639707756350369</v>
+      </c>
+      <c r="AR116" s="10">
+        <v>0.13563046150219704</v>
+      </c>
       <c r="AS116" s="10"/>
       <c r="AT116" s="10"/>
       <c r="AU116" s="10"/>
@@ -24631,8 +25047,12 @@
       <c r="AP117" s="10">
         <v>1.0631509967579555E-2</v>
       </c>
-      <c r="AQ117" s="10"/>
-      <c r="AR117" s="10"/>
+      <c r="AQ117" s="10">
+        <v>2.2165971722565514E-2</v>
+      </c>
+      <c r="AR117" s="10">
+        <v>3.6249235340382713E-2</v>
+      </c>
       <c r="AS117" s="10"/>
       <c r="AT117" s="10"/>
       <c r="AU117" s="10"/>
@@ -24852,8 +25272,12 @@
       <c r="AP118" s="10">
         <v>8.2926788378681948E-2</v>
       </c>
-      <c r="AQ118" s="10"/>
-      <c r="AR118" s="10"/>
+      <c r="AQ118" s="10">
+        <v>0.10009092156728183</v>
+      </c>
+      <c r="AR118" s="10">
+        <v>0.11075369236622734</v>
+      </c>
       <c r="AS118" s="10"/>
       <c r="AT118" s="10"/>
       <c r="AU118" s="10"/>
@@ -25073,8 +25497,12 @@
       <c r="AP119" s="10">
         <v>0.1920174985868417</v>
       </c>
-      <c r="AQ119" s="10"/>
-      <c r="AR119" s="10"/>
+      <c r="AQ119" s="10">
+        <v>0.17015689990203797</v>
+      </c>
+      <c r="AR119" s="10">
+        <v>0.16879952690715561</v>
+      </c>
       <c r="AS119" s="10"/>
       <c r="AT119" s="10"/>
       <c r="AU119" s="10"/>
@@ -25294,8 +25722,12 @@
       <c r="AP120" s="10">
         <v>9.1918651324591982E-2</v>
       </c>
-      <c r="AQ120" s="10"/>
-      <c r="AR120" s="10"/>
+      <c r="AQ120" s="10">
+        <v>7.4467077214590338E-2</v>
+      </c>
+      <c r="AR120" s="10">
+        <v>8.6493768945772986E-2</v>
+      </c>
       <c r="AS120" s="10"/>
       <c r="AT120" s="10"/>
       <c r="AU120" s="10"/>
@@ -25515,8 +25947,12 @@
       <c r="AP121" s="10">
         <v>0.13304888566111384</v>
       </c>
-      <c r="AQ121" s="10"/>
-      <c r="AR121" s="10"/>
+      <c r="AQ121" s="10">
+        <v>0.14622628707900232</v>
+      </c>
+      <c r="AR121" s="10">
+        <v>0.13158338585542961</v>
+      </c>
       <c r="AS121" s="10"/>
       <c r="AT121" s="10"/>
       <c r="AU121" s="10"/>
@@ -25736,8 +26172,12 @@
       <c r="AP122" s="10">
         <v>0.12700724923308937</v>
       </c>
-      <c r="AQ122" s="10"/>
-      <c r="AR122" s="10"/>
+      <c r="AQ122" s="10">
+        <v>0.14378940382701022</v>
+      </c>
+      <c r="AR122" s="10">
+        <v>0.14085605752272423</v>
+      </c>
       <c r="AS122" s="10"/>
       <c r="AT122" s="10"/>
       <c r="AU122" s="10"/>
@@ -25957,8 +26397,12 @@
       <c r="AP123" s="10">
         <v>0.11673824284164769</v>
       </c>
-      <c r="AQ123" s="10"/>
-      <c r="AR123" s="10"/>
+      <c r="AQ123" s="10">
+        <v>0.12862989497607424</v>
+      </c>
+      <c r="AR123" s="10">
+        <v>0.12438092542804569</v>
+      </c>
       <c r="AS123" s="10"/>
       <c r="AT123" s="10"/>
       <c r="AU123" s="10"/>
@@ -26178,8 +26622,12 @@
       <c r="AP124" s="10">
         <v>5.1341119325690299E-2</v>
       </c>
-      <c r="AQ124" s="10"/>
-      <c r="AR124" s="10"/>
+      <c r="AQ124" s="10">
+        <v>6.932298759945521E-2</v>
+      </c>
+      <c r="AR124" s="10">
+        <v>5.5416041812712535E-2</v>
+      </c>
       <c r="AS124" s="10"/>
       <c r="AT124" s="10"/>
       <c r="AU124" s="10"/>
@@ -26399,8 +26847,12 @@
       <c r="AP125" s="10">
         <v>0.17313600565519627</v>
       </c>
-      <c r="AQ125" s="10"/>
-      <c r="AR125" s="10"/>
+      <c r="AQ125" s="10">
+        <v>0.13043084393231141</v>
+      </c>
+      <c r="AR125" s="10">
+        <v>0.15615272504813138</v>
+      </c>
       <c r="AS125" s="10"/>
       <c r="AT125" s="10"/>
       <c r="AU125" s="10"/>
@@ -26620,8 +27072,12 @@
       <c r="AP126" s="10">
         <v>0.13256784151658185</v>
       </c>
-      <c r="AQ126" s="10"/>
-      <c r="AR126" s="10"/>
+      <c r="AQ126" s="10">
+        <v>0.10251016687701564</v>
+      </c>
+      <c r="AR126" s="10">
+        <v>0.10288199603764236</v>
+      </c>
       <c r="AS126" s="10"/>
       <c r="AT126" s="10"/>
       <c r="AU126" s="10"/>
@@ -26841,8 +27297,12 @@
       <c r="AP127" s="10">
         <v>0.15965868729834032</v>
       </c>
-      <c r="AQ127" s="10"/>
-      <c r="AR127" s="10"/>
+      <c r="AQ127" s="10">
+        <v>0.11387948979673856</v>
+      </c>
+      <c r="AR127" s="10">
+        <v>0.10588263650094798</v>
+      </c>
       <c r="AS127" s="10"/>
       <c r="AT127" s="10"/>
       <c r="AU127" s="10"/>
@@ -27062,8 +27522,12 @@
       <c r="AP128" s="10">
         <v>5.4210137059591768E-2</v>
       </c>
-      <c r="AQ128" s="10"/>
-      <c r="AR128" s="10"/>
+      <c r="AQ128" s="10">
+        <v>5.4210137059591768E-2</v>
+      </c>
+      <c r="AR128" s="10">
+        <v>5.4210137059591768E-2</v>
+      </c>
       <c r="AS128" s="10"/>
       <c r="AT128" s="10"/>
       <c r="AU128" s="10"/>
@@ -27283,8 +27747,12 @@
       <c r="AP129" s="10">
         <v>3.806144815544088E-2</v>
       </c>
-      <c r="AQ129" s="10"/>
-      <c r="AR129" s="10"/>
+      <c r="AQ129" s="10">
+        <v>2.5755972601213983E-2</v>
+      </c>
+      <c r="AR129" s="10">
+        <v>2.109148920382875E-2</v>
+      </c>
       <c r="AS129" s="10"/>
       <c r="AT129" s="10"/>
       <c r="AU129" s="10"/>
@@ -27504,8 +27972,12 @@
       <c r="AP130" s="10">
         <v>-1.7679447755372335E-2</v>
       </c>
-      <c r="AQ130" s="10"/>
-      <c r="AR130" s="10"/>
+      <c r="AQ130" s="10">
+        <v>-1.7316606344282115E-2</v>
+      </c>
+      <c r="AR130" s="10">
+        <v>-2.173165289329082E-2</v>
+      </c>
       <c r="AS130" s="10"/>
       <c r="AT130" s="10"/>
       <c r="AU130" s="10"/>
@@ -27725,8 +28197,12 @@
       <c r="AP131" s="10">
         <v>0.14692768382449928</v>
       </c>
-      <c r="AQ131" s="10"/>
-      <c r="AR131" s="10"/>
+      <c r="AQ131" s="10">
+        <v>0.12550120288692868</v>
+      </c>
+      <c r="AR131" s="10">
+        <v>0.15001825581291794</v>
+      </c>
       <c r="AS131" s="10"/>
       <c r="AT131" s="10"/>
       <c r="AU131" s="10"/>
@@ -27946,8 +28422,12 @@
       <c r="AP132" s="10">
         <v>8.5625534596858177E-3</v>
       </c>
-      <c r="AQ132" s="10"/>
-      <c r="AR132" s="10"/>
+      <c r="AQ132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR132" s="10">
+        <v>0</v>
+      </c>
       <c r="AS132" s="10"/>
       <c r="AT132" s="10"/>
       <c r="AU132" s="10"/>
@@ -28167,8 +28647,12 @@
       <c r="AP133" s="10">
         <v>2.7339852324885117E-2</v>
       </c>
-      <c r="AQ133" s="10"/>
-      <c r="AR133" s="10"/>
+      <c r="AQ133" s="10">
+        <v>2.3317373886317716E-2</v>
+      </c>
+      <c r="AR133" s="10">
+        <v>2.3317373886317716E-2</v>
+      </c>
       <c r="AS133" s="10"/>
       <c r="AT133" s="10"/>
       <c r="AU133" s="10"/>
@@ -28388,8 +28872,12 @@
       <c r="AP134" s="10">
         <v>1.7254452477517113E-2</v>
       </c>
-      <c r="AQ134" s="10"/>
-      <c r="AR134" s="10"/>
+      <c r="AQ134" s="10">
+        <v>2.2188131083318297E-2</v>
+      </c>
+      <c r="AR134" s="10">
+        <v>2.2188131083318297E-2</v>
+      </c>
       <c r="AS134" s="10"/>
       <c r="AT134" s="10"/>
       <c r="AU134" s="10"/>
@@ -28609,8 +29097,12 @@
       <c r="AP135" s="10">
         <v>4.597166813171949E-2</v>
       </c>
-      <c r="AQ135" s="10"/>
-      <c r="AR135" s="10"/>
+      <c r="AQ135" s="10">
+        <v>5.2210570948645563E-2</v>
+      </c>
+      <c r="AR135" s="10">
+        <v>5.2210570948645563E-2</v>
+      </c>
       <c r="AS135" s="10"/>
       <c r="AT135" s="10"/>
       <c r="AU135" s="10"/>
@@ -28830,8 +29322,12 @@
       <c r="AP136" s="10">
         <v>4.1343142995341253E-2</v>
       </c>
-      <c r="AQ136" s="10"/>
-      <c r="AR136" s="10"/>
+      <c r="AQ136" s="10">
+        <v>5.0648579481303635E-2</v>
+      </c>
+      <c r="AR136" s="10">
+        <v>5.0648579481303635E-2</v>
+      </c>
       <c r="AS136" s="10"/>
       <c r="AT136" s="10"/>
       <c r="AU136" s="10"/>
@@ -29051,8 +29547,12 @@
       <c r="AP137" s="10">
         <v>2.1336471130347423E-2</v>
       </c>
-      <c r="AQ137" s="10"/>
-      <c r="AR137" s="10"/>
+      <c r="AQ137" s="10">
+        <v>2.971992664937928E-2</v>
+      </c>
+      <c r="AR137" s="10">
+        <v>2.971992664937928E-2</v>
+      </c>
       <c r="AS137" s="10"/>
       <c r="AT137" s="10"/>
       <c r="AU137" s="10"/>
@@ -29272,8 +29772,12 @@
       <c r="AP138" s="10">
         <v>1.4106416828707724E-2</v>
       </c>
-      <c r="AQ138" s="10"/>
-      <c r="AR138" s="10"/>
+      <c r="AQ138" s="10">
+        <v>4.0835616078695569E-2</v>
+      </c>
+      <c r="AR138" s="10">
+        <v>4.0835616078695569E-2</v>
+      </c>
       <c r="AS138" s="10"/>
       <c r="AT138" s="10"/>
       <c r="AU138" s="10"/>
@@ -29493,8 +29997,12 @@
       <c r="AP139" s="10">
         <v>2.6215380277222033E-2</v>
       </c>
-      <c r="AQ139" s="10"/>
-      <c r="AR139" s="10"/>
+      <c r="AQ139" s="10">
+        <v>1.8514319600934748E-2</v>
+      </c>
+      <c r="AR139" s="10">
+        <v>1.8514319600934748E-2</v>
+      </c>
       <c r="AS139" s="10"/>
       <c r="AT139" s="10"/>
       <c r="AU139" s="10"/>
@@ -29714,8 +30222,12 @@
       <c r="AP140" s="10">
         <v>7.1039910915394966E-2</v>
       </c>
-      <c r="AQ140" s="10"/>
-      <c r="AR140" s="10"/>
+      <c r="AQ140" s="10">
+        <v>7.3067998385794919E-2</v>
+      </c>
+      <c r="AR140" s="10">
+        <v>0.11501648365475758</v>
+      </c>
       <c r="AS140" s="10"/>
       <c r="AT140" s="10"/>
       <c r="AU140" s="10"/>
@@ -29935,8 +30447,12 @@
       <c r="AP141" s="10">
         <v>-4.7356235422771675E-2</v>
       </c>
-      <c r="AQ141" s="10"/>
-      <c r="AR141" s="10"/>
+      <c r="AQ141" s="10">
+        <v>-5.2632029005335923E-2</v>
+      </c>
+      <c r="AR141" s="10">
+        <v>-1.6980056980057001E-2</v>
+      </c>
       <c r="AS141" s="10"/>
       <c r="AT141" s="10"/>
       <c r="AU141" s="10"/>
@@ -30156,8 +30672,12 @@
       <c r="AP142" s="10">
         <v>2.7172594497548719E-3</v>
       </c>
-      <c r="AQ142" s="10"/>
-      <c r="AR142" s="10"/>
+      <c r="AQ142" s="10">
+        <v>-6.5592011688324181E-2</v>
+      </c>
+      <c r="AR142" s="10">
+        <v>1.5852952527981579E-2</v>
+      </c>
       <c r="AS142" s="10"/>
       <c r="AT142" s="10"/>
       <c r="AU142" s="10"/>
@@ -30377,8 +30897,12 @@
       <c r="AP143" s="10">
         <v>6.6987053746567327E-2</v>
       </c>
-      <c r="AQ143" s="10"/>
-      <c r="AR143" s="10"/>
+      <c r="AQ143" s="10">
+        <v>9.4404182279162585E-2</v>
+      </c>
+      <c r="AR143" s="10">
+        <v>5.6752996575342385E-2</v>
+      </c>
       <c r="AS143" s="10"/>
       <c r="AT143" s="10"/>
       <c r="AU143" s="10"/>
@@ -30598,8 +31122,12 @@
       <c r="AP144" s="10">
         <v>3.7052676026601894E-2</v>
       </c>
-      <c r="AQ144" s="10"/>
-      <c r="AR144" s="10"/>
+      <c r="AQ144" s="10">
+        <v>1.2874795658310179E-2</v>
+      </c>
+      <c r="AR144" s="10">
+        <v>6.2385209388223117E-2</v>
+      </c>
       <c r="AS144" s="10"/>
       <c r="AT144" s="10"/>
       <c r="AU144" s="10"/>
@@ -30819,8 +31347,12 @@
       <c r="AP145" s="10">
         <v>9.8110450569466989E-2</v>
       </c>
-      <c r="AQ145" s="10"/>
-      <c r="AR145" s="10"/>
+      <c r="AQ145" s="10">
+        <v>0.1084642625567358</v>
+      </c>
+      <c r="AR145" s="10">
+        <v>0.12536443148688048</v>
+      </c>
       <c r="AS145" s="10"/>
       <c r="AT145" s="10"/>
       <c r="AU145" s="10"/>
@@ -31040,8 +31572,12 @@
       <c r="AP146" s="10">
         <v>0.18302457603625544</v>
       </c>
-      <c r="AQ146" s="10"/>
-      <c r="AR146" s="10"/>
+      <c r="AQ146" s="10">
+        <v>1.5708756752281783E-2</v>
+      </c>
+      <c r="AR146" s="10">
+        <v>2.144716075963915E-2</v>
+      </c>
       <c r="AS146" s="10"/>
       <c r="AT146" s="10"/>
       <c r="AU146" s="10"/>
@@ -31261,8 +31797,12 @@
       <c r="AP147" s="10">
         <v>9.3021903328753375E-2</v>
       </c>
-      <c r="AQ147" s="10"/>
-      <c r="AR147" s="10"/>
+      <c r="AQ147" s="10">
+        <v>8.2994321857255748E-2</v>
+      </c>
+      <c r="AR147" s="10">
+        <v>5.9005062859093238E-2</v>
+      </c>
       <c r="AS147" s="10"/>
       <c r="AT147" s="10"/>
       <c r="AU147" s="10"/>
@@ -31482,8 +32022,12 @@
       <c r="AP148" s="10">
         <v>0.1006678855266594</v>
       </c>
-      <c r="AQ148" s="10"/>
-      <c r="AR148" s="10"/>
+      <c r="AQ148" s="10">
+        <v>0.1006678855266594</v>
+      </c>
+      <c r="AR148" s="10">
+        <v>0.1006678855266594</v>
+      </c>
       <c r="AS148" s="10"/>
       <c r="AT148" s="10"/>
       <c r="AU148" s="10"/>
@@ -31703,8 +32247,12 @@
       <c r="AP149" s="10">
         <v>6.0826355019784728E-2</v>
       </c>
-      <c r="AQ149" s="10"/>
-      <c r="AR149" s="10"/>
+      <c r="AQ149" s="10">
+        <v>6.2323799325731732E-2</v>
+      </c>
+      <c r="AR149" s="10">
+        <v>6.2934488903017449E-2</v>
+      </c>
       <c r="AS149" s="10"/>
       <c r="AT149" s="10"/>
       <c r="AU149" s="10"/>
@@ -31924,8 +32472,12 @@
       <c r="AP150" s="10">
         <v>0.10603506231576776</v>
       </c>
-      <c r="AQ150" s="10"/>
-      <c r="AR150" s="10"/>
+      <c r="AQ150" s="10">
+        <v>0.11336508068541007</v>
+      </c>
+      <c r="AR150" s="10">
+        <v>0.15276290867166264</v>
+      </c>
       <c r="AS150" s="10"/>
       <c r="AT150" s="10"/>
       <c r="AU150" s="10"/>
@@ -32145,8 +32697,12 @@
       <c r="AP151" s="10">
         <v>0.2431684685451605</v>
       </c>
-      <c r="AQ151" s="10"/>
-      <c r="AR151" s="10"/>
+      <c r="AQ151" s="10">
+        <v>0.23482016964705377</v>
+      </c>
+      <c r="AR151" s="10">
+        <v>0.15837952151383639</v>
+      </c>
       <c r="AS151" s="10"/>
       <c r="AT151" s="10"/>
       <c r="AU151" s="10"/>
@@ -32366,8 +32922,12 @@
       <c r="AP152" s="10">
         <v>0.12487797621814578</v>
       </c>
-      <c r="AQ152" s="10"/>
-      <c r="AR152" s="10"/>
+      <c r="AQ152" s="10">
+        <v>0.15993968380251067</v>
+      </c>
+      <c r="AR152" s="10">
+        <v>0.14972904077684146</v>
+      </c>
       <c r="AS152" s="10"/>
       <c r="AT152" s="10"/>
       <c r="AU152" s="10"/>
@@ -32587,8 +33147,12 @@
       <c r="AP153" s="10">
         <v>4.8131244383946781E-2</v>
       </c>
-      <c r="AQ153" s="10"/>
-      <c r="AR153" s="10"/>
+      <c r="AQ153" s="10">
+        <v>2.8652454527674509E-2</v>
+      </c>
+      <c r="AR153" s="10">
+        <v>-6.6191620879121338E-3</v>
+      </c>
       <c r="AS153" s="10"/>
       <c r="AT153" s="10"/>
       <c r="AU153" s="10"/>
@@ -32808,8 +33372,12 @@
       <c r="AP154" s="10">
         <v>8.2885805922279454E-2</v>
       </c>
-      <c r="AQ154" s="10"/>
-      <c r="AR154" s="10"/>
+      <c r="AQ154" s="10">
+        <v>8.4666592078764813E-2</v>
+      </c>
+      <c r="AR154" s="10">
+        <v>8.2597407431533432E-2</v>
+      </c>
       <c r="AS154" s="10"/>
       <c r="AT154" s="10"/>
       <c r="AU154" s="10"/>
@@ -33029,8 +33597,12 @@
       <c r="AP155" s="10">
         <v>6.9583826609598276E-2</v>
       </c>
-      <c r="AQ155" s="10"/>
-      <c r="AR155" s="10"/>
+      <c r="AQ155" s="10">
+        <v>6.3909229319220051E-2</v>
+      </c>
+      <c r="AR155" s="10">
+        <v>6.6120511724752529E-2</v>
+      </c>
       <c r="AS155" s="10"/>
       <c r="AT155" s="10"/>
       <c r="AU155" s="10"/>
@@ -33250,8 +33822,12 @@
       <c r="AP156" s="10">
         <v>-8.5572559149522998E-2</v>
       </c>
-      <c r="AQ156" s="10"/>
-      <c r="AR156" s="10"/>
+      <c r="AQ156" s="10">
+        <v>-8.5265427661977644E-2</v>
+      </c>
+      <c r="AR156" s="10">
+        <v>-8.4553463252356353E-2</v>
+      </c>
       <c r="AS156" s="10"/>
       <c r="AT156" s="10"/>
       <c r="AU156" s="10"/>
@@ -33471,8 +34047,12 @@
       <c r="AP157" s="10">
         <v>0</v>
       </c>
-      <c r="AQ157" s="10"/>
-      <c r="AR157" s="10"/>
+      <c r="AQ157" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR157" s="10">
+        <v>-5.6219453626014104E-3</v>
+      </c>
       <c r="AS157" s="10"/>
       <c r="AT157" s="10"/>
       <c r="AU157" s="10"/>
@@ -33692,8 +34272,12 @@
       <c r="AP158" s="10">
         <v>-5.4458424023641427E-2</v>
       </c>
-      <c r="AQ158" s="10"/>
-      <c r="AR158" s="10"/>
+      <c r="AQ158" s="10">
+        <v>-6.7464741377784798E-2</v>
+      </c>
+      <c r="AR158" s="10">
+        <v>-5.7086230999274568E-2</v>
+      </c>
       <c r="AS158" s="10"/>
       <c r="AT158" s="10"/>
       <c r="AU158" s="10"/>
@@ -33913,8 +34497,12 @@
       <c r="AP159" s="10">
         <v>0.16733850392897232</v>
       </c>
-      <c r="AQ159" s="10"/>
-      <c r="AR159" s="10"/>
+      <c r="AQ159" s="10">
+        <v>0.16733850392897232</v>
+      </c>
+      <c r="AR159" s="10">
+        <v>0.16733850392897232</v>
+      </c>
       <c r="AS159" s="10"/>
       <c r="AT159" s="10"/>
       <c r="AU159" s="10"/>
@@ -34134,8 +34722,12 @@
       <c r="AP160" s="10">
         <v>0.12957334509861584</v>
       </c>
-      <c r="AQ160" s="10"/>
-      <c r="AR160" s="10"/>
+      <c r="AQ160" s="10">
+        <v>0.12238173498324301</v>
+      </c>
+      <c r="AR160" s="10">
+        <v>0.11404608810256023</v>
+      </c>
       <c r="AS160" s="10"/>
       <c r="AT160" s="10"/>
       <c r="AU160" s="10"/>
@@ -34355,8 +34947,12 @@
       <c r="AP161" s="10">
         <v>7.3687815204532603E-2</v>
       </c>
-      <c r="AQ161" s="10"/>
-      <c r="AR161" s="10"/>
+      <c r="AQ161" s="10">
+        <v>0.15516111190773696</v>
+      </c>
+      <c r="AR161" s="10">
+        <v>0.1595858000286785</v>
+      </c>
       <c r="AS161" s="10"/>
       <c r="AT161" s="10"/>
       <c r="AU161" s="10"/>
@@ -34576,8 +35172,12 @@
       <c r="AP162" s="10">
         <v>-7.3264794233991459E-3</v>
       </c>
-      <c r="AQ162" s="10"/>
-      <c r="AR162" s="10"/>
+      <c r="AQ162" s="10">
+        <v>-3.6332128826442878E-3</v>
+      </c>
+      <c r="AR162" s="10">
+        <v>1.2124505928853724E-2</v>
+      </c>
       <c r="AS162" s="10"/>
       <c r="AT162" s="10"/>
       <c r="AU162" s="10"/>
@@ -34797,8 +35397,12 @@
       <c r="AP163" s="10">
         <v>-2.55831176354131E-2</v>
       </c>
-      <c r="AQ163" s="10"/>
-      <c r="AR163" s="10"/>
+      <c r="AQ163" s="10">
+        <v>-1.8871709524268532E-3</v>
+      </c>
+      <c r="AR163" s="10">
+        <v>-3.3890812642745072E-4</v>
+      </c>
       <c r="AS163" s="10"/>
       <c r="AT163" s="10"/>
       <c r="AU163" s="10"/>
@@ -35018,8 +35622,12 @@
       <c r="AP164" s="10">
         <v>1.0011939413330229E-2</v>
       </c>
-      <c r="AQ164" s="10"/>
-      <c r="AR164" s="10"/>
+      <c r="AQ164" s="10">
+        <v>3.8221419563764236E-3</v>
+      </c>
+      <c r="AR164" s="10">
+        <v>1.1232371632816651E-2</v>
+      </c>
       <c r="AS164" s="10"/>
       <c r="AT164" s="10"/>
       <c r="AU164" s="10"/>
@@ -35239,8 +35847,12 @@
       <c r="AP165" s="10">
         <v>0.13272040160189524</v>
       </c>
-      <c r="AQ165" s="10"/>
-      <c r="AR165" s="10"/>
+      <c r="AQ165" s="10">
+        <v>0.13399149766795859</v>
+      </c>
+      <c r="AR165" s="10">
+        <v>0.15729928029348339</v>
+      </c>
       <c r="AS165" s="10"/>
       <c r="AT165" s="10"/>
       <c r="AU165" s="10"/>
@@ -35460,8 +36072,12 @@
       <c r="AP166" s="10">
         <v>5.4899904589174708E-2</v>
       </c>
-      <c r="AQ166" s="10"/>
-      <c r="AR166" s="10"/>
+      <c r="AQ166" s="10">
+        <v>3.8006453926138439E-2</v>
+      </c>
+      <c r="AR166" s="10">
+        <v>3.6536967609011262E-2</v>
+      </c>
       <c r="AS166" s="10"/>
       <c r="AT166" s="10"/>
       <c r="AU166" s="10"/>
@@ -35681,8 +36297,12 @@
       <c r="AP167" s="10">
         <v>0.19055059970980404</v>
       </c>
-      <c r="AQ167" s="10"/>
-      <c r="AR167" s="10"/>
+      <c r="AQ167" s="10">
+        <v>9.5646842427958179E-2</v>
+      </c>
+      <c r="AR167" s="10">
+        <v>0.10406401347652161</v>
+      </c>
       <c r="AS167" s="10"/>
       <c r="AT167" s="10"/>
       <c r="AU167" s="10"/>
@@ -35902,8 +36522,12 @@
       <c r="AP168" s="10">
         <v>0.11140143618253417</v>
       </c>
-      <c r="AQ168" s="10"/>
-      <c r="AR168" s="10"/>
+      <c r="AQ168" s="10">
+        <v>8.0585342625067558E-2</v>
+      </c>
+      <c r="AR168" s="10">
+        <v>8.4284147010422528E-2</v>
+      </c>
       <c r="AS168" s="10"/>
       <c r="AT168" s="10"/>
       <c r="AU168" s="10"/>
@@ -36123,8 +36747,12 @@
       <c r="AP169" s="10">
         <v>9.2747406661706222E-2</v>
       </c>
-      <c r="AQ169" s="10"/>
-      <c r="AR169" s="10"/>
+      <c r="AQ169" s="10">
+        <v>5.9231764124457076E-2</v>
+      </c>
+      <c r="AR169" s="10">
+        <v>7.9179757153774455E-2</v>
+      </c>
       <c r="AS169" s="10"/>
       <c r="AT169" s="10"/>
       <c r="AU169" s="10"/>
@@ -36344,8 +36972,12 @@
       <c r="AP170" s="10">
         <v>0.15634952229299359</v>
       </c>
-      <c r="AQ170" s="10"/>
-      <c r="AR170" s="10"/>
+      <c r="AQ170" s="10">
+        <v>5.5336691101913305E-2</v>
+      </c>
+      <c r="AR170" s="10">
+        <v>5.5336691101913305E-2</v>
+      </c>
       <c r="AS170" s="10"/>
       <c r="AT170" s="10"/>
       <c r="AU170" s="10"/>
@@ -36565,8 +37197,12 @@
       <c r="AP171" s="10">
         <v>-1.6235429490158992E-3</v>
       </c>
-      <c r="AQ171" s="10"/>
-      <c r="AR171" s="10"/>
+      <c r="AQ171" s="10">
+        <v>4.045307443365731E-3</v>
+      </c>
+      <c r="AR171" s="10">
+        <v>-3.6843268153338715E-2</v>
+      </c>
       <c r="AS171" s="10"/>
       <c r="AT171" s="10"/>
       <c r="AU171" s="10"/>
@@ -36786,8 +37422,12 @@
       <c r="AP172" s="10">
         <v>3.8173773471138261E-2</v>
       </c>
-      <c r="AQ172" s="10"/>
-      <c r="AR172" s="10"/>
+      <c r="AQ172" s="10">
+        <v>6.1817613285966022E-2</v>
+      </c>
+      <c r="AR172" s="10">
+        <v>6.2332874685220307E-2</v>
+      </c>
       <c r="AS172" s="10"/>
       <c r="AT172" s="10"/>
       <c r="AU172" s="10"/>
@@ -37007,8 +37647,12 @@
       <c r="AP173" s="10">
         <v>0.12018855984665744</v>
       </c>
-      <c r="AQ173" s="10"/>
-      <c r="AR173" s="10"/>
+      <c r="AQ173" s="10">
+        <v>0.1143465062318294</v>
+      </c>
+      <c r="AR173" s="10">
+        <v>9.8195887884104938E-2</v>
+      </c>
       <c r="AS173" s="10"/>
       <c r="AT173" s="10"/>
       <c r="AU173" s="10"/>
@@ -37228,8 +37872,12 @@
       <c r="AP174" s="10">
         <v>5.5281316111294609E-2</v>
       </c>
-      <c r="AQ174" s="10"/>
-      <c r="AR174" s="10"/>
+      <c r="AQ174" s="10">
+        <v>5.4076947082163151E-2</v>
+      </c>
+      <c r="AR174" s="10">
+        <v>7.8108613378322866E-2</v>
+      </c>
       <c r="AS174" s="10"/>
       <c r="AT174" s="10"/>
       <c r="AU174" s="10"/>
@@ -37449,8 +38097,12 @@
       <c r="AP175" s="10">
         <v>9.2131891137473776E-2</v>
       </c>
-      <c r="AQ175" s="10"/>
-      <c r="AR175" s="10"/>
+      <c r="AQ175" s="10">
+        <v>8.4974777804468049E-2</v>
+      </c>
+      <c r="AR175" s="10">
+        <v>7.4593612627357642E-2</v>
+      </c>
       <c r="AS175" s="10"/>
       <c r="AT175" s="10"/>
       <c r="AU175" s="10"/>
@@ -37670,8 +38322,12 @@
       <c r="AP176" s="10">
         <v>9.8100866594854841E-2</v>
       </c>
-      <c r="AQ176" s="10"/>
-      <c r="AR176" s="10"/>
+      <c r="AQ176" s="10">
+        <v>8.7066140011765825E-2</v>
+      </c>
+      <c r="AR176" s="10">
+        <v>9.2343986968488556E-2</v>
+      </c>
       <c r="AS176" s="10"/>
       <c r="AT176" s="10"/>
       <c r="AU176" s="10"/>
@@ -37891,8 +38547,12 @@
       <c r="AP177" s="10">
         <v>2.1390213902139132E-2</v>
       </c>
-      <c r="AQ177" s="10"/>
-      <c r="AR177" s="10"/>
+      <c r="AQ177" s="10">
+        <v>2.4345190524299953E-2</v>
+      </c>
+      <c r="AR177" s="10">
+        <v>2.4293725691199031E-2</v>
+      </c>
       <c r="AS177" s="10"/>
       <c r="AT177" s="10"/>
       <c r="AU177" s="10"/>
@@ -38112,8 +38772,12 @@
       <c r="AP178" s="10">
         <v>0.10815593914079158</v>
       </c>
-      <c r="AQ178" s="10"/>
-      <c r="AR178" s="10"/>
+      <c r="AQ178" s="10">
+        <v>9.5470563243000184E-2</v>
+      </c>
+      <c r="AR178" s="10">
+        <v>0.10935804815690098</v>
+      </c>
       <c r="AS178" s="10"/>
       <c r="AT178" s="10"/>
       <c r="AU178" s="10"/>
@@ -38333,8 +38997,12 @@
       <c r="AP179" s="10">
         <v>7.4988630178860261E-2</v>
       </c>
-      <c r="AQ179" s="10"/>
-      <c r="AR179" s="10"/>
+      <c r="AQ179" s="10">
+        <v>6.1901328664126121E-2</v>
+      </c>
+      <c r="AR179" s="10">
+        <v>6.9498858222621029E-2</v>
+      </c>
       <c r="AS179" s="10"/>
       <c r="AT179" s="10"/>
       <c r="AU179" s="10"/>
@@ -38554,8 +39222,12 @@
       <c r="AP180" s="10">
         <v>0.13304836802025188</v>
       </c>
-      <c r="AQ180" s="10"/>
-      <c r="AR180" s="10"/>
+      <c r="AQ180" s="10">
+        <v>0.10954410276849491</v>
+      </c>
+      <c r="AR180" s="10">
+        <v>0.13437503162539333</v>
+      </c>
       <c r="AS180" s="10"/>
       <c r="AT180" s="10"/>
       <c r="AU180" s="10"/>
@@ -38775,8 +39447,12 @@
       <c r="AP181" s="10">
         <v>8.6314880799324145E-2</v>
       </c>
-      <c r="AQ181" s="10"/>
-      <c r="AR181" s="10"/>
+      <c r="AQ181" s="10">
+        <v>3.2416939528893129E-2</v>
+      </c>
+      <c r="AR181" s="10">
+        <v>8.9724411977938345E-2</v>
+      </c>
       <c r="AS181" s="10"/>
       <c r="AT181" s="10"/>
       <c r="AU181" s="10"/>
@@ -38996,8 +39672,12 @@
       <c r="AP182" s="10">
         <v>0.20481293740024209</v>
       </c>
-      <c r="AQ182" s="10"/>
-      <c r="AR182" s="10"/>
+      <c r="AQ182" s="10">
+        <v>0.21172999845182594</v>
+      </c>
+      <c r="AR182" s="10">
+        <v>0.21724760639204055</v>
+      </c>
       <c r="AS182" s="10"/>
       <c r="AT182" s="10"/>
       <c r="AU182" s="10"/>
@@ -39217,8 +39897,12 @@
       <c r="AP183" s="10">
         <v>9.6502466209723803E-2</v>
       </c>
-      <c r="AQ183" s="10"/>
-      <c r="AR183" s="10"/>
+      <c r="AQ183" s="10">
+        <v>8.549445648018339E-2</v>
+      </c>
+      <c r="AR183" s="10">
+        <v>0.10011144275505202</v>
+      </c>
       <c r="AS183" s="10"/>
       <c r="AT183" s="10"/>
       <c r="AU183" s="10"/>
@@ -39438,8 +40122,12 @@
       <c r="AP184" s="10">
         <v>0.12055752391952423</v>
       </c>
-      <c r="AQ184" s="10"/>
-      <c r="AR184" s="10"/>
+      <c r="AQ184" s="10">
+        <v>4.5809520297924289E-2</v>
+      </c>
+      <c r="AR184" s="10">
+        <v>0.10407667486284322</v>
+      </c>
       <c r="AS184" s="10"/>
       <c r="AT184" s="10"/>
       <c r="AU184" s="10"/>
@@ -39659,8 +40347,12 @@
       <c r="AP185" s="10">
         <v>-3.9535999040824832E-2</v>
       </c>
-      <c r="AQ185" s="10"/>
-      <c r="AR185" s="10"/>
+      <c r="AQ185" s="10">
+        <v>-5.0254065547913118E-2</v>
+      </c>
+      <c r="AR185" s="10">
+        <v>-4.496182674218363E-2</v>
+      </c>
       <c r="AS185" s="10"/>
       <c r="AT185" s="10"/>
       <c r="AU185" s="10"/>
@@ -39880,8 +40572,12 @@
       <c r="AP186" s="10">
         <v>9.0121469019375899E-2</v>
       </c>
-      <c r="AQ186" s="10"/>
-      <c r="AR186" s="10"/>
+      <c r="AQ186" s="10">
+        <v>4.6596942880128722E-2</v>
+      </c>
+      <c r="AR186" s="10">
+        <v>0.15819480215406223</v>
+      </c>
       <c r="AS186" s="10"/>
       <c r="AT186" s="10"/>
       <c r="AU186" s="10"/>
@@ -40101,8 +40797,12 @@
       <c r="AP187" s="10">
         <v>3.807853634023517E-2</v>
       </c>
-      <c r="AQ187" s="10"/>
-      <c r="AR187" s="10"/>
+      <c r="AQ187" s="10">
+        <v>1.1714142928535676E-2</v>
+      </c>
+      <c r="AR187" s="10">
+        <v>1.7521239380309916E-2</v>
+      </c>
       <c r="AS187" s="10"/>
       <c r="AT187" s="10"/>
       <c r="AU187" s="10"/>
@@ -40322,8 +41022,12 @@
       <c r="AP188" s="10">
         <v>-0.16052526580139415</v>
       </c>
-      <c r="AQ188" s="10"/>
-      <c r="AR188" s="10"/>
+      <c r="AQ188" s="10">
+        <v>-0.20671567817611103</v>
+      </c>
+      <c r="AR188" s="10">
+        <v>-0.17601598639831306</v>
+      </c>
       <c r="AS188" s="10"/>
       <c r="AT188" s="10"/>
       <c r="AU188" s="10"/>
@@ -40543,8 +41247,12 @@
       <c r="AP189" s="10">
         <v>5.3287051412855613E-2</v>
       </c>
-      <c r="AQ189" s="10"/>
-      <c r="AR189" s="10"/>
+      <c r="AQ189" s="10">
+        <v>3.1612450774125556E-3</v>
+      </c>
+      <c r="AR189" s="10">
+        <v>2.0988088435673014E-2</v>
+      </c>
       <c r="AS189" s="10"/>
       <c r="AT189" s="10"/>
       <c r="AU189" s="10"/>
@@ -40764,8 +41472,12 @@
       <c r="AP190" s="10">
         <v>-3.5659709460897249E-2</v>
       </c>
-      <c r="AQ190" s="10"/>
-      <c r="AR190" s="10"/>
+      <c r="AQ190" s="10">
+        <v>2.2838959547696991E-2</v>
+      </c>
+      <c r="AR190" s="10">
+        <v>7.048256668256081E-2</v>
+      </c>
       <c r="AS190" s="10"/>
       <c r="AT190" s="10"/>
       <c r="AU190" s="10"/>
@@ -40985,8 +41697,12 @@
       <c r="AP191" s="10">
         <v>0.18509044705252964</v>
       </c>
-      <c r="AQ191" s="10"/>
-      <c r="AR191" s="10"/>
+      <c r="AQ191" s="10">
+        <v>0.19255317398957095</v>
+      </c>
+      <c r="AR191" s="10">
+        <v>0.1724309171005205</v>
+      </c>
       <c r="AS191" s="10"/>
       <c r="AT191" s="10"/>
       <c r="AU191" s="10"/>
@@ -41206,8 +41922,12 @@
       <c r="AP192" s="10">
         <v>7.6407782776001465E-2</v>
       </c>
-      <c r="AQ192" s="10"/>
-      <c r="AR192" s="10"/>
+      <c r="AQ192" s="10">
+        <v>7.0693116325253103E-2</v>
+      </c>
+      <c r="AR192" s="10">
+        <v>0.1817558936244339</v>
+      </c>
       <c r="AS192" s="10"/>
       <c r="AT192" s="10"/>
       <c r="AU192" s="10"/>
@@ -41427,8 +42147,12 @@
       <c r="AP193" s="10">
         <v>-5.6987178748747258E-2</v>
       </c>
-      <c r="AQ193" s="10"/>
-      <c r="AR193" s="10"/>
+      <c r="AQ193" s="10">
+        <v>-8.0770507376589529E-2</v>
+      </c>
+      <c r="AR193" s="10">
+        <v>-8.6239241413027523E-2</v>
+      </c>
       <c r="AS193" s="10"/>
       <c r="AT193" s="10"/>
       <c r="AU193" s="10"/>
@@ -41648,8 +42372,12 @@
       <c r="AP194" s="10">
         <v>0.12981360866824754</v>
       </c>
-      <c r="AQ194" s="10"/>
-      <c r="AR194" s="10"/>
+      <c r="AQ194" s="10">
+        <v>0.15752025431244965</v>
+      </c>
+      <c r="AR194" s="10">
+        <v>3.1329965535149329E-2</v>
+      </c>
       <c r="AS194" s="10"/>
       <c r="AT194" s="10"/>
       <c r="AU194" s="10"/>
@@ -41869,8 +42597,12 @@
       <c r="AP195" s="10">
         <v>6.7312090257661161E-2</v>
       </c>
-      <c r="AQ195" s="10"/>
-      <c r="AR195" s="10"/>
+      <c r="AQ195" s="10">
+        <v>3.4886550846188413E-2</v>
+      </c>
+      <c r="AR195" s="10">
+        <v>3.6833216312123884E-2</v>
+      </c>
       <c r="AS195" s="10"/>
       <c r="AT195" s="10"/>
       <c r="AU195" s="10"/>
@@ -42090,8 +42822,12 @@
       <c r="AP196" s="10">
         <v>0.11211078847442479</v>
       </c>
-      <c r="AQ196" s="10"/>
-      <c r="AR196" s="10"/>
+      <c r="AQ196" s="10">
+        <v>0.1626004938821739</v>
+      </c>
+      <c r="AR196" s="10">
+        <v>9.1085735579866434E-2</v>
+      </c>
       <c r="AS196" s="10"/>
       <c r="AT196" s="10"/>
       <c r="AU196" s="10"/>
@@ -42311,8 +43047,12 @@
       <c r="AP197" s="10">
         <v>8.1366224684870758E-2</v>
       </c>
-      <c r="AQ197" s="10"/>
-      <c r="AR197" s="10"/>
+      <c r="AQ197" s="10">
+        <v>4.3881221926383551E-2</v>
+      </c>
+      <c r="AR197" s="10">
+        <v>3.7944496991406895E-2</v>
+      </c>
       <c r="AS197" s="10"/>
       <c r="AT197" s="10"/>
       <c r="AU197" s="10"/>
@@ -42532,8 +43272,12 @@
       <c r="AP198" s="10">
         <v>-3.3592307486464024E-2</v>
       </c>
-      <c r="AQ198" s="10"/>
-      <c r="AR198" s="10"/>
+      <c r="AQ198" s="10">
+        <v>5.2243556248040557E-2</v>
+      </c>
+      <c r="AR198" s="10">
+        <v>1.2672539690017359E-2</v>
+      </c>
       <c r="AS198" s="10"/>
       <c r="AT198" s="10"/>
       <c r="AU198" s="10"/>
@@ -42753,8 +43497,12 @@
       <c r="AP199" s="10">
         <v>0.31802148711884626</v>
       </c>
-      <c r="AQ199" s="10"/>
-      <c r="AR199" s="10"/>
+      <c r="AQ199" s="10">
+        <v>0.28312271285679436</v>
+      </c>
+      <c r="AR199" s="10">
+        <v>0.210392521320796</v>
+      </c>
       <c r="AS199" s="10"/>
       <c r="AT199" s="10"/>
       <c r="AU199" s="10"/>
@@ -42974,8 +43722,12 @@
       <c r="AP200" s="10">
         <v>2.0811798507280432E-2</v>
       </c>
-      <c r="AQ200" s="10"/>
-      <c r="AR200" s="10"/>
+      <c r="AQ200" s="10">
+        <v>0.15652405659984514</v>
+      </c>
+      <c r="AR200" s="10">
+        <v>8.9320483662483463E-2</v>
+      </c>
       <c r="AS200" s="10"/>
       <c r="AT200" s="10"/>
       <c r="AU200" s="10"/>
@@ -43195,8 +43947,12 @@
       <c r="AP201" s="10">
         <v>7.790833658183427E-2</v>
       </c>
-      <c r="AQ201" s="10"/>
-      <c r="AR201" s="10"/>
+      <c r="AQ201" s="10">
+        <v>8.167994608218776E-2</v>
+      </c>
+      <c r="AR201" s="10">
+        <v>2.0226579520697063E-2</v>
+      </c>
       <c r="AS201" s="10"/>
       <c r="AT201" s="10"/>
       <c r="AU201" s="10"/>
@@ -43416,8 +44172,12 @@
       <c r="AP202" s="10">
         <v>0.14780095728348241</v>
       </c>
-      <c r="AQ202" s="10"/>
-      <c r="AR202" s="10"/>
+      <c r="AQ202" s="10">
+        <v>0.13953050970417258</v>
+      </c>
+      <c r="AR202" s="10">
+        <v>0.11929270326005881</v>
+      </c>
       <c r="AS202" s="10"/>
       <c r="AT202" s="10"/>
       <c r="AU202" s="10"/>
@@ -43637,8 +44397,12 @@
       <c r="AP203" s="10">
         <v>2.0650078850534381E-2</v>
       </c>
-      <c r="AQ203" s="10"/>
-      <c r="AR203" s="10"/>
+      <c r="AQ203" s="10">
+        <v>2.5061569946929207E-3</v>
+      </c>
+      <c r="AR203" s="10">
+        <v>1.590387613192501E-2</v>
+      </c>
       <c r="AS203" s="10"/>
       <c r="AT203" s="10"/>
       <c r="AU203" s="10"/>
@@ -43858,8 +44622,12 @@
       <c r="AP204" s="10">
         <v>7.0680372001957981E-2</v>
       </c>
-      <c r="AQ204" s="10"/>
-      <c r="AR204" s="10"/>
+      <c r="AQ204" s="10">
+        <v>9.8509080570067908E-2</v>
+      </c>
+      <c r="AR204" s="10">
+        <v>6.9880190439650436E-2</v>
+      </c>
       <c r="AS204" s="10"/>
       <c r="AT204" s="10"/>
       <c r="AU204" s="10"/>
@@ -44079,8 +44847,12 @@
       <c r="AP205" s="10">
         <v>-1.5898909863020783E-2</v>
       </c>
-      <c r="AQ205" s="10"/>
-      <c r="AR205" s="10"/>
+      <c r="AQ205" s="10">
+        <v>-9.2998180470382108E-2</v>
+      </c>
+      <c r="AR205" s="10">
+        <v>-4.2650093100498165E-2</v>
+      </c>
       <c r="AS205" s="10"/>
       <c r="AT205" s="10"/>
       <c r="AU205" s="10"/>
@@ -44300,8 +45072,12 @@
       <c r="AP206" s="10">
         <v>1.7089465078252708E-2</v>
       </c>
-      <c r="AQ206" s="10"/>
-      <c r="AR206" s="10"/>
+      <c r="AQ206" s="10">
+        <v>0.11594315220445051</v>
+      </c>
+      <c r="AR206" s="10">
+        <v>0.18283259149357067</v>
+      </c>
       <c r="AS206" s="10"/>
       <c r="AT206" s="10"/>
       <c r="AU206" s="10"/>
@@ -44521,8 +45297,12 @@
       <c r="AP207" s="10">
         <v>8.3577483495449023E-2</v>
       </c>
-      <c r="AQ207" s="10"/>
-      <c r="AR207" s="10"/>
+      <c r="AQ207" s="10">
+        <v>3.3866713884979971E-2</v>
+      </c>
+      <c r="AR207" s="10">
+        <v>0.15126591187885863</v>
+      </c>
       <c r="AS207" s="10"/>
       <c r="AT207" s="10"/>
       <c r="AU207" s="10"/>
@@ -44742,8 +45522,12 @@
       <c r="AP208" s="10">
         <v>0.11584479387731217</v>
       </c>
-      <c r="AQ208" s="10"/>
-      <c r="AR208" s="10"/>
+      <c r="AQ208" s="10">
+        <v>0.12318665879673119</v>
+      </c>
+      <c r="AR208" s="10">
+        <v>0.14236111111111116</v>
+      </c>
       <c r="AS208" s="10"/>
       <c r="AT208" s="10"/>
       <c r="AU208" s="10"/>
@@ -44963,8 +45747,12 @@
       <c r="AP209" s="10">
         <v>8.1860910795562569E-2</v>
       </c>
-      <c r="AQ209" s="10"/>
-      <c r="AR209" s="10"/>
+      <c r="AQ209" s="10">
+        <v>7.8370728906025811E-2</v>
+      </c>
+      <c r="AR209" s="10">
+        <v>9.1847897074190277E-2</v>
+      </c>
       <c r="AS209" s="10"/>
       <c r="AT209" s="10"/>
       <c r="AU209" s="10"/>
@@ -45184,8 +45972,12 @@
       <c r="AP210" s="10">
         <v>5.5631201886708448E-2</v>
       </c>
-      <c r="AQ210" s="10"/>
-      <c r="AR210" s="10"/>
+      <c r="AQ210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
+      <c r="AR210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
       <c r="AS210" s="10"/>
       <c r="AT210" s="10"/>
       <c r="AU210" s="10"/>
@@ -45405,8 +46197,12 @@
       <c r="AP211" s="10">
         <v>9.6758987357423276E-2</v>
       </c>
-      <c r="AQ211" s="10"/>
-      <c r="AR211" s="10"/>
+      <c r="AQ211" s="10">
+        <v>9.8219529535408467E-2</v>
+      </c>
+      <c r="AR211" s="10">
+        <v>8.9082049863198787E-2</v>
+      </c>
       <c r="AS211" s="10"/>
       <c r="AT211" s="10"/>
       <c r="AU211" s="10"/>
@@ -45626,8 +46422,12 @@
       <c r="AP212" s="10">
         <v>0.17964041934420005</v>
       </c>
-      <c r="AQ212" s="10"/>
-      <c r="AR212" s="10"/>
+      <c r="AQ212" s="10">
+        <v>0.16606405468950669</v>
+      </c>
+      <c r="AR212" s="10">
+        <v>0.24780379512659234</v>
+      </c>
       <c r="AS212" s="10"/>
       <c r="AT212" s="10"/>
       <c r="AU212" s="10"/>
@@ -45847,8 +46647,12 @@
       <c r="AP213" s="10">
         <v>0.14688882977437068</v>
       </c>
-      <c r="AQ213" s="10"/>
-      <c r="AR213" s="10"/>
+      <c r="AQ213" s="10">
+        <v>0.12921504876915924</v>
+      </c>
+      <c r="AR213" s="10">
+        <v>1.9809704583658494E-2</v>
+      </c>
       <c r="AS213" s="10"/>
       <c r="AT213" s="10"/>
       <c r="AU213" s="10"/>
@@ -46068,8 +46872,12 @@
       <c r="AP214" s="10">
         <v>2.1465725431915272E-2</v>
       </c>
-      <c r="AQ214" s="10"/>
-      <c r="AR214" s="10"/>
+      <c r="AQ214" s="10">
+        <v>3.3869296525182335E-2</v>
+      </c>
+      <c r="AR214" s="10">
+        <v>4.667296506242824E-2</v>
+      </c>
       <c r="AS214" s="10"/>
       <c r="AT214" s="10"/>
       <c r="AU214" s="10"/>
@@ -46289,8 +47097,12 @@
       <c r="AP215" s="10">
         <v>-1.186180422264882E-2</v>
       </c>
-      <c r="AQ215" s="10"/>
-      <c r="AR215" s="10"/>
+      <c r="AQ215" s="10">
+        <v>-3.3968817388981831E-3</v>
+      </c>
+      <c r="AR215" s="10">
+        <v>4.4724893292236167E-4</v>
+      </c>
       <c r="AS215" s="10"/>
       <c r="AT215" s="10"/>
       <c r="AU215" s="10"/>
@@ -46510,8 +47322,12 @@
       <c r="AP216" s="10">
         <v>7.2372664349868554E-2</v>
       </c>
-      <c r="AQ216" s="10"/>
-      <c r="AR216" s="10"/>
+      <c r="AQ216" s="10">
+        <v>8.3115932960463601E-2</v>
+      </c>
+      <c r="AR216" s="10">
+        <v>9.3849574986281992E-2</v>
+      </c>
       <c r="AS216" s="10"/>
       <c r="AT216" s="10"/>
       <c r="AU216" s="10"/>
@@ -46731,8 +47547,12 @@
       <c r="AP217" s="10">
         <v>0.13999707329565214</v>
       </c>
-      <c r="AQ217" s="10"/>
-      <c r="AR217" s="10"/>
+      <c r="AQ217" s="10">
+        <v>0.13999707329565214</v>
+      </c>
+      <c r="AR217" s="10">
+        <v>0.13999707329565214</v>
+      </c>
       <c r="AS217" s="10"/>
       <c r="AT217" s="10"/>
       <c r="AU217" s="10"/>
@@ -46952,8 +47772,12 @@
       <c r="AP218" s="10">
         <v>7.965017213200265E-2</v>
       </c>
-      <c r="AQ218" s="10"/>
-      <c r="AR218" s="10"/>
+      <c r="AQ218" s="10">
+        <v>7.9479166666666545E-2</v>
+      </c>
+      <c r="AR218" s="10">
+        <v>6.3881117983728197E-2</v>
+      </c>
       <c r="AS218" s="10"/>
       <c r="AT218" s="10"/>
       <c r="AU218" s="10"/>
@@ -47173,8 +47997,12 @@
       <c r="AP219" s="10">
         <v>4.4860035330887227E-2</v>
       </c>
-      <c r="AQ219" s="10"/>
-      <c r="AR219" s="10"/>
+      <c r="AQ219" s="10">
+        <v>5.8308267793692803E-2</v>
+      </c>
+      <c r="AR219" s="10">
+        <v>8.1682387927435096E-2</v>
+      </c>
       <c r="AS219" s="10"/>
       <c r="AT219" s="10"/>
       <c r="AU219" s="10"/>
@@ -47394,8 +48222,12 @@
       <c r="AP220" s="10">
         <v>7.8099663363520033E-2</v>
       </c>
-      <c r="AQ220" s="10"/>
-      <c r="AR220" s="10"/>
+      <c r="AQ220" s="10">
+        <v>0.11431225902355169</v>
+      </c>
+      <c r="AR220" s="10">
+        <v>0.11308673188963403</v>
+      </c>
       <c r="AS220" s="10"/>
       <c r="AT220" s="10"/>
       <c r="AU220" s="10"/>
@@ -47615,8 +48447,12 @@
       <c r="AP221" s="10">
         <v>1.140672261747544E-2</v>
       </c>
-      <c r="AQ221" s="10"/>
-      <c r="AR221" s="10"/>
+      <c r="AQ221" s="10">
+        <v>5.638031693077572E-2</v>
+      </c>
+      <c r="AR221" s="10">
+        <v>0.10863840897727917</v>
+      </c>
       <c r="AS221" s="10"/>
       <c r="AT221" s="10"/>
       <c r="AU221" s="10"/>
@@ -47836,8 +48672,12 @@
       <c r="AP222" s="10">
         <v>7.5745167878602526E-2</v>
       </c>
-      <c r="AQ222" s="10"/>
-      <c r="AR222" s="10"/>
+      <c r="AQ222" s="10">
+        <v>7.9926760728867841E-2</v>
+      </c>
+      <c r="AR222" s="10">
+        <v>8.0042471117691694E-2</v>
+      </c>
       <c r="AS222" s="10"/>
       <c r="AT222" s="10"/>
       <c r="AU222" s="10"/>
@@ -48057,8 +48897,12 @@
       <c r="AP223" s="10">
         <v>3.577050982291663E-3</v>
       </c>
-      <c r="AQ223" s="10"/>
-      <c r="AR223" s="10"/>
+      <c r="AQ223" s="10">
+        <v>8.724669562461651E-3</v>
+      </c>
+      <c r="AR223" s="10">
+        <v>2.1913174215373088E-2</v>
+      </c>
       <c r="AS223" s="10"/>
       <c r="AT223" s="10"/>
       <c r="AU223" s="10"/>
@@ -48278,8 +49122,12 @@
       <c r="AP224" s="10">
         <v>3.1689320388349485E-2</v>
       </c>
-      <c r="AQ224" s="10"/>
-      <c r="AR224" s="10"/>
+      <c r="AQ224" s="10">
+        <v>-5.4704153070605166E-2</v>
+      </c>
+      <c r="AR224" s="10">
+        <v>-2.8711771241447859E-2</v>
+      </c>
       <c r="AS224" s="10"/>
       <c r="AT224" s="10"/>
       <c r="AU224" s="10"/>
@@ -48499,8 +49347,12 @@
       <c r="AP225" s="10">
         <v>0.21726972365948582</v>
       </c>
-      <c r="AQ225" s="10"/>
-      <c r="AR225" s="10"/>
+      <c r="AQ225" s="10">
+        <v>0.20618150279902214</v>
+      </c>
+      <c r="AR225" s="10">
+        <v>0.1792104926968443</v>
+      </c>
       <c r="AS225" s="10"/>
       <c r="AT225" s="10"/>
       <c r="AU225" s="10"/>
@@ -48720,8 +49572,12 @@
       <c r="AP226" s="10">
         <v>-7.5800307284322188E-2</v>
       </c>
-      <c r="AQ226" s="10"/>
-      <c r="AR226" s="10"/>
+      <c r="AQ226" s="10">
+        <v>-8.6942563330825173E-2</v>
+      </c>
+      <c r="AR226" s="10">
+        <v>-4.4876809753619518E-2</v>
+      </c>
       <c r="AS226" s="10"/>
       <c r="AT226" s="10"/>
       <c r="AU226" s="10"/>
@@ -48941,8 +49797,12 @@
       <c r="AP227" s="10">
         <v>9.9880143827407064E-2</v>
       </c>
-      <c r="AQ227" s="10"/>
-      <c r="AR227" s="10"/>
+      <c r="AQ227" s="10">
+        <v>5.98765961093497E-2</v>
+      </c>
+      <c r="AR227" s="10">
+        <v>2.2807200807827499E-2</v>
+      </c>
       <c r="AS227" s="10"/>
       <c r="AT227" s="10"/>
       <c r="AU227" s="10"/>
@@ -49162,8 +50022,12 @@
       <c r="AP228" s="10">
         <v>0.1435886333901224</v>
       </c>
-      <c r="AQ228" s="10"/>
-      <c r="AR228" s="10"/>
+      <c r="AQ228" s="10">
+        <v>0.11662137071818734</v>
+      </c>
+      <c r="AR228" s="10">
+        <v>9.8689538073055028E-2</v>
+      </c>
       <c r="AS228" s="10"/>
       <c r="AT228" s="10"/>
       <c r="AU228" s="10"/>
@@ -49383,8 +50247,12 @@
       <c r="AP229" s="10">
         <v>3.6027513526894595E-2</v>
       </c>
-      <c r="AQ229" s="10"/>
-      <c r="AR229" s="10"/>
+      <c r="AQ229" s="10">
+        <v>2.9118840832714987E-2</v>
+      </c>
+      <c r="AR229" s="10">
+        <v>2.3074656869541021E-2</v>
+      </c>
       <c r="AS229" s="10"/>
       <c r="AT229" s="10"/>
       <c r="AU229" s="10"/>
@@ -49604,8 +50472,12 @@
       <c r="AP230" s="10">
         <v>3.7169665926295226E-2</v>
       </c>
-      <c r="AQ230" s="10"/>
-      <c r="AR230" s="10"/>
+      <c r="AQ230" s="10">
+        <v>4.8084855627577916E-2</v>
+      </c>
+      <c r="AR230" s="10">
+        <v>2.9304559391478024E-2</v>
+      </c>
       <c r="AS230" s="10"/>
       <c r="AT230" s="10"/>
       <c r="AU230" s="10"/>
@@ -49825,8 +50697,12 @@
       <c r="AP231" s="10">
         <v>1.4422800666551661E-2</v>
       </c>
-      <c r="AQ231" s="10"/>
-      <c r="AR231" s="10"/>
+      <c r="AQ231" s="10">
+        <v>8.2392194628456927E-2</v>
+      </c>
+      <c r="AR231" s="10">
+        <v>0.13619634297540828</v>
+      </c>
       <c r="AS231" s="10"/>
       <c r="AT231" s="10"/>
       <c r="AU231" s="10"/>
@@ -50046,8 +50922,12 @@
       <c r="AP232" s="10">
         <v>3.1007132667617565E-2</v>
       </c>
-      <c r="AQ232" s="10"/>
-      <c r="AR232" s="10"/>
+      <c r="AQ232" s="10">
+        <v>1.4283200678968377E-3</v>
+      </c>
+      <c r="AR232" s="10">
+        <v>6.177271601881662E-2</v>
+      </c>
       <c r="AS232" s="10"/>
       <c r="AT232" s="10"/>
       <c r="AU232" s="10"/>
@@ -50267,8 +51147,12 @@
       <c r="AP233" s="10">
         <v>2.5668139873287199E-3</v>
       </c>
-      <c r="AQ233" s="10"/>
-      <c r="AR233" s="10"/>
+      <c r="AQ233" s="10">
+        <v>4.7834495795009868E-2</v>
+      </c>
+      <c r="AR233" s="10">
+        <v>3.6865164752547086E-2</v>
+      </c>
       <c r="AS233" s="10"/>
       <c r="AT233" s="10"/>
       <c r="AU233" s="10"/>
@@ -50488,8 +51372,12 @@
       <c r="AP234" s="10">
         <v>-5.1304724271647895E-2</v>
       </c>
-      <c r="AQ234" s="10"/>
-      <c r="AR234" s="10"/>
+      <c r="AQ234" s="10">
+        <v>-5.6092294743005588E-2</v>
+      </c>
+      <c r="AR234" s="10">
+        <v>-7.9918158209972834E-3</v>
+      </c>
       <c r="AS234" s="10"/>
       <c r="AT234" s="10"/>
       <c r="AU234" s="10"/>
@@ -50709,8 +51597,12 @@
       <c r="AP235" s="10">
         <v>-9.1502654834049513E-2</v>
       </c>
-      <c r="AQ235" s="10"/>
-      <c r="AR235" s="10"/>
+      <c r="AQ235" s="10">
+        <v>-1.0581199202576275E-2</v>
+      </c>
+      <c r="AR235" s="10">
+        <v>1.7825601095850852E-2</v>
+      </c>
       <c r="AS235" s="10"/>
       <c r="AT235" s="10"/>
       <c r="AU235" s="10"/>
@@ -50930,8 +51822,12 @@
       <c r="AP236" s="10">
         <v>7.2068933481977071E-2</v>
       </c>
-      <c r="AQ236" s="10"/>
-      <c r="AR236" s="10"/>
+      <c r="AQ236" s="10">
+        <v>0.17036812392105616</v>
+      </c>
+      <c r="AR236" s="10">
+        <v>0.17671261535600569</v>
+      </c>
       <c r="AS236" s="10"/>
       <c r="AT236" s="10"/>
       <c r="AU236" s="10"/>
@@ -51151,8 +52047,12 @@
       <c r="AP237" s="10">
         <v>4.3758185121034243E-2</v>
       </c>
-      <c r="AQ237" s="10"/>
-      <c r="AR237" s="10"/>
+      <c r="AQ237" s="10">
+        <v>8.5536777164704425E-2</v>
+      </c>
+      <c r="AR237" s="10">
+        <v>8.722933927452492E-2</v>
+      </c>
       <c r="AS237" s="10"/>
       <c r="AT237" s="10"/>
       <c r="AU237" s="10"/>
@@ -51372,8 +52272,12 @@
       <c r="AP238" s="10">
         <v>5.2958966579848665E-2</v>
       </c>
-      <c r="AQ238" s="10"/>
-      <c r="AR238" s="10"/>
+      <c r="AQ238" s="10">
+        <v>3.3423727527876812E-2</v>
+      </c>
+      <c r="AR238" s="10">
+        <v>3.7894836391148212E-2</v>
+      </c>
       <c r="AS238" s="10"/>
       <c r="AT238" s="10"/>
       <c r="AU238" s="10"/>
@@ -51593,8 +52497,12 @@
       <c r="AP239" s="10">
         <v>0.11441297305838649</v>
       </c>
-      <c r="AQ239" s="10"/>
-      <c r="AR239" s="10"/>
+      <c r="AQ239" s="10">
+        <v>6.6099257423503754E-2</v>
+      </c>
+      <c r="AR239" s="10">
+        <v>4.306809223055863E-2</v>
+      </c>
       <c r="AS239" s="10"/>
       <c r="AT239" s="10"/>
       <c r="AU239" s="10"/>
@@ -51814,8 +52722,12 @@
       <c r="AP240" s="10">
         <v>8.1421570101325891E-2</v>
       </c>
-      <c r="AQ240" s="10"/>
-      <c r="AR240" s="10"/>
+      <c r="AQ240" s="10">
+        <v>0.10372898120672613</v>
+      </c>
+      <c r="AR240" s="10">
+        <v>5.9344976885561618E-2</v>
+      </c>
       <c r="AS240" s="10"/>
       <c r="AT240" s="10"/>
       <c r="AU240" s="10"/>
@@ -52035,8 +52947,12 @@
       <c r="AP241" s="10">
         <v>5.6483421087395458E-2</v>
       </c>
-      <c r="AQ241" s="10"/>
-      <c r="AR241" s="10"/>
+      <c r="AQ241" s="10">
+        <v>4.512800233501868E-2</v>
+      </c>
+      <c r="AR241" s="10">
+        <v>4.6894293732460124E-2</v>
+      </c>
       <c r="AS241" s="10"/>
       <c r="AT241" s="10"/>
       <c r="AU241" s="10"/>
@@ -52256,8 +53172,12 @@
       <c r="AP242" s="10">
         <v>5.8234165782073299E-2</v>
       </c>
-      <c r="AQ242" s="10"/>
-      <c r="AR242" s="10"/>
+      <c r="AQ242" s="10">
+        <v>2.7463232915206914E-2</v>
+      </c>
+      <c r="AR242" s="10">
+        <v>2.3458222811671092E-2</v>
+      </c>
       <c r="AS242" s="10"/>
       <c r="AT242" s="10"/>
       <c r="AU242" s="10"/>
@@ -52477,8 +53397,12 @@
       <c r="AP243" s="10">
         <v>4.9590687550276735E-2</v>
       </c>
-      <c r="AQ243" s="10"/>
-      <c r="AR243" s="10"/>
+      <c r="AQ243" s="10">
+        <v>3.9445277219975372E-2</v>
+      </c>
+      <c r="AR243" s="10">
+        <v>4.5994204861895094E-2</v>
+      </c>
       <c r="AS243" s="10"/>
       <c r="AT243" s="10"/>
       <c r="AU243" s="10"/>
@@ -52698,8 +53622,12 @@
       <c r="AP244" s="10">
         <v>-7.392436731607599E-2</v>
       </c>
-      <c r="AQ244" s="10"/>
-      <c r="AR244" s="10"/>
+      <c r="AQ244" s="10">
+        <v>7.0305095945675689E-2</v>
+      </c>
+      <c r="AR244" s="10">
+        <v>0.21576860679986476</v>
+      </c>
       <c r="AS244" s="10"/>
       <c r="AT244" s="10"/>
       <c r="AU244" s="10"/>
@@ -52919,8 +53847,12 @@
       <c r="AP245" s="10">
         <v>0.12565664493458084</v>
       </c>
-      <c r="AQ245" s="10"/>
-      <c r="AR245" s="10"/>
+      <c r="AQ245" s="10">
+        <v>0.13151127112782213</v>
+      </c>
+      <c r="AR245" s="10">
+        <v>0.13446032659202545</v>
+      </c>
       <c r="AS245" s="10"/>
       <c r="AT245" s="10"/>
       <c r="AU245" s="10"/>
@@ -53140,8 +54072,12 @@
       <c r="AP246" s="10">
         <v>0.21531270500765376</v>
       </c>
-      <c r="AQ246" s="10"/>
-      <c r="AR246" s="10"/>
+      <c r="AQ246" s="10">
+        <v>0.18180010844026739</v>
+      </c>
+      <c r="AR246" s="10">
+        <v>0.20580395223201586</v>
+      </c>
       <c r="AS246" s="10"/>
       <c r="AT246" s="10"/>
       <c r="AU246" s="10"/>
@@ -53361,8 +54297,12 @@
       <c r="AP247" s="10">
         <v>0.11633854161943558</v>
       </c>
-      <c r="AQ247" s="10"/>
-      <c r="AR247" s="10"/>
+      <c r="AQ247" s="10">
+        <v>9.0177005262318533E-2</v>
+      </c>
+      <c r="AR247" s="10">
+        <v>7.3360303816293992E-2</v>
+      </c>
       <c r="AS247" s="10"/>
       <c r="AT247" s="10"/>
       <c r="AU247" s="10"/>
@@ -53582,8 +54522,12 @@
       <c r="AP248" s="10">
         <v>2.5075357127255282E-2</v>
       </c>
-      <c r="AQ248" s="10"/>
-      <c r="AR248" s="10"/>
+      <c r="AQ248" s="10">
+        <v>6.4998119166133073E-3</v>
+      </c>
+      <c r="AR248" s="10">
+        <v>5.0130494328020081E-3</v>
+      </c>
       <c r="AS248" s="10"/>
       <c r="AT248" s="10"/>
       <c r="AU248" s="10"/>
@@ -53803,8 +54747,12 @@
       <c r="AP249" s="10">
         <v>3.9287328250146691E-2</v>
       </c>
-      <c r="AQ249" s="10"/>
-      <c r="AR249" s="10"/>
+      <c r="AQ249" s="10">
+        <v>6.5816943193055755E-2</v>
+      </c>
+      <c r="AR249" s="10">
+        <v>6.1230262067082153E-2</v>
+      </c>
       <c r="AS249" s="10"/>
       <c r="AT249" s="10"/>
       <c r="AU249" s="10"/>
@@ -54024,8 +54972,12 @@
       <c r="AP250" s="10">
         <v>0.13973331176643056</v>
       </c>
-      <c r="AQ250" s="10"/>
-      <c r="AR250" s="10"/>
+      <c r="AQ250" s="10">
+        <v>0.17326155499457618</v>
+      </c>
+      <c r="AR250" s="10">
+        <v>0.15343344453133501</v>
+      </c>
       <c r="AS250" s="10"/>
       <c r="AT250" s="10"/>
       <c r="AU250" s="10"/>
@@ -54245,8 +55197,12 @@
       <c r="AP251" s="10">
         <v>0.20464600868580374</v>
       </c>
-      <c r="AQ251" s="10"/>
-      <c r="AR251" s="10"/>
+      <c r="AQ251" s="10">
+        <v>0.22642498749657158</v>
+      </c>
+      <c r="AR251" s="10">
+        <v>0.10455503838962477</v>
+      </c>
       <c r="AS251" s="10"/>
       <c r="AT251" s="10"/>
       <c r="AU251" s="10"/>
@@ -54466,8 +55422,12 @@
       <c r="AP252" s="10">
         <v>0.250335507630848</v>
       </c>
-      <c r="AQ252" s="10"/>
-      <c r="AR252" s="10"/>
+      <c r="AQ252" s="10">
+        <v>0.1928272576425436</v>
+      </c>
+      <c r="AR252" s="10">
+        <v>0.19938535946395275</v>
+      </c>
       <c r="AS252" s="10"/>
       <c r="AT252" s="10"/>
       <c r="AU252" s="10"/>
@@ -54687,8 +55647,12 @@
       <c r="AP253" s="10">
         <v>0.138973793203234</v>
       </c>
-      <c r="AQ253" s="10"/>
-      <c r="AR253" s="10"/>
+      <c r="AQ253" s="10">
+        <v>0.1438402089141404</v>
+      </c>
+      <c r="AR253" s="10">
+        <v>0.18462341683844774</v>
+      </c>
       <c r="AS253" s="10"/>
       <c r="AT253" s="10"/>
       <c r="AU253" s="10"/>
@@ -54908,8 +55872,12 @@
       <c r="AP254" s="10">
         <v>9.2028054581438257E-2</v>
       </c>
-      <c r="AQ254" s="10"/>
-      <c r="AR254" s="10"/>
+      <c r="AQ254" s="10">
+        <v>7.2558787847500028E-2</v>
+      </c>
+      <c r="AR254" s="10">
+        <v>8.2453559106201002E-2</v>
+      </c>
       <c r="AS254" s="10"/>
       <c r="AT254" s="10"/>
       <c r="AU254" s="10"/>
@@ -55129,8 +56097,12 @@
       <c r="AP255" s="10">
         <v>4.7996585742190678E-2</v>
       </c>
-      <c r="AQ255" s="10"/>
-      <c r="AR255" s="10"/>
+      <c r="AQ255" s="10">
+        <v>8.5448185764254614E-2</v>
+      </c>
+      <c r="AR255" s="10">
+        <v>0.10488693263727167</v>
+      </c>
       <c r="AS255" s="10"/>
       <c r="AT255" s="10"/>
       <c r="AU255" s="10"/>
@@ -55350,8 +56322,12 @@
       <c r="AP256" s="10">
         <v>9.9431818181816567E-4</v>
       </c>
-      <c r="AQ256" s="10"/>
-      <c r="AR256" s="10"/>
+      <c r="AQ256" s="10">
+        <v>1.1469340675695605E-2</v>
+      </c>
+      <c r="AR256" s="10">
+        <v>5.4700195554576281E-2</v>
+      </c>
       <c r="AS256" s="10"/>
       <c r="AT256" s="10"/>
       <c r="AU256" s="10"/>
@@ -55571,8 +56547,12 @@
       <c r="AP257" s="10">
         <v>6.8897416697865976E-2</v>
       </c>
-      <c r="AQ257" s="10"/>
-      <c r="AR257" s="10"/>
+      <c r="AQ257" s="10">
+        <v>3.6937157800114306E-2</v>
+      </c>
+      <c r="AR257" s="10">
+        <v>2.2765742125578692E-2</v>
+      </c>
       <c r="AS257" s="10"/>
       <c r="AT257" s="10"/>
       <c r="AU257" s="10"/>
@@ -55792,8 +56772,12 @@
       <c r="AP258" s="10">
         <v>5.9388199155254062E-2</v>
       </c>
-      <c r="AQ258" s="10"/>
-      <c r="AR258" s="10"/>
+      <c r="AQ258" s="10">
+        <v>5.9388199155254062E-2</v>
+      </c>
+      <c r="AR258" s="10">
+        <v>4.7130150450573227E-2</v>
+      </c>
       <c r="AS258" s="10"/>
       <c r="AT258" s="10"/>
       <c r="AU258" s="10"/>
@@ -56013,8 +56997,12 @@
       <c r="AP259" s="10">
         <v>6.093392038946166E-2</v>
       </c>
-      <c r="AQ259" s="10"/>
-      <c r="AR259" s="10"/>
+      <c r="AQ259" s="10">
+        <v>8.4766078928345978E-2</v>
+      </c>
+      <c r="AR259" s="10">
+        <v>9.9387861541417655E-2</v>
+      </c>
       <c r="AS259" s="10"/>
       <c r="AT259" s="10"/>
       <c r="AU259" s="10"/>
@@ -56234,8 +57222,12 @@
       <c r="AP260" s="10">
         <v>8.9273399232551176E-2</v>
       </c>
-      <c r="AQ260" s="10"/>
-      <c r="AR260" s="10"/>
+      <c r="AQ260" s="10">
+        <v>7.469651283031653E-2</v>
+      </c>
+      <c r="AR260" s="10">
+        <v>4.1771519110681776E-2</v>
+      </c>
       <c r="AS260" s="10"/>
       <c r="AT260" s="10"/>
       <c r="AU260" s="10"/>
@@ -56455,8 +57447,12 @@
       <c r="AP261" s="10">
         <v>0.13468449604098276</v>
       </c>
-      <c r="AQ261" s="10"/>
-      <c r="AR261" s="10"/>
+      <c r="AQ261" s="10">
+        <v>0.12700846990427506</v>
+      </c>
+      <c r="AR261" s="10">
+        <v>0.13357511053157012</v>
+      </c>
       <c r="AS261" s="10"/>
       <c r="AT261" s="10"/>
       <c r="AU261" s="10"/>
@@ -56676,8 +57672,12 @@
       <c r="AP262" s="10">
         <v>7.0570277994284281E-2</v>
       </c>
-      <c r="AQ262" s="10"/>
-      <c r="AR262" s="10"/>
+      <c r="AQ262" s="10">
+        <v>1.2956537901551934E-2</v>
+      </c>
+      <c r="AR262" s="10">
+        <v>1.4594718932683381E-3</v>
+      </c>
       <c r="AS262" s="10"/>
       <c r="AT262" s="10"/>
       <c r="AU262" s="10"/>
@@ -56897,8 +57897,12 @@
       <c r="AP263" s="10">
         <v>3.0892965829058427E-2</v>
       </c>
-      <c r="AQ263" s="10"/>
-      <c r="AR263" s="10"/>
+      <c r="AQ263" s="10">
+        <v>6.2146892655367214E-2</v>
+      </c>
+      <c r="AR263" s="10">
+        <v>5.0633585347673371E-2</v>
+      </c>
       <c r="AS263" s="10"/>
       <c r="AT263" s="10"/>
       <c r="AU263" s="10"/>
@@ -57118,8 +58122,12 @@
       <c r="AP264" s="10">
         <v>-2.6708761148167559E-2</v>
       </c>
-      <c r="AQ264" s="10"/>
-      <c r="AR264" s="10"/>
+      <c r="AQ264" s="10">
+        <v>1.2753281114674664E-3</v>
+      </c>
+      <c r="AR264" s="10">
+        <v>1.4218679330619599E-2</v>
+      </c>
       <c r="AS264" s="10"/>
       <c r="AT264" s="10"/>
       <c r="AU264" s="10"/>
@@ -57339,8 +58347,12 @@
       <c r="AP265" s="10">
         <v>0.12863953853398202</v>
       </c>
-      <c r="AQ265" s="10"/>
-      <c r="AR265" s="10"/>
+      <c r="AQ265" s="10">
+        <v>0.13172043010752699</v>
+      </c>
+      <c r="AR265" s="10">
+        <v>9.8101776676257524E-2</v>
+      </c>
       <c r="AS265" s="10"/>
       <c r="AT265" s="10"/>
       <c r="AU265" s="10"/>
@@ -57560,8 +58572,12 @@
       <c r="AP266" s="10">
         <v>0.13464678667236885</v>
       </c>
-      <c r="AQ266" s="10"/>
-      <c r="AR266" s="10"/>
+      <c r="AQ266" s="10">
+        <v>5.9859697810669132E-2</v>
+      </c>
+      <c r="AR266" s="10">
+        <v>5.0247109063864537E-2</v>
+      </c>
       <c r="AS266" s="10"/>
       <c r="AT266" s="10"/>
       <c r="AU266" s="10"/>
@@ -57781,8 +58797,12 @@
       <c r="AP267" s="10">
         <v>1.3893473058833372E-2</v>
       </c>
-      <c r="AQ267" s="10"/>
-      <c r="AR267" s="10"/>
+      <c r="AQ267" s="10">
+        <v>5.023104216519525E-2</v>
+      </c>
+      <c r="AR267" s="10">
+        <v>2.7137140028055118E-2</v>
+      </c>
       <c r="AS267" s="10"/>
       <c r="AT267" s="10"/>
       <c r="AU267" s="10"/>
@@ -58002,8 +59022,12 @@
       <c r="AP268" s="10">
         <v>8.4386522679698928E-2</v>
       </c>
-      <c r="AQ268" s="10"/>
-      <c r="AR268" s="10"/>
+      <c r="AQ268" s="10">
+        <v>0.13013460941352673</v>
+      </c>
+      <c r="AR268" s="10">
+        <v>0.10984977654934758</v>
+      </c>
       <c r="AS268" s="10"/>
       <c r="AT268" s="10"/>
       <c r="AU268" s="10"/>
@@ -58223,8 +59247,12 @@
       <c r="AP269" s="10">
         <v>3.000496145031839E-2</v>
       </c>
-      <c r="AQ269" s="10"/>
-      <c r="AR269" s="10"/>
+      <c r="AQ269" s="10">
+        <v>-6.5038857961748908E-3</v>
+      </c>
+      <c r="AR269" s="10">
+        <v>1.5117991196920144E-3</v>
+      </c>
       <c r="AS269" s="10"/>
       <c r="AT269" s="10"/>
       <c r="AU269" s="10"/>
@@ -58444,8 +59472,12 @@
       <c r="AP270" s="10">
         <v>6.9317565902931921E-2</v>
       </c>
-      <c r="AQ270" s="10"/>
-      <c r="AR270" s="10"/>
+      <c r="AQ270" s="10">
+        <v>4.706841813998186E-2</v>
+      </c>
+      <c r="AR270" s="10">
+        <v>8.373601898029337E-2</v>
+      </c>
       <c r="AS270" s="10"/>
       <c r="AT270" s="10"/>
       <c r="AU270" s="10"/>
@@ -58665,8 +59697,12 @@
       <c r="AP271" s="10">
         <v>6.6316994647278138E-2</v>
       </c>
-      <c r="AQ271" s="10"/>
-      <c r="AR271" s="10"/>
+      <c r="AQ271" s="10">
+        <v>7.3692435415344093E-2</v>
+      </c>
+      <c r="AR271" s="10">
+        <v>0.10148811554091597</v>
+      </c>
       <c r="AS271" s="10"/>
       <c r="AT271" s="10"/>
       <c r="AU271" s="10"/>
@@ -58886,8 +59922,12 @@
       <c r="AP272" s="10">
         <v>5.7294459132171127E-2</v>
       </c>
-      <c r="AQ272" s="10"/>
-      <c r="AR272" s="10"/>
+      <c r="AQ272" s="10">
+        <v>-1.0527762506871929E-2</v>
+      </c>
+      <c r="AR272" s="10">
+        <v>-9.6848085028403696E-3</v>
+      </c>
       <c r="AS272" s="10"/>
       <c r="AT272" s="10"/>
       <c r="AU272" s="10"/>
@@ -59107,8 +60147,12 @@
       <c r="AP273" s="10">
         <v>9.4493441685582047E-2</v>
       </c>
-      <c r="AQ273" s="10"/>
-      <c r="AR273" s="10"/>
+      <c r="AQ273" s="10">
+        <v>5.5697806633047131E-2</v>
+      </c>
+      <c r="AR273" s="10">
+        <v>6.4921420882669612E-2</v>
+      </c>
       <c r="AS273" s="10"/>
       <c r="AT273" s="10"/>
       <c r="AU273" s="10"/>
@@ -59328,8 +60372,12 @@
       <c r="AP274" s="10">
         <v>4.1384569600475984E-2</v>
       </c>
-      <c r="AQ274" s="10"/>
-      <c r="AR274" s="10"/>
+      <c r="AQ274" s="10">
+        <v>5.1860563579056329E-2</v>
+      </c>
+      <c r="AR274" s="10">
+        <v>2.9078223089526567E-2</v>
+      </c>
       <c r="AS274" s="10"/>
       <c r="AT274" s="10"/>
       <c r="AU274" s="10"/>
@@ -59549,8 +60597,12 @@
       <c r="AP275" s="10">
         <v>2.7427352608743183E-2</v>
       </c>
-      <c r="AQ275" s="10"/>
-      <c r="AR275" s="10"/>
+      <c r="AQ275" s="10">
+        <v>2.7427352608743183E-2</v>
+      </c>
+      <c r="AR275" s="10">
+        <v>2.7427352608743183E-2</v>
+      </c>
       <c r="AS275" s="10"/>
       <c r="AT275" s="10"/>
       <c r="AU275" s="10"/>
@@ -59770,8 +60822,12 @@
       <c r="AP276" s="10">
         <v>4.1391677969650376E-2</v>
       </c>
-      <c r="AQ276" s="10"/>
-      <c r="AR276" s="10"/>
+      <c r="AQ276" s="10">
+        <v>3.9281950652276798E-2</v>
+      </c>
+      <c r="AR276" s="10">
+        <v>3.9281950652276798E-2</v>
+      </c>
       <c r="AS276" s="10"/>
       <c r="AT276" s="10"/>
       <c r="AU276" s="10"/>
@@ -59991,8 +61047,12 @@
       <c r="AP277" s="10">
         <v>5.3090046904797905E-3</v>
       </c>
-      <c r="AQ277" s="10"/>
-      <c r="AR277" s="10"/>
+      <c r="AQ277" s="10">
+        <v>1.8349569609813932E-2</v>
+      </c>
+      <c r="AR277" s="10">
+        <v>4.1759015858289006E-2</v>
+      </c>
       <c r="AS277" s="10"/>
       <c r="AT277" s="10"/>
       <c r="AU277" s="10"/>
@@ -60212,8 +61272,12 @@
       <c r="AP278" s="10">
         <v>3.6228247818061332E-2</v>
       </c>
-      <c r="AQ278" s="10"/>
-      <c r="AR278" s="10"/>
+      <c r="AQ278" s="10">
+        <v>3.6228247818061332E-2</v>
+      </c>
+      <c r="AR278" s="10">
+        <v>3.6228247818061332E-2</v>
+      </c>
       <c r="AS278" s="10"/>
       <c r="AT278" s="10"/>
       <c r="AU278" s="10"/>
@@ -60433,8 +61497,12 @@
       <c r="AP279" s="10">
         <v>8.1538012122982506E-2</v>
       </c>
-      <c r="AQ279" s="10"/>
-      <c r="AR279" s="10"/>
+      <c r="AQ279" s="10">
+        <v>8.1538012122982506E-2</v>
+      </c>
+      <c r="AR279" s="10">
+        <v>5.0915413000283793E-2</v>
+      </c>
       <c r="AS279" s="10"/>
       <c r="AT279" s="10"/>
       <c r="AU279" s="10"/>
@@ -60654,8 +61722,12 @@
       <c r="AP280" s="10">
         <v>2.4202002675053347E-2</v>
       </c>
-      <c r="AQ280" s="10"/>
-      <c r="AR280" s="10"/>
+      <c r="AQ280" s="10">
+        <v>2.4202002675053347E-2</v>
+      </c>
+      <c r="AR280" s="10">
+        <v>1.0557665899809221E-2</v>
+      </c>
       <c r="AS280" s="10"/>
       <c r="AT280" s="10"/>
       <c r="AU280" s="10"/>
@@ -60875,8 +61947,12 @@
       <c r="AP281" s="10">
         <v>6.5904125433748906E-2</v>
       </c>
-      <c r="AQ281" s="10"/>
-      <c r="AR281" s="10"/>
+      <c r="AQ281" s="10">
+        <v>6.0229665561248424E-2</v>
+      </c>
+      <c r="AR281" s="10">
+        <v>5.2376088002634047E-2</v>
+      </c>
       <c r="AS281" s="10"/>
       <c r="AT281" s="10"/>
       <c r="AU281" s="10"/>
@@ -61096,8 +62172,12 @@
       <c r="AP282" s="10">
         <v>2.8434012159754607E-2</v>
       </c>
-      <c r="AQ282" s="10"/>
-      <c r="AR282" s="10"/>
+      <c r="AQ282" s="10">
+        <v>6.2704921318230245E-2</v>
+      </c>
+      <c r="AR282" s="10">
+        <v>4.2052386078220261E-2</v>
+      </c>
       <c r="AS282" s="10"/>
       <c r="AT282" s="10"/>
       <c r="AU282" s="10"/>
@@ -61317,8 +62397,12 @@
       <c r="AP283" s="10">
         <v>9.5947653429602875E-2</v>
       </c>
-      <c r="AQ283" s="10"/>
-      <c r="AR283" s="10"/>
+      <c r="AQ283" s="10">
+        <v>7.8985095620655255E-2</v>
+      </c>
+      <c r="AR283" s="10">
+        <v>6.9997549041856955E-2</v>
+      </c>
       <c r="AS283" s="10"/>
       <c r="AT283" s="10"/>
       <c r="AU283" s="10"/>
@@ -61538,8 +62622,12 @@
       <c r="AP284" s="10">
         <v>0.25580512547147727</v>
       </c>
-      <c r="AQ284" s="10"/>
-      <c r="AR284" s="10"/>
+      <c r="AQ284" s="10">
+        <v>0.2116454396215699</v>
+      </c>
+      <c r="AR284" s="10">
+        <v>0.21201764742434603</v>
+      </c>
       <c r="AS284" s="10"/>
       <c r="AT284" s="10"/>
       <c r="AU284" s="10"/>
@@ -61759,8 +62847,12 @@
       <c r="AP285" s="10">
         <v>9.8748108405557922E-2</v>
       </c>
-      <c r="AQ285" s="10"/>
-      <c r="AR285" s="10"/>
+      <c r="AQ285" s="10">
+        <v>9.564930421868989E-2</v>
+      </c>
+      <c r="AR285" s="10">
+        <v>9.6418682433358605E-2</v>
+      </c>
       <c r="AS285" s="10"/>
       <c r="AT285" s="10"/>
       <c r="AU285" s="10"/>
@@ -61980,8 +63072,12 @@
       <c r="AP286" s="10">
         <v>8.979694205510258E-2</v>
       </c>
-      <c r="AQ286" s="10"/>
-      <c r="AR286" s="10"/>
+      <c r="AQ286" s="10">
+        <v>8.1136772617504738E-2</v>
+      </c>
+      <c r="AR286" s="10">
+        <v>8.9972514630817457E-2</v>
+      </c>
       <c r="AS286" s="10"/>
       <c r="AT286" s="10"/>
       <c r="AU286" s="10"/>
@@ -62201,8 +63297,12 @@
       <c r="AP287" s="10">
         <v>6.7161165861610028E-2</v>
       </c>
-      <c r="AQ287" s="10"/>
-      <c r="AR287" s="10"/>
+      <c r="AQ287" s="10">
+        <v>4.0938962909614629E-2</v>
+      </c>
+      <c r="AR287" s="10">
+        <v>2.5652706416537274E-2</v>
+      </c>
       <c r="AS287" s="10"/>
       <c r="AT287" s="10"/>
       <c r="AU287" s="10"/>
@@ -62422,8 +63522,12 @@
       <c r="AP288" s="10">
         <v>0.18595897385478644</v>
       </c>
-      <c r="AQ288" s="10"/>
-      <c r="AR288" s="10"/>
+      <c r="AQ288" s="10">
+        <v>0.2095048921206677</v>
+      </c>
+      <c r="AR288" s="10">
+        <v>0.16638191260188684</v>
+      </c>
       <c r="AS288" s="10"/>
       <c r="AT288" s="10"/>
       <c r="AU288" s="10"/>
@@ -62643,8 +63747,12 @@
       <c r="AP289" s="10">
         <v>2.2634914440362808E-2</v>
       </c>
-      <c r="AQ289" s="10"/>
-      <c r="AR289" s="10"/>
+      <c r="AQ289" s="10">
+        <v>4.1969158576601995E-2</v>
+      </c>
+      <c r="AR289" s="10">
+        <v>5.3309327846364996E-2</v>
+      </c>
       <c r="AS289" s="10"/>
       <c r="AT289" s="10"/>
       <c r="AU289" s="10"/>
@@ -62864,8 +63972,12 @@
       <c r="AP290" s="10">
         <v>1.6891591543544138E-4</v>
       </c>
-      <c r="AQ290" s="10"/>
-      <c r="AR290" s="10"/>
+      <c r="AQ290" s="10">
+        <v>1.6891591543544138E-4</v>
+      </c>
+      <c r="AR290" s="10">
+        <v>1.6891591543544138E-4</v>
+      </c>
       <c r="AS290" s="10"/>
       <c r="AT290" s="10"/>
       <c r="AU290" s="10"/>
@@ -63085,8 +64197,12 @@
       <c r="AP291" s="10">
         <v>5.3234281234542546E-2</v>
       </c>
-      <c r="AQ291" s="10"/>
-      <c r="AR291" s="10"/>
+      <c r="AQ291" s="10">
+        <v>5.3234281234542546E-2</v>
+      </c>
+      <c r="AR291" s="10">
+        <v>5.3234281234542546E-2</v>
+      </c>
       <c r="AS291" s="10"/>
       <c r="AT291" s="10"/>
       <c r="AU291" s="10"/>
@@ -63306,8 +64422,12 @@
       <c r="AP292" s="10">
         <v>2.3884332962829991E-2</v>
       </c>
-      <c r="AQ292" s="10"/>
-      <c r="AR292" s="10"/>
+      <c r="AQ292" s="10">
+        <v>2.3884332962829991E-2</v>
+      </c>
+      <c r="AR292" s="10">
+        <v>2.3884332962829991E-2</v>
+      </c>
       <c r="AS292" s="10"/>
       <c r="AT292" s="10"/>
       <c r="AU292" s="10"/>
@@ -63527,8 +64647,12 @@
       <c r="AP293" s="10">
         <v>0.14971038641593259</v>
       </c>
-      <c r="AQ293" s="10"/>
-      <c r="AR293" s="10"/>
+      <c r="AQ293" s="10">
+        <v>0.13941531467983381</v>
+      </c>
+      <c r="AR293" s="10">
+        <v>0.13387851020038011</v>
+      </c>
       <c r="AS293" s="10"/>
       <c r="AT293" s="10"/>
       <c r="AU293" s="10"/>
@@ -63748,8 +64872,12 @@
       <c r="AP294" s="10">
         <v>0.14914127728138271</v>
       </c>
-      <c r="AQ294" s="10"/>
-      <c r="AR294" s="10"/>
+      <c r="AQ294" s="10">
+        <v>0.14914127728138271</v>
+      </c>
+      <c r="AR294" s="10">
+        <v>0.14914127728138271</v>
+      </c>
       <c r="AS294" s="10"/>
       <c r="AT294" s="10"/>
       <c r="AU294" s="10"/>
@@ -63969,8 +65097,12 @@
       <c r="AP295" s="10">
         <v>0.10905502528141398</v>
       </c>
-      <c r="AQ295" s="10"/>
-      <c r="AR295" s="10"/>
+      <c r="AQ295" s="10">
+        <v>0.11017957874036122</v>
+      </c>
+      <c r="AR295" s="10">
+        <v>0.11499696521538416</v>
+      </c>
       <c r="AS295" s="10"/>
       <c r="AT295" s="10"/>
       <c r="AU295" s="10"/>
@@ -64190,8 +65322,12 @@
       <c r="AP296" s="10">
         <v>4.3120423018208287E-2</v>
       </c>
-      <c r="AQ296" s="10"/>
-      <c r="AR296" s="10"/>
+      <c r="AQ296" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
+      <c r="AR296" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
       <c r="AS296" s="10"/>
       <c r="AT296" s="10"/>
       <c r="AU296" s="10"/>
@@ -64411,8 +65547,12 @@
       <c r="AP297" s="10">
         <v>7.3714487927483141E-2</v>
       </c>
-      <c r="AQ297" s="10"/>
-      <c r="AR297" s="10"/>
+      <c r="AQ297" s="10">
+        <v>0.16477428986759901</v>
+      </c>
+      <c r="AR297" s="10">
+        <v>0.1216599306606394</v>
+      </c>
       <c r="AS297" s="10"/>
       <c r="AT297" s="10"/>
       <c r="AU297" s="10"/>
@@ -64632,8 +65772,12 @@
       <c r="AP298" s="10">
         <v>-7.3353075392009304E-2</v>
       </c>
-      <c r="AQ298" s="10"/>
-      <c r="AR298" s="10"/>
+      <c r="AQ298" s="10">
+        <v>-0.12205481345581115</v>
+      </c>
+      <c r="AR298" s="10">
+        <v>-9.2460463405663718E-2</v>
+      </c>
       <c r="AS298" s="10"/>
       <c r="AT298" s="10"/>
       <c r="AU298" s="10"/>
@@ -64853,8 +65997,12 @@
       <c r="AP299" s="10">
         <v>3.131575882284432E-2</v>
       </c>
-      <c r="AQ299" s="10"/>
-      <c r="AR299" s="10"/>
+      <c r="AQ299" s="10">
+        <v>3.131575882284432E-2</v>
+      </c>
+      <c r="AR299" s="10">
+        <v>3.131575882284432E-2</v>
+      </c>
       <c r="AS299" s="10"/>
       <c r="AT299" s="10"/>
       <c r="AU299" s="10"/>
@@ -65074,8 +66222,12 @@
       <c r="AP300" s="10">
         <v>0</v>
       </c>
-      <c r="AQ300" s="10"/>
-      <c r="AR300" s="10"/>
+      <c r="AQ300" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR300" s="10">
+        <v>0</v>
+      </c>
       <c r="AS300" s="10"/>
       <c r="AT300" s="10"/>
       <c r="AU300" s="10"/>
@@ -65295,8 +66447,12 @@
       <c r="AP301" s="10">
         <v>0</v>
       </c>
-      <c r="AQ301" s="10"/>
-      <c r="AR301" s="10"/>
+      <c r="AQ301" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR301" s="10">
+        <v>0</v>
+      </c>
       <c r="AS301" s="10"/>
       <c r="AT301" s="10"/>
       <c r="AU301" s="10"/>
@@ -65516,8 +66672,12 @@
       <c r="AP302" s="10">
         <v>9.3444644720614756E-2</v>
       </c>
-      <c r="AQ302" s="10"/>
-      <c r="AR302" s="10"/>
+      <c r="AQ302" s="10">
+        <v>0.12068739587038335</v>
+      </c>
+      <c r="AR302" s="10">
+        <v>0.10460639488845813</v>
+      </c>
       <c r="AS302" s="10"/>
       <c r="AT302" s="10"/>
       <c r="AU302" s="10"/>
@@ -65737,8 +66897,12 @@
       <c r="AP303" s="10">
         <v>0.12361853369999465</v>
       </c>
-      <c r="AQ303" s="10"/>
-      <c r="AR303" s="10"/>
+      <c r="AQ303" s="10">
+        <v>0.13603252144792943</v>
+      </c>
+      <c r="AR303" s="10">
+        <v>3.6679110943087068E-2</v>
+      </c>
       <c r="AS303" s="10"/>
       <c r="AT303" s="10"/>
       <c r="AU303" s="10"/>
@@ -65958,8 +67122,12 @@
       <c r="AP304" s="10">
         <v>2.7585953570379074E-2</v>
       </c>
-      <c r="AQ304" s="10"/>
-      <c r="AR304" s="10"/>
+      <c r="AQ304" s="10">
+        <v>2.8123453622417971E-2</v>
+      </c>
+      <c r="AR304" s="10">
+        <v>2.7164965426407672E-2</v>
+      </c>
       <c r="AS304" s="10"/>
       <c r="AT304" s="10"/>
       <c r="AU304" s="10"/>
@@ -66179,8 +67347,12 @@
       <c r="AP305" s="10">
         <v>7.064845833048472E-2</v>
       </c>
-      <c r="AQ305" s="10"/>
-      <c r="AR305" s="10"/>
+      <c r="AQ305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
+      <c r="AR305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
       <c r="AS305" s="10"/>
       <c r="AT305" s="10"/>
       <c r="AU305" s="10"/>
@@ -66400,8 +67572,12 @@
       <c r="AP306" s="10">
         <v>0.18712769033750565</v>
       </c>
-      <c r="AQ306" s="10"/>
-      <c r="AR306" s="10"/>
+      <c r="AQ306" s="10">
+        <v>0.20913785268723939</v>
+      </c>
+      <c r="AR306" s="10">
+        <v>0.20852486418721261</v>
+      </c>
       <c r="AS306" s="10"/>
       <c r="AT306" s="10"/>
       <c r="AU306" s="10"/>
@@ -66621,8 +67797,12 @@
       <c r="AP307" s="10">
         <v>2.6100406006315691E-2</v>
       </c>
-      <c r="AQ307" s="10"/>
-      <c r="AR307" s="10"/>
+      <c r="AQ307" s="10">
+        <v>2.6816966623487648E-2</v>
+      </c>
+      <c r="AR307" s="10">
+        <v>2.6091103346447708E-2</v>
+      </c>
       <c r="AS307" s="10"/>
       <c r="AT307" s="10"/>
       <c r="AU307" s="10"/>
@@ -66842,8 +68022,12 @@
       <c r="AP308" s="10">
         <v>0.11424102985978646</v>
       </c>
-      <c r="AQ308" s="10"/>
-      <c r="AR308" s="10"/>
+      <c r="AQ308" s="10">
+        <v>0.13487669854051321</v>
+      </c>
+      <c r="AR308" s="10">
+        <v>0.12682200139158972</v>
+      </c>
       <c r="AS308" s="10"/>
       <c r="AT308" s="10"/>
       <c r="AU308" s="10"/>
@@ -67063,8 +68247,12 @@
       <c r="AP309" s="10">
         <v>4.7269953428617173E-2</v>
       </c>
-      <c r="AQ309" s="10"/>
-      <c r="AR309" s="10"/>
+      <c r="AQ309" s="10">
+        <v>-3.8739996490665951E-2</v>
+      </c>
+      <c r="AR309" s="10">
+        <v>-0.16383308677972397</v>
+      </c>
       <c r="AS309" s="10"/>
       <c r="AT309" s="10"/>
       <c r="AU309" s="10"/>
@@ -67284,8 +68472,12 @@
       <c r="AP310" s="10">
         <v>0.28519930139119509</v>
       </c>
-      <c r="AQ310" s="10"/>
-      <c r="AR310" s="10"/>
+      <c r="AQ310" s="10">
+        <v>0.25369429208809269</v>
+      </c>
+      <c r="AR310" s="10">
+        <v>0.31083540115798169</v>
+      </c>
       <c r="AS310" s="10"/>
       <c r="AT310" s="10"/>
       <c r="AU310" s="10"/>
@@ -67505,8 +68697,12 @@
       <c r="AP311" s="10">
         <v>8.103973986244295E-4</v>
       </c>
-      <c r="AQ311" s="10"/>
-      <c r="AR311" s="10"/>
+      <c r="AQ311" s="10">
+        <v>-4.4399647477131543E-2</v>
+      </c>
+      <c r="AR311" s="10">
+        <v>-8.9893331442406077E-2</v>
+      </c>
       <c r="AS311" s="10"/>
       <c r="AT311" s="10"/>
       <c r="AU311" s="10"/>
@@ -67726,8 +68922,12 @@
       <c r="AP312" s="10">
         <v>0</v>
       </c>
-      <c r="AQ312" s="10"/>
-      <c r="AR312" s="10"/>
+      <c r="AQ312" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR312" s="10">
+        <v>0</v>
+      </c>
       <c r="AS312" s="10"/>
       <c r="AT312" s="10"/>
       <c r="AU312" s="10"/>
@@ -67947,8 +69147,12 @@
       <c r="AP313" s="10">
         <v>0.13471837005250586</v>
       </c>
-      <c r="AQ313" s="10"/>
-      <c r="AR313" s="10"/>
+      <c r="AQ313" s="10">
+        <v>0.13103879958618414</v>
+      </c>
+      <c r="AR313" s="10">
+        <v>0.13103879958618414</v>
+      </c>
       <c r="AS313" s="10"/>
       <c r="AT313" s="10"/>
       <c r="AU313" s="10"/>
@@ -68168,8 +69372,12 @@
       <c r="AP314" s="11">
         <v>7.8901855281087396E-2</v>
       </c>
-      <c r="AQ314" s="11"/>
-      <c r="AR314" s="11"/>
+      <c r="AQ314" s="11">
+        <v>6.7295146419652729E-2</v>
+      </c>
+      <c r="AR314" s="11">
+        <v>6.7295146419652729E-2</v>
+      </c>
       <c r="AS314" s="11"/>
       <c r="AT314" s="11"/>
       <c r="AU314" s="11"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="461">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1397,13 +1397,19 @@
     <t xml:space="preserve"> 08/2022</t>
   </si>
   <si>
-    <t>Última actualización:  11/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 09/2022</t>
   </si>
   <si>
     <t xml:space="preserve"> 10/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  01/09/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12/2022</t>
   </si>
 </sst>
 </file>
@@ -1925,9 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EE314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD314"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1957,7 +1961,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2098,13 +2102,17 @@
         <v>455</v>
       </c>
       <c r="AQ15" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="AR15" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="AR15" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
+      <c r="AS15" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AT15" s="13" t="s">
+        <v>460</v>
+      </c>
       <c r="AU15" s="13"/>
       <c r="AV15" s="13"/>
       <c r="AW15" s="13"/>
@@ -2328,8 +2336,12 @@
       <c r="AR16" s="10">
         <v>0.22906290037678056</v>
       </c>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
+      <c r="AS16" s="10">
+        <v>0.21501276084671983</v>
+      </c>
+      <c r="AT16" s="10">
+        <v>0.20580923059132994</v>
+      </c>
       <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
       <c r="AW16" s="10"/>
@@ -2553,8 +2565,12 @@
       <c r="AR17" s="10">
         <v>7.2609141684714329E-2</v>
       </c>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
+      <c r="AS17" s="10">
+        <v>0.12033379595032212</v>
+      </c>
+      <c r="AT17" s="10">
+        <v>7.7660553219662809E-2</v>
+      </c>
       <c r="AU17" s="10"/>
       <c r="AV17" s="10"/>
       <c r="AW17" s="10"/>
@@ -2778,8 +2794,12 @@
       <c r="AR18" s="10">
         <v>0.13232111234997057</v>
       </c>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
+      <c r="AS18" s="10">
+        <v>0.1460006727763512</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>0.17055266995461316</v>
+      </c>
       <c r="AU18" s="10"/>
       <c r="AV18" s="10"/>
       <c r="AW18" s="10"/>
@@ -3003,8 +3023,12 @@
       <c r="AR19" s="10">
         <v>0.24075897032042137</v>
       </c>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
+      <c r="AS19" s="10">
+        <v>0.26949142652317803</v>
+      </c>
+      <c r="AT19" s="10">
+        <v>0.24507814909191228</v>
+      </c>
       <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
       <c r="AW19" s="10"/>
@@ -3228,8 +3252,12 @@
       <c r="AR20" s="10">
         <v>8.7770743085638259E-2</v>
       </c>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
+      <c r="AS20" s="10">
+        <v>7.2818646401025866E-2</v>
+      </c>
+      <c r="AT20" s="10">
+        <v>9.3699758370079156E-2</v>
+      </c>
       <c r="AU20" s="10"/>
       <c r="AV20" s="10"/>
       <c r="AW20" s="10"/>
@@ -3453,8 +3481,12 @@
       <c r="AR21" s="10">
         <v>0.15355363567222979</v>
       </c>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
+      <c r="AS21" s="10">
+        <v>0.12520572540022945</v>
+      </c>
+      <c r="AT21" s="10">
+        <v>0.16796193236078638</v>
+      </c>
       <c r="AU21" s="10"/>
       <c r="AV21" s="10"/>
       <c r="AW21" s="10"/>
@@ -3678,8 +3710,12 @@
       <c r="AR22" s="10">
         <v>0.11576796571314674</v>
       </c>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
+      <c r="AS22" s="10">
+        <v>0.14254424611666372</v>
+      </c>
+      <c r="AT22" s="10">
+        <v>0.14779392691886106</v>
+      </c>
       <c r="AU22" s="10"/>
       <c r="AV22" s="10"/>
       <c r="AW22" s="10"/>
@@ -3903,8 +3939,12 @@
       <c r="AR23" s="10">
         <v>9.4263289910186954E-2</v>
       </c>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
+      <c r="AS23" s="10">
+        <v>9.0080688895827432E-2</v>
+      </c>
+      <c r="AT23" s="10">
+        <v>6.8018878709192654E-2</v>
+      </c>
       <c r="AU23" s="10"/>
       <c r="AV23" s="10"/>
       <c r="AW23" s="10"/>
@@ -4128,8 +4168,12 @@
       <c r="AR24" s="10">
         <v>0.10209686398218598</v>
       </c>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
+      <c r="AS24" s="10">
+        <v>0.12839393593981541</v>
+      </c>
+      <c r="AT24" s="10">
+        <v>0.14115754884683751</v>
+      </c>
       <c r="AU24" s="10"/>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
@@ -4353,8 +4397,12 @@
       <c r="AR25" s="10">
         <v>0.46926215750486744</v>
       </c>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
+      <c r="AS25" s="10">
+        <v>0.4559833125960624</v>
+      </c>
+      <c r="AT25" s="10">
+        <v>0.40768277571251543</v>
+      </c>
       <c r="AU25" s="10"/>
       <c r="AV25" s="10"/>
       <c r="AW25" s="10"/>
@@ -4578,8 +4626,12 @@
       <c r="AR26" s="10">
         <v>0.12294447668794728</v>
       </c>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
+      <c r="AS26" s="10">
+        <v>9.6106491279138284E-2</v>
+      </c>
+      <c r="AT26" s="10">
+        <v>9.1738147586164054E-2</v>
+      </c>
       <c r="AU26" s="10"/>
       <c r="AV26" s="10"/>
       <c r="AW26" s="10"/>
@@ -4803,8 +4855,12 @@
       <c r="AR27" s="10">
         <v>4.2762757893883396E-2</v>
       </c>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
+      <c r="AS27" s="10">
+        <v>3.4347889069516802E-2</v>
+      </c>
+      <c r="AT27" s="10">
+        <v>8.8468067809578388E-2</v>
+      </c>
       <c r="AU27" s="10"/>
       <c r="AV27" s="10"/>
       <c r="AW27" s="10"/>
@@ -5028,8 +5084,12 @@
       <c r="AR28" s="10">
         <v>0.14019430548705558</v>
       </c>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
+      <c r="AS28" s="10">
+        <v>0.14124956042667902</v>
+      </c>
+      <c r="AT28" s="10">
+        <v>0.13607899060669015</v>
+      </c>
       <c r="AU28" s="10"/>
       <c r="AV28" s="10"/>
       <c r="AW28" s="10"/>
@@ -5253,8 +5313,12 @@
       <c r="AR29" s="10">
         <v>0.11187277634646065</v>
       </c>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
+      <c r="AS29" s="10">
+        <v>0.12933956073648045</v>
+      </c>
+      <c r="AT29" s="10">
+        <v>0.15862353877226276</v>
+      </c>
       <c r="AU29" s="10"/>
       <c r="AV29" s="10"/>
       <c r="AW29" s="10"/>
@@ -5478,8 +5542,12 @@
       <c r="AR30" s="10">
         <v>0.10657039825890813</v>
       </c>
-      <c r="AS30" s="10"/>
-      <c r="AT30" s="10"/>
+      <c r="AS30" s="10">
+        <v>0.12745654799516881</v>
+      </c>
+      <c r="AT30" s="10">
+        <v>0.15525452935404349</v>
+      </c>
       <c r="AU30" s="10"/>
       <c r="AV30" s="10"/>
       <c r="AW30" s="10"/>
@@ -5703,8 +5771,12 @@
       <c r="AR31" s="10">
         <v>8.113145488433271E-2</v>
       </c>
-      <c r="AS31" s="10"/>
-      <c r="AT31" s="10"/>
+      <c r="AS31" s="10">
+        <v>0.11446303642934796</v>
+      </c>
+      <c r="AT31" s="10">
+        <v>0.13736350688400067</v>
+      </c>
       <c r="AU31" s="10"/>
       <c r="AV31" s="10"/>
       <c r="AW31" s="10"/>
@@ -5928,8 +6000,12 @@
       <c r="AR32" s="10">
         <v>6.7040431437360049E-2</v>
       </c>
-      <c r="AS32" s="10"/>
-      <c r="AT32" s="10"/>
+      <c r="AS32" s="10">
+        <v>7.1470139511474073E-2</v>
+      </c>
+      <c r="AT32" s="10">
+        <v>7.6535396155649416E-2</v>
+      </c>
       <c r="AU32" s="10"/>
       <c r="AV32" s="10"/>
       <c r="AW32" s="10"/>
@@ -6153,8 +6229,12 @@
       <c r="AR33" s="10">
         <v>-8.4927581808969754E-2</v>
       </c>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
+      <c r="AS33" s="10">
+        <v>-0.12201601098722381</v>
+      </c>
+      <c r="AT33" s="10">
+        <v>-0.15920375388756514</v>
+      </c>
       <c r="AU33" s="10"/>
       <c r="AV33" s="10"/>
       <c r="AW33" s="10"/>
@@ -6378,8 +6458,12 @@
       <c r="AR34" s="10">
         <v>0.13489538562427428</v>
       </c>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
+      <c r="AS34" s="10">
+        <v>0.1894832586795725</v>
+      </c>
+      <c r="AT34" s="10">
+        <v>0.12015251710876318</v>
+      </c>
       <c r="AU34" s="10"/>
       <c r="AV34" s="10"/>
       <c r="AW34" s="10"/>
@@ -6603,8 +6687,12 @@
       <c r="AR35" s="10">
         <v>7.1154725475713221E-2</v>
       </c>
-      <c r="AS35" s="10"/>
-      <c r="AT35" s="10"/>
+      <c r="AS35" s="10">
+        <v>0.11774455360956848</v>
+      </c>
+      <c r="AT35" s="10">
+        <v>0.11504010907130868</v>
+      </c>
       <c r="AU35" s="10"/>
       <c r="AV35" s="10"/>
       <c r="AW35" s="10"/>
@@ -6828,8 +6916,12 @@
       <c r="AR36" s="10">
         <v>0.15886799840847798</v>
       </c>
-      <c r="AS36" s="10"/>
-      <c r="AT36" s="10"/>
+      <c r="AS36" s="10">
+        <v>7.0925996554308979E-2</v>
+      </c>
+      <c r="AT36" s="10">
+        <v>-0.17867810485452518</v>
+      </c>
       <c r="AU36" s="10"/>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
@@ -7053,8 +7145,12 @@
       <c r="AR37" s="10">
         <v>8.4353926517290789E-2</v>
       </c>
-      <c r="AS37" s="10"/>
-      <c r="AT37" s="10"/>
+      <c r="AS37" s="10">
+        <v>9.720771203343137E-2</v>
+      </c>
+      <c r="AT37" s="10">
+        <v>7.5014377818809264E-2</v>
+      </c>
       <c r="AU37" s="10"/>
       <c r="AV37" s="10"/>
       <c r="AW37" s="10"/>
@@ -7278,8 +7374,12 @@
       <c r="AR38" s="10">
         <v>0.29271826787177679</v>
       </c>
-      <c r="AS38" s="10"/>
-      <c r="AT38" s="10"/>
+      <c r="AS38" s="10">
+        <v>4.8271083010577032E-2</v>
+      </c>
+      <c r="AT38" s="10">
+        <v>5.7257472108718677E-2</v>
+      </c>
       <c r="AU38" s="10"/>
       <c r="AV38" s="10"/>
       <c r="AW38" s="10"/>
@@ -7503,8 +7603,12 @@
       <c r="AR39" s="10">
         <v>0.52376578893342973</v>
       </c>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="10"/>
+      <c r="AS39" s="10">
+        <v>0.37292460682525053</v>
+      </c>
+      <c r="AT39" s="10">
+        <v>0.40230481727574752</v>
+      </c>
       <c r="AU39" s="10"/>
       <c r="AV39" s="10"/>
       <c r="AW39" s="10"/>
@@ -7728,8 +7832,12 @@
       <c r="AR40" s="10">
         <v>0.14558848929507451</v>
       </c>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
+      <c r="AS40" s="10">
+        <v>0.12526847433275412</v>
+      </c>
+      <c r="AT40" s="10">
+        <v>2.8862818290893433E-3</v>
+      </c>
       <c r="AU40" s="10"/>
       <c r="AV40" s="10"/>
       <c r="AW40" s="10"/>
@@ -7953,8 +8061,12 @@
       <c r="AR41" s="10">
         <v>5.7800263899624449E-2</v>
       </c>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="10"/>
+      <c r="AS41" s="10">
+        <v>-4.2085887770966002E-2</v>
+      </c>
+      <c r="AT41" s="10">
+        <v>-6.698009212956535E-2</v>
+      </c>
       <c r="AU41" s="10"/>
       <c r="AV41" s="10"/>
       <c r="AW41" s="10"/>
@@ -8178,8 +8290,12 @@
       <c r="AR42" s="10">
         <v>5.2348721463676862E-2</v>
       </c>
-      <c r="AS42" s="10"/>
-      <c r="AT42" s="10"/>
+      <c r="AS42" s="10">
+        <v>7.1735451113136284E-2</v>
+      </c>
+      <c r="AT42" s="10">
+        <v>7.1146826077369774E-2</v>
+      </c>
       <c r="AU42" s="10"/>
       <c r="AV42" s="10"/>
       <c r="AW42" s="10"/>
@@ -8403,8 +8519,12 @@
       <c r="AR43" s="10">
         <v>0.16718229211178537</v>
       </c>
-      <c r="AS43" s="10"/>
-      <c r="AT43" s="10"/>
+      <c r="AS43" s="10">
+        <v>0.1173316547045633</v>
+      </c>
+      <c r="AT43" s="10">
+        <v>0.16195444007660509</v>
+      </c>
       <c r="AU43" s="10"/>
       <c r="AV43" s="10"/>
       <c r="AW43" s="10"/>
@@ -8628,8 +8748,12 @@
       <c r="AR44" s="10">
         <v>0.20316762951555267</v>
       </c>
-      <c r="AS44" s="10"/>
-      <c r="AT44" s="10"/>
+      <c r="AS44" s="10">
+        <v>0.13379016293589152</v>
+      </c>
+      <c r="AT44" s="10">
+        <v>7.581130570361494E-2</v>
+      </c>
       <c r="AU44" s="10"/>
       <c r="AV44" s="10"/>
       <c r="AW44" s="10"/>
@@ -8853,8 +8977,12 @@
       <c r="AR45" s="10">
         <v>0.46921930933199651</v>
       </c>
-      <c r="AS45" s="10"/>
-      <c r="AT45" s="10"/>
+      <c r="AS45" s="10">
+        <v>0.33054833066141587</v>
+      </c>
+      <c r="AT45" s="10">
+        <v>0.36443715528985421</v>
+      </c>
       <c r="AU45" s="10"/>
       <c r="AV45" s="10"/>
       <c r="AW45" s="10"/>
@@ -9078,8 +9206,12 @@
       <c r="AR46" s="10">
         <v>0.25351957360779265</v>
       </c>
-      <c r="AS46" s="10"/>
-      <c r="AT46" s="10"/>
+      <c r="AS46" s="10">
+        <v>0.28197324359545362</v>
+      </c>
+      <c r="AT46" s="10">
+        <v>0.15690561308057149</v>
+      </c>
       <c r="AU46" s="10"/>
       <c r="AV46" s="10"/>
       <c r="AW46" s="10"/>
@@ -9303,8 +9435,12 @@
       <c r="AR47" s="10">
         <v>0.1625207792078518</v>
       </c>
-      <c r="AS47" s="10"/>
-      <c r="AT47" s="10"/>
+      <c r="AS47" s="10">
+        <v>8.7007935577186224E-2</v>
+      </c>
+      <c r="AT47" s="10">
+        <v>6.9809856422196281E-2</v>
+      </c>
       <c r="AU47" s="10"/>
       <c r="AV47" s="10"/>
       <c r="AW47" s="10"/>
@@ -9528,8 +9664,12 @@
       <c r="AR48" s="10">
         <v>0.20106466388808641</v>
       </c>
-      <c r="AS48" s="10"/>
-      <c r="AT48" s="10"/>
+      <c r="AS48" s="10">
+        <v>0.20637953604852544</v>
+      </c>
+      <c r="AT48" s="10">
+        <v>0.19708342771446641</v>
+      </c>
       <c r="AU48" s="10"/>
       <c r="AV48" s="10"/>
       <c r="AW48" s="10"/>
@@ -9753,8 +9893,12 @@
       <c r="AR49" s="10">
         <v>3.1551397806616421E-2</v>
       </c>
-      <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
+      <c r="AS49" s="10">
+        <v>5.7985355234514202E-2</v>
+      </c>
+      <c r="AT49" s="10">
+        <v>9.0758776073842418E-2</v>
+      </c>
       <c r="AU49" s="10"/>
       <c r="AV49" s="10"/>
       <c r="AW49" s="10"/>
@@ -9978,8 +10122,12 @@
       <c r="AR50" s="10">
         <v>0.107097515020661</v>
       </c>
-      <c r="AS50" s="10"/>
-      <c r="AT50" s="10"/>
+      <c r="AS50" s="10">
+        <v>0.12940108309630549</v>
+      </c>
+      <c r="AT50" s="10">
+        <v>0.1259920791454312</v>
+      </c>
       <c r="AU50" s="10"/>
       <c r="AV50" s="10"/>
       <c r="AW50" s="10"/>
@@ -10203,8 +10351,12 @@
       <c r="AR51" s="10">
         <v>-3.3434841302232288E-3</v>
       </c>
-      <c r="AS51" s="10"/>
-      <c r="AT51" s="10"/>
+      <c r="AS51" s="10">
+        <v>-5.4059195611851907E-3</v>
+      </c>
+      <c r="AT51" s="10">
+        <v>8.4530465495668228E-2</v>
+      </c>
       <c r="AU51" s="10"/>
       <c r="AV51" s="10"/>
       <c r="AW51" s="10"/>
@@ -10428,8 +10580,12 @@
       <c r="AR52" s="10">
         <v>0.10205451969767698</v>
       </c>
-      <c r="AS52" s="10"/>
-      <c r="AT52" s="10"/>
+      <c r="AS52" s="10">
+        <v>0.11923824394133176</v>
+      </c>
+      <c r="AT52" s="10">
+        <v>0.1033923806515431</v>
+      </c>
       <c r="AU52" s="10"/>
       <c r="AV52" s="10"/>
       <c r="AW52" s="10"/>
@@ -10653,8 +10809,12 @@
       <c r="AR53" s="10">
         <v>0.22568064693207068</v>
       </c>
-      <c r="AS53" s="10"/>
-      <c r="AT53" s="10"/>
+      <c r="AS53" s="10">
+        <v>0.25686100408116719</v>
+      </c>
+      <c r="AT53" s="10">
+        <v>0.25257921591836086</v>
+      </c>
       <c r="AU53" s="10"/>
       <c r="AV53" s="10"/>
       <c r="AW53" s="10"/>
@@ -10878,8 +11038,12 @@
       <c r="AR54" s="10">
         <v>0.1767473286454293</v>
       </c>
-      <c r="AS54" s="10"/>
-      <c r="AT54" s="10"/>
+      <c r="AS54" s="10">
+        <v>0.14454161665156007</v>
+      </c>
+      <c r="AT54" s="10">
+        <v>0.18677129306369822</v>
+      </c>
       <c r="AU54" s="10"/>
       <c r="AV54" s="10"/>
       <c r="AW54" s="10"/>
@@ -11103,8 +11267,12 @@
       <c r="AR55" s="10">
         <v>0.35359042992630774</v>
       </c>
-      <c r="AS55" s="10"/>
-      <c r="AT55" s="10"/>
+      <c r="AS55" s="10">
+        <v>0.33534175733034122</v>
+      </c>
+      <c r="AT55" s="10">
+        <v>0.27875474710335979</v>
+      </c>
       <c r="AU55" s="10"/>
       <c r="AV55" s="10"/>
       <c r="AW55" s="10"/>
@@ -11328,8 +11496,12 @@
       <c r="AR56" s="10">
         <v>0.3860274368231047</v>
       </c>
-      <c r="AS56" s="10"/>
-      <c r="AT56" s="10"/>
+      <c r="AS56" s="10">
+        <v>4.1031818777006457E-2</v>
+      </c>
+      <c r="AT56" s="10">
+        <v>-0.21164919570309182</v>
+      </c>
       <c r="AU56" s="10"/>
       <c r="AV56" s="10"/>
       <c r="AW56" s="10"/>
@@ -11553,8 +11725,12 @@
       <c r="AR57" s="10">
         <v>0.11776729140561826</v>
       </c>
-      <c r="AS57" s="10"/>
-      <c r="AT57" s="10"/>
+      <c r="AS57" s="10">
+        <v>2.129013644694866E-2</v>
+      </c>
+      <c r="AT57" s="10">
+        <v>-3.6951969743697965E-2</v>
+      </c>
       <c r="AU57" s="10"/>
       <c r="AV57" s="10"/>
       <c r="AW57" s="10"/>
@@ -11778,8 +11954,12 @@
       <c r="AR58" s="10">
         <v>0.13875346280635337</v>
       </c>
-      <c r="AS58" s="10"/>
-      <c r="AT58" s="10"/>
+      <c r="AS58" s="10">
+        <v>6.2826132331454732E-2</v>
+      </c>
+      <c r="AT58" s="10">
+        <v>-5.2283105022831067E-2</v>
+      </c>
       <c r="AU58" s="10"/>
       <c r="AV58" s="10"/>
       <c r="AW58" s="10"/>
@@ -12003,8 +12183,12 @@
       <c r="AR59" s="10">
         <v>-0.25904826189672636</v>
       </c>
-      <c r="AS59" s="10"/>
-      <c r="AT59" s="10"/>
+      <c r="AS59" s="10">
+        <v>-0.21603812763264585</v>
+      </c>
+      <c r="AT59" s="10">
+        <v>0.28648381149246083</v>
+      </c>
       <c r="AU59" s="10"/>
       <c r="AV59" s="10"/>
       <c r="AW59" s="10"/>
@@ -12228,8 +12412,12 @@
       <c r="AR60" s="10">
         <v>-8.9426667296875761E-2</v>
       </c>
-      <c r="AS60" s="10"/>
-      <c r="AT60" s="10"/>
+      <c r="AS60" s="10">
+        <v>1.0265644167378074E-2</v>
+      </c>
+      <c r="AT60" s="10">
+        <v>3.387932141481298E-2</v>
+      </c>
       <c r="AU60" s="10"/>
       <c r="AV60" s="10"/>
       <c r="AW60" s="10"/>
@@ -12453,8 +12641,12 @@
       <c r="AR61" s="10">
         <v>-8.0943966254343191E-4</v>
       </c>
-      <c r="AS61" s="10"/>
-      <c r="AT61" s="10"/>
+      <c r="AS61" s="10">
+        <v>-7.255643611911633E-2</v>
+      </c>
+      <c r="AT61" s="10">
+        <v>-7.1324805823458348E-4</v>
+      </c>
       <c r="AU61" s="10"/>
       <c r="AV61" s="10"/>
       <c r="AW61" s="10"/>
@@ -12678,8 +12870,12 @@
       <c r="AR62" s="10">
         <v>0.22814474153889575</v>
       </c>
-      <c r="AS62" s="10"/>
-      <c r="AT62" s="10"/>
+      <c r="AS62" s="10">
+        <v>0.24680798789991321</v>
+      </c>
+      <c r="AT62" s="10">
+        <v>0.22763879176160073</v>
+      </c>
       <c r="AU62" s="10"/>
       <c r="AV62" s="10"/>
       <c r="AW62" s="10"/>
@@ -12903,8 +13099,12 @@
       <c r="AR63" s="10">
         <v>0.20386079062502716</v>
       </c>
-      <c r="AS63" s="10"/>
-      <c r="AT63" s="10"/>
+      <c r="AS63" s="10">
+        <v>0.13111400137368645</v>
+      </c>
+      <c r="AT63" s="10">
+        <v>0.23805768286186701</v>
+      </c>
       <c r="AU63" s="10"/>
       <c r="AV63" s="10"/>
       <c r="AW63" s="10"/>
@@ -13128,8 +13328,12 @@
       <c r="AR64" s="10">
         <v>4.7265682607354975E-2</v>
       </c>
-      <c r="AS64" s="10"/>
-      <c r="AT64" s="10"/>
+      <c r="AS64" s="10">
+        <v>-5.7364678195026553E-3</v>
+      </c>
+      <c r="AT64" s="10">
+        <v>-1.708117661911368E-2</v>
+      </c>
       <c r="AU64" s="10"/>
       <c r="AV64" s="10"/>
       <c r="AW64" s="10"/>
@@ -13353,8 +13557,12 @@
       <c r="AR65" s="10">
         <v>2.420230525796252E-2</v>
       </c>
-      <c r="AS65" s="10"/>
-      <c r="AT65" s="10"/>
+      <c r="AS65" s="10">
+        <v>-8.4593697618235653E-2</v>
+      </c>
+      <c r="AT65" s="10">
+        <v>-8.6065135106206947E-3</v>
+      </c>
       <c r="AU65" s="10"/>
       <c r="AV65" s="10"/>
       <c r="AW65" s="10"/>
@@ -13578,8 +13786,12 @@
       <c r="AR66" s="10">
         <v>0.64648262515977217</v>
       </c>
-      <c r="AS66" s="10"/>
-      <c r="AT66" s="10"/>
+      <c r="AS66" s="10">
+        <v>0.43673037341958243</v>
+      </c>
+      <c r="AT66" s="10">
+        <v>0.37635514018691607</v>
+      </c>
       <c r="AU66" s="10"/>
       <c r="AV66" s="10"/>
       <c r="AW66" s="10"/>
@@ -13803,8 +14015,12 @@
       <c r="AR67" s="10">
         <v>0.33179458578231591</v>
       </c>
-      <c r="AS67" s="10"/>
-      <c r="AT67" s="10"/>
+      <c r="AS67" s="10">
+        <v>0.30869631324973401</v>
+      </c>
+      <c r="AT67" s="10">
+        <v>0.30438878421810922</v>
+      </c>
       <c r="AU67" s="10"/>
       <c r="AV67" s="10"/>
       <c r="AW67" s="10"/>
@@ -14028,8 +14244,12 @@
       <c r="AR68" s="10">
         <v>0.36476556256105153</v>
       </c>
-      <c r="AS68" s="10"/>
-      <c r="AT68" s="10"/>
+      <c r="AS68" s="10">
+        <v>-0.17961093724746924</v>
+      </c>
+      <c r="AT68" s="10">
+        <v>-0.27084824558166976</v>
+      </c>
       <c r="AU68" s="10"/>
       <c r="AV68" s="10"/>
       <c r="AW68" s="10"/>
@@ -14253,8 +14473,12 @@
       <c r="AR69" s="10">
         <v>0.1007229691956375</v>
       </c>
-      <c r="AS69" s="10"/>
-      <c r="AT69" s="10"/>
+      <c r="AS69" s="10">
+        <v>7.1155424563497993E-2</v>
+      </c>
+      <c r="AT69" s="10">
+        <v>2.8274435883828275E-3</v>
+      </c>
       <c r="AU69" s="10"/>
       <c r="AV69" s="10"/>
       <c r="AW69" s="10"/>
@@ -14478,8 +14702,12 @@
       <c r="AR70" s="10">
         <v>9.6562177418300976E-2</v>
       </c>
-      <c r="AS70" s="10"/>
-      <c r="AT70" s="10"/>
+      <c r="AS70" s="10">
+        <v>0.12541866067756113</v>
+      </c>
+      <c r="AT70" s="10">
+        <v>0.13730107020520332</v>
+      </c>
       <c r="AU70" s="10"/>
       <c r="AV70" s="10"/>
       <c r="AW70" s="10"/>
@@ -14703,8 +14931,12 @@
       <c r="AR71" s="10">
         <v>-6.9379469240387071E-2</v>
       </c>
-      <c r="AS71" s="10"/>
-      <c r="AT71" s="10"/>
+      <c r="AS71" s="10">
+        <v>-6.3963255151296083E-2</v>
+      </c>
+      <c r="AT71" s="10">
+        <v>-4.778154590257544E-2</v>
+      </c>
       <c r="AU71" s="10"/>
       <c r="AV71" s="10"/>
       <c r="AW71" s="10"/>
@@ -14928,8 +15160,12 @@
       <c r="AR72" s="10">
         <v>5.7768121528568583E-2</v>
       </c>
-      <c r="AS72" s="10"/>
-      <c r="AT72" s="10"/>
+      <c r="AS72" s="10">
+        <v>6.1087880508664094E-2</v>
+      </c>
+      <c r="AT72" s="10">
+        <v>3.3970311801943875E-2</v>
+      </c>
       <c r="AU72" s="10"/>
       <c r="AV72" s="10"/>
       <c r="AW72" s="10"/>
@@ -15153,8 +15389,12 @@
       <c r="AR73" s="10">
         <v>0.14908354646206301</v>
       </c>
-      <c r="AS73" s="10"/>
-      <c r="AT73" s="10"/>
+      <c r="AS73" s="10">
+        <v>0.15999032194649843</v>
+      </c>
+      <c r="AT73" s="10">
+        <v>0.15884387166465386</v>
+      </c>
       <c r="AU73" s="10"/>
       <c r="AV73" s="10"/>
       <c r="AW73" s="10"/>
@@ -15378,8 +15618,12 @@
       <c r="AR74" s="10">
         <v>7.1862941812007808E-2</v>
       </c>
-      <c r="AS74" s="10"/>
-      <c r="AT74" s="10"/>
+      <c r="AS74" s="10">
+        <v>6.5783002919932443E-2</v>
+      </c>
+      <c r="AT74" s="10">
+        <v>2.2489972136317871E-2</v>
+      </c>
       <c r="AU74" s="10"/>
       <c r="AV74" s="10"/>
       <c r="AW74" s="10"/>
@@ -15603,8 +15847,12 @@
       <c r="AR75" s="10">
         <v>8.3194177510318434E-2</v>
       </c>
-      <c r="AS75" s="10"/>
-      <c r="AT75" s="10"/>
+      <c r="AS75" s="10">
+        <v>0.10178903858896282</v>
+      </c>
+      <c r="AT75" s="10">
+        <v>0.11066512855359445</v>
+      </c>
       <c r="AU75" s="10"/>
       <c r="AV75" s="10"/>
       <c r="AW75" s="10"/>
@@ -15828,8 +16076,12 @@
       <c r="AR76" s="10">
         <v>0.14702061612173978</v>
       </c>
-      <c r="AS76" s="10"/>
-      <c r="AT76" s="10"/>
+      <c r="AS76" s="10">
+        <v>0.14567730860499184</v>
+      </c>
+      <c r="AT76" s="10">
+        <v>0.14448595938610032</v>
+      </c>
       <c r="AU76" s="10"/>
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
@@ -16053,8 +16305,12 @@
       <c r="AR77" s="10">
         <v>0.24190614472278171</v>
       </c>
-      <c r="AS77" s="10"/>
-      <c r="AT77" s="10"/>
+      <c r="AS77" s="10">
+        <v>0.21987551966169327</v>
+      </c>
+      <c r="AT77" s="10">
+        <v>0.26127044323299375</v>
+      </c>
       <c r="AU77" s="10"/>
       <c r="AV77" s="10"/>
       <c r="AW77" s="10"/>
@@ -16278,8 +16534,12 @@
       <c r="AR78" s="10">
         <v>0.1375450062025354</v>
       </c>
-      <c r="AS78" s="10"/>
-      <c r="AT78" s="10"/>
+      <c r="AS78" s="10">
+        <v>0.13286649896888525</v>
+      </c>
+      <c r="AT78" s="10">
+        <v>0.14777184940257015</v>
+      </c>
       <c r="AU78" s="10"/>
       <c r="AV78" s="10"/>
       <c r="AW78" s="10"/>
@@ -16503,8 +16763,12 @@
       <c r="AR79" s="10">
         <v>0.19410317421777612</v>
       </c>
-      <c r="AS79" s="10"/>
-      <c r="AT79" s="10"/>
+      <c r="AS79" s="10">
+        <v>0.20300435777405856</v>
+      </c>
+      <c r="AT79" s="10">
+        <v>0.22367301735068956</v>
+      </c>
       <c r="AU79" s="10"/>
       <c r="AV79" s="10"/>
       <c r="AW79" s="10"/>
@@ -16728,8 +16992,12 @@
       <c r="AR80" s="10">
         <v>0.12984342483401057</v>
       </c>
-      <c r="AS80" s="10"/>
-      <c r="AT80" s="10"/>
+      <c r="AS80" s="10">
+        <v>0.14337750267588212</v>
+      </c>
+      <c r="AT80" s="10">
+        <v>0.16183355169277247</v>
+      </c>
       <c r="AU80" s="10"/>
       <c r="AV80" s="10"/>
       <c r="AW80" s="10"/>
@@ -16953,8 +17221,12 @@
       <c r="AR81" s="10">
         <v>8.1164582446087818E-2</v>
       </c>
-      <c r="AS81" s="10"/>
-      <c r="AT81" s="10"/>
+      <c r="AS81" s="10">
+        <v>0.11777617485321601</v>
+      </c>
+      <c r="AT81" s="10">
+        <v>0.13966152158583411</v>
+      </c>
       <c r="AU81" s="10"/>
       <c r="AV81" s="10"/>
       <c r="AW81" s="10"/>
@@ -17178,8 +17450,12 @@
       <c r="AR82" s="10">
         <v>0.25409793604629671</v>
       </c>
-      <c r="AS82" s="10"/>
-      <c r="AT82" s="10"/>
+      <c r="AS82" s="10">
+        <v>0.26161616161616164</v>
+      </c>
+      <c r="AT82" s="10">
+        <v>0.30550249231412119</v>
+      </c>
       <c r="AU82" s="10"/>
       <c r="AV82" s="10"/>
       <c r="AW82" s="10"/>
@@ -17403,8 +17679,12 @@
       <c r="AR83" s="10">
         <v>7.2897303171561845E-2</v>
       </c>
-      <c r="AS83" s="10"/>
-      <c r="AT83" s="10"/>
+      <c r="AS83" s="10">
+        <v>8.1099278337806169E-2</v>
+      </c>
+      <c r="AT83" s="10">
+        <v>8.3773806925478311E-2</v>
+      </c>
       <c r="AU83" s="10"/>
       <c r="AV83" s="10"/>
       <c r="AW83" s="10"/>
@@ -17628,8 +17908,12 @@
       <c r="AR84" s="10">
         <v>0.15407213003725007</v>
       </c>
-      <c r="AS84" s="10"/>
-      <c r="AT84" s="10"/>
+      <c r="AS84" s="10">
+        <v>0.16109251190255858</v>
+      </c>
+      <c r="AT84" s="10">
+        <v>0.15231567740218255</v>
+      </c>
       <c r="AU84" s="10"/>
       <c r="AV84" s="10"/>
       <c r="AW84" s="10"/>
@@ -17853,8 +18137,12 @@
       <c r="AR85" s="10">
         <v>5.3130703912388055E-2</v>
       </c>
-      <c r="AS85" s="10"/>
-      <c r="AT85" s="10"/>
+      <c r="AS85" s="10">
+        <v>7.4721180636406537E-2</v>
+      </c>
+      <c r="AT85" s="10">
+        <v>6.7191617616890964E-2</v>
+      </c>
       <c r="AU85" s="10"/>
       <c r="AV85" s="10"/>
       <c r="AW85" s="10"/>
@@ -18078,8 +18366,12 @@
       <c r="AR86" s="10">
         <v>7.7929936833728508E-2</v>
       </c>
-      <c r="AS86" s="10"/>
-      <c r="AT86" s="10"/>
+      <c r="AS86" s="10">
+        <v>9.9368679536423477E-2</v>
+      </c>
+      <c r="AT86" s="10">
+        <v>0.14614165124212519</v>
+      </c>
       <c r="AU86" s="10"/>
       <c r="AV86" s="10"/>
       <c r="AW86" s="10"/>
@@ -18303,8 +18595,12 @@
       <c r="AR87" s="10">
         <v>7.0141426982361255E-2</v>
       </c>
-      <c r="AS87" s="10"/>
-      <c r="AT87" s="10"/>
+      <c r="AS87" s="10">
+        <v>6.8001701618112698E-2</v>
+      </c>
+      <c r="AT87" s="10">
+        <v>7.7259968076992758E-2</v>
+      </c>
       <c r="AU87" s="10"/>
       <c r="AV87" s="10"/>
       <c r="AW87" s="10"/>
@@ -18528,8 +18824,12 @@
       <c r="AR88" s="10">
         <v>0.17611419351652158</v>
       </c>
-      <c r="AS88" s="10"/>
-      <c r="AT88" s="10"/>
+      <c r="AS88" s="10">
+        <v>0.20025025107426875</v>
+      </c>
+      <c r="AT88" s="10">
+        <v>0.17142333118027486</v>
+      </c>
       <c r="AU88" s="10"/>
       <c r="AV88" s="10"/>
       <c r="AW88" s="10"/>
@@ -18753,8 +19053,12 @@
       <c r="AR89" s="10">
         <v>0.10835702196881325</v>
       </c>
-      <c r="AS89" s="10"/>
-      <c r="AT89" s="10"/>
+      <c r="AS89" s="10">
+        <v>9.4950648503140389E-2</v>
+      </c>
+      <c r="AT89" s="10">
+        <v>0.11487886450770857</v>
+      </c>
       <c r="AU89" s="10"/>
       <c r="AV89" s="10"/>
       <c r="AW89" s="10"/>
@@ -18978,8 +19282,12 @@
       <c r="AR90" s="10">
         <v>0.15037721523077185</v>
       </c>
-      <c r="AS90" s="10"/>
-      <c r="AT90" s="10"/>
+      <c r="AS90" s="10">
+        <v>0.14765616423317596</v>
+      </c>
+      <c r="AT90" s="10">
+        <v>0.15613539764619233</v>
+      </c>
       <c r="AU90" s="10"/>
       <c r="AV90" s="10"/>
       <c r="AW90" s="10"/>
@@ -19203,8 +19511,12 @@
       <c r="AR91" s="10">
         <v>0.17310890772429244</v>
       </c>
-      <c r="AS91" s="10"/>
-      <c r="AT91" s="10"/>
+      <c r="AS91" s="10">
+        <v>0.18765656662358587</v>
+      </c>
+      <c r="AT91" s="10">
+        <v>0.17401058535429326</v>
+      </c>
       <c r="AU91" s="10"/>
       <c r="AV91" s="10"/>
       <c r="AW91" s="10"/>
@@ -19428,8 +19740,12 @@
       <c r="AR92" s="10">
         <v>7.7944361860267541E-2</v>
       </c>
-      <c r="AS92" s="10"/>
-      <c r="AT92" s="10"/>
+      <c r="AS92" s="10">
+        <v>0.1161705413056533</v>
+      </c>
+      <c r="AT92" s="10">
+        <v>0.16905510197109974</v>
+      </c>
       <c r="AU92" s="10"/>
       <c r="AV92" s="10"/>
       <c r="AW92" s="10"/>
@@ -19653,8 +19969,12 @@
       <c r="AR93" s="10">
         <v>7.8202954514111411E-2</v>
       </c>
-      <c r="AS93" s="10"/>
-      <c r="AT93" s="10"/>
+      <c r="AS93" s="10">
+        <v>9.210505128576707E-2</v>
+      </c>
+      <c r="AT93" s="10">
+        <v>9.7663084728158767E-2</v>
+      </c>
       <c r="AU93" s="10"/>
       <c r="AV93" s="10"/>
       <c r="AW93" s="10"/>
@@ -19878,8 +20198,12 @@
       <c r="AR94" s="10">
         <v>5.9834188308669933E-2</v>
       </c>
-      <c r="AS94" s="10"/>
-      <c r="AT94" s="10"/>
+      <c r="AS94" s="10">
+        <v>7.9286164182237995E-2</v>
+      </c>
+      <c r="AT94" s="10">
+        <v>9.0694529602969975E-2</v>
+      </c>
       <c r="AU94" s="10"/>
       <c r="AV94" s="10"/>
       <c r="AW94" s="10"/>
@@ -20103,8 +20427,12 @@
       <c r="AR95" s="10">
         <v>6.1976301127396827E-2</v>
       </c>
-      <c r="AS95" s="10"/>
-      <c r="AT95" s="10"/>
+      <c r="AS95" s="10">
+        <v>8.6442997480888684E-2</v>
+      </c>
+      <c r="AT95" s="10">
+        <v>9.7825332361414885E-2</v>
+      </c>
       <c r="AU95" s="10"/>
       <c r="AV95" s="10"/>
       <c r="AW95" s="10"/>
@@ -20328,8 +20656,12 @@
       <c r="AR96" s="10">
         <v>8.1806251300353683E-2</v>
       </c>
-      <c r="AS96" s="10"/>
-      <c r="AT96" s="10"/>
+      <c r="AS96" s="10">
+        <v>8.3060677572897257E-2</v>
+      </c>
+      <c r="AT96" s="10">
+        <v>6.9664203950914994E-2</v>
+      </c>
       <c r="AU96" s="10"/>
       <c r="AV96" s="10"/>
       <c r="AW96" s="10"/>
@@ -20553,8 +20885,12 @@
       <c r="AR97" s="10">
         <v>9.3879847297568819E-2</v>
       </c>
-      <c r="AS97" s="10"/>
-      <c r="AT97" s="10"/>
+      <c r="AS97" s="10">
+        <v>8.0246717071229545E-2</v>
+      </c>
+      <c r="AT97" s="10">
+        <v>9.0819756514143535E-2</v>
+      </c>
       <c r="AU97" s="10"/>
       <c r="AV97" s="10"/>
       <c r="AW97" s="10"/>
@@ -20778,8 +21114,12 @@
       <c r="AR98" s="10">
         <v>8.2409825651161173E-2</v>
       </c>
-      <c r="AS98" s="10"/>
-      <c r="AT98" s="10"/>
+      <c r="AS98" s="10">
+        <v>0.11112588063272644</v>
+      </c>
+      <c r="AT98" s="10">
+        <v>0.15727885410617803</v>
+      </c>
       <c r="AU98" s="10"/>
       <c r="AV98" s="10"/>
       <c r="AW98" s="10"/>
@@ -21003,8 +21343,12 @@
       <c r="AR99" s="10">
         <v>0.19825197186101051</v>
       </c>
-      <c r="AS99" s="10"/>
-      <c r="AT99" s="10"/>
+      <c r="AS99" s="10">
+        <v>0.20360600478187596</v>
+      </c>
+      <c r="AT99" s="10">
+        <v>0.22818468989390195</v>
+      </c>
       <c r="AU99" s="10"/>
       <c r="AV99" s="10"/>
       <c r="AW99" s="10"/>
@@ -21228,8 +21572,12 @@
       <c r="AR100" s="10">
         <v>7.872932495388163E-2</v>
       </c>
-      <c r="AS100" s="10"/>
-      <c r="AT100" s="10"/>
+      <c r="AS100" s="10">
+        <v>5.8939940170284588E-2</v>
+      </c>
+      <c r="AT100" s="10">
+        <v>6.709601963635814E-2</v>
+      </c>
       <c r="AU100" s="10"/>
       <c r="AV100" s="10"/>
       <c r="AW100" s="10"/>
@@ -21453,8 +21801,12 @@
       <c r="AR101" s="10">
         <v>7.5467642858133344E-2</v>
       </c>
-      <c r="AS101" s="10"/>
-      <c r="AT101" s="10"/>
+      <c r="AS101" s="10">
+        <v>0.10289017341040441</v>
+      </c>
+      <c r="AT101" s="10">
+        <v>6.0341341662367265E-2</v>
+      </c>
       <c r="AU101" s="10"/>
       <c r="AV101" s="10"/>
       <c r="AW101" s="10"/>
@@ -21678,8 +22030,12 @@
       <c r="AR102" s="10">
         <v>0.14788121454788139</v>
       </c>
-      <c r="AS102" s="10"/>
-      <c r="AT102" s="10"/>
+      <c r="AS102" s="10">
+        <v>0.16041621322975441</v>
+      </c>
+      <c r="AT102" s="10">
+        <v>0.15369957429556047</v>
+      </c>
       <c r="AU102" s="10"/>
       <c r="AV102" s="10"/>
       <c r="AW102" s="10"/>
@@ -21903,8 +22259,12 @@
       <c r="AR103" s="10">
         <v>0.16436612997295907</v>
       </c>
-      <c r="AS103" s="10"/>
-      <c r="AT103" s="10"/>
+      <c r="AS103" s="10">
+        <v>0.18311202085410883</v>
+      </c>
+      <c r="AT103" s="10">
+        <v>0.16632615384615379</v>
+      </c>
       <c r="AU103" s="10"/>
       <c r="AV103" s="10"/>
       <c r="AW103" s="10"/>
@@ -22128,8 +22488,12 @@
       <c r="AR104" s="10">
         <v>0.30570643251812868</v>
       </c>
-      <c r="AS104" s="10"/>
-      <c r="AT104" s="10"/>
+      <c r="AS104" s="10">
+        <v>0.27981609025610754</v>
+      </c>
+      <c r="AT104" s="10">
+        <v>0.23203735296758543</v>
+      </c>
       <c r="AU104" s="10"/>
       <c r="AV104" s="10"/>
       <c r="AW104" s="10"/>
@@ -22353,8 +22717,12 @@
       <c r="AR105" s="10">
         <v>0.13287028684827695</v>
       </c>
-      <c r="AS105" s="10"/>
-      <c r="AT105" s="10"/>
+      <c r="AS105" s="10">
+        <v>0.1822439085716081</v>
+      </c>
+      <c r="AT105" s="10">
+        <v>0.2147626055301679</v>
+      </c>
       <c r="AU105" s="10"/>
       <c r="AV105" s="10"/>
       <c r="AW105" s="10"/>
@@ -22578,8 +22946,12 @@
       <c r="AR106" s="10">
         <v>0.22995831900636521</v>
       </c>
-      <c r="AS106" s="10"/>
-      <c r="AT106" s="10"/>
+      <c r="AS106" s="10">
+        <v>0.2590065818923355</v>
+      </c>
+      <c r="AT106" s="10">
+        <v>0.25447573496062348</v>
+      </c>
       <c r="AU106" s="10"/>
       <c r="AV106" s="10"/>
       <c r="AW106" s="10"/>
@@ -22803,8 +23175,12 @@
       <c r="AR107" s="10">
         <v>0.39730765180907346</v>
       </c>
-      <c r="AS107" s="10"/>
-      <c r="AT107" s="10"/>
+      <c r="AS107" s="10">
+        <v>0.35134732884223729</v>
+      </c>
+      <c r="AT107" s="10">
+        <v>0.28379154698399689</v>
+      </c>
       <c r="AU107" s="10"/>
       <c r="AV107" s="10"/>
       <c r="AW107" s="10"/>
@@ -23028,8 +23404,12 @@
       <c r="AR108" s="10">
         <v>0.27551339017653431</v>
       </c>
-      <c r="AS108" s="10"/>
-      <c r="AT108" s="10"/>
+      <c r="AS108" s="10">
+        <v>0.25293340463682412</v>
+      </c>
+      <c r="AT108" s="10">
+        <v>0.24495663723728422</v>
+      </c>
       <c r="AU108" s="10"/>
       <c r="AV108" s="10"/>
       <c r="AW108" s="10"/>
@@ -23253,8 +23633,12 @@
       <c r="AR109" s="10">
         <v>0.26984548046952717</v>
       </c>
-      <c r="AS109" s="10"/>
-      <c r="AT109" s="10"/>
+      <c r="AS109" s="10">
+        <v>0.24507042253521139</v>
+      </c>
+      <c r="AT109" s="10">
+        <v>0.23948124264947079</v>
+      </c>
       <c r="AU109" s="10"/>
       <c r="AV109" s="10"/>
       <c r="AW109" s="10"/>
@@ -23478,8 +23862,12 @@
       <c r="AR110" s="10">
         <v>0.27531656283856987</v>
       </c>
-      <c r="AS110" s="10"/>
-      <c r="AT110" s="10"/>
+      <c r="AS110" s="10">
+        <v>0.26818651812814776</v>
+      </c>
+      <c r="AT110" s="10">
+        <v>0.26972240691489358</v>
+      </c>
       <c r="AU110" s="10"/>
       <c r="AV110" s="10"/>
       <c r="AW110" s="10"/>
@@ -23703,8 +24091,12 @@
       <c r="AR111" s="10">
         <v>0.19212665387734118</v>
       </c>
-      <c r="AS111" s="10"/>
-      <c r="AT111" s="10"/>
+      <c r="AS111" s="10">
+        <v>0.19155860213458364</v>
+      </c>
+      <c r="AT111" s="10">
+        <v>0.18173261696537124</v>
+      </c>
       <c r="AU111" s="10"/>
       <c r="AV111" s="10"/>
       <c r="AW111" s="10"/>
@@ -23928,8 +24320,12 @@
       <c r="AR112" s="10">
         <v>0.10631626816016859</v>
       </c>
-      <c r="AS112" s="10"/>
-      <c r="AT112" s="10"/>
+      <c r="AS112" s="10">
+        <v>0.12012637323185182</v>
+      </c>
+      <c r="AT112" s="10">
+        <v>0.1256327839334086</v>
+      </c>
       <c r="AU112" s="10"/>
       <c r="AV112" s="10"/>
       <c r="AW112" s="10"/>
@@ -24153,8 +24549,12 @@
       <c r="AR113" s="10">
         <v>0.11385687162697522</v>
       </c>
-      <c r="AS113" s="10"/>
-      <c r="AT113" s="10"/>
+      <c r="AS113" s="10">
+        <v>0.17641962491877727</v>
+      </c>
+      <c r="AT113" s="10">
+        <v>0.27449162036040975</v>
+      </c>
       <c r="AU113" s="10"/>
       <c r="AV113" s="10"/>
       <c r="AW113" s="10"/>
@@ -24378,8 +24778,12 @@
       <c r="AR114" s="10">
         <v>0.13214724903346808</v>
       </c>
-      <c r="AS114" s="10"/>
-      <c r="AT114" s="10"/>
+      <c r="AS114" s="10">
+        <v>0.1168950010458063</v>
+      </c>
+      <c r="AT114" s="10">
+        <v>0.14195307948948788</v>
+      </c>
       <c r="AU114" s="10"/>
       <c r="AV114" s="10"/>
       <c r="AW114" s="10"/>
@@ -24603,8 +25007,12 @@
       <c r="AR115" s="10">
         <v>0.19537657870009073</v>
       </c>
-      <c r="AS115" s="10"/>
-      <c r="AT115" s="10"/>
+      <c r="AS115" s="10">
+        <v>0.17719763188890947</v>
+      </c>
+      <c r="AT115" s="10">
+        <v>0.16738536615309063</v>
+      </c>
       <c r="AU115" s="10"/>
       <c r="AV115" s="10"/>
       <c r="AW115" s="10"/>
@@ -24828,8 +25236,12 @@
       <c r="AR116" s="10">
         <v>0.13563046150219704</v>
       </c>
-      <c r="AS116" s="10"/>
-      <c r="AT116" s="10"/>
+      <c r="AS116" s="10">
+        <v>0.19661925445487172</v>
+      </c>
+      <c r="AT116" s="10">
+        <v>0.22738803908271188</v>
+      </c>
       <c r="AU116" s="10"/>
       <c r="AV116" s="10"/>
       <c r="AW116" s="10"/>
@@ -25053,8 +25465,12 @@
       <c r="AR117" s="10">
         <v>3.6249235340382713E-2</v>
       </c>
-      <c r="AS117" s="10"/>
-      <c r="AT117" s="10"/>
+      <c r="AS117" s="10">
+        <v>3.1102527353444875E-2</v>
+      </c>
+      <c r="AT117" s="10">
+        <v>3.2224162041500914E-3</v>
+      </c>
       <c r="AU117" s="10"/>
       <c r="AV117" s="10"/>
       <c r="AW117" s="10"/>
@@ -25278,8 +25694,12 @@
       <c r="AR118" s="10">
         <v>0.11075369236622734</v>
       </c>
-      <c r="AS118" s="10"/>
-      <c r="AT118" s="10"/>
+      <c r="AS118" s="10">
+        <v>0.13835139825076936</v>
+      </c>
+      <c r="AT118" s="10">
+        <v>0.17258542191574944</v>
+      </c>
       <c r="AU118" s="10"/>
       <c r="AV118" s="10"/>
       <c r="AW118" s="10"/>
@@ -25503,8 +25923,12 @@
       <c r="AR119" s="10">
         <v>0.16879952690715561</v>
       </c>
-      <c r="AS119" s="10"/>
-      <c r="AT119" s="10"/>
+      <c r="AS119" s="10">
+        <v>0.17342104848990392</v>
+      </c>
+      <c r="AT119" s="10">
+        <v>0.18753481948792783</v>
+      </c>
       <c r="AU119" s="10"/>
       <c r="AV119" s="10"/>
       <c r="AW119" s="10"/>
@@ -25728,8 +26152,12 @@
       <c r="AR120" s="10">
         <v>8.6493768945772986E-2</v>
       </c>
-      <c r="AS120" s="10"/>
-      <c r="AT120" s="10"/>
+      <c r="AS120" s="10">
+        <v>9.7103479827295391E-2</v>
+      </c>
+      <c r="AT120" s="10">
+        <v>0.1526544259429885</v>
+      </c>
       <c r="AU120" s="10"/>
       <c r="AV120" s="10"/>
       <c r="AW120" s="10"/>
@@ -25953,8 +26381,12 @@
       <c r="AR121" s="10">
         <v>0.13158338585542961</v>
       </c>
-      <c r="AS121" s="10"/>
-      <c r="AT121" s="10"/>
+      <c r="AS121" s="10">
+        <v>0.11839865208768452</v>
+      </c>
+      <c r="AT121" s="10">
+        <v>0.10973489599100472</v>
+      </c>
       <c r="AU121" s="10"/>
       <c r="AV121" s="10"/>
       <c r="AW121" s="10"/>
@@ -26178,8 +26610,12 @@
       <c r="AR122" s="10">
         <v>0.14085605752272423</v>
       </c>
-      <c r="AS122" s="10"/>
-      <c r="AT122" s="10"/>
+      <c r="AS122" s="10">
+        <v>0.14006371525870587</v>
+      </c>
+      <c r="AT122" s="10">
+        <v>0.17858709220336699</v>
+      </c>
       <c r="AU122" s="10"/>
       <c r="AV122" s="10"/>
       <c r="AW122" s="10"/>
@@ -26403,8 +26839,12 @@
       <c r="AR123" s="10">
         <v>0.12438092542804569</v>
       </c>
-      <c r="AS123" s="10"/>
-      <c r="AT123" s="10"/>
+      <c r="AS123" s="10">
+        <v>0.10307885423386054</v>
+      </c>
+      <c r="AT123" s="10">
+        <v>8.6923514898462617E-2</v>
+      </c>
       <c r="AU123" s="10"/>
       <c r="AV123" s="10"/>
       <c r="AW123" s="10"/>
@@ -26628,8 +27068,12 @@
       <c r="AR124" s="10">
         <v>5.5416041812712535E-2</v>
       </c>
-      <c r="AS124" s="10"/>
-      <c r="AT124" s="10"/>
+      <c r="AS124" s="10">
+        <v>7.1397103117160965E-2</v>
+      </c>
+      <c r="AT124" s="10">
+        <v>8.9484663806218334E-2</v>
+      </c>
       <c r="AU124" s="10"/>
       <c r="AV124" s="10"/>
       <c r="AW124" s="10"/>
@@ -26853,8 +27297,12 @@
       <c r="AR125" s="10">
         <v>0.15615272504813138</v>
       </c>
-      <c r="AS125" s="10"/>
-      <c r="AT125" s="10"/>
+      <c r="AS125" s="10">
+        <v>0.19390323398399301</v>
+      </c>
+      <c r="AT125" s="10">
+        <v>0.18528206944785075</v>
+      </c>
       <c r="AU125" s="10"/>
       <c r="AV125" s="10"/>
       <c r="AW125" s="10"/>
@@ -27078,8 +27526,12 @@
       <c r="AR126" s="10">
         <v>0.10288199603764236</v>
       </c>
-      <c r="AS126" s="10"/>
-      <c r="AT126" s="10"/>
+      <c r="AS126" s="10">
+        <v>0.14428974629854463</v>
+      </c>
+      <c r="AT126" s="10">
+        <v>0.12389339691574053</v>
+      </c>
       <c r="AU126" s="10"/>
       <c r="AV126" s="10"/>
       <c r="AW126" s="10"/>
@@ -27303,8 +27755,12 @@
       <c r="AR127" s="10">
         <v>0.10588263650094798</v>
       </c>
-      <c r="AS127" s="10"/>
-      <c r="AT127" s="10"/>
+      <c r="AS127" s="10">
+        <v>0.12501121560886497</v>
+      </c>
+      <c r="AT127" s="10">
+        <v>9.2781213530957585E-2</v>
+      </c>
       <c r="AU127" s="10"/>
       <c r="AV127" s="10"/>
       <c r="AW127" s="10"/>
@@ -27528,8 +27984,12 @@
       <c r="AR128" s="10">
         <v>5.4210137059591768E-2</v>
       </c>
-      <c r="AS128" s="10"/>
-      <c r="AT128" s="10"/>
+      <c r="AS128" s="10">
+        <v>5.3406187350131695E-2</v>
+      </c>
+      <c r="AT128" s="10">
+        <v>6.2726647492809873E-2</v>
+      </c>
       <c r="AU128" s="10"/>
       <c r="AV128" s="10"/>
       <c r="AW128" s="10"/>
@@ -27753,8 +28213,12 @@
       <c r="AR129" s="10">
         <v>2.109148920382875E-2</v>
       </c>
-      <c r="AS129" s="10"/>
-      <c r="AT129" s="10"/>
+      <c r="AS129" s="10">
+        <v>1.111584958837053E-2</v>
+      </c>
+      <c r="AT129" s="10">
+        <v>6.6568047337278724E-3</v>
+      </c>
       <c r="AU129" s="10"/>
       <c r="AV129" s="10"/>
       <c r="AW129" s="10"/>
@@ -27978,8 +28442,12 @@
       <c r="AR130" s="10">
         <v>-2.173165289329082E-2</v>
       </c>
-      <c r="AS130" s="10"/>
-      <c r="AT130" s="10"/>
+      <c r="AS130" s="10">
+        <v>-6.266466423514272E-2</v>
+      </c>
+      <c r="AT130" s="10">
+        <v>-3.6627333190302536E-2</v>
+      </c>
       <c r="AU130" s="10"/>
       <c r="AV130" s="10"/>
       <c r="AW130" s="10"/>
@@ -28203,8 +28671,12 @@
       <c r="AR131" s="10">
         <v>0.15001825581291794</v>
       </c>
-      <c r="AS131" s="10"/>
-      <c r="AT131" s="10"/>
+      <c r="AS131" s="10">
+        <v>0.12560032772882201</v>
+      </c>
+      <c r="AT131" s="10">
+        <v>0.12169932596761868</v>
+      </c>
       <c r="AU131" s="10"/>
       <c r="AV131" s="10"/>
       <c r="AW131" s="10"/>
@@ -28428,8 +28900,12 @@
       <c r="AR132" s="10">
         <v>0</v>
       </c>
-      <c r="AS132" s="10"/>
-      <c r="AT132" s="10"/>
+      <c r="AS132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT132" s="10">
+        <v>0</v>
+      </c>
       <c r="AU132" s="10"/>
       <c r="AV132" s="10"/>
       <c r="AW132" s="10"/>
@@ -28653,8 +29129,12 @@
       <c r="AR133" s="10">
         <v>2.3317373886317716E-2</v>
       </c>
-      <c r="AS133" s="10"/>
-      <c r="AT133" s="10"/>
+      <c r="AS133" s="10">
+        <v>2.3317373886317716E-2</v>
+      </c>
+      <c r="AT133" s="10">
+        <v>2.3317373886317716E-2</v>
+      </c>
       <c r="AU133" s="10"/>
       <c r="AV133" s="10"/>
       <c r="AW133" s="10"/>
@@ -28878,8 +29358,12 @@
       <c r="AR134" s="10">
         <v>2.2188131083318297E-2</v>
       </c>
-      <c r="AS134" s="10"/>
-      <c r="AT134" s="10"/>
+      <c r="AS134" s="10">
+        <v>2.2188131083318297E-2</v>
+      </c>
+      <c r="AT134" s="10">
+        <v>2.2188131083318297E-2</v>
+      </c>
       <c r="AU134" s="10"/>
       <c r="AV134" s="10"/>
       <c r="AW134" s="10"/>
@@ -29103,8 +29587,12 @@
       <c r="AR135" s="10">
         <v>5.2210570948645563E-2</v>
       </c>
-      <c r="AS135" s="10"/>
-      <c r="AT135" s="10"/>
+      <c r="AS135" s="10">
+        <v>5.2210570948645563E-2</v>
+      </c>
+      <c r="AT135" s="10">
+        <v>5.2210570948645563E-2</v>
+      </c>
       <c r="AU135" s="10"/>
       <c r="AV135" s="10"/>
       <c r="AW135" s="10"/>
@@ -29328,8 +29816,12 @@
       <c r="AR136" s="10">
         <v>5.0648579481303635E-2</v>
       </c>
-      <c r="AS136" s="10"/>
-      <c r="AT136" s="10"/>
+      <c r="AS136" s="10">
+        <v>5.0648579481303635E-2</v>
+      </c>
+      <c r="AT136" s="10">
+        <v>5.0648579481303635E-2</v>
+      </c>
       <c r="AU136" s="10"/>
       <c r="AV136" s="10"/>
       <c r="AW136" s="10"/>
@@ -29553,8 +30045,12 @@
       <c r="AR137" s="10">
         <v>2.971992664937928E-2</v>
       </c>
-      <c r="AS137" s="10"/>
-      <c r="AT137" s="10"/>
+      <c r="AS137" s="10">
+        <v>2.971992664937928E-2</v>
+      </c>
+      <c r="AT137" s="10">
+        <v>2.971992664937928E-2</v>
+      </c>
       <c r="AU137" s="10"/>
       <c r="AV137" s="10"/>
       <c r="AW137" s="10"/>
@@ -29778,8 +30274,12 @@
       <c r="AR138" s="10">
         <v>4.0835616078695569E-2</v>
       </c>
-      <c r="AS138" s="10"/>
-      <c r="AT138" s="10"/>
+      <c r="AS138" s="10">
+        <v>4.0835616078695569E-2</v>
+      </c>
+      <c r="AT138" s="10">
+        <v>4.0835616078695569E-2</v>
+      </c>
       <c r="AU138" s="10"/>
       <c r="AV138" s="10"/>
       <c r="AW138" s="10"/>
@@ -30003,8 +30503,12 @@
       <c r="AR139" s="10">
         <v>1.8514319600934748E-2</v>
       </c>
-      <c r="AS139" s="10"/>
-      <c r="AT139" s="10"/>
+      <c r="AS139" s="10">
+        <v>1.8514319600934748E-2</v>
+      </c>
+      <c r="AT139" s="10">
+        <v>1.8514319600934748E-2</v>
+      </c>
       <c r="AU139" s="10"/>
       <c r="AV139" s="10"/>
       <c r="AW139" s="10"/>
@@ -30228,8 +30732,12 @@
       <c r="AR140" s="10">
         <v>0.11501648365475758</v>
       </c>
-      <c r="AS140" s="10"/>
-      <c r="AT140" s="10"/>
+      <c r="AS140" s="10">
+        <v>0.1678366520418495</v>
+      </c>
+      <c r="AT140" s="10">
+        <v>0.16695650712839494</v>
+      </c>
       <c r="AU140" s="10"/>
       <c r="AV140" s="10"/>
       <c r="AW140" s="10"/>
@@ -30453,8 +30961,12 @@
       <c r="AR141" s="10">
         <v>-1.6980056980057001E-2</v>
       </c>
-      <c r="AS141" s="10"/>
-      <c r="AT141" s="10"/>
+      <c r="AS141" s="10">
+        <v>-1.0380497357279417E-2</v>
+      </c>
+      <c r="AT141" s="10">
+        <v>-4.5267039024569078E-3</v>
+      </c>
       <c r="AU141" s="10"/>
       <c r="AV141" s="10"/>
       <c r="AW141" s="10"/>
@@ -30678,8 +31190,12 @@
       <c r="AR142" s="10">
         <v>1.5852952527981579E-2</v>
       </c>
-      <c r="AS142" s="10"/>
-      <c r="AT142" s="10"/>
+      <c r="AS142" s="10">
+        <v>5.1449112558975552E-2</v>
+      </c>
+      <c r="AT142" s="10">
+        <v>2.6340722025936181E-2</v>
+      </c>
       <c r="AU142" s="10"/>
       <c r="AV142" s="10"/>
       <c r="AW142" s="10"/>
@@ -30903,8 +31419,12 @@
       <c r="AR143" s="10">
         <v>5.6752996575342385E-2</v>
       </c>
-      <c r="AS143" s="10"/>
-      <c r="AT143" s="10"/>
+      <c r="AS143" s="10">
+        <v>2.0368533254532695E-2</v>
+      </c>
+      <c r="AT143" s="10">
+        <v>5.5455804092934713E-2</v>
+      </c>
       <c r="AU143" s="10"/>
       <c r="AV143" s="10"/>
       <c r="AW143" s="10"/>
@@ -31128,8 +31648,12 @@
       <c r="AR144" s="10">
         <v>6.2385209388223117E-2</v>
       </c>
-      <c r="AS144" s="10"/>
-      <c r="AT144" s="10"/>
+      <c r="AS144" s="10">
+        <v>1.378258702090962E-3</v>
+      </c>
+      <c r="AT144" s="10">
+        <v>4.9487512927371302E-2</v>
+      </c>
       <c r="AU144" s="10"/>
       <c r="AV144" s="10"/>
       <c r="AW144" s="10"/>
@@ -31353,8 +31877,12 @@
       <c r="AR145" s="10">
         <v>0.12536443148688048</v>
       </c>
-      <c r="AS145" s="10"/>
-      <c r="AT145" s="10"/>
+      <c r="AS145" s="10">
+        <v>0.14776332074843723</v>
+      </c>
+      <c r="AT145" s="10">
+        <v>0.1248138677511117</v>
+      </c>
       <c r="AU145" s="10"/>
       <c r="AV145" s="10"/>
       <c r="AW145" s="10"/>
@@ -31578,8 +32106,12 @@
       <c r="AR146" s="10">
         <v>2.144716075963915E-2</v>
       </c>
-      <c r="AS146" s="10"/>
-      <c r="AT146" s="10"/>
+      <c r="AS146" s="10">
+        <v>0.19267116432034737</v>
+      </c>
+      <c r="AT146" s="10">
+        <v>6.5219351929395319E-2</v>
+      </c>
       <c r="AU146" s="10"/>
       <c r="AV146" s="10"/>
       <c r="AW146" s="10"/>
@@ -31803,8 +32335,12 @@
       <c r="AR147" s="10">
         <v>5.9005062859093238E-2</v>
       </c>
-      <c r="AS147" s="10"/>
-      <c r="AT147" s="10"/>
+      <c r="AS147" s="10">
+        <v>0.1124090157881783</v>
+      </c>
+      <c r="AT147" s="10">
+        <v>0.10282720608807572</v>
+      </c>
       <c r="AU147" s="10"/>
       <c r="AV147" s="10"/>
       <c r="AW147" s="10"/>
@@ -32028,8 +32564,12 @@
       <c r="AR148" s="10">
         <v>0.1006678855266594</v>
       </c>
-      <c r="AS148" s="10"/>
-      <c r="AT148" s="10"/>
+      <c r="AS148" s="10">
+        <v>0.1006678855266594</v>
+      </c>
+      <c r="AT148" s="10">
+        <v>0.1006678855266594</v>
+      </c>
       <c r="AU148" s="10"/>
       <c r="AV148" s="10"/>
       <c r="AW148" s="10"/>
@@ -32253,8 +32793,12 @@
       <c r="AR149" s="10">
         <v>6.2934488903017449E-2</v>
       </c>
-      <c r="AS149" s="10"/>
-      <c r="AT149" s="10"/>
+      <c r="AS149" s="10">
+        <v>6.2934488903017449E-2</v>
+      </c>
+      <c r="AT149" s="10">
+        <v>5.4553603293301389E-2</v>
+      </c>
       <c r="AU149" s="10"/>
       <c r="AV149" s="10"/>
       <c r="AW149" s="10"/>
@@ -32478,8 +33022,12 @@
       <c r="AR150" s="10">
         <v>0.15276290867166264</v>
       </c>
-      <c r="AS150" s="10"/>
-      <c r="AT150" s="10"/>
+      <c r="AS150" s="10">
+        <v>9.2029881759263965E-2</v>
+      </c>
+      <c r="AT150" s="10">
+        <v>0.11136472370624362</v>
+      </c>
       <c r="AU150" s="10"/>
       <c r="AV150" s="10"/>
       <c r="AW150" s="10"/>
@@ -32703,8 +33251,12 @@
       <c r="AR151" s="10">
         <v>0.15837952151383639</v>
       </c>
-      <c r="AS151" s="10"/>
-      <c r="AT151" s="10"/>
+      <c r="AS151" s="10">
+        <v>0.18201397435388467</v>
+      </c>
+      <c r="AT151" s="10">
+        <v>5.7597639989865002E-2</v>
+      </c>
       <c r="AU151" s="10"/>
       <c r="AV151" s="10"/>
       <c r="AW151" s="10"/>
@@ -32928,8 +33480,12 @@
       <c r="AR152" s="10">
         <v>0.14972904077684146</v>
       </c>
-      <c r="AS152" s="10"/>
-      <c r="AT152" s="10"/>
+      <c r="AS152" s="10">
+        <v>0.14972904077684146</v>
+      </c>
+      <c r="AT152" s="10">
+        <v>0.13021453037678032</v>
+      </c>
       <c r="AU152" s="10"/>
       <c r="AV152" s="10"/>
       <c r="AW152" s="10"/>
@@ -33153,8 +33709,12 @@
       <c r="AR153" s="10">
         <v>-6.6191620879121338E-3</v>
       </c>
-      <c r="AS153" s="10"/>
-      <c r="AT153" s="10"/>
+      <c r="AS153" s="10">
+        <v>2.1992509101703472E-2</v>
+      </c>
+      <c r="AT153" s="10">
+        <v>-1.23189681920719E-2</v>
+      </c>
       <c r="AU153" s="10"/>
       <c r="AV153" s="10"/>
       <c r="AW153" s="10"/>
@@ -33378,8 +33938,12 @@
       <c r="AR154" s="10">
         <v>8.2597407431533432E-2</v>
       </c>
-      <c r="AS154" s="10"/>
-      <c r="AT154" s="10"/>
+      <c r="AS154" s="10">
+        <v>8.0536102390726949E-2</v>
+      </c>
+      <c r="AT154" s="10">
+        <v>8.0536102390726949E-2</v>
+      </c>
       <c r="AU154" s="10"/>
       <c r="AV154" s="10"/>
       <c r="AW154" s="10"/>
@@ -33603,8 +34167,12 @@
       <c r="AR155" s="10">
         <v>6.6120511724752529E-2</v>
       </c>
-      <c r="AS155" s="10"/>
-      <c r="AT155" s="10"/>
+      <c r="AS155" s="10">
+        <v>7.1903317776526698E-2</v>
+      </c>
+      <c r="AT155" s="10">
+        <v>8.3545681251416815E-2</v>
+      </c>
       <c r="AU155" s="10"/>
       <c r="AV155" s="10"/>
       <c r="AW155" s="10"/>
@@ -33828,8 +34396,12 @@
       <c r="AR156" s="10">
         <v>-8.4553463252356353E-2</v>
       </c>
-      <c r="AS156" s="10"/>
-      <c r="AT156" s="10"/>
+      <c r="AS156" s="10">
+        <v>-8.0403669346101103E-2</v>
+      </c>
+      <c r="AT156" s="10">
+        <v>-7.8404643141142816E-2</v>
+      </c>
       <c r="AU156" s="10"/>
       <c r="AV156" s="10"/>
       <c r="AW156" s="10"/>
@@ -34053,8 +34625,12 @@
       <c r="AR157" s="10">
         <v>-5.6219453626014104E-3</v>
       </c>
-      <c r="AS157" s="10"/>
-      <c r="AT157" s="10"/>
+      <c r="AS157" s="10">
+        <v>-1.124389072520271E-2</v>
+      </c>
+      <c r="AT157" s="10">
+        <v>-1.124389072520271E-2</v>
+      </c>
       <c r="AU157" s="10"/>
       <c r="AV157" s="10"/>
       <c r="AW157" s="10"/>
@@ -34278,8 +34854,12 @@
       <c r="AR158" s="10">
         <v>-5.7086230999274568E-2</v>
       </c>
-      <c r="AS158" s="10"/>
-      <c r="AT158" s="10"/>
+      <c r="AS158" s="10">
+        <v>-4.4584240236414163E-2</v>
+      </c>
+      <c r="AT158" s="10">
+        <v>-4.0116083594344487E-2</v>
+      </c>
       <c r="AU158" s="10"/>
       <c r="AV158" s="10"/>
       <c r="AW158" s="10"/>
@@ -34503,8 +35083,12 @@
       <c r="AR159" s="10">
         <v>0.16733850392897232</v>
       </c>
-      <c r="AS159" s="10"/>
-      <c r="AT159" s="10"/>
+      <c r="AS159" s="10">
+        <v>0.16733850392897232</v>
+      </c>
+      <c r="AT159" s="10">
+        <v>0.16733850392897232</v>
+      </c>
       <c r="AU159" s="10"/>
       <c r="AV159" s="10"/>
       <c r="AW159" s="10"/>
@@ -34728,8 +35312,12 @@
       <c r="AR160" s="10">
         <v>0.11404608810256023</v>
       </c>
-      <c r="AS160" s="10"/>
-      <c r="AT160" s="10"/>
+      <c r="AS160" s="10">
+        <v>0.14269019794896254</v>
+      </c>
+      <c r="AT160" s="10">
+        <v>0.18244765620706715</v>
+      </c>
       <c r="AU160" s="10"/>
       <c r="AV160" s="10"/>
       <c r="AW160" s="10"/>
@@ -34953,8 +35541,12 @@
       <c r="AR161" s="10">
         <v>0.1595858000286785</v>
       </c>
-      <c r="AS161" s="10"/>
-      <c r="AT161" s="10"/>
+      <c r="AS161" s="10">
+        <v>0.15267222483970744</v>
+      </c>
+      <c r="AT161" s="10">
+        <v>0.1360532413314417</v>
+      </c>
       <c r="AU161" s="10"/>
       <c r="AV161" s="10"/>
       <c r="AW161" s="10"/>
@@ -35178,8 +35770,12 @@
       <c r="AR162" s="10">
         <v>1.2124505928853724E-2</v>
       </c>
-      <c r="AS162" s="10"/>
-      <c r="AT162" s="10"/>
+      <c r="AS162" s="10">
+        <v>6.8772387518893474E-2</v>
+      </c>
+      <c r="AT162" s="10">
+        <v>0.11371641340444794</v>
+      </c>
       <c r="AU162" s="10"/>
       <c r="AV162" s="10"/>
       <c r="AW162" s="10"/>
@@ -35403,8 +35999,12 @@
       <c r="AR163" s="10">
         <v>-3.3890812642745072E-4</v>
       </c>
-      <c r="AS163" s="10"/>
-      <c r="AT163" s="10"/>
+      <c r="AS163" s="10">
+        <v>-1.6666304040382052E-2</v>
+      </c>
+      <c r="AT163" s="10">
+        <v>-1.2931128953308946E-2</v>
+      </c>
       <c r="AU163" s="10"/>
       <c r="AV163" s="10"/>
       <c r="AW163" s="10"/>
@@ -35628,8 +36228,12 @@
       <c r="AR164" s="10">
         <v>1.1232371632816651E-2</v>
       </c>
-      <c r="AS164" s="10"/>
-      <c r="AT164" s="10"/>
+      <c r="AS164" s="10">
+        <v>7.8882702416871453E-2</v>
+      </c>
+      <c r="AT164" s="10">
+        <v>5.0305231434974118E-2</v>
+      </c>
       <c r="AU164" s="10"/>
       <c r="AV164" s="10"/>
       <c r="AW164" s="10"/>
@@ -35853,8 +36457,12 @@
       <c r="AR165" s="10">
         <v>0.15729928029348339</v>
       </c>
-      <c r="AS165" s="10"/>
-      <c r="AT165" s="10"/>
+      <c r="AS165" s="10">
+        <v>0.11249495628782769</v>
+      </c>
+      <c r="AT165" s="10">
+        <v>8.5676049192659587E-2</v>
+      </c>
       <c r="AU165" s="10"/>
       <c r="AV165" s="10"/>
       <c r="AW165" s="10"/>
@@ -36078,8 +36686,12 @@
       <c r="AR166" s="10">
         <v>3.6536967609011262E-2</v>
       </c>
-      <c r="AS166" s="10"/>
-      <c r="AT166" s="10"/>
+      <c r="AS166" s="10">
+        <v>0.18202553970865076</v>
+      </c>
+      <c r="AT166" s="10">
+        <v>0.27216645311293464</v>
+      </c>
       <c r="AU166" s="10"/>
       <c r="AV166" s="10"/>
       <c r="AW166" s="10"/>
@@ -36303,8 +36915,12 @@
       <c r="AR167" s="10">
         <v>0.10406401347652161</v>
       </c>
-      <c r="AS167" s="10"/>
-      <c r="AT167" s="10"/>
+      <c r="AS167" s="10">
+        <v>0.11516313172740511</v>
+      </c>
+      <c r="AT167" s="10">
+        <v>0.10839754364359555</v>
+      </c>
       <c r="AU167" s="10"/>
       <c r="AV167" s="10"/>
       <c r="AW167" s="10"/>
@@ -36528,8 +37144,12 @@
       <c r="AR168" s="10">
         <v>8.4284147010422528E-2</v>
       </c>
-      <c r="AS168" s="10"/>
-      <c r="AT168" s="10"/>
+      <c r="AS168" s="10">
+        <v>6.6314389381011418E-2</v>
+      </c>
+      <c r="AT168" s="10">
+        <v>6.9041022432746457E-2</v>
+      </c>
       <c r="AU168" s="10"/>
       <c r="AV168" s="10"/>
       <c r="AW168" s="10"/>
@@ -36753,8 +37373,12 @@
       <c r="AR169" s="10">
         <v>7.9179757153774455E-2</v>
       </c>
-      <c r="AS169" s="10"/>
-      <c r="AT169" s="10"/>
+      <c r="AS169" s="10">
+        <v>8.6159251087166266E-2</v>
+      </c>
+      <c r="AT169" s="10">
+        <v>4.3348519120286255E-2</v>
+      </c>
       <c r="AU169" s="10"/>
       <c r="AV169" s="10"/>
       <c r="AW169" s="10"/>
@@ -36978,8 +37602,12 @@
       <c r="AR170" s="10">
         <v>5.5336691101913305E-2</v>
       </c>
-      <c r="AS170" s="10"/>
-      <c r="AT170" s="10"/>
+      <c r="AS170" s="10">
+        <v>4.1682458597676497E-2</v>
+      </c>
+      <c r="AT170" s="10">
+        <v>9.6371468204716759E-3</v>
+      </c>
       <c r="AU170" s="10"/>
       <c r="AV170" s="10"/>
       <c r="AW170" s="10"/>
@@ -37203,8 +37831,12 @@
       <c r="AR171" s="10">
         <v>-3.6843268153338715E-2</v>
       </c>
-      <c r="AS171" s="10"/>
-      <c r="AT171" s="10"/>
+      <c r="AS171" s="10">
+        <v>-1.1876770481410448E-3</v>
+      </c>
+      <c r="AT171" s="10">
+        <v>-9.0211723811028599E-2</v>
+      </c>
       <c r="AU171" s="10"/>
       <c r="AV171" s="10"/>
       <c r="AW171" s="10"/>
@@ -37428,8 +38060,12 @@
       <c r="AR172" s="10">
         <v>6.2332874685220307E-2</v>
       </c>
-      <c r="AS172" s="10"/>
-      <c r="AT172" s="10"/>
+      <c r="AS172" s="10">
+        <v>0.11364861465483145</v>
+      </c>
+      <c r="AT172" s="10">
+        <v>8.9501487104363564E-2</v>
+      </c>
       <c r="AU172" s="10"/>
       <c r="AV172" s="10"/>
       <c r="AW172" s="10"/>
@@ -37653,8 +38289,12 @@
       <c r="AR173" s="10">
         <v>9.8195887884104938E-2</v>
       </c>
-      <c r="AS173" s="10"/>
-      <c r="AT173" s="10"/>
+      <c r="AS173" s="10">
+        <v>0.12732670382107592</v>
+      </c>
+      <c r="AT173" s="10">
+        <v>0.18065551268734237</v>
+      </c>
       <c r="AU173" s="10"/>
       <c r="AV173" s="10"/>
       <c r="AW173" s="10"/>
@@ -37878,8 +38518,12 @@
       <c r="AR174" s="10">
         <v>7.8108613378322866E-2</v>
       </c>
-      <c r="AS174" s="10"/>
-      <c r="AT174" s="10"/>
+      <c r="AS174" s="10">
+        <v>5.0450200858844774E-2</v>
+      </c>
+      <c r="AT174" s="10">
+        <v>7.5933362419752681E-2</v>
+      </c>
       <c r="AU174" s="10"/>
       <c r="AV174" s="10"/>
       <c r="AW174" s="10"/>
@@ -38103,8 +38747,12 @@
       <c r="AR175" s="10">
         <v>7.4593612627357642E-2</v>
       </c>
-      <c r="AS175" s="10"/>
-      <c r="AT175" s="10"/>
+      <c r="AS175" s="10">
+        <v>0.10604281767955803</v>
+      </c>
+      <c r="AT175" s="10">
+        <v>0.12583255685543704</v>
+      </c>
       <c r="AU175" s="10"/>
       <c r="AV175" s="10"/>
       <c r="AW175" s="10"/>
@@ -38328,8 +38976,12 @@
       <c r="AR176" s="10">
         <v>9.2343986968488556E-2</v>
       </c>
-      <c r="AS176" s="10"/>
-      <c r="AT176" s="10"/>
+      <c r="AS176" s="10">
+        <v>0.13560274233479341</v>
+      </c>
+      <c r="AT176" s="10">
+        <v>0.10178168178512648</v>
+      </c>
       <c r="AU176" s="10"/>
       <c r="AV176" s="10"/>
       <c r="AW176" s="10"/>
@@ -38553,8 +39205,12 @@
       <c r="AR177" s="10">
         <v>2.4293725691199031E-2</v>
       </c>
-      <c r="AS177" s="10"/>
-      <c r="AT177" s="10"/>
+      <c r="AS177" s="10">
+        <v>2.2762502445558219E-2</v>
+      </c>
+      <c r="AT177" s="10">
+        <v>2.2762502445558219E-2</v>
+      </c>
       <c r="AU177" s="10"/>
       <c r="AV177" s="10"/>
       <c r="AW177" s="10"/>
@@ -38778,8 +39434,12 @@
       <c r="AR178" s="10">
         <v>0.10935804815690098</v>
       </c>
-      <c r="AS178" s="10"/>
-      <c r="AT178" s="10"/>
+      <c r="AS178" s="10">
+        <v>0.12421027536059115</v>
+      </c>
+      <c r="AT178" s="10">
+        <v>0.12154814219516785</v>
+      </c>
       <c r="AU178" s="10"/>
       <c r="AV178" s="10"/>
       <c r="AW178" s="10"/>
@@ -39003,8 +39663,12 @@
       <c r="AR179" s="10">
         <v>6.9498858222621029E-2</v>
       </c>
-      <c r="AS179" s="10"/>
-      <c r="AT179" s="10"/>
+      <c r="AS179" s="10">
+        <v>5.6759635660094565E-2</v>
+      </c>
+      <c r="AT179" s="10">
+        <v>7.4235302624918731E-2</v>
+      </c>
       <c r="AU179" s="10"/>
       <c r="AV179" s="10"/>
       <c r="AW179" s="10"/>
@@ -39228,8 +39892,12 @@
       <c r="AR180" s="10">
         <v>0.13437503162539333</v>
       </c>
-      <c r="AS180" s="10"/>
-      <c r="AT180" s="10"/>
+      <c r="AS180" s="10">
+        <v>0.1603660099785047</v>
+      </c>
+      <c r="AT180" s="10">
+        <v>0.11844440249197663</v>
+      </c>
       <c r="AU180" s="10"/>
       <c r="AV180" s="10"/>
       <c r="AW180" s="10"/>
@@ -39453,8 +40121,12 @@
       <c r="AR181" s="10">
         <v>8.9724411977938345E-2</v>
       </c>
-      <c r="AS181" s="10"/>
-      <c r="AT181" s="10"/>
+      <c r="AS181" s="10">
+        <v>4.5933641565251149E-2</v>
+      </c>
+      <c r="AT181" s="10">
+        <v>9.6356857284039199E-2</v>
+      </c>
       <c r="AU181" s="10"/>
       <c r="AV181" s="10"/>
       <c r="AW181" s="10"/>
@@ -39678,8 +40350,12 @@
       <c r="AR182" s="10">
         <v>0.21724760639204055</v>
       </c>
-      <c r="AS182" s="10"/>
-      <c r="AT182" s="10"/>
+      <c r="AS182" s="10">
+        <v>0.20189855483139696</v>
+      </c>
+      <c r="AT182" s="10">
+        <v>0.24313406692870498</v>
+      </c>
       <c r="AU182" s="10"/>
       <c r="AV182" s="10"/>
       <c r="AW182" s="10"/>
@@ -39903,8 +40579,12 @@
       <c r="AR183" s="10">
         <v>0.10011144275505202</v>
       </c>
-      <c r="AS183" s="10"/>
-      <c r="AT183" s="10"/>
+      <c r="AS183" s="10">
+        <v>0.10593334306726399</v>
+      </c>
+      <c r="AT183" s="10">
+        <v>0.10733814271929409</v>
+      </c>
       <c r="AU183" s="10"/>
       <c r="AV183" s="10"/>
       <c r="AW183" s="10"/>
@@ -40128,8 +40808,12 @@
       <c r="AR184" s="10">
         <v>0.10407667486284322</v>
       </c>
-      <c r="AS184" s="10"/>
-      <c r="AT184" s="10"/>
+      <c r="AS184" s="10">
+        <v>0.12194790692059265</v>
+      </c>
+      <c r="AT184" s="10">
+        <v>0.13316311798051639</v>
+      </c>
       <c r="AU184" s="10"/>
       <c r="AV184" s="10"/>
       <c r="AW184" s="10"/>
@@ -40353,8 +41037,12 @@
       <c r="AR185" s="10">
         <v>-4.496182674218363E-2</v>
       </c>
-      <c r="AS185" s="10"/>
-      <c r="AT185" s="10"/>
+      <c r="AS185" s="10">
+        <v>-4.5881989249992539E-2</v>
+      </c>
+      <c r="AT185" s="10">
+        <v>-5.0232098765432109E-2</v>
+      </c>
       <c r="AU185" s="10"/>
       <c r="AV185" s="10"/>
       <c r="AW185" s="10"/>
@@ -40578,8 +41266,12 @@
       <c r="AR186" s="10">
         <v>0.15819480215406223</v>
       </c>
-      <c r="AS186" s="10"/>
-      <c r="AT186" s="10"/>
+      <c r="AS186" s="10">
+        <v>0.19636312868660788</v>
+      </c>
+      <c r="AT186" s="10">
+        <v>0.23862497840732422</v>
+      </c>
       <c r="AU186" s="10"/>
       <c r="AV186" s="10"/>
       <c r="AW186" s="10"/>
@@ -40803,8 +41495,12 @@
       <c r="AR187" s="10">
         <v>1.7521239380309916E-2</v>
       </c>
-      <c r="AS187" s="10"/>
-      <c r="AT187" s="10"/>
+      <c r="AS187" s="10">
+        <v>6.0887502094153056E-2</v>
+      </c>
+      <c r="AT187" s="10">
+        <v>4.7813636873159204E-2</v>
+      </c>
       <c r="AU187" s="10"/>
       <c r="AV187" s="10"/>
       <c r="AW187" s="10"/>
@@ -41028,8 +41724,12 @@
       <c r="AR188" s="10">
         <v>-0.17601598639831306</v>
       </c>
-      <c r="AS188" s="10"/>
-      <c r="AT188" s="10"/>
+      <c r="AS188" s="10">
+        <v>-9.9792629664384513E-2</v>
+      </c>
+      <c r="AT188" s="10">
+        <v>-4.8276028997083387E-2</v>
+      </c>
       <c r="AU188" s="10"/>
       <c r="AV188" s="10"/>
       <c r="AW188" s="10"/>
@@ -41253,8 +41953,12 @@
       <c r="AR189" s="10">
         <v>2.0988088435673014E-2</v>
       </c>
-      <c r="AS189" s="10"/>
-      <c r="AT189" s="10"/>
+      <c r="AS189" s="10">
+        <v>6.7770858991033744E-2</v>
+      </c>
+      <c r="AT189" s="10">
+        <v>9.8575292636291501E-2</v>
+      </c>
       <c r="AU189" s="10"/>
       <c r="AV189" s="10"/>
       <c r="AW189" s="10"/>
@@ -41478,8 +42182,12 @@
       <c r="AR190" s="10">
         <v>7.048256668256081E-2</v>
       </c>
-      <c r="AS190" s="10"/>
-      <c r="AT190" s="10"/>
+      <c r="AS190" s="10">
+        <v>9.5149042858170496E-2</v>
+      </c>
+      <c r="AT190" s="10">
+        <v>9.7794948353776778E-2</v>
+      </c>
       <c r="AU190" s="10"/>
       <c r="AV190" s="10"/>
       <c r="AW190" s="10"/>
@@ -41703,8 +42411,12 @@
       <c r="AR191" s="10">
         <v>0.1724309171005205</v>
       </c>
-      <c r="AS191" s="10"/>
-      <c r="AT191" s="10"/>
+      <c r="AS191" s="10">
+        <v>0.22203574306865304</v>
+      </c>
+      <c r="AT191" s="10">
+        <v>0.23369393622147983</v>
+      </c>
       <c r="AU191" s="10"/>
       <c r="AV191" s="10"/>
       <c r="AW191" s="10"/>
@@ -41928,8 +42640,12 @@
       <c r="AR192" s="10">
         <v>0.1817558936244339</v>
       </c>
-      <c r="AS192" s="10"/>
-      <c r="AT192" s="10"/>
+      <c r="AS192" s="10">
+        <v>0.15048191643662556</v>
+      </c>
+      <c r="AT192" s="10">
+        <v>0.1008621518541073</v>
+      </c>
       <c r="AU192" s="10"/>
       <c r="AV192" s="10"/>
       <c r="AW192" s="10"/>
@@ -42153,8 +42869,12 @@
       <c r="AR193" s="10">
         <v>-8.6239241413027523E-2</v>
       </c>
-      <c r="AS193" s="10"/>
-      <c r="AT193" s="10"/>
+      <c r="AS193" s="10">
+        <v>-6.6360873803107512E-2</v>
+      </c>
+      <c r="AT193" s="10">
+        <v>-6.311707032456626E-2</v>
+      </c>
       <c r="AU193" s="10"/>
       <c r="AV193" s="10"/>
       <c r="AW193" s="10"/>
@@ -42378,8 +43098,12 @@
       <c r="AR194" s="10">
         <v>3.1329965535149329E-2</v>
       </c>
-      <c r="AS194" s="10"/>
-      <c r="AT194" s="10"/>
+      <c r="AS194" s="10">
+        <v>3.0995574625458877E-2</v>
+      </c>
+      <c r="AT194" s="10">
+        <v>5.0874200815373527E-2</v>
+      </c>
       <c r="AU194" s="10"/>
       <c r="AV194" s="10"/>
       <c r="AW194" s="10"/>
@@ -42603,8 +43327,12 @@
       <c r="AR195" s="10">
         <v>3.6833216312123884E-2</v>
       </c>
-      <c r="AS195" s="10"/>
-      <c r="AT195" s="10"/>
+      <c r="AS195" s="10">
+        <v>6.1404270510705183E-2</v>
+      </c>
+      <c r="AT195" s="10">
+        <v>-2.6888112527665431E-3</v>
+      </c>
       <c r="AU195" s="10"/>
       <c r="AV195" s="10"/>
       <c r="AW195" s="10"/>
@@ -42828,8 +43556,12 @@
       <c r="AR196" s="10">
         <v>9.1085735579866434E-2</v>
       </c>
-      <c r="AS196" s="10"/>
-      <c r="AT196" s="10"/>
+      <c r="AS196" s="10">
+        <v>3.2471034410772148E-2</v>
+      </c>
+      <c r="AT196" s="10">
+        <v>0.13556116602539614</v>
+      </c>
       <c r="AU196" s="10"/>
       <c r="AV196" s="10"/>
       <c r="AW196" s="10"/>
@@ -43053,8 +43785,12 @@
       <c r="AR197" s="10">
         <v>3.7944496991406895E-2</v>
       </c>
-      <c r="AS197" s="10"/>
-      <c r="AT197" s="10"/>
+      <c r="AS197" s="10">
+        <v>1.2222802506829389E-2</v>
+      </c>
+      <c r="AT197" s="10">
+        <v>4.0826438091461359E-3</v>
+      </c>
       <c r="AU197" s="10"/>
       <c r="AV197" s="10"/>
       <c r="AW197" s="10"/>
@@ -43278,8 +44014,12 @@
       <c r="AR198" s="10">
         <v>1.2672539690017359E-2</v>
       </c>
-      <c r="AS198" s="10"/>
-      <c r="AT198" s="10"/>
+      <c r="AS198" s="10">
+        <v>-1.4583735754297833E-2</v>
+      </c>
+      <c r="AT198" s="10">
+        <v>4.7690329690513344E-2</v>
+      </c>
       <c r="AU198" s="10"/>
       <c r="AV198" s="10"/>
       <c r="AW198" s="10"/>
@@ -43503,8 +44243,12 @@
       <c r="AR199" s="10">
         <v>0.210392521320796</v>
       </c>
-      <c r="AS199" s="10"/>
-      <c r="AT199" s="10"/>
+      <c r="AS199" s="10">
+        <v>0.18360395037633381</v>
+      </c>
+      <c r="AT199" s="10">
+        <v>0.24783376566035664</v>
+      </c>
       <c r="AU199" s="10"/>
       <c r="AV199" s="10"/>
       <c r="AW199" s="10"/>
@@ -43728,8 +44472,12 @@
       <c r="AR200" s="10">
         <v>8.9320483662483463E-2</v>
       </c>
-      <c r="AS200" s="10"/>
-      <c r="AT200" s="10"/>
+      <c r="AS200" s="10">
+        <v>0.14490470554625956</v>
+      </c>
+      <c r="AT200" s="10">
+        <v>8.9912423492642279E-2</v>
+      </c>
       <c r="AU200" s="10"/>
       <c r="AV200" s="10"/>
       <c r="AW200" s="10"/>
@@ -43953,8 +44701,12 @@
       <c r="AR201" s="10">
         <v>2.0226579520697063E-2</v>
       </c>
-      <c r="AS201" s="10"/>
-      <c r="AT201" s="10"/>
+      <c r="AS201" s="10">
+        <v>-1.6608362485423966E-2</v>
+      </c>
+      <c r="AT201" s="10">
+        <v>7.482217152060322E-3</v>
+      </c>
       <c r="AU201" s="10"/>
       <c r="AV201" s="10"/>
       <c r="AW201" s="10"/>
@@ -44178,8 +44930,12 @@
       <c r="AR202" s="10">
         <v>0.11929270326005881</v>
       </c>
-      <c r="AS202" s="10"/>
-      <c r="AT202" s="10"/>
+      <c r="AS202" s="10">
+        <v>8.9768298428198223E-2</v>
+      </c>
+      <c r="AT202" s="10">
+        <v>-1.917053411830294E-2</v>
+      </c>
       <c r="AU202" s="10"/>
       <c r="AV202" s="10"/>
       <c r="AW202" s="10"/>
@@ -44403,8 +45159,12 @@
       <c r="AR203" s="10">
         <v>1.590387613192501E-2</v>
       </c>
-      <c r="AS203" s="10"/>
-      <c r="AT203" s="10"/>
+      <c r="AS203" s="10">
+        <v>-2.5147114491207545E-2</v>
+      </c>
+      <c r="AT203" s="10">
+        <v>9.1041514930800815E-4</v>
+      </c>
       <c r="AU203" s="10"/>
       <c r="AV203" s="10"/>
       <c r="AW203" s="10"/>
@@ -44628,8 +45388,12 @@
       <c r="AR204" s="10">
         <v>6.9880190439650436E-2</v>
       </c>
-      <c r="AS204" s="10"/>
-      <c r="AT204" s="10"/>
+      <c r="AS204" s="10">
+        <v>1.3353932484506226E-2</v>
+      </c>
+      <c r="AT204" s="10">
+        <v>1.1587952736580087E-2</v>
+      </c>
       <c r="AU204" s="10"/>
       <c r="AV204" s="10"/>
       <c r="AW204" s="10"/>
@@ -44853,8 +45617,12 @@
       <c r="AR205" s="10">
         <v>-4.2650093100498165E-2</v>
       </c>
-      <c r="AS205" s="10"/>
-      <c r="AT205" s="10"/>
+      <c r="AS205" s="10">
+        <v>1.5784262333275123E-2</v>
+      </c>
+      <c r="AT205" s="10">
+        <v>0.12529170497136</v>
+      </c>
       <c r="AU205" s="10"/>
       <c r="AV205" s="10"/>
       <c r="AW205" s="10"/>
@@ -45078,8 +45846,12 @@
       <c r="AR206" s="10">
         <v>0.18283259149357067</v>
       </c>
-      <c r="AS206" s="10"/>
-      <c r="AT206" s="10"/>
+      <c r="AS206" s="10">
+        <v>0.18651340184341558</v>
+      </c>
+      <c r="AT206" s="10">
+        <v>0.26137627801027707</v>
+      </c>
       <c r="AU206" s="10"/>
       <c r="AV206" s="10"/>
       <c r="AW206" s="10"/>
@@ -45303,8 +46075,12 @@
       <c r="AR207" s="10">
         <v>0.15126591187885863</v>
       </c>
-      <c r="AS207" s="10"/>
-      <c r="AT207" s="10"/>
+      <c r="AS207" s="10">
+        <v>0.17700479965485627</v>
+      </c>
+      <c r="AT207" s="10">
+        <v>9.362743592106737E-2</v>
+      </c>
       <c r="AU207" s="10"/>
       <c r="AV207" s="10"/>
       <c r="AW207" s="10"/>
@@ -45528,8 +46304,12 @@
       <c r="AR208" s="10">
         <v>0.14236111111111116</v>
       </c>
-      <c r="AS208" s="10"/>
-      <c r="AT208" s="10"/>
+      <c r="AS208" s="10">
+        <v>0.1301017472919439</v>
+      </c>
+      <c r="AT208" s="10">
+        <v>0.13365176640230714</v>
+      </c>
       <c r="AU208" s="10"/>
       <c r="AV208" s="10"/>
       <c r="AW208" s="10"/>
@@ -45753,8 +46533,12 @@
       <c r="AR209" s="10">
         <v>9.1847897074190277E-2</v>
       </c>
-      <c r="AS209" s="10"/>
-      <c r="AT209" s="10"/>
+      <c r="AS209" s="10">
+        <v>9.3743142975562632E-2</v>
+      </c>
+      <c r="AT209" s="10">
+        <v>0.10166585799773564</v>
+      </c>
       <c r="AU209" s="10"/>
       <c r="AV209" s="10"/>
       <c r="AW209" s="10"/>
@@ -45978,8 +46762,12 @@
       <c r="AR210" s="10">
         <v>5.5631201886708448E-2</v>
       </c>
-      <c r="AS210" s="10"/>
-      <c r="AT210" s="10"/>
+      <c r="AS210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
+      <c r="AT210" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
       <c r="AU210" s="10"/>
       <c r="AV210" s="10"/>
       <c r="AW210" s="10"/>
@@ -46203,8 +46991,12 @@
       <c r="AR211" s="10">
         <v>8.9082049863198787E-2</v>
       </c>
-      <c r="AS211" s="10"/>
-      <c r="AT211" s="10"/>
+      <c r="AS211" s="10">
+        <v>8.8421214332347731E-2</v>
+      </c>
+      <c r="AT211" s="10">
+        <v>8.721287311141146E-2</v>
+      </c>
       <c r="AU211" s="10"/>
       <c r="AV211" s="10"/>
       <c r="AW211" s="10"/>
@@ -46428,8 +47220,12 @@
       <c r="AR212" s="10">
         <v>0.24780379512659234</v>
       </c>
-      <c r="AS212" s="10"/>
-      <c r="AT212" s="10"/>
+      <c r="AS212" s="10">
+        <v>0.24780379512659234</v>
+      </c>
+      <c r="AT212" s="10">
+        <v>0.24780379512659234</v>
+      </c>
       <c r="AU212" s="10"/>
       <c r="AV212" s="10"/>
       <c r="AW212" s="10"/>
@@ -46653,8 +47449,12 @@
       <c r="AR213" s="10">
         <v>1.9809704583658494E-2</v>
       </c>
-      <c r="AS213" s="10"/>
-      <c r="AT213" s="10"/>
+      <c r="AS213" s="10">
+        <v>0.16121222845101468</v>
+      </c>
+      <c r="AT213" s="10">
+        <v>0.16121222845101468</v>
+      </c>
       <c r="AU213" s="10"/>
       <c r="AV213" s="10"/>
       <c r="AW213" s="10"/>
@@ -46878,8 +47678,12 @@
       <c r="AR214" s="10">
         <v>4.667296506242824E-2</v>
       </c>
-      <c r="AS214" s="10"/>
-      <c r="AT214" s="10"/>
+      <c r="AS214" s="10">
+        <v>4.3626928601213866E-2</v>
+      </c>
+      <c r="AT214" s="10">
+        <v>3.5589403731029146E-2</v>
+      </c>
       <c r="AU214" s="10"/>
       <c r="AV214" s="10"/>
       <c r="AW214" s="10"/>
@@ -47103,8 +47907,12 @@
       <c r="AR215" s="10">
         <v>4.4724893292236167E-4</v>
       </c>
-      <c r="AS215" s="10"/>
-      <c r="AT215" s="10"/>
+      <c r="AS215" s="10">
+        <v>-2.8857747119166444E-3</v>
+      </c>
+      <c r="AT215" s="10">
+        <v>-7.6869874518327164E-3</v>
+      </c>
       <c r="AU215" s="10"/>
       <c r="AV215" s="10"/>
       <c r="AW215" s="10"/>
@@ -47328,8 +48136,12 @@
       <c r="AR216" s="10">
         <v>9.3849574986281992E-2</v>
       </c>
-      <c r="AS216" s="10"/>
-      <c r="AT216" s="10"/>
+      <c r="AS216" s="10">
+        <v>6.1299210759818923E-2</v>
+      </c>
+      <c r="AT216" s="10">
+        <v>3.0630107663422557E-2</v>
+      </c>
       <c r="AU216" s="10"/>
       <c r="AV216" s="10"/>
       <c r="AW216" s="10"/>
@@ -47553,8 +48365,12 @@
       <c r="AR217" s="10">
         <v>0.13999707329565214</v>
       </c>
-      <c r="AS217" s="10"/>
-      <c r="AT217" s="10"/>
+      <c r="AS217" s="10">
+        <v>0.16105382259058576</v>
+      </c>
+      <c r="AT217" s="10">
+        <v>0.16105382259058576</v>
+      </c>
       <c r="AU217" s="10"/>
       <c r="AV217" s="10"/>
       <c r="AW217" s="10"/>
@@ -47778,8 +48594,12 @@
       <c r="AR218" s="10">
         <v>6.3881117983728197E-2</v>
       </c>
-      <c r="AS218" s="10"/>
-      <c r="AT218" s="10"/>
+      <c r="AS218" s="10">
+        <v>4.4429140140762158E-2</v>
+      </c>
+      <c r="AT218" s="10">
+        <v>5.0969786604690315E-2</v>
+      </c>
       <c r="AU218" s="10"/>
       <c r="AV218" s="10"/>
       <c r="AW218" s="10"/>
@@ -48003,8 +48823,12 @@
       <c r="AR219" s="10">
         <v>8.1682387927435096E-2</v>
       </c>
-      <c r="AS219" s="10"/>
-      <c r="AT219" s="10"/>
+      <c r="AS219" s="10">
+        <v>9.87695778334583E-2</v>
+      </c>
+      <c r="AT219" s="10">
+        <v>0.1132458161794534</v>
+      </c>
       <c r="AU219" s="10"/>
       <c r="AV219" s="10"/>
       <c r="AW219" s="10"/>
@@ -48228,8 +49052,12 @@
       <c r="AR220" s="10">
         <v>0.11308673188963403</v>
       </c>
-      <c r="AS220" s="10"/>
-      <c r="AT220" s="10"/>
+      <c r="AS220" s="10">
+        <v>0.19160561281510002</v>
+      </c>
+      <c r="AT220" s="10">
+        <v>0.1834557504578842</v>
+      </c>
       <c r="AU220" s="10"/>
       <c r="AV220" s="10"/>
       <c r="AW220" s="10"/>
@@ -48453,8 +49281,12 @@
       <c r="AR221" s="10">
         <v>0.10863840897727917</v>
       </c>
-      <c r="AS221" s="10"/>
-      <c r="AT221" s="10"/>
+      <c r="AS221" s="10">
+        <v>0.16072253065912889</v>
+      </c>
+      <c r="AT221" s="10">
+        <v>0.10604544035818453</v>
+      </c>
       <c r="AU221" s="10"/>
       <c r="AV221" s="10"/>
       <c r="AW221" s="10"/>
@@ -48678,8 +49510,12 @@
       <c r="AR222" s="10">
         <v>8.0042471117691694E-2</v>
       </c>
-      <c r="AS222" s="10"/>
-      <c r="AT222" s="10"/>
+      <c r="AS222" s="10">
+        <v>0.10087871717221852</v>
+      </c>
+      <c r="AT222" s="10">
+        <v>4.9417374918278689E-2</v>
+      </c>
       <c r="AU222" s="10"/>
       <c r="AV222" s="10"/>
       <c r="AW222" s="10"/>
@@ -48903,8 +49739,12 @@
       <c r="AR223" s="10">
         <v>2.1913174215373088E-2</v>
       </c>
-      <c r="AS223" s="10"/>
-      <c r="AT223" s="10"/>
+      <c r="AS223" s="10">
+        <v>6.7203802027253623E-3</v>
+      </c>
+      <c r="AT223" s="10">
+        <v>1.0626403378271032E-3</v>
+      </c>
       <c r="AU223" s="10"/>
       <c r="AV223" s="10"/>
       <c r="AW223" s="10"/>
@@ -49128,8 +49968,12 @@
       <c r="AR224" s="10">
         <v>-2.8711771241447859E-2</v>
       </c>
-      <c r="AS224" s="10"/>
-      <c r="AT224" s="10"/>
+      <c r="AS224" s="10">
+        <v>-1.3329404253229371E-2</v>
+      </c>
+      <c r="AT224" s="10">
+        <v>-3.5632627609347711E-3</v>
+      </c>
       <c r="AU224" s="10"/>
       <c r="AV224" s="10"/>
       <c r="AW224" s="10"/>
@@ -49353,8 +50197,12 @@
       <c r="AR225" s="10">
         <v>0.1792104926968443</v>
       </c>
-      <c r="AS225" s="10"/>
-      <c r="AT225" s="10"/>
+      <c r="AS225" s="10">
+        <v>0.12420705404719601</v>
+      </c>
+      <c r="AT225" s="10">
+        <v>0.13785934950595902</v>
+      </c>
       <c r="AU225" s="10"/>
       <c r="AV225" s="10"/>
       <c r="AW225" s="10"/>
@@ -49578,8 +50426,12 @@
       <c r="AR226" s="10">
         <v>-4.4876809753619518E-2</v>
       </c>
-      <c r="AS226" s="10"/>
-      <c r="AT226" s="10"/>
+      <c r="AS226" s="10">
+        <v>-2.6992403695066947E-2</v>
+      </c>
+      <c r="AT226" s="10">
+        <v>-1.2304883252457488E-3</v>
+      </c>
       <c r="AU226" s="10"/>
       <c r="AV226" s="10"/>
       <c r="AW226" s="10"/>
@@ -49803,8 +50655,12 @@
       <c r="AR227" s="10">
         <v>2.2807200807827499E-2</v>
       </c>
-      <c r="AS227" s="10"/>
-      <c r="AT227" s="10"/>
+      <c r="AS227" s="10">
+        <v>1.7306072440462339E-2</v>
+      </c>
+      <c r="AT227" s="10">
+        <v>3.3406748455701463E-2</v>
+      </c>
       <c r="AU227" s="10"/>
       <c r="AV227" s="10"/>
       <c r="AW227" s="10"/>
@@ -50028,8 +50884,12 @@
       <c r="AR228" s="10">
         <v>9.8689538073055028E-2</v>
       </c>
-      <c r="AS228" s="10"/>
-      <c r="AT228" s="10"/>
+      <c r="AS228" s="10">
+        <v>0.10207457320205093</v>
+      </c>
+      <c r="AT228" s="10">
+        <v>9.3843115820653411E-2</v>
+      </c>
       <c r="AU228" s="10"/>
       <c r="AV228" s="10"/>
       <c r="AW228" s="10"/>
@@ -50253,8 +51113,12 @@
       <c r="AR229" s="10">
         <v>2.3074656869541021E-2</v>
       </c>
-      <c r="AS229" s="10"/>
-      <c r="AT229" s="10"/>
+      <c r="AS229" s="10">
+        <v>1.8213642035214139E-2</v>
+      </c>
+      <c r="AT229" s="10">
+        <v>2.4539026757243843E-2</v>
+      </c>
       <c r="AU229" s="10"/>
       <c r="AV229" s="10"/>
       <c r="AW229" s="10"/>
@@ -50478,8 +51342,12 @@
       <c r="AR230" s="10">
         <v>2.9304559391478024E-2</v>
       </c>
-      <c r="AS230" s="10"/>
-      <c r="AT230" s="10"/>
+      <c r="AS230" s="10">
+        <v>3.7841146395909853E-2</v>
+      </c>
+      <c r="AT230" s="10">
+        <v>5.8276631745688867E-2</v>
+      </c>
       <c r="AU230" s="10"/>
       <c r="AV230" s="10"/>
       <c r="AW230" s="10"/>
@@ -50703,8 +51571,12 @@
       <c r="AR231" s="10">
         <v>0.13619634297540828</v>
       </c>
-      <c r="AS231" s="10"/>
-      <c r="AT231" s="10"/>
+      <c r="AS231" s="10">
+        <v>0.11523413091335577</v>
+      </c>
+      <c r="AT231" s="10">
+        <v>9.078461283978756E-2</v>
+      </c>
       <c r="AU231" s="10"/>
       <c r="AV231" s="10"/>
       <c r="AW231" s="10"/>
@@ -50928,8 +51800,12 @@
       <c r="AR232" s="10">
         <v>6.177271601881662E-2</v>
       </c>
-      <c r="AS232" s="10"/>
-      <c r="AT232" s="10"/>
+      <c r="AS232" s="10">
+        <v>9.1050895332047466E-2</v>
+      </c>
+      <c r="AT232" s="10">
+        <v>0.11445444926691284</v>
+      </c>
       <c r="AU232" s="10"/>
       <c r="AV232" s="10"/>
       <c r="AW232" s="10"/>
@@ -51153,8 +52029,12 @@
       <c r="AR233" s="10">
         <v>3.6865164752547086E-2</v>
       </c>
-      <c r="AS233" s="10"/>
-      <c r="AT233" s="10"/>
+      <c r="AS233" s="10">
+        <v>3.3254320561996398E-2</v>
+      </c>
+      <c r="AT233" s="10">
+        <v>3.2071150600957443E-2</v>
+      </c>
       <c r="AU233" s="10"/>
       <c r="AV233" s="10"/>
       <c r="AW233" s="10"/>
@@ -51378,8 +52258,12 @@
       <c r="AR234" s="10">
         <v>-7.9918158209972834E-3</v>
       </c>
-      <c r="AS234" s="10"/>
-      <c r="AT234" s="10"/>
+      <c r="AS234" s="10">
+        <v>8.1710188824595242E-2</v>
+      </c>
+      <c r="AT234" s="10">
+        <v>5.9965521124808241E-2</v>
+      </c>
       <c r="AU234" s="10"/>
       <c r="AV234" s="10"/>
       <c r="AW234" s="10"/>
@@ -51603,8 +52487,12 @@
       <c r="AR235" s="10">
         <v>1.7825601095850852E-2</v>
       </c>
-      <c r="AS235" s="10"/>
-      <c r="AT235" s="10"/>
+      <c r="AS235" s="10">
+        <v>2.8883241411628902E-2</v>
+      </c>
+      <c r="AT235" s="10">
+        <v>4.3580183106910697E-2</v>
+      </c>
       <c r="AU235" s="10"/>
       <c r="AV235" s="10"/>
       <c r="AW235" s="10"/>
@@ -51828,8 +52716,12 @@
       <c r="AR236" s="10">
         <v>0.17671261535600569</v>
       </c>
-      <c r="AS236" s="10"/>
-      <c r="AT236" s="10"/>
+      <c r="AS236" s="10">
+        <v>0.1601384881708019</v>
+      </c>
+      <c r="AT236" s="10">
+        <v>0.16384512432787823</v>
+      </c>
       <c r="AU236" s="10"/>
       <c r="AV236" s="10"/>
       <c r="AW236" s="10"/>
@@ -52053,8 +52945,12 @@
       <c r="AR237" s="10">
         <v>8.722933927452492E-2</v>
       </c>
-      <c r="AS237" s="10"/>
-      <c r="AT237" s="10"/>
+      <c r="AS237" s="10">
+        <v>9.2178990022221186E-2</v>
+      </c>
+      <c r="AT237" s="10">
+        <v>7.8705947670370868E-2</v>
+      </c>
       <c r="AU237" s="10"/>
       <c r="AV237" s="10"/>
       <c r="AW237" s="10"/>
@@ -52278,8 +53174,12 @@
       <c r="AR238" s="10">
         <v>3.7894836391148212E-2</v>
       </c>
-      <c r="AS238" s="10"/>
-      <c r="AT238" s="10"/>
+      <c r="AS238" s="10">
+        <v>4.4096526701689509E-2</v>
+      </c>
+      <c r="AT238" s="10">
+        <v>3.314323111443529E-2</v>
+      </c>
       <c r="AU238" s="10"/>
       <c r="AV238" s="10"/>
       <c r="AW238" s="10"/>
@@ -52503,8 +53403,12 @@
       <c r="AR239" s="10">
         <v>4.306809223055863E-2</v>
       </c>
-      <c r="AS239" s="10"/>
-      <c r="AT239" s="10"/>
+      <c r="AS239" s="10">
+        <v>4.2590519179398489E-2</v>
+      </c>
+      <c r="AT239" s="10">
+        <v>3.9527216610549809E-2</v>
+      </c>
       <c r="AU239" s="10"/>
       <c r="AV239" s="10"/>
       <c r="AW239" s="10"/>
@@ -52728,8 +53632,12 @@
       <c r="AR240" s="10">
         <v>5.9344976885561618E-2</v>
       </c>
-      <c r="AS240" s="10"/>
-      <c r="AT240" s="10"/>
+      <c r="AS240" s="10">
+        <v>3.9276236429433009E-3</v>
+      </c>
+      <c r="AT240" s="10">
+        <v>5.5184058791361679E-2</v>
+      </c>
       <c r="AU240" s="10"/>
       <c r="AV240" s="10"/>
       <c r="AW240" s="10"/>
@@ -52953,8 +53861,12 @@
       <c r="AR241" s="10">
         <v>4.6894293732460124E-2</v>
       </c>
-      <c r="AS241" s="10"/>
-      <c r="AT241" s="10"/>
+      <c r="AS241" s="10">
+        <v>5.3220139969620384E-2</v>
+      </c>
+      <c r="AT241" s="10">
+        <v>5.7164498723547563E-2</v>
+      </c>
       <c r="AU241" s="10"/>
       <c r="AV241" s="10"/>
       <c r="AW241" s="10"/>
@@ -53178,8 +54090,12 @@
       <c r="AR242" s="10">
         <v>2.3458222811671092E-2</v>
       </c>
-      <c r="AS242" s="10"/>
-      <c r="AT242" s="10"/>
+      <c r="AS242" s="10">
+        <v>3.5252762583060981E-2</v>
+      </c>
+      <c r="AT242" s="10">
+        <v>1.5551801287612355E-2</v>
+      </c>
       <c r="AU242" s="10"/>
       <c r="AV242" s="10"/>
       <c r="AW242" s="10"/>
@@ -53403,8 +54319,12 @@
       <c r="AR243" s="10">
         <v>4.5994204861895094E-2</v>
       </c>
-      <c r="AS243" s="10"/>
-      <c r="AT243" s="10"/>
+      <c r="AS243" s="10">
+        <v>5.2767257864936967E-2</v>
+      </c>
+      <c r="AT243" s="10">
+        <v>2.6652510571308241E-2</v>
+      </c>
       <c r="AU243" s="10"/>
       <c r="AV243" s="10"/>
       <c r="AW243" s="10"/>
@@ -53628,8 +54548,12 @@
       <c r="AR244" s="10">
         <v>0.21576860679986476</v>
       </c>
-      <c r="AS244" s="10"/>
-      <c r="AT244" s="10"/>
+      <c r="AS244" s="10">
+        <v>0.18048666476225117</v>
+      </c>
+      <c r="AT244" s="10">
+        <v>0.18020100241514525</v>
+      </c>
       <c r="AU244" s="10"/>
       <c r="AV244" s="10"/>
       <c r="AW244" s="10"/>
@@ -53853,8 +54777,12 @@
       <c r="AR245" s="10">
         <v>0.13446032659202545</v>
       </c>
-      <c r="AS245" s="10"/>
-      <c r="AT245" s="10"/>
+      <c r="AS245" s="10">
+        <v>0.10382095880175846</v>
+      </c>
+      <c r="AT245" s="10">
+        <v>0.10619248943048998</v>
+      </c>
       <c r="AU245" s="10"/>
       <c r="AV245" s="10"/>
       <c r="AW245" s="10"/>
@@ -54078,8 +55006,12 @@
       <c r="AR246" s="10">
         <v>0.20580395223201586</v>
       </c>
-      <c r="AS246" s="10"/>
-      <c r="AT246" s="10"/>
+      <c r="AS246" s="10">
+        <v>0.26345341043733539</v>
+      </c>
+      <c r="AT246" s="10">
+        <v>0.19814637535051971</v>
+      </c>
       <c r="AU246" s="10"/>
       <c r="AV246" s="10"/>
       <c r="AW246" s="10"/>
@@ -54303,8 +55235,12 @@
       <c r="AR247" s="10">
         <v>7.3360303816293992E-2</v>
       </c>
-      <c r="AS247" s="10"/>
-      <c r="AT247" s="10"/>
+      <c r="AS247" s="10">
+        <v>9.1092085133793299E-2</v>
+      </c>
+      <c r="AT247" s="10">
+        <v>0.18484256751284578</v>
+      </c>
       <c r="AU247" s="10"/>
       <c r="AV247" s="10"/>
       <c r="AW247" s="10"/>
@@ -54528,8 +55464,12 @@
       <c r="AR248" s="10">
         <v>5.0130494328020081E-3</v>
       </c>
-      <c r="AS248" s="10"/>
-      <c r="AT248" s="10"/>
+      <c r="AS248" s="10">
+        <v>-3.0672905030322162E-2</v>
+      </c>
+      <c r="AT248" s="10">
+        <v>-5.716550171580792E-3</v>
+      </c>
       <c r="AU248" s="10"/>
       <c r="AV248" s="10"/>
       <c r="AW248" s="10"/>
@@ -54753,8 +55693,12 @@
       <c r="AR249" s="10">
         <v>6.1230262067082153E-2</v>
       </c>
-      <c r="AS249" s="10"/>
-      <c r="AT249" s="10"/>
+      <c r="AS249" s="10">
+        <v>0.15371711861871495</v>
+      </c>
+      <c r="AT249" s="10">
+        <v>0.11221015407931301</v>
+      </c>
       <c r="AU249" s="10"/>
       <c r="AV249" s="10"/>
       <c r="AW249" s="10"/>
@@ -54978,8 +55922,12 @@
       <c r="AR250" s="10">
         <v>0.15343344453133501</v>
       </c>
-      <c r="AS250" s="10"/>
-      <c r="AT250" s="10"/>
+      <c r="AS250" s="10">
+        <v>6.2251693760436044E-2</v>
+      </c>
+      <c r="AT250" s="10">
+        <v>0.1216184181830251</v>
+      </c>
       <c r="AU250" s="10"/>
       <c r="AV250" s="10"/>
       <c r="AW250" s="10"/>
@@ -55203,8 +56151,12 @@
       <c r="AR251" s="10">
         <v>0.10455503838962477</v>
       </c>
-      <c r="AS251" s="10"/>
-      <c r="AT251" s="10"/>
+      <c r="AS251" s="10">
+        <v>0.12165281804544015</v>
+      </c>
+      <c r="AT251" s="10">
+        <v>0.16149409072384713</v>
+      </c>
       <c r="AU251" s="10"/>
       <c r="AV251" s="10"/>
       <c r="AW251" s="10"/>
@@ -55428,8 +56380,12 @@
       <c r="AR252" s="10">
         <v>0.19938535946395275</v>
       </c>
-      <c r="AS252" s="10"/>
-      <c r="AT252" s="10"/>
+      <c r="AS252" s="10">
+        <v>0.17468197025471999</v>
+      </c>
+      <c r="AT252" s="10">
+        <v>0.1196200483505605</v>
+      </c>
       <c r="AU252" s="10"/>
       <c r="AV252" s="10"/>
       <c r="AW252" s="10"/>
@@ -55653,8 +56609,12 @@
       <c r="AR253" s="10">
         <v>0.18462341683844774</v>
       </c>
-      <c r="AS253" s="10"/>
-      <c r="AT253" s="10"/>
+      <c r="AS253" s="10">
+        <v>0.18810373414071502</v>
+      </c>
+      <c r="AT253" s="10">
+        <v>0.16313927588767085</v>
+      </c>
       <c r="AU253" s="10"/>
       <c r="AV253" s="10"/>
       <c r="AW253" s="10"/>
@@ -55878,8 +56838,12 @@
       <c r="AR254" s="10">
         <v>8.2453559106201002E-2</v>
       </c>
-      <c r="AS254" s="10"/>
-      <c r="AT254" s="10"/>
+      <c r="AS254" s="10">
+        <v>8.2437399395728805E-2</v>
+      </c>
+      <c r="AT254" s="10">
+        <v>8.992451310524463E-2</v>
+      </c>
       <c r="AU254" s="10"/>
       <c r="AV254" s="10"/>
       <c r="AW254" s="10"/>
@@ -56103,8 +57067,12 @@
       <c r="AR255" s="10">
         <v>0.10488693263727167</v>
       </c>
-      <c r="AS255" s="10"/>
-      <c r="AT255" s="10"/>
+      <c r="AS255" s="10">
+        <v>9.8662234342977939E-2</v>
+      </c>
+      <c r="AT255" s="10">
+        <v>0.16366222339827341</v>
+      </c>
       <c r="AU255" s="10"/>
       <c r="AV255" s="10"/>
       <c r="AW255" s="10"/>
@@ -56328,8 +57296,12 @@
       <c r="AR256" s="10">
         <v>5.4700195554576281E-2</v>
       </c>
-      <c r="AS256" s="10"/>
-      <c r="AT256" s="10"/>
+      <c r="AS256" s="10">
+        <v>7.3901065995927606E-2</v>
+      </c>
+      <c r="AT256" s="10">
+        <v>0.1360032451967399</v>
+      </c>
       <c r="AU256" s="10"/>
       <c r="AV256" s="10"/>
       <c r="AW256" s="10"/>
@@ -56553,8 +57525,12 @@
       <c r="AR257" s="10">
         <v>2.2765742125578692E-2</v>
       </c>
-      <c r="AS257" s="10"/>
-      <c r="AT257" s="10"/>
+      <c r="AS257" s="10">
+        <v>2.2765742125578692E-2</v>
+      </c>
+      <c r="AT257" s="10">
+        <v>2.2765742125578692E-2</v>
+      </c>
       <c r="AU257" s="10"/>
       <c r="AV257" s="10"/>
       <c r="AW257" s="10"/>
@@ -56778,8 +57754,12 @@
       <c r="AR258" s="10">
         <v>4.7130150450573227E-2</v>
       </c>
-      <c r="AS258" s="10"/>
-      <c r="AT258" s="10"/>
+      <c r="AS258" s="10">
+        <v>3.5142571285642799E-2</v>
+      </c>
+      <c r="AT258" s="10">
+        <v>5.9210914889846977E-2</v>
+      </c>
       <c r="AU258" s="10"/>
       <c r="AV258" s="10"/>
       <c r="AW258" s="10"/>
@@ -57003,8 +57983,12 @@
       <c r="AR259" s="10">
         <v>9.9387861541417655E-2</v>
       </c>
-      <c r="AS259" s="10"/>
-      <c r="AT259" s="10"/>
+      <c r="AS259" s="10">
+        <v>0.10888648888150421</v>
+      </c>
+      <c r="AT259" s="10">
+        <v>7.6693155784650635E-2</v>
+      </c>
       <c r="AU259" s="10"/>
       <c r="AV259" s="10"/>
       <c r="AW259" s="10"/>
@@ -57228,8 +58212,12 @@
       <c r="AR260" s="10">
         <v>4.1771519110681776E-2</v>
       </c>
-      <c r="AS260" s="10"/>
-      <c r="AT260" s="10"/>
+      <c r="AS260" s="10">
+        <v>7.1130487887629767E-2</v>
+      </c>
+      <c r="AT260" s="10">
+        <v>2.1395419358642975E-2</v>
+      </c>
       <c r="AU260" s="10"/>
       <c r="AV260" s="10"/>
       <c r="AW260" s="10"/>
@@ -57453,8 +58441,12 @@
       <c r="AR261" s="10">
         <v>0.13357511053157012</v>
       </c>
-      <c r="AS261" s="10"/>
-      <c r="AT261" s="10"/>
+      <c r="AS261" s="10">
+        <v>0.27586285950091138</v>
+      </c>
+      <c r="AT261" s="10">
+        <v>0.27100087312163956</v>
+      </c>
       <c r="AU261" s="10"/>
       <c r="AV261" s="10"/>
       <c r="AW261" s="10"/>
@@ -57678,8 +58670,12 @@
       <c r="AR262" s="10">
         <v>1.4594718932683381E-3</v>
       </c>
-      <c r="AS262" s="10"/>
-      <c r="AT262" s="10"/>
+      <c r="AS262" s="10">
+        <v>-4.4578555622610816E-3</v>
+      </c>
+      <c r="AT262" s="10">
+        <v>7.808999496361646E-2</v>
+      </c>
       <c r="AU262" s="10"/>
       <c r="AV262" s="10"/>
       <c r="AW262" s="10"/>
@@ -57903,8 +58899,12 @@
       <c r="AR263" s="10">
         <v>5.0633585347673371E-2</v>
       </c>
-      <c r="AS263" s="10"/>
-      <c r="AT263" s="10"/>
+      <c r="AS263" s="10">
+        <v>0.14130802462573344</v>
+      </c>
+      <c r="AT263" s="10">
+        <v>5.1544754189500441E-2</v>
+      </c>
       <c r="AU263" s="10"/>
       <c r="AV263" s="10"/>
       <c r="AW263" s="10"/>
@@ -58128,8 +59128,12 @@
       <c r="AR264" s="10">
         <v>1.4218679330619599E-2</v>
       </c>
-      <c r="AS264" s="10"/>
-      <c r="AT264" s="10"/>
+      <c r="AS264" s="10">
+        <v>8.3641158294163187E-2</v>
+      </c>
+      <c r="AT264" s="10">
+        <v>0.12344920259586045</v>
+      </c>
       <c r="AU264" s="10"/>
       <c r="AV264" s="10"/>
       <c r="AW264" s="10"/>
@@ -58353,8 +59357,12 @@
       <c r="AR265" s="10">
         <v>9.8101776676257524E-2</v>
       </c>
-      <c r="AS265" s="10"/>
-      <c r="AT265" s="10"/>
+      <c r="AS265" s="10">
+        <v>5.9850009145783867E-2</v>
+      </c>
+      <c r="AT265" s="10">
+        <v>6.4337094241793569E-2</v>
+      </c>
       <c r="AU265" s="10"/>
       <c r="AV265" s="10"/>
       <c r="AW265" s="10"/>
@@ -58578,8 +59586,12 @@
       <c r="AR266" s="10">
         <v>5.0247109063864537E-2</v>
       </c>
-      <c r="AS266" s="10"/>
-      <c r="AT266" s="10"/>
+      <c r="AS266" s="10">
+        <v>4.885809302013544E-2</v>
+      </c>
+      <c r="AT266" s="10">
+        <v>-6.685084435728017E-3</v>
+      </c>
       <c r="AU266" s="10"/>
       <c r="AV266" s="10"/>
       <c r="AW266" s="10"/>
@@ -58803,8 +59815,12 @@
       <c r="AR267" s="10">
         <v>2.7137140028055118E-2</v>
       </c>
-      <c r="AS267" s="10"/>
-      <c r="AT267" s="10"/>
+      <c r="AS267" s="10">
+        <v>-1.567786120967074E-2</v>
+      </c>
+      <c r="AT267" s="10">
+        <v>-1.567786120967074E-2</v>
+      </c>
       <c r="AU267" s="10"/>
       <c r="AV267" s="10"/>
       <c r="AW267" s="10"/>
@@ -59028,8 +60044,12 @@
       <c r="AR268" s="10">
         <v>0.10984977654934758</v>
       </c>
-      <c r="AS268" s="10"/>
-      <c r="AT268" s="10"/>
+      <c r="AS268" s="10">
+        <v>0.14623940829417537</v>
+      </c>
+      <c r="AT268" s="10">
+        <v>5.4857173664962344E-2</v>
+      </c>
       <c r="AU268" s="10"/>
       <c r="AV268" s="10"/>
       <c r="AW268" s="10"/>
@@ -59253,8 +60273,12 @@
       <c r="AR269" s="10">
         <v>1.5117991196920144E-3</v>
       </c>
-      <c r="AS269" s="10"/>
-      <c r="AT269" s="10"/>
+      <c r="AS269" s="10">
+        <v>2.2834465870347209E-3</v>
+      </c>
+      <c r="AT269" s="10">
+        <v>2.6986083915520487E-2</v>
+      </c>
       <c r="AU269" s="10"/>
       <c r="AV269" s="10"/>
       <c r="AW269" s="10"/>
@@ -59478,8 +60502,12 @@
       <c r="AR270" s="10">
         <v>8.373601898029337E-2</v>
       </c>
-      <c r="AS270" s="10"/>
-      <c r="AT270" s="10"/>
+      <c r="AS270" s="10">
+        <v>8.6708471898497175E-2</v>
+      </c>
+      <c r="AT270" s="10">
+        <v>5.9087060120911472E-2</v>
+      </c>
       <c r="AU270" s="10"/>
       <c r="AV270" s="10"/>
       <c r="AW270" s="10"/>
@@ -59703,8 +60731,12 @@
       <c r="AR271" s="10">
         <v>0.10148811554091597</v>
       </c>
-      <c r="AS271" s="10"/>
-      <c r="AT271" s="10"/>
+      <c r="AS271" s="10">
+        <v>8.6625532454113863E-2</v>
+      </c>
+      <c r="AT271" s="10">
+        <v>7.4124687809245415E-2</v>
+      </c>
       <c r="AU271" s="10"/>
       <c r="AV271" s="10"/>
       <c r="AW271" s="10"/>
@@ -59928,8 +60960,12 @@
       <c r="AR272" s="10">
         <v>-9.6848085028403696E-3</v>
       </c>
-      <c r="AS272" s="10"/>
-      <c r="AT272" s="10"/>
+      <c r="AS272" s="10">
+        <v>1.2204970084059852E-3</v>
+      </c>
+      <c r="AT272" s="10">
+        <v>6.1156401937446647E-2</v>
+      </c>
       <c r="AU272" s="10"/>
       <c r="AV272" s="10"/>
       <c r="AW272" s="10"/>
@@ -60153,8 +61189,12 @@
       <c r="AR273" s="10">
         <v>6.4921420882669612E-2</v>
       </c>
-      <c r="AS273" s="10"/>
-      <c r="AT273" s="10"/>
+      <c r="AS273" s="10">
+        <v>4.9536615141250628E-2</v>
+      </c>
+      <c r="AT273" s="10">
+        <v>9.5251776013372425E-2</v>
+      </c>
       <c r="AU273" s="10"/>
       <c r="AV273" s="10"/>
       <c r="AW273" s="10"/>
@@ -60378,8 +61418,12 @@
       <c r="AR274" s="10">
         <v>2.9078223089526567E-2</v>
       </c>
-      <c r="AS274" s="10"/>
-      <c r="AT274" s="10"/>
+      <c r="AS274" s="10">
+        <v>3.3208965587475436E-2</v>
+      </c>
+      <c r="AT274" s="10">
+        <v>3.1175503113854308E-2</v>
+      </c>
       <c r="AU274" s="10"/>
       <c r="AV274" s="10"/>
       <c r="AW274" s="10"/>
@@ -60603,8 +61647,12 @@
       <c r="AR275" s="10">
         <v>2.7427352608743183E-2</v>
       </c>
-      <c r="AS275" s="10"/>
-      <c r="AT275" s="10"/>
+      <c r="AS275" s="10">
+        <v>2.7427352608743183E-2</v>
+      </c>
+      <c r="AT275" s="10">
+        <v>2.8894884602763682E-2</v>
+      </c>
       <c r="AU275" s="10"/>
       <c r="AV275" s="10"/>
       <c r="AW275" s="10"/>
@@ -60828,8 +61876,12 @@
       <c r="AR276" s="10">
         <v>3.9281950652276798E-2</v>
       </c>
-      <c r="AS276" s="10"/>
-      <c r="AT276" s="10"/>
+      <c r="AS276" s="10">
+        <v>4.899342272611662E-2</v>
+      </c>
+      <c r="AT276" s="10">
+        <v>4.899342272611662E-2</v>
+      </c>
       <c r="AU276" s="10"/>
       <c r="AV276" s="10"/>
       <c r="AW276" s="10"/>
@@ -61053,8 +62105,12 @@
       <c r="AR277" s="10">
         <v>4.1759015858289006E-2</v>
       </c>
-      <c r="AS277" s="10"/>
-      <c r="AT277" s="10"/>
+      <c r="AS277" s="10">
+        <v>3.5814954644071362E-2</v>
+      </c>
+      <c r="AT277" s="10">
+        <v>2.9947087250830284E-2</v>
+      </c>
       <c r="AU277" s="10"/>
       <c r="AV277" s="10"/>
       <c r="AW277" s="10"/>
@@ -61278,8 +62334,12 @@
       <c r="AR278" s="10">
         <v>3.6228247818061332E-2</v>
       </c>
-      <c r="AS278" s="10"/>
-      <c r="AT278" s="10"/>
+      <c r="AS278" s="10">
+        <v>3.6228247818061332E-2</v>
+      </c>
+      <c r="AT278" s="10">
+        <v>3.6228247818061332E-2</v>
+      </c>
       <c r="AU278" s="10"/>
       <c r="AV278" s="10"/>
       <c r="AW278" s="10"/>
@@ -61503,8 +62563,12 @@
       <c r="AR279" s="10">
         <v>5.0915413000283793E-2</v>
       </c>
-      <c r="AS279" s="10"/>
-      <c r="AT279" s="10"/>
+      <c r="AS279" s="10">
+        <v>3.5819512323066238E-2</v>
+      </c>
+      <c r="AT279" s="10">
+        <v>3.5819512323066238E-2</v>
+      </c>
       <c r="AU279" s="10"/>
       <c r="AV279" s="10"/>
       <c r="AW279" s="10"/>
@@ -61728,8 +62792,12 @@
       <c r="AR280" s="10">
         <v>1.0557665899809221E-2</v>
       </c>
-      <c r="AS280" s="10"/>
-      <c r="AT280" s="10"/>
+      <c r="AS280" s="10">
+        <v>1.0557665899809221E-2</v>
+      </c>
+      <c r="AT280" s="10">
+        <v>9.0550515078395843E-3</v>
+      </c>
       <c r="AU280" s="10"/>
       <c r="AV280" s="10"/>
       <c r="AW280" s="10"/>
@@ -61953,8 +63021,12 @@
       <c r="AR281" s="10">
         <v>5.2376088002634047E-2</v>
       </c>
-      <c r="AS281" s="10"/>
-      <c r="AT281" s="10"/>
+      <c r="AS281" s="10">
+        <v>4.9813106142241326E-2</v>
+      </c>
+      <c r="AT281" s="10">
+        <v>6.0178481225795499E-2</v>
+      </c>
       <c r="AU281" s="10"/>
       <c r="AV281" s="10"/>
       <c r="AW281" s="10"/>
@@ -62178,8 +63250,12 @@
       <c r="AR282" s="10">
         <v>4.2052386078220261E-2</v>
       </c>
-      <c r="AS282" s="10"/>
-      <c r="AT282" s="10"/>
+      <c r="AS282" s="10">
+        <v>6.9635210150674087E-2</v>
+      </c>
+      <c r="AT282" s="10">
+        <v>2.7059386973179889E-2</v>
+      </c>
       <c r="AU282" s="10"/>
       <c r="AV282" s="10"/>
       <c r="AW282" s="10"/>
@@ -62403,8 +63479,12 @@
       <c r="AR283" s="10">
         <v>6.9997549041856955E-2</v>
       </c>
-      <c r="AS283" s="10"/>
-      <c r="AT283" s="10"/>
+      <c r="AS283" s="10">
+        <v>3.580900631162609E-2</v>
+      </c>
+      <c r="AT283" s="10">
+        <v>-5.1263338702931538E-3</v>
+      </c>
       <c r="AU283" s="10"/>
       <c r="AV283" s="10"/>
       <c r="AW283" s="10"/>
@@ -62628,8 +63708,12 @@
       <c r="AR284" s="10">
         <v>0.21201764742434603</v>
       </c>
-      <c r="AS284" s="10"/>
-      <c r="AT284" s="10"/>
+      <c r="AS284" s="10">
+        <v>0.20781216550964876</v>
+      </c>
+      <c r="AT284" s="10">
+        <v>0.23765927671797882</v>
+      </c>
       <c r="AU284" s="10"/>
       <c r="AV284" s="10"/>
       <c r="AW284" s="10"/>
@@ -62853,8 +63937,12 @@
       <c r="AR285" s="10">
         <v>9.6418682433358605E-2</v>
       </c>
-      <c r="AS285" s="10"/>
-      <c r="AT285" s="10"/>
+      <c r="AS285" s="10">
+        <v>9.6470438095932698E-2</v>
+      </c>
+      <c r="AT285" s="10">
+        <v>7.7907909803179187E-2</v>
+      </c>
       <c r="AU285" s="10"/>
       <c r="AV285" s="10"/>
       <c r="AW285" s="10"/>
@@ -63078,8 +64166,12 @@
       <c r="AR286" s="10">
         <v>8.9972514630817457E-2</v>
       </c>
-      <c r="AS286" s="10"/>
-      <c r="AT286" s="10"/>
+      <c r="AS286" s="10">
+        <v>8.657851332084654E-2</v>
+      </c>
+      <c r="AT286" s="10">
+        <v>6.6837357193034297E-2</v>
+      </c>
       <c r="AU286" s="10"/>
       <c r="AV286" s="10"/>
       <c r="AW286" s="10"/>
@@ -63303,8 +64395,12 @@
       <c r="AR287" s="10">
         <v>2.5652706416537274E-2</v>
       </c>
-      <c r="AS287" s="10"/>
-      <c r="AT287" s="10"/>
+      <c r="AS287" s="10">
+        <v>1.5931426235014312E-2</v>
+      </c>
+      <c r="AT287" s="10">
+        <v>1.4636579160402396E-2</v>
+      </c>
       <c r="AU287" s="10"/>
       <c r="AV287" s="10"/>
       <c r="AW287" s="10"/>
@@ -63528,8 +64624,12 @@
       <c r="AR288" s="10">
         <v>0.16638191260188684</v>
       </c>
-      <c r="AS288" s="10"/>
-      <c r="AT288" s="10"/>
+      <c r="AS288" s="10">
+        <v>0.17464524322235109</v>
+      </c>
+      <c r="AT288" s="10">
+        <v>0.13246067332890954</v>
+      </c>
       <c r="AU288" s="10"/>
       <c r="AV288" s="10"/>
       <c r="AW288" s="10"/>
@@ -63753,8 +64853,12 @@
       <c r="AR289" s="10">
         <v>5.3309327846364996E-2</v>
       </c>
-      <c r="AS289" s="10"/>
-      <c r="AT289" s="10"/>
+      <c r="AS289" s="10">
+        <v>4.7003564688613997E-2</v>
+      </c>
+      <c r="AT289" s="10">
+        <v>5.1259939801494125E-2</v>
+      </c>
       <c r="AU289" s="10"/>
       <c r="AV289" s="10"/>
       <c r="AW289" s="10"/>
@@ -63978,8 +65082,12 @@
       <c r="AR290" s="10">
         <v>1.6891591543544138E-4</v>
       </c>
-      <c r="AS290" s="10"/>
-      <c r="AT290" s="10"/>
+      <c r="AS290" s="10">
+        <v>1.6891591543544138E-4</v>
+      </c>
+      <c r="AT290" s="10">
+        <v>1.6891591543544138E-4</v>
+      </c>
       <c r="AU290" s="10"/>
       <c r="AV290" s="10"/>
       <c r="AW290" s="10"/>
@@ -64203,8 +65311,12 @@
       <c r="AR291" s="10">
         <v>5.3234281234542546E-2</v>
       </c>
-      <c r="AS291" s="10"/>
-      <c r="AT291" s="10"/>
+      <c r="AS291" s="10">
+        <v>5.3234281234542546E-2</v>
+      </c>
+      <c r="AT291" s="10">
+        <v>2.9027008845374125E-2</v>
+      </c>
       <c r="AU291" s="10"/>
       <c r="AV291" s="10"/>
       <c r="AW291" s="10"/>
@@ -64428,8 +65540,12 @@
       <c r="AR292" s="10">
         <v>2.3884332962829991E-2</v>
       </c>
-      <c r="AS292" s="10"/>
-      <c r="AT292" s="10"/>
+      <c r="AS292" s="10">
+        <v>2.3884332962829991E-2</v>
+      </c>
+      <c r="AT292" s="10">
+        <v>2.3884332962829991E-2</v>
+      </c>
       <c r="AU292" s="10"/>
       <c r="AV292" s="10"/>
       <c r="AW292" s="10"/>
@@ -64653,8 +65769,12 @@
       <c r="AR293" s="10">
         <v>0.13387851020038011</v>
       </c>
-      <c r="AS293" s="10"/>
-      <c r="AT293" s="10"/>
+      <c r="AS293" s="10">
+        <v>0.15080661629569114</v>
+      </c>
+      <c r="AT293" s="10">
+        <v>0.14117710649864113</v>
+      </c>
       <c r="AU293" s="10"/>
       <c r="AV293" s="10"/>
       <c r="AW293" s="10"/>
@@ -64878,8 +65998,12 @@
       <c r="AR294" s="10">
         <v>0.14914127728138271</v>
       </c>
-      <c r="AS294" s="10"/>
-      <c r="AT294" s="10"/>
+      <c r="AS294" s="10">
+        <v>0.14914127728138271</v>
+      </c>
+      <c r="AT294" s="10">
+        <v>0.14914127728138271</v>
+      </c>
       <c r="AU294" s="10"/>
       <c r="AV294" s="10"/>
       <c r="AW294" s="10"/>
@@ -65103,8 +66227,12 @@
       <c r="AR295" s="10">
         <v>0.11499696521538416</v>
       </c>
-      <c r="AS295" s="10"/>
-      <c r="AT295" s="10"/>
+      <c r="AS295" s="10">
+        <v>0.12197152468653383</v>
+      </c>
+      <c r="AT295" s="10">
+        <v>0.12873383579945052</v>
+      </c>
       <c r="AU295" s="10"/>
       <c r="AV295" s="10"/>
       <c r="AW295" s="10"/>
@@ -65328,8 +66456,12 @@
       <c r="AR296" s="10">
         <v>4.3120423018208287E-2</v>
       </c>
-      <c r="AS296" s="10"/>
-      <c r="AT296" s="10"/>
+      <c r="AS296" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
+      <c r="AT296" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
       <c r="AU296" s="10"/>
       <c r="AV296" s="10"/>
       <c r="AW296" s="10"/>
@@ -65553,8 +66685,12 @@
       <c r="AR297" s="10">
         <v>0.1216599306606394</v>
       </c>
-      <c r="AS297" s="10"/>
-      <c r="AT297" s="10"/>
+      <c r="AS297" s="10">
+        <v>0.12616437187882013</v>
+      </c>
+      <c r="AT297" s="10">
+        <v>0.12280088010826429</v>
+      </c>
       <c r="AU297" s="10"/>
       <c r="AV297" s="10"/>
       <c r="AW297" s="10"/>
@@ -65778,8 +66914,12 @@
       <c r="AR298" s="10">
         <v>-9.2460463405663718E-2</v>
       </c>
-      <c r="AS298" s="10"/>
-      <c r="AT298" s="10"/>
+      <c r="AS298" s="10">
+        <v>-8.0334106947209771E-2</v>
+      </c>
+      <c r="AT298" s="10">
+        <v>-0.14451334845248287</v>
+      </c>
       <c r="AU298" s="10"/>
       <c r="AV298" s="10"/>
       <c r="AW298" s="10"/>
@@ -66003,8 +67143,12 @@
       <c r="AR299" s="10">
         <v>3.131575882284432E-2</v>
       </c>
-      <c r="AS299" s="10"/>
-      <c r="AT299" s="10"/>
+      <c r="AS299" s="10">
+        <v>3.131575882284432E-2</v>
+      </c>
+      <c r="AT299" s="10">
+        <v>3.131575882284432E-2</v>
+      </c>
       <c r="AU299" s="10"/>
       <c r="AV299" s="10"/>
       <c r="AW299" s="10"/>
@@ -66228,8 +67372,12 @@
       <c r="AR300" s="10">
         <v>0</v>
       </c>
-      <c r="AS300" s="10"/>
-      <c r="AT300" s="10"/>
+      <c r="AS300" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT300" s="10">
+        <v>0</v>
+      </c>
       <c r="AU300" s="10"/>
       <c r="AV300" s="10"/>
       <c r="AW300" s="10"/>
@@ -66453,8 +67601,12 @@
       <c r="AR301" s="10">
         <v>0</v>
       </c>
-      <c r="AS301" s="10"/>
-      <c r="AT301" s="10"/>
+      <c r="AS301" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT301" s="10">
+        <v>0</v>
+      </c>
       <c r="AU301" s="10"/>
       <c r="AV301" s="10"/>
       <c r="AW301" s="10"/>
@@ -66678,8 +67830,12 @@
       <c r="AR302" s="10">
         <v>0.10460639488845813</v>
       </c>
-      <c r="AS302" s="10"/>
-      <c r="AT302" s="10"/>
+      <c r="AS302" s="10">
+        <v>5.4505261296312613E-2</v>
+      </c>
+      <c r="AT302" s="10">
+        <v>7.2644085574262718E-2</v>
+      </c>
       <c r="AU302" s="10"/>
       <c r="AV302" s="10"/>
       <c r="AW302" s="10"/>
@@ -66903,8 +68059,12 @@
       <c r="AR303" s="10">
         <v>3.6679110943087068E-2</v>
       </c>
-      <c r="AS303" s="10"/>
-      <c r="AT303" s="10"/>
+      <c r="AS303" s="10">
+        <v>3.6679110943087068E-2</v>
+      </c>
+      <c r="AT303" s="10">
+        <v>3.6679110943087068E-2</v>
+      </c>
       <c r="AU303" s="10"/>
       <c r="AV303" s="10"/>
       <c r="AW303" s="10"/>
@@ -67128,8 +68288,12 @@
       <c r="AR304" s="10">
         <v>2.7164965426407672E-2</v>
       </c>
-      <c r="AS304" s="10"/>
-      <c r="AT304" s="10"/>
+      <c r="AS304" s="10">
+        <v>2.3926889048846878E-2</v>
+      </c>
+      <c r="AT304" s="10">
+        <v>2.325115982898196E-2</v>
+      </c>
       <c r="AU304" s="10"/>
       <c r="AV304" s="10"/>
       <c r="AW304" s="10"/>
@@ -67353,8 +68517,12 @@
       <c r="AR305" s="10">
         <v>7.064845833048472E-2</v>
       </c>
-      <c r="AS305" s="10"/>
-      <c r="AT305" s="10"/>
+      <c r="AS305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
+      <c r="AT305" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
       <c r="AU305" s="10"/>
       <c r="AV305" s="10"/>
       <c r="AW305" s="10"/>
@@ -67578,8 +68746,12 @@
       <c r="AR306" s="10">
         <v>0.20852486418721261</v>
       </c>
-      <c r="AS306" s="10"/>
-      <c r="AT306" s="10"/>
+      <c r="AS306" s="10">
+        <v>0.18728134836833088</v>
+      </c>
+      <c r="AT306" s="10">
+        <v>0.16469015548902033</v>
+      </c>
       <c r="AU306" s="10"/>
       <c r="AV306" s="10"/>
       <c r="AW306" s="10"/>
@@ -67803,8 +68975,12 @@
       <c r="AR307" s="10">
         <v>2.6091103346447708E-2</v>
       </c>
-      <c r="AS307" s="10"/>
-      <c r="AT307" s="10"/>
+      <c r="AS307" s="10">
+        <v>2.3239874250621462E-2</v>
+      </c>
+      <c r="AT307" s="10">
+        <v>2.2501026506683841E-2</v>
+      </c>
       <c r="AU307" s="10"/>
       <c r="AV307" s="10"/>
       <c r="AW307" s="10"/>
@@ -68028,8 +69204,12 @@
       <c r="AR308" s="10">
         <v>0.12682200139158972</v>
       </c>
-      <c r="AS308" s="10"/>
-      <c r="AT308" s="10"/>
+      <c r="AS308" s="10">
+        <v>7.1359105275954349E-2</v>
+      </c>
+      <c r="AT308" s="10">
+        <v>6.359091459511812E-2</v>
+      </c>
       <c r="AU308" s="10"/>
       <c r="AV308" s="10"/>
       <c r="AW308" s="10"/>
@@ -68253,8 +69433,12 @@
       <c r="AR309" s="10">
         <v>-0.16383308677972397</v>
       </c>
-      <c r="AS309" s="10"/>
-      <c r="AT309" s="10"/>
+      <c r="AS309" s="10">
+        <v>-0.1495673762533527</v>
+      </c>
+      <c r="AT309" s="10">
+        <v>-8.7165757560593082E-2</v>
+      </c>
       <c r="AU309" s="10"/>
       <c r="AV309" s="10"/>
       <c r="AW309" s="10"/>
@@ -68478,8 +69662,12 @@
       <c r="AR310" s="10">
         <v>0.31083540115798169</v>
       </c>
-      <c r="AS310" s="10"/>
-      <c r="AT310" s="10"/>
+      <c r="AS310" s="10">
+        <v>0.12160469969853915</v>
+      </c>
+      <c r="AT310" s="10">
+        <v>-7.5785326995479241E-2</v>
+      </c>
       <c r="AU310" s="10"/>
       <c r="AV310" s="10"/>
       <c r="AW310" s="10"/>
@@ -68703,8 +69891,12 @@
       <c r="AR311" s="10">
         <v>-8.9893331442406077E-2</v>
       </c>
-      <c r="AS311" s="10"/>
-      <c r="AT311" s="10"/>
+      <c r="AS311" s="10">
+        <v>-8.9627993678323858E-2</v>
+      </c>
+      <c r="AT311" s="10">
+        <v>-8.9627993678323858E-2</v>
+      </c>
       <c r="AU311" s="10"/>
       <c r="AV311" s="10"/>
       <c r="AW311" s="10"/>
@@ -68928,8 +70120,12 @@
       <c r="AR312" s="10">
         <v>0</v>
       </c>
-      <c r="AS312" s="10"/>
-      <c r="AT312" s="10"/>
+      <c r="AS312" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT312" s="10">
+        <v>0</v>
+      </c>
       <c r="AU312" s="10"/>
       <c r="AV312" s="10"/>
       <c r="AW312" s="10"/>
@@ -69153,8 +70349,12 @@
       <c r="AR313" s="10">
         <v>0.13103879958618414</v>
       </c>
-      <c r="AS313" s="10"/>
-      <c r="AT313" s="10"/>
+      <c r="AS313" s="10">
+        <v>0.13103879958618414</v>
+      </c>
+      <c r="AT313" s="10">
+        <v>0.13103879958618414</v>
+      </c>
       <c r="AU313" s="10"/>
       <c r="AV313" s="10"/>
       <c r="AW313" s="10"/>
@@ -69378,8 +70578,12 @@
       <c r="AR314" s="11">
         <v>6.7295146419652729E-2</v>
       </c>
-      <c r="AS314" s="11"/>
-      <c r="AT314" s="11"/>
+      <c r="AS314" s="11">
+        <v>5.3710512621458539E-2</v>
+      </c>
+      <c r="AT314" s="11">
+        <v>5.3710512621458539E-2</v>
+      </c>
       <c r="AU314" s="11"/>
       <c r="AV314" s="11"/>
       <c r="AW314" s="11"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="462">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1403,13 +1403,16 @@
     <t xml:space="preserve"> 10/2022</t>
   </si>
   <si>
-    <t>Última actualización:  01/09/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 11/2022</t>
   </si>
   <si>
     <t xml:space="preserve"> 12/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  02/09/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/2023</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2108,12 +2111,14 @@
         <v>457</v>
       </c>
       <c r="AS15" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="AT15" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="AT15" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="AU15" s="13"/>
+      <c r="AU15" s="13" t="s">
+        <v>461</v>
+      </c>
       <c r="AV15" s="13"/>
       <c r="AW15" s="13"/>
       <c r="AX15" s="13"/>
@@ -2342,7 +2347,9 @@
       <c r="AT16" s="10">
         <v>0.20580923059132994</v>
       </c>
-      <c r="AU16" s="10"/>
+      <c r="AU16" s="10">
+        <v>0.21025749409982741</v>
+      </c>
       <c r="AV16" s="10"/>
       <c r="AW16" s="10"/>
       <c r="AX16" s="10"/>
@@ -2571,7 +2578,9 @@
       <c r="AT17" s="10">
         <v>7.7660553219662809E-2</v>
       </c>
-      <c r="AU17" s="10"/>
+      <c r="AU17" s="10">
+        <v>6.1470429381582647E-2</v>
+      </c>
       <c r="AV17" s="10"/>
       <c r="AW17" s="10"/>
       <c r="AX17" s="10"/>
@@ -2800,7 +2809,9 @@
       <c r="AT18" s="10">
         <v>0.17055266995461316</v>
       </c>
-      <c r="AU18" s="10"/>
+      <c r="AU18" s="10">
+        <v>0.18270666926423784</v>
+      </c>
       <c r="AV18" s="10"/>
       <c r="AW18" s="10"/>
       <c r="AX18" s="10"/>
@@ -3029,7 +3040,9 @@
       <c r="AT19" s="10">
         <v>0.24507814909191228</v>
       </c>
-      <c r="AU19" s="10"/>
+      <c r="AU19" s="10">
+        <v>0.27360335976111183</v>
+      </c>
       <c r="AV19" s="10"/>
       <c r="AW19" s="10"/>
       <c r="AX19" s="10"/>
@@ -3258,7 +3271,9 @@
       <c r="AT20" s="10">
         <v>9.3699758370079156E-2</v>
       </c>
-      <c r="AU20" s="10"/>
+      <c r="AU20" s="10">
+        <v>0.10819346434629407</v>
+      </c>
       <c r="AV20" s="10"/>
       <c r="AW20" s="10"/>
       <c r="AX20" s="10"/>
@@ -3487,7 +3502,9 @@
       <c r="AT21" s="10">
         <v>0.16796193236078638</v>
       </c>
-      <c r="AU21" s="10"/>
+      <c r="AU21" s="10">
+        <v>0.18910166614479462</v>
+      </c>
       <c r="AV21" s="10"/>
       <c r="AW21" s="10"/>
       <c r="AX21" s="10"/>
@@ -3716,7 +3733,9 @@
       <c r="AT22" s="10">
         <v>0.14779392691886106</v>
       </c>
-      <c r="AU22" s="10"/>
+      <c r="AU22" s="10">
+        <v>0.1318427265523523</v>
+      </c>
       <c r="AV22" s="10"/>
       <c r="AW22" s="10"/>
       <c r="AX22" s="10"/>
@@ -3945,7 +3964,9 @@
       <c r="AT23" s="10">
         <v>6.8018878709192654E-2</v>
       </c>
-      <c r="AU23" s="10"/>
+      <c r="AU23" s="10">
+        <v>6.4002063322105007E-2</v>
+      </c>
       <c r="AV23" s="10"/>
       <c r="AW23" s="10"/>
       <c r="AX23" s="10"/>
@@ -4174,7 +4195,9 @@
       <c r="AT24" s="10">
         <v>0.14115754884683751</v>
       </c>
-      <c r="AU24" s="10"/>
+      <c r="AU24" s="10">
+        <v>0.10796268396404951</v>
+      </c>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
       <c r="AX24" s="10"/>
@@ -4403,7 +4426,9 @@
       <c r="AT25" s="10">
         <v>0.40768277571251543</v>
       </c>
-      <c r="AU25" s="10"/>
+      <c r="AU25" s="10">
+        <v>0.33310314242270644</v>
+      </c>
       <c r="AV25" s="10"/>
       <c r="AW25" s="10"/>
       <c r="AX25" s="10"/>
@@ -4632,7 +4657,9 @@
       <c r="AT26" s="10">
         <v>9.1738147586164054E-2</v>
       </c>
-      <c r="AU26" s="10"/>
+      <c r="AU26" s="10">
+        <v>6.6562850286247421E-2</v>
+      </c>
       <c r="AV26" s="10"/>
       <c r="AW26" s="10"/>
       <c r="AX26" s="10"/>
@@ -4861,7 +4888,9 @@
       <c r="AT27" s="10">
         <v>8.8468067809578388E-2</v>
       </c>
-      <c r="AU27" s="10"/>
+      <c r="AU27" s="10">
+        <v>9.1735217188598783E-2</v>
+      </c>
       <c r="AV27" s="10"/>
       <c r="AW27" s="10"/>
       <c r="AX27" s="10"/>
@@ -5090,7 +5119,9 @@
       <c r="AT28" s="10">
         <v>0.13607899060669015</v>
       </c>
-      <c r="AU28" s="10"/>
+      <c r="AU28" s="10">
+        <v>0.1676980825809069</v>
+      </c>
       <c r="AV28" s="10"/>
       <c r="AW28" s="10"/>
       <c r="AX28" s="10"/>
@@ -5319,7 +5350,9 @@
       <c r="AT29" s="10">
         <v>0.15862353877226276</v>
       </c>
-      <c r="AU29" s="10"/>
+      <c r="AU29" s="10">
+        <v>0.15056536701584555</v>
+      </c>
       <c r="AV29" s="10"/>
       <c r="AW29" s="10"/>
       <c r="AX29" s="10"/>
@@ -5548,7 +5581,9 @@
       <c r="AT30" s="10">
         <v>0.15525452935404349</v>
       </c>
-      <c r="AU30" s="10"/>
+      <c r="AU30" s="10">
+        <v>0.15308831154759983</v>
+      </c>
       <c r="AV30" s="10"/>
       <c r="AW30" s="10"/>
       <c r="AX30" s="10"/>
@@ -5777,7 +5812,9 @@
       <c r="AT31" s="10">
         <v>0.13736350688400067</v>
       </c>
-      <c r="AU31" s="10"/>
+      <c r="AU31" s="10">
+        <v>0.16389723917894616</v>
+      </c>
       <c r="AV31" s="10"/>
       <c r="AW31" s="10"/>
       <c r="AX31" s="10"/>
@@ -6006,7 +6043,9 @@
       <c r="AT32" s="10">
         <v>7.6535396155649416E-2</v>
       </c>
-      <c r="AU32" s="10"/>
+      <c r="AU32" s="10">
+        <v>6.7030796048809016E-2</v>
+      </c>
       <c r="AV32" s="10"/>
       <c r="AW32" s="10"/>
       <c r="AX32" s="10"/>
@@ -6235,7 +6274,9 @@
       <c r="AT33" s="10">
         <v>-0.15920375388756514</v>
       </c>
-      <c r="AU33" s="10"/>
+      <c r="AU33" s="10">
+        <v>-0.24520006586530541</v>
+      </c>
       <c r="AV33" s="10"/>
       <c r="AW33" s="10"/>
       <c r="AX33" s="10"/>
@@ -6464,7 +6505,9 @@
       <c r="AT34" s="10">
         <v>0.12015251710876318</v>
       </c>
-      <c r="AU34" s="10"/>
+      <c r="AU34" s="10">
+        <v>0.16244925244158925</v>
+      </c>
       <c r="AV34" s="10"/>
       <c r="AW34" s="10"/>
       <c r="AX34" s="10"/>
@@ -6693,7 +6736,9 @@
       <c r="AT35" s="10">
         <v>0.11504010907130868</v>
       </c>
-      <c r="AU35" s="10"/>
+      <c r="AU35" s="10">
+        <v>0.23393242728311958</v>
+      </c>
       <c r="AV35" s="10"/>
       <c r="AW35" s="10"/>
       <c r="AX35" s="10"/>
@@ -6922,7 +6967,9 @@
       <c r="AT36" s="10">
         <v>-0.17867810485452518</v>
       </c>
-      <c r="AU36" s="10"/>
+      <c r="AU36" s="10">
+        <v>-0.49764187250717229</v>
+      </c>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
       <c r="AX36" s="10"/>
@@ -7151,7 +7198,9 @@
       <c r="AT37" s="10">
         <v>7.5014377818809264E-2</v>
       </c>
-      <c r="AU37" s="10"/>
+      <c r="AU37" s="10">
+        <v>6.3117040272715252E-2</v>
+      </c>
       <c r="AV37" s="10"/>
       <c r="AW37" s="10"/>
       <c r="AX37" s="10"/>
@@ -7380,7 +7429,9 @@
       <c r="AT38" s="10">
         <v>5.7257472108718677E-2</v>
       </c>
-      <c r="AU38" s="10"/>
+      <c r="AU38" s="10">
+        <v>0.15357889710362094</v>
+      </c>
       <c r="AV38" s="10"/>
       <c r="AW38" s="10"/>
       <c r="AX38" s="10"/>
@@ -7609,7 +7660,9 @@
       <c r="AT39" s="10">
         <v>0.40230481727574752</v>
       </c>
-      <c r="AU39" s="10"/>
+      <c r="AU39" s="10">
+        <v>0.40069235145309068</v>
+      </c>
       <c r="AV39" s="10"/>
       <c r="AW39" s="10"/>
       <c r="AX39" s="10"/>
@@ -7838,7 +7891,9 @@
       <c r="AT40" s="10">
         <v>2.8862818290893433E-3</v>
       </c>
-      <c r="AU40" s="10"/>
+      <c r="AU40" s="10">
+        <v>0.10868781542898343</v>
+      </c>
       <c r="AV40" s="10"/>
       <c r="AW40" s="10"/>
       <c r="AX40" s="10"/>
@@ -8067,7 +8122,9 @@
       <c r="AT41" s="10">
         <v>-6.698009212956535E-2</v>
       </c>
-      <c r="AU41" s="10"/>
+      <c r="AU41" s="10">
+        <v>-3.6074369448226618E-2</v>
+      </c>
       <c r="AV41" s="10"/>
       <c r="AW41" s="10"/>
       <c r="AX41" s="10"/>
@@ -8296,7 +8353,9 @@
       <c r="AT42" s="10">
         <v>7.1146826077369774E-2</v>
       </c>
-      <c r="AU42" s="10"/>
+      <c r="AU42" s="10">
+        <v>4.0042227241480877E-2</v>
+      </c>
       <c r="AV42" s="10"/>
       <c r="AW42" s="10"/>
       <c r="AX42" s="10"/>
@@ -8525,7 +8584,9 @@
       <c r="AT43" s="10">
         <v>0.16195444007660509</v>
       </c>
-      <c r="AU43" s="10"/>
+      <c r="AU43" s="10">
+        <v>0.20238349038502546</v>
+      </c>
       <c r="AV43" s="10"/>
       <c r="AW43" s="10"/>
       <c r="AX43" s="10"/>
@@ -8754,7 +8815,9 @@
       <c r="AT44" s="10">
         <v>7.581130570361494E-2</v>
       </c>
-      <c r="AU44" s="10"/>
+      <c r="AU44" s="10">
+        <v>2.2267577256194881E-2</v>
+      </c>
       <c r="AV44" s="10"/>
       <c r="AW44" s="10"/>
       <c r="AX44" s="10"/>
@@ -8983,7 +9046,9 @@
       <c r="AT45" s="10">
         <v>0.36443715528985421</v>
       </c>
-      <c r="AU45" s="10"/>
+      <c r="AU45" s="10">
+        <v>0.28697763715055968</v>
+      </c>
       <c r="AV45" s="10"/>
       <c r="AW45" s="10"/>
       <c r="AX45" s="10"/>
@@ -9212,7 +9277,9 @@
       <c r="AT46" s="10">
         <v>0.15690561308057149</v>
       </c>
-      <c r="AU46" s="10"/>
+      <c r="AU46" s="10">
+        <v>6.5143187386747403E-2</v>
+      </c>
       <c r="AV46" s="10"/>
       <c r="AW46" s="10"/>
       <c r="AX46" s="10"/>
@@ -9441,7 +9508,9 @@
       <c r="AT47" s="10">
         <v>6.9809856422196281E-2</v>
       </c>
-      <c r="AU47" s="10"/>
+      <c r="AU47" s="10">
+        <v>7.3281529012382052E-2</v>
+      </c>
       <c r="AV47" s="10"/>
       <c r="AW47" s="10"/>
       <c r="AX47" s="10"/>
@@ -9670,7 +9739,9 @@
       <c r="AT48" s="10">
         <v>0.19708342771446641</v>
       </c>
-      <c r="AU48" s="10"/>
+      <c r="AU48" s="10">
+        <v>0.18569169296121113</v>
+      </c>
       <c r="AV48" s="10"/>
       <c r="AW48" s="10"/>
       <c r="AX48" s="10"/>
@@ -9899,7 +9970,9 @@
       <c r="AT49" s="10">
         <v>9.0758776073842418E-2</v>
       </c>
-      <c r="AU49" s="10"/>
+      <c r="AU49" s="10">
+        <v>0.12524068953559464</v>
+      </c>
       <c r="AV49" s="10"/>
       <c r="AW49" s="10"/>
       <c r="AX49" s="10"/>
@@ -10128,7 +10201,9 @@
       <c r="AT50" s="10">
         <v>0.1259920791454312</v>
       </c>
-      <c r="AU50" s="10"/>
+      <c r="AU50" s="10">
+        <v>0.12084743637959128</v>
+      </c>
       <c r="AV50" s="10"/>
       <c r="AW50" s="10"/>
       <c r="AX50" s="10"/>
@@ -10357,7 +10432,9 @@
       <c r="AT51" s="10">
         <v>8.4530465495668228E-2</v>
       </c>
-      <c r="AU51" s="10"/>
+      <c r="AU51" s="10">
+        <v>0.131035248228075</v>
+      </c>
       <c r="AV51" s="10"/>
       <c r="AW51" s="10"/>
       <c r="AX51" s="10"/>
@@ -10586,7 +10663,9 @@
       <c r="AT52" s="10">
         <v>0.1033923806515431</v>
       </c>
-      <c r="AU52" s="10"/>
+      <c r="AU52" s="10">
+        <v>0.10908913658076891</v>
+      </c>
       <c r="AV52" s="10"/>
       <c r="AW52" s="10"/>
       <c r="AX52" s="10"/>
@@ -10815,7 +10894,9 @@
       <c r="AT53" s="10">
         <v>0.25257921591836086</v>
       </c>
-      <c r="AU53" s="10"/>
+      <c r="AU53" s="10">
+        <v>0.22863704214031455</v>
+      </c>
       <c r="AV53" s="10"/>
       <c r="AW53" s="10"/>
       <c r="AX53" s="10"/>
@@ -11044,7 +11125,9 @@
       <c r="AT54" s="10">
         <v>0.18677129306369822</v>
       </c>
-      <c r="AU54" s="10"/>
+      <c r="AU54" s="10">
+        <v>0.20066614650189174</v>
+      </c>
       <c r="AV54" s="10"/>
       <c r="AW54" s="10"/>
       <c r="AX54" s="10"/>
@@ -11273,7 +11356,9 @@
       <c r="AT55" s="10">
         <v>0.27875474710335979</v>
       </c>
-      <c r="AU55" s="10"/>
+      <c r="AU55" s="10">
+        <v>0.12328958489037278</v>
+      </c>
       <c r="AV55" s="10"/>
       <c r="AW55" s="10"/>
       <c r="AX55" s="10"/>
@@ -11502,7 +11587,9 @@
       <c r="AT56" s="10">
         <v>-0.21164919570309182</v>
       </c>
-      <c r="AU56" s="10"/>
+      <c r="AU56" s="10">
+        <v>-0.42537487956146347</v>
+      </c>
       <c r="AV56" s="10"/>
       <c r="AW56" s="10"/>
       <c r="AX56" s="10"/>
@@ -11731,7 +11818,9 @@
       <c r="AT57" s="10">
         <v>-3.6951969743697965E-2</v>
       </c>
-      <c r="AU57" s="10"/>
+      <c r="AU57" s="10">
+        <v>-8.5721855181891904E-2</v>
+      </c>
       <c r="AV57" s="10"/>
       <c r="AW57" s="10"/>
       <c r="AX57" s="10"/>
@@ -11960,7 +12049,9 @@
       <c r="AT58" s="10">
         <v>-5.2283105022831067E-2</v>
       </c>
-      <c r="AU58" s="10"/>
+      <c r="AU58" s="10">
+        <v>-0.28866099071207429</v>
+      </c>
       <c r="AV58" s="10"/>
       <c r="AW58" s="10"/>
       <c r="AX58" s="10"/>
@@ -12189,7 +12280,9 @@
       <c r="AT59" s="10">
         <v>0.28648381149246083</v>
       </c>
-      <c r="AU59" s="10"/>
+      <c r="AU59" s="10">
+        <v>0.65890954457582152</v>
+      </c>
       <c r="AV59" s="10"/>
       <c r="AW59" s="10"/>
       <c r="AX59" s="10"/>
@@ -12418,7 +12511,9 @@
       <c r="AT60" s="10">
         <v>3.387932141481298E-2</v>
       </c>
-      <c r="AU60" s="10"/>
+      <c r="AU60" s="10">
+        <v>-1.3068753856646409E-2</v>
+      </c>
       <c r="AV60" s="10"/>
       <c r="AW60" s="10"/>
       <c r="AX60" s="10"/>
@@ -12647,7 +12742,9 @@
       <c r="AT61" s="10">
         <v>-7.1324805823458348E-4</v>
       </c>
-      <c r="AU61" s="10"/>
+      <c r="AU61" s="10">
+        <v>0.5151249989777642</v>
+      </c>
       <c r="AV61" s="10"/>
       <c r="AW61" s="10"/>
       <c r="AX61" s="10"/>
@@ -12876,7 +12973,9 @@
       <c r="AT62" s="10">
         <v>0.22763879176160073</v>
       </c>
-      <c r="AU62" s="10"/>
+      <c r="AU62" s="10">
+        <v>0.2499295112781954</v>
+      </c>
       <c r="AV62" s="10"/>
       <c r="AW62" s="10"/>
       <c r="AX62" s="10"/>
@@ -13105,7 +13204,9 @@
       <c r="AT63" s="10">
         <v>0.23805768286186701</v>
       </c>
-      <c r="AU63" s="10"/>
+      <c r="AU63" s="10">
+        <v>0.46578652720495484</v>
+      </c>
       <c r="AV63" s="10"/>
       <c r="AW63" s="10"/>
       <c r="AX63" s="10"/>
@@ -13334,7 +13435,9 @@
       <c r="AT64" s="10">
         <v>-1.708117661911368E-2</v>
       </c>
-      <c r="AU64" s="10"/>
+      <c r="AU64" s="10">
+        <v>2.938124555853916E-2</v>
+      </c>
       <c r="AV64" s="10"/>
       <c r="AW64" s="10"/>
       <c r="AX64" s="10"/>
@@ -13563,7 +13666,9 @@
       <c r="AT65" s="10">
         <v>-8.6065135106206947E-3</v>
       </c>
-      <c r="AU65" s="10"/>
+      <c r="AU65" s="10">
+        <v>0.27883842567976957</v>
+      </c>
       <c r="AV65" s="10"/>
       <c r="AW65" s="10"/>
       <c r="AX65" s="10"/>
@@ -13792,7 +13897,9 @@
       <c r="AT66" s="10">
         <v>0.37635514018691607</v>
       </c>
-      <c r="AU66" s="10"/>
+      <c r="AU66" s="10">
+        <v>0.14611956544061777</v>
+      </c>
       <c r="AV66" s="10"/>
       <c r="AW66" s="10"/>
       <c r="AX66" s="10"/>
@@ -14021,7 +14128,9 @@
       <c r="AT67" s="10">
         <v>0.30438878421810922</v>
       </c>
-      <c r="AU67" s="10"/>
+      <c r="AU67" s="10">
+        <v>0.3431333757676891</v>
+      </c>
       <c r="AV67" s="10"/>
       <c r="AW67" s="10"/>
       <c r="AX67" s="10"/>
@@ -14250,7 +14359,9 @@
       <c r="AT68" s="10">
         <v>-0.27084824558166976</v>
       </c>
-      <c r="AU68" s="10"/>
+      <c r="AU68" s="10">
+        <v>-0.10029378003463107</v>
+      </c>
       <c r="AV68" s="10"/>
       <c r="AW68" s="10"/>
       <c r="AX68" s="10"/>
@@ -14479,7 +14590,9 @@
       <c r="AT69" s="10">
         <v>2.8274435883828275E-3</v>
       </c>
-      <c r="AU69" s="10"/>
+      <c r="AU69" s="10">
+        <v>1.6906117851108293E-2</v>
+      </c>
       <c r="AV69" s="10"/>
       <c r="AW69" s="10"/>
       <c r="AX69" s="10"/>
@@ -14708,7 +14821,9 @@
       <c r="AT70" s="10">
         <v>0.13730107020520332</v>
       </c>
-      <c r="AU70" s="10"/>
+      <c r="AU70" s="10">
+        <v>0.14453312818540232</v>
+      </c>
       <c r="AV70" s="10"/>
       <c r="AW70" s="10"/>
       <c r="AX70" s="10"/>
@@ -14937,7 +15052,9 @@
       <c r="AT71" s="10">
         <v>-4.778154590257544E-2</v>
       </c>
-      <c r="AU71" s="10"/>
+      <c r="AU71" s="10">
+        <v>-9.2701885706061304E-3</v>
+      </c>
       <c r="AV71" s="10"/>
       <c r="AW71" s="10"/>
       <c r="AX71" s="10"/>
@@ -15166,7 +15283,9 @@
       <c r="AT72" s="10">
         <v>3.3970311801943875E-2</v>
       </c>
-      <c r="AU72" s="10"/>
+      <c r="AU72" s="10">
+        <v>4.2294964448556627E-2</v>
+      </c>
       <c r="AV72" s="10"/>
       <c r="AW72" s="10"/>
       <c r="AX72" s="10"/>
@@ -15395,7 +15514,9 @@
       <c r="AT73" s="10">
         <v>0.15884387166465386</v>
       </c>
-      <c r="AU73" s="10"/>
+      <c r="AU73" s="10">
+        <v>0.17315833407864534</v>
+      </c>
       <c r="AV73" s="10"/>
       <c r="AW73" s="10"/>
       <c r="AX73" s="10"/>
@@ -15624,7 +15745,9 @@
       <c r="AT74" s="10">
         <v>2.2489972136317871E-2</v>
       </c>
-      <c r="AU74" s="10"/>
+      <c r="AU74" s="10">
+        <v>5.6333115987080573E-2</v>
+      </c>
       <c r="AV74" s="10"/>
       <c r="AW74" s="10"/>
       <c r="AX74" s="10"/>
@@ -15853,7 +15976,9 @@
       <c r="AT75" s="10">
         <v>0.11066512855359445</v>
       </c>
-      <c r="AU75" s="10"/>
+      <c r="AU75" s="10">
+        <v>0.12442249109876657</v>
+      </c>
       <c r="AV75" s="10"/>
       <c r="AW75" s="10"/>
       <c r="AX75" s="10"/>
@@ -16082,7 +16207,9 @@
       <c r="AT76" s="10">
         <v>0.14448595938610032</v>
       </c>
-      <c r="AU76" s="10"/>
+      <c r="AU76" s="10">
+        <v>0.12592104621090128</v>
+      </c>
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
       <c r="AX76" s="10"/>
@@ -16311,7 +16438,9 @@
       <c r="AT77" s="10">
         <v>0.26127044323299375</v>
       </c>
-      <c r="AU77" s="10"/>
+      <c r="AU77" s="10">
+        <v>0.25171736225732921</v>
+      </c>
       <c r="AV77" s="10"/>
       <c r="AW77" s="10"/>
       <c r="AX77" s="10"/>
@@ -16540,7 +16669,9 @@
       <c r="AT78" s="10">
         <v>0.14777184940257015</v>
       </c>
-      <c r="AU78" s="10"/>
+      <c r="AU78" s="10">
+        <v>0.13374153321670468</v>
+      </c>
       <c r="AV78" s="10"/>
       <c r="AW78" s="10"/>
       <c r="AX78" s="10"/>
@@ -16769,7 +16900,9 @@
       <c r="AT79" s="10">
         <v>0.22367301735068956</v>
       </c>
-      <c r="AU79" s="10"/>
+      <c r="AU79" s="10">
+        <v>0.24173426079700877</v>
+      </c>
       <c r="AV79" s="10"/>
       <c r="AW79" s="10"/>
       <c r="AX79" s="10"/>
@@ -16998,7 +17131,9 @@
       <c r="AT80" s="10">
         <v>0.16183355169277247</v>
       </c>
-      <c r="AU80" s="10"/>
+      <c r="AU80" s="10">
+        <v>0.20148307717801073</v>
+      </c>
       <c r="AV80" s="10"/>
       <c r="AW80" s="10"/>
       <c r="AX80" s="10"/>
@@ -17227,7 +17362,9 @@
       <c r="AT81" s="10">
         <v>0.13966152158583411</v>
       </c>
-      <c r="AU81" s="10"/>
+      <c r="AU81" s="10">
+        <v>0.15643406365620338</v>
+      </c>
       <c r="AV81" s="10"/>
       <c r="AW81" s="10"/>
       <c r="AX81" s="10"/>
@@ -17456,7 +17593,9 @@
       <c r="AT82" s="10">
         <v>0.30550249231412119</v>
       </c>
-      <c r="AU82" s="10"/>
+      <c r="AU82" s="10">
+        <v>0.2878700670031582</v>
+      </c>
       <c r="AV82" s="10"/>
       <c r="AW82" s="10"/>
       <c r="AX82" s="10"/>
@@ -17685,7 +17824,9 @@
       <c r="AT83" s="10">
         <v>8.3773806925478311E-2</v>
       </c>
-      <c r="AU83" s="10"/>
+      <c r="AU83" s="10">
+        <v>9.0252159811852195E-2</v>
+      </c>
       <c r="AV83" s="10"/>
       <c r="AW83" s="10"/>
       <c r="AX83" s="10"/>
@@ -17914,7 +18055,9 @@
       <c r="AT84" s="10">
         <v>0.15231567740218255</v>
       </c>
-      <c r="AU84" s="10"/>
+      <c r="AU84" s="10">
+        <v>0.14569028126237948</v>
+      </c>
       <c r="AV84" s="10"/>
       <c r="AW84" s="10"/>
       <c r="AX84" s="10"/>
@@ -18143,7 +18286,9 @@
       <c r="AT85" s="10">
         <v>6.7191617616890964E-2</v>
       </c>
-      <c r="AU85" s="10"/>
+      <c r="AU85" s="10">
+        <v>1.9250511365829226E-2</v>
+      </c>
       <c r="AV85" s="10"/>
       <c r="AW85" s="10"/>
       <c r="AX85" s="10"/>
@@ -18372,7 +18517,9 @@
       <c r="AT86" s="10">
         <v>0.14614165124212519</v>
       </c>
-      <c r="AU86" s="10"/>
+      <c r="AU86" s="10">
+        <v>0.14761795693999091</v>
+      </c>
       <c r="AV86" s="10"/>
       <c r="AW86" s="10"/>
       <c r="AX86" s="10"/>
@@ -18601,7 +18748,9 @@
       <c r="AT87" s="10">
         <v>7.7259968076992758E-2</v>
       </c>
-      <c r="AU87" s="10"/>
+      <c r="AU87" s="10">
+        <v>7.6758207022034508E-2</v>
+      </c>
       <c r="AV87" s="10"/>
       <c r="AW87" s="10"/>
       <c r="AX87" s="10"/>
@@ -18830,7 +18979,9 @@
       <c r="AT88" s="10">
         <v>0.17142333118027486</v>
       </c>
-      <c r="AU88" s="10"/>
+      <c r="AU88" s="10">
+        <v>0.1568495534160772</v>
+      </c>
       <c r="AV88" s="10"/>
       <c r="AW88" s="10"/>
       <c r="AX88" s="10"/>
@@ -19059,7 +19210,9 @@
       <c r="AT89" s="10">
         <v>0.11487886450770857</v>
       </c>
-      <c r="AU89" s="10"/>
+      <c r="AU89" s="10">
+        <v>0.13543952262588155</v>
+      </c>
       <c r="AV89" s="10"/>
       <c r="AW89" s="10"/>
       <c r="AX89" s="10"/>
@@ -19288,7 +19441,9 @@
       <c r="AT90" s="10">
         <v>0.15613539764619233</v>
       </c>
-      <c r="AU90" s="10"/>
+      <c r="AU90" s="10">
+        <v>0.18805733377132183</v>
+      </c>
       <c r="AV90" s="10"/>
       <c r="AW90" s="10"/>
       <c r="AX90" s="10"/>
@@ -19517,7 +19672,9 @@
       <c r="AT91" s="10">
         <v>0.17401058535429326</v>
       </c>
-      <c r="AU91" s="10"/>
+      <c r="AU91" s="10">
+        <v>0.16679168245474285</v>
+      </c>
       <c r="AV91" s="10"/>
       <c r="AW91" s="10"/>
       <c r="AX91" s="10"/>
@@ -19746,7 +19903,9 @@
       <c r="AT92" s="10">
         <v>0.16905510197109974</v>
       </c>
-      <c r="AU92" s="10"/>
+      <c r="AU92" s="10">
+        <v>0.1259810657472118</v>
+      </c>
       <c r="AV92" s="10"/>
       <c r="AW92" s="10"/>
       <c r="AX92" s="10"/>
@@ -19975,7 +20134,9 @@
       <c r="AT93" s="10">
         <v>9.7663084728158767E-2</v>
       </c>
-      <c r="AU93" s="10"/>
+      <c r="AU93" s="10">
+        <v>0.11263766914776641</v>
+      </c>
       <c r="AV93" s="10"/>
       <c r="AW93" s="10"/>
       <c r="AX93" s="10"/>
@@ -20204,7 +20365,9 @@
       <c r="AT94" s="10">
         <v>9.0694529602969975E-2</v>
       </c>
-      <c r="AU94" s="10"/>
+      <c r="AU94" s="10">
+        <v>8.5648225714572979E-2</v>
+      </c>
       <c r="AV94" s="10"/>
       <c r="AW94" s="10"/>
       <c r="AX94" s="10"/>
@@ -20433,7 +20596,9 @@
       <c r="AT95" s="10">
         <v>9.7825332361414885E-2</v>
       </c>
-      <c r="AU95" s="10"/>
+      <c r="AU95" s="10">
+        <v>0.1228980477223427</v>
+      </c>
       <c r="AV95" s="10"/>
       <c r="AW95" s="10"/>
       <c r="AX95" s="10"/>
@@ -20662,7 +20827,9 @@
       <c r="AT96" s="10">
         <v>6.9664203950914994E-2</v>
       </c>
-      <c r="AU96" s="10"/>
+      <c r="AU96" s="10">
+        <v>7.6778106836862259E-2</v>
+      </c>
       <c r="AV96" s="10"/>
       <c r="AW96" s="10"/>
       <c r="AX96" s="10"/>
@@ -20891,7 +21058,9 @@
       <c r="AT97" s="10">
         <v>9.0819756514143535E-2</v>
       </c>
-      <c r="AU97" s="10"/>
+      <c r="AU97" s="10">
+        <v>0.11564056677590062</v>
+      </c>
       <c r="AV97" s="10"/>
       <c r="AW97" s="10"/>
       <c r="AX97" s="10"/>
@@ -21120,7 +21289,9 @@
       <c r="AT98" s="10">
         <v>0.15727885410617803</v>
       </c>
-      <c r="AU98" s="10"/>
+      <c r="AU98" s="10">
+        <v>0.17715911049819022</v>
+      </c>
       <c r="AV98" s="10"/>
       <c r="AW98" s="10"/>
       <c r="AX98" s="10"/>
@@ -21349,7 +21520,9 @@
       <c r="AT99" s="10">
         <v>0.22818468989390195</v>
       </c>
-      <c r="AU99" s="10"/>
+      <c r="AU99" s="10">
+        <v>0.25375848500525167</v>
+      </c>
       <c r="AV99" s="10"/>
       <c r="AW99" s="10"/>
       <c r="AX99" s="10"/>
@@ -21578,7 +21751,9 @@
       <c r="AT100" s="10">
         <v>6.709601963635814E-2</v>
       </c>
-      <c r="AU100" s="10"/>
+      <c r="AU100" s="10">
+        <v>0.10172632028426332</v>
+      </c>
       <c r="AV100" s="10"/>
       <c r="AW100" s="10"/>
       <c r="AX100" s="10"/>
@@ -21807,7 +21982,9 @@
       <c r="AT101" s="10">
         <v>6.0341341662367265E-2</v>
       </c>
-      <c r="AU101" s="10"/>
+      <c r="AU101" s="10">
+        <v>1.3106204052478976E-2</v>
+      </c>
       <c r="AV101" s="10"/>
       <c r="AW101" s="10"/>
       <c r="AX101" s="10"/>
@@ -22036,7 +22213,9 @@
       <c r="AT102" s="10">
         <v>0.15369957429556047</v>
       </c>
-      <c r="AU102" s="10"/>
+      <c r="AU102" s="10">
+        <v>0.12352255701681369</v>
+      </c>
       <c r="AV102" s="10"/>
       <c r="AW102" s="10"/>
       <c r="AX102" s="10"/>
@@ -22265,7 +22444,9 @@
       <c r="AT103" s="10">
         <v>0.16632615384615379</v>
       </c>
-      <c r="AU103" s="10"/>
+      <c r="AU103" s="10">
+        <v>0.182030771215689</v>
+      </c>
       <c r="AV103" s="10"/>
       <c r="AW103" s="10"/>
       <c r="AX103" s="10"/>
@@ -22494,7 +22675,9 @@
       <c r="AT104" s="10">
         <v>0.23203735296758543</v>
       </c>
-      <c r="AU104" s="10"/>
+      <c r="AU104" s="10">
+        <v>0.19737725778516135</v>
+      </c>
       <c r="AV104" s="10"/>
       <c r="AW104" s="10"/>
       <c r="AX104" s="10"/>
@@ -22723,7 +22906,9 @@
       <c r="AT105" s="10">
         <v>0.2147626055301679</v>
       </c>
-      <c r="AU105" s="10"/>
+      <c r="AU105" s="10">
+        <v>0.25372332258559815</v>
+      </c>
       <c r="AV105" s="10"/>
       <c r="AW105" s="10"/>
       <c r="AX105" s="10"/>
@@ -22952,7 +23137,9 @@
       <c r="AT106" s="10">
         <v>0.25447573496062348</v>
       </c>
-      <c r="AU106" s="10"/>
+      <c r="AU106" s="10">
+        <v>0.32128211634321824</v>
+      </c>
       <c r="AV106" s="10"/>
       <c r="AW106" s="10"/>
       <c r="AX106" s="10"/>
@@ -23181,7 +23368,9 @@
       <c r="AT107" s="10">
         <v>0.28379154698399689</v>
       </c>
-      <c r="AU107" s="10"/>
+      <c r="AU107" s="10">
+        <v>0.27231350653014874</v>
+      </c>
       <c r="AV107" s="10"/>
       <c r="AW107" s="10"/>
       <c r="AX107" s="10"/>
@@ -23410,7 +23599,9 @@
       <c r="AT108" s="10">
         <v>0.24495663723728422</v>
       </c>
-      <c r="AU108" s="10"/>
+      <c r="AU108" s="10">
+        <v>0.23886442265272478</v>
+      </c>
       <c r="AV108" s="10"/>
       <c r="AW108" s="10"/>
       <c r="AX108" s="10"/>
@@ -23639,7 +23830,9 @@
       <c r="AT109" s="10">
         <v>0.23948124264947079</v>
       </c>
-      <c r="AU109" s="10"/>
+      <c r="AU109" s="10">
+        <v>0.2875170857306335</v>
+      </c>
       <c r="AV109" s="10"/>
       <c r="AW109" s="10"/>
       <c r="AX109" s="10"/>
@@ -23868,7 +24061,9 @@
       <c r="AT110" s="10">
         <v>0.26972240691489358</v>
       </c>
-      <c r="AU110" s="10"/>
+      <c r="AU110" s="10">
+        <v>0.2648864003445679</v>
+      </c>
       <c r="AV110" s="10"/>
       <c r="AW110" s="10"/>
       <c r="AX110" s="10"/>
@@ -24097,7 +24292,9 @@
       <c r="AT111" s="10">
         <v>0.18173261696537124</v>
       </c>
-      <c r="AU111" s="10"/>
+      <c r="AU111" s="10">
+        <v>0.16684534330059186</v>
+      </c>
       <c r="AV111" s="10"/>
       <c r="AW111" s="10"/>
       <c r="AX111" s="10"/>
@@ -24326,7 +24523,9 @@
       <c r="AT112" s="10">
         <v>0.1256327839334086</v>
       </c>
-      <c r="AU112" s="10"/>
+      <c r="AU112" s="10">
+        <v>0.12915937290344459</v>
+      </c>
       <c r="AV112" s="10"/>
       <c r="AW112" s="10"/>
       <c r="AX112" s="10"/>
@@ -24555,7 +24754,9 @@
       <c r="AT113" s="10">
         <v>0.27449162036040975</v>
       </c>
-      <c r="AU113" s="10"/>
+      <c r="AU113" s="10">
+        <v>0.24603023467026031</v>
+      </c>
       <c r="AV113" s="10"/>
       <c r="AW113" s="10"/>
       <c r="AX113" s="10"/>
@@ -24784,7 +24985,9 @@
       <c r="AT114" s="10">
         <v>0.14195307948948788</v>
       </c>
-      <c r="AU114" s="10"/>
+      <c r="AU114" s="10">
+        <v>0.17672565747726154</v>
+      </c>
       <c r="AV114" s="10"/>
       <c r="AW114" s="10"/>
       <c r="AX114" s="10"/>
@@ -25013,7 +25216,9 @@
       <c r="AT115" s="10">
         <v>0.16738536615309063</v>
       </c>
-      <c r="AU115" s="10"/>
+      <c r="AU115" s="10">
+        <v>0.15282878562539826</v>
+      </c>
       <c r="AV115" s="10"/>
       <c r="AW115" s="10"/>
       <c r="AX115" s="10"/>
@@ -25242,7 +25447,9 @@
       <c r="AT116" s="10">
         <v>0.22738803908271188</v>
       </c>
-      <c r="AU116" s="10"/>
+      <c r="AU116" s="10">
+        <v>0.22605905433264617</v>
+      </c>
       <c r="AV116" s="10"/>
       <c r="AW116" s="10"/>
       <c r="AX116" s="10"/>
@@ -25471,7 +25678,9 @@
       <c r="AT117" s="10">
         <v>3.2224162041500914E-3</v>
       </c>
-      <c r="AU117" s="10"/>
+      <c r="AU117" s="10">
+        <v>-6.5069699974594886E-2</v>
+      </c>
       <c r="AV117" s="10"/>
       <c r="AW117" s="10"/>
       <c r="AX117" s="10"/>
@@ -25700,7 +25909,9 @@
       <c r="AT118" s="10">
         <v>0.17258542191574944</v>
       </c>
-      <c r="AU118" s="10"/>
+      <c r="AU118" s="10">
+        <v>0.12327527708663188</v>
+      </c>
       <c r="AV118" s="10"/>
       <c r="AW118" s="10"/>
       <c r="AX118" s="10"/>
@@ -25929,7 +26140,9 @@
       <c r="AT119" s="10">
         <v>0.18753481948792783</v>
       </c>
-      <c r="AU119" s="10"/>
+      <c r="AU119" s="10">
+        <v>0.14951126157036776</v>
+      </c>
       <c r="AV119" s="10"/>
       <c r="AW119" s="10"/>
       <c r="AX119" s="10"/>
@@ -26158,7 +26371,9 @@
       <c r="AT120" s="10">
         <v>0.1526544259429885</v>
       </c>
-      <c r="AU120" s="10"/>
+      <c r="AU120" s="10">
+        <v>0.14320317707697661</v>
+      </c>
       <c r="AV120" s="10"/>
       <c r="AW120" s="10"/>
       <c r="AX120" s="10"/>
@@ -26387,7 +26602,9 @@
       <c r="AT121" s="10">
         <v>0.10973489599100472</v>
       </c>
-      <c r="AU121" s="10"/>
+      <c r="AU121" s="10">
+        <v>0.1154967901024615</v>
+      </c>
       <c r="AV121" s="10"/>
       <c r="AW121" s="10"/>
       <c r="AX121" s="10"/>
@@ -26616,7 +26833,9 @@
       <c r="AT122" s="10">
         <v>0.17858709220336699</v>
       </c>
-      <c r="AU122" s="10"/>
+      <c r="AU122" s="10">
+        <v>0.17853839037927832</v>
+      </c>
       <c r="AV122" s="10"/>
       <c r="AW122" s="10"/>
       <c r="AX122" s="10"/>
@@ -26845,7 +27064,9 @@
       <c r="AT123" s="10">
         <v>8.6923514898462617E-2</v>
       </c>
-      <c r="AU123" s="10"/>
+      <c r="AU123" s="10">
+        <v>9.4545266264530081E-2</v>
+      </c>
       <c r="AV123" s="10"/>
       <c r="AW123" s="10"/>
       <c r="AX123" s="10"/>
@@ -27074,7 +27295,9 @@
       <c r="AT124" s="10">
         <v>8.9484663806218334E-2</v>
       </c>
-      <c r="AU124" s="10"/>
+      <c r="AU124" s="10">
+        <v>7.8275824809105332E-2</v>
+      </c>
       <c r="AV124" s="10"/>
       <c r="AW124" s="10"/>
       <c r="AX124" s="10"/>
@@ -27303,7 +27526,9 @@
       <c r="AT125" s="10">
         <v>0.18528206944785075</v>
       </c>
-      <c r="AU125" s="10"/>
+      <c r="AU125" s="10">
+        <v>0.18507673848027384</v>
+      </c>
       <c r="AV125" s="10"/>
       <c r="AW125" s="10"/>
       <c r="AX125" s="10"/>
@@ -27532,7 +27757,9 @@
       <c r="AT126" s="10">
         <v>0.12389339691574053</v>
       </c>
-      <c r="AU126" s="10"/>
+      <c r="AU126" s="10">
+        <v>0.11211515515393788</v>
+      </c>
       <c r="AV126" s="10"/>
       <c r="AW126" s="10"/>
       <c r="AX126" s="10"/>
@@ -27761,7 +27988,9 @@
       <c r="AT127" s="10">
         <v>9.2781213530957585E-2</v>
       </c>
-      <c r="AU127" s="10"/>
+      <c r="AU127" s="10">
+        <v>6.2508113226277029E-2</v>
+      </c>
       <c r="AV127" s="10"/>
       <c r="AW127" s="10"/>
       <c r="AX127" s="10"/>
@@ -27990,7 +28219,9 @@
       <c r="AT128" s="10">
         <v>6.2726647492809873E-2</v>
       </c>
-      <c r="AU128" s="10"/>
+      <c r="AU128" s="10">
+        <v>6.0211820570263308E-2</v>
+      </c>
       <c r="AV128" s="10"/>
       <c r="AW128" s="10"/>
       <c r="AX128" s="10"/>
@@ -28219,7 +28450,9 @@
       <c r="AT129" s="10">
         <v>6.6568047337278724E-3</v>
       </c>
-      <c r="AU129" s="10"/>
+      <c r="AU129" s="10">
+        <v>1.280506315140717E-2</v>
+      </c>
       <c r="AV129" s="10"/>
       <c r="AW129" s="10"/>
       <c r="AX129" s="10"/>
@@ -28448,7 +28681,9 @@
       <c r="AT130" s="10">
         <v>-3.6627333190302536E-2</v>
       </c>
-      <c r="AU130" s="10"/>
+      <c r="AU130" s="10">
+        <v>-8.0457483838886068E-2</v>
+      </c>
       <c r="AV130" s="10"/>
       <c r="AW130" s="10"/>
       <c r="AX130" s="10"/>
@@ -28677,7 +28912,9 @@
       <c r="AT131" s="10">
         <v>0.12169932596761868</v>
       </c>
-      <c r="AU131" s="10"/>
+      <c r="AU131" s="10">
+        <v>0.10428068135175828</v>
+      </c>
       <c r="AV131" s="10"/>
       <c r="AW131" s="10"/>
       <c r="AX131" s="10"/>
@@ -28906,7 +29143,9 @@
       <c r="AT132" s="10">
         <v>0</v>
       </c>
-      <c r="AU132" s="10"/>
+      <c r="AU132" s="10">
+        <v>0</v>
+      </c>
       <c r="AV132" s="10"/>
       <c r="AW132" s="10"/>
       <c r="AX132" s="10"/>
@@ -29135,7 +29374,9 @@
       <c r="AT133" s="10">
         <v>2.3317373886317716E-2</v>
       </c>
-      <c r="AU133" s="10"/>
+      <c r="AU133" s="10">
+        <v>2.3317373886317716E-2</v>
+      </c>
       <c r="AV133" s="10"/>
       <c r="AW133" s="10"/>
       <c r="AX133" s="10"/>
@@ -29364,7 +29605,9 @@
       <c r="AT134" s="10">
         <v>2.2188131083318297E-2</v>
       </c>
-      <c r="AU134" s="10"/>
+      <c r="AU134" s="10">
+        <v>2.2188131083318297E-2</v>
+      </c>
       <c r="AV134" s="10"/>
       <c r="AW134" s="10"/>
       <c r="AX134" s="10"/>
@@ -29593,7 +29836,9 @@
       <c r="AT135" s="10">
         <v>5.2210570948645563E-2</v>
       </c>
-      <c r="AU135" s="10"/>
+      <c r="AU135" s="10">
+        <v>5.2210570948645563E-2</v>
+      </c>
       <c r="AV135" s="10"/>
       <c r="AW135" s="10"/>
       <c r="AX135" s="10"/>
@@ -29822,7 +30067,9 @@
       <c r="AT136" s="10">
         <v>5.0648579481303635E-2</v>
       </c>
-      <c r="AU136" s="10"/>
+      <c r="AU136" s="10">
+        <v>5.0648579481303635E-2</v>
+      </c>
       <c r="AV136" s="10"/>
       <c r="AW136" s="10"/>
       <c r="AX136" s="10"/>
@@ -30051,7 +30298,9 @@
       <c r="AT137" s="10">
         <v>2.971992664937928E-2</v>
       </c>
-      <c r="AU137" s="10"/>
+      <c r="AU137" s="10">
+        <v>2.971992664937928E-2</v>
+      </c>
       <c r="AV137" s="10"/>
       <c r="AW137" s="10"/>
       <c r="AX137" s="10"/>
@@ -30280,7 +30529,9 @@
       <c r="AT138" s="10">
         <v>4.0835616078695569E-2</v>
       </c>
-      <c r="AU138" s="10"/>
+      <c r="AU138" s="10">
+        <v>4.0835616078695569E-2</v>
+      </c>
       <c r="AV138" s="10"/>
       <c r="AW138" s="10"/>
       <c r="AX138" s="10"/>
@@ -30509,7 +30760,9 @@
       <c r="AT139" s="10">
         <v>1.8514319600934748E-2</v>
       </c>
-      <c r="AU139" s="10"/>
+      <c r="AU139" s="10">
+        <v>1.555625119563131E-2</v>
+      </c>
       <c r="AV139" s="10"/>
       <c r="AW139" s="10"/>
       <c r="AX139" s="10"/>
@@ -30738,7 +30991,9 @@
       <c r="AT140" s="10">
         <v>0.16695650712839494</v>
       </c>
-      <c r="AU140" s="10"/>
+      <c r="AU140" s="10">
+        <v>0.14179558419780691</v>
+      </c>
       <c r="AV140" s="10"/>
       <c r="AW140" s="10"/>
       <c r="AX140" s="10"/>
@@ -30967,7 +31222,9 @@
       <c r="AT141" s="10">
         <v>-4.5267039024569078E-3</v>
       </c>
-      <c r="AU141" s="10"/>
+      <c r="AU141" s="10">
+        <v>6.5096035575740396E-2</v>
+      </c>
       <c r="AV141" s="10"/>
       <c r="AW141" s="10"/>
       <c r="AX141" s="10"/>
@@ -31196,7 +31453,9 @@
       <c r="AT142" s="10">
         <v>2.6340722025936181E-2</v>
       </c>
-      <c r="AU142" s="10"/>
+      <c r="AU142" s="10">
+        <v>4.9352457328849741E-2</v>
+      </c>
       <c r="AV142" s="10"/>
       <c r="AW142" s="10"/>
       <c r="AX142" s="10"/>
@@ -31425,7 +31684,9 @@
       <c r="AT143" s="10">
         <v>5.5455804092934713E-2</v>
       </c>
-      <c r="AU143" s="10"/>
+      <c r="AU143" s="10">
+        <v>4.3422531807818743E-2</v>
+      </c>
       <c r="AV143" s="10"/>
       <c r="AW143" s="10"/>
       <c r="AX143" s="10"/>
@@ -31654,7 +31915,9 @@
       <c r="AT144" s="10">
         <v>4.9487512927371302E-2</v>
       </c>
-      <c r="AU144" s="10"/>
+      <c r="AU144" s="10">
+        <v>3.1737737244269315E-2</v>
+      </c>
       <c r="AV144" s="10"/>
       <c r="AW144" s="10"/>
       <c r="AX144" s="10"/>
@@ -31883,7 +32146,9 @@
       <c r="AT145" s="10">
         <v>0.1248138677511117</v>
       </c>
-      <c r="AU145" s="10"/>
+      <c r="AU145" s="10">
+        <v>0.11988767790224331</v>
+      </c>
       <c r="AV145" s="10"/>
       <c r="AW145" s="10"/>
       <c r="AX145" s="10"/>
@@ -32112,7 +32377,9 @@
       <c r="AT146" s="10">
         <v>6.5219351929395319E-2</v>
       </c>
-      <c r="AU146" s="10"/>
+      <c r="AU146" s="10">
+        <v>9.8585347679315483E-2</v>
+      </c>
       <c r="AV146" s="10"/>
       <c r="AW146" s="10"/>
       <c r="AX146" s="10"/>
@@ -32341,7 +32608,9 @@
       <c r="AT147" s="10">
         <v>0.10282720608807572</v>
       </c>
-      <c r="AU147" s="10"/>
+      <c r="AU147" s="10">
+        <v>0.12769990487381788</v>
+      </c>
       <c r="AV147" s="10"/>
       <c r="AW147" s="10"/>
       <c r="AX147" s="10"/>
@@ -32570,7 +32839,9 @@
       <c r="AT148" s="10">
         <v>0.1006678855266594</v>
       </c>
-      <c r="AU148" s="10"/>
+      <c r="AU148" s="10">
+        <v>0.11075769835291061</v>
+      </c>
       <c r="AV148" s="10"/>
       <c r="AW148" s="10"/>
       <c r="AX148" s="10"/>
@@ -32799,7 +33070,9 @@
       <c r="AT149" s="10">
         <v>5.4553603293301389E-2</v>
       </c>
-      <c r="AU149" s="10"/>
+      <c r="AU149" s="10">
+        <v>6.2725668969383142E-2</v>
+      </c>
       <c r="AV149" s="10"/>
       <c r="AW149" s="10"/>
       <c r="AX149" s="10"/>
@@ -33028,7 +33301,9 @@
       <c r="AT150" s="10">
         <v>0.11136472370624362</v>
       </c>
-      <c r="AU150" s="10"/>
+      <c r="AU150" s="10">
+        <v>0.10775149529620376</v>
+      </c>
       <c r="AV150" s="10"/>
       <c r="AW150" s="10"/>
       <c r="AX150" s="10"/>
@@ -33257,7 +33532,9 @@
       <c r="AT151" s="10">
         <v>5.7597639989865002E-2</v>
       </c>
-      <c r="AU151" s="10"/>
+      <c r="AU151" s="10">
+        <v>9.5874647796442281E-2</v>
+      </c>
       <c r="AV151" s="10"/>
       <c r="AW151" s="10"/>
       <c r="AX151" s="10"/>
@@ -33486,7 +33763,9 @@
       <c r="AT152" s="10">
         <v>0.13021453037678032</v>
       </c>
-      <c r="AU152" s="10"/>
+      <c r="AU152" s="10">
+        <v>0.13939627166879953</v>
+      </c>
       <c r="AV152" s="10"/>
       <c r="AW152" s="10"/>
       <c r="AX152" s="10"/>
@@ -33715,7 +33994,9 @@
       <c r="AT153" s="10">
         <v>-1.23189681920719E-2</v>
       </c>
-      <c r="AU153" s="10"/>
+      <c r="AU153" s="10">
+        <v>8.5801136613947726E-2</v>
+      </c>
       <c r="AV153" s="10"/>
       <c r="AW153" s="10"/>
       <c r="AX153" s="10"/>
@@ -33944,7 +34225,9 @@
       <c r="AT154" s="10">
         <v>8.0536102390726949E-2</v>
       </c>
-      <c r="AU154" s="10"/>
+      <c r="AU154" s="10">
+        <v>9.0591817034231692E-2</v>
+      </c>
       <c r="AV154" s="10"/>
       <c r="AW154" s="10"/>
       <c r="AX154" s="10"/>
@@ -34173,7 +34456,9 @@
       <c r="AT155" s="10">
         <v>8.3545681251416815E-2</v>
       </c>
-      <c r="AU155" s="10"/>
+      <c r="AU155" s="10">
+        <v>8.0020874241539808E-2</v>
+      </c>
       <c r="AV155" s="10"/>
       <c r="AW155" s="10"/>
       <c r="AX155" s="10"/>
@@ -34402,7 +34687,9 @@
       <c r="AT156" s="10">
         <v>-7.8404643141142816E-2</v>
       </c>
-      <c r="AU156" s="10"/>
+      <c r="AU156" s="10">
+        <v>-7.2835907295995428E-2</v>
+      </c>
       <c r="AV156" s="10"/>
       <c r="AW156" s="10"/>
       <c r="AX156" s="10"/>
@@ -34631,7 +34918,9 @@
       <c r="AT157" s="10">
         <v>-1.124389072520271E-2</v>
       </c>
-      <c r="AU157" s="10"/>
+      <c r="AU157" s="10">
+        <v>-1.124389072520271E-2</v>
+      </c>
       <c r="AV157" s="10"/>
       <c r="AW157" s="10"/>
       <c r="AX157" s="10"/>
@@ -34860,7 +35149,9 @@
       <c r="AT158" s="10">
         <v>-4.0116083594344487E-2</v>
       </c>
-      <c r="AU158" s="10"/>
+      <c r="AU158" s="10">
+        <v>-2.9498681672594729E-2</v>
+      </c>
       <c r="AV158" s="10"/>
       <c r="AW158" s="10"/>
       <c r="AX158" s="10"/>
@@ -35089,7 +35380,9 @@
       <c r="AT159" s="10">
         <v>0.16733850392897232</v>
       </c>
-      <c r="AU159" s="10"/>
+      <c r="AU159" s="10">
+        <v>0.16733850392897232</v>
+      </c>
       <c r="AV159" s="10"/>
       <c r="AW159" s="10"/>
       <c r="AX159" s="10"/>
@@ -35318,7 +35611,9 @@
       <c r="AT160" s="10">
         <v>0.18244765620706715</v>
       </c>
-      <c r="AU160" s="10"/>
+      <c r="AU160" s="10">
+        <v>0.12665581292089101</v>
+      </c>
       <c r="AV160" s="10"/>
       <c r="AW160" s="10"/>
       <c r="AX160" s="10"/>
@@ -35547,7 +35842,9 @@
       <c r="AT161" s="10">
         <v>0.1360532413314417</v>
       </c>
-      <c r="AU161" s="10"/>
+      <c r="AU161" s="10">
+        <v>0.15670548000977114</v>
+      </c>
       <c r="AV161" s="10"/>
       <c r="AW161" s="10"/>
       <c r="AX161" s="10"/>
@@ -35776,7 +36073,9 @@
       <c r="AT162" s="10">
         <v>0.11371641340444794</v>
       </c>
-      <c r="AU162" s="10"/>
+      <c r="AU162" s="10">
+        <v>6.5010612373241017E-2</v>
+      </c>
       <c r="AV162" s="10"/>
       <c r="AW162" s="10"/>
       <c r="AX162" s="10"/>
@@ -36005,7 +36304,9 @@
       <c r="AT163" s="10">
         <v>-1.2931128953308946E-2</v>
       </c>
-      <c r="AU163" s="10"/>
+      <c r="AU163" s="10">
+        <v>-7.012262280637227E-3</v>
+      </c>
       <c r="AV163" s="10"/>
       <c r="AW163" s="10"/>
       <c r="AX163" s="10"/>
@@ -36234,7 +36535,9 @@
       <c r="AT164" s="10">
         <v>5.0305231434974118E-2</v>
       </c>
-      <c r="AU164" s="10"/>
+      <c r="AU164" s="10">
+        <v>-7.3789914863726658E-3</v>
+      </c>
       <c r="AV164" s="10"/>
       <c r="AW164" s="10"/>
       <c r="AX164" s="10"/>
@@ -36463,7 +36766,9 @@
       <c r="AT165" s="10">
         <v>8.5676049192659587E-2</v>
       </c>
-      <c r="AU165" s="10"/>
+      <c r="AU165" s="10">
+        <v>7.5344781255688664E-2</v>
+      </c>
       <c r="AV165" s="10"/>
       <c r="AW165" s="10"/>
       <c r="AX165" s="10"/>
@@ -36692,7 +36997,9 @@
       <c r="AT166" s="10">
         <v>0.27216645311293464</v>
       </c>
-      <c r="AU166" s="10"/>
+      <c r="AU166" s="10">
+        <v>0.29991216175881164</v>
+      </c>
       <c r="AV166" s="10"/>
       <c r="AW166" s="10"/>
       <c r="AX166" s="10"/>
@@ -36921,7 +37228,9 @@
       <c r="AT167" s="10">
         <v>0.10839754364359555</v>
       </c>
-      <c r="AU167" s="10"/>
+      <c r="AU167" s="10">
+        <v>6.151001491921404E-2</v>
+      </c>
       <c r="AV167" s="10"/>
       <c r="AW167" s="10"/>
       <c r="AX167" s="10"/>
@@ -37150,7 +37459,9 @@
       <c r="AT168" s="10">
         <v>6.9041022432746457E-2</v>
       </c>
-      <c r="AU168" s="10"/>
+      <c r="AU168" s="10">
+        <v>7.2252257050786861E-2</v>
+      </c>
       <c r="AV168" s="10"/>
       <c r="AW168" s="10"/>
       <c r="AX168" s="10"/>
@@ -37379,7 +37690,9 @@
       <c r="AT169" s="10">
         <v>4.3348519120286255E-2</v>
       </c>
-      <c r="AU169" s="10"/>
+      <c r="AU169" s="10">
+        <v>6.0663421669370887E-2</v>
+      </c>
       <c r="AV169" s="10"/>
       <c r="AW169" s="10"/>
       <c r="AX169" s="10"/>
@@ -37608,7 +37921,9 @@
       <c r="AT170" s="10">
         <v>9.6371468204716759E-3</v>
       </c>
-      <c r="AU170" s="10"/>
+      <c r="AU170" s="10">
+        <v>-7.8256053808059001E-3</v>
+      </c>
       <c r="AV170" s="10"/>
       <c r="AW170" s="10"/>
       <c r="AX170" s="10"/>
@@ -37837,7 +38152,9 @@
       <c r="AT171" s="10">
         <v>-9.0211723811028599E-2</v>
       </c>
-      <c r="AU171" s="10"/>
+      <c r="AU171" s="10">
+        <v>-8.9303300322232548E-2</v>
+      </c>
       <c r="AV171" s="10"/>
       <c r="AW171" s="10"/>
       <c r="AX171" s="10"/>
@@ -38066,7 +38383,9 @@
       <c r="AT172" s="10">
         <v>8.9501487104363564E-2</v>
       </c>
-      <c r="AU172" s="10"/>
+      <c r="AU172" s="10">
+        <v>0.20419874984300579</v>
+      </c>
       <c r="AV172" s="10"/>
       <c r="AW172" s="10"/>
       <c r="AX172" s="10"/>
@@ -38295,7 +38614,9 @@
       <c r="AT173" s="10">
         <v>0.18065551268734237</v>
       </c>
-      <c r="AU173" s="10"/>
+      <c r="AU173" s="10">
+        <v>8.409408318288647E-2</v>
+      </c>
       <c r="AV173" s="10"/>
       <c r="AW173" s="10"/>
       <c r="AX173" s="10"/>
@@ -38524,7 +38845,9 @@
       <c r="AT174" s="10">
         <v>7.5933362419752681E-2</v>
       </c>
-      <c r="AU174" s="10"/>
+      <c r="AU174" s="10">
+        <v>7.2516855125550839E-2</v>
+      </c>
       <c r="AV174" s="10"/>
       <c r="AW174" s="10"/>
       <c r="AX174" s="10"/>
@@ -38753,7 +39076,9 @@
       <c r="AT175" s="10">
         <v>0.12583255685543704</v>
       </c>
-      <c r="AU175" s="10"/>
+      <c r="AU175" s="10">
+        <v>0.16124234921944858</v>
+      </c>
       <c r="AV175" s="10"/>
       <c r="AW175" s="10"/>
       <c r="AX175" s="10"/>
@@ -38982,7 +39307,9 @@
       <c r="AT176" s="10">
         <v>0.10178168178512648</v>
       </c>
-      <c r="AU176" s="10"/>
+      <c r="AU176" s="10">
+        <v>0.16167343209923057</v>
+      </c>
       <c r="AV176" s="10"/>
       <c r="AW176" s="10"/>
       <c r="AX176" s="10"/>
@@ -39211,7 +39538,9 @@
       <c r="AT177" s="10">
         <v>2.2762502445558219E-2</v>
       </c>
-      <c r="AU177" s="10"/>
+      <c r="AU177" s="10">
+        <v>3.7959195707295557E-3</v>
+      </c>
       <c r="AV177" s="10"/>
       <c r="AW177" s="10"/>
       <c r="AX177" s="10"/>
@@ -39440,7 +39769,9 @@
       <c r="AT178" s="10">
         <v>0.12154814219516785</v>
       </c>
-      <c r="AU178" s="10"/>
+      <c r="AU178" s="10">
+        <v>0.10191516169676595</v>
+      </c>
       <c r="AV178" s="10"/>
       <c r="AW178" s="10"/>
       <c r="AX178" s="10"/>
@@ -39669,7 +40000,9 @@
       <c r="AT179" s="10">
         <v>7.4235302624918731E-2</v>
       </c>
-      <c r="AU179" s="10"/>
+      <c r="AU179" s="10">
+        <v>8.1329465277031776E-2</v>
+      </c>
       <c r="AV179" s="10"/>
       <c r="AW179" s="10"/>
       <c r="AX179" s="10"/>
@@ -39898,7 +40231,9 @@
       <c r="AT180" s="10">
         <v>0.11844440249197663</v>
       </c>
-      <c r="AU180" s="10"/>
+      <c r="AU180" s="10">
+        <v>0.10720711814137407</v>
+      </c>
       <c r="AV180" s="10"/>
       <c r="AW180" s="10"/>
       <c r="AX180" s="10"/>
@@ -40127,7 +40462,9 @@
       <c r="AT181" s="10">
         <v>9.6356857284039199E-2</v>
       </c>
-      <c r="AU181" s="10"/>
+      <c r="AU181" s="10">
+        <v>0.18752353821640666</v>
+      </c>
       <c r="AV181" s="10"/>
       <c r="AW181" s="10"/>
       <c r="AX181" s="10"/>
@@ -40356,7 +40693,9 @@
       <c r="AT182" s="10">
         <v>0.24313406692870498</v>
       </c>
-      <c r="AU182" s="10"/>
+      <c r="AU182" s="10">
+        <v>0.20637537561926411</v>
+      </c>
       <c r="AV182" s="10"/>
       <c r="AW182" s="10"/>
       <c r="AX182" s="10"/>
@@ -40585,7 +40924,9 @@
       <c r="AT183" s="10">
         <v>0.10733814271929409</v>
       </c>
-      <c r="AU183" s="10"/>
+      <c r="AU183" s="10">
+        <v>0.11847464188927592</v>
+      </c>
       <c r="AV183" s="10"/>
       <c r="AW183" s="10"/>
       <c r="AX183" s="10"/>
@@ -40814,7 +41155,9 @@
       <c r="AT184" s="10">
         <v>0.13316311798051639</v>
       </c>
-      <c r="AU184" s="10"/>
+      <c r="AU184" s="10">
+        <v>0.17831253894199373</v>
+      </c>
       <c r="AV184" s="10"/>
       <c r="AW184" s="10"/>
       <c r="AX184" s="10"/>
@@ -41043,7 +41386,9 @@
       <c r="AT185" s="10">
         <v>-5.0232098765432109E-2</v>
       </c>
-      <c r="AU185" s="10"/>
+      <c r="AU185" s="10">
+        <v>-6.5740950170621648E-2</v>
+      </c>
       <c r="AV185" s="10"/>
       <c r="AW185" s="10"/>
       <c r="AX185" s="10"/>
@@ -41272,7 +41617,9 @@
       <c r="AT186" s="10">
         <v>0.23862497840732422</v>
       </c>
-      <c r="AU186" s="10"/>
+      <c r="AU186" s="10">
+        <v>0.18319069563309198</v>
+      </c>
       <c r="AV186" s="10"/>
       <c r="AW186" s="10"/>
       <c r="AX186" s="10"/>
@@ -41501,7 +41848,9 @@
       <c r="AT187" s="10">
         <v>4.7813636873159204E-2</v>
       </c>
-      <c r="AU187" s="10"/>
+      <c r="AU187" s="10">
+        <v>-7.6206399984536377E-2</v>
+      </c>
       <c r="AV187" s="10"/>
       <c r="AW187" s="10"/>
       <c r="AX187" s="10"/>
@@ -41730,7 +42079,9 @@
       <c r="AT188" s="10">
         <v>-4.8276028997083387E-2</v>
       </c>
-      <c r="AU188" s="10"/>
+      <c r="AU188" s="10">
+        <v>-0.10741535526943247</v>
+      </c>
       <c r="AV188" s="10"/>
       <c r="AW188" s="10"/>
       <c r="AX188" s="10"/>
@@ -41959,7 +42310,9 @@
       <c r="AT189" s="10">
         <v>9.8575292636291501E-2</v>
       </c>
-      <c r="AU189" s="10"/>
+      <c r="AU189" s="10">
+        <v>0.1044858345152555</v>
+      </c>
       <c r="AV189" s="10"/>
       <c r="AW189" s="10"/>
       <c r="AX189" s="10"/>
@@ -42188,7 +42541,9 @@
       <c r="AT190" s="10">
         <v>9.7794948353776778E-2</v>
       </c>
-      <c r="AU190" s="10"/>
+      <c r="AU190" s="10">
+        <v>6.9754899023191763E-2</v>
+      </c>
       <c r="AV190" s="10"/>
       <c r="AW190" s="10"/>
       <c r="AX190" s="10"/>
@@ -42417,7 +42772,9 @@
       <c r="AT191" s="10">
         <v>0.23369393622147983</v>
       </c>
-      <c r="AU191" s="10"/>
+      <c r="AU191" s="10">
+        <v>0.20834452939883219</v>
+      </c>
       <c r="AV191" s="10"/>
       <c r="AW191" s="10"/>
       <c r="AX191" s="10"/>
@@ -42646,7 +43003,9 @@
       <c r="AT192" s="10">
         <v>0.1008621518541073</v>
       </c>
-      <c r="AU192" s="10"/>
+      <c r="AU192" s="10">
+        <v>2.6855123674911718E-2</v>
+      </c>
       <c r="AV192" s="10"/>
       <c r="AW192" s="10"/>
       <c r="AX192" s="10"/>
@@ -42875,7 +43234,9 @@
       <c r="AT193" s="10">
         <v>-6.311707032456626E-2</v>
       </c>
-      <c r="AU193" s="10"/>
+      <c r="AU193" s="10">
+        <v>-4.5497957539842426E-2</v>
+      </c>
       <c r="AV193" s="10"/>
       <c r="AW193" s="10"/>
       <c r="AX193" s="10"/>
@@ -43104,7 +43465,9 @@
       <c r="AT194" s="10">
         <v>5.0874200815373527E-2</v>
       </c>
-      <c r="AU194" s="10"/>
+      <c r="AU194" s="10">
+        <v>5.1108726752503442E-2</v>
+      </c>
       <c r="AV194" s="10"/>
       <c r="AW194" s="10"/>
       <c r="AX194" s="10"/>
@@ -43333,7 +43696,9 @@
       <c r="AT195" s="10">
         <v>-2.6888112527665431E-3</v>
       </c>
-      <c r="AU195" s="10"/>
+      <c r="AU195" s="10">
+        <v>2.7831411706294551E-2</v>
+      </c>
       <c r="AV195" s="10"/>
       <c r="AW195" s="10"/>
       <c r="AX195" s="10"/>
@@ -43562,7 +43927,9 @@
       <c r="AT196" s="10">
         <v>0.13556116602539614</v>
       </c>
-      <c r="AU196" s="10"/>
+      <c r="AU196" s="10">
+        <v>0.10357269447145745</v>
+      </c>
       <c r="AV196" s="10"/>
       <c r="AW196" s="10"/>
       <c r="AX196" s="10"/>
@@ -43791,7 +44158,9 @@
       <c r="AT197" s="10">
         <v>4.0826438091461359E-3</v>
       </c>
-      <c r="AU197" s="10"/>
+      <c r="AU197" s="10">
+        <v>9.636753397446185E-4</v>
+      </c>
       <c r="AV197" s="10"/>
       <c r="AW197" s="10"/>
       <c r="AX197" s="10"/>
@@ -44020,7 +44389,9 @@
       <c r="AT198" s="10">
         <v>4.7690329690513344E-2</v>
       </c>
-      <c r="AU198" s="10"/>
+      <c r="AU198" s="10">
+        <v>-1.2652296157450782E-2</v>
+      </c>
       <c r="AV198" s="10"/>
       <c r="AW198" s="10"/>
       <c r="AX198" s="10"/>
@@ -44249,7 +44620,9 @@
       <c r="AT199" s="10">
         <v>0.24783376566035664</v>
       </c>
-      <c r="AU199" s="10"/>
+      <c r="AU199" s="10">
+        <v>0.19508220080864924</v>
+      </c>
       <c r="AV199" s="10"/>
       <c r="AW199" s="10"/>
       <c r="AX199" s="10"/>
@@ -44478,7 +44851,9 @@
       <c r="AT200" s="10">
         <v>8.9912423492642279E-2</v>
       </c>
-      <c r="AU200" s="10"/>
+      <c r="AU200" s="10">
+        <v>2.6616994681502915E-2</v>
+      </c>
       <c r="AV200" s="10"/>
       <c r="AW200" s="10"/>
       <c r="AX200" s="10"/>
@@ -44707,7 +45082,9 @@
       <c r="AT201" s="10">
         <v>7.482217152060322E-3</v>
       </c>
-      <c r="AU201" s="10"/>
+      <c r="AU201" s="10">
+        <v>0.11022626500311694</v>
+      </c>
       <c r="AV201" s="10"/>
       <c r="AW201" s="10"/>
       <c r="AX201" s="10"/>
@@ -44936,7 +45313,9 @@
       <c r="AT202" s="10">
         <v>-1.917053411830294E-2</v>
       </c>
-      <c r="AU202" s="10"/>
+      <c r="AU202" s="10">
+        <v>-3.7747780615347226E-2</v>
+      </c>
       <c r="AV202" s="10"/>
       <c r="AW202" s="10"/>
       <c r="AX202" s="10"/>
@@ -45165,7 +45544,9 @@
       <c r="AT203" s="10">
         <v>9.1041514930800815E-4</v>
       </c>
-      <c r="AU203" s="10"/>
+      <c r="AU203" s="10">
+        <v>-2.2064001923836729E-2</v>
+      </c>
       <c r="AV203" s="10"/>
       <c r="AW203" s="10"/>
       <c r="AX203" s="10"/>
@@ -45394,7 +45775,9 @@
       <c r="AT204" s="10">
         <v>1.1587952736580087E-2</v>
       </c>
-      <c r="AU204" s="10"/>
+      <c r="AU204" s="10">
+        <v>9.9526108967960658E-2</v>
+      </c>
       <c r="AV204" s="10"/>
       <c r="AW204" s="10"/>
       <c r="AX204" s="10"/>
@@ -45623,7 +46006,9 @@
       <c r="AT205" s="10">
         <v>0.12529170497136</v>
       </c>
-      <c r="AU205" s="10"/>
+      <c r="AU205" s="10">
+        <v>0.17411649607280322</v>
+      </c>
       <c r="AV205" s="10"/>
       <c r="AW205" s="10"/>
       <c r="AX205" s="10"/>
@@ -45852,7 +46237,9 @@
       <c r="AT206" s="10">
         <v>0.26137627801027707</v>
       </c>
-      <c r="AU206" s="10"/>
+      <c r="AU206" s="10">
+        <v>0.11184907017158374</v>
+      </c>
       <c r="AV206" s="10"/>
       <c r="AW206" s="10"/>
       <c r="AX206" s="10"/>
@@ -46081,7 +46468,9 @@
       <c r="AT207" s="10">
         <v>9.362743592106737E-2</v>
       </c>
-      <c r="AU207" s="10"/>
+      <c r="AU207" s="10">
+        <v>6.9514172413119413E-2</v>
+      </c>
       <c r="AV207" s="10"/>
       <c r="AW207" s="10"/>
       <c r="AX207" s="10"/>
@@ -46310,7 +46699,9 @@
       <c r="AT208" s="10">
         <v>0.13365176640230714</v>
       </c>
-      <c r="AU208" s="10"/>
+      <c r="AU208" s="10">
+        <v>0.14369925300422226</v>
+      </c>
       <c r="AV208" s="10"/>
       <c r="AW208" s="10"/>
       <c r="AX208" s="10"/>
@@ -46539,7 +46930,9 @@
       <c r="AT209" s="10">
         <v>0.10166585799773564</v>
       </c>
-      <c r="AU209" s="10"/>
+      <c r="AU209" s="10">
+        <v>0.10918098230819173</v>
+      </c>
       <c r="AV209" s="10"/>
       <c r="AW209" s="10"/>
       <c r="AX209" s="10"/>
@@ -46768,7 +47161,9 @@
       <c r="AT210" s="10">
         <v>5.5631201886708448E-2</v>
       </c>
-      <c r="AU210" s="10"/>
+      <c r="AU210" s="10">
+        <v>7.7210219420944304E-2</v>
+      </c>
       <c r="AV210" s="10"/>
       <c r="AW210" s="10"/>
       <c r="AX210" s="10"/>
@@ -46997,7 +47392,9 @@
       <c r="AT211" s="10">
         <v>8.721287311141146E-2</v>
       </c>
-      <c r="AU211" s="10"/>
+      <c r="AU211" s="10">
+        <v>9.2197477028500119E-2</v>
+      </c>
       <c r="AV211" s="10"/>
       <c r="AW211" s="10"/>
       <c r="AX211" s="10"/>
@@ -47226,7 +47623,9 @@
       <c r="AT212" s="10">
         <v>0.24780379512659234</v>
       </c>
-      <c r="AU212" s="10"/>
+      <c r="AU212" s="10">
+        <v>0.26584571566194426</v>
+      </c>
       <c r="AV212" s="10"/>
       <c r="AW212" s="10"/>
       <c r="AX212" s="10"/>
@@ -47455,7 +47854,9 @@
       <c r="AT213" s="10">
         <v>0.16121222845101468</v>
       </c>
-      <c r="AU213" s="10"/>
+      <c r="AU213" s="10">
+        <v>0.17645522328990482</v>
+      </c>
       <c r="AV213" s="10"/>
       <c r="AW213" s="10"/>
       <c r="AX213" s="10"/>
@@ -47684,7 +48085,9 @@
       <c r="AT214" s="10">
         <v>3.5589403731029146E-2</v>
       </c>
-      <c r="AU214" s="10"/>
+      <c r="AU214" s="10">
+        <v>8.1062399393996953E-2</v>
+      </c>
       <c r="AV214" s="10"/>
       <c r="AW214" s="10"/>
       <c r="AX214" s="10"/>
@@ -47913,7 +48316,9 @@
       <c r="AT215" s="10">
         <v>-7.6869874518327164E-3</v>
       </c>
-      <c r="AU215" s="10"/>
+      <c r="AU215" s="10">
+        <v>4.3539043221317186E-2</v>
+      </c>
       <c r="AV215" s="10"/>
       <c r="AW215" s="10"/>
       <c r="AX215" s="10"/>
@@ -48142,7 +48547,9 @@
       <c r="AT216" s="10">
         <v>3.0630107663422557E-2</v>
       </c>
-      <c r="AU216" s="10"/>
+      <c r="AU216" s="10">
+        <v>3.2181114003501099E-2</v>
+      </c>
       <c r="AV216" s="10"/>
       <c r="AW216" s="10"/>
       <c r="AX216" s="10"/>
@@ -48371,7 +48778,9 @@
       <c r="AT217" s="10">
         <v>0.16105382259058576</v>
       </c>
-      <c r="AU217" s="10"/>
+      <c r="AU217" s="10">
+        <v>0.14891041162227592</v>
+      </c>
       <c r="AV217" s="10"/>
       <c r="AW217" s="10"/>
       <c r="AX217" s="10"/>
@@ -48600,7 +49009,9 @@
       <c r="AT218" s="10">
         <v>5.0969786604690315E-2</v>
       </c>
-      <c r="AU218" s="10"/>
+      <c r="AU218" s="10">
+        <v>7.2356046105020777E-2</v>
+      </c>
       <c r="AV218" s="10"/>
       <c r="AW218" s="10"/>
       <c r="AX218" s="10"/>
@@ -48829,7 +49240,9 @@
       <c r="AT219" s="10">
         <v>0.1132458161794534</v>
       </c>
-      <c r="AU219" s="10"/>
+      <c r="AU219" s="10">
+        <v>0.12896026605986344</v>
+      </c>
       <c r="AV219" s="10"/>
       <c r="AW219" s="10"/>
       <c r="AX219" s="10"/>
@@ -49058,7 +49471,9 @@
       <c r="AT220" s="10">
         <v>0.1834557504578842</v>
       </c>
-      <c r="AU220" s="10"/>
+      <c r="AU220" s="10">
+        <v>0.20899797473237536</v>
+      </c>
       <c r="AV220" s="10"/>
       <c r="AW220" s="10"/>
       <c r="AX220" s="10"/>
@@ -49287,7 +49702,9 @@
       <c r="AT221" s="10">
         <v>0.10604544035818453</v>
       </c>
-      <c r="AU221" s="10"/>
+      <c r="AU221" s="10">
+        <v>0.135839173974176</v>
+      </c>
       <c r="AV221" s="10"/>
       <c r="AW221" s="10"/>
       <c r="AX221" s="10"/>
@@ -49516,7 +49933,9 @@
       <c r="AT222" s="10">
         <v>4.9417374918278689E-2</v>
       </c>
-      <c r="AU222" s="10"/>
+      <c r="AU222" s="10">
+        <v>-1.0082676129196111E-2</v>
+      </c>
       <c r="AV222" s="10"/>
       <c r="AW222" s="10"/>
       <c r="AX222" s="10"/>
@@ -49745,7 +50164,9 @@
       <c r="AT223" s="10">
         <v>1.0626403378271032E-3</v>
       </c>
-      <c r="AU223" s="10"/>
+      <c r="AU223" s="10">
+        <v>7.2190999878704476E-2</v>
+      </c>
       <c r="AV223" s="10"/>
       <c r="AW223" s="10"/>
       <c r="AX223" s="10"/>
@@ -49974,7 +50395,9 @@
       <c r="AT224" s="10">
         <v>-3.5632627609347711E-3</v>
       </c>
-      <c r="AU224" s="10"/>
+      <c r="AU224" s="10">
+        <v>5.2541337842916258E-2</v>
+      </c>
       <c r="AV224" s="10"/>
       <c r="AW224" s="10"/>
       <c r="AX224" s="10"/>
@@ -50203,7 +50626,9 @@
       <c r="AT225" s="10">
         <v>0.13785934950595902</v>
       </c>
-      <c r="AU225" s="10"/>
+      <c r="AU225" s="10">
+        <v>0.16398932297985924</v>
+      </c>
       <c r="AV225" s="10"/>
       <c r="AW225" s="10"/>
       <c r="AX225" s="10"/>
@@ -50432,7 +50857,9 @@
       <c r="AT226" s="10">
         <v>-1.2304883252457488E-3</v>
       </c>
-      <c r="AU226" s="10"/>
+      <c r="AU226" s="10">
+        <v>6.7435889171796548E-2</v>
+      </c>
       <c r="AV226" s="10"/>
       <c r="AW226" s="10"/>
       <c r="AX226" s="10"/>
@@ -50661,7 +51088,9 @@
       <c r="AT227" s="10">
         <v>3.3406748455701463E-2</v>
       </c>
-      <c r="AU227" s="10"/>
+      <c r="AU227" s="10">
+        <v>4.5857274627446598E-2</v>
+      </c>
       <c r="AV227" s="10"/>
       <c r="AW227" s="10"/>
       <c r="AX227" s="10"/>
@@ -50890,7 +51319,9 @@
       <c r="AT228" s="10">
         <v>9.3843115820653411E-2</v>
       </c>
-      <c r="AU228" s="10"/>
+      <c r="AU228" s="10">
+        <v>9.4995607035914809E-2</v>
+      </c>
       <c r="AV228" s="10"/>
       <c r="AW228" s="10"/>
       <c r="AX228" s="10"/>
@@ -51119,7 +51550,9 @@
       <c r="AT229" s="10">
         <v>2.4539026757243843E-2</v>
       </c>
-      <c r="AU229" s="10"/>
+      <c r="AU229" s="10">
+        <v>2.8854152225149088E-2</v>
+      </c>
       <c r="AV229" s="10"/>
       <c r="AW229" s="10"/>
       <c r="AX229" s="10"/>
@@ -51348,7 +51781,9 @@
       <c r="AT230" s="10">
         <v>5.8276631745688867E-2</v>
       </c>
-      <c r="AU230" s="10"/>
+      <c r="AU230" s="10">
+        <v>0.10655398351153833</v>
+      </c>
       <c r="AV230" s="10"/>
       <c r="AW230" s="10"/>
       <c r="AX230" s="10"/>
@@ -51577,7 +52012,9 @@
       <c r="AT231" s="10">
         <v>9.078461283978756E-2</v>
       </c>
-      <c r="AU231" s="10"/>
+      <c r="AU231" s="10">
+        <v>0.10485476637948676</v>
+      </c>
       <c r="AV231" s="10"/>
       <c r="AW231" s="10"/>
       <c r="AX231" s="10"/>
@@ -51806,7 +52243,9 @@
       <c r="AT232" s="10">
         <v>0.11445444926691284</v>
       </c>
-      <c r="AU232" s="10"/>
+      <c r="AU232" s="10">
+        <v>0.29835352125077041</v>
+      </c>
       <c r="AV232" s="10"/>
       <c r="AW232" s="10"/>
       <c r="AX232" s="10"/>
@@ -52035,7 +52474,9 @@
       <c r="AT233" s="10">
         <v>3.2071150600957443E-2</v>
       </c>
-      <c r="AU233" s="10"/>
+      <c r="AU233" s="10">
+        <v>0.18761774033227607</v>
+      </c>
       <c r="AV233" s="10"/>
       <c r="AW233" s="10"/>
       <c r="AX233" s="10"/>
@@ -52264,7 +52705,9 @@
       <c r="AT234" s="10">
         <v>5.9965521124808241E-2</v>
       </c>
-      <c r="AU234" s="10"/>
+      <c r="AU234" s="10">
+        <v>7.5076523513588622E-2</v>
+      </c>
       <c r="AV234" s="10"/>
       <c r="AW234" s="10"/>
       <c r="AX234" s="10"/>
@@ -52493,7 +52936,9 @@
       <c r="AT235" s="10">
         <v>4.3580183106910697E-2</v>
       </c>
-      <c r="AU235" s="10"/>
+      <c r="AU235" s="10">
+        <v>7.9279635859885289E-2</v>
+      </c>
       <c r="AV235" s="10"/>
       <c r="AW235" s="10"/>
       <c r="AX235" s="10"/>
@@ -52722,7 +53167,9 @@
       <c r="AT236" s="10">
         <v>0.16384512432787823</v>
       </c>
-      <c r="AU236" s="10"/>
+      <c r="AU236" s="10">
+        <v>0.26780084243448443</v>
+      </c>
       <c r="AV236" s="10"/>
       <c r="AW236" s="10"/>
       <c r="AX236" s="10"/>
@@ -52951,7 +53398,9 @@
       <c r="AT237" s="10">
         <v>7.8705947670370868E-2</v>
       </c>
-      <c r="AU237" s="10"/>
+      <c r="AU237" s="10">
+        <v>-1.4217800474514708E-2</v>
+      </c>
       <c r="AV237" s="10"/>
       <c r="AW237" s="10"/>
       <c r="AX237" s="10"/>
@@ -53180,7 +53629,9 @@
       <c r="AT238" s="10">
         <v>3.314323111443529E-2</v>
       </c>
-      <c r="AU238" s="10"/>
+      <c r="AU238" s="10">
+        <v>2.3184755837854842E-2</v>
+      </c>
       <c r="AV238" s="10"/>
       <c r="AW238" s="10"/>
       <c r="AX238" s="10"/>
@@ -53409,7 +53860,9 @@
       <c r="AT239" s="10">
         <v>3.9527216610549809E-2</v>
       </c>
-      <c r="AU239" s="10"/>
+      <c r="AU239" s="10">
+        <v>0.14819030275438183</v>
+      </c>
       <c r="AV239" s="10"/>
       <c r="AW239" s="10"/>
       <c r="AX239" s="10"/>
@@ -53638,7 +54091,9 @@
       <c r="AT240" s="10">
         <v>5.5184058791361679E-2</v>
       </c>
-      <c r="AU240" s="10"/>
+      <c r="AU240" s="10">
+        <v>-4.3474079061267545E-3</v>
+      </c>
       <c r="AV240" s="10"/>
       <c r="AW240" s="10"/>
       <c r="AX240" s="10"/>
@@ -53867,7 +54322,9 @@
       <c r="AT241" s="10">
         <v>5.7164498723547563E-2</v>
       </c>
-      <c r="AU241" s="10"/>
+      <c r="AU241" s="10">
+        <v>6.048833586697433E-2</v>
+      </c>
       <c r="AV241" s="10"/>
       <c r="AW241" s="10"/>
       <c r="AX241" s="10"/>
@@ -54096,7 +54553,9 @@
       <c r="AT242" s="10">
         <v>1.5551801287612355E-2</v>
       </c>
-      <c r="AU242" s="10"/>
+      <c r="AU242" s="10">
+        <v>2.8246117411304006E-2</v>
+      </c>
       <c r="AV242" s="10"/>
       <c r="AW242" s="10"/>
       <c r="AX242" s="10"/>
@@ -54325,7 +54784,9 @@
       <c r="AT243" s="10">
         <v>2.6652510571308241E-2</v>
       </c>
-      <c r="AU243" s="10"/>
+      <c r="AU243" s="10">
+        <v>6.4130504749556394E-2</v>
+      </c>
       <c r="AV243" s="10"/>
       <c r="AW243" s="10"/>
       <c r="AX243" s="10"/>
@@ -54554,7 +55015,9 @@
       <c r="AT244" s="10">
         <v>0.18020100241514525</v>
       </c>
-      <c r="AU244" s="10"/>
+      <c r="AU244" s="10">
+        <v>0.21111474694589871</v>
+      </c>
       <c r="AV244" s="10"/>
       <c r="AW244" s="10"/>
       <c r="AX244" s="10"/>
@@ -54783,7 +55246,9 @@
       <c r="AT245" s="10">
         <v>0.10619248943048998</v>
       </c>
-      <c r="AU245" s="10"/>
+      <c r="AU245" s="10">
+        <v>0.14063696020503813</v>
+      </c>
       <c r="AV245" s="10"/>
       <c r="AW245" s="10"/>
       <c r="AX245" s="10"/>
@@ -55012,7 +55477,9 @@
       <c r="AT246" s="10">
         <v>0.19814637535051971</v>
       </c>
-      <c r="AU246" s="10"/>
+      <c r="AU246" s="10">
+        <v>0.23256930580475599</v>
+      </c>
       <c r="AV246" s="10"/>
       <c r="AW246" s="10"/>
       <c r="AX246" s="10"/>
@@ -55241,7 +55708,9 @@
       <c r="AT247" s="10">
         <v>0.18484256751284578</v>
       </c>
-      <c r="AU247" s="10"/>
+      <c r="AU247" s="10">
+        <v>0.14479673316513653</v>
+      </c>
       <c r="AV247" s="10"/>
       <c r="AW247" s="10"/>
       <c r="AX247" s="10"/>
@@ -55470,7 +55939,9 @@
       <c r="AT248" s="10">
         <v>-5.716550171580792E-3</v>
       </c>
-      <c r="AU248" s="10"/>
+      <c r="AU248" s="10">
+        <v>4.2439902905019089E-2</v>
+      </c>
       <c r="AV248" s="10"/>
       <c r="AW248" s="10"/>
       <c r="AX248" s="10"/>
@@ -55699,7 +56170,9 @@
       <c r="AT249" s="10">
         <v>0.11221015407931301</v>
       </c>
-      <c r="AU249" s="10"/>
+      <c r="AU249" s="10">
+        <v>0.10380108378817243</v>
+      </c>
       <c r="AV249" s="10"/>
       <c r="AW249" s="10"/>
       <c r="AX249" s="10"/>
@@ -55928,7 +56401,9 @@
       <c r="AT250" s="10">
         <v>0.1216184181830251</v>
       </c>
-      <c r="AU250" s="10"/>
+      <c r="AU250" s="10">
+        <v>0.11859078177695648</v>
+      </c>
       <c r="AV250" s="10"/>
       <c r="AW250" s="10"/>
       <c r="AX250" s="10"/>
@@ -56157,7 +56632,9 @@
       <c r="AT251" s="10">
         <v>0.16149409072384713</v>
       </c>
-      <c r="AU251" s="10"/>
+      <c r="AU251" s="10">
+        <v>0.17998763645135996</v>
+      </c>
       <c r="AV251" s="10"/>
       <c r="AW251" s="10"/>
       <c r="AX251" s="10"/>
@@ -56386,7 +56863,9 @@
       <c r="AT252" s="10">
         <v>0.1196200483505605</v>
       </c>
-      <c r="AU252" s="10"/>
+      <c r="AU252" s="10">
+        <v>0.15207095577504326</v>
+      </c>
       <c r="AV252" s="10"/>
       <c r="AW252" s="10"/>
       <c r="AX252" s="10"/>
@@ -56615,7 +57094,9 @@
       <c r="AT253" s="10">
         <v>0.16313927588767085</v>
       </c>
-      <c r="AU253" s="10"/>
+      <c r="AU253" s="10">
+        <v>0.17240158228394731</v>
+      </c>
       <c r="AV253" s="10"/>
       <c r="AW253" s="10"/>
       <c r="AX253" s="10"/>
@@ -56844,7 +57325,9 @@
       <c r="AT254" s="10">
         <v>8.992451310524463E-2</v>
       </c>
-      <c r="AU254" s="10"/>
+      <c r="AU254" s="10">
+        <v>6.6927143579329718E-2</v>
+      </c>
       <c r="AV254" s="10"/>
       <c r="AW254" s="10"/>
       <c r="AX254" s="10"/>
@@ -57073,7 +57556,9 @@
       <c r="AT255" s="10">
         <v>0.16366222339827341</v>
       </c>
-      <c r="AU255" s="10"/>
+      <c r="AU255" s="10">
+        <v>0.17637144381675118</v>
+      </c>
       <c r="AV255" s="10"/>
       <c r="AW255" s="10"/>
       <c r="AX255" s="10"/>
@@ -57302,7 +57787,9 @@
       <c r="AT256" s="10">
         <v>0.1360032451967399</v>
       </c>
-      <c r="AU256" s="10"/>
+      <c r="AU256" s="10">
+        <v>0.12009689574735338</v>
+      </c>
       <c r="AV256" s="10"/>
       <c r="AW256" s="10"/>
       <c r="AX256" s="10"/>
@@ -57531,7 +58018,9 @@
       <c r="AT257" s="10">
         <v>2.2765742125578692E-2</v>
       </c>
-      <c r="AU257" s="10"/>
+      <c r="AU257" s="10">
+        <v>5.1516490801613246E-2</v>
+      </c>
       <c r="AV257" s="10"/>
       <c r="AW257" s="10"/>
       <c r="AX257" s="10"/>
@@ -57760,7 +58249,9 @@
       <c r="AT258" s="10">
         <v>5.9210914889846977E-2</v>
       </c>
-      <c r="AU258" s="10"/>
+      <c r="AU258" s="10">
+        <v>4.8936937639523892E-2</v>
+      </c>
       <c r="AV258" s="10"/>
       <c r="AW258" s="10"/>
       <c r="AX258" s="10"/>
@@ -57989,7 +58480,9 @@
       <c r="AT259" s="10">
         <v>7.6693155784650635E-2</v>
       </c>
-      <c r="AU259" s="10"/>
+      <c r="AU259" s="10">
+        <v>-9.5493125913877042E-2</v>
+      </c>
       <c r="AV259" s="10"/>
       <c r="AW259" s="10"/>
       <c r="AX259" s="10"/>
@@ -58218,7 +58711,9 @@
       <c r="AT260" s="10">
         <v>2.1395419358642975E-2</v>
       </c>
-      <c r="AU260" s="10"/>
+      <c r="AU260" s="10">
+        <v>6.9045143918607943E-2</v>
+      </c>
       <c r="AV260" s="10"/>
       <c r="AW260" s="10"/>
       <c r="AX260" s="10"/>
@@ -58447,7 +58942,9 @@
       <c r="AT261" s="10">
         <v>0.27100087312163956</v>
       </c>
-      <c r="AU261" s="10"/>
+      <c r="AU261" s="10">
+        <v>0.27225692757814346</v>
+      </c>
       <c r="AV261" s="10"/>
       <c r="AW261" s="10"/>
       <c r="AX261" s="10"/>
@@ -58676,7 +59173,9 @@
       <c r="AT262" s="10">
         <v>7.808999496361646E-2</v>
       </c>
-      <c r="AU262" s="10"/>
+      <c r="AU262" s="10">
+        <v>0.13095248028703743</v>
+      </c>
       <c r="AV262" s="10"/>
       <c r="AW262" s="10"/>
       <c r="AX262" s="10"/>
@@ -58905,7 +59404,9 @@
       <c r="AT263" s="10">
         <v>5.1544754189500441E-2</v>
       </c>
-      <c r="AU263" s="10"/>
+      <c r="AU263" s="10">
+        <v>0.11021811992208752</v>
+      </c>
       <c r="AV263" s="10"/>
       <c r="AW263" s="10"/>
       <c r="AX263" s="10"/>
@@ -59134,7 +59635,9 @@
       <c r="AT264" s="10">
         <v>0.12344920259586045</v>
       </c>
-      <c r="AU264" s="10"/>
+      <c r="AU264" s="10">
+        <v>0.14441272642341829</v>
+      </c>
       <c r="AV264" s="10"/>
       <c r="AW264" s="10"/>
       <c r="AX264" s="10"/>
@@ -59363,7 +59866,9 @@
       <c r="AT265" s="10">
         <v>6.4337094241793569E-2</v>
       </c>
-      <c r="AU265" s="10"/>
+      <c r="AU265" s="10">
+        <v>4.2870214216512936E-2</v>
+      </c>
       <c r="AV265" s="10"/>
       <c r="AW265" s="10"/>
       <c r="AX265" s="10"/>
@@ -59592,7 +60097,9 @@
       <c r="AT266" s="10">
         <v>-6.685084435728017E-3</v>
       </c>
-      <c r="AU266" s="10"/>
+      <c r="AU266" s="10">
+        <v>7.7168111117488447E-2</v>
+      </c>
       <c r="AV266" s="10"/>
       <c r="AW266" s="10"/>
       <c r="AX266" s="10"/>
@@ -59821,7 +60328,9 @@
       <c r="AT267" s="10">
         <v>-1.567786120967074E-2</v>
       </c>
-      <c r="AU267" s="10"/>
+      <c r="AU267" s="10">
+        <v>5.0884862307822409E-2</v>
+      </c>
       <c r="AV267" s="10"/>
       <c r="AW267" s="10"/>
       <c r="AX267" s="10"/>
@@ -60050,7 +60559,9 @@
       <c r="AT268" s="10">
         <v>5.4857173664962344E-2</v>
       </c>
-      <c r="AU268" s="10"/>
+      <c r="AU268" s="10">
+        <v>0.18204307601758352</v>
+      </c>
       <c r="AV268" s="10"/>
       <c r="AW268" s="10"/>
       <c r="AX268" s="10"/>
@@ -60279,7 +60790,9 @@
       <c r="AT269" s="10">
         <v>2.6986083915520487E-2</v>
       </c>
-      <c r="AU269" s="10"/>
+      <c r="AU269" s="10">
+        <v>-2.1921965428107426E-2</v>
+      </c>
       <c r="AV269" s="10"/>
       <c r="AW269" s="10"/>
       <c r="AX269" s="10"/>
@@ -60508,7 +61021,9 @@
       <c r="AT270" s="10">
         <v>5.9087060120911472E-2</v>
       </c>
-      <c r="AU270" s="10"/>
+      <c r="AU270" s="10">
+        <v>6.7361391551016059E-2</v>
+      </c>
       <c r="AV270" s="10"/>
       <c r="AW270" s="10"/>
       <c r="AX270" s="10"/>
@@ -60737,7 +61252,9 @@
       <c r="AT271" s="10">
         <v>7.4124687809245415E-2</v>
       </c>
-      <c r="AU271" s="10"/>
+      <c r="AU271" s="10">
+        <v>5.9270676763711894E-2</v>
+      </c>
       <c r="AV271" s="10"/>
       <c r="AW271" s="10"/>
       <c r="AX271" s="10"/>
@@ -60966,7 +61483,9 @@
       <c r="AT272" s="10">
         <v>6.1156401937446647E-2</v>
       </c>
-      <c r="AU272" s="10"/>
+      <c r="AU272" s="10">
+        <v>5.8415550533722715E-2</v>
+      </c>
       <c r="AV272" s="10"/>
       <c r="AW272" s="10"/>
       <c r="AX272" s="10"/>
@@ -61195,7 +61714,9 @@
       <c r="AT273" s="10">
         <v>9.5251776013372425E-2</v>
       </c>
-      <c r="AU273" s="10"/>
+      <c r="AU273" s="10">
+        <v>8.7153288483128977E-2</v>
+      </c>
       <c r="AV273" s="10"/>
       <c r="AW273" s="10"/>
       <c r="AX273" s="10"/>
@@ -61424,7 +61945,9 @@
       <c r="AT274" s="10">
         <v>3.1175503113854308E-2</v>
       </c>
-      <c r="AU274" s="10"/>
+      <c r="AU274" s="10">
+        <v>6.7931920240977162E-2</v>
+      </c>
       <c r="AV274" s="10"/>
       <c r="AW274" s="10"/>
       <c r="AX274" s="10"/>
@@ -61653,7 +62176,9 @@
       <c r="AT275" s="10">
         <v>2.8894884602763682E-2</v>
       </c>
-      <c r="AU275" s="10"/>
+      <c r="AU275" s="10">
+        <v>5.2721770518102673E-2</v>
+      </c>
       <c r="AV275" s="10"/>
       <c r="AW275" s="10"/>
       <c r="AX275" s="10"/>
@@ -61882,7 +62407,9 @@
       <c r="AT276" s="10">
         <v>4.899342272611662E-2</v>
       </c>
-      <c r="AU276" s="10"/>
+      <c r="AU276" s="10">
+        <v>5.4695240050339544E-2</v>
+      </c>
       <c r="AV276" s="10"/>
       <c r="AW276" s="10"/>
       <c r="AX276" s="10"/>
@@ -62111,7 +62638,9 @@
       <c r="AT277" s="10">
         <v>2.9947087250830284E-2</v>
       </c>
-      <c r="AU277" s="10"/>
+      <c r="AU277" s="10">
+        <v>4.5706488575496751E-2</v>
+      </c>
       <c r="AV277" s="10"/>
       <c r="AW277" s="10"/>
       <c r="AX277" s="10"/>
@@ -62340,7 +62869,9 @@
       <c r="AT278" s="10">
         <v>3.6228247818061332E-2</v>
       </c>
-      <c r="AU278" s="10"/>
+      <c r="AU278" s="10">
+        <v>8.2054839599064344E-2</v>
+      </c>
       <c r="AV278" s="10"/>
       <c r="AW278" s="10"/>
       <c r="AX278" s="10"/>
@@ -62569,7 +63100,9 @@
       <c r="AT279" s="10">
         <v>3.5819512323066238E-2</v>
       </c>
-      <c r="AU279" s="10"/>
+      <c r="AU279" s="10">
+        <v>6.6336164159158439E-2</v>
+      </c>
       <c r="AV279" s="10"/>
       <c r="AW279" s="10"/>
       <c r="AX279" s="10"/>
@@ -62798,7 +63331,9 @@
       <c r="AT280" s="10">
         <v>9.0550515078395843E-3</v>
       </c>
-      <c r="AU280" s="10"/>
+      <c r="AU280" s="10">
+        <v>5.8693116558190095E-2</v>
+      </c>
       <c r="AV280" s="10"/>
       <c r="AW280" s="10"/>
       <c r="AX280" s="10"/>
@@ -63027,7 +63562,9 @@
       <c r="AT281" s="10">
         <v>6.0178481225795499E-2</v>
       </c>
-      <c r="AU281" s="10"/>
+      <c r="AU281" s="10">
+        <v>5.1424681190223254E-2</v>
+      </c>
       <c r="AV281" s="10"/>
       <c r="AW281" s="10"/>
       <c r="AX281" s="10"/>
@@ -63256,7 +63793,9 @@
       <c r="AT282" s="10">
         <v>2.7059386973179889E-2</v>
       </c>
-      <c r="AU282" s="10"/>
+      <c r="AU282" s="10">
+        <v>3.1235296545462088E-2</v>
+      </c>
       <c r="AV282" s="10"/>
       <c r="AW282" s="10"/>
       <c r="AX282" s="10"/>
@@ -63485,7 +64024,9 @@
       <c r="AT283" s="10">
         <v>-5.1263338702931538E-3</v>
       </c>
-      <c r="AU283" s="10"/>
+      <c r="AU283" s="10">
+        <v>2.6553088355847132E-2</v>
+      </c>
       <c r="AV283" s="10"/>
       <c r="AW283" s="10"/>
       <c r="AX283" s="10"/>
@@ -63714,7 +64255,9 @@
       <c r="AT284" s="10">
         <v>0.23765927671797882</v>
       </c>
-      <c r="AU284" s="10"/>
+      <c r="AU284" s="10">
+        <v>0.20334771991595191</v>
+      </c>
       <c r="AV284" s="10"/>
       <c r="AW284" s="10"/>
       <c r="AX284" s="10"/>
@@ -63943,7 +64486,9 @@
       <c r="AT285" s="10">
         <v>7.7907909803179187E-2</v>
       </c>
-      <c r="AU285" s="10"/>
+      <c r="AU285" s="10">
+        <v>6.4693040839145954E-2</v>
+      </c>
       <c r="AV285" s="10"/>
       <c r="AW285" s="10"/>
       <c r="AX285" s="10"/>
@@ -64172,7 +64717,9 @@
       <c r="AT286" s="10">
         <v>6.6837357193034297E-2</v>
       </c>
-      <c r="AU286" s="10"/>
+      <c r="AU286" s="10">
+        <v>5.3896517231972307E-2</v>
+      </c>
       <c r="AV286" s="10"/>
       <c r="AW286" s="10"/>
       <c r="AX286" s="10"/>
@@ -64401,7 +64948,9 @@
       <c r="AT287" s="10">
         <v>1.4636579160402396E-2</v>
       </c>
-      <c r="AU287" s="10"/>
+      <c r="AU287" s="10">
+        <v>4.2779644606447231E-2</v>
+      </c>
       <c r="AV287" s="10"/>
       <c r="AW287" s="10"/>
       <c r="AX287" s="10"/>
@@ -64630,7 +65179,9 @@
       <c r="AT288" s="10">
         <v>0.13246067332890954</v>
       </c>
-      <c r="AU288" s="10"/>
+      <c r="AU288" s="10">
+        <v>9.0903229965830556E-2</v>
+      </c>
       <c r="AV288" s="10"/>
       <c r="AW288" s="10"/>
       <c r="AX288" s="10"/>
@@ -64859,7 +65410,9 @@
       <c r="AT289" s="10">
         <v>5.1259939801494125E-2</v>
       </c>
-      <c r="AU289" s="10"/>
+      <c r="AU289" s="10">
+        <v>5.6427838493737559E-2</v>
+      </c>
       <c r="AV289" s="10"/>
       <c r="AW289" s="10"/>
       <c r="AX289" s="10"/>
@@ -65088,7 +65641,9 @@
       <c r="AT290" s="10">
         <v>1.6891591543544138E-4</v>
       </c>
-      <c r="AU290" s="10"/>
+      <c r="AU290" s="10">
+        <v>1.6891591543544138E-4</v>
+      </c>
       <c r="AV290" s="10"/>
       <c r="AW290" s="10"/>
       <c r="AX290" s="10"/>
@@ -65317,7 +65872,9 @@
       <c r="AT291" s="10">
         <v>2.9027008845374125E-2</v>
       </c>
-      <c r="AU291" s="10"/>
+      <c r="AU291" s="10">
+        <v>4.2178763524230778E-2</v>
+      </c>
       <c r="AV291" s="10"/>
       <c r="AW291" s="10"/>
       <c r="AX291" s="10"/>
@@ -65546,7 +66103,9 @@
       <c r="AT292" s="10">
         <v>2.3884332962829991E-2</v>
       </c>
-      <c r="AU292" s="10"/>
+      <c r="AU292" s="10">
+        <v>8.7581722227570769E-2</v>
+      </c>
       <c r="AV292" s="10"/>
       <c r="AW292" s="10"/>
       <c r="AX292" s="10"/>
@@ -65775,7 +66334,9 @@
       <c r="AT293" s="10">
         <v>0.14117710649864113</v>
       </c>
-      <c r="AU293" s="10"/>
+      <c r="AU293" s="10">
+        <v>0.1550210634607152</v>
+      </c>
       <c r="AV293" s="10"/>
       <c r="AW293" s="10"/>
       <c r="AX293" s="10"/>
@@ -66004,7 +66565,9 @@
       <c r="AT294" s="10">
         <v>0.14914127728138271</v>
       </c>
-      <c r="AU294" s="10"/>
+      <c r="AU294" s="10">
+        <v>0.13059338521400776</v>
+      </c>
       <c r="AV294" s="10"/>
       <c r="AW294" s="10"/>
       <c r="AX294" s="10"/>
@@ -66233,7 +66796,9 @@
       <c r="AT295" s="10">
         <v>0.12873383579945052</v>
       </c>
-      <c r="AU295" s="10"/>
+      <c r="AU295" s="10">
+        <v>0.13363866920278977</v>
+      </c>
       <c r="AV295" s="10"/>
       <c r="AW295" s="10"/>
       <c r="AX295" s="10"/>
@@ -66462,7 +67027,9 @@
       <c r="AT296" s="10">
         <v>4.3120423018208287E-2</v>
       </c>
-      <c r="AU296" s="10"/>
+      <c r="AU296" s="10">
+        <v>3.1418794717344101E-2</v>
+      </c>
       <c r="AV296" s="10"/>
       <c r="AW296" s="10"/>
       <c r="AX296" s="10"/>
@@ -66691,7 +67258,9 @@
       <c r="AT297" s="10">
         <v>0.12280088010826429</v>
       </c>
-      <c r="AU297" s="10"/>
+      <c r="AU297" s="10">
+        <v>0.11060895242896751</v>
+      </c>
       <c r="AV297" s="10"/>
       <c r="AW297" s="10"/>
       <c r="AX297" s="10"/>
@@ -66920,7 +67489,9 @@
       <c r="AT298" s="10">
         <v>-0.14451334845248287</v>
       </c>
-      <c r="AU298" s="10"/>
+      <c r="AU298" s="10">
+        <v>-5.5493589827706136E-2</v>
+      </c>
       <c r="AV298" s="10"/>
       <c r="AW298" s="10"/>
       <c r="AX298" s="10"/>
@@ -67149,7 +67720,9 @@
       <c r="AT299" s="10">
         <v>3.131575882284432E-2</v>
       </c>
-      <c r="AU299" s="10"/>
+      <c r="AU299" s="10">
+        <v>3.131575882284432E-2</v>
+      </c>
       <c r="AV299" s="10"/>
       <c r="AW299" s="10"/>
       <c r="AX299" s="10"/>
@@ -67378,7 +67951,9 @@
       <c r="AT300" s="10">
         <v>0</v>
       </c>
-      <c r="AU300" s="10"/>
+      <c r="AU300" s="10">
+        <v>0</v>
+      </c>
       <c r="AV300" s="10"/>
       <c r="AW300" s="10"/>
       <c r="AX300" s="10"/>
@@ -67607,7 +68182,9 @@
       <c r="AT301" s="10">
         <v>0</v>
       </c>
-      <c r="AU301" s="10"/>
+      <c r="AU301" s="10">
+        <v>0</v>
+      </c>
       <c r="AV301" s="10"/>
       <c r="AW301" s="10"/>
       <c r="AX301" s="10"/>
@@ -67836,7 +68413,9 @@
       <c r="AT302" s="10">
         <v>7.2644085574262718E-2</v>
       </c>
-      <c r="AU302" s="10"/>
+      <c r="AU302" s="10">
+        <v>8.6716987286945324E-2</v>
+      </c>
       <c r="AV302" s="10"/>
       <c r="AW302" s="10"/>
       <c r="AX302" s="10"/>
@@ -68065,7 +68644,9 @@
       <c r="AT303" s="10">
         <v>3.6679110943087068E-2</v>
       </c>
-      <c r="AU303" s="10"/>
+      <c r="AU303" s="10">
+        <v>3.6679110943087068E-2</v>
+      </c>
       <c r="AV303" s="10"/>
       <c r="AW303" s="10"/>
       <c r="AX303" s="10"/>
@@ -68294,7 +68875,9 @@
       <c r="AT304" s="10">
         <v>2.325115982898196E-2</v>
       </c>
-      <c r="AU304" s="10"/>
+      <c r="AU304" s="10">
+        <v>2.4002686122908345E-2</v>
+      </c>
       <c r="AV304" s="10"/>
       <c r="AW304" s="10"/>
       <c r="AX304" s="10"/>
@@ -68523,7 +69106,9 @@
       <c r="AT305" s="10">
         <v>7.064845833048472E-2</v>
       </c>
-      <c r="AU305" s="10"/>
+      <c r="AU305" s="10">
+        <v>7.595735439936413E-2</v>
+      </c>
       <c r="AV305" s="10"/>
       <c r="AW305" s="10"/>
       <c r="AX305" s="10"/>
@@ -68752,7 +69337,9 @@
       <c r="AT306" s="10">
         <v>0.16469015548902033</v>
       </c>
-      <c r="AU306" s="10"/>
+      <c r="AU306" s="10">
+        <v>0.14731531753233784</v>
+      </c>
       <c r="AV306" s="10"/>
       <c r="AW306" s="10"/>
       <c r="AX306" s="10"/>
@@ -68981,7 +69568,9 @@
       <c r="AT307" s="10">
         <v>2.2501026506683841E-2</v>
       </c>
-      <c r="AU307" s="10"/>
+      <c r="AU307" s="10">
+        <v>2.3448665082789422E-2</v>
+      </c>
       <c r="AV307" s="10"/>
       <c r="AW307" s="10"/>
       <c r="AX307" s="10"/>
@@ -69210,7 +69799,9 @@
       <c r="AT308" s="10">
         <v>6.359091459511812E-2</v>
       </c>
-      <c r="AU308" s="10"/>
+      <c r="AU308" s="10">
+        <v>7.2706886886023669E-2</v>
+      </c>
       <c r="AV308" s="10"/>
       <c r="AW308" s="10"/>
       <c r="AX308" s="10"/>
@@ -69439,7 +70030,9 @@
       <c r="AT309" s="10">
         <v>-8.7165757560593082E-2</v>
       </c>
-      <c r="AU309" s="10"/>
+      <c r="AU309" s="10">
+        <v>-9.6330655868295256E-2</v>
+      </c>
       <c r="AV309" s="10"/>
       <c r="AW309" s="10"/>
       <c r="AX309" s="10"/>
@@ -69668,7 +70261,9 @@
       <c r="AT310" s="10">
         <v>-7.5785326995479241E-2</v>
       </c>
-      <c r="AU310" s="10"/>
+      <c r="AU310" s="10">
+        <v>-6.598421312284164E-2</v>
+      </c>
       <c r="AV310" s="10"/>
       <c r="AW310" s="10"/>
       <c r="AX310" s="10"/>
@@ -69897,7 +70492,9 @@
       <c r="AT311" s="10">
         <v>-8.9627993678323858E-2</v>
       </c>
-      <c r="AU311" s="10"/>
+      <c r="AU311" s="10">
+        <v>-9.8971891618131136E-2</v>
+      </c>
       <c r="AV311" s="10"/>
       <c r="AW311" s="10"/>
       <c r="AX311" s="10"/>
@@ -70126,7 +70723,9 @@
       <c r="AT312" s="10">
         <v>0</v>
       </c>
-      <c r="AU312" s="10"/>
+      <c r="AU312" s="10">
+        <v>0</v>
+      </c>
       <c r="AV312" s="10"/>
       <c r="AW312" s="10"/>
       <c r="AX312" s="10"/>
@@ -70355,7 +70954,9 @@
       <c r="AT313" s="10">
         <v>0.13103879958618414</v>
       </c>
-      <c r="AU313" s="10"/>
+      <c r="AU313" s="10">
+        <v>0.14601392822402226</v>
+      </c>
       <c r="AV313" s="10"/>
       <c r="AW313" s="10"/>
       <c r="AX313" s="10"/>
@@ -70584,7 +71185,9 @@
       <c r="AT314" s="11">
         <v>5.3710512621458539E-2</v>
       </c>
-      <c r="AU314" s="11"/>
+      <c r="AU314" s="11">
+        <v>9.476117760469549E-2</v>
+      </c>
       <c r="AV314" s="11"/>
       <c r="AW314" s="11"/>
       <c r="AX314" s="11"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve"> 12/2022</t>
   </si>
   <si>
-    <t>Última actualización:  02/09/2023</t>
+    <t xml:space="preserve"> 01/2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/2023</t>
+    <t>Última actualización:  02/23/2023</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EE314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD314"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1964,7 +1966,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2117,7 +2119,7 @@
         <v>459</v>
       </c>
       <c r="AU15" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AV15" s="13"/>
       <c r="AW15" s="13"/>

--- a/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_generico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="463">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1409,10 +1409,13 @@
     <t xml:space="preserve"> 12/2022</t>
   </si>
   <si>
+    <t>Última actualización:  03/09/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 01/2023</t>
   </si>
   <si>
-    <t>Última actualización:  02/23/2023</t>
+    <t xml:space="preserve"> 02/2023</t>
   </si>
 </sst>
 </file>
@@ -1934,9 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EE314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD314"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1966,7 +1967,7 @@
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.25">
@@ -2119,9 +2120,11 @@
         <v>459</v>
       </c>
       <c r="AU15" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="AV15" s="13"/>
+        <v>461</v>
+      </c>
+      <c r="AV15" s="13" t="s">
+        <v>462</v>
+      </c>
       <c r="AW15" s="13"/>
       <c r="AX15" s="13"/>
       <c r="AY15" s="13"/>
@@ -2352,7 +2355,9 @@
       <c r="AU16" s="10">
         <v>0.21025749409982741</v>
       </c>
-      <c r="AV16" s="10"/>
+      <c r="AV16" s="10">
+        <v>0.18343134362155444</v>
+      </c>
       <c r="AW16" s="10"/>
       <c r="AX16" s="10"/>
       <c r="AY16" s="10"/>
@@ -2583,7 +2588,9 @@
       <c r="AU17" s="10">
         <v>6.1470429381582647E-2</v>
       </c>
-      <c r="AV17" s="10"/>
+      <c r="AV17" s="10">
+        <v>8.1848528200459736E-2</v>
+      </c>
       <c r="AW17" s="10"/>
       <c r="AX17" s="10"/>
       <c r="AY17" s="10"/>
@@ -2814,7 +2821,9 @@
       <c r="AU18" s="10">
         <v>0.18270666926423784</v>
       </c>
-      <c r="AV18" s="10"/>
+      <c r="AV18" s="10">
+        <v>0.18989709258456555</v>
+      </c>
       <c r="AW18" s="10"/>
       <c r="AX18" s="10"/>
       <c r="AY18" s="10"/>
@@ -3045,7 +3054,9 @@
       <c r="AU19" s="10">
         <v>0.27360335976111183</v>
       </c>
-      <c r="AV19" s="10"/>
+      <c r="AV19" s="10">
+        <v>0.29040553275088232</v>
+      </c>
       <c r="AW19" s="10"/>
       <c r="AX19" s="10"/>
       <c r="AY19" s="10"/>
@@ -3276,7 +3287,9 @@
       <c r="AU20" s="10">
         <v>0.10819346434629407</v>
       </c>
-      <c r="AV20" s="10"/>
+      <c r="AV20" s="10">
+        <v>0.11216214958056736</v>
+      </c>
       <c r="AW20" s="10"/>
       <c r="AX20" s="10"/>
       <c r="AY20" s="10"/>
@@ -3507,7 +3520,9 @@
       <c r="AU21" s="10">
         <v>0.18910166614479462</v>
       </c>
-      <c r="AV21" s="10"/>
+      <c r="AV21" s="10">
+        <v>0.11324039042380685</v>
+      </c>
       <c r="AW21" s="10"/>
       <c r="AX21" s="10"/>
       <c r="AY21" s="10"/>
@@ -3738,7 +3753,9 @@
       <c r="AU22" s="10">
         <v>0.1318427265523523</v>
       </c>
-      <c r="AV22" s="10"/>
+      <c r="AV22" s="10">
+        <v>0.11460856175918654</v>
+      </c>
       <c r="AW22" s="10"/>
       <c r="AX22" s="10"/>
       <c r="AY22" s="10"/>
@@ -3969,7 +3986,9 @@
       <c r="AU23" s="10">
         <v>6.4002063322105007E-2</v>
       </c>
-      <c r="AV23" s="10"/>
+      <c r="AV23" s="10">
+        <v>3.3822012671283153E-2</v>
+      </c>
       <c r="AW23" s="10"/>
       <c r="AX23" s="10"/>
       <c r="AY23" s="10"/>
@@ -4200,7 +4219,9 @@
       <c r="AU24" s="10">
         <v>0.10796268396404951</v>
       </c>
-      <c r="AV24" s="10"/>
+      <c r="AV24" s="10">
+        <v>0.10539367176271708</v>
+      </c>
       <c r="AW24" s="10"/>
       <c r="AX24" s="10"/>
       <c r="AY24" s="10"/>
@@ -4431,7 +4452,9 @@
       <c r="AU25" s="10">
         <v>0.33310314242270644</v>
       </c>
-      <c r="AV25" s="10"/>
+      <c r="AV25" s="10">
+        <v>0.31966679048355573</v>
+      </c>
       <c r="AW25" s="10"/>
       <c r="AX25" s="10"/>
       <c r="AY25" s="10"/>
@@ -4662,7 +4685,9 @@
       <c r="AU26" s="10">
         <v>6.6562850286247421E-2</v>
       </c>
-      <c r="AV26" s="10"/>
+      <c r="AV26" s="10">
+        <v>6.1216095959558015E-2</v>
+      </c>
       <c r="AW26" s="10"/>
       <c r="AX26" s="10"/>
       <c r="AY26" s="10"/>
@@ -4893,7 +4918,9 @@
       <c r="AU27" s="10">
         <v>9.1735217188598783E-2</v>
       </c>
-      <c r="AV27" s="10"/>
+      <c r="AV27" s="10">
+        <v>8.8522241514898958E-2</v>
+      </c>
       <c r="AW27" s="10"/>
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
@@ -5124,7 +5151,9 @@
       <c r="AU28" s="10">
         <v>0.1676980825809069</v>
       </c>
-      <c r="AV28" s="10"/>
+      <c r="AV28" s="10">
+        <v>0.15839645927312973</v>
+      </c>
       <c r="AW28" s="10"/>
       <c r="AX28" s="10"/>
       <c r="AY28" s="10"/>
@@ -5355,7 +5384,9 @@
       <c r="AU29" s="10">
         <v>0.15056536701584555</v>
       </c>
-      <c r="AV29" s="10"/>
+      <c r="AV29" s="10">
+        <v>0.15302307110155322</v>
+      </c>
       <c r="AW29" s="10"/>
       <c r="AX29" s="10"/>
       <c r="AY29" s="10"/>
@@ -5586,7 +5617,9 @@
       <c r="AU30" s="10">
         <v>0.15308831154759983</v>
       </c>
-      <c r="AV30" s="10"/>
+      <c r="AV30" s="10">
+        <v>0.1562583410229621</v>
+      </c>
       <c r="AW30" s="10"/>
       <c r="AX30" s="10"/>
       <c r="AY30" s="10"/>
@@ -5817,7 +5850,9 @@
       <c r="AU31" s="10">
         <v>0.16389723917894616</v>
       </c>
-      <c r="AV31" s="10"/>
+      <c r="AV31" s="10">
+        <v>0.13467056418349421</v>
+      </c>
       <c r="AW31" s="10"/>
       <c r="AX31" s="10"/>
       <c r="AY31" s="10"/>
@@ -6048,7 +6083,9 @@
       <c r="AU32" s="10">
         <v>6.7030796048809016E-2</v>
       </c>
-      <c r="AV32" s="10"/>
+      <c r="AV32" s="10">
+        <v>7.4924209614551707E-2</v>
+      </c>
       <c r="AW32" s="10"/>
       <c r="AX32" s="10"/>
       <c r="AY32" s="10"/>
@@ -6279,7 +6316,9 @@
       <c r="AU33" s="10">
         <v>-0.24520006586530541</v>
       </c>
-      <c r="AV33" s="10"/>
+      <c r="AV33" s="10">
+        <v>-0.31230314447613161</v>
+      </c>
       <c r="AW33" s="10"/>
       <c r="AX33" s="10"/>
       <c r="AY33" s="10"/>
@@ -6510,7 +6549,9 @@
       <c r="AU34" s="10">
         <v>0.16244925244158925</v>
       </c>
-      <c r="AV34" s="10"/>
+      <c r="AV34" s="10">
+        <v>0.15756468457543149</v>
+      </c>
       <c r="AW34" s="10"/>
       <c r="AX34" s="10"/>
       <c r="AY34" s="10"/>
@@ -6741,7 +6782,9 @@
       <c r="AU35" s="10">
         <v>0.23393242728311958</v>
       </c>
-      <c r="AV35" s="10"/>
+      <c r="AV35" s="10">
+        <v>0.35223198423721702</v>
+      </c>
       <c r="AW35" s="10"/>
       <c r="AX35" s="10"/>
       <c r="AY35" s="10"/>
@@ -6972,7 +7015,9 @@
       <c r="AU36" s="10">
         <v>-0.49764187250717229</v>
       </c>
-      <c r="AV36" s="10"/>
+      <c r="AV36" s="10">
+        <v>-0.53396528789797926</v>
+      </c>
       <c r="AW36" s="10"/>
       <c r="AX36" s="10"/>
       <c r="AY36" s="10"/>
@@ -7203,7 +7248,9 @@
       <c r="AU37" s="10">
         <v>6.3117040272715252E-2</v>
       </c>
-      <c r="AV37" s="10"/>
+      <c r="AV37" s="10">
+        <v>1.0725674673730534E-3</v>
+      </c>
       <c r="AW37" s="10"/>
       <c r="AX37" s="10"/>
       <c r="AY37" s="10"/>
@@ -7434,7 +7481,9 @@
       <c r="AU38" s="10">
         <v>0.15357889710362094</v>
       </c>
-      <c r="AV38" s="10"/>
+      <c r="AV38" s="10">
+        <v>0.1862072207596841</v>
+      </c>
       <c r="AW38" s="10"/>
       <c r="AX38" s="10"/>
       <c r="AY38" s="10"/>
@@ -7665,7 +7714,9 @@
       <c r="AU39" s="10">
         <v>0.40069235145309068</v>
       </c>
-      <c r="AV39" s="10"/>
+      <c r="AV39" s="10">
+        <v>0.38643413692875095</v>
+      </c>
       <c r="AW39" s="10"/>
       <c r="AX39" s="10"/>
       <c r="AY39" s="10"/>
@@ -7896,7 +7947,9 @@
       <c r="AU40" s="10">
         <v>0.10868781542898343</v>
       </c>
-      <c r="AV40" s="10"/>
+      <c r="AV40" s="10">
+        <v>0.22688960178054995</v>
+      </c>
       <c r="AW40" s="10"/>
       <c r="AX40" s="10"/>
       <c r="AY40" s="10"/>
@@ -8127,7 +8180,9 @@
       <c r="AU41" s="10">
         <v>-3.6074369448226618E-2</v>
       </c>
-      <c r="AV41" s="10"/>
+      <c r="AV41" s="10">
+        <v>-5.7103043309785662E-2</v>
+      </c>
       <c r="AW41" s="10"/>
       <c r="AX41" s="10"/>
       <c r="AY41" s="10"/>
@@ -8358,7 +8413,9 @@
       <c r="AU42" s="10">
         <v>4.0042227241480877E-2</v>
       </c>
-      <c r="AV42" s="10"/>
+      <c r="AV42" s="10">
+        <v>4.4134487843860981E-2</v>
+      </c>
       <c r="AW42" s="10"/>
       <c r="AX42" s="10"/>
       <c r="AY42" s="10"/>
@@ -8589,7 +8646,9 @@
       <c r="AU43" s="10">
         <v>0.20238349038502546</v>
       </c>
-      <c r="AV43" s="10"/>
+      <c r="AV43" s="10">
+        <v>0.13517225913155584</v>
+      </c>
       <c r="AW43" s="10"/>
       <c r="AX43" s="10"/>
       <c r="AY43" s="10"/>
@@ -8820,7 +8879,9 @@
       <c r="AU44" s="10">
         <v>2.2267577256194881E-2</v>
       </c>
-      <c r="AV44" s="10"/>
+      <c r="AV44" s="10">
+        <v>1.6219161495383716E-2</v>
+      </c>
       <c r="AW44" s="10"/>
       <c r="AX44" s="10"/>
       <c r="AY44" s="10"/>
@@ -9051,7 +9112,9 @@
       <c r="AU45" s="10">
         <v>0.28697763715055968</v>
       </c>
-      <c r="AV45" s="10"/>
+      <c r="AV45" s="10">
+        <v>0.20411688127553718</v>
+      </c>
       <c r="AW45" s="10"/>
       <c r="AX45" s="10"/>
       <c r="AY45" s="10"/>
@@ -9282,7 +9345,9 @@
       <c r="AU46" s="10">
         <v>6.5143187386747403E-2</v>
       </c>
-      <c r="AV46" s="10"/>
+      <c r="AV46" s="10">
+        <v>8.0775720539949525E-3</v>
+      </c>
       <c r="AW46" s="10"/>
       <c r="AX46" s="10"/>
       <c r="AY46" s="10"/>
@@ -9513,7 +9578,9 @@
       <c r="AU47" s="10">
         <v>7.3281529012382052E-2</v>
       </c>
-      <c r="AV47" s="10"/>
+      <c r="AV47" s="10">
+        <v>4.8171197088005657E-2</v>
+      </c>
       <c r="AW47" s="10"/>
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
@@ -9744,7 +9811,9 @@
       <c r="AU48" s="10">
         <v>0.18569169296121113</v>
       </c>
-      <c r="AV48" s="10"/>
+      <c r="AV48" s="10">
+        <v>0.18208825942923146</v>
+      </c>
       <c r="AW48" s="10"/>
       <c r="AX48" s="10"/>
       <c r="AY48" s="10"/>
@@ -9975,7 +10044,9 @@
       <c r="AU49" s="10">
         <v>0.12524068953559464</v>
       </c>
-      <c r="AV49" s="10"/>
+      <c r="AV49" s="10">
+        <v>0.15254205901687912</v>
+      </c>
       <c r="AW49" s="10"/>
       <c r="AX49" s="10"/>
       <c r="AY49" s="10"/>
@@ -10206,7 +10277,9 @@
       <c r="AU50" s="10">
         <v>0.12084743637959128</v>
       </c>
-      <c r="AV50" s="10"/>
+      <c r="AV50" s="10">
+        <v>0.12383297345160216</v>
+      </c>
       <c r="AW50" s="10"/>
       <c r="AX50" s="10"/>
       <c r="AY50" s="10"/>
@@ -10437,7 +10510,9 @@
       <c r="AU51" s="10">
         <v>0.131035248228075</v>
       </c>
-      <c r="AV51" s="10"/>
+      <c r="AV51" s="10">
+        <v>0.10989722740290442</v>
+      </c>
       <c r="AW51" s="10"/>
       <c r="AX51" s="10"/>
       <c r="AY51" s="10"/>
@@ -10668,7 +10743,9 @@
       <c r="AU52" s="10">
         <v>0.10908913658076891</v>
       </c>
-      <c r="AV52" s="10"/>
+      <c r="AV52" s="10">
+        <v>0.11277482027116115</v>
+      </c>
       <c r="AW52" s="10"/>
       <c r="AX52" s="10"/>
       <c r="AY52" s="10"/>
@@ -10899,7 +10976,9 @@
       <c r="AU53" s="10">
         <v>0.22863704214031455</v>
       </c>
-      <c r="AV53" s="10"/>
+      <c r="AV53" s="10">
+        <v>0.23094957206513334</v>
+      </c>
       <c r="AW53" s="10"/>
       <c r="AX53" s="10"/>
       <c r="AY53" s="10"/>
@@ -11130,7 +11209,9 @@
       <c r="AU54" s="10">
         <v>0.20066614650189174</v>
       </c>
-      <c r="AV54" s="10"/>
+      <c r="AV54" s="10">
+        <v>0.17636620846996109</v>
+      </c>
       <c r="AW54" s="10"/>
       <c r="AX54" s="10"/>
       <c r="AY54" s="10"/>
@@ -11361,7 +11442,9 @@
       <c r="AU55" s="10">
         <v>0.12328958489037278</v>
       </c>
-      <c r="AV55" s="10"/>
+      <c r="AV55" s="10">
+        <v>6.7748785738954709E-3</v>
+      </c>
       <c r="AW55" s="10"/>
       <c r="AX55" s="10"/>
       <c r="AY55" s="10"/>
@@ -11592,7 +11675,9 @@
       <c r="AU56" s="10">
         <v>-0.42537487956146347</v>
       </c>
-      <c r="AV56" s="10"/>
+      <c r="AV56" s="10">
+        <v>-0.44066456419397593</v>
+      </c>
       <c r="AW56" s="10"/>
       <c r="AX56" s="10"/>
       <c r="AY56" s="10"/>
@@ -11823,7 +11908,9 @@
       <c r="AU57" s="10">
         <v>-8.5721855181891904E-2</v>
       </c>
-      <c r="AV57" s="10"/>
+      <c r="AV57" s="10">
+        <v>-0.32751256205075852</v>
+      </c>
       <c r="AW57" s="10"/>
       <c r="AX57" s="10"/>
       <c r="AY57" s="10"/>
@@ -12054,7 +12141,9 @@
       <c r="AU58" s="10">
         <v>-0.28866099071207429</v>
       </c>
-      <c r="AV58" s="10"/>
+      <c r="AV58" s="10">
+        <v>-4.3275122000157706E-2</v>
+      </c>
       <c r="AW58" s="10"/>
       <c r="AX58" s="10"/>
       <c r="AY58" s="10"/>
@@ -12285,7 +12374,9 @@
       <c r="AU59" s="10">
         <v>0.65890954457582152</v>
       </c>
-      <c r="AV59" s="10"/>
+      <c r="AV59" s="10">
+        <v>0.73225219849692436</v>
+      </c>
       <c r="AW59" s="10"/>
       <c r="AX59" s="10"/>
       <c r="AY59" s="10"/>
@@ -12516,7 +12607,9 @@
       <c r="AU60" s="10">
         <v>-1.3068753856646409E-2</v>
       </c>
-      <c r="AV60" s="10"/>
+      <c r="AV60" s="10">
+        <v>-4.0868808355752573E-2</v>
+      </c>
       <c r="AW60" s="10"/>
       <c r="AX60" s="10"/>
       <c r="AY60" s="10"/>
@@ -12747,7 +12840,9 @@
       <c r="AU61" s="10">
         <v>0.5151249989777642</v>
       </c>
-      <c r="AV61" s="10"/>
+      <c r="AV61" s="10">
+        <v>0.61834520348100952</v>
+      </c>
       <c r="AW61" s="10"/>
       <c r="AX61" s="10"/>
       <c r="AY61" s="10"/>
@@ -12978,7 +13073,9 @@
       <c r="AU62" s="10">
         <v>0.2499295112781954</v>
       </c>
-      <c r="AV62" s="10"/>
+      <c r="AV62" s="10">
+        <v>0.31538629713094068</v>
+      </c>
       <c r="AW62" s="10"/>
       <c r="AX62" s="10"/>
       <c r="AY62" s="10"/>
@@ -13209,7 +13306,9 @@
       <c r="AU63" s="10">
         <v>0.46578652720495484</v>
       </c>
-      <c r="AV63" s="10"/>
+      <c r="AV63" s="10">
+        <v>0.42926807577149995</v>
+      </c>
       <c r="AW63" s="10"/>
       <c r="AX63" s="10"/>
       <c r="AY63" s="10"/>
@@ -13440,7 +13539,9 @@
       <c r="AU64" s="10">
         <v>2.938124555853916E-2</v>
       </c>
-      <c r="AV64" s="10"/>
+      <c r="AV64" s="10">
+        <v>1.3765490943755898E-2</v>
+      </c>
       <c r="AW64" s="10"/>
       <c r="AX64" s="10"/>
       <c r="AY64" s="10"/>
@@ -13671,7 +13772,9 @@
       <c r="AU65" s="10">
         <v>0.27883842567976957</v>
       </c>
-      <c r="AV65" s="10"/>
+      <c r="AV65" s="10">
+        <v>0.32760346576332289</v>
+      </c>
       <c r="AW65" s="10"/>
       <c r="AX65" s="10"/>
       <c r="AY65" s="10"/>
@@ -13902,7 +14005,9 @@
       <c r="AU66" s="10">
         <v>0.14611956544061777</v>
       </c>
-      <c r="AV66" s="10"/>
+      <c r="AV66" s="10">
+        <v>4.8732186927792354E-2</v>
+      </c>
       <c r="AW66" s="10"/>
       <c r="AX66" s="10"/>
       <c r="AY66" s="10"/>
@@ -14133,7 +14238,9 @@
       <c r="AU67" s="10">
         <v>0.3431333757676891</v>
       </c>
-      <c r="AV67" s="10"/>
+      <c r="AV67" s="10">
+        <v>0.23880445160987374</v>
+      </c>
       <c r="AW67" s="10"/>
       <c r="AX67" s="10"/>
       <c r="AY67" s="10"/>
@@ -14364,7 +14471,9 @@
       <c r="AU68" s="10">
         <v>-0.10029378003463107</v>
       </c>
-      <c r="AV68" s="10"/>
+      <c r="AV68" s="10">
+        <v>2.9711875113761499E-2</v>
+      </c>
       <c r="AW68" s="10"/>
       <c r="AX68" s="10"/>
       <c r="AY68" s="10"/>
@@ -14595,7 +14704,9 @@
       <c r="AU69" s="10">
         <v>1.6906117851108293E-2</v>
       </c>
-      <c r="AV69" s="10"/>
+      <c r="AV69" s="10">
+        <v>3.0941114841945172E-2</v>
+      </c>
       <c r="AW69" s="10"/>
       <c r="AX69" s="10"/>
       <c r="AY69" s="10"/>
@@ -14826,7 +14937,9 @@
       <c r="AU70" s="10">
         <v>0.14453312818540232</v>
       </c>
-      <c r="AV70" s="10"/>
+      <c r="AV70" s="10">
+        <v>0.13280873818393757</v>
+      </c>
       <c r="AW70" s="10"/>
       <c r="AX70" s="10"/>
       <c r="AY70" s="10"/>
@@ -15057,7 +15170,9 @@
       <c r="AU71" s="10">
         <v>-9.2701885706061304E-3</v>
       </c>
-      <c r="AV71" s="10"/>
+      <c r="AV71" s="10">
+        <v>3.4458379668156791E-2</v>
+      </c>
       <c r="AW71" s="10"/>
       <c r="AX71" s="10"/>
       <c r="AY71" s="10"/>
@@ -15288,7 +15403,9 @@
       <c r="AU72" s="10">
         <v>4.2294964448556627E-2</v>
       </c>
-      <c r="AV72" s="10"/>
+      <c r="AV72" s="10">
+        <v>7.6391577824242551E-2</v>
+      </c>
       <c r="AW72" s="10"/>
       <c r="AX72" s="10"/>
       <c r="AY72" s="10"/>
@@ -15519,7 +15636,9 @@
       <c r="AU73" s="10">
         <v>0.17315833407864534</v>
       </c>
-      <c r="AV73" s="10"/>
+      <c r="AV73" s="10">
+        <v>0.17975008482952948</v>
+      </c>
       <c r="AW73" s="10"/>
       <c r="AX73" s="10"/>
       <c r="AY73" s="10"/>
@@ -15750,7 +15869,9 @@
       <c r="AU74" s="10">
         <v>5.6333115987080573E-2</v>
       </c>
-      <c r="AV74" s="10"/>
+      <c r="AV74" s="10">
+        <v>9.6973140887221865E-2</v>
+      </c>
       <c r="AW74" s="10"/>
       <c r="AX74" s="10"/>
       <c r="AY74" s="10"/>
@@ -15981,7 +16102,9 @@
       <c r="AU75" s="10">
         <v>0.12442249109876657</v>
       </c>
-      <c r="AV75" s="10"/>
+      <c r="AV75" s="10">
+        <v>0.12113719684697588</v>
+      </c>
       <c r="AW75" s="10"/>
       <c r="AX75" s="10"/>
       <c r="AY75" s="10"/>
@@ -16212,7 +16335,9 @@
       <c r="AU76" s="10">
         <v>0.12592104621090128</v>
       </c>
-      <c r="AV76" s="10"/>
+      <c r="AV76" s="10">
+        <v>0.14819238667135726</v>
+      </c>
       <c r="AW76" s="10"/>
       <c r="AX76" s="10"/>
       <c r="AY76" s="10"/>
@@ -16443,7 +16568,9 @@
       <c r="AU77" s="10">
         <v>0.25171736225732921</v>
       </c>
-      <c r="AV77" s="10"/>
+      <c r="AV77" s="10">
+        <v>0.21189359095846738</v>
+      </c>
       <c r="AW77" s="10"/>
       <c r="AX77" s="10"/>
       <c r="AY77" s="10"/>
@@ -16674,7 +16801,9 @@
       <c r="AU78" s="10">
         <v>0.13374153321670468</v>
       </c>
-      <c r="AV78" s="10"/>
+      <c r="AV78" s="10">
+        <v>0.14047479484173508</v>
+      </c>
       <c r="AW78" s="10"/>
       <c r="AX78" s="10"/>
       <c r="AY78" s="10"/>
@@ -16905,7 +17034,9 @@
       <c r="AU79" s="10">
         <v>0.24173426079700877</v>
       </c>
-      <c r="AV79" s="10"/>
+      <c r="AV79" s="10">
+        <v>0.22892231485790449</v>
+      </c>
       <c r="AW79" s="10"/>
       <c r="AX79" s="10"/>
       <c r="AY79" s="10"/>
@@ -17136,7 +17267,9 @@
       <c r="AU80" s="10">
         <v>0.20148307717801073</v>
       </c>
-      <c r="AV80" s="10"/>
+      <c r="AV80" s="10">
+        <v>0.20905827119580223</v>
+      </c>
       <c r="AW80" s="10"/>
       <c r="AX80" s="10"/>
       <c r="AY80" s="10"/>
@@ -17367,7 +17500,9 @@
       <c r="AU81" s="10">
         <v>0.15643406365620338</v>
       </c>
-      <c r="AV81" s="10"/>
+      <c r="AV81" s="10">
+        <v>0.14237036923852697</v>
+      </c>
       <c r="AW81" s="10"/>
       <c r="AX81" s="10"/>
       <c r="AY81" s="10"/>
@@ -17598,7 +17733,9 @@
       <c r="AU82" s="10">
         <v>0.2878700670031582</v>
       </c>
-      <c r="AV82" s="10"/>
+      <c r="AV82" s="10">
+        <v>0.36887972704009098</v>
+      </c>
       <c r="AW82" s="10"/>
       <c r="AX82" s="10"/>
       <c r="AY82" s="10"/>
@@ -17829,7 +17966,9 @@
       <c r="AU83" s="10">
         <v>9.0252159811852195E-2</v>
       </c>
-      <c r="AV83" s="10"/>
+      <c r="AV83" s="10">
+        <v>9.164539379833303E-2</v>
+      </c>
       <c r="AW83" s="10"/>
       <c r="AX83" s="10"/>
       <c r="AY83" s="10"/>
@@ -18060,7 +18199,9 @@
       <c r="AU84" s="10">
         <v>0.14569028126237948</v>
       </c>
-      <c r="AV84" s="10"/>
+      <c r="AV84" s="10">
+        <v>0.13012626526140036</v>
+      </c>
       <c r="AW84" s="10"/>
       <c r="AX84" s="10"/>
       <c r="AY84" s="10"/>
@@ -18291,7 +18432,9 @@
       <c r="AU85" s="10">
         <v>1.9250511365829226E-2</v>
       </c>
-      <c r="AV85" s="10"/>
+      <c r="AV85" s="10">
+        <v>7.6226385140498509E-2</v>
+      </c>
       <c r="AW85" s="10"/>
       <c r="AX85" s="10"/>
       <c r="AY85" s="10"/>
@@ -18522,7 +18665,9 @@
       <c r="AU86" s="10">
         <v>0.14761795693999091</v>
       </c>
-      <c r="AV86" s="10"/>
+      <c r="AV86" s="10">
+        <v>0.1783325254483763</v>
+      </c>
       <c r="AW86" s="10"/>
       <c r="AX86" s="10"/>
       <c r="AY86" s="10"/>
@@ -18753,7 +18898,9 @@
       <c r="AU87" s="10">
         <v>7.6758207022034508E-2</v>
       </c>
-      <c r="AV87" s="10"/>
+      <c r="AV87" s="10">
+        <v>7.6127956174780742E-2</v>
+      </c>
       <c r="AW87" s="10"/>
       <c r="AX87" s="10"/>
       <c r="AY87" s="10"/>
@@ -18984,7 +19131,9 @@
       <c r="AU88" s="10">
         <v>0.1568495534160772</v>
       </c>
-      <c r="AV88" s="10"/>
+      <c r="AV88" s="10">
+        <v>0.15084298004420926</v>
+      </c>
       <c r="AW88" s="10"/>
       <c r="AX88" s="10"/>
       <c r="AY88" s="10"/>
@@ -19215,7 +19364,9 @@
       <c r="AU89" s="10">
         <v>0.13543952262588155</v>
       </c>
-      <c r="AV89" s="10"/>
+      <c r="AV89" s="10">
+        <v>0.12587485053806313</v>
+      </c>
       <c r="AW89" s="10"/>
       <c r="AX89" s="10"/>
       <c r="AY89" s="10"/>
@@ -19446,7 +19597,9 @@
       <c r="AU90" s="10">
         <v>0.18805733377132183</v>
       </c>
-      <c r="AV90" s="10"/>
+      <c r="AV90" s="10">
+        <v>0.18552256074045514</v>
+      </c>
       <c r="AW90" s="10"/>
       <c r="AX90" s="10"/>
       <c r="AY90" s="10"/>
@@ -19677,7 +19830,9 @@
       <c r="AU91" s="10">
         <v>0.16679168245474285</v>
       </c>
-      <c r="AV91" s="10"/>
+      <c r="AV91" s="10">
+        <v>0.14307626693802411</v>
+      </c>
       <c r="AW91" s="10"/>
       <c r="AX91" s="10"/>
       <c r="AY91" s="10"/>
@@ -19908,7 +20063,9 @@
       <c r="AU92" s="10">
         <v>0.1259810657472118</v>
       </c>
-      <c r="AV92" s="10"/>
+      <c r="AV92" s="10">
+        <v>0.10811691839617521</v>
+      </c>
       <c r="AW92" s="10"/>
       <c r="AX92" s="10"/>
       <c r="AY92" s="10"/>
@@ -20139,7 +20296,9 @@
       <c r="AU93" s="10">
         <v>0.11263766914776641</v>
       </c>
-      <c r="AV93" s="10"/>
+      <c r="AV93" s="10">
+        <v>0.12197947830779343</v>
+      </c>
       <c r="AW93" s="10"/>
       <c r="AX93" s="10"/>
       <c r="AY93" s="10"/>
@@ -20370,7 +20529,9 @@
       <c r="AU94" s="10">
         <v>8.5648225714572979E-2</v>
       </c>
-      <c r="AV94" s="10"/>
+      <c r="AV94" s="10">
+        <v>9.0759918624996994E-2</v>
+      </c>
       <c r="AW94" s="10"/>
       <c r="AX94" s="10"/>
       <c r="AY94" s="10"/>
@@ -20601,7 +20762,9 @@
       <c r="AU95" s="10">
         <v>0.1228980477223427</v>
       </c>
-      <c r="AV95" s="10"/>
+      <c r="AV95" s="10">
+        <v>0.12858630564957041</v>
+      </c>
       <c r="AW95" s="10"/>
       <c r="AX95" s="10"/>
       <c r="AY95" s="10"/>
@@ -20832,7 +20995,9 @@
       <c r="AU96" s="10">
         <v>7.6778106836862259E-2</v>
       </c>
-      <c r="AV96" s="10"/>
+      <c r="AV96" s="10">
+        <v>9.0444513324273057E-2</v>
+      </c>
       <c r="AW96" s="10"/>
       <c r="AX96" s="10"/>
       <c r="AY96" s="10"/>
@@ -21063,7 +21228,9 @@
       <c r="AU97" s="10">
         <v>0.11564056677590062</v>
       </c>
-      <c r="AV97" s="10"/>
+      <c r="AV97" s="10">
+        <v>0.12626143382660948</v>
+      </c>
       <c r="AW97" s="10"/>
       <c r="AX97" s="10"/>
       <c r="AY97" s="10"/>
@@ -21294,7 +21461,9 @@
       <c r="AU98" s="10">
         <v>0.17715911049819022</v>
       </c>
-      <c r="AV98" s="10"/>
+      <c r="AV98" s="10">
+        <v>0.17286008350487125</v>
+      </c>
       <c r="AW98" s="10"/>
       <c r="AX98" s="10"/>
       <c r="AY98" s="10"/>
@@ -21525,7 +21694,9 @@
       <c r="AU99" s="10">
         <v>0.25375848500525167</v>
       </c>
-      <c r="AV99" s="10"/>
+      <c r="AV99" s="10">
+        <v>0.27034908856520756</v>
+      </c>
       <c r="AW99" s="10"/>
       <c r="AX99" s="10"/>
       <c r="AY99" s="10"/>
@@ -21756,7 +21927,9 @@
       <c r="AU100" s="10">
         <v>0.10172632028426332</v>
       </c>
-      <c r="AV100" s="10"/>
+      <c r="AV100" s="10">
+        <v>0.10138381339325586</v>
+      </c>
       <c r="AW100" s="10"/>
       <c r="AX100" s="10"/>
       <c r="AY100" s="10"/>
@@ -21987,7 +22160,9 @@
       <c r="AU101" s="10">
         <v>1.3106204052478976E-2</v>
       </c>
-      <c r="AV101" s="10"/>
+      <c r="AV101" s="10">
+        <v>1.5301329404370012E-2</v>
+      </c>
       <c r="AW101" s="10"/>
       <c r="AX101" s="10"/>
       <c r="AY101" s="10"/>
@@ -22218,7 +22393,9 @@
       <c r="AU102" s="10">
         <v>0.12352255701681369</v>
       </c>
-      <c r="AV102" s="10"/>
+      <c r="AV102" s="10">
+        <v>8.9510895579776539E-2</v>
+      </c>
       <c r="AW102" s="10"/>
       <c r="AX102" s="10"/>
       <c r="AY102" s="10"/>
@@ -22449,7 +22626,9 @@
       <c r="AU103" s="10">
         <v>0.182030771215689</v>
       </c>
-      <c r="AV103" s="10"/>
+      <c r="AV103" s="10">
+        <v>0.18127634246002367</v>
+      </c>
       <c r="AW103" s="10"/>
       <c r="AX103" s="10"/>
       <c r="AY103" s="10"/>
@@ -22680,7 +22859,9 @@
       <c r="AU104" s="10">
         <v>0.19737725778516135</v>
       </c>
-      <c r="AV104" s="10"/>
+      <c r="AV104" s="10">
+        <v>0.16669258817633548</v>
+      </c>
       <c r="AW104" s="10"/>
       <c r="AX104" s="10"/>
       <c r="AY104" s="10"/>
@@ -22911,7 +23092,9 @@
       <c r="AU105" s="10">
         <v>0.25372332258559815</v>
       </c>
-      <c r="AV105" s="10"/>
+      <c r="AV105" s="10">
+        <v>0.19983531890271933</v>
+      </c>
       <c r="AW105" s="10"/>
       <c r="AX105" s="10"/>
       <c r="AY105" s="10"/>
@@ -23142,7 +23325,9 @@
       <c r="AU106" s="10">
         <v>0.32128211634321824</v>
       </c>
-      <c r="AV106" s="10"/>
+      <c r="AV106" s="10">
+        <v>0.33086831484569479</v>
+      </c>
       <c r="AW106" s="10"/>
       <c r="AX106" s="10"/>
       <c r="AY106" s="10"/>
@@ -23373,7 +23558,9 @@
       <c r="AU107" s="10">
         <v>0.27231350653014874</v>
       </c>
-      <c r="AV107" s="10"/>
+      <c r="AV107" s="10">
+        <v>0.29563664802490797</v>
+      </c>
       <c r="AW107" s="10"/>
       <c r="AX107" s="10"/>
       <c r="AY107" s="10"/>
@@ -23604,7 +23791,9 @@
       <c r="AU108" s="10">
         <v>0.23886442265272478</v>
       </c>
-      <c r="AV108" s="10"/>
+      <c r="AV108" s="10">
+        <v>0.23557644767968111</v>
+      </c>
       <c r="AW108" s="10"/>
       <c r="AX108" s="10"/>
       <c r="AY108" s="10"/>
@@ -23835,7 +24024,9 @@
       <c r="AU109" s="10">
         <v>0.2875170857306335</v>
       </c>
-      <c r="AV109" s="10"/>
+      <c r="AV109" s="10">
+        <v>0.31832807646166184</v>
+      </c>
       <c r="AW109" s="10"/>
       <c r="AX109" s="10"/>
       <c r="AY109" s="10"/>
@@ -24066,7 +24257,9 @@
       <c r="AU110" s="10">
         <v>0.2648864003445679</v>
       </c>
-      <c r="AV110" s="10"/>
+      <c r="AV110" s="10">
+        <v>0.280239452117788</v>
+      </c>
       <c r="AW110" s="10"/>
       <c r="AX110" s="10"/>
       <c r="AY110" s="10"/>
@@ -24297,7 +24490,9 @@
       <c r="AU111" s="10">
         <v>0.16684534330059186</v>
       </c>
-      <c r="AV111" s="10"/>
+      <c r="AV111" s="10">
+        <v>0.17526068796773298</v>
+      </c>
       <c r="AW111" s="10"/>
       <c r="AX111" s="10"/>
       <c r="AY111" s="10"/>
@@ -24528,7 +24723,9 @@
       <c r="AU112" s="10">
         <v>0.12915937290344459</v>
       </c>
-      <c r="AV112" s="10"/>
+      <c r="AV112" s="10">
+        <v>0.11341309211166251</v>
+      </c>
       <c r="AW112" s="10"/>
       <c r="AX112" s="10"/>
       <c r="AY112" s="10"/>
@@ -24759,7 +24956,9 @@
       <c r="AU113" s="10">
         <v>0.24603023467026031</v>
       </c>
-      <c r="AV113" s="10"/>
+      <c r="AV113" s="10">
+        <v>0.24515198969660612</v>
+      </c>
       <c r="AW113" s="10"/>
       <c r="AX113" s="10"/>
       <c r="AY113" s="10"/>
@@ -24990,7 +25189,9 @@
       <c r="AU114" s="10">
         <v>0.17672565747726154</v>
       </c>
-      <c r="AV114" s="10"/>
+      <c r="AV114" s="10">
+        <v>0.16537519678152868</v>
+      </c>
       <c r="AW114" s="10"/>
       <c r="AX114" s="10"/>
       <c r="AY114" s="10"/>
@@ -25221,7 +25422,9 @@
       <c r="AU115" s="10">
         <v>0.15282878562539826</v>
       </c>
-      <c r="AV115" s="10"/>
+      <c r="AV115" s="10">
+        <v>0.13308822979950841</v>
+      </c>
       <c r="AW115" s="10"/>
       <c r="AX115" s="10"/>
       <c r="AY115" s="10"/>
@@ -25452,7 +25655,9 @@
       <c r="AU116" s="10">
         <v>0.22605905433264617</v>
       </c>
-      <c r="AV116" s="10"/>
+      <c r="AV116" s="10">
+        <v>0.22487380287721215</v>
+      </c>
       <c r="AW116" s="10"/>
       <c r="AX116" s="10"/>
       <c r="AY116" s="10"/>
@@ -25683,7 +25888,9 @@
       <c r="AU117" s="10">
         <v>-6.5069699974594886E-2</v>
       </c>
-      <c r="AV117" s="10"/>
+      <c r="AV117" s="10">
+        <v>-8.505240833639216E-2</v>
+      </c>
       <c r="AW117" s="10"/>
       <c r="AX117" s="10"/>
       <c r="AY117" s="10"/>
@@ -25914,7 +26121,9 @@
       <c r="AU118" s="10">
         <v>0.12327527708663188</v>
       </c>
-      <c r="AV118" s="10"/>
+      <c r="AV118" s="10">
+        <v>9.8213615238921692E-2</v>
+      </c>
       <c r="AW118" s="10"/>
       <c r="AX118" s="10"/>
       <c r="AY118" s="10"/>
@@ -26145,7 +26354,9 @@
       <c r="AU119" s="10">
         <v>0.14951126157036776</v>
       </c>
-      <c r="AV119" s="10"/>
+      <c r="AV119" s="10">
+        <v>0.12681869469683482</v>
+      </c>
       <c r="AW119" s="10"/>
       <c r="AX119" s="10"/>
       <c r="AY119" s="10"/>
@@ -26376,7 +26587,9 @@
       <c r="AU120" s="10">
         <v>0.14320317707697661</v>
       </c>
-      <c r="AV120" s="10"/>
+      <c r="AV120" s="10">
+        <v>6.8815241784540238E-2</v>
+      </c>
       <c r="AW120" s="10"/>
       <c r="AX120" s="10"/>
       <c r="AY120" s="10"/>
@@ -26607,7 +26820,9 @@
       <c r="AU121" s="10">
         <v>0.1154967901024615</v>
       </c>
-      <c r="AV121" s="10"/>
+      <c r="AV121" s="10">
+        <v>0.15717722534081791</v>
+      </c>
       <c r="AW121" s="10"/>
       <c r="AX121" s="10"/>
       <c r="AY121" s="10"/>
@@ -26838,7 +27053,9 @@
       <c r="AU122" s="10">
         <v>0.17853839037927832</v>
       </c>
-      <c r="AV122" s="10"/>
+      <c r="AV122" s="10">
+        <v>0.17650231955982298</v>
+      </c>
       <c r="AW122" s="10"/>
       <c r="AX122" s="10"/>
       <c r="AY122" s="10"/>
@@ -27069,7 +27286,9 @@
       <c r="AU123" s="10">
         <v>9.4545266264530081E-2</v>
       </c>
-      <c r="AV123" s="10"/>
+      <c r="AV123" s="10">
+        <v>0.10870885988057211</v>
+      </c>
       <c r="AW123" s="10"/>
       <c r="AX123" s="10"/>
       <c r="AY123" s="10"/>
@@ -27300,7 +27519,9 @@
       <c r="AU124" s="10">
         <v>7.8275824809105332E-2</v>
       </c>
-      <c r="AV124" s="10"/>
+      <c r="AV124" s="10">
+        <v>5.8511724542072541E-2</v>
+      </c>
       <c r="AW124" s="10"/>
       <c r="AX124" s="10"/>
       <c r="AY124" s="10"/>
@@ -27531,7 +27752,9 @@
       <c r="AU125" s="10">
         <v>0.18507673848027384</v>
       </c>
-      <c r="AV125" s="10"/>
+      <c r="AV125" s="10">
+        <v>0.10837280313676501</v>
+      </c>
       <c r="AW125" s="10"/>
       <c r="AX125" s="10"/>
       <c r="AY125" s="10"/>
@@ -27762,7 +27985,9 @@
       <c r="AU126" s="10">
         <v>0.11211515515393788</v>
       </c>
-      <c r="AV126" s="10"/>
+      <c r="AV126" s="10">
+        <v>0.10475688297992547</v>
+      </c>
       <c r="AW126" s="10"/>
       <c r="AX126" s="10"/>
       <c r="AY126" s="10"/>
@@ -27993,7 +28218,9 @@
       <c r="AU127" s="10">
         <v>6.2508113226277029E-2</v>
       </c>
-      <c r="AV127" s="10"/>
+      <c r="AV127" s="10">
+        <v>7.6880916401105504E-2</v>
+      </c>
       <c r="AW127" s="10"/>
       <c r="AX127" s="10"/>
       <c r="AY127" s="10"/>
@@ -28224,7 +28451,9 @@
       <c r="AU128" s="10">
         <v>6.0211820570263308E-2</v>
       </c>
-      <c r="AV128" s="10"/>
+      <c r="AV128" s="10">
+        <v>7.1371057928875103E-2</v>
+      </c>
       <c r="AW128" s="10"/>
       <c r="AX128" s="10"/>
       <c r="AY128" s="10"/>
@@ -28455,7 +28684,9 @@
       <c r="AU129" s="10">
         <v>1.280506315140717E-2</v>
       </c>
-      <c r="AV129" s="10"/>
+      <c r="AV129" s="10">
+        <v>9.6133694176394613E-3</v>
+      </c>
       <c r="AW129" s="10"/>
       <c r="AX129" s="10"/>
       <c r="AY129" s="10"/>
@@ -28686,7 +28917,9 @@
       <c r="AU130" s="10">
         <v>-8.0457483838886068E-2</v>
       </c>
-      <c r="AV130" s="10"/>
+      <c r="AV130" s="10">
+        <v>-6.5440079562406717E-2</v>
+      </c>
       <c r="AW130" s="10"/>
       <c r="AX130" s="10"/>
       <c r="AY130" s="10"/>
@@ -28917,7 +29150,9 @@
       <c r="AU131" s="10">
         <v>0.10428068135175828</v>
       </c>
-      <c r="AV131" s="10"/>
+      <c r="AV131" s="10">
+        <v>6.6769747452075645E-2</v>
+      </c>
       <c r="AW131" s="10"/>
       <c r="AX131" s="10"/>
       <c r="AY131" s="10"/>
@@ -29148,7 +29383,9 @@
       <c r="AU132" s="10">
         <v>0</v>
       </c>
-      <c r="AV132" s="10"/>
+      <c r="AV132" s="10">
+        <v>0</v>
+      </c>
       <c r="AW132" s="10"/>
       <c r="AX132" s="10"/>
       <c r="AY132" s="10"/>
@@ -29379,7 +29616,9 @@
       <c r="AU133" s="10">
         <v>2.3317373886317716E-2</v>
       </c>
-      <c r="AV133" s="10"/>
+      <c r="AV133" s="10">
+        <v>1.7182312636857988E-2</v>
+      </c>
       <c r="AW133" s="10"/>
       <c r="AX133" s="10"/>
       <c r="AY133" s="10"/>
@@ -29610,7 +29849,9 @@
       <c r="AU134" s="10">
         <v>2.2188131083318297E-2</v>
       </c>
-      <c r="AV134" s="10"/>
+      <c r="AV134" s="10">
+        <v>2.2188131083318297E-2</v>
+      </c>
       <c r="AW134" s="10"/>
       <c r="AX134" s="10"/>
       <c r="AY134" s="10"/>
@@ -29841,7 +30082,9 @@
       <c r="AU135" s="10">
         <v>5.2210570948645563E-2</v>
       </c>
-      <c r="AV135" s="10"/>
+      <c r="AV135" s="10">
+        <v>5.2210570948645563E-2</v>
+      </c>
       <c r="AW135" s="10"/>
       <c r="AX135" s="10"/>
       <c r="AY135" s="10"/>
@@ -30072,7 +30315,9 @@
       <c r="AU136" s="10">
         <v>5.0648579481303635E-2</v>
       </c>
-      <c r="AV136" s="10"/>
+      <c r="AV136" s="10">
+        <v>5.0648579481303635E-2</v>
+      </c>
       <c r="AW136" s="10"/>
       <c r="AX136" s="10"/>
       <c r="AY136" s="10"/>
@@ -30303,7 +30548,9 @@
       <c r="AU137" s="10">
         <v>2.971992664937928E-2</v>
       </c>
-      <c r="AV137" s="10"/>
+      <c r="AV137" s="10">
+        <v>2.971992664937928E-2</v>
+      </c>
       <c r="AW137" s="10"/>
       <c r="AX137" s="10"/>
       <c r="AY137" s="10"/>
@@ -30534,7 +30781,9 @@
       <c r="AU138" s="10">
         <v>4.0835616078695569E-2</v>
       </c>
-      <c r="AV138" s="10"/>
+      <c r="AV138" s="10">
+        <v>4.0835616078695569E-2</v>
+      </c>
       <c r="AW138" s="10"/>
       <c r="AX138" s="10"/>
       <c r="AY138" s="10"/>
@@ -30765,7 +31014,9 @@
       <c r="AU139" s="10">
         <v>1.555625119563131E-2</v>
       </c>
-      <c r="AV139" s="10"/>
+      <c r="AV139" s="10">
+        <v>3.0257641883807196E-2</v>
+      </c>
       <c r="AW139" s="10"/>
       <c r="AX139" s="10"/>
       <c r="AY139" s="10"/>
@@ -30996,7 +31247,9 @@
       <c r="AU140" s="10">
         <v>0.14179558419780691</v>
       </c>
-      <c r="AV140" s="10"/>
+      <c r="AV140" s="10">
+        <v>0.15095533549739071</v>
+      </c>
       <c r="AW140" s="10"/>
       <c r="AX140" s="10"/>
       <c r="AY140" s="10"/>
@@ -31227,7 +31480,9 @@
       <c r="AU141" s="10">
         <v>6.5096035575740396E-2</v>
       </c>
-      <c r="AV141" s="10"/>
+      <c r="AV141" s="10">
+        <v>0.11140759244540321</v>
+      </c>
       <c r="AW141" s="10"/>
       <c r="AX141" s="10"/>
       <c r="AY141" s="10"/>
@@ -31458,7 +31713,9 @@
       <c r="AU142" s="10">
         <v>4.9352457328849741E-2</v>
       </c>
-      <c r="AV142" s="10"/>
+      <c r="AV142" s="10">
+        <v>3.2873384510737624E-2</v>
+      </c>
       <c r="AW142" s="10"/>
       <c r="AX142" s="10"/>
       <c r="AY142" s="10"/>
@@ -31689,7 +31946,9 @@
       <c r="AU143" s="10">
         <v>4.3422531807818743E-2</v>
       </c>
-      <c r="AV143" s="10"/>
+      <c r="AV143" s="10">
+        <v>5.1542178018592066E-2</v>
+      </c>
       <c r="AW143" s="10"/>
       <c r="AX143" s="10"/>
       <c r="AY143" s="10"/>
@@ -31920,7 +32179,9 @@
       <c r="AU144" s="10">
         <v>3.1737737244269315E-2</v>
       </c>
-      <c r="AV144" s="10"/>
+      <c r="AV144" s="10">
+        <v>1.4303208425177072E-3</v>
+      </c>
       <c r="AW144" s="10"/>
       <c r="AX144" s="10"/>
       <c r="AY144" s="10"/>
@@ -32151,7 +32412,9 @@
       <c r="AU145" s="10">
         <v>0.11988767790224331</v>
       </c>
-      <c r="AV145" s="10"/>
+      <c r="AV145" s="10">
+        <v>0.1013836328059039</v>
+      </c>
       <c r="AW145" s="10"/>
       <c r="AX145" s="10"/>
       <c r="AY145" s="10"/>
@@ -32382,7 +32645,9 @@
       <c r="AU146" s="10">
         <v>9.8585347679315483E-2</v>
       </c>
-      <c r="AV146" s="10"/>
+      <c r="AV146" s="10">
+        <v>2.4972151022571332E-2</v>
+      </c>
       <c r="AW146" s="10"/>
       <c r="AX146" s="10"/>
       <c r="AY146" s="10"/>
@@ -32613,7 +32878,9 @@
       <c r="AU147" s="10">
         <v>0.12769990487381788</v>
       </c>
-      <c r="AV147" s="10"/>
+      <c r="AV147" s="10">
+        <v>0.12890297129427575</v>
+      </c>
       <c r="AW147" s="10"/>
       <c r="AX147" s="10"/>
       <c r="AY147" s="10"/>
@@ -32844,7 +33111,9 @@
       <c r="AU148" s="10">
         <v>0.11075769835291061</v>
       </c>
-      <c r="AV148" s="10"/>
+      <c r="AV148" s="10">
+        <v>8.6659833854784818E-2</v>
+      </c>
       <c r="AW148" s="10"/>
       <c r="AX148" s="10"/>
       <c r="AY148" s="10"/>
@@ -33075,7 +33344,9 @@
       <c r="AU149" s="10">
         <v>6.2725668969383142E-2</v>
       </c>
-      <c r="AV149" s="10"/>
+      <c r="AV149" s="10">
+        <v>5.4775565032328055E-2</v>
+      </c>
       <c r="AW149" s="10"/>
       <c r="AX149" s="10"/>
       <c r="AY149" s="10"/>
@@ -33306,7 +33577,9 @@
       <c r="AU150" s="10">
         <v>0.10775149529620376</v>
       </c>
-      <c r="AV150" s="10"/>
+      <c r="AV150" s="10">
+        <v>0.1097430087651301</v>
+      </c>
       <c r="AW150" s="10"/>
       <c r="AX150" s="10"/>
       <c r="AY150" s="10"/>
@@ -33537,7 +33810,9 @@
       <c r="AU151" s="10">
         <v>9.5874647796442281E-2</v>
       </c>
-      <c r="AV151" s="10"/>
+      <c r="AV151" s="10">
+        <v>9.5885573017834957E-2</v>
+      </c>
       <c r="AW151" s="10"/>
       <c r="AX151" s="10"/>
       <c r="AY151" s="10"/>
@@ -33768,7 +34043,9 @@
       <c r="AU152" s="10">
         <v>0.13939627166879953</v>
       </c>
-      <c r="AV152" s="10"/>
+      <c r="AV152" s="10">
+        <v>0.13698605791872898</v>
+      </c>
       <c r="AW152" s="10"/>
       <c r="AX152" s="10"/>
       <c r="AY152" s="10"/>
@@ -33999,7 +34276,9 @@
       <c r="AU153" s="10">
         <v>8.5801136613947726E-2</v>
       </c>
-      <c r="AV153" s="10"/>
+      <c r="AV153" s="10">
+        <v>5.6709945309139531E-2</v>
+      </c>
       <c r="AW153" s="10"/>
       <c r="AX153" s="10"/>
       <c r="AY153" s="10"/>
@@ -34230,7 +34509,9 @@
       <c r="AU154" s="10">
         <v>9.0591817034231692E-2</v>
       </c>
-      <c r="AV154" s="10"/>
+      <c r="AV154" s="10">
+        <v>9.4523721275018513E-2</v>
+      </c>
       <c r="AW154" s="10"/>
       <c r="AX154" s="10"/>
       <c r="AY154" s="10"/>
@@ -34461,7 +34742,9 @@
       <c r="AU155" s="10">
         <v>8.0020874241539808E-2</v>
       </c>
-      <c r="AV155" s="10"/>
+      <c r="AV155" s="10">
+        <v>7.4361297968003948E-2</v>
+      </c>
       <c r="AW155" s="10"/>
       <c r="AX155" s="10"/>
       <c r="AY155" s="10"/>
@@ -34692,7 +34975,9 @@
       <c r="AU156" s="10">
         <v>-7.2835907295995428E-2</v>
       </c>
-      <c r="AV156" s="10"/>
+      <c r="AV156" s="10">
+        <v>-7.279752864478406E-2</v>
+      </c>
       <c r="AW156" s="10"/>
       <c r="AX156" s="10"/>
       <c r="AY156" s="10"/>
@@ -34923,7 +35208,9 @@
       <c r="AU157" s="10">
         <v>-1.124389072520271E-2</v>
       </c>
-      <c r="AV157" s="10"/>
+      <c r="AV157" s="10">
+        <v>-1.124389072520271E-2</v>
+      </c>
       <c r="AW157" s="10"/>
       <c r="AX157" s="10"/>
       <c r="AY157" s="10"/>
@@ -35154,7 +35441,9 @@
       <c r="AU158" s="10">
         <v>-2.9498681672594729E-2</v>
       </c>
-      <c r="AV158" s="10"/>
+      <c r="AV158" s="10">
+        <v>-2.9498681672594729E-2</v>
+      </c>
       <c r="AW158" s="10"/>
       <c r="AX158" s="10"/>
       <c r="AY158" s="10"/>
@@ -35385,7 +35674,9 @@
       <c r="AU159" s="10">
         <v>0.16733850392897232</v>
       </c>
-      <c r="AV159" s="10"/>
+      <c r="AV159" s="10">
+        <v>0.10379220695853131</v>
+      </c>
       <c r="AW159" s="10"/>
       <c r="AX159" s="10"/>
       <c r="AY159" s="10"/>
@@ -35616,7 +35907,9 @@
       <c r="AU160" s="10">
         <v>0.12665581292089101</v>
       </c>
-      <c r="AV160" s="10"/>
+      <c r="AV160" s="10">
+        <v>0.13106988340544112</v>
+      </c>
       <c r="AW160" s="10"/>
       <c r="AX160" s="10"/>
       <c r="AY160" s="10"/>
@@ -35847,7 +36140,9 @@
       <c r="AU161" s="10">
         <v>0.15670548000977114</v>
       </c>
-      <c r="AV161" s="10"/>
+      <c r="AV161" s="10">
+        <v>0.16557423767455126</v>
+      </c>
       <c r="AW161" s="10"/>
       <c r="AX161" s="10"/>
       <c r="AY161" s="10"/>
@@ -36078,7 +36373,9 @@
       <c r="AU162" s="10">
         <v>6.5010612373241017E-2</v>
       </c>
-      <c r="AV162" s="10"/>
+      <c r="AV162" s="10">
+        <v>8.1038262255878735E-2</v>
+      </c>
       <c r="AW162" s="10"/>
       <c r="AX162" s="10"/>
       <c r="AY162" s="10"/>
@@ -36309,7 +36606,9 @@
       <c r="AU163" s="10">
         <v>-7.012262280637227E-3</v>
       </c>
-      <c r="AV163" s="10"/>
+      <c r="AV163" s="10">
+        <v>-6.0870842205742459E-3</v>
+      </c>
       <c r="AW163" s="10"/>
       <c r="AX163" s="10"/>
       <c r="AY163" s="10"/>
@@ -36540,7 +36839,9 @@
       <c r="AU164" s="10">
         <v>-7.3789914863726658E-3</v>
       </c>
-      <c r="AV164" s="10"/>
+      <c r="AV164" s="10">
+        <v>-0.11032334549850054</v>
+      </c>
       <c r="AW164" s="10"/>
       <c r="AX164" s="10"/>
       <c r="AY164" s="10"/>
@@ -36771,7 +37072,9 @@
       <c r="AU165" s="10">
         <v>7.5344781255688664E-2</v>
       </c>
-      <c r="AV165" s="10"/>
+      <c r="AV165" s="10">
+        <v>9.8413600661430456E-2</v>
+      </c>
       <c r="AW165" s="10"/>
       <c r="AX165" s="10"/>
       <c r="AY165" s="10"/>
@@ -37002,7 +37305,9 @@
       <c r="AU166" s="10">
         <v>0.29991216175881164</v>
       </c>
-      <c r="AV166" s="10"/>
+      <c r="AV166" s="10">
+        <v>0.38782160070599403</v>
+      </c>
       <c r="AW166" s="10"/>
       <c r="AX166" s="10"/>
       <c r="AY166" s="10"/>
@@ -37233,7 +37538,9 @@
       <c r="AU167" s="10">
         <v>6.151001491921404E-2</v>
       </c>
-      <c r="AV167" s="10"/>
+      <c r="AV167" s="10">
+        <v>-2.9721984666396528E-2</v>
+      </c>
       <c r="AW167" s="10"/>
       <c r="AX167" s="10"/>
       <c r="AY167" s="10"/>
@@ -37464,7 +37771,9 @@
       <c r="AU168" s="10">
         <v>7.2252257050786861E-2</v>
       </c>
-      <c r="AV168" s="10"/>
+      <c r="AV168" s="10">
+        <v>7.2252257050786861E-2</v>
+      </c>
       <c r="AW168" s="10"/>
       <c r="AX168" s="10"/>
       <c r="AY168" s="10"/>
@@ -37695,7 +38004,9 @@
       <c r="AU169" s="10">
         <v>6.0663421669370887E-2</v>
       </c>
-      <c r="AV169" s="10"/>
+      <c r="AV169" s="10">
+        <v>7.0852503382949905E-2</v>
+      </c>
       <c r="AW169" s="10"/>
       <c r="AX169" s="10"/>
       <c r="AY169" s="10"/>
@@ -37926,7 +38237,9 @@
       <c r="AU170" s="10">
         <v>-7.8256053808059001E-3</v>
       </c>
-      <c r="AV170" s="10"/>
+      <c r="AV170" s="10">
+        <v>-6.2986468686384578E-3</v>
+      </c>
       <c r="AW170" s="10"/>
       <c r="AX170" s="10"/>
       <c r="AY170" s="10"/>
@@ -38157,7 +38470,9 @@
       <c r="AU171" s="10">
         <v>-8.9303300322232548E-2</v>
       </c>
-      <c r="AV171" s="10"/>
+      <c r="AV171" s="10">
+        <v>-7.4189042371567426E-3</v>
+      </c>
       <c r="AW171" s="10"/>
       <c r="AX171" s="10"/>
       <c r="AY171" s="10"/>
@@ -38388,7 +38703,9 @@
       <c r="AU172" s="10">
         <v>0.20419874984300579</v>
       </c>
-      <c r="AV172" s="10"/>
+      <c r="AV172" s="10">
+        <v>-0.11706842689570307</v>
+      </c>
       <c r="AW172" s="10"/>
       <c r="AX172" s="10"/>
       <c r="AY172" s="10"/>
@@ -38619,7 +38936,9 @@
       <c r="AU173" s="10">
         <v>8.409408318288647E-2</v>
       </c>
-      <c r="AV173" s="10"/>
+      <c r="AV173" s="10">
+        <v>0.10457752227750428</v>
+      </c>
       <c r="AW173" s="10"/>
       <c r="AX173" s="10"/>
       <c r="AY173" s="10"/>
@@ -38850,7 +39169,9 @@
       <c r="AU174" s="10">
         <v>7.2516855125550839E-2</v>
       </c>
-      <c r="AV174" s="10"/>
+      <c r="AV174" s="10">
+        <v>1.3501350135013412E-2</v>
+      </c>
       <c r="AW174" s="10"/>
       <c r="AX174" s="10"/>
       <c r="AY174" s="10"/>
@@ -39081,7 +39402,9 @@
       <c r="AU175" s="10">
         <v>0.16124234921944858</v>
       </c>
-      <c r="AV175" s="10"/>
+      <c r="AV175" s="10">
+        <v>0.17804187308024688</v>
+      </c>
       <c r="AW175" s="10"/>
       <c r="AX175" s="10"/>
       <c r="AY175" s="10"/>
@@ -39312,7 +39635,9 @@
       <c r="AU176" s="10">
         <v>0.16167343209923057</v>
       </c>
-      <c r="AV176" s="10"/>
+      <c r="AV176" s="10">
+        <v>0.17757760055080629</v>
+      </c>
       <c r="AW176" s="10"/>
       <c r="AX176" s="10"/>
       <c r="AY176" s="10"/>
@@ -39543,7 +39868,9 @@
       <c r="AU177" s="10">
         <v>3.7959195707295557E-3</v>
       </c>
-      <c r="AV177" s="10"/>
+      <c r="AV177" s="10">
+        <v>2.8392252134905593E-3</v>
+      </c>
       <c r="AW177" s="10"/>
       <c r="AX177" s="10"/>
       <c r="AY177" s="10"/>
@@ -39774,7 +40101,9 @@
       <c r="AU178" s="10">
         <v>0.10191516169676595</v>
       </c>
-      <c r="AV178" s="10"/>
+      <c r="AV178" s="10">
+        <v>0.10810040648703012</v>
+      </c>
       <c r="AW178" s="10"/>
       <c r="AX178" s="10"/>
       <c r="AY178" s="10"/>
@@ -40005,7 +40334,9 @@
       <c r="AU179" s="10">
         <v>8.1329465277031776E-2</v>
       </c>
-      <c r="AV179" s="10"/>
+      <c r="AV179" s="10">
+        <v>9.9408509826369063E-2</v>
+      </c>
       <c r="AW179" s="10"/>
       <c r="AX179" s="10"/>
       <c r="AY179" s="10"/>
@@ -40236,7 +40567,9 @@
       <c r="AU180" s="10">
         <v>0.10720711814137407</v>
       </c>
-      <c r="AV180" s="10"/>
+      <c r="AV180" s="10">
+        <v>0.11612404598589499</v>
+      </c>
       <c r="AW180" s="10"/>
       <c r="AX180" s="10"/>
       <c r="AY180" s="10"/>
@@ -40467,7 +40800,9 @@
       <c r="AU181" s="10">
         <v>0.18752353821640666</v>
       </c>
-      <c r="AV181" s="10"/>
+      <c r="AV181" s="10">
+        <v>0.22932257252826105</v>
+      </c>
       <c r="AW181" s="10"/>
       <c r="AX181" s="10"/>
       <c r="AY181" s="10"/>
@@ -40698,7 +41033,9 @@
       <c r="AU182" s="10">
         <v>0.20637537561926411</v>
       </c>
-      <c r="AV182" s="10"/>
+      <c r="AV182" s="10">
+        <v>0.1588355864313431</v>
+      </c>
       <c r="AW182" s="10"/>
       <c r="AX182" s="10"/>
       <c r="AY182" s="10"/>
@@ -40929,7 +41266,9 @@
       <c r="AU183" s="10">
         <v>0.11847464188927592</v>
       </c>
-      <c r="AV183" s="10"/>
+      <c r="AV183" s="10">
+        <v>0.12017012521399995</v>
+      </c>
       <c r="AW183" s="10"/>
       <c r="AX183" s="10"/>
       <c r="AY183" s="10"/>
@@ -41160,7 +41499,9 @@
       <c r="AU184" s="10">
         <v>0.17831253894199373</v>
       </c>
-      <c r="AV184" s="10"/>
+      <c r="AV184" s="10">
+        <v>0.17553368157251126</v>
+      </c>
       <c r="AW184" s="10"/>
       <c r="AX184" s="10"/>
       <c r="AY184" s="10"/>
@@ -41391,7 +41732,9 @@
       <c r="AU185" s="10">
         <v>-6.5740950170621648E-2</v>
       </c>
-      <c r="AV185" s="10"/>
+      <c r="AV185" s="10">
+        <v>-5.7819810851169828E-2</v>
+      </c>
       <c r="AW185" s="10"/>
       <c r="AX185" s="10"/>
       <c r="AY185" s="10"/>
@@ -41622,7 +41965,9 @@
       <c r="AU186" s="10">
         <v>0.18319069563309198</v>
       </c>
-      <c r="AV186" s="10"/>
+      <c r="AV186" s="10">
+        <v>0.13806716839953026</v>
+      </c>
       <c r="AW186" s="10"/>
       <c r="AX186" s="10"/>
       <c r="AY186" s="10"/>
@@ -41853,7 +42198,9 @@
       <c r="AU187" s="10">
         <v>-7.6206399984536377E-2</v>
       </c>
-      <c r="AV187" s="10"/>
+      <c r="AV187" s="10">
+        <v>1.8191005558362727E-2</v>
+      </c>
       <c r="AW187" s="10"/>
       <c r="AX187" s="10"/>
       <c r="AY187" s="10"/>
@@ -42084,7 +42431,9 @@
       <c r="AU188" s="10">
         <v>-0.10741535526943247</v>
       </c>
-      <c r="AV188" s="10"/>
+      <c r="AV188" s="10">
+        <v>-0.10549935626264495</v>
+      </c>
       <c r="AW188" s="10"/>
       <c r="AX188" s="10"/>
       <c r="AY188" s="10"/>
@@ -42315,7 +42664,9 @@
       <c r="AU189" s="10">
         <v>0.1044858345152555</v>
       </c>
-      <c r="AV189" s="10"/>
+      <c r="AV189" s="10">
+        <v>0.10152136093500053</v>
+      </c>
       <c r="AW189" s="10"/>
       <c r="AX189" s="10"/>
       <c r="AY189" s="10"/>
@@ -42546,7 +42897,9 @@
       <c r="AU190" s="10">
         <v>6.9754899023191763E-2</v>
       </c>
-      <c r="AV190" s="10"/>
+      <c r="AV190" s="10">
+        <v>7.968768625581113E-2</v>
+      </c>
       <c r="AW190" s="10"/>
       <c r="AX190" s="10"/>
       <c r="AY190" s="10"/>
@@ -42777,7 +43130,9 @@
       <c r="AU191" s="10">
         <v>0.20834452939883219</v>
       </c>
-      <c r="AV191" s="10"/>
+      <c r="AV191" s="10">
+        <v>0.14155968104430272</v>
+      </c>
       <c r="AW191" s="10"/>
       <c r="AX191" s="10"/>
       <c r="AY191" s="10"/>
@@ -43008,7 +43363,9 @@
       <c r="AU192" s="10">
         <v>2.6855123674911718E-2</v>
       </c>
-      <c r="AV192" s="10"/>
+      <c r="AV192" s="10">
+        <v>3.1079927161243193E-2</v>
+      </c>
       <c r="AW192" s="10"/>
       <c r="AX192" s="10"/>
       <c r="AY192" s="10"/>
@@ -43239,7 +43596,9 @@
       <c r="AU193" s="10">
         <v>-4.5497957539842426E-2</v>
       </c>
-      <c r="AV193" s="10"/>
+      <c r="AV193" s="10">
+        <v>-3.1178369275389417E-2</v>
+      </c>
       <c r="AW193" s="10"/>
       <c r="AX193" s="10"/>
       <c r="AY193" s="10"/>
@@ -43470,7 +43829,9 @@
       <c r="AU194" s="10">
         <v>5.1108726752503442E-2</v>
       </c>
-      <c r="AV194" s="10"/>
+      <c r="AV194" s="10">
+        <v>1.3173815975595193E-2</v>
+      </c>
       <c r="AW194" s="10"/>
       <c r="AX194" s="10"/>
       <c r="AY194" s="10"/>
@@ -43701,7 +44062,9 @@
       <c r="AU195" s="10">
         <v>2.7831411706294551E-2</v>
       </c>
-      <c r="AV195" s="10"/>
+      <c r="AV195" s="10">
+        <v>4.202268572068224E-2</v>
+      </c>
       <c r="AW195" s="10"/>
       <c r="AX195" s="10"/>
       <c r="AY195" s="10"/>
@@ -43932,7 +44295,9 @@
       <c r="AU196" s="10">
         <v>0.10357269447145745</v>
       </c>
-      <c r="AV196" s="10"/>
+      <c r="AV196" s="10">
+        <v>7.667150542225265E-2</v>
+      </c>
       <c r="AW196" s="10"/>
       <c r="AX196" s="10"/>
       <c r="AY196" s="10"/>
@@ -44163,7 +44528,9 @@
       <c r="AU197" s="10">
         <v>9.636753397446185E-4</v>
       </c>
-      <c r="AV197" s="10"/>
+      <c r="AV197" s="10">
+        <v>3.7278158410244844E-2</v>
+      </c>
       <c r="AW197" s="10"/>
       <c r="AX197" s="10"/>
       <c r="AY197" s="10"/>
@@ -44394,7 +44761,9 @@
       <c r="AU198" s="10">
         <v>-1.2652296157450782E-2</v>
       </c>
-      <c r="AV198" s="10"/>
+      <c r="AV198" s="10">
+        <v>1.2716732356528038E-2</v>
+      </c>
       <c r="AW198" s="10"/>
       <c r="AX198" s="10"/>
       <c r="AY198" s="10"/>
@@ -44625,7 +44994,9 @@
       <c r="AU199" s="10">
         <v>0.19508220080864924</v>
       </c>
-      <c r="AV199" s="10"/>
+      <c r="AV199" s="10">
+        <v>0.13949059163955591</v>
+      </c>
       <c r="AW199" s="10"/>
       <c r="AX199" s="10"/>
       <c r="AY199" s="10"/>
@@ -44856,7 +45227,9 @@
       <c r="AU200" s="10">
         <v>2.6616994681502915E-2</v>
       </c>
-      <c r="AV200" s="10"/>
+      <c r="AV200" s="10">
+        <v>4.1568080496127147E-2</v>
+      </c>
       <c r="AW200" s="10"/>
       <c r="AX200" s="10"/>
       <c r="AY200" s="10"/>
@@ -45087,7 +45460,9 @@
       <c r="AU201" s="10">
         <v>0.11022626500311694</v>
       </c>
-      <c r="AV201" s="10"/>
+      <c r="AV201" s="10">
+        <v>8.8158750813272624E-2</v>
+      </c>
       <c r="AW201" s="10"/>
       <c r="AX201" s="10"/>
       <c r="AY201" s="10"/>
@@ -45318,7 +45693,9 @@
       <c r="AU202" s="10">
         <v>-3.7747780615347226E-2</v>
       </c>
-      <c r="AV202" s="10"/>
+      <c r="AV202" s="10">
+        <v>3.8088179035960401E-2</v>
+      </c>
       <c r="AW202" s="10"/>
       <c r="AX202" s="10"/>
       <c r="AY202" s="10"/>
@@ -45549,7 +45926,9 @@
       <c r="AU203" s="10">
         <v>-2.2064001923836729E-2</v>
       </c>
-      <c r="AV203" s="10"/>
+      <c r="AV203" s="10">
+        <v>7.5464056117612532E-2</v>
+      </c>
       <c r="AW203" s="10"/>
       <c r="AX203" s="10"/>
       <c r="AY203" s="10"/>
@@ -45780,7 +46159,9 @@
       <c r="AU204" s="10">
         <v>9.9526108967960658E-2</v>
       </c>
-      <c r="AV204" s="10"/>
+      <c r="AV204" s="10">
+        <v>0.12177002583979335</v>
+      </c>
       <c r="AW204" s="10"/>
       <c r="AX204" s="10"/>
       <c r="AY204" s="10"/>
@@ -46011,7 +46392,9 @@
       <c r="AU205" s="10">
         <v>0.17411649607280322</v>
       </c>
-      <c r="AV205" s="10"/>
+      <c r="AV205" s="10">
+        <v>0.1489984620230882</v>
+      </c>
       <c r="AW205" s="10"/>
       <c r="AX205" s="10"/>
       <c r="AY205" s="10"/>
@@ -46242,7 +46625,9 @@
       <c r="AU206" s="10">
         <v>0.11184907017158374</v>
       </c>
-      <c r="AV206" s="10"/>
+      <c r="AV206" s="10">
+        <v>0.11812124457136064</v>
+      </c>
       <c r="AW206" s="10"/>
       <c r="AX206" s="10"/>
       <c r="AY206" s="10"/>
@@ -46473,7 +46858,9 @@
       <c r="AU207" s="10">
         <v>6.9514172413119413E-2</v>
       </c>
-      <c r="AV207" s="10"/>
+      <c r="AV207" s="10">
+        <v>0.20528315501087979</v>
+      </c>
       <c r="AW207" s="10"/>
       <c r="AX207" s="10"/>
       <c r="AY207" s="10"/>
@@ -46704,7 +47091,9 @@
       <c r="AU208" s="10">
         <v>0.14369925300422226</v>
       </c>
-      <c r="AV208" s="10"/>
+      <c r="AV208" s="10">
+        <v>0.12228998371595523</v>
+      </c>
       <c r="AW208" s="10"/>
       <c r="AX208" s="10"/>
       <c r="AY208" s="10"/>
@@ -46935,7 +47324,9 @@
       <c r="AU209" s="10">
         <v>0.10918098230819173</v>
       </c>
-      <c r="AV209" s="10"/>
+      <c r="AV209" s="10">
+        <v>0.10732166955466305</v>
+      </c>
       <c r="AW209" s="10"/>
       <c r="AX209" s="10"/>
       <c r="AY209" s="10"/>
@@ -47166,7 +47557,9 @@
       <c r="AU210" s="10">
         <v>7.7210219420944304E-2</v>
       </c>
-      <c r="AV210" s="10"/>
+      <c r="AV210" s="10">
+        <v>7.8615026640588059E-2</v>
+      </c>
       <c r="AW210" s="10"/>
       <c r="AX210" s="10"/>
       <c r="AY210" s="10"/>
@@ -47397,7 +47790,9 @@
       <c r="AU211" s="10">
         <v>9.2197477028500119E-2</v>
       </c>
-      <c r="AV211" s="10"/>
+      <c r="AV211" s="10">
+        <v>0.10806887613404914</v>
+      </c>
       <c r="AW211" s="10"/>
       <c r="AX211" s="10"/>
       <c r="AY211" s="10"/>
@@ -47628,7 +48023,9 @@
       <c r="AU212" s="10">
         <v>0.26584571566194426</v>
       </c>
-      <c r="AV212" s="10"/>
+      <c r="AV212" s="10">
+        <v>0.26404141017312677</v>
+      </c>
       <c r="AW212" s="10"/>
       <c r="AX212" s="10"/>
       <c r="AY212" s="10"/>
@@ -47859,7 +48256,9 @@
       <c r="AU213" s="10">
         <v>0.17645522328990482</v>
       </c>
-      <c r="AV213" s="10"/>
+      <c r="AV213" s="10">
+        <v>0.17832135476109712</v>
+      </c>
       <c r="AW213" s="10"/>
       <c r="AX213" s="10"/>
       <c r="AY213" s="10"/>
@@ -48090,7 +48489,9 @@
       <c r="AU214" s="10">
         <v>8.1062399393996953E-2</v>
       </c>
-      <c r="AV214" s="10"/>
+      <c r="AV214" s="10">
+        <v>4.3106297044244624E-2</v>
+      </c>
       <c r="AW214" s="10"/>
       <c r="AX214" s="10"/>
       <c r="AY214" s="10"/>
@@ -48321,7 +48722,9 @@
       <c r="AU215" s="10">
         <v>4.3539043221317186E-2</v>
       </c>
-      <c r="AV215" s="10"/>
+      <c r="AV215" s="10">
+        <v>2.7097029311452747E-2</v>
+      </c>
       <c r="AW215" s="10"/>
       <c r="AX215" s="10"/>
       <c r="AY215" s="10"/>
@@ -48552,7 +48955,9 @@
       <c r="AU216" s="10">
         <v>3.2181114003501099E-2</v>
       </c>
-      <c r="AV216" s="10"/>
+      <c r="AV216" s="10">
+        <v>3.3741190556094702E-2</v>
+      </c>
       <c r="AW216" s="10"/>
       <c r="AX216" s="10"/>
       <c r="AY216" s="10"/>
@@ -48783,7 +49188,9 @@
       <c r="AU217" s="10">
         <v>0.14891041162227592</v>
       </c>
-      <c r="AV217" s="10"/>
+      <c r="AV217" s="10">
+        <v>0.14891041162227592</v>
+      </c>
       <c r="AW217" s="10"/>
       <c r="AX217" s="10"/>
       <c r="AY217" s="10"/>
@@ -49014,7 +49421,9 @@
       <c r="AU218" s="10">
         <v>7.2356046105020777E-2</v>
       </c>
-      <c r="AV218" s="10"/>
+      <c r="AV218" s="10">
+        <v>0.1142599083534277</v>
+      </c>
       <c r="AW218" s="10"/>
       <c r="AX218" s="10"/>
       <c r="AY218" s="10"/>
@@ -49245,7 +49654,9 @@
       <c r="AU219" s="10">
         <v>0.12896026605986344</v>
       </c>
-      <c r="AV219" s="10"/>
+      <c r="AV219" s="10">
+        <v>0.11891336469709057</v>
+      </c>
       <c r="AW219" s="10"/>
       <c r="AX219" s="10"/>
       <c r="AY219" s="10"/>
@@ -49476,7 +49887,9 @@
       <c r="AU220" s="10">
         <v>0.20899797473237536</v>
       </c>
-      <c r="AV220" s="10"/>
+      <c r="AV220" s="10">
+        <v>0.17917811817013574</v>
+      </c>
       <c r="AW220" s="10"/>
       <c r="AX220" s="10"/>
       <c r="AY220" s="10"/>
@@ -49707,7 +50120,9 @@
       <c r="AU221" s="10">
         <v>0.135839173974176</v>
       </c>
-      <c r="AV221" s="10"/>
+      <c r="AV221" s="10">
+        <v>0.15369936497503378</v>
+      </c>
       <c r="AW221" s="10"/>
       <c r="AX221" s="10"/>
       <c r="AY221" s="10"/>
@@ -49938,7 +50353,9 @@
       <c r="AU222" s="10">
         <v>-1.0082676129196111E-2</v>
       </c>
-      <c r="AV222" s="10"/>
+      <c r="AV222" s="10">
+        <v>-8.9845628874019035E-4</v>
+      </c>
       <c r="AW222" s="10"/>
       <c r="AX222" s="10"/>
       <c r="AY222" s="10"/>
@@ -50169,7 +50586,9 @@
       <c r="AU223" s="10">
         <v>7.2190999878704476E-2</v>
       </c>
-      <c r="AV223" s="10"/>
+      <c r="AV223" s="10">
+        <v>9.1528955457902628E-2</v>
+      </c>
       <c r="AW223" s="10"/>
       <c r="AX223" s="10"/>
       <c r="AY223" s="10"/>
@@ -50400,7 +50819,9 @@
       <c r="AU224" s="10">
         <v>5.2541337842916258E-2</v>
       </c>
-      <c r="AV224" s="10"/>
+      <c r="AV224" s="10">
+        <v>8.6824112147317667E-2</v>
+      </c>
       <c r="AW224" s="10"/>
       <c r="AX224" s="10"/>
       <c r="AY224" s="10"/>
@@ -50631,7 +51052,9 @@
       <c r="AU225" s="10">
         <v>0.16398932297985924</v>
       </c>
-      <c r="AV225" s="10"/>
+      <c r="AV225" s="10">
+        <v>0.26984728325840623</v>
+      </c>
       <c r="AW225" s="10"/>
       <c r="AX225" s="10"/>
       <c r="AY225" s="10"/>
@@ -50862,7 +51285,9 @@
       <c r="AU226" s="10">
         <v>6.7435889171796548E-2</v>
       </c>
-      <c r="AV226" s="10"/>
+      <c r="AV226" s="10">
+        <v>4.9293480473999285E-2</v>
+      </c>
       <c r="AW226" s="10"/>
       <c r="AX226" s="10"/>
       <c r="AY226" s="10"/>
@@ -51093,7 +51518,9 @@
       <c r="AU227" s="10">
         <v>4.5857274627446598E-2</v>
       </c>
-      <c r="AV227" s="10"/>
+      <c r="AV227" s="10">
+        <v>2.2524084615449746E-2</v>
+      </c>
       <c r="AW227" s="10"/>
       <c r="AX227" s="10"/>
       <c r="AY227" s="10"/>
@@ -51324,7 +51751,9 @@
       <c r="AU228" s="10">
         <v>9.4995607035914809E-2</v>
       </c>
-      <c r="AV228" s="10"/>
+      <c r="AV228" s="10">
+        <v>5.6437590108785907E-2</v>
+      </c>
       <c r="AW228" s="10"/>
       <c r="AX228" s="10"/>
       <c r="AY228" s="10"/>
@@ -51555,7 +51984,9 @@
       <c r="AU229" s="10">
         <v>2.8854152225149088E-2</v>
       </c>
-      <c r="AV229" s="10"/>
+      <c r="AV229" s="10">
+        <v>2.7710384028836854E-2</v>
+      </c>
       <c r="AW229" s="10"/>
       <c r="AX229" s="10"/>
       <c r="AY229" s="10"/>
@@ -51786,7 +52217,9 @@
       <c r="AU230" s="10">
         <v>0.10655398351153833</v>
       </c>
-      <c r="AV230" s="10"/>
+      <c r="AV230" s="10">
+        <v>9.9726174978677529E-2</v>
+      </c>
       <c r="AW230" s="10"/>
       <c r="AX230" s="10"/>
       <c r="AY230" s="10"/>
@@ -52017,7 +52450,9 @@
       <c r="AU231" s="10">
         <v>0.10485476637948676</v>
       </c>
-      <c r="AV231" s="10"/>
+      <c r="AV231" s="10">
+        <v>0.13204508856682784</v>
+      </c>
       <c r="AW231" s="10"/>
       <c r="AX231" s="10"/>
       <c r="AY231" s="10"/>
@@ -52248,7 +52683,9 @@
       <c r="AU232" s="10">
         <v>0.29835352125077041</v>
       </c>
-      <c r="AV232" s="10"/>
+      <c r="AV232" s="10">
+        <v>6.4941806742319752E-2</v>
+      </c>
       <c r="AW232" s="10"/>
       <c r="AX232" s="10"/>
       <c r="AY232" s="10"/>
@@ -52479,7 +52916,9 @@
       <c r="AU233" s="10">
         <v>0.18761774033227607</v>
       </c>
-      <c r="AV233" s="10"/>
+      <c r="AV233" s="10">
+        <v>0.28526777664242342</v>
+      </c>
       <c r="AW233" s="10"/>
       <c r="AX233" s="10"/>
       <c r="AY233" s="10"/>
@@ -52710,7 +53149,9 @@
       <c r="AU234" s="10">
         <v>7.5076523513588622E-2</v>
       </c>
-      <c r="AV234" s="10"/>
+      <c r="AV234" s="10">
+        <v>7.5895084147974412E-2</v>
+      </c>
       <c r="AW234" s="10"/>
       <c r="AX234" s="10"/>
       <c r="AY234" s="10"/>
@@ -52941,7 +53382,9 @@
       <c r="AU235" s="10">
         <v>7.9279635859885289E-2</v>
       </c>
-      <c r="AV235" s="10"/>
+      <c r="AV235" s="10">
+        <v>0.20559822424160323</v>
+      </c>
       <c r="AW235" s="10"/>
       <c r="AX235" s="10"/>
       <c r="AY235" s="10"/>
@@ -53172,7 +53615,9 @@
       <c r="AU236" s="10">
         <v>0.26780084243448443</v>
       </c>
-      <c r="AV236" s="10"/>
+      <c r="AV236" s="10">
+        <v>0.20032747805776618</v>
+      </c>
       <c r="AW236" s="10"/>
       <c r="AX236" s="10"/>
       <c r="AY236" s="10"/>
@@ -53403,7 +53848,9 @@
       <c r="AU237" s="10">
         <v>-1.4217800474514708E-2</v>
       </c>
-      <c r="AV237" s="10"/>
+      <c r="AV237" s="10">
+        <v>5.4577013679381725E-2</v>
+      </c>
       <c r="AW237" s="10"/>
       <c r="AX237" s="10"/>
       <c r="AY237" s="10"/>
@@ -53634,7 +54081,9 @@
       <c r="AU238" s="10">
         <v>2.3184755837854842E-2</v>
       </c>
-      <c r="AV238" s="10"/>
+      <c r="AV238" s="10">
+        <v>5.6525504854798569E-4</v>
+      </c>
       <c r="AW238" s="10"/>
       <c r="AX238" s="10"/>
       <c r="AY238" s="10"/>
@@ -53865,7 +54314,9 @@
       <c r="AU239" s="10">
         <v>0.14819030275438183</v>
       </c>
-      <c r="AV239" s="10"/>
+      <c r="AV239" s="10">
+        <v>0.15143946365189964</v>
+      </c>
       <c r="AW239" s="10"/>
       <c r="AX239" s="10"/>
       <c r="AY239" s="10"/>
@@ -54096,7 +54547,9 @@
       <c r="AU240" s="10">
         <v>-4.3474079061267545E-3</v>
       </c>
-      <c r="AV240" s="10"/>
+      <c r="AV240" s="10">
+        <v>4.6941542692359173E-2</v>
+      </c>
       <c r="AW240" s="10"/>
       <c r="AX240" s="10"/>
       <c r="AY240" s="10"/>
@@ -54327,7 +54780,9 @@
       <c r="AU241" s="10">
         <v>6.048833586697433E-2</v>
       </c>
-      <c r="AV241" s="10"/>
+      <c r="AV241" s="10">
+        <v>5.6940232351980535E-2</v>
+      </c>
       <c r="AW241" s="10"/>
       <c r="AX241" s="10"/>
       <c r="AY241" s="10"/>
@@ -54558,7 +55013,9 @@
       <c r="AU242" s="10">
         <v>2.8246117411304006E-2</v>
       </c>
-      <c r="AV242" s="10"/>
+      <c r="AV242" s="10">
+        <v>-4.6483355383130087E-3</v>
+      </c>
       <c r="AW242" s="10"/>
       <c r="AX242" s="10"/>
       <c r="AY242" s="10"/>
@@ -54789,7 +55246,9 @@
       <c r="AU243" s="10">
         <v>6.4130504749556394E-2</v>
       </c>
-      <c r="AV243" s="10"/>
+      <c r="AV243" s="10">
+        <v>6.4453178431712166E-2</v>
+      </c>
       <c r="AW243" s="10"/>
       <c r="AX243" s="10"/>
       <c r="AY243" s="10"/>
@@ -55020,7 +55479,9 @@
       <c r="AU244" s="10">
         <v>0.21111474694589871</v>
       </c>
-      <c r="AV244" s="10"/>
+      <c r="AV244" s="10">
+        <v>0.19892083068831057</v>
+      </c>
       <c r="AW244" s="10"/>
       <c r="AX244" s="10"/>
       <c r="AY244" s="10"/>
@@ -55251,7 +55712,9 @@
       <c r="AU245" s="10">
         <v>0.14063696020503813</v>
       </c>
-      <c r="AV245" s="10"/>
+      <c r="AV245" s="10">
+        <v>0.16646091593367962</v>
+      </c>
       <c r="AW245" s="10"/>
       <c r="AX245" s="10"/>
       <c r="AY245" s="10"/>
@@ -55482,7 +55945,9 @@
       <c r="AU246" s="10">
         <v>0.23256930580475599</v>
       </c>
-      <c r="AV246" s="10"/>
+      <c r="AV246" s="10">
+        <v>0.21009690632388689</v>
+      </c>
       <c r="AW246" s="10"/>
       <c r="AX246" s="10"/>
       <c r="AY246" s="10"/>
@@ -55713,7 +56178,9 @@
       <c r="AU247" s="10">
         <v>0.14479673316513653</v>
       </c>
-      <c r="AV247" s="10"/>
+      <c r="AV247" s="10">
+        <v>0.18477876716461639</v>
+      </c>
       <c r="AW247" s="10"/>
       <c r="AX247" s="10"/>
       <c r="AY247" s="10"/>
@@ -55944,7 +56411,9 @@
       <c r="AU248" s="10">
         <v>4.2439902905019089E-2</v>
       </c>
-      <c r="AV248" s="10"/>
+      <c r="AV248" s="10">
+        <v>3.2123879324451154E-2</v>
+      </c>
       <c r="AW248" s="10"/>
       <c r="AX248" s="10"/>
       <c r="AY248" s="10"/>
@@ -56175,7 +56644,9 @@
       <c r="AU249" s="10">
         <v>0.10380108378817243</v>
       </c>
-      <c r="AV249" s="10"/>
+      <c r="AV249" s="10">
+        <v>0.11360434992464463</v>
+      </c>
       <c r="AW249" s="10"/>
       <c r="AX249" s="10"/>
       <c r="AY249" s="10"/>
@@ -56406,7 +56877,9 @@
       <c r="AU250" s="10">
         <v>0.11859078177695648</v>
       </c>
-      <c r="AV250" s="10"/>
+      <c r="AV250" s="10">
+        <v>0.13288815004742993</v>
+      </c>
       <c r="AW250" s="10"/>
       <c r="AX250" s="10"/>
       <c r="AY250" s="10"/>
@@ -56637,7 +57110,9 @@
       <c r="AU251" s="10">
         <v>0.17998763645135996</v>
       </c>
-      <c r="AV251" s="10"/>
+      <c r="AV251" s="10">
+        <v>0.14589853618805582</v>
+      </c>
       <c r="AW251" s="10"/>
       <c r="AX251" s="10"/>
       <c r="AY251" s="10"/>
@@ -56868,7 +57343,9 @@
       <c r="AU252" s="10">
         <v>0.15207095577504326</v>
       </c>
-      <c r="AV252" s="10"/>
+      <c r="AV252" s="10">
+        <v>0.14251951849774236</v>
+      </c>
       <c r="AW252" s="10"/>
       <c r="AX252" s="10"/>
       <c r="AY252" s="10"/>
@@ -57099,7 +57576,9 @@
       <c r="AU253" s="10">
         <v>0.17240158228394731</v>
       </c>
-      <c r="AV253" s="10"/>
+      <c r="AV253" s="10">
+        <v>0.26900027474414445</v>
+      </c>
       <c r="AW253" s="10"/>
       <c r="AX253" s="10"/>
       <c r="AY253" s="10"/>
@@ -57330,7 +57809,9 @@
       <c r="AU254" s="10">
         <v>6.6927143579329718E-2</v>
       </c>
-      <c r="AV254" s="10"/>
+      <c r="AV254" s="10">
+        <v>0.12949627511742934</v>
+      </c>
       <c r="AW254" s="10"/>
       <c r="AX254" s="10"/>
       <c r="AY254" s="10"/>
@@ -57561,7 +58042,9 @@
       <c r="AU255" s="10">
         <v>0.17637144381675118</v>
       </c>
-      <c r="AV255" s="10"/>
+      <c r="AV255" s="10">
+        <v>7.5237145441473086E-2</v>
+      </c>
       <c r="AW255" s="10"/>
       <c r="AX255" s="10"/>
       <c r="AY255" s="10"/>
@@ -57792,7 +58275,9 @@
       <c r="AU256" s="10">
         <v>0.12009689574735338</v>
       </c>
-      <c r="AV256" s="10"/>
+      <c r="AV256" s="10">
+        <v>0.16626532600503663</v>
+      </c>
       <c r="AW256" s="10"/>
       <c r="AX256" s="10"/>
       <c r="AY256" s="10"/>
@@ -58023,7 +58508,9 @@
       <c r="AU257" s="10">
         <v>5.1516490801613246E-2</v>
       </c>
-      <c r="AV257" s="10"/>
+      <c r="AV257" s="10">
+        <v>6.1672467451153734E-2</v>
+      </c>
       <c r="AW257" s="10"/>
       <c r="AX257" s="10"/>
       <c r="AY257" s="10"/>
@@ -58254,7 +58741,9 @@
       <c r="AU258" s="10">
         <v>4.8936937639523892E-2</v>
       </c>
-      <c r="AV258" s="10"/>
+      <c r="AV258" s="10">
+        <v>2.2181901088670575E-2</v>
+      </c>
       <c r="AW258" s="10"/>
       <c r="AX258" s="10"/>
       <c r="AY258" s="10"/>
@@ -58485,7 +58974,9 @@
       <c r="AU259" s="10">
         <v>-9.5493125913877042E-2</v>
       </c>
-      <c r="AV259" s="10"/>
+      <c r="AV259" s="10">
+        <v>-8.9691086069990544E-2</v>
+      </c>
       <c r="AW259" s="10"/>
       <c r="AX259" s="10"/>
       <c r="AY259" s="10"/>
@@ -58716,7 +59207,9 @@
       <c r="AU260" s="10">
         <v>6.9045143918607943E-2</v>
       </c>
-      <c r="AV260" s="10"/>
+      <c r="AV260" s="10">
+        <v>0.1089452695269526</v>
+      </c>
       <c r="AW260" s="10"/>
       <c r="AX260" s="10"/>
       <c r="AY260" s="10"/>
@@ -58947,7 +59440,9 @@
       <c r="AU261" s="10">
         <v>0.27225692757814346</v>
       </c>
-      <c r="AV261" s="10"/>
+      <c r="AV261" s="10">
+        <v>0.13332856588276165</v>
+      </c>
       <c r="AW261" s="10"/>
       <c r="AX261" s="10"/>
       <c r="AY261" s="10"/>
@@ -59178,7 +59673,9 @@
       <c r="AU262" s="10">
         <v>0.13095248028703743</v>
       </c>
-      <c r="AV262" s="10"/>
+      <c r="AV262" s="10">
+        <v>7.9425408968828659E-2</v>
+      </c>
       <c r="AW262" s="10"/>
       <c r="AX262" s="10"/>
       <c r="AY262" s="10"/>
@@ -59409,7 +59906,9 @@
       <c r="AU263" s="10">
         <v>0.11021811992208752</v>
       </c>
-      <c r="AV263" s="10"/>
+      <c r="AV263" s="10">
+        <v>0.10760671114226117</v>
+      </c>
       <c r="AW263" s="10"/>
       <c r="AX263" s="10"/>
       <c r="AY263" s="10"/>
@@ -59640,7 +60139,9 @@
       <c r="AU264" s="10">
         <v>0.14441272642341829</v>
       </c>
-      <c r="AV264" s="10"/>
+      <c r="AV264" s="10">
+        <v>0.11017061235286341</v>
+      </c>
       <c r="AW264" s="10"/>
       <c r="AX264" s="10"/>
       <c r="AY264" s="10"/>
@@ -59871,7 +60372,9 @@
       <c r="AU265" s="10">
         <v>4.2870214216512936E-2</v>
       </c>
-      <c r="AV265" s="10"/>
+      <c r="AV265" s="10">
+        <v>0.12497207652372833</v>
+      </c>
       <c r="AW265" s="10"/>
       <c r="AX265" s="10"/>
       <c r="AY265" s="10"/>
@@ -60102,7 +60605,9 @@
       <c r="AU266" s="10">
         <v>7.7168111117488447E-2</v>
       </c>
-      <c r="AV266" s="10"/>
+      <c r="AV266" s="10">
+        <v>0.11609544468546651</v>
+      </c>
       <c r="AW266" s="10"/>
       <c r="AX266" s="10"/>
       <c r="AY266" s="10"/>
@@ -60333,7 +60838,9 @@
       <c r="AU267" s="10">
         <v>5.0884862307822409E-2</v>
       </c>
-      <c r="AV267" s="10"/>
+      <c r="AV267" s="10">
+        <v>8.1231438040717752E-2</v>
+      </c>
       <c r="AW267" s="10"/>
       <c r="AX267" s="10"/>
       <c r="AY267" s="10"/>
@@ -60564,7 +61071,9 @@
       <c r="AU268" s="10">
         <v>0.18204307601758352</v>
       </c>
-      <c r="AV268" s="10"/>
+      <c r="AV268" s="10">
+        <v>0.12438286079727123</v>
+      </c>
       <c r="AW268" s="10"/>
       <c r="AX268" s="10"/>
       <c r="AY268" s="10"/>
@@ -60795,7 +61304,9 @@
       <c r="AU269" s="10">
         <v>-2.1921965428107426E-2</v>
       </c>
-      <c r="AV269" s="10"/>
+      <c r="AV269" s="10">
+        <v>3.4253455324119164E-2</v>
+      </c>
       <c r="AW269" s="10"/>
       <c r="AX269" s="10"/>
       <c r="AY269" s="10"/>
@@ -61026,7 +61537,9 @@
       <c r="AU270" s="10">
         <v>6.7361391551016059E-2</v>
       </c>
-      <c r="AV270" s="10"/>
+      <c r="AV270" s="10">
+        <v>3.8614390516445551E-2</v>
+      </c>
       <c r="AW270" s="10"/>
       <c r="AX270" s="10"/>
       <c r="AY270" s="10"/>
@@ -61257,7 +61770,9 @@
       <c r="AU271" s="10">
         <v>5.9270676763711894E-2</v>
       </c>
-      <c r="AV271" s="10"/>
+      <c r="AV271" s="10">
+        <v>7.2861137179400348E-2</v>
+      </c>
       <c r="AW271" s="10"/>
       <c r="AX271" s="10"/>
       <c r="AY271" s="10"/>
@@ -61488,7 +62003,9 @@
       <c r="AU272" s="10">
         <v>5.8415550533722715E-2</v>
       </c>
-      <c r="AV272" s="10"/>
+      <c r="AV272" s="10">
+        <v>0.11609689834729453</v>
+      </c>
       <c r="AW272" s="10"/>
       <c r="AX272" s="10"/>
       <c r="AY272" s="10"/>
@@ -61719,7 +62236,9 @@
       <c r="AU273" s="10">
         <v>8.7153288483128977E-2</v>
       </c>
-      <c r="AV273" s="10"/>
+      <c r="AV273" s="10">
+        <v>2.6707637992187117E-2</v>
+      </c>
       <c r="AW273" s="10"/>
       <c r="AX273" s="10"/>
       <c r="AY273" s="10"/>
@@ -61950,7 +62469,9 @@
       <c r="AU274" s="10">
         <v>6.7931920240977162E-2</v>
       </c>
-      <c r="AV274" s="10"/>
+      <c r="AV274" s="10">
+        <v>7.4298227782602977E-2</v>
+      </c>
       <c r="AW274" s="10"/>
       <c r="AX274" s="10"/>
       <c r="AY274" s="10"/>
@@ -62181,7 +62702,9 @@
       <c r="AU275" s="10">
         <v>5.2721770518102673E-2</v>
       </c>
-      <c r="AV275" s="10"/>
+      <c r="AV275" s="10">
+        <v>7.3941736245305645E-2</v>
+      </c>
       <c r="AW275" s="10"/>
       <c r="AX275" s="10"/>
       <c r="AY275" s="10"/>
@@ -62412,7 +62935,9 @@
       <c r="AU276" s="10">
         <v>5.4695240050339544E-2</v>
       </c>
-      <c r="AV276" s="10"/>
+      <c r="AV276" s="10">
+        <v>7.27898618580054E-2</v>
+      </c>
       <c r="AW276" s="10"/>
       <c r="AX276" s="10"/>
       <c r="AY276" s="10"/>
@@ -62643,7 +63168,9 @@
       <c r="AU277" s="10">
         <v>4.5706488575496751E-2</v>
       </c>
-      <c r="AV277" s="10"/>
+      <c r="AV277" s="10">
+        <v>7.4140619703030541E-2</v>
+      </c>
       <c r="AW277" s="10"/>
       <c r="AX277" s="10"/>
       <c r="AY277" s="10"/>
@@ -62874,7 +63401,9 @@
       <c r="AU278" s="10">
         <v>8.2054839599064344E-2</v>
       </c>
-      <c r="AV278" s="10"/>
+      <c r="AV278" s="10">
+        <v>9.2967617421311433E-2</v>
+      </c>
       <c r="AW278" s="10"/>
       <c r="AX278" s="10"/>
       <c r="AY278" s="10"/>
@@ -63105,7 +63634,9 @@
       <c r="AU279" s="10">
         <v>6.6336164159158439E-2</v>
       </c>
-      <c r="AV279" s="10"/>
+      <c r="AV279" s="10">
+        <v>8.2355477001336386E-2</v>
+      </c>
       <c r="AW279" s="10"/>
       <c r="AX279" s="10"/>
       <c r="AY279" s="10"/>
@@ -63336,7 +63867,9 @@
       <c r="AU280" s="10">
         <v>5.8693116558190095E-2</v>
       </c>
-      <c r="AV280" s="10"/>
+      <c r="AV280" s="10">
+        <v>8.6552758807974195E-2</v>
+      </c>
       <c r="AW280" s="10"/>
       <c r="AX280" s="10"/>
       <c r="AY280" s="10"/>
@@ -63567,7 +64100,9 @@
       <c r="AU281" s="10">
         <v>5.1424681190223254E-2</v>
       </c>
-      <c r="AV281" s="10"/>
+      <c r="AV281" s="10">
+        <v>4.4701659641728231E-2</v>
+      </c>
       <c r="AW281" s="10"/>
       <c r="AX281" s="10"/>
       <c r="AY281" s="10"/>
@@ -63798,7 +64333,9 @@
       <c r="AU282" s="10">
         <v>3.1235296545462088E-2</v>
       </c>
-      <c r="AV282" s="10"/>
+      <c r="AV282" s="10">
+        <v>2.5192521935709422E-2</v>
+      </c>
       <c r="AW282" s="10"/>
       <c r="AX282" s="10"/>
       <c r="AY282" s="10"/>
@@ -64029,7 +64566,9 @@
       <c r="AU283" s="10">
         <v>2.6553088355847132E-2</v>
       </c>
-      <c r="AV283" s="10"/>
+      <c r="AV283" s="10">
+        <v>-5.0119021856741552E-3</v>
+      </c>
       <c r="AW283" s="10"/>
       <c r="AX283" s="10"/>
       <c r="AY283" s="10"/>
@@ -64260,7 +64799,9 @@
       <c r="AU284" s="10">
         <v>0.20334771991595191</v>
       </c>
-      <c r="AV284" s="10"/>
+      <c r="AV284" s="10">
+        <v>0.14711788369453505</v>
+      </c>
       <c r="AW284" s="10"/>
       <c r="AX284" s="10"/>
       <c r="AY284" s="10"/>
@@ -64491,7 +65032,9 @@
       <c r="AU285" s="10">
         <v>6.4693040839145954E-2</v>
       </c>
-      <c r="AV285" s="10"/>
+      <c r="AV285" s="10">
+        <v>5.5884835906996333E-2</v>
+      </c>
       <c r="AW285" s="10"/>
       <c r="AX285" s="10"/>
       <c r="AY285" s="10"/>
@@ -64722,7 +65265,9 @@
       <c r="AU286" s="10">
         <v>5.3896517231972307E-2</v>
       </c>
-      <c r="AV286" s="10"/>
+      <c r="AV286" s="10">
+        <v>4.5953830086073344E-2</v>
+      </c>
       <c r="AW286" s="10"/>
       <c r="AX286" s="10"/>
       <c r="AY286" s="10"/>
@@ -64953,7 +65498,9 @@
       <c r="AU287" s="10">
         <v>4.2779644606447231E-2</v>
       </c>
-      <c r="AV287" s="10"/>
+      <c r="AV287" s="10">
+        <v>7.3926500409121854E-2</v>
+      </c>
       <c r="AW287" s="10"/>
       <c r="AX287" s="10"/>
       <c r="AY287" s="10"/>
@@ -65184,7 +65731,9 @@
       <c r="AU288" s="10">
         <v>9.0903229965830556E-2</v>
       </c>
-      <c r="AV288" s="10"/>
+      <c r="AV288" s="10">
+        <v>0.101536179815505</v>
+      </c>
       <c r="AW288" s="10"/>
       <c r="AX288" s="10"/>
       <c r="AY288" s="10"/>
@@ -65415,7 +65964,9 @@
       <c r="AU289" s="10">
         <v>5.6427838493737559E-2</v>
       </c>
-      <c r="AV289" s="10"/>
+      <c r="AV289" s="10">
+        <v>6.9505832173410553E-2</v>
+      </c>
       <c r="AW289" s="10"/>
       <c r="AX289" s="10"/>
       <c r="AY289" s="10"/>
@@ -65646,7 +66197,9 @@
       <c r="AU290" s="10">
         <v>1.6891591543544138E-4</v>
       </c>
-      <c r="AV290" s="10"/>
+      <c r="AV290" s="10">
+        <v>2.2899202617051806E-2</v>
+      </c>
       <c r="AW290" s="10"/>
       <c r="AX290" s="10"/>
       <c r="AY290" s="10"/>
@@ -65877,7 +66430,9 @@
       <c r="AU291" s="10">
         <v>4.2178763524230778E-2</v>
       </c>
-      <c r="AV291" s="10"/>
+      <c r="AV291" s="10">
+        <v>5.8678103373414947E-2</v>
+      </c>
       <c r="AW291" s="10"/>
       <c r="AX291" s="10"/>
       <c r="AY291" s="10"/>
@@ -66108,7 +66663,9 @@
       <c r="AU292" s="10">
         <v>8.7581722227570769E-2</v>
       </c>
-      <c r="AV292" s="10"/>
+      <c r="AV292" s="10">
+        <v>0.13922754443851248</v>
+      </c>
       <c r="AW292" s="10"/>
       <c r="AX292" s="10"/>
       <c r="AY292" s="10"/>
@@ -66339,7 +66896,9 @@
       <c r="AU293" s="10">
         <v>0.1550210634607152</v>
       </c>
-      <c r="AV293" s="10"/>
+      <c r="AV293" s="10">
+        <v>0.13808172740336788</v>
+      </c>
       <c r="AW293" s="10"/>
       <c r="AX293" s="10"/>
       <c r="AY293" s="10"/>
@@ -66570,7 +67129,9 @@
       <c r="AU294" s="10">
         <v>0.13059338521400776</v>
       </c>
-      <c r="AV294" s="10"/>
+      <c r="AV294" s="10">
+        <v>8.0883492637561449E-2</v>
+      </c>
       <c r="AW294" s="10"/>
       <c r="AX294" s="10"/>
       <c r="AY294" s="10"/>
@@ -66801,7 +67362,9 @@
       <c r="AU295" s="10">
         <v>0.13363866920278977</v>
       </c>
-      <c r="AV295" s="10"/>
+      <c r="AV295" s="10">
+        <v>0.11779911977879931</v>
+      </c>
       <c r="AW295" s="10"/>
       <c r="AX295" s="10"/>
       <c r="AY295" s="10"/>
@@ -67032,7 +67595,9 @@
       <c r="AU296" s="10">
         <v>3.1418794717344101E-2</v>
       </c>
-      <c r="AV296" s="10"/>
+      <c r="AV296" s="10">
+        <v>3.1418794717344101E-2</v>
+      </c>
       <c r="AW296" s="10"/>
       <c r="AX296" s="10"/>
       <c r="AY296" s="10"/>
@@ -67263,7 +67828,9 @@
       <c r="AU297" s="10">
         <v>0.11060895242896751</v>
       </c>
-      <c r="AV297" s="10"/>
+      <c r="AV297" s="10">
+        <v>0.11999205589759332</v>
+      </c>
       <c r="AW297" s="10"/>
       <c r="AX297" s="10"/>
       <c r="AY297" s="10"/>
@@ -67494,7 +68061,9 @@
       <c r="AU298" s="10">
         <v>-5.5493589827706136E-2</v>
       </c>
-      <c r="AV298" s="10"/>
+      <c r="AV298" s="10">
+        <v>-4.6861761968916227E-2</v>
+      </c>
       <c r="AW298" s="10"/>
       <c r="AX298" s="10"/>
       <c r="AY298" s="10"/>
@@ -67725,7 +68294,9 @@
       <c r="AU299" s="10">
         <v>3.131575882284432E-2</v>
       </c>
-      <c r="AV299" s="10"/>
+      <c r="AV299" s="10">
+        <v>3.131575882284432E-2</v>
+      </c>
       <c r="AW299" s="10"/>
       <c r="AX299" s="10"/>
       <c r="AY299" s="10"/>
@@ -67956,7 +68527,9 @@
       <c r="AU300" s="10">
         <v>0</v>
       </c>
-      <c r="AV300" s="10"/>
+      <c r="AV300" s="10">
+        <v>0</v>
+      </c>
       <c r="AW300" s="10"/>
       <c r="AX300" s="10"/>
       <c r="AY300" s="10"/>
@@ -68187,7 +68760,9 @@
       <c r="AU301" s="10">
         <v>0</v>
       </c>
-      <c r="AV301" s="10"/>
+      <c r="AV301" s="10">
+        <v>0</v>
+      </c>
       <c r="AW301" s="10"/>
       <c r="AX301" s="10"/>
       <c r="AY301" s="10"/>
@@ -68418,7 +68993,9 @@
       <c r="AU302" s="10">
         <v>8.6716987286945324E-2</v>
       </c>
-      <c r="AV302" s="10"/>
+      <c r="AV302" s="10">
+        <v>8.541276349253768E-2</v>
+      </c>
       <c r="AW302" s="10"/>
       <c r="AX302" s="10"/>
       <c r="AY302" s="10"/>
@@ -68649,7 +69226,9 @@
       <c r="AU303" s="10">
         <v>3.6679110943087068E-2</v>
       </c>
-      <c r="AV303" s="10"/>
+      <c r="AV303" s="10">
+        <v>3.6679110943087068E-2</v>
+      </c>
       <c r="AW303" s="10"/>
       <c r="AX303" s="10"/>
       <c r="AY303" s="10"/>
@@ -68880,7 +69459,9 @@
       <c r="AU304" s="10">
         <v>2.4002686122908345E-2</v>
       </c>
-      <c r="AV304" s="10"/>
+      <c r="AV304" s="10">
+        <v>2.7381750330609966E-2</v>
+      </c>
       <c r="AW304" s="10"/>
       <c r="AX304" s="10"/>
       <c r="AY304" s="10"/>
@@ -69111,7 +69692,9 @@
       <c r="AU305" s="10">
         <v>7.595735439936413E-2</v>
       </c>
-      <c r="AV305" s="10"/>
+      <c r="AV305" s="10">
+        <v>7.8677873294860312E-2</v>
+      </c>
       <c r="AW305" s="10"/>
       <c r="AX305" s="10"/>
       <c r="AY305" s="10"/>
@@ -69342,7 +69925,9 @@
       <c r="AU306" s="10">
         <v>0.14731531753233784</v>
       </c>
-      <c r="AV306" s="10"/>
+      <c r="AV306" s="10">
+        <v>0.14212103605394333</v>
+      </c>
       <c r="AW306" s="10"/>
       <c r="AX306" s="10"/>
       <c r="AY306" s="10"/>
@@ -69573,7 +70158,9 @@
       <c r="AU307" s="10">
         <v>2.3448665082789422E-2</v>
       </c>
-      <c r="AV307" s="10"/>
+      <c r="AV307" s="10">
+        <v>2.6998291592454038E-2</v>
+      </c>
       <c r="AW307" s="10"/>
       <c r="AX307" s="10"/>
       <c r="AY307" s="10"/>
@@ -69804,7 +70391,9 @@
       <c r="AU308" s="10">
         <v>7.2706886886023669E-2</v>
       </c>
-      <c r="AV308" s="10"/>
+      <c r="AV308" s="10">
+        <v>5.8844265607401081E-2</v>
+      </c>
       <c r="AW308" s="10"/>
       <c r="AX308" s="10"/>
       <c r="AY308" s="10"/>
@@ -70035,7 +70624,9 @@
       <c r="AU309" s="10">
         <v>-9.6330655868295256E-2</v>
       </c>
-      <c r="AV309" s="10"/>
+      <c r="AV309" s="10">
+        <v>-0.11507417102966844</v>
+      </c>
       <c r="AW309" s="10"/>
       <c r="AX309" s="10"/>
       <c r="AY309" s="10"/>
@@ -70266,7 +70857,9 @@
       <c r="AU310" s="10">
         <v>-6.598421312284164E-2</v>
       </c>
-      <c r="AV310" s="10"/>
+      <c r="AV310" s="10">
+        <v>-2.7379370563000771E-2</v>
+      </c>
       <c r="AW310" s="10"/>
       <c r="AX310" s="10"/>
       <c r="AY310" s="10"/>
@@ -70497,7 +71090,9 @@
       <c r="AU311" s="10">
         <v>-9.8971891618131136E-2</v>
       </c>
-      <c r="AV311" s="10"/>
+      <c r="AV311" s="10">
+        <v>-9.9117894289099784E-2</v>
+      </c>
       <c r="AW311" s="10"/>
       <c r="AX311" s="10"/>
       <c r="AY311" s="10"/>
@@ -70728,7 +71323,9 @@
       <c r="AU312" s="10">
         <v>0</v>
       </c>
-      <c r="AV312" s="10"/>
+      <c r="AV312" s="10">
+        <v>0</v>
+      </c>
       <c r="AW312" s="10"/>
       <c r="AX312" s="10"/>
       <c r="AY312" s="10"/>
@@ -70959,7 +71556,9 @@
       <c r="AU313" s="10">
         <v>0.14601392822402226</v>
       </c>
-      <c r="AV313" s="10"/>
+      <c r="AV313" s="10">
+        <v>0.17288826931020251</v>
+      </c>
       <c r="AW313" s="10"/>
       <c r="AX313" s="10"/>
       <c r="AY313" s="10"/>
@@ -71190,7 +71789,9 @@
       <c r="AU314" s="11">
         <v>9.476117760469549E-2</v>
       </c>
-      <c r="AV314" s="11"/>
+      <c r="AV314" s="11">
+        <v>8.8436905834083701E-2</v>
+      </c>
       <c r="AW314" s="11"/>
       <c r="AX314" s="11"/>
       <c r="AY314" s="11"/>
